--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,6 +1033,546 @@
       <c r="K13" t="inlineStr">
         <is>
           <t>02/06/2024 05:57:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SHRIRAMFIN.NS</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1901</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>45226</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2029.699951171875</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>45246</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2051</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AWL.NS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>45266</v>
+      </c>
+      <c r="E15" t="n">
+        <v>410.5</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="G15" t="n">
+        <v>366.7000122070312</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="I15" t="n">
+        <v>361.2999877929688</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SJVN.NS</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="E16" t="n">
+        <v>63.40000152587891</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="G16" t="n">
+        <v>88.84999847412109</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>45335</v>
+      </c>
+      <c r="I16" t="n">
+        <v>100.6500015258789</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MGL.NS</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>45056</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1103</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>45119</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1134</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>45140</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1144</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MOL.NS</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>45068</v>
+      </c>
+      <c r="E18" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="G18" t="n">
+        <v>80.30000305175781</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>45134</v>
+      </c>
+      <c r="I18" t="n">
+        <v>80.30000305175781</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SANGHVIMOV.NS</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>45013</v>
+      </c>
+      <c r="E19" t="n">
+        <v>305.1000061035156</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>45182</v>
+      </c>
+      <c r="G19" t="n">
+        <v>612.7000122070312</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>45202</v>
+      </c>
+      <c r="I19" t="n">
+        <v>650</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>WEBELSOLAR.NS</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>44342</v>
+      </c>
+      <c r="E20" t="n">
+        <v>58.04999923706055</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>44383</v>
+      </c>
+      <c r="G20" t="n">
+        <v>78.40000152587891</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>44384</v>
+      </c>
+      <c r="I20" t="n">
+        <v>78.40000152587891</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>NMDC.NS</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>45146</v>
+      </c>
+      <c r="E21" t="n">
+        <v>110.9000015258789</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>45208</v>
+      </c>
+      <c r="G21" t="n">
+        <v>140.6499938964844</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="I21" t="n">
+        <v>149.1999969482422</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>RTNINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>45013</v>
+      </c>
+      <c r="E22" t="n">
+        <v>32.15000152587891</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>45068</v>
+      </c>
+      <c r="G22" t="n">
+        <v>37.15000152587891</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>45069</v>
+      </c>
+      <c r="I22" t="n">
+        <v>37.15000152587891</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>44210</v>
+      </c>
+      <c r="E23" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>44218</v>
+      </c>
+      <c r="G23" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>44224</v>
+      </c>
+      <c r="I23" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>44210</v>
+      </c>
+      <c r="E24" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>44221</v>
+      </c>
+      <c r="G24" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>44224</v>
+      </c>
+      <c r="I24" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>DHANBANK.NS</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="E25" t="n">
+        <v>59</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="G25" t="n">
+        <v>49.40000152587891</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="I25" t="n">
+        <v>49.40000152587891</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1587,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1649,6 +2189,375 @@
       <c r="K13" t="inlineStr">
         <is>
           <t>02/06/2024 05:57:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>LT.NS</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>45321</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3737.89990234375</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3705.14990234375</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>DABUR.NS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>45141</v>
+      </c>
+      <c r="E15" t="n">
+        <v>545.6500244140625</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>45167</v>
+      </c>
+      <c r="G15" t="n">
+        <v>546.0999755859375</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>DLF.NS</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="E16" t="n">
+        <v>805.2999877929688</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="G16" t="n">
+        <v>810.5999755859375</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>DALMIASUG.NS</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>44810</v>
+      </c>
+      <c r="E17" t="n">
+        <v>369.0499877929688</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>44882</v>
+      </c>
+      <c r="G17" t="n">
+        <v>368.9500122070312</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TATAELXSI.NS</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7000</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="G18" t="n">
+        <v>7006</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SIS.NS</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="E19" t="n">
+        <v>402.3999938964844</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="G19" t="n">
+        <v>404.7000122070312</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MOL.NS</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>45068</v>
+      </c>
+      <c r="E20" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="G20" t="n">
+        <v>80.30000305175781</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MOL.NS</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>45068</v>
+      </c>
+      <c r="E21" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>45134</v>
+      </c>
+      <c r="G21" t="n">
+        <v>80.30000305175781</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MOL.NS</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="E22" t="n">
+        <v>80.30000305175781</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>45134</v>
+      </c>
+      <c r="G22" t="n">
+        <v>80.30000305175781</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
         </is>
       </c>
     </row>
@@ -1663,7 +2572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:U147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1727,6 +2636,56 @@
           <t>Date Time</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Datetime</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>isPivot</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>PHorPLValue</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>time_frame</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>TdyDate</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>TdyClose</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>PClose</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1772,6 +2731,16 @@
           <t>02/06/2024 05:57:52</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1817,6 +2786,16 @@
           <t>02/06/2024 05:57:52</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1862,6 +2841,16 @@
           <t>02/06/2024 05:57:52</t>
         </is>
       </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1907,6 +2896,16 @@
           <t>02/06/2024 05:57:52</t>
         </is>
       </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1952,6 +2951,16 @@
           <t>02/06/2024 05:57:52</t>
         </is>
       </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1997,6 +3006,16 @@
           <t>02/06/2024 05:57:52</t>
         </is>
       </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2042,6 +3061,16 @@
           <t>02/06/2024 05:57:52</t>
         </is>
       </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2087,6 +3116,16 @@
           <t>02/06/2024 05:57:52</t>
         </is>
       </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2132,6 +3171,16 @@
           <t>02/06/2024 05:57:52</t>
         </is>
       </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2177,6 +3226,16 @@
           <t>02/06/2024 05:57:52</t>
         </is>
       </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2222,6 +3281,16 @@
           <t>02/06/2024 05:57:52</t>
         </is>
       </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2266,6 +3335,7654 @@
         <is>
           <t>02/06/2024 05:57:52</t>
         </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NIFTY_FIN_SERVICE.NS</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="M14" t="n">
+        <v>21758.349609375</v>
+      </c>
+      <c r="N14" t="n">
+        <v>21625.150390625</v>
+      </c>
+      <c r="O14" t="n">
+        <v>21682.19921875</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>21758.349609375</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>21786.80078125</v>
+      </c>
+      <c r="U14" t="n">
+        <v>21740.44921875</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>^NSEBANK</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="n">
+        <v>45392</v>
+      </c>
+      <c r="M15" t="n">
+        <v>49057.3984375</v>
+      </c>
+      <c r="N15" t="n">
+        <v>48669.25</v>
+      </c>
+      <c r="O15" t="n">
+        <v>48986.6015625</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>49057.3984375</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>49122.55078125</v>
+      </c>
+      <c r="U15" t="n">
+        <v>49044.6015625</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ADANIPORTS.NS</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1424.949951171875</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1388.199951171875</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1404.150024414062</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>1424.949951171875</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>1451</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1413.650024414062</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ADANIENT.NS</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3350</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3310.050048828125</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3317.14990234375</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>3350</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>3434.449951171875</v>
+      </c>
+      <c r="U17" t="n">
+        <v>3274.300048828125</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ADANIENT.NS</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3291.800048828125</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3207.85009765625</v>
+      </c>
+      <c r="O18" t="n">
+        <v>3252.10009765625</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>3291.800048828125</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>3434.449951171875</v>
+      </c>
+      <c r="U18" t="n">
+        <v>3274.300048828125</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TITAN.NS</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3332</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3227</v>
+      </c>
+      <c r="O19" t="n">
+        <v>3270.89990234375</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>3227</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>3216.75</v>
+      </c>
+      <c r="U19" t="n">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>LT.NS</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="n">
+        <v>45321</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3737.89990234375</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3624.89990234375</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3633.300048828125</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>3737.89990234375</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>3744.800048828125</v>
+      </c>
+      <c r="U20" t="n">
+        <v>3643.949951171875</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>LT.NS</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3705.14990234375</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3643.25</v>
+      </c>
+      <c r="O21" t="n">
+        <v>3676.949951171875</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>3705.14990234375</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>3744.800048828125</v>
+      </c>
+      <c r="U21" t="n">
+        <v>3643.949951171875</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>KOTAKBANK.NS</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1702.25</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1667.400024414062</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1689.449951171875</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>1667.400024414062</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>1660.550048828125</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ADANIENSOL.NS</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1128.849975585938</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1090</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1098.349975585938</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>1128.849975585938</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>1150.099975585938</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1107.150024414062</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>LICI.NS</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1016.349975585938</v>
+      </c>
+      <c r="N24" t="n">
+        <v>991.9500122070312</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1006.549987792969</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>1016.349975585938</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>1018</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AWL.NS</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="M25" t="n">
+        <v>361.2999877929688</v>
+      </c>
+      <c r="N25" t="n">
+        <v>350.7000122070312</v>
+      </c>
+      <c r="O25" t="n">
+        <v>351.4500122070312</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>361.2999877929688</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>361.5499877929688</v>
+      </c>
+      <c r="U25" t="n">
+        <v>352.7000122070312</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ATGL.NS</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="M26" t="n">
+        <v>969.8499755859375</v>
+      </c>
+      <c r="N26" t="n">
+        <v>925</v>
+      </c>
+      <c r="O26" t="n">
+        <v>932.1500244140625</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>969.8499755859375</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T26" t="n">
+        <v>1060</v>
+      </c>
+      <c r="U26" t="n">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ADANIGREEN.NS</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="n">
+        <v>45329</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1990</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1746</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1866</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>1990</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T27" t="n">
+        <v>1993.900024414062</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1894.300048828125</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ADANIGREEN.NS</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1974.949951171875</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1904.400024414062</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1919.099975585938</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1974.949951171875</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T28" t="n">
+        <v>1993.900024414062</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1894.300048828125</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>VBL.NS</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1496.199951171875</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1405.099975585938</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1477.300048828125</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1405.099975585938</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T29" t="n">
+        <v>1390.25</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1430.300048828125</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>DHAMPURSUG.NS</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="M30" t="n">
+        <v>223.3999938964844</v>
+      </c>
+      <c r="N30" t="n">
+        <v>216.6000061035156</v>
+      </c>
+      <c r="O30" t="n">
+        <v>222.6499938964844</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>216.6000061035156</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T30" t="n">
+        <v>216.0500030517578</v>
+      </c>
+      <c r="U30" t="n">
+        <v>217.1499938964844</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>SRF.NS</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="n">
+        <v>45321</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2263.25</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2210</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2222.35009765625</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>2210</v>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T31" t="n">
+        <v>2182.449951171875</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2214.050048828125</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>SRF.NS</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2299</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2207.39990234375</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2286.75</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>2207.39990234375</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T32" t="n">
+        <v>2182.449951171875</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2214.050048828125</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>BAJAJHIND.NS</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="M33" t="n">
+        <v>32.40000152587891</v>
+      </c>
+      <c r="N33" t="n">
+        <v>30.64999961853027</v>
+      </c>
+      <c r="O33" t="n">
+        <v>31.95000076293945</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>30.64999961853027</v>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T33" t="n">
+        <v>30.20000076293945</v>
+      </c>
+      <c r="U33" t="n">
+        <v>30.64999961853027</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>BAJAJHIND.NS</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="M34" t="n">
+        <v>32.25</v>
+      </c>
+      <c r="N34" t="n">
+        <v>30.64999961853027</v>
+      </c>
+      <c r="O34" t="n">
+        <v>31.45000076293945</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>30.64999961853027</v>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T34" t="n">
+        <v>30.20000076293945</v>
+      </c>
+      <c r="U34" t="n">
+        <v>30.64999961853027</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>BANARISUG.NS</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="n">
+        <v>45329</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2476</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2345</v>
+      </c>
+      <c r="O35" t="n">
+        <v>2358.39990234375</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>2345</v>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T35" t="n">
+        <v>2299.050048828125</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2405.5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>TATAMTRDVR.NS</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="M36" t="n">
+        <v>639.2999877929688</v>
+      </c>
+      <c r="N36" t="n">
+        <v>623</v>
+      </c>
+      <c r="O36" t="n">
+        <v>637.25</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>623</v>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T36" t="n">
+        <v>615.8499755859375</v>
+      </c>
+      <c r="U36" t="n">
+        <v>628.7000122070312</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>SJVN.NS</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="M37" t="n">
+        <v>137.5</v>
+      </c>
+      <c r="N37" t="n">
+        <v>128.6999969482422</v>
+      </c>
+      <c r="O37" t="n">
+        <v>135.3999938964844</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>137.5</v>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T37" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="U37" t="n">
+        <v>136.6000061035156</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>SJVN.NS</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="M38" t="n">
+        <v>141.3000030517578</v>
+      </c>
+      <c r="N38" t="n">
+        <v>135.3999938964844</v>
+      </c>
+      <c r="O38" t="n">
+        <v>137.1000061035156</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>141.3000030517578</v>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T38" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="U38" t="n">
+        <v>136.6000061035156</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>RAMCOCEM.NS</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="M39" t="n">
+        <v>762.5499877929688</v>
+      </c>
+      <c r="N39" t="n">
+        <v>742.75</v>
+      </c>
+      <c r="O39" t="n">
+        <v>760.2000122070312</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>742.75</v>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T39" t="n">
+        <v>738.1500244140625</v>
+      </c>
+      <c r="U39" t="n">
+        <v>748.25</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>TATAELXSI.NS</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="M40" t="n">
+        <v>7247.2998046875</v>
+      </c>
+      <c r="N40" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O40" t="n">
+        <v>7030.14990234375</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>7000</v>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T40" t="n">
+        <v>6903</v>
+      </c>
+      <c r="U40" t="n">
+        <v>7165.85009765625</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>TATAELXSI.NS</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="M41" t="n">
+        <v>7120</v>
+      </c>
+      <c r="N41" t="n">
+        <v>7006</v>
+      </c>
+      <c r="O41" t="n">
+        <v>7069</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>7006</v>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T41" t="n">
+        <v>6903</v>
+      </c>
+      <c r="U41" t="n">
+        <v>7165.85009765625</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>PRAJIND.NS</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="M42" t="n">
+        <v>532.9000244140625</v>
+      </c>
+      <c r="N42" t="n">
+        <v>512</v>
+      </c>
+      <c r="O42" t="n">
+        <v>516.0499877929688</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>532.9000244140625</v>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>538.7999877929688</v>
+      </c>
+      <c r="U42" t="n">
+        <v>515.0499877929688</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>NLCINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="M43" t="n">
+        <v>232.3999938964844</v>
+      </c>
+      <c r="N43" t="n">
+        <v>217.3000030517578</v>
+      </c>
+      <c r="O43" t="n">
+        <v>225.1499938964844</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>217.3000030517578</v>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>215.5500030517578</v>
+      </c>
+      <c r="U43" t="n">
+        <v>217.5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>HERCULES.NS</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="M44" t="n">
+        <v>473.9500122070312</v>
+      </c>
+      <c r="N44" t="n">
+        <v>451.9500122070312</v>
+      </c>
+      <c r="O44" t="n">
+        <v>463.7999877929688</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>451.9500122070312</v>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T44" t="n">
+        <v>440.1000061035156</v>
+      </c>
+      <c r="U44" t="n">
+        <v>454.1000061035156</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>BAJAJELEC.NS</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="M45" t="n">
+        <v>959.9000244140625</v>
+      </c>
+      <c r="N45" t="n">
+        <v>924</v>
+      </c>
+      <c r="O45" t="n">
+        <v>947.0499877929688</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>924</v>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
+        <v>915.8499755859375</v>
+      </c>
+      <c r="U45" t="n">
+        <v>931.0999755859375</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>JKIL.NS</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="M46" t="n">
+        <v>715</v>
+      </c>
+      <c r="N46" t="n">
+        <v>679</v>
+      </c>
+      <c r="O46" t="n">
+        <v>691.7999877929688</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>715</v>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>764.2999877929688</v>
+      </c>
+      <c r="U46" t="n">
+        <v>698.75</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>JKIL.NS</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="M47" t="n">
+        <v>708.8499755859375</v>
+      </c>
+      <c r="N47" t="n">
+        <v>652.2000122070312</v>
+      </c>
+      <c r="O47" t="n">
+        <v>658.3499755859375</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>708.8499755859375</v>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T47" t="n">
+        <v>764.2999877929688</v>
+      </c>
+      <c r="U47" t="n">
+        <v>698.75</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>EASEMYTRIP.NS</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="M48" t="n">
+        <v>43.40000152587891</v>
+      </c>
+      <c r="N48" t="n">
+        <v>42.04999923706055</v>
+      </c>
+      <c r="O48" t="n">
+        <v>43.09999847412109</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>42.04999923706055</v>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>41.70000076293945</v>
+      </c>
+      <c r="U48" t="n">
+        <v>42.15000152587891</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>SIS.NS</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="M49" t="n">
+        <v>424.8999938964844</v>
+      </c>
+      <c r="N49" t="n">
+        <v>404.7000122070312</v>
+      </c>
+      <c r="O49" t="n">
+        <v>411.2999877929688</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>404.7000122070312</v>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>403</v>
+      </c>
+      <c r="U49" t="n">
+        <v>413.2999877929688</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>SCHNEIDER.NS</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="M50" t="n">
+        <v>750</v>
+      </c>
+      <c r="N50" t="n">
+        <v>690</v>
+      </c>
+      <c r="O50" t="n">
+        <v>734.4500122070312</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>690</v>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>673.9500122070312</v>
+      </c>
+      <c r="U50" t="n">
+        <v>709.4000244140625</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>JINDRILL.NS</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="M51" t="n">
+        <v>711.9500122070312</v>
+      </c>
+      <c r="N51" t="n">
+        <v>658</v>
+      </c>
+      <c r="O51" t="n">
+        <v>709.1500244140625</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>658</v>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T51" t="n">
+        <v>640</v>
+      </c>
+      <c r="U51" t="n">
+        <v>665.4000244140625</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ZFCVINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="M52" t="n">
+        <v>17700</v>
+      </c>
+      <c r="N52" t="n">
+        <v>17020</v>
+      </c>
+      <c r="O52" t="n">
+        <v>17262.349609375</v>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>17700</v>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>17900</v>
+      </c>
+      <c r="U52" t="n">
+        <v>16491.400390625</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>TATACHEM.NS</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1065</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1032.199951171875</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1063</v>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>1032.199951171875</v>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>1027</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>GREAVESCOT.NS</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="M54" t="n">
+        <v>129.6000061035156</v>
+      </c>
+      <c r="N54" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="O54" t="n">
+        <v>124.25</v>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T54" t="n">
+        <v>121.3499984741211</v>
+      </c>
+      <c r="U54" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="M55" t="n">
+        <v>942</v>
+      </c>
+      <c r="N55" t="n">
+        <v>913.0499877929688</v>
+      </c>
+      <c r="O55" t="n">
+        <v>935.4000244140625</v>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>913.0499877929688</v>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T55" t="n">
+        <v>909.1500244140625</v>
+      </c>
+      <c r="U55" t="n">
+        <v>963.0999755859375</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="M56" t="n">
+        <v>984</v>
+      </c>
+      <c r="N56" t="n">
+        <v>930.8499755859375</v>
+      </c>
+      <c r="O56" t="n">
+        <v>960.5499877929688</v>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>930.8499755859375</v>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>909.1500244140625</v>
+      </c>
+      <c r="U56" t="n">
+        <v>963.0999755859375</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>UNIONBANK.NS</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="M57" t="n">
+        <v>157</v>
+      </c>
+      <c r="N57" t="n">
+        <v>151.8500061035156</v>
+      </c>
+      <c r="O57" t="n">
+        <v>156.75</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>157</v>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>161.6000061035156</v>
+      </c>
+      <c r="U57" t="n">
+        <v>156.6999969482422</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>UNIONBANK.NS</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="M58" t="n">
+        <v>157</v>
+      </c>
+      <c r="N58" t="n">
+        <v>153.25</v>
+      </c>
+      <c r="O58" t="n">
+        <v>154.1999969482422</v>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>157</v>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>161.6000061035156</v>
+      </c>
+      <c r="U58" t="n">
+        <v>156.6999969482422</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="n">
+        <v>44299</v>
+      </c>
+      <c r="M59" t="n">
+        <v>10</v>
+      </c>
+      <c r="N59" t="n">
+        <v>10</v>
+      </c>
+      <c r="O59" t="n">
+        <v>10</v>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>10</v>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>88.69999694824219</v>
+      </c>
+      <c r="U59" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L60" s="2" t="n">
+        <v>44301</v>
+      </c>
+      <c r="M60" t="n">
+        <v>10</v>
+      </c>
+      <c r="N60" t="n">
+        <v>10</v>
+      </c>
+      <c r="O60" t="n">
+        <v>10</v>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>10</v>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>88.69999694824219</v>
+      </c>
+      <c r="U60" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L61" s="2" t="n">
+        <v>44302</v>
+      </c>
+      <c r="M61" t="n">
+        <v>10</v>
+      </c>
+      <c r="N61" t="n">
+        <v>10</v>
+      </c>
+      <c r="O61" t="n">
+        <v>10</v>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>10</v>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>88.69999694824219</v>
+      </c>
+      <c r="U61" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>WINSOMTX.BO</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L62" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="M62" t="n">
+        <v>79.69999694824219</v>
+      </c>
+      <c r="N62" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="O62" t="n">
+        <v>76.58999633789062</v>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>79.69999694824219</v>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>80.19000244140625</v>
+      </c>
+      <c r="U62" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>ENERGYDEV.NS</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L63" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="M63" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="N63" t="n">
+        <v>21.64999961853027</v>
+      </c>
+      <c r="O63" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>21.64999961853027</v>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>21.20000076293945</v>
+      </c>
+      <c r="U63" t="n">
+        <v>21.79999923706055</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>BAJAJFINSV.NS</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L64" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1636.599975585938</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1530.800048828125</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1582.800048828125</v>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>1530.800048828125</v>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>27-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>1517</v>
+      </c>
+      <c r="U64" t="n">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>WIPRO.NS</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L65" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="M65" t="n">
+        <v>468.3500061035156</v>
+      </c>
+      <c r="N65" t="n">
+        <v>437</v>
+      </c>
+      <c r="O65" t="n">
+        <v>452.75</v>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>437</v>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>27-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>435.1000061035156</v>
+      </c>
+      <c r="U65" t="n">
+        <v>458.8500061035156</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>DRREDDY.NS</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L66" s="2" t="n">
+        <v>45159</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5989.7001953125</v>
+      </c>
+      <c r="N66" t="n">
+        <v>5770.5498046875</v>
+      </c>
+      <c r="O66" t="n">
+        <v>5779.25</v>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>5989.7001953125</v>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>27-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>6017.9501953125</v>
+      </c>
+      <c r="U66" t="n">
+        <v>5933</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>NESTLEIND.NS</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L67" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2513.85009765625</v>
+      </c>
+      <c r="N67" t="n">
+        <v>2409.10009765625</v>
+      </c>
+      <c r="O67" t="n">
+        <v>2450.10009765625</v>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>2409.10009765625</v>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>27-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>2345</v>
+      </c>
+      <c r="U67" t="n">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>NESTLEIND.NS</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L68" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2583.64990234375</v>
+      </c>
+      <c r="N68" t="n">
+        <v>2410</v>
+      </c>
+      <c r="O68" t="n">
+        <v>2437.699951171875</v>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>2410</v>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>27-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>2345</v>
+      </c>
+      <c r="U68" t="n">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>LT.NS</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L69" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3737.89990234375</v>
+      </c>
+      <c r="N69" t="n">
+        <v>3361</v>
+      </c>
+      <c r="O69" t="n">
+        <v>3376.050048828125</v>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>3737.89990234375</v>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>27-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>3744.800048828125</v>
+      </c>
+      <c r="U69" t="n">
+        <v>3659</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>TATACONSUM.NS</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L70" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1149.400024414062</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1075</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1147.449951171875</v>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>1075</v>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>27-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>1048.300048828125</v>
+      </c>
+      <c r="U70" t="n">
+        <v>1088.949951171875</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>ITC.NS</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L71" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="M71" t="n">
+        <v>437.1499938964844</v>
+      </c>
+      <c r="N71" t="n">
+        <v>425.5</v>
+      </c>
+      <c r="O71" t="n">
+        <v>433.25</v>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>425.5</v>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>27-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>422.3500061035156</v>
+      </c>
+      <c r="U71" t="n">
+        <v>433.2000122070312</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>TORNTPHARM.NS</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L72" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2744</v>
+      </c>
+      <c r="N72" t="n">
+        <v>2577</v>
+      </c>
+      <c r="O72" t="n">
+        <v>2594.449951171875</v>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>2744</v>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>27-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>2795</v>
+      </c>
+      <c r="U72" t="n">
+        <v>2706.949951171875</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>INDUSINDBK.NS</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L73" s="2" t="n">
+        <v>45187</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1475.650024414062</v>
+      </c>
+      <c r="N73" t="n">
+        <v>1406.349975585938</v>
+      </c>
+      <c r="O73" t="n">
+        <v>1452.900024414062</v>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>1475.650024414062</v>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>27-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>1478.800048828125</v>
+      </c>
+      <c r="U73" t="n">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>AVADHSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L74" s="2" t="n">
+        <v>45159</v>
+      </c>
+      <c r="M74" t="n">
+        <v>544.7000122070312</v>
+      </c>
+      <c r="N74" t="n">
+        <v>518.4500122070312</v>
+      </c>
+      <c r="O74" t="n">
+        <v>526.3499755859375</v>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>518.4500122070312</v>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>27-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>516.5999755859375</v>
+      </c>
+      <c r="U74" t="n">
+        <v>533.4000244140625</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>SRF.NS</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L75" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2333.199951171875</v>
+      </c>
+      <c r="N75" t="n">
+        <v>2210</v>
+      </c>
+      <c r="O75" t="n">
+        <v>2318.64990234375</v>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>2210</v>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>27-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>2182.449951171875</v>
+      </c>
+      <c r="U75" t="n">
+        <v>2265.14990234375</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>PRAJIND.NS</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L76" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="M76" t="n">
+        <v>578</v>
+      </c>
+      <c r="N76" t="n">
+        <v>502.6000061035156</v>
+      </c>
+      <c r="O76" t="n">
+        <v>539.9000244140625</v>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>502.6000061035156</v>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>27-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>498.0499877929688</v>
+      </c>
+      <c r="U76" t="n">
+        <v>515.7000122070312</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>TATAELXSI.NS</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L77" s="2" t="n">
+        <v>45152</v>
+      </c>
+      <c r="M77" t="n">
+        <v>7208.85009765625</v>
+      </c>
+      <c r="N77" t="n">
+        <v>6992.0498046875</v>
+      </c>
+      <c r="O77" t="n">
+        <v>7008.14990234375</v>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>6992.0498046875</v>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>27-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>6903</v>
+      </c>
+      <c r="U77" t="n">
+        <v>7171.5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>INDIACEM.NS</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L78" s="2" t="n">
+        <v>45117</v>
+      </c>
+      <c r="M78" t="n">
+        <v>215</v>
+      </c>
+      <c r="N78" t="n">
+        <v>204.1000061035156</v>
+      </c>
+      <c r="O78" t="n">
+        <v>214.25</v>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>204.1000061035156</v>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>27-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>203</v>
+      </c>
+      <c r="U78" t="n">
+        <v>207.6499938964844</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>JKIL.NS</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L79" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="M79" t="n">
+        <v>715</v>
+      </c>
+      <c r="N79" t="n">
+        <v>637</v>
+      </c>
+      <c r="O79" t="n">
+        <v>648.6500244140625</v>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>715</v>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>27-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>764.2999877929688</v>
+      </c>
+      <c r="U79" t="n">
+        <v>676.0999755859375</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>APLAPOLLO.NS</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L80" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1637.650024414062</v>
+      </c>
+      <c r="N80" t="n">
+        <v>1506.150024414062</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1543.300048828125</v>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>1506.150024414062</v>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>27-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>1463.599975585938</v>
+      </c>
+      <c r="U80" t="n">
+        <v>1670.300048828125</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>KNRCON.NS</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L81" s="2" t="n">
+        <v>45194</v>
+      </c>
+      <c r="M81" t="n">
+        <v>291</v>
+      </c>
+      <c r="N81" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="O81" t="n">
+        <v>284</v>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>291</v>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>27-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>330.7000122070312</v>
+      </c>
+      <c r="U81" t="n">
+        <v>278.5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>KNRCON.NS</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L82" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="M82" t="n">
+        <v>305.5</v>
+      </c>
+      <c r="N82" t="n">
+        <v>279.6499938964844</v>
+      </c>
+      <c r="O82" t="n">
+        <v>288.25</v>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>305.5</v>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>27-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>330.7000122070312</v>
+      </c>
+      <c r="U82" t="n">
+        <v>278.5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>KNRCON.NS</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L83" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="M83" t="n">
+        <v>292</v>
+      </c>
+      <c r="N83" t="n">
+        <v>269.2999877929688</v>
+      </c>
+      <c r="O83" t="n">
+        <v>272.1499938964844</v>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>292</v>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>27-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>330.7000122070312</v>
+      </c>
+      <c r="U83" t="n">
+        <v>278.5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>JMFINANCIL.NS</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L84" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="M84" t="n">
+        <v>87.05000305175781</v>
+      </c>
+      <c r="N84" t="n">
+        <v>77.34999847412109</v>
+      </c>
+      <c r="O84" t="n">
+        <v>82.80000305175781</v>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>77.34999847412109</v>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>27-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>77</v>
+      </c>
+      <c r="U84" t="n">
+        <v>77.59999847412109</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>EMAMILTD.NS</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L85" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="M85" t="n">
+        <v>583.25</v>
+      </c>
+      <c r="N85" t="n">
+        <v>540</v>
+      </c>
+      <c r="O85" t="n">
+        <v>547.7000122070312</v>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>583.25</v>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>27-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>646.2000122070312</v>
+      </c>
+      <c r="U85" t="n">
+        <v>548.7999877929688</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>EMAMILTD.NS</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L86" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="M86" t="n">
+        <v>588.5999755859375</v>
+      </c>
+      <c r="N86" t="n">
+        <v>538.0999755859375</v>
+      </c>
+      <c r="O86" t="n">
+        <v>564.7999877929688</v>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>588.5999755859375</v>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>27-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>646.2000122070312</v>
+      </c>
+      <c r="U86" t="n">
+        <v>548.7999877929688</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>ZFCVINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L87" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="M87" t="n">
+        <v>16945</v>
+      </c>
+      <c r="N87" t="n">
+        <v>16201</v>
+      </c>
+      <c r="O87" t="n">
+        <v>16286</v>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>16945</v>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>27-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>17900</v>
+      </c>
+      <c r="U87" t="n">
+        <v>13888</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>ZFCVINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L88" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="M88" t="n">
+        <v>17700</v>
+      </c>
+      <c r="N88" t="n">
+        <v>16452</v>
+      </c>
+      <c r="O88" t="n">
+        <v>16715.19921875</v>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>17700</v>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>27-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>17900</v>
+      </c>
+      <c r="U88" t="n">
+        <v>13888</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>ZFCVINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L89" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="M89" t="n">
+        <v>15888.9501953125</v>
+      </c>
+      <c r="N89" t="n">
+        <v>14832.099609375</v>
+      </c>
+      <c r="O89" t="n">
+        <v>15359.400390625</v>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>15888.9501953125</v>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>27-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>17900</v>
+      </c>
+      <c r="U89" t="n">
+        <v>13888</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>BORORENEW.NS</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L90" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="M90" t="n">
+        <v>551.8499755859375</v>
+      </c>
+      <c r="N90" t="n">
+        <v>477</v>
+      </c>
+      <c r="O90" t="n">
+        <v>498.25</v>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>477</v>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>27-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>467.3500061035156</v>
+      </c>
+      <c r="U90" t="n">
+        <v>494.2000122070312</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>KOLTEPATIL.NS</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L91" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="M91" t="n">
+        <v>505.0499877929688</v>
+      </c>
+      <c r="N91" t="n">
+        <v>474</v>
+      </c>
+      <c r="O91" t="n">
+        <v>482.8500061035156</v>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>474</v>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>27-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>440.2000122070312</v>
+      </c>
+      <c r="U91" t="n">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>GREAVESCOT.NS</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L92" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="M92" t="n">
+        <v>129.6000061035156</v>
+      </c>
+      <c r="N92" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="O92" t="n">
+        <v>126.5999984741211</v>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>27-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>121.3499984741211</v>
+      </c>
+      <c r="U92" t="n">
+        <v>128.8000030517578</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>APOLLO.NS</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L93" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="M93" t="n">
+        <v>120.9499969482422</v>
+      </c>
+      <c r="N93" t="n">
+        <v>106.9000015258789</v>
+      </c>
+      <c r="O93" t="n">
+        <v>114.6999969482422</v>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>106.9000015258789</v>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>27-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>105</v>
+      </c>
+      <c r="U93" t="n">
+        <v>107.9000015258789</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L94" s="2" t="n">
+        <v>44158</v>
+      </c>
+      <c r="M94" t="n">
+        <v>12</v>
+      </c>
+      <c r="N94" t="n">
+        <v>12</v>
+      </c>
+      <c r="O94" t="n">
+        <v>12</v>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>12</v>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>27-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>88.69999694824219</v>
+      </c>
+      <c r="U94" t="n">
+        <v>9.989999771118164</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L95" s="2" t="n">
+        <v>44200</v>
+      </c>
+      <c r="M95" t="n">
+        <v>12.52000045776367</v>
+      </c>
+      <c r="N95" t="n">
+        <v>10.82999992370605</v>
+      </c>
+      <c r="O95" t="n">
+        <v>11.35999965667725</v>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>12.52000045776367</v>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>27-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>88.69999694824219</v>
+      </c>
+      <c r="U95" t="n">
+        <v>9.989999771118164</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L96" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="M96" t="n">
+        <v>10.97000026702881</v>
+      </c>
+      <c r="N96" t="n">
+        <v>10</v>
+      </c>
+      <c r="O96" t="n">
+        <v>10</v>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>10.97000026702881</v>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>27-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>88.69999694824219</v>
+      </c>
+      <c r="U96" t="n">
+        <v>9.989999771118164</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>PCJEWELLER.NS</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L97" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="M97" t="n">
+        <v>55.65000152587891</v>
+      </c>
+      <c r="N97" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="O97" t="n">
+        <v>55.65000152587891</v>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>27-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>45.54999923706055</v>
+      </c>
+      <c r="U97" t="n">
+        <v>48.40000152587891</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>SHREECEM.NS</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L98" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="M98" t="n">
+        <v>26199.5</v>
+      </c>
+      <c r="N98" t="n">
+        <v>25309</v>
+      </c>
+      <c r="O98" t="n">
+        <v>25514.5</v>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>25309</v>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>27-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>24604.44921875</v>
+      </c>
+      <c r="U98" t="n">
+        <v>25405</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>KOTAKBANK.NS</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L99" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1730.25</v>
+      </c>
+      <c r="N99" t="n">
+        <v>1667.400024414062</v>
+      </c>
+      <c r="O99" t="n">
+        <v>1727.699951171875</v>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>1667.400024414062</v>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>27-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>1660.550048828125</v>
+      </c>
+      <c r="U99" t="n">
+        <v>1681.099975585938</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>ASIANPAINT.NS</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L100" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="M100" t="n">
+        <v>3087.89990234375</v>
+      </c>
+      <c r="N100" t="n">
+        <v>2685.85009765625</v>
+      </c>
+      <c r="O100" t="n">
+        <v>2725.85009765625</v>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>2685.85009765625</v>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>2670.10009765625</v>
+      </c>
+      <c r="U100" t="n">
+        <v>2766.14990234375</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L101" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1310</v>
+      </c>
+      <c r="N101" t="n">
+        <v>1175.5</v>
+      </c>
+      <c r="O101" t="n">
+        <v>1184.150024414062</v>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>1310</v>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>1352.599975585938</v>
+      </c>
+      <c r="U101" t="n">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>BERGEPAINT.NS</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L102" s="2" t="n">
+        <v>44682</v>
+      </c>
+      <c r="M102" t="n">
+        <v>597.375</v>
+      </c>
+      <c r="N102" t="n">
+        <v>453</v>
+      </c>
+      <c r="O102" t="n">
+        <v>512.4166870117188</v>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>453</v>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>450.7999877929688</v>
+      </c>
+      <c r="U102" t="n">
+        <v>500.7000122070312</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>MARICO.NS</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L103" s="2" t="n">
+        <v>44682</v>
+      </c>
+      <c r="M103" t="n">
+        <v>551.9000244140625</v>
+      </c>
+      <c r="N103" t="n">
+        <v>487.0499877929688</v>
+      </c>
+      <c r="O103" t="n">
+        <v>533.6500244140625</v>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>551.9000244140625</v>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>615.9000244140625</v>
+      </c>
+      <c r="U103" t="n">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>MARICO.NS</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L104" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="M104" t="n">
+        <v>554.3499755859375</v>
+      </c>
+      <c r="N104" t="n">
+        <v>505.7000122070312</v>
+      </c>
+      <c r="O104" t="n">
+        <v>537.8499755859375</v>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>554.3499755859375</v>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>615.9000244140625</v>
+      </c>
+      <c r="U104" t="n">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>MARICO.NS</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L105" s="2" t="n">
+        <v>45200</v>
+      </c>
+      <c r="M105" t="n">
+        <v>595</v>
+      </c>
+      <c r="N105" t="n">
+        <v>521.8499755859375</v>
+      </c>
+      <c r="O105" t="n">
+        <v>536.5499877929688</v>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>595</v>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>615.9000244140625</v>
+      </c>
+      <c r="U105" t="n">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>MOTHERSON.NS</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L106" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="M106" t="n">
+        <v>134.8666687011719</v>
+      </c>
+      <c r="N106" t="n">
+        <v>90.57135772705078</v>
+      </c>
+      <c r="O106" t="n">
+        <v>119.6666641235352</v>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>134.8666687011719</v>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>156.9499969482422</v>
+      </c>
+      <c r="U106" t="n">
+        <v>133.3999938964844</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>VEDL.NS</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L107" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="M107" t="n">
+        <v>440.75</v>
+      </c>
+      <c r="N107" t="n">
+        <v>397.0499877929688</v>
+      </c>
+      <c r="O107" t="n">
+        <v>408.3500061035156</v>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>440.75</v>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>506.75</v>
+      </c>
+      <c r="U107" t="n">
+        <v>409.9500122070312</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>RVNL.NS</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L108" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="M108" t="n">
+        <v>345.5</v>
+      </c>
+      <c r="N108" t="n">
+        <v>177.5</v>
+      </c>
+      <c r="O108" t="n">
+        <v>308.25</v>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>345.5</v>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>399.8999938964844</v>
+      </c>
+      <c r="U108" t="n">
+        <v>296.2999877929688</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>IRCON.NS</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L109" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="M109" t="n">
+        <v>280.8500061035156</v>
+      </c>
+      <c r="N109" t="n">
+        <v>169.8000030517578</v>
+      </c>
+      <c r="O109" t="n">
+        <v>237.3500061035156</v>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>280.8500061035156</v>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>301.4500122070312</v>
+      </c>
+      <c r="U109" t="n">
+        <v>266.8999938964844</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>PARAS.NS</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L110" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="M110" t="n">
+        <v>811</v>
+      </c>
+      <c r="N110" t="n">
+        <v>680.4000244140625</v>
+      </c>
+      <c r="O110" t="n">
+        <v>697.7999877929688</v>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>811</v>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>973.7000122070312</v>
+      </c>
+      <c r="U110" t="n">
+        <v>774.9500122070312</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>PARAS.NS</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L111" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="M111" t="n">
+        <v>848</v>
+      </c>
+      <c r="N111" t="n">
+        <v>707.0999755859375</v>
+      </c>
+      <c r="O111" t="n">
+        <v>729.5</v>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>848</v>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>973.7000122070312</v>
+      </c>
+      <c r="U111" t="n">
+        <v>774.9500122070312</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>BAJAJCON.NS</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L112" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="M112" t="n">
+        <v>262.3999938964844</v>
+      </c>
+      <c r="N112" t="n">
+        <v>213.1000061035156</v>
+      </c>
+      <c r="O112" t="n">
+        <v>256.8999938964844</v>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>262.3999938964844</v>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>271</v>
+      </c>
+      <c r="U112" t="n">
+        <v>247.8000030517578</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>BAJAJST.BO</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L113" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1399</v>
+      </c>
+      <c r="N113" t="n">
+        <v>1151</v>
+      </c>
+      <c r="O113" t="n">
+        <v>1297.300048828125</v>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>1399</v>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>1617.699951171875</v>
+      </c>
+      <c r="U113" t="n">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>KNRCON.NS</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L114" s="2" t="n">
+        <v>44593</v>
+      </c>
+      <c r="M114" t="n">
+        <v>329.8500061035156</v>
+      </c>
+      <c r="N114" t="n">
+        <v>292.1000061035156</v>
+      </c>
+      <c r="O114" t="n">
+        <v>309.6000061035156</v>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>329.8500061035156</v>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>330.7000122070312</v>
+      </c>
+      <c r="U114" t="n">
+        <v>275.1000061035156</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>KNRCON.NS</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L115" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="M115" t="n">
+        <v>280.7999877929688</v>
+      </c>
+      <c r="N115" t="n">
+        <v>245.0500030517578</v>
+      </c>
+      <c r="O115" t="n">
+        <v>253.6999969482422</v>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
+        <v>280.7999877929688</v>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T115" t="n">
+        <v>330.7000122070312</v>
+      </c>
+      <c r="U115" t="n">
+        <v>275.1000061035156</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>KNRCON.NS</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L116" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="M116" t="n">
+        <v>305.5</v>
+      </c>
+      <c r="N116" t="n">
+        <v>260.2000122070312</v>
+      </c>
+      <c r="O116" t="n">
+        <v>291.6499938964844</v>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>305.5</v>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T116" t="n">
+        <v>330.7000122070312</v>
+      </c>
+      <c r="U116" t="n">
+        <v>275.1000061035156</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>TITAGARH.NS</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L117" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1209.900024414062</v>
+      </c>
+      <c r="N117" t="n">
+        <v>996.0999755859375</v>
+      </c>
+      <c r="O117" t="n">
+        <v>1092.849975585938</v>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>1209.900024414062</v>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>1450</v>
+      </c>
+      <c r="U117" t="n">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>EMAMILTD.NS</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L118" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="M118" t="n">
+        <v>524</v>
+      </c>
+      <c r="N118" t="n">
+        <v>473.25</v>
+      </c>
+      <c r="O118" t="n">
+        <v>504.2999877929688</v>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>524</v>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>646.2000122070312</v>
+      </c>
+      <c r="U118" t="n">
+        <v>490.8999938964844</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>EMAMILTD.NS</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L119" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="M119" t="n">
+        <v>583.25</v>
+      </c>
+      <c r="N119" t="n">
+        <v>507.8500061035156</v>
+      </c>
+      <c r="O119" t="n">
+        <v>538.4500122070312</v>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
+        <v>583.25</v>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
+        <v>646.2000122070312</v>
+      </c>
+      <c r="U119" t="n">
+        <v>490.8999938964844</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>EMAMILTD.NS</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L120" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="M120" t="n">
+        <v>588.5999755859375</v>
+      </c>
+      <c r="N120" t="n">
+        <v>491.2000122070312</v>
+      </c>
+      <c r="O120" t="n">
+        <v>499.8500061035156</v>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q120" t="n">
+        <v>588.5999755859375</v>
+      </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>646.2000122070312</v>
+      </c>
+      <c r="U120" t="n">
+        <v>490.8999938964844</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>ZFCVINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L121" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="M121" t="n">
+        <v>17700</v>
+      </c>
+      <c r="N121" t="n">
+        <v>15600</v>
+      </c>
+      <c r="O121" t="n">
+        <v>16336.5498046875</v>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
+        <v>17700</v>
+      </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T121" t="n">
+        <v>17900</v>
+      </c>
+      <c r="U121" t="n">
+        <v>15380</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>TARC.NS</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L122" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="M122" t="n">
+        <v>184.8999938964844</v>
+      </c>
+      <c r="N122" t="n">
+        <v>133.9499969482422</v>
+      </c>
+      <c r="O122" t="n">
+        <v>161.1499938964844</v>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q122" t="n">
+        <v>184.8999938964844</v>
+      </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T122" t="n">
+        <v>190.5</v>
+      </c>
+      <c r="U122" t="n">
+        <v>168.5500030517578</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>GOODYEAR.BO</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L123" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="M123" t="n">
+        <v>1203</v>
+      </c>
+      <c r="N123" t="n">
+        <v>1007.799987792969</v>
+      </c>
+      <c r="O123" t="n">
+        <v>1026.550048828125</v>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
+        <v>1203</v>
+      </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T123" t="n">
+        <v>1240</v>
+      </c>
+      <c r="U123" t="n">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>AMBER.NS</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L124" s="2" t="n">
+        <v>44682</v>
+      </c>
+      <c r="M124" t="n">
+        <v>4025.949951171875</v>
+      </c>
+      <c r="N124" t="n">
+        <v>2305.949951171875</v>
+      </c>
+      <c r="O124" t="n">
+        <v>2633</v>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q124" t="n">
+        <v>4025.949951171875</v>
+      </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T124" t="n">
+        <v>4147.9501953125</v>
+      </c>
+      <c r="U124" t="n">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>IEX.NS</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L125" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="M125" t="n">
+        <v>163.75</v>
+      </c>
+      <c r="N125" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="O125" t="n">
+        <v>153</v>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q125" t="n">
+        <v>163.75</v>
+      </c>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T125" t="n">
+        <v>166.3999938964844</v>
+      </c>
+      <c r="U125" t="n">
+        <v>161.3500061035156</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>GEOJITFSL.NS</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L126" s="2" t="n">
+        <v>44378</v>
+      </c>
+      <c r="M126" t="n">
+        <v>102.6999969482422</v>
+      </c>
+      <c r="N126" t="n">
+        <v>74.94999694824219</v>
+      </c>
+      <c r="O126" t="n">
+        <v>87.25</v>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q126" t="n">
+        <v>102.6999969482422</v>
+      </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T126" t="n">
+        <v>116.0999984741211</v>
+      </c>
+      <c r="U126" t="n">
+        <v>98.90000152587891</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>AUROPHARMA.NS</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L127" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="M127" t="n">
+        <v>1177.099975585938</v>
+      </c>
+      <c r="N127" t="n">
+        <v>1061.400024414062</v>
+      </c>
+      <c r="O127" t="n">
+        <v>1150.400024414062</v>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q127" t="n">
+        <v>1177.099975585938</v>
+      </c>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T127" t="n">
+        <v>1245.699951171875</v>
+      </c>
+      <c r="U127" t="n">
+        <v>1175.800048828125</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>BRITANNIA.NS</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L128" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="M128" t="n">
+        <v>5270.35009765625</v>
+      </c>
+      <c r="N128" t="n">
+        <v>4763.7998046875</v>
+      </c>
+      <c r="O128" t="n">
+        <v>4793.9501953125</v>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q128" t="n">
+        <v>5270.35009765625</v>
+      </c>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T128" t="n">
+        <v>5302.5</v>
+      </c>
+      <c r="U128" t="n">
+        <v>4960.7001953125</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>HINDALCO.NS</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L129" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="M129" t="n">
+        <v>636</v>
+      </c>
+      <c r="N129" t="n">
+        <v>472</v>
+      </c>
+      <c r="O129" t="n">
+        <v>569.5</v>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q129" t="n">
+        <v>636</v>
+      </c>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T129" t="n">
+        <v>713.5</v>
+      </c>
+      <c r="U129" t="n">
+        <v>620.5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>MARICO.NS</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L130" s="2" t="n">
+        <v>44409</v>
+      </c>
+      <c r="M130" t="n">
+        <v>607.7000122070312</v>
+      </c>
+      <c r="N130" t="n">
+        <v>511</v>
+      </c>
+      <c r="O130" t="n">
+        <v>568.4500122070312</v>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q130" t="n">
+        <v>607.7000122070312</v>
+      </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T130" t="n">
+        <v>615.9000244140625</v>
+      </c>
+      <c r="U130" t="n">
+        <v>554.7000122070312</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>BANDHANBNK.NS</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L131" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="M131" t="n">
+        <v>269.2999877929688</v>
+      </c>
+      <c r="N131" t="n">
+        <v>182.1499938964844</v>
+      </c>
+      <c r="O131" t="n">
+        <v>268</v>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q131" t="n">
+        <v>182.1499938964844</v>
+      </c>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>01-03-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T131" t="n">
+        <v>170.3000030517578</v>
+      </c>
+      <c r="U131" t="n">
+        <v>192.8000030517578</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>VEDL.NS</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L132" s="2" t="n">
+        <v>41730</v>
+      </c>
+      <c r="M132" t="n">
+        <v>318.2999877929688</v>
+      </c>
+      <c r="N132" t="n">
+        <v>178</v>
+      </c>
+      <c r="O132" t="n">
+        <v>292.3500061035156</v>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q132" t="n">
+        <v>318.2999877929688</v>
+      </c>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T132" t="n">
+        <v>506.75</v>
+      </c>
+      <c r="U132" t="n">
+        <v>289.25</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>VEDL.NS</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L133" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="M133" t="n">
+        <v>355.7000122070312</v>
+      </c>
+      <c r="N133" t="n">
+        <v>268.75</v>
+      </c>
+      <c r="O133" t="n">
+        <v>277.8500061035156</v>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q133" t="n">
+        <v>355.7000122070312</v>
+      </c>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T133" t="n">
+        <v>506.75</v>
+      </c>
+      <c r="U133" t="n">
+        <v>289.25</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>VEDL.NS</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L134" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="M134" t="n">
+        <v>440.75</v>
+      </c>
+      <c r="N134" t="n">
+        <v>216.1000061035156</v>
+      </c>
+      <c r="O134" t="n">
+        <v>223</v>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q134" t="n">
+        <v>440.75</v>
+      </c>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T134" t="n">
+        <v>506.75</v>
+      </c>
+      <c r="U134" t="n">
+        <v>289.25</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>DWARKESH.NS</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L135" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="M135" t="n">
+        <v>97.80000305175781</v>
+      </c>
+      <c r="N135" t="n">
+        <v>75</v>
+      </c>
+      <c r="O135" t="n">
+        <v>89.40000152587891</v>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q135" t="n">
+        <v>75</v>
+      </c>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>01-03-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T135" t="n">
+        <v>67.34999847412109</v>
+      </c>
+      <c r="U135" t="n">
+        <v>77.15000152587891</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>PETRONET.NS</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L136" s="2" t="n">
+        <v>43709</v>
+      </c>
+      <c r="M136" t="n">
+        <v>299</v>
+      </c>
+      <c r="N136" t="n">
+        <v>246.6999969482422</v>
+      </c>
+      <c r="O136" t="n">
+        <v>271.5</v>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
+        <v>299</v>
+      </c>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>01-03-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
+        <v>323.1499938964844</v>
+      </c>
+      <c r="U136" t="n">
+        <v>296.4500122070312</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>JUSTDIAL.NS</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L137" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="M137" t="n">
+        <v>1138</v>
+      </c>
+      <c r="N137" t="n">
+        <v>901.0499877929688</v>
+      </c>
+      <c r="O137" t="n">
+        <v>953.4500122070312</v>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>1138</v>
+      </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>01-03-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T137" t="n">
+        <v>1162</v>
+      </c>
+      <c r="U137" t="n">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>EMAMILTD.NS</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L138" s="2" t="n">
+        <v>44409</v>
+      </c>
+      <c r="M138" t="n">
+        <v>621.7999877929688</v>
+      </c>
+      <c r="N138" t="n">
+        <v>507.9500122070312</v>
+      </c>
+      <c r="O138" t="n">
+        <v>531.25</v>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>621.7999877929688</v>
+      </c>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T138" t="n">
+        <v>646.2000122070312</v>
+      </c>
+      <c r="U138" t="n">
+        <v>510.9500122070312</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>STLTECH.NS</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L139" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="M139" t="n">
+        <v>182.3999938964844</v>
+      </c>
+      <c r="N139" t="n">
+        <v>128.6000061035156</v>
+      </c>
+      <c r="O139" t="n">
+        <v>172.0500030517578</v>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>128.6000061035156</v>
+      </c>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>01-03-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T139" t="n">
+        <v>110.0999984741211</v>
+      </c>
+      <c r="U139" t="n">
+        <v>128.75</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>SAIL.NS</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L140" s="2" t="n">
+        <v>44287</v>
+      </c>
+      <c r="M140" t="n">
+        <v>151.3000030517578</v>
+      </c>
+      <c r="N140" t="n">
+        <v>79.55000305175781</v>
+      </c>
+      <c r="O140" t="n">
+        <v>130.6000061035156</v>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>151.3000030517578</v>
+      </c>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T140" t="n">
+        <v>175.3500061035156</v>
+      </c>
+      <c r="U140" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>RTNPOWER.NS</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L141" s="2" t="n">
+        <v>41730</v>
+      </c>
+      <c r="M141" t="n">
+        <v>16.20000076293945</v>
+      </c>
+      <c r="N141" t="n">
+        <v>7.400000095367432</v>
+      </c>
+      <c r="O141" t="n">
+        <v>14.39999961853027</v>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>16.20000076293945</v>
+      </c>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T141" t="n">
+        <v>19.14999961853027</v>
+      </c>
+      <c r="U141" t="n">
+        <v>12.30000019073486</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>RTNPOWER.NS</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L142" s="2" t="n">
+        <v>42370</v>
+      </c>
+      <c r="M142" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="N142" t="n">
+        <v>7.849999904632568</v>
+      </c>
+      <c r="O142" t="n">
+        <v>9.949999809265137</v>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T142" t="n">
+        <v>19.14999961853027</v>
+      </c>
+      <c r="U142" t="n">
+        <v>12.30000019073486</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>GEOJITFSL.NS</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L143" s="2" t="n">
+        <v>44378</v>
+      </c>
+      <c r="M143" t="n">
+        <v>102.6999969482422</v>
+      </c>
+      <c r="N143" t="n">
+        <v>71.25</v>
+      </c>
+      <c r="O143" t="n">
+        <v>76.40000152587891</v>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>102.6999969482422</v>
+      </c>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T143" t="n">
+        <v>116.0999984741211</v>
+      </c>
+      <c r="U143" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>MOTHERSON.NS</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L144" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="M144" t="n">
+        <v>134.8666687011719</v>
+      </c>
+      <c r="N144" t="n">
+        <v>79.69999694824219</v>
+      </c>
+      <c r="O144" t="n">
+        <v>92.96666717529297</v>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>134.8666687011719</v>
+      </c>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T144" t="n">
+        <v>156.9499969482422</v>
+      </c>
+      <c r="U144" t="n">
+        <v>126.5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>INDUSTOWER.NS</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L145" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="M145" t="n">
+        <v>332.7999877929688</v>
+      </c>
+      <c r="N145" t="n">
+        <v>215.5</v>
+      </c>
+      <c r="O145" t="n">
+        <v>284.4500122070312</v>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>332.7999877929688</v>
+      </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>01-03-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T145" t="n">
+        <v>366.5499877929688</v>
+      </c>
+      <c r="U145" t="n">
+        <v>255.1999969482422</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>VOLTAS.NS</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L146" s="2" t="n">
+        <v>44470</v>
+      </c>
+      <c r="M146" t="n">
+        <v>1356.900024414062</v>
+      </c>
+      <c r="N146" t="n">
+        <v>1131.25</v>
+      </c>
+      <c r="O146" t="n">
+        <v>1219.150024414062</v>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>1356.900024414062</v>
+      </c>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T146" t="n">
+        <v>1502.300048828125</v>
+      </c>
+      <c r="U146" t="n">
+        <v>1133.5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>GODREJPROP.NS</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>02/06/2024 06:08:05</t>
+        </is>
+      </c>
+      <c r="L147" s="2" t="n">
+        <v>44470</v>
+      </c>
+      <c r="M147" t="n">
+        <v>2598</v>
+      </c>
+      <c r="N147" t="n">
+        <v>1766.349975585938</v>
+      </c>
+      <c r="O147" t="n">
+        <v>1871.800048828125</v>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>2598</v>
+      </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="T147" t="n">
+        <v>2926</v>
+      </c>
+      <c r="U147" t="n">
+        <v>2541.300048828125</v>
       </c>
     </row>
   </sheetData>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,6 +1033,546 @@
       <c r="K13" t="inlineStr">
         <is>
           <t>02/06/2024 06:15:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>BAJAJ-AUTO.NS</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>31-05-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>45422.42708333334</v>
+      </c>
+      <c r="E14" t="n">
+        <v>9047.849609375</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>45439.55208333334</v>
+      </c>
+      <c r="G14" t="n">
+        <v>9069.4501953125</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>45441.55208333334</v>
+      </c>
+      <c r="I14" t="n">
+        <v>9139.2001953125</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>03/06/2024 03:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ASIANPAINT.NS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>31-05-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>45415.38541666666</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2997</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>45435.38541666666</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2921.25</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>45441.55208333334</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2921</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>03/06/2024 03:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>TITAN.NS</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>31-05-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>45419.51041666666</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3227</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>45425.38541666666</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3231</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>45428.42708333334</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3251.300048828125</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>03/06/2024 03:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>KOTAKBANK.NS</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>31-05-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>45356.51041666666</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1709</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>45363.42708333334</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1707.550048828125</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>45364.63541666666</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1718</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>03/06/2024 03:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TECHM.NS</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>31-05-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>45373.38541666666</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1236.099975585938</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>45384.63541666666</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1235.150024414062</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>45391.51041666666</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1242.75</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>03/06/2024 03:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AUBANK.NS</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>31-05-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>45411.63541666666</v>
+      </c>
+      <c r="E19" t="n">
+        <v>647.5999755859375</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>45427.38541666666</v>
+      </c>
+      <c r="G19" t="n">
+        <v>648.7000122070312</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>45442.38541666666</v>
+      </c>
+      <c r="I19" t="n">
+        <v>653.9000244140625</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>03/06/2024 03:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NLCINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>31-05-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>45384.46875</v>
+      </c>
+      <c r="E20" t="n">
+        <v>226.5</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>45386.51041666666</v>
+      </c>
+      <c r="G20" t="n">
+        <v>227</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>45390.63541666666</v>
+      </c>
+      <c r="I20" t="n">
+        <v>228.1000061035156</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>03/06/2024 03:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>UGARSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>31-05-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>45404.38541666666</v>
+      </c>
+      <c r="E21" t="n">
+        <v>83.44999694824219</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>45426.38541666666</v>
+      </c>
+      <c r="G21" t="n">
+        <v>77</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>45427.38541666666</v>
+      </c>
+      <c r="I21" t="n">
+        <v>77</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>03/06/2024 03:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>KPIGREEN.NS</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>31-05-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>45398.38541666666</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1672.800048828125</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>45425.38541666666</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1759.699951171875</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>45425.42708333334</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1759.699951171875</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>03/06/2024 03:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MHRIL.NS</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>31-05-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>45421.38541666666</v>
+      </c>
+      <c r="E23" t="n">
+        <v>421.5499877929688</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>45433.38541666666</v>
+      </c>
+      <c r="G23" t="n">
+        <v>412.7999877929688</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>45435.63541666666</v>
+      </c>
+      <c r="I23" t="n">
+        <v>412</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>03/06/2024 03:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MAHEPC.NS</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>31-05-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>45407.51041666666</v>
+      </c>
+      <c r="E24" t="n">
+        <v>133.25</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>45434.59375</v>
+      </c>
+      <c r="G24" t="n">
+        <v>134.3000030517578</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>45434.63541666666</v>
+      </c>
+      <c r="I24" t="n">
+        <v>134.3000030517578</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>03/06/2024 03:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MAHSEAMLES.NS</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>31-05-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>45406.63541666666</v>
+      </c>
+      <c r="E25" t="n">
+        <v>874.5499877929688</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>45419.51041666666</v>
+      </c>
+      <c r="G25" t="n">
+        <v>809.7999877929688</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>45422.51041666666</v>
+      </c>
+      <c r="I25" t="n">
+        <v>783</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>03/06/2024 03:25:28</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1587,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1450,6 +1990,513 @@
       <c r="I10" t="inlineStr">
         <is>
           <t>02/06/2024 06:15:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TITAN.NS</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>31-05-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>45419.51041666666</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3227</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>45425.38541666666</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3231</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>03/06/2024 03:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>RELIANCE.NS</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>31-05-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>45401.42708333334</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2886.85009765625</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>45407.38541666666</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2884</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>03/06/2024 03:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BANKBARODA.NS</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>31-05-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>45400.46875</v>
+      </c>
+      <c r="E13" t="n">
+        <v>263.3999938964844</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>45405.51041666666</v>
+      </c>
+      <c r="G13" t="n">
+        <v>263.5499877929688</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>03/06/2024 03:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MCDOWELL-N.NS</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>31-05-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>45427.38541666666</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1165.75</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>45434.38541666666</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1164</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>03/06/2024 03:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PGHH.NS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>31-05-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>45439.59375</v>
+      </c>
+      <c r="E15" t="n">
+        <v>15980</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>45441.55208333334</v>
+      </c>
+      <c r="G15" t="n">
+        <v>16065.7001953125</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>03/06/2024 03:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>BALRAMCHIN.NS</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>31-05-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>45434.38541666666</v>
+      </c>
+      <c r="E16" t="n">
+        <v>374.5</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>45441.38541666666</v>
+      </c>
+      <c r="G16" t="n">
+        <v>377.2000122070312</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>03/06/2024 03:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MAHEPC.NS</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>31-05-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>45434.59375</v>
+      </c>
+      <c r="E17" t="n">
+        <v>134.3000030517578</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>45434.63541666666</v>
+      </c>
+      <c r="G17" t="n">
+        <v>134.3000030517578</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>03/06/2024 03:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MOTILALOFS.NS</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>31-05-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>45435.38541666666</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2224.050048828125</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>45441.38541666666</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2220.300048828125</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>03/06/2024 03:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>YESBANK.NS</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>31-05-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>45426.38541666666</v>
+      </c>
+      <c r="E19" t="n">
+        <v>23.14999961853027</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>45428.38541666666</v>
+      </c>
+      <c r="G19" t="n">
+        <v>23.14999961853027</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>03/06/2024 03:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>SANGHVIMOV.NS</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>31-05-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>45434.38541666666</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1097.5</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>45440.51041666666</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1096.150024414062</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>03/06/2024 03:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>STLTECH.NS</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>31-05-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>45390.59375</v>
+      </c>
+      <c r="E21" t="n">
+        <v>126.6999969482422</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>45390.63541666666</v>
+      </c>
+      <c r="G21" t="n">
+        <v>126.6999969482422</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>03/06/2024 03:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>TV18BRDCST.NS</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>31-05-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>45434.38541666666</v>
+      </c>
+      <c r="E22" t="n">
+        <v>42.65000152587891</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>45441.38541666666</v>
+      </c>
+      <c r="G22" t="n">
+        <v>42.29999923706055</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>03/06/2024 03:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>DHANBANK.NS</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>31-05-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>45428.55208333334</v>
+      </c>
+      <c r="E23" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>45440.38541666666</v>
+      </c>
+      <c r="G23" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>03/06/2024 03:25:28</t>
         </is>
       </c>
     </row>
@@ -1464,7 +2511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L135"/>
+  <dimension ref="A1:L152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7966,6 +9013,822 @@
         </is>
       </c>
     </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>TATACONSUM.NS</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>45442.38541666666</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1067.650024414062</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1052</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1052.550048828125</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>1052</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>31-05-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J136" t="n">
+        <v>1051.449951171875</v>
+      </c>
+      <c r="K136" t="n">
+        <v>1057.050048828125</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>03/06/2024 03:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>TORNTPHARM.NS</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>45428.63541666666</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2719.64990234375</v>
+      </c>
+      <c r="D137" t="n">
+        <v>2694.199951171875</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2704.199951171875</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>2719.64990234375</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>31-05-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J137" t="n">
+        <v>2721.550048828125</v>
+      </c>
+      <c r="K137" t="n">
+        <v>2694.550048828125</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>03/06/2024 03:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>PGHH.NS</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>45434.55208333334</v>
+      </c>
+      <c r="C138" t="n">
+        <v>16309</v>
+      </c>
+      <c r="D138" t="n">
+        <v>16170.0498046875</v>
+      </c>
+      <c r="E138" t="n">
+        <v>16219.2998046875</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>16309</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>31-05-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J138" t="n">
+        <v>16347.2001953125</v>
+      </c>
+      <c r="K138" t="n">
+        <v>16006.599609375</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>03/06/2024 03:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>PGHH.NS</t>
+        </is>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>45441.55208333334</v>
+      </c>
+      <c r="C139" t="n">
+        <v>16065.7001953125</v>
+      </c>
+      <c r="D139" t="n">
+        <v>15807.349609375</v>
+      </c>
+      <c r="E139" t="n">
+        <v>15849.7001953125</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>16065.7001953125</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>31-05-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J139" t="n">
+        <v>16347.2001953125</v>
+      </c>
+      <c r="K139" t="n">
+        <v>16006.599609375</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>03/06/2024 03:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>SBICARD.NS</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>45442.42708333334</v>
+      </c>
+      <c r="C140" t="n">
+        <v>693.75</v>
+      </c>
+      <c r="D140" t="n">
+        <v>690</v>
+      </c>
+      <c r="E140" t="n">
+        <v>691.5</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>690</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>31-05-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J140" t="n">
+        <v>689.7999877929688</v>
+      </c>
+      <c r="K140" t="n">
+        <v>691.3499755859375</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>03/06/2024 03:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>BOSCHLTD.NS</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>45422.38541666666</v>
+      </c>
+      <c r="C141" t="n">
+        <v>30154.30078125</v>
+      </c>
+      <c r="D141" t="n">
+        <v>29778.75</v>
+      </c>
+      <c r="E141" t="n">
+        <v>30076.30078125</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>29778.75</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>31-05-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J141" t="n">
+        <v>29550.099609375</v>
+      </c>
+      <c r="K141" t="n">
+        <v>30159.05078125</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>03/06/2024 03:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>SJVN.NS</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>45411.38541666666</v>
+      </c>
+      <c r="C142" t="n">
+        <v>141.1999969482422</v>
+      </c>
+      <c r="D142" t="n">
+        <v>135.3999938964844</v>
+      </c>
+      <c r="E142" t="n">
+        <v>137.6999969482422</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>141.1999969482422</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>31-05-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J142" t="n">
+        <v>143.1000061035156</v>
+      </c>
+      <c r="K142" t="n">
+        <v>138.6000061035156</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>03/06/2024 03:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>SJVN.NS</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>45415.38541666666</v>
+      </c>
+      <c r="C143" t="n">
+        <v>139.5500030517578</v>
+      </c>
+      <c r="D143" t="n">
+        <v>137.1999969482422</v>
+      </c>
+      <c r="E143" t="n">
+        <v>137.3000030517578</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>139.5500030517578</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>31-05-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J143" t="n">
+        <v>143.1000061035156</v>
+      </c>
+      <c r="K143" t="n">
+        <v>138.6000061035156</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>03/06/2024 03:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>NHPC.NS</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>45435.42708333334</v>
+      </c>
+      <c r="C144" t="n">
+        <v>108.5999984741211</v>
+      </c>
+      <c r="D144" t="n">
+        <v>106.1500015258789</v>
+      </c>
+      <c r="E144" t="n">
+        <v>107.3000030517578</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>108.5999984741211</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>31-05-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J144" t="n">
+        <v>110.4499969482422</v>
+      </c>
+      <c r="K144" t="n">
+        <v>107.5500030517578</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>03/06/2024 03:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>GUJGASLTD.NS</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="n">
+        <v>45426.63541666666</v>
+      </c>
+      <c r="C145" t="n">
+        <v>553.5999755859375</v>
+      </c>
+      <c r="D145" t="n">
+        <v>549.7000122070312</v>
+      </c>
+      <c r="E145" t="n">
+        <v>550.0999755859375</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>553.5999755859375</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>31-05-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J145" t="n">
+        <v>557.5</v>
+      </c>
+      <c r="K145" t="n">
+        <v>551.6500244140625</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>03/06/2024 03:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>IGL.NS</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>45429.42708333334</v>
+      </c>
+      <c r="C146" t="n">
+        <v>438.5499877929688</v>
+      </c>
+      <c r="D146" t="n">
+        <v>435.5</v>
+      </c>
+      <c r="E146" t="n">
+        <v>438.4500122070312</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>435.5</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>31-05-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J146" t="n">
+        <v>435.2999877929688</v>
+      </c>
+      <c r="K146" t="n">
+        <v>439</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>03/06/2024 03:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>IGL.NS</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>45434.38541666666</v>
+      </c>
+      <c r="C147" t="n">
+        <v>441.9500122070312</v>
+      </c>
+      <c r="D147" t="n">
+        <v>435.7000122070312</v>
+      </c>
+      <c r="E147" t="n">
+        <v>437.8500061035156</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>435.7000122070312</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>31-05-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J147" t="n">
+        <v>435.2999877929688</v>
+      </c>
+      <c r="K147" t="n">
+        <v>439</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>03/06/2024 03:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>HERCULES.NS</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>45425.42708333334</v>
+      </c>
+      <c r="C148" t="n">
+        <v>462.2000122070312</v>
+      </c>
+      <c r="D148" t="n">
+        <v>452.2000122070312</v>
+      </c>
+      <c r="E148" t="n">
+        <v>456.25</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>452.2000122070312</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>31-05-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J148" t="n">
+        <v>446</v>
+      </c>
+      <c r="K148" t="n">
+        <v>452.5499877929688</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>03/06/2024 03:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>MAHEPC.NS</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>45435.51041666666</v>
+      </c>
+      <c r="C149" t="n">
+        <v>137.5</v>
+      </c>
+      <c r="D149" t="n">
+        <v>136</v>
+      </c>
+      <c r="E149" t="n">
+        <v>136.75</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>137.5</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>31-05-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J149" t="n">
+        <v>139.3999938964844</v>
+      </c>
+      <c r="K149" t="n">
+        <v>135.8999938964844</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>03/06/2024 03:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>THERMAX.NS</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>45441.38541666666</v>
+      </c>
+      <c r="C150" t="n">
+        <v>5559.85009765625</v>
+      </c>
+      <c r="D150" t="n">
+        <v>5332.75</v>
+      </c>
+      <c r="E150" t="n">
+        <v>5364.7001953125</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>5559.85009765625</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>31-05-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J150" t="n">
+        <v>5564</v>
+      </c>
+      <c r="K150" t="n">
+        <v>5477</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>03/06/2024 03:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>M&amp;MFIN.NS</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>45428.51041666666</v>
+      </c>
+      <c r="C151" t="n">
+        <v>268.2999877929688</v>
+      </c>
+      <c r="D151" t="n">
+        <v>266.8500061035156</v>
+      </c>
+      <c r="E151" t="n">
+        <v>267.8999938964844</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>268.2999877929688</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>31-05-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J151" t="n">
+        <v>270.1499938964844</v>
+      </c>
+      <c r="K151" t="n">
+        <v>267.3999938964844</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>03/06/2024 03:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>DCXINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="n">
+        <v>45441.38541666666</v>
+      </c>
+      <c r="C152" t="n">
+        <v>317.5</v>
+      </c>
+      <c r="D152" t="n">
+        <v>311.1000061035156</v>
+      </c>
+      <c r="E152" t="n">
+        <v>315.7000122070312</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>311.1000061035156</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>31-05-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J152" t="n">
+        <v>307.8999938964844</v>
+      </c>
+      <c r="K152" t="n">
+        <v>312.4500122070312</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>03/06/2024 03:25:28</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1573,6 +1573,1491 @@
       <c r="K25" t="inlineStr">
         <is>
           <t>03/06/2024 03:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>BAJAJFINSV.NS</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1559</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1568.699951171875</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1556</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>UPL.NS</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>44942</v>
+      </c>
+      <c r="E27" t="n">
+        <v>710.5</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>44999</v>
+      </c>
+      <c r="G27" t="n">
+        <v>687.5999755859375</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>45065</v>
+      </c>
+      <c r="I27" t="n">
+        <v>657.0499877929688</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>TATASTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>45217</v>
+      </c>
+      <c r="E28" t="n">
+        <v>128.6999969482422</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="G28" t="n">
+        <v>141.25</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>45329</v>
+      </c>
+      <c r="I28" t="n">
+        <v>147.3999938964844</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>JSWSTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>44928</v>
+      </c>
+      <c r="E29" t="n">
+        <v>783.5</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>45148</v>
+      </c>
+      <c r="G29" t="n">
+        <v>835</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>45181</v>
+      </c>
+      <c r="I29" t="n">
+        <v>840</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>BANKBARODA.NS</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="E30" t="n">
+        <v>219.4499969482422</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="G30" t="n">
+        <v>243.8000030517578</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="I30" t="n">
+        <v>251.1000061035156</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>SHRIRAMFIN.NS</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1901</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1971.800048828125</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>45274</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2130</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AMBUJACEM.NS</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>45253</v>
+      </c>
+      <c r="E32" t="n">
+        <v>408.6000061035156</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="G32" t="n">
+        <v>550.7999877929688</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="I32" t="n">
+        <v>593.4500122070312</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>AMBUJACEM.NS</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="E33" t="n">
+        <v>480.4500122070312</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="G33" t="n">
+        <v>509</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="I33" t="n">
+        <v>593.4500122070312</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>IRCTC.NS</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>45058</v>
+      </c>
+      <c r="E34" t="n">
+        <v>637.2000122070312</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="G34" t="n">
+        <v>659.0999755859375</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>45096</v>
+      </c>
+      <c r="I34" t="n">
+        <v>675</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CANBK.NS</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="E35" t="n">
+        <v>68.41999816894531</v>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="G35" t="n">
+        <v>82.69000244140625</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="I35" t="n">
+        <v>112.5400009155273</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>PGHH.NS</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>45197</v>
+      </c>
+      <c r="E36" t="n">
+        <v>18597.94921875</v>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>45288</v>
+      </c>
+      <c r="G36" t="n">
+        <v>17629.900390625</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>45307</v>
+      </c>
+      <c r="I36" t="n">
+        <v>17432.900390625</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>PGHH.NS</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>45288</v>
+      </c>
+      <c r="E37" t="n">
+        <v>17629.900390625</v>
+      </c>
+      <c r="F37" s="2" t="n">
+        <v>45307</v>
+      </c>
+      <c r="G37" t="n">
+        <v>17432.900390625</v>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="I37" t="n">
+        <v>16500</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>HAVELLS.NS</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>44993</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1228.599975585938</v>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>45058</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1322.900024414062</v>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1373.699951171875</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>BAJAJHIND.NS</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="E39" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="F39" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="G39" t="n">
+        <v>30.64999961853027</v>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="I39" t="n">
+        <v>30.64999961853027</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>BAJAJHIND.NS</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="E40" t="n">
+        <v>26.79999923706055</v>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="G40" t="n">
+        <v>30.64999961853027</v>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="I40" t="n">
+        <v>30.64999961853027</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>DALBHARAT.NS</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>45042</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1901.5</v>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>45131</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1880.650024414062</v>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>45156</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1873.300048828125</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>BALRAMCHIN.NS</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>45061</v>
+      </c>
+      <c r="E42" t="n">
+        <v>371.5</v>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>45120</v>
+      </c>
+      <c r="G42" t="n">
+        <v>372.8500061035156</v>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>45273</v>
+      </c>
+      <c r="I42" t="n">
+        <v>376.2000122070312</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>SJVN.NS</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>45280</v>
+      </c>
+      <c r="E43" t="n">
+        <v>81.05000305175781</v>
+      </c>
+      <c r="F43" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="G43" t="n">
+        <v>88.84999847412109</v>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>45335</v>
+      </c>
+      <c r="I43" t="n">
+        <v>100.6500015258789</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>TATAMTRDVR.NS</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>45013</v>
+      </c>
+      <c r="E44" t="n">
+        <v>202</v>
+      </c>
+      <c r="F44" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="G44" t="n">
+        <v>410.4500122070312</v>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="I44" t="n">
+        <v>463.5</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>RAMCOCEM.NS</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>44874</v>
+      </c>
+      <c r="E45" t="n">
+        <v>746.0999755859375</v>
+      </c>
+      <c r="F45" s="2" t="n">
+        <v>44974</v>
+      </c>
+      <c r="G45" t="n">
+        <v>751.5999755859375</v>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>44994</v>
+      </c>
+      <c r="I45" t="n">
+        <v>750.5</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>NLCINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="E46" t="n">
+        <v>72.94999694824219</v>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="G46" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="I46" t="n">
+        <v>92.40000152587891</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>TATAELXSI.NS</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>45202</v>
+      </c>
+      <c r="E47" t="n">
+        <v>7172</v>
+      </c>
+      <c r="F47" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="G47" t="n">
+        <v>7000</v>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="I47" t="n">
+        <v>7006</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>SHAKTIPUMP.NS</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>45142</v>
+      </c>
+      <c r="E48" t="n">
+        <v>768.5999755859375</v>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="G48" t="n">
+        <v>927.7000122070312</v>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>45219</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1224.650024414062</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>SANGHVIMOV.NS</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="E49" t="n">
+        <v>444.1499938964844</v>
+      </c>
+      <c r="F49" s="2" t="n">
+        <v>45182</v>
+      </c>
+      <c r="G49" t="n">
+        <v>612.7000122070312</v>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>45202</v>
+      </c>
+      <c r="I49" t="n">
+        <v>650</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>WEBELSOLAR.NS</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>44342</v>
+      </c>
+      <c r="E50" t="n">
+        <v>58.04999923706055</v>
+      </c>
+      <c r="F50" s="2" t="n">
+        <v>44383</v>
+      </c>
+      <c r="G50" t="n">
+        <v>78.40000152587891</v>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>44384</v>
+      </c>
+      <c r="I50" t="n">
+        <v>78.40000152587891</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>NMDC.NS</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="E51" t="n">
+        <v>110.5</v>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>45184</v>
+      </c>
+      <c r="G51" t="n">
+        <v>154.25</v>
+      </c>
+      <c r="H51" s="2" t="n">
+        <v>45216</v>
+      </c>
+      <c r="I51" t="n">
+        <v>167.5500030517578</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>NMDC.NS</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>45208</v>
+      </c>
+      <c r="E52" t="n">
+        <v>140.6499938964844</v>
+      </c>
+      <c r="F52" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="G52" t="n">
+        <v>179.8999938964844</v>
+      </c>
+      <c r="H52" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="I52" t="n">
+        <v>196.6000061035156</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>NMDC.NS</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="E53" t="n">
+        <v>149.1999969482422</v>
+      </c>
+      <c r="F53" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="G53" t="n">
+        <v>179.8999938964844</v>
+      </c>
+      <c r="H53" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="I53" t="n">
+        <v>196.6000061035156</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>CENTRALBK.BO</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>45141</v>
+      </c>
+      <c r="E54" t="n">
+        <v>29.55999946594238</v>
+      </c>
+      <c r="F54" s="2" t="n">
+        <v>45253</v>
+      </c>
+      <c r="G54" t="n">
+        <v>43.56999969482422</v>
+      </c>
+      <c r="H54" s="2" t="n">
+        <v>45258</v>
+      </c>
+      <c r="I54" t="n">
+        <v>43.56999969482422</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>RTNINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>45013</v>
+      </c>
+      <c r="E55" t="n">
+        <v>32.15000152587891</v>
+      </c>
+      <c r="F55" s="2" t="n">
+        <v>45068</v>
+      </c>
+      <c r="G55" t="n">
+        <v>37.15000152587891</v>
+      </c>
+      <c r="H55" s="2" t="n">
+        <v>45069</v>
+      </c>
+      <c r="I55" t="n">
+        <v>37.15000152587891</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>HPL.NS</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>45125</v>
+      </c>
+      <c r="E56" t="n">
+        <v>244.6999969482422</v>
+      </c>
+      <c r="F56" s="2" t="n">
+        <v>45175</v>
+      </c>
+      <c r="G56" t="n">
+        <v>269.3999938964844</v>
+      </c>
+      <c r="H56" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="I56" t="n">
+        <v>325</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>44210</v>
+      </c>
+      <c r="E57" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="F57" s="2" t="n">
+        <v>44223</v>
+      </c>
+      <c r="G57" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="H57" s="2" t="n">
+        <v>44224</v>
+      </c>
+      <c r="I57" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>44210</v>
+      </c>
+      <c r="E58" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="F58" s="2" t="n">
+        <v>44221</v>
+      </c>
+      <c r="G58" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="H58" s="2" t="n">
+        <v>44224</v>
+      </c>
+      <c r="I58" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
         </is>
       </c>
     </row>
@@ -1587,7 +3072,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2497,6 +3982,357 @@
       <c r="I23" t="inlineStr">
         <is>
           <t>03/06/2024 03:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>BAJFINANCE.NS</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="E24" t="n">
+        <v>6945</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>45246</v>
+      </c>
+      <c r="G24" t="n">
+        <v>6931.25</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>BAJAJFINSV.NS</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1568.699951171875</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1556</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>SBILIFE.NS</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>45147</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1374</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1377.949951171875</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>SHREECEM.NS</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>45202</v>
+      </c>
+      <c r="E27" t="n">
+        <v>25309.099609375</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>45226</v>
+      </c>
+      <c r="G27" t="n">
+        <v>25309</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>SBICARD.NS</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>44627</v>
+      </c>
+      <c r="E28" t="n">
+        <v>712.25</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>44694</v>
+      </c>
+      <c r="G28" t="n">
+        <v>710.7999877929688</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>PGHH.NS</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>45126</v>
+      </c>
+      <c r="E29" t="n">
+        <v>16100</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="G29" t="n">
+        <v>16100</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>DALBHARAT.NS</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>45131</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1880.650024414062</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>45156</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1873.300048828125</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>MOL.NS</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="E31" t="n">
+        <v>80.30000305175781</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>45134</v>
+      </c>
+      <c r="G31" t="n">
+        <v>80.30000305175781</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>DYNAMATECH.NS</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>45330</v>
+      </c>
+      <c r="E32" t="n">
+        <v>7780</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="G32" t="n">
+        <v>7780</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
         </is>
       </c>
     </row>
@@ -2511,7 +4347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L152"/>
+  <dimension ref="A1:L281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9829,6 +11665,6198 @@
         </is>
       </c>
     </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>ASIANPAINT.NS</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2943.25</v>
+      </c>
+      <c r="D153" t="n">
+        <v>2851.25</v>
+      </c>
+      <c r="E153" t="n">
+        <v>2918.300048828125</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>2943.25</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J153" t="n">
+        <v>2950</v>
+      </c>
+      <c r="K153" t="n">
+        <v>2906</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>GODREJPROP.NS</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2791.800048828125</v>
+      </c>
+      <c r="D154" t="n">
+        <v>2644.449951171875</v>
+      </c>
+      <c r="E154" t="n">
+        <v>2704.5</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>2791.800048828125</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J154" t="n">
+        <v>3007.199951171875</v>
+      </c>
+      <c r="K154" t="n">
+        <v>2787</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>^NSEBANK</t>
+        </is>
+      </c>
+      <c r="B155" s="2" t="n">
+        <v>45392</v>
+      </c>
+      <c r="C155" t="n">
+        <v>49057.3984375</v>
+      </c>
+      <c r="D155" t="n">
+        <v>48669.25</v>
+      </c>
+      <c r="E155" t="n">
+        <v>48986.6015625</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>49057.3984375</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J155" t="n">
+        <v>49122.55078125</v>
+      </c>
+      <c r="K155" t="n">
+        <v>49044.6015625</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>NIFTY_FIN_SERVICE.NS</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C156" t="n">
+        <v>22136.599609375</v>
+      </c>
+      <c r="D156" t="n">
+        <v>21707.44921875</v>
+      </c>
+      <c r="E156" t="n">
+        <v>21797.400390625</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>22136.599609375</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J156" t="n">
+        <v>22632.349609375</v>
+      </c>
+      <c r="K156" t="n">
+        <v>21786.80078125</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>^NSEI</t>
+        </is>
+      </c>
+      <c r="B157" s="2" t="n">
+        <v>45392</v>
+      </c>
+      <c r="C157" t="n">
+        <v>22775.69921875</v>
+      </c>
+      <c r="D157" t="n">
+        <v>22673.69921875</v>
+      </c>
+      <c r="E157" t="n">
+        <v>22753.80078125</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>22775.69921875</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J157" t="n">
+        <v>23338.69921875</v>
+      </c>
+      <c r="K157" t="n">
+        <v>22653.75</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>^NSEI</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C158" t="n">
+        <v>22794.69921875</v>
+      </c>
+      <c r="D158" t="n">
+        <v>22348.05078125</v>
+      </c>
+      <c r="E158" t="n">
+        <v>22475.849609375</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>22794.69921875</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J158" t="n">
+        <v>23338.69921875</v>
+      </c>
+      <c r="K158" t="n">
+        <v>22653.75</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>ULTRACEMCO.NS</t>
+        </is>
+      </c>
+      <c r="B159" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C159" t="n">
+        <v>10183.849609375</v>
+      </c>
+      <c r="D159" t="n">
+        <v>9892.400390625</v>
+      </c>
+      <c r="E159" t="n">
+        <v>10135.5</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>10183.849609375</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J159" t="n">
+        <v>10504.150390625</v>
+      </c>
+      <c r="K159" t="n">
+        <v>10080</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>ULTRACEMCO.NS</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="C160" t="n">
+        <v>10277.7001953125</v>
+      </c>
+      <c r="D160" t="n">
+        <v>9982.150390625</v>
+      </c>
+      <c r="E160" t="n">
+        <v>10001.900390625</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>10277.7001953125</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J160" t="n">
+        <v>10504.150390625</v>
+      </c>
+      <c r="K160" t="n">
+        <v>10080</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>ULTRACEMCO.NS</t>
+        </is>
+      </c>
+      <c r="B161" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="C161" t="n">
+        <v>10180</v>
+      </c>
+      <c r="D161" t="n">
+        <v>9911.349609375</v>
+      </c>
+      <c r="E161" t="n">
+        <v>9971.849609375</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>10180</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J161" t="n">
+        <v>10504.150390625</v>
+      </c>
+      <c r="K161" t="n">
+        <v>10080</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>BAJAJ-AUTO.NS</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="C162" t="n">
+        <v>9357.9501953125</v>
+      </c>
+      <c r="D162" t="n">
+        <v>9139.5</v>
+      </c>
+      <c r="E162" t="n">
+        <v>9276.099609375</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>9357.9501953125</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J162" t="n">
+        <v>9444</v>
+      </c>
+      <c r="K162" t="n">
+        <v>9125.5</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>BAJAJ-AUTO.NS</t>
+        </is>
+      </c>
+      <c r="B163" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C163" t="n">
+        <v>9258.599609375</v>
+      </c>
+      <c r="D163" t="n">
+        <v>9064.349609375</v>
+      </c>
+      <c r="E163" t="n">
+        <v>9105.599609375</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>9258.599609375</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J163" t="n">
+        <v>9444</v>
+      </c>
+      <c r="K163" t="n">
+        <v>9125.5</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>BRITANNIA.NS</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C164" t="n">
+        <v>5239.75</v>
+      </c>
+      <c r="D164" t="n">
+        <v>5078.5</v>
+      </c>
+      <c r="E164" t="n">
+        <v>5124.5</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>5239.75</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J164" t="n">
+        <v>5300</v>
+      </c>
+      <c r="K164" t="n">
+        <v>5221</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>BPCL.NS</t>
+        </is>
+      </c>
+      <c r="B165" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C165" t="n">
+        <v>641.7000122070312</v>
+      </c>
+      <c r="D165" t="n">
+        <v>625.0999755859375</v>
+      </c>
+      <c r="E165" t="n">
+        <v>629.8499755859375</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>641.7000122070312</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J165" t="n">
+        <v>687</v>
+      </c>
+      <c r="K165" t="n">
+        <v>634.4000244140625</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>POWERGRID.NS</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="C166" t="n">
+        <v>317.25</v>
+      </c>
+      <c r="D166" t="n">
+        <v>301.8500061035156</v>
+      </c>
+      <c r="E166" t="n">
+        <v>313.6000061035156</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>317.25</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J166" t="n">
+        <v>348.7000122070312</v>
+      </c>
+      <c r="K166" t="n">
+        <v>311.5</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>JSWSTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B167" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="C167" t="n">
+        <v>914</v>
+      </c>
+      <c r="D167" t="n">
+        <v>884.6500244140625</v>
+      </c>
+      <c r="E167" t="n">
+        <v>887.25</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>914</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J167" t="n">
+        <v>917.7000122070312</v>
+      </c>
+      <c r="K167" t="n">
+        <v>895.4500122070312</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>NTPC.NS</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="C168" t="n">
+        <v>374.5</v>
+      </c>
+      <c r="D168" t="n">
+        <v>361</v>
+      </c>
+      <c r="E168" t="n">
+        <v>361.75</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>374.5</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J168" t="n">
+        <v>391.6499938964844</v>
+      </c>
+      <c r="K168" t="n">
+        <v>366.6499938964844</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>NTPC.NS</t>
+        </is>
+      </c>
+      <c r="B169" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C169" t="n">
+        <v>380.3999938964844</v>
+      </c>
+      <c r="D169" t="n">
+        <v>360.3500061035156</v>
+      </c>
+      <c r="E169" t="n">
+        <v>364.9500122070312</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>380.3999938964844</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J169" t="n">
+        <v>391.6499938964844</v>
+      </c>
+      <c r="K169" t="n">
+        <v>366.6499938964844</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>LT.NS</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="C170" t="n">
+        <v>3860</v>
+      </c>
+      <c r="D170" t="n">
+        <v>3771.25</v>
+      </c>
+      <c r="E170" t="n">
+        <v>3807.39990234375</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>3860</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J170" t="n">
+        <v>3919.89990234375</v>
+      </c>
+      <c r="K170" t="n">
+        <v>3744.800048828125</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>TATASTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B171" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="C171" t="n">
+        <v>169.8000030517578</v>
+      </c>
+      <c r="D171" t="n">
+        <v>165.1999969482422</v>
+      </c>
+      <c r="E171" t="n">
+        <v>166</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>169.8000030517578</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J171" t="n">
+        <v>175</v>
+      </c>
+      <c r="K171" t="n">
+        <v>167.9499969482422</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>TATASTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C172" t="n">
+        <v>170.75</v>
+      </c>
+      <c r="D172" t="n">
+        <v>165.1499938964844</v>
+      </c>
+      <c r="E172" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>170.75</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J172" t="n">
+        <v>175</v>
+      </c>
+      <c r="K172" t="n">
+        <v>167.9499969482422</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>HDFCBANK.NS</t>
+        </is>
+      </c>
+      <c r="B173" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1557.400024414062</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1508.300048828125</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1512.199951171875</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>1557.400024414062</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J173" t="n">
+        <v>1599</v>
+      </c>
+      <c r="K173" t="n">
+        <v>1536</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>IRCTC.NS</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1068.800048828125</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1016.849975585938</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1057.650024414062</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>1068.800048828125</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J174" t="n">
+        <v>1084.949951171875</v>
+      </c>
+      <c r="K174" t="n">
+        <v>1037.75</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>IRCTC.NS</t>
+        </is>
+      </c>
+      <c r="B175" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1076.449951171875</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1036.800048828125</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1056.300048828125</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>1076.449951171875</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J175" t="n">
+        <v>1084.949951171875</v>
+      </c>
+      <c r="K175" t="n">
+        <v>1037.75</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>BANDHANBNK.NS</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C176" t="n">
+        <v>192.5500030517578</v>
+      </c>
+      <c r="D176" t="n">
+        <v>186.8999938964844</v>
+      </c>
+      <c r="E176" t="n">
+        <v>187.6000061035156</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>192.5500030517578</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J176" t="n">
+        <v>194.3500061035156</v>
+      </c>
+      <c r="K176" t="n">
+        <v>189.1000061035156</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>AUBANK.NS</t>
+        </is>
+      </c>
+      <c r="B177" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C177" t="n">
+        <v>655.5499877929688</v>
+      </c>
+      <c r="D177" t="n">
+        <v>639.5</v>
+      </c>
+      <c r="E177" t="n">
+        <v>645</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>655.5499877929688</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J177" t="n">
+        <v>667.9000244140625</v>
+      </c>
+      <c r="K177" t="n">
+        <v>655.3499755859375</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>MUTHOOTFIN.NS</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1753.900024414062</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1695.5</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1720.650024414062</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>1753.900024414062</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J178" t="n">
+        <v>1767.050048828125</v>
+      </c>
+      <c r="K178" t="n">
+        <v>1744.599975585938</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>CANBK.NS</t>
+        </is>
+      </c>
+      <c r="B179" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C179" t="n">
+        <v>121.2600021362305</v>
+      </c>
+      <c r="D179" t="n">
+        <v>117.0199966430664</v>
+      </c>
+      <c r="E179" t="n">
+        <v>120</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>121.2600021362305</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J179" t="n">
+        <v>128.75</v>
+      </c>
+      <c r="K179" t="n">
+        <v>119.3499984741211</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>CANBK.NS</t>
+        </is>
+      </c>
+      <c r="B180" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C180" t="n">
+        <v>123.7900009155273</v>
+      </c>
+      <c r="D180" t="n">
+        <v>121.4199981689453</v>
+      </c>
+      <c r="E180" t="n">
+        <v>122.4899978637695</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>123.7900009155273</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J180" t="n">
+        <v>128.75</v>
+      </c>
+      <c r="K180" t="n">
+        <v>119.3499984741211</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>CANBK.NS</t>
+        </is>
+      </c>
+      <c r="B181" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C181" t="n">
+        <v>126.5800018310547</v>
+      </c>
+      <c r="D181" t="n">
+        <v>123.8000030517578</v>
+      </c>
+      <c r="E181" t="n">
+        <v>125.129997253418</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>126.5800018310547</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J181" t="n">
+        <v>128.75</v>
+      </c>
+      <c r="K181" t="n">
+        <v>119.3499984741211</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>MCDOWELL-N.NS</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1182.150024414062</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1163.550048828125</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1167.25</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>1182.150024414062</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J182" t="n">
+        <v>1185.5</v>
+      </c>
+      <c r="K182" t="n">
+        <v>1179.949951171875</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>BANKBARODA.NS</t>
+        </is>
+      </c>
+      <c r="B183" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C183" t="n">
+        <v>285.6000061035156</v>
+      </c>
+      <c r="D183" t="n">
+        <v>276.5</v>
+      </c>
+      <c r="E183" t="n">
+        <v>277.3999938964844</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>285.6000061035156</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J183" t="n">
+        <v>299.7000122070312</v>
+      </c>
+      <c r="K183" t="n">
+        <v>266.3500061035156</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>BANKBARODA.NS</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="C184" t="n">
+        <v>276.7000122070312</v>
+      </c>
+      <c r="D184" t="n">
+        <v>268.3500061035156</v>
+      </c>
+      <c r="E184" t="n">
+        <v>269.4500122070312</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>276.7000122070312</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J184" t="n">
+        <v>299.7000122070312</v>
+      </c>
+      <c r="K184" t="n">
+        <v>266.3500061035156</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>BANKBARODA.NS</t>
+        </is>
+      </c>
+      <c r="B185" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="C185" t="n">
+        <v>284.7999877929688</v>
+      </c>
+      <c r="D185" t="n">
+        <v>272.6000061035156</v>
+      </c>
+      <c r="E185" t="n">
+        <v>281.5</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>284.7999877929688</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J185" t="n">
+        <v>299.7000122070312</v>
+      </c>
+      <c r="K185" t="n">
+        <v>266.3500061035156</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>ICICIBANK.NS</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1169.550048828125</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1146.75</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1150.400024414062</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>1169.550048828125</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J186" t="n">
+        <v>1173</v>
+      </c>
+      <c r="K186" t="n">
+        <v>1130.599975585938</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>SHRIRAMFIN.NS</t>
+        </is>
+      </c>
+      <c r="B187" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C187" t="n">
+        <v>2535</v>
+      </c>
+      <c r="D187" t="n">
+        <v>2447.949951171875</v>
+      </c>
+      <c r="E187" t="n">
+        <v>2485.14990234375</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>2535</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J187" t="n">
+        <v>2546.949951171875</v>
+      </c>
+      <c r="K187" t="n">
+        <v>2387.35009765625</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>AMBUJACEM.NS</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="C188" t="n">
+        <v>640.7999877929688</v>
+      </c>
+      <c r="D188" t="n">
+        <v>623.5999755859375</v>
+      </c>
+      <c r="E188" t="n">
+        <v>624.7000122070312</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>640.7999877929688</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J188" t="n">
+        <v>676.6500244140625</v>
+      </c>
+      <c r="K188" t="n">
+        <v>639.8499755859375</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>AMBUJACEM.NS</t>
+        </is>
+      </c>
+      <c r="B189" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="C189" t="n">
+        <v>649</v>
+      </c>
+      <c r="D189" t="n">
+        <v>629.2000122070312</v>
+      </c>
+      <c r="E189" t="n">
+        <v>638.3499755859375</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>649</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J189" t="n">
+        <v>676.6500244140625</v>
+      </c>
+      <c r="K189" t="n">
+        <v>639.8499755859375</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>FEDERALBNK.NS</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C190" t="n">
+        <v>166.3500061035156</v>
+      </c>
+      <c r="D190" t="n">
+        <v>162.3500061035156</v>
+      </c>
+      <c r="E190" t="n">
+        <v>162.9499969482422</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>166.3500061035156</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J190" t="n">
+        <v>167</v>
+      </c>
+      <c r="K190" t="n">
+        <v>162.75</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>GAIL.NS</t>
+        </is>
+      </c>
+      <c r="B191" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="C191" t="n">
+        <v>213.6499938964844</v>
+      </c>
+      <c r="D191" t="n">
+        <v>202.25</v>
+      </c>
+      <c r="E191" t="n">
+        <v>203.5500030517578</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>213.6499938964844</v>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J191" t="n">
+        <v>224.25</v>
+      </c>
+      <c r="K191" t="n">
+        <v>205.1499938964844</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>ADANIENSOL.NS</t>
+        </is>
+      </c>
+      <c r="B192" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1190.599975585938</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1081</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1176.150024414062</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>1190.599975585938</v>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J192" t="n">
+        <v>1249.400024414062</v>
+      </c>
+      <c r="K192" t="n">
+        <v>1150.099975585938</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>AWL.NS</t>
+        </is>
+      </c>
+      <c r="B193" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C193" t="n">
+        <v>366.7000122070312</v>
+      </c>
+      <c r="D193" t="n">
+        <v>354.6000061035156</v>
+      </c>
+      <c r="E193" t="n">
+        <v>356.3999938964844</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>366.7000122070312</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J193" t="n">
+        <v>383.9500122070312</v>
+      </c>
+      <c r="K193" t="n">
+        <v>361.5499877929688</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>ATGL.NS</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="n">
+        <v>45329</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1072.199951171875</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1001.049987792969</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1040.050048828125</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G194" t="n">
+        <v>1072.199951171875</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J194" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K194" t="n">
+        <v>1060</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>ATGL.NS</t>
+        </is>
+      </c>
+      <c r="B195" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1096</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1042.199951171875</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1048.300048828125</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G195" t="n">
+        <v>1096</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J195" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K195" t="n">
+        <v>1060</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>ADANIGREEN.NS</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C196" t="n">
+        <v>2018.949951171875</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1947.949951171875</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1979.5</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G196" t="n">
+        <v>2018.949951171875</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J196" t="n">
+        <v>2174.10009765625</v>
+      </c>
+      <c r="K196" t="n">
+        <v>1993.900024414062</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>IOC.NS</t>
+        </is>
+      </c>
+      <c r="B197" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="C197" t="n">
+        <v>175.1999969482422</v>
+      </c>
+      <c r="D197" t="n">
+        <v>173.1499938964844</v>
+      </c>
+      <c r="E197" t="n">
+        <v>173.6999969482422</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
+        <v>175.1999969482422</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J197" t="n">
+        <v>176.3999938964844</v>
+      </c>
+      <c r="K197" t="n">
+        <v>163.75</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>IRB.NS</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C198" t="n">
+        <v>69.30000305175781</v>
+      </c>
+      <c r="D198" t="n">
+        <v>65.94999694824219</v>
+      </c>
+      <c r="E198" t="n">
+        <v>67.09999847412109</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G198" t="n">
+        <v>69.30000305175781</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J198" t="n">
+        <v>74.59999847412109</v>
+      </c>
+      <c r="K198" t="n">
+        <v>66.69999694824219</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>IRB.NS</t>
+        </is>
+      </c>
+      <c r="B199" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C199" t="n">
+        <v>73.09999847412109</v>
+      </c>
+      <c r="D199" t="n">
+        <v>67.65000152587891</v>
+      </c>
+      <c r="E199" t="n">
+        <v>70</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G199" t="n">
+        <v>73.09999847412109</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J199" t="n">
+        <v>74.59999847412109</v>
+      </c>
+      <c r="K199" t="n">
+        <v>66.69999694824219</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>IRB.NS</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="C200" t="n">
+        <v>70.94999694824219</v>
+      </c>
+      <c r="D200" t="n">
+        <v>67.55000305175781</v>
+      </c>
+      <c r="E200" t="n">
+        <v>69.69999694824219</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G200" t="n">
+        <v>70.94999694824219</v>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J200" t="n">
+        <v>74.59999847412109</v>
+      </c>
+      <c r="K200" t="n">
+        <v>66.69999694824219</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>CONCOR.NS</t>
+        </is>
+      </c>
+      <c r="B201" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1083.849975585938</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1036.400024414062</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1049.550048828125</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G201" t="n">
+        <v>1083.849975585938</v>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J201" t="n">
+        <v>1149.5</v>
+      </c>
+      <c r="K201" t="n">
+        <v>1080.650024414062</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>DALMIASUG.NS</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="C202" t="n">
+        <v>389.5</v>
+      </c>
+      <c r="D202" t="n">
+        <v>376.3500061035156</v>
+      </c>
+      <c r="E202" t="n">
+        <v>379.7000122070312</v>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G202" t="n">
+        <v>389.5</v>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J202" t="n">
+        <v>391.3500061035156</v>
+      </c>
+      <c r="K202" t="n">
+        <v>373.8999938964844</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>GIPCL.NS</t>
+        </is>
+      </c>
+      <c r="B203" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C203" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="D203" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="E203" t="n">
+        <v>186.3500061035156</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G203" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J203" t="n">
+        <v>203.5</v>
+      </c>
+      <c r="K203" t="n">
+        <v>181.6499938964844</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>GIPCL.NS</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="n">
+        <v>45427</v>
+      </c>
+      <c r="C204" t="n">
+        <v>198.8000030517578</v>
+      </c>
+      <c r="D204" t="n">
+        <v>190.8999938964844</v>
+      </c>
+      <c r="E204" t="n">
+        <v>191.3500061035156</v>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G204" t="n">
+        <v>198.8000030517578</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J204" t="n">
+        <v>203.5</v>
+      </c>
+      <c r="K204" t="n">
+        <v>181.6499938964844</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>KPIGREEN.NS</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1890</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1715.300048828125</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1775.449951171875</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G205" t="n">
+        <v>1890</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J205" t="n">
+        <v>1913.550048828125</v>
+      </c>
+      <c r="K205" t="n">
+        <v>1849.050048828125</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>IRFC.NS</t>
+        </is>
+      </c>
+      <c r="B206" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="C206" t="n">
+        <v>192.8000030517578</v>
+      </c>
+      <c r="D206" t="n">
+        <v>158.75</v>
+      </c>
+      <c r="E206" t="n">
+        <v>161.3000030517578</v>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G206" t="n">
+        <v>192.8000030517578</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J206" t="n">
+        <v>200</v>
+      </c>
+      <c r="K206" t="n">
+        <v>179.8500061035156</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>IRCON.NS</t>
+        </is>
+      </c>
+      <c r="B207" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="C207" t="n">
+        <v>280.8500061035156</v>
+      </c>
+      <c r="D207" t="n">
+        <v>225</v>
+      </c>
+      <c r="E207" t="n">
+        <v>229.6499938964844</v>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G207" t="n">
+        <v>280.8500061035156</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J207" t="n">
+        <v>298.9500122070312</v>
+      </c>
+      <c r="K207" t="n">
+        <v>275.2000122070312</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>NBCC.NS</t>
+        </is>
+      </c>
+      <c r="B208" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C208" t="n">
+        <v>144.6999969482422</v>
+      </c>
+      <c r="D208" t="n">
+        <v>137.6499938964844</v>
+      </c>
+      <c r="E208" t="n">
+        <v>142.1499938964844</v>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G208" t="n">
+        <v>144.6999969482422</v>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J208" t="n">
+        <v>156</v>
+      </c>
+      <c r="K208" t="n">
+        <v>143</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>NHPC.NS</t>
+        </is>
+      </c>
+      <c r="B209" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C209" t="n">
+        <v>115.8499984741211</v>
+      </c>
+      <c r="D209" t="n">
+        <v>98.55000305175781</v>
+      </c>
+      <c r="E209" t="n">
+        <v>103.6500015258789</v>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G209" t="n">
+        <v>115.8499984741211</v>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J209" t="n">
+        <v>118</v>
+      </c>
+      <c r="K209" t="n">
+        <v>110.4499969482422</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>OLECTRA.NS</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1808</v>
+      </c>
+      <c r="D210" t="n">
+        <v>1640</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1705.25</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G210" t="n">
+        <v>1808</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J210" t="n">
+        <v>1876.150024414062</v>
+      </c>
+      <c r="K210" t="n">
+        <v>1787.25</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>GMRINFRA.NS</t>
+        </is>
+      </c>
+      <c r="B211" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="C211" t="n">
+        <v>86.69999694824219</v>
+      </c>
+      <c r="D211" t="n">
+        <v>83.84999847412109</v>
+      </c>
+      <c r="E211" t="n">
+        <v>85.65000152587891</v>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G211" t="n">
+        <v>86.69999694824219</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J211" t="n">
+        <v>88.94999694824219</v>
+      </c>
+      <c r="K211" t="n">
+        <v>85.09999847412109</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>IGL.NS</t>
+        </is>
+      </c>
+      <c r="B212" s="2" t="n">
+        <v>45329</v>
+      </c>
+      <c r="C212" t="n">
+        <v>459</v>
+      </c>
+      <c r="D212" t="n">
+        <v>448.5499877929688</v>
+      </c>
+      <c r="E212" t="n">
+        <v>449.2999877929688</v>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G212" t="n">
+        <v>459</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J212" t="n">
+        <v>471.2000122070312</v>
+      </c>
+      <c r="K212" t="n">
+        <v>455.3999938964844</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>IGL.NS</t>
+        </is>
+      </c>
+      <c r="B213" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C213" t="n">
+        <v>460</v>
+      </c>
+      <c r="D213" t="n">
+        <v>447.25</v>
+      </c>
+      <c r="E213" t="n">
+        <v>458.5499877929688</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G213" t="n">
+        <v>460</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J213" t="n">
+        <v>471.2000122070312</v>
+      </c>
+      <c r="K213" t="n">
+        <v>455.3999938964844</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>ACC.NS</t>
+        </is>
+      </c>
+      <c r="B214" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="C214" t="n">
+        <v>2666.699951171875</v>
+      </c>
+      <c r="D214" t="n">
+        <v>2590.10009765625</v>
+      </c>
+      <c r="E214" t="n">
+        <v>2616.25</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G214" t="n">
+        <v>2666.699951171875</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J214" t="n">
+        <v>2683</v>
+      </c>
+      <c r="K214" t="n">
+        <v>2570.10009765625</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>ACC.NS</t>
+        </is>
+      </c>
+      <c r="B215" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="C215" t="n">
+        <v>2610</v>
+      </c>
+      <c r="D215" t="n">
+        <v>2516</v>
+      </c>
+      <c r="E215" t="n">
+        <v>2533.050048828125</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G215" t="n">
+        <v>2610</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J215" t="n">
+        <v>2683</v>
+      </c>
+      <c r="K215" t="n">
+        <v>2570.10009765625</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>JUSTDIAL.NS</t>
+        </is>
+      </c>
+      <c r="B216" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="C216" t="n">
+        <v>949.4500122070312</v>
+      </c>
+      <c r="D216" t="n">
+        <v>888</v>
+      </c>
+      <c r="E216" t="n">
+        <v>892.8499755859375</v>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G216" t="n">
+        <v>949.4500122070312</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J216" t="n">
+        <v>965.3499755859375</v>
+      </c>
+      <c r="K216" t="n">
+        <v>944.7999877929688</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>JUSTDIAL.NS</t>
+        </is>
+      </c>
+      <c r="B217" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C217" t="n">
+        <v>961</v>
+      </c>
+      <c r="D217" t="n">
+        <v>911</v>
+      </c>
+      <c r="E217" t="n">
+        <v>924.2000122070312</v>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G217" t="n">
+        <v>961</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J217" t="n">
+        <v>965.3499755859375</v>
+      </c>
+      <c r="K217" t="n">
+        <v>944.7999877929688</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>SOBHA.NS</t>
+        </is>
+      </c>
+      <c r="B218" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1969.050048828125</v>
+      </c>
+      <c r="D218" t="n">
+        <v>1843.099975585938</v>
+      </c>
+      <c r="E218" t="n">
+        <v>1856</v>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G218" t="n">
+        <v>1969.050048828125</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J218" t="n">
+        <v>1984.949951171875</v>
+      </c>
+      <c r="K218" t="n">
+        <v>1921.599975585938</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>TARC.NS</t>
+        </is>
+      </c>
+      <c r="B219" s="2" t="n">
+        <v>45331</v>
+      </c>
+      <c r="C219" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="D219" t="n">
+        <v>160.1999969482422</v>
+      </c>
+      <c r="E219" t="n">
+        <v>168.1999969482422</v>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G219" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J219" t="n">
+        <v>177</v>
+      </c>
+      <c r="K219" t="n">
+        <v>170.25</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>KOLTEPATIL.NS</t>
+        </is>
+      </c>
+      <c r="B220" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C220" t="n">
+        <v>509.6499938964844</v>
+      </c>
+      <c r="D220" t="n">
+        <v>484.7000122070312</v>
+      </c>
+      <c r="E220" t="n">
+        <v>487.0499877929688</v>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G220" t="n">
+        <v>509.6499938964844</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J220" t="n">
+        <v>513.9500122070312</v>
+      </c>
+      <c r="K220" t="n">
+        <v>458.7999877929688</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B221" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C221" t="n">
+        <v>942</v>
+      </c>
+      <c r="D221" t="n">
+        <v>913.0499877929688</v>
+      </c>
+      <c r="E221" t="n">
+        <v>935.4000244140625</v>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G221" t="n">
+        <v>913.0499877929688</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J221" t="n">
+        <v>909.1500244140625</v>
+      </c>
+      <c r="K221" t="n">
+        <v>963.0999755859375</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B222" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C222" t="n">
+        <v>984</v>
+      </c>
+      <c r="D222" t="n">
+        <v>930.8499755859375</v>
+      </c>
+      <c r="E222" t="n">
+        <v>960.5499877929688</v>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G222" t="n">
+        <v>930.8499755859375</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J222" t="n">
+        <v>909.1500244140625</v>
+      </c>
+      <c r="K222" t="n">
+        <v>963.0999755859375</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>RECLTD.NS</t>
+        </is>
+      </c>
+      <c r="B223" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C223" t="n">
+        <v>567.1500244140625</v>
+      </c>
+      <c r="D223" t="n">
+        <v>553.3499755859375</v>
+      </c>
+      <c r="E223" t="n">
+        <v>557.7999877929688</v>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G223" t="n">
+        <v>567.1500244140625</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J223" t="n">
+        <v>605.0999755859375</v>
+      </c>
+      <c r="K223" t="n">
+        <v>557.9000244140625</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>OIL.NS</t>
+        </is>
+      </c>
+      <c r="B224" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C224" t="n">
+        <v>647</v>
+      </c>
+      <c r="D224" t="n">
+        <v>618</v>
+      </c>
+      <c r="E224" t="n">
+        <v>633.8499755859375</v>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G224" t="n">
+        <v>647</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J224" t="n">
+        <v>689.8499755859375</v>
+      </c>
+      <c r="K224" t="n">
+        <v>638.7999877929688</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>OIL.NS</t>
+        </is>
+      </c>
+      <c r="B225" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="C225" t="n">
+        <v>669.5</v>
+      </c>
+      <c r="D225" t="n">
+        <v>625.0999755859375</v>
+      </c>
+      <c r="E225" t="n">
+        <v>635.6500244140625</v>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G225" t="n">
+        <v>669.5</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J225" t="n">
+        <v>689.8499755859375</v>
+      </c>
+      <c r="K225" t="n">
+        <v>638.7999877929688</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>CENTRALBK.BO</t>
+        </is>
+      </c>
+      <c r="B226" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="C226" t="n">
+        <v>67</v>
+      </c>
+      <c r="D226" t="n">
+        <v>64.13999938964844</v>
+      </c>
+      <c r="E226" t="n">
+        <v>64.94000244140625</v>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G226" t="n">
+        <v>67</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J226" t="n">
+        <v>72.48999786376953</v>
+      </c>
+      <c r="K226" t="n">
+        <v>65.34999847412109</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>CENTRALBK.BO</t>
+        </is>
+      </c>
+      <c r="B227" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="C227" t="n">
+        <v>69.80000305175781</v>
+      </c>
+      <c r="D227" t="n">
+        <v>66.90000152587891</v>
+      </c>
+      <c r="E227" t="n">
+        <v>67.19999694824219</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G227" t="n">
+        <v>69.80000305175781</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J227" t="n">
+        <v>72.48999786376953</v>
+      </c>
+      <c r="K227" t="n">
+        <v>65.34999847412109</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>JPPOWER.NS</t>
+        </is>
+      </c>
+      <c r="B228" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C228" t="n">
+        <v>19.60000038146973</v>
+      </c>
+      <c r="D228" t="n">
+        <v>18.39999961853027</v>
+      </c>
+      <c r="E228" t="n">
+        <v>18.39999961853027</v>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G228" t="n">
+        <v>19.60000038146973</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J228" t="n">
+        <v>20.20000076293945</v>
+      </c>
+      <c r="K228" t="n">
+        <v>19.60000038146973</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>UNIONBANK.NS</t>
+        </is>
+      </c>
+      <c r="B229" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="C229" t="n">
+        <v>163.1999969482422</v>
+      </c>
+      <c r="D229" t="n">
+        <v>158.1000061035156</v>
+      </c>
+      <c r="E229" t="n">
+        <v>160.1999969482422</v>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G229" t="n">
+        <v>163.1999969482422</v>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J229" t="n">
+        <v>170.4499969482422</v>
+      </c>
+      <c r="K229" t="n">
+        <v>161.6000061035156</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>TATACOMM.NS</t>
+        </is>
+      </c>
+      <c r="B230" s="2" t="n">
+        <v>45310</v>
+      </c>
+      <c r="C230" t="n">
+        <v>1804.900024414062</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1718.300048828125</v>
+      </c>
+      <c r="E230" t="n">
+        <v>1737.75</v>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G230" t="n">
+        <v>1804.900024414062</v>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J230" t="n">
+        <v>1821.400024414062</v>
+      </c>
+      <c r="K230" t="n">
+        <v>1784</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>BHEL.NS</t>
+        </is>
+      </c>
+      <c r="B231" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C231" t="n">
+        <v>318.2999877929688</v>
+      </c>
+      <c r="D231" t="n">
+        <v>294.1000061035156</v>
+      </c>
+      <c r="E231" t="n">
+        <v>305</v>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G231" t="n">
+        <v>318.2999877929688</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J231" t="n">
+        <v>321</v>
+      </c>
+      <c r="K231" t="n">
+        <v>300.6000061035156</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B232" s="2" t="n">
+        <v>44299</v>
+      </c>
+      <c r="C232" t="n">
+        <v>10</v>
+      </c>
+      <c r="D232" t="n">
+        <v>10</v>
+      </c>
+      <c r="E232" t="n">
+        <v>10</v>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G232" t="n">
+        <v>10</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J232" t="n">
+        <v>93.06999969482422</v>
+      </c>
+      <c r="K232" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B233" s="2" t="n">
+        <v>44301</v>
+      </c>
+      <c r="C233" t="n">
+        <v>10</v>
+      </c>
+      <c r="D233" t="n">
+        <v>10</v>
+      </c>
+      <c r="E233" t="n">
+        <v>10</v>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G233" t="n">
+        <v>10</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J233" t="n">
+        <v>93.06999969482422</v>
+      </c>
+      <c r="K233" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B234" s="2" t="n">
+        <v>44302</v>
+      </c>
+      <c r="C234" t="n">
+        <v>10</v>
+      </c>
+      <c r="D234" t="n">
+        <v>10</v>
+      </c>
+      <c r="E234" t="n">
+        <v>10</v>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G234" t="n">
+        <v>10</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J234" t="n">
+        <v>93.06999969482422</v>
+      </c>
+      <c r="K234" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>IEX.NS</t>
+        </is>
+      </c>
+      <c r="B235" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C235" t="n">
+        <v>158.3999938964844</v>
+      </c>
+      <c r="D235" t="n">
+        <v>152.75</v>
+      </c>
+      <c r="E235" t="n">
+        <v>153.5500030517578</v>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G235" t="n">
+        <v>158.3999938964844</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J235" t="n">
+        <v>160.3999938964844</v>
+      </c>
+      <c r="K235" t="n">
+        <v>155.6499938964844</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>HPL.NS</t>
+        </is>
+      </c>
+      <c r="B236" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C236" t="n">
+        <v>396.7999877929688</v>
+      </c>
+      <c r="D236" t="n">
+        <v>363.4500122070312</v>
+      </c>
+      <c r="E236" t="n">
+        <v>373.5499877929688</v>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G236" t="n">
+        <v>396.7999877929688</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J236" t="n">
+        <v>425</v>
+      </c>
+      <c r="K236" t="n">
+        <v>392.3500061035156</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>ZENTEC.NS</t>
+        </is>
+      </c>
+      <c r="B237" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C237" t="n">
+        <v>999.6500244140625</v>
+      </c>
+      <c r="D237" t="n">
+        <v>945.5999755859375</v>
+      </c>
+      <c r="E237" t="n">
+        <v>964.3499755859375</v>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G237" t="n">
+        <v>999.6500244140625</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J237" t="n">
+        <v>1013</v>
+      </c>
+      <c r="K237" t="n">
+        <v>972</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>GENUSPOWER.NS</t>
+        </is>
+      </c>
+      <c r="B238" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="C238" t="n">
+        <v>317.5</v>
+      </c>
+      <c r="D238" t="n">
+        <v>309.1499938964844</v>
+      </c>
+      <c r="E238" t="n">
+        <v>312.7999877929688</v>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G238" t="n">
+        <v>317.5</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J238" t="n">
+        <v>329</v>
+      </c>
+      <c r="K238" t="n">
+        <v>316.8999938964844</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>SIL.NS</t>
+        </is>
+      </c>
+      <c r="B239" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C239" t="n">
+        <v>24.35000038146973</v>
+      </c>
+      <c r="D239" t="n">
+        <v>23.29999923706055</v>
+      </c>
+      <c r="E239" t="n">
+        <v>24</v>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G239" t="n">
+        <v>24.35000038146973</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J239" t="n">
+        <v>25</v>
+      </c>
+      <c r="K239" t="n">
+        <v>23.89999961853027</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>PSB.NS</t>
+        </is>
+      </c>
+      <c r="B240" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="C240" t="n">
+        <v>65.09999847412109</v>
+      </c>
+      <c r="D240" t="n">
+        <v>62.40000152587891</v>
+      </c>
+      <c r="E240" t="n">
+        <v>63.04999923706055</v>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G240" t="n">
+        <v>65.09999847412109</v>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J240" t="n">
+        <v>66.15000152587891</v>
+      </c>
+      <c r="K240" t="n">
+        <v>61.95000076293945</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>BAJAJ-AUTO.NS</t>
+        </is>
+      </c>
+      <c r="B241" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C241" t="n">
+        <v>9357.9501953125</v>
+      </c>
+      <c r="D241" t="n">
+        <v>8988.0498046875</v>
+      </c>
+      <c r="E241" t="n">
+        <v>9009.5</v>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G241" t="n">
+        <v>9357.9501953125</v>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J241" t="n">
+        <v>9444</v>
+      </c>
+      <c r="K241" t="n">
+        <v>9139.4501953125</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>HDFCBANK.NS</t>
+        </is>
+      </c>
+      <c r="B242" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="C242" t="n">
+        <v>1557.400024414062</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1503.25</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1509.800048828125</v>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G242" t="n">
+        <v>1557.400024414062</v>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J242" t="n">
+        <v>1599</v>
+      </c>
+      <c r="K242" t="n">
+        <v>1545</v>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>LT.NS</t>
+        </is>
+      </c>
+      <c r="B243" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C243" t="n">
+        <v>3860</v>
+      </c>
+      <c r="D243" t="n">
+        <v>3716.25</v>
+      </c>
+      <c r="E243" t="n">
+        <v>3743.10009765625</v>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G243" t="n">
+        <v>3860</v>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J243" t="n">
+        <v>3919.89990234375</v>
+      </c>
+      <c r="K243" t="n">
+        <v>3744.800048828125</v>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>BANKBARODA.NS</t>
+        </is>
+      </c>
+      <c r="B244" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C244" t="n">
+        <v>285.6000061035156</v>
+      </c>
+      <c r="D244" t="n">
+        <v>250.1499938964844</v>
+      </c>
+      <c r="E244" t="n">
+        <v>254</v>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G244" t="n">
+        <v>285.6000061035156</v>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J244" t="n">
+        <v>299.7000122070312</v>
+      </c>
+      <c r="K244" t="n">
+        <v>273.3999938964844</v>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>BANKBARODA.NS</t>
+        </is>
+      </c>
+      <c r="B245" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C245" t="n">
+        <v>284.7999877929688</v>
+      </c>
+      <c r="D245" t="n">
+        <v>265</v>
+      </c>
+      <c r="E245" t="n">
+        <v>275.75</v>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G245" t="n">
+        <v>284.7999877929688</v>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J245" t="n">
+        <v>299.7000122070312</v>
+      </c>
+      <c r="K245" t="n">
+        <v>273.3999938964844</v>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>GAIL.NS</t>
+        </is>
+      </c>
+      <c r="B246" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="C246" t="n">
+        <v>213.6499938964844</v>
+      </c>
+      <c r="D246" t="n">
+        <v>196.6000061035156</v>
+      </c>
+      <c r="E246" t="n">
+        <v>201.9499969482422</v>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G246" t="n">
+        <v>213.6499938964844</v>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J246" t="n">
+        <v>224.25</v>
+      </c>
+      <c r="K246" t="n">
+        <v>207.1499938964844</v>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>FEDERALBNK.NS</t>
+        </is>
+      </c>
+      <c r="B247" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C247" t="n">
+        <v>166.3500061035156</v>
+      </c>
+      <c r="D247" t="n">
+        <v>149.1499938964844</v>
+      </c>
+      <c r="E247" t="n">
+        <v>152.4499969482422</v>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G247" t="n">
+        <v>166.3500061035156</v>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J247" t="n">
+        <v>167</v>
+      </c>
+      <c r="K247" t="n">
+        <v>165.1999969482422</v>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>ADANIENSOL.NS</t>
+        </is>
+      </c>
+      <c r="B248" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C248" t="n">
+        <v>1190.599975585938</v>
+      </c>
+      <c r="D248" t="n">
+        <v>1060</v>
+      </c>
+      <c r="E248" t="n">
+        <v>1080.800048828125</v>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G248" t="n">
+        <v>1190.599975585938</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J248" t="n">
+        <v>1249.400024414062</v>
+      </c>
+      <c r="K248" t="n">
+        <v>1150.099975585938</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>ATGL.NS</t>
+        </is>
+      </c>
+      <c r="B249" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C249" t="n">
+        <v>1096</v>
+      </c>
+      <c r="D249" t="n">
+        <v>1005.25</v>
+      </c>
+      <c r="E249" t="n">
+        <v>1039.150024414062</v>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G249" t="n">
+        <v>1096</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J249" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K249" t="n">
+        <v>1060</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>ADANIGREEN.NS</t>
+        </is>
+      </c>
+      <c r="B250" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C250" t="n">
+        <v>2018.949951171875</v>
+      </c>
+      <c r="D250" t="n">
+        <v>1855.949951171875</v>
+      </c>
+      <c r="E250" t="n">
+        <v>1969.550048828125</v>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G250" t="n">
+        <v>2018.949951171875</v>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J250" t="n">
+        <v>2174.10009765625</v>
+      </c>
+      <c r="K250" t="n">
+        <v>1993.900024414062</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>KPIGREEN.NS</t>
+        </is>
+      </c>
+      <c r="B251" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C251" t="n">
+        <v>1890</v>
+      </c>
+      <c r="D251" t="n">
+        <v>1574.449951171875</v>
+      </c>
+      <c r="E251" t="n">
+        <v>1740.75</v>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G251" t="n">
+        <v>1890</v>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J251" t="n">
+        <v>1913.550048828125</v>
+      </c>
+      <c r="K251" t="n">
+        <v>1886.800048828125</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>NHPC.NS</t>
+        </is>
+      </c>
+      <c r="B252" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C252" t="n">
+        <v>115.8499984741211</v>
+      </c>
+      <c r="D252" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="E252" t="n">
+        <v>96.25</v>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G252" t="n">
+        <v>115.8499984741211</v>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J252" t="n">
+        <v>118</v>
+      </c>
+      <c r="K252" t="n">
+        <v>110.4499969482422</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>CENTRALBK.BO</t>
+        </is>
+      </c>
+      <c r="B253" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="C253" t="n">
+        <v>69.80000305175781</v>
+      </c>
+      <c r="D253" t="n">
+        <v>62.84999847412109</v>
+      </c>
+      <c r="E253" t="n">
+        <v>63.56999969482422</v>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G253" t="n">
+        <v>69.80000305175781</v>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J253" t="n">
+        <v>72.48999786376953</v>
+      </c>
+      <c r="K253" t="n">
+        <v>68.58999633789062</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>UNIONBANK.NS</t>
+        </is>
+      </c>
+      <c r="B254" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C254" t="n">
+        <v>163.1999969482422</v>
+      </c>
+      <c r="D254" t="n">
+        <v>154.1000061035156</v>
+      </c>
+      <c r="E254" t="n">
+        <v>160.1999969482422</v>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G254" t="n">
+        <v>163.1999969482422</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J254" t="n">
+        <v>170.4499969482422</v>
+      </c>
+      <c r="K254" t="n">
+        <v>161.8000030517578</v>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>SJS.NS</t>
+        </is>
+      </c>
+      <c r="B255" s="2" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C255" t="n">
+        <v>745</v>
+      </c>
+      <c r="D255" t="n">
+        <v>678</v>
+      </c>
+      <c r="E255" t="n">
+        <v>683.5</v>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G255" t="n">
+        <v>745</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J255" t="n">
+        <v>757</v>
+      </c>
+      <c r="K255" t="n">
+        <v>741.2000122070312</v>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B256" s="2" t="n">
+        <v>44158</v>
+      </c>
+      <c r="C256" t="n">
+        <v>12</v>
+      </c>
+      <c r="D256" t="n">
+        <v>12</v>
+      </c>
+      <c r="E256" t="n">
+        <v>12</v>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G256" t="n">
+        <v>12</v>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J256" t="n">
+        <v>93.06999969482422</v>
+      </c>
+      <c r="K256" t="n">
+        <v>9.989999771118164</v>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B257" s="2" t="n">
+        <v>44200</v>
+      </c>
+      <c r="C257" t="n">
+        <v>12.52000045776367</v>
+      </c>
+      <c r="D257" t="n">
+        <v>10.82999992370605</v>
+      </c>
+      <c r="E257" t="n">
+        <v>11.35999965667725</v>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G257" t="n">
+        <v>12.52000045776367</v>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J257" t="n">
+        <v>93.06999969482422</v>
+      </c>
+      <c r="K257" t="n">
+        <v>9.989999771118164</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B258" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="C258" t="n">
+        <v>10.97000026702881</v>
+      </c>
+      <c r="D258" t="n">
+        <v>10</v>
+      </c>
+      <c r="E258" t="n">
+        <v>10</v>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G258" t="n">
+        <v>10.97000026702881</v>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J258" t="n">
+        <v>93.06999969482422</v>
+      </c>
+      <c r="K258" t="n">
+        <v>9.989999771118164</v>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>RBLBANK.NS</t>
+        </is>
+      </c>
+      <c r="B259" s="2" t="n">
+        <v>45201</v>
+      </c>
+      <c r="C259" t="n">
+        <v>256.7000122070312</v>
+      </c>
+      <c r="D259" t="n">
+        <v>241.1999969482422</v>
+      </c>
+      <c r="E259" t="n">
+        <v>247.5</v>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G259" t="n">
+        <v>256.7000122070312</v>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J259" t="n">
+        <v>266.75</v>
+      </c>
+      <c r="K259" t="n">
+        <v>256.5</v>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>BANKBARODA.NS</t>
+        </is>
+      </c>
+      <c r="B260" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C260" t="n">
+        <v>285.6000061035156</v>
+      </c>
+      <c r="D260" t="n">
+        <v>243.8000030517578</v>
+      </c>
+      <c r="E260" t="n">
+        <v>264.0499877929688</v>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G260" t="n">
+        <v>285.6000061035156</v>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>01-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J260" t="n">
+        <v>299.7000122070312</v>
+      </c>
+      <c r="K260" t="n">
+        <v>283.8999938964844</v>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>BERGEPAINT.NS</t>
+        </is>
+      </c>
+      <c r="B261" s="2" t="n">
+        <v>44682</v>
+      </c>
+      <c r="C261" t="n">
+        <v>597.375</v>
+      </c>
+      <c r="D261" t="n">
+        <v>453</v>
+      </c>
+      <c r="E261" t="n">
+        <v>512.4166870117188</v>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G261" t="n">
+        <v>453</v>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J261" t="n">
+        <v>450.7999877929688</v>
+      </c>
+      <c r="K261" t="n">
+        <v>500.7000122070312</v>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>ADANIGREEN.NS</t>
+        </is>
+      </c>
+      <c r="B262" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="C262" t="n">
+        <v>2018.949951171875</v>
+      </c>
+      <c r="D262" t="n">
+        <v>1651.599975585938</v>
+      </c>
+      <c r="E262" t="n">
+        <v>1895.050048828125</v>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G262" t="n">
+        <v>2018.949951171875</v>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>01-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J262" t="n">
+        <v>2174.10009765625</v>
+      </c>
+      <c r="K262" t="n">
+        <v>1993.900024414062</v>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>NHPC.NS</t>
+        </is>
+      </c>
+      <c r="B263" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="C263" t="n">
+        <v>115.8499984741211</v>
+      </c>
+      <c r="D263" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="E263" t="n">
+        <v>88.15000152587891</v>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G263" t="n">
+        <v>115.8499984741211</v>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>01-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J263" t="n">
+        <v>118</v>
+      </c>
+      <c r="K263" t="n">
+        <v>110.4499969482422</v>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B264" s="2" t="n">
+        <v>43525</v>
+      </c>
+      <c r="C264" t="n">
+        <v>13.10999965667725</v>
+      </c>
+      <c r="D264" t="n">
+        <v>13.10999965667725</v>
+      </c>
+      <c r="E264" t="n">
+        <v>13.10999965667725</v>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G264" t="n">
+        <v>13.10999965667725</v>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>01-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J264" t="n">
+        <v>93.06999969482422</v>
+      </c>
+      <c r="K264" t="n">
+        <v>9.989999771118164</v>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B265" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="C265" t="n">
+        <v>12</v>
+      </c>
+      <c r="D265" t="n">
+        <v>12</v>
+      </c>
+      <c r="E265" t="n">
+        <v>12</v>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G265" t="n">
+        <v>12</v>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>01-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J265" t="n">
+        <v>93.06999969482422</v>
+      </c>
+      <c r="K265" t="n">
+        <v>9.989999771118164</v>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B266" s="2" t="n">
+        <v>44197</v>
+      </c>
+      <c r="C266" t="n">
+        <v>12.52000045776367</v>
+      </c>
+      <c r="D266" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="E266" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G266" t="n">
+        <v>12.52000045776367</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>01-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J266" t="n">
+        <v>93.06999969482422</v>
+      </c>
+      <c r="K266" t="n">
+        <v>9.989999771118164</v>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>GODREJPROP.NS</t>
+        </is>
+      </c>
+      <c r="B267" s="2" t="n">
+        <v>44470</v>
+      </c>
+      <c r="C267" t="n">
+        <v>2598</v>
+      </c>
+      <c r="D267" t="n">
+        <v>1766.349975585938</v>
+      </c>
+      <c r="E267" t="n">
+        <v>1871.800048828125</v>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G267" t="n">
+        <v>2598</v>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J267" t="n">
+        <v>3007.199951171875</v>
+      </c>
+      <c r="K267" t="n">
+        <v>2541.300048828125</v>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>HINDALCO.NS</t>
+        </is>
+      </c>
+      <c r="B268" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="C268" t="n">
+        <v>636</v>
+      </c>
+      <c r="D268" t="n">
+        <v>472</v>
+      </c>
+      <c r="E268" t="n">
+        <v>569.5</v>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G268" t="n">
+        <v>636</v>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J268" t="n">
+        <v>715.25</v>
+      </c>
+      <c r="K268" t="n">
+        <v>620.5</v>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>MARICO.NS</t>
+        </is>
+      </c>
+      <c r="B269" s="2" t="n">
+        <v>44409</v>
+      </c>
+      <c r="C269" t="n">
+        <v>607.7000122070312</v>
+      </c>
+      <c r="D269" t="n">
+        <v>511</v>
+      </c>
+      <c r="E269" t="n">
+        <v>568.4500122070312</v>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G269" t="n">
+        <v>607.7000122070312</v>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J269" t="n">
+        <v>615.9000244140625</v>
+      </c>
+      <c r="K269" t="n">
+        <v>554.7000122070312</v>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>VEDL.NS</t>
+        </is>
+      </c>
+      <c r="B270" s="2" t="n">
+        <v>41730</v>
+      </c>
+      <c r="C270" t="n">
+        <v>318.2999877929688</v>
+      </c>
+      <c r="D270" t="n">
+        <v>178</v>
+      </c>
+      <c r="E270" t="n">
+        <v>292.3500061035156</v>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G270" t="n">
+        <v>318.2999877929688</v>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J270" t="n">
+        <v>506.75</v>
+      </c>
+      <c r="K270" t="n">
+        <v>289.25</v>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>VEDL.NS</t>
+        </is>
+      </c>
+      <c r="B271" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="C271" t="n">
+        <v>355.7000122070312</v>
+      </c>
+      <c r="D271" t="n">
+        <v>268.75</v>
+      </c>
+      <c r="E271" t="n">
+        <v>277.8500061035156</v>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G271" t="n">
+        <v>355.7000122070312</v>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J271" t="n">
+        <v>506.75</v>
+      </c>
+      <c r="K271" t="n">
+        <v>289.25</v>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>VEDL.NS</t>
+        </is>
+      </c>
+      <c r="B272" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="C272" t="n">
+        <v>440.75</v>
+      </c>
+      <c r="D272" t="n">
+        <v>216.1000061035156</v>
+      </c>
+      <c r="E272" t="n">
+        <v>223</v>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G272" t="n">
+        <v>440.75</v>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J272" t="n">
+        <v>506.75</v>
+      </c>
+      <c r="K272" t="n">
+        <v>289.25</v>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>MOTHERSON.NS</t>
+        </is>
+      </c>
+      <c r="B273" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="C273" t="n">
+        <v>134.8666687011719</v>
+      </c>
+      <c r="D273" t="n">
+        <v>79.69999694824219</v>
+      </c>
+      <c r="E273" t="n">
+        <v>92.96666717529297</v>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G273" t="n">
+        <v>134.8666687011719</v>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J273" t="n">
+        <v>159.6999969482422</v>
+      </c>
+      <c r="K273" t="n">
+        <v>126.5</v>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>VOLTAS.NS</t>
+        </is>
+      </c>
+      <c r="B274" s="2" t="n">
+        <v>44470</v>
+      </c>
+      <c r="C274" t="n">
+        <v>1356.900024414062</v>
+      </c>
+      <c r="D274" t="n">
+        <v>1131.25</v>
+      </c>
+      <c r="E274" t="n">
+        <v>1219.150024414062</v>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G274" t="n">
+        <v>1356.900024414062</v>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J274" t="n">
+        <v>1502.300048828125</v>
+      </c>
+      <c r="K274" t="n">
+        <v>1133.5</v>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>KNRCON.NS</t>
+        </is>
+      </c>
+      <c r="B275" s="2" t="n">
+        <v>44409</v>
+      </c>
+      <c r="C275" t="n">
+        <v>343.8999938964844</v>
+      </c>
+      <c r="D275" t="n">
+        <v>264.6499938964844</v>
+      </c>
+      <c r="E275" t="n">
+        <v>279.7999877929688</v>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G275" t="n">
+        <v>343.8999938964844</v>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J275" t="n">
+        <v>348.8999938964844</v>
+      </c>
+      <c r="K275" t="n">
+        <v>292</v>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>EMAMILTD.NS</t>
+        </is>
+      </c>
+      <c r="B276" s="2" t="n">
+        <v>44409</v>
+      </c>
+      <c r="C276" t="n">
+        <v>621.7999877929688</v>
+      </c>
+      <c r="D276" t="n">
+        <v>507.9500122070312</v>
+      </c>
+      <c r="E276" t="n">
+        <v>531.25</v>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G276" t="n">
+        <v>621.7999877929688</v>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J276" t="n">
+        <v>649.9000244140625</v>
+      </c>
+      <c r="K276" t="n">
+        <v>510.9500122070312</v>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>SAIL.NS</t>
+        </is>
+      </c>
+      <c r="B277" s="2" t="n">
+        <v>44287</v>
+      </c>
+      <c r="C277" t="n">
+        <v>151.3000030517578</v>
+      </c>
+      <c r="D277" t="n">
+        <v>79.55000305175781</v>
+      </c>
+      <c r="E277" t="n">
+        <v>130.6000061035156</v>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G277" t="n">
+        <v>151.3000030517578</v>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J277" t="n">
+        <v>175.3500061035156</v>
+      </c>
+      <c r="K277" t="n">
+        <v>150</v>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>GEOJITFSL.NS</t>
+        </is>
+      </c>
+      <c r="B278" s="2" t="n">
+        <v>44378</v>
+      </c>
+      <c r="C278" t="n">
+        <v>102.6999969482422</v>
+      </c>
+      <c r="D278" t="n">
+        <v>71.25</v>
+      </c>
+      <c r="E278" t="n">
+        <v>76.40000152587891</v>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G278" t="n">
+        <v>102.6999969482422</v>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J278" t="n">
+        <v>116.0999984741211</v>
+      </c>
+      <c r="K278" t="n">
+        <v>90</v>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>SJS.NS</t>
+        </is>
+      </c>
+      <c r="B279" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="C279" t="n">
+        <v>745</v>
+      </c>
+      <c r="D279" t="n">
+        <v>595.2999877929688</v>
+      </c>
+      <c r="E279" t="n">
+        <v>676.6500244140625</v>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G279" t="n">
+        <v>745</v>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J279" t="n">
+        <v>757</v>
+      </c>
+      <c r="K279" t="n">
+        <v>668</v>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>RTNPOWER.NS</t>
+        </is>
+      </c>
+      <c r="B280" s="2" t="n">
+        <v>41730</v>
+      </c>
+      <c r="C280" t="n">
+        <v>16.20000076293945</v>
+      </c>
+      <c r="D280" t="n">
+        <v>7.400000095367432</v>
+      </c>
+      <c r="E280" t="n">
+        <v>14.39999961853027</v>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G280" t="n">
+        <v>16.20000076293945</v>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J280" t="n">
+        <v>20.10000038146973</v>
+      </c>
+      <c r="K280" t="n">
+        <v>12.30000019073486</v>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>RTNPOWER.NS</t>
+        </is>
+      </c>
+      <c r="B281" s="2" t="n">
+        <v>42370</v>
+      </c>
+      <c r="C281" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D281" t="n">
+        <v>7.849999904632568</v>
+      </c>
+      <c r="E281" t="n">
+        <v>9.949999809265137</v>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G281" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J281" t="n">
+        <v>20.10000038146973</v>
+      </c>
+      <c r="K281" t="n">
+        <v>12.30000019073486</v>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3058,6 +3058,231 @@
       <c r="K58" t="inlineStr">
         <is>
           <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>AVADHSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>03-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>45411.42708333334</v>
+      </c>
+      <c r="E59" t="n">
+        <v>620</v>
+      </c>
+      <c r="F59" s="2" t="n">
+        <v>45425.63541666666</v>
+      </c>
+      <c r="G59" t="n">
+        <v>589.0499877929688</v>
+      </c>
+      <c r="H59" s="2" t="n">
+        <v>45433.38541666666</v>
+      </c>
+      <c r="I59" t="n">
+        <v>579.9500122070312</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>03/06/2024 10:42:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>UGARSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>03-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>45404.38541666666</v>
+      </c>
+      <c r="E60" t="n">
+        <v>83.44999694824219</v>
+      </c>
+      <c r="F60" s="2" t="n">
+        <v>45426.38541666666</v>
+      </c>
+      <c r="G60" t="n">
+        <v>77</v>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>45427.38541666666</v>
+      </c>
+      <c r="I60" t="n">
+        <v>77</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>03/06/2024 10:42:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>MOL.NS</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>03-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>45427.55208333334</v>
+      </c>
+      <c r="E61" t="n">
+        <v>85.34999847412109</v>
+      </c>
+      <c r="F61" s="2" t="n">
+        <v>45436.51041666666</v>
+      </c>
+      <c r="G61" t="n">
+        <v>82.34999847412109</v>
+      </c>
+      <c r="H61" s="2" t="n">
+        <v>45442.38541666666</v>
+      </c>
+      <c r="I61" t="n">
+        <v>80.40000152587891</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>03/06/2024 10:42:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>GOODYEAR.BO</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>03-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>45411.42708333334</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1160</v>
+      </c>
+      <c r="F62" s="2" t="n">
+        <v>45419.38541666666</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1157.099975585938</v>
+      </c>
+      <c r="H62" s="2" t="n">
+        <v>45419.51041666666</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1157.099975585938</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>03/06/2024 10:42:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>WEBELSOLAR.NS</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>03-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>45421.38541666666</v>
+      </c>
+      <c r="E63" t="n">
+        <v>684.7999877929688</v>
+      </c>
+      <c r="F63" s="2" t="n">
+        <v>45427.42708333334</v>
+      </c>
+      <c r="G63" t="n">
+        <v>659.8499755859375</v>
+      </c>
+      <c r="H63" s="2" t="n">
+        <v>45427.51041666666</v>
+      </c>
+      <c r="I63" t="n">
+        <v>659.8499755859375</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>03/06/2024 10:42:03</t>
         </is>
       </c>
     </row>
@@ -3072,7 +3297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4333,6 +4558,123 @@
       <c r="I32" t="inlineStr">
         <is>
           <t>03/06/2024 07:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>RAJSREESUG.NS</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>03-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>45428.63541666666</v>
+      </c>
+      <c r="E33" t="n">
+        <v>61.29999923706055</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>45434.38541666666</v>
+      </c>
+      <c r="G33" t="n">
+        <v>61.40000152587891</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>03/06/2024 10:42:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CAMLINFINE.NS</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>03-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>45435.63541666666</v>
+      </c>
+      <c r="E34" t="n">
+        <v>93.65000152587891</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>45443.38541666666</v>
+      </c>
+      <c r="G34" t="n">
+        <v>93.80000305175781</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>03/06/2024 10:42:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CAMLINFINE.NS</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>03-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>45443.38541666666</v>
+      </c>
+      <c r="E35" t="n">
+        <v>93.80000305175781</v>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>45443.42708333334</v>
+      </c>
+      <c r="G35" t="n">
+        <v>93.80000305175781</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>03/06/2024 10:42:03</t>
         </is>
       </c>
     </row>
@@ -4347,7 +4689,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L281"/>
+  <dimension ref="A1:L293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17857,6 +18199,582 @@
         </is>
       </c>
     </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>UPL.NS</t>
+        </is>
+      </c>
+      <c r="B282" s="2" t="n">
+        <v>45439.59375</v>
+      </c>
+      <c r="C282" t="n">
+        <v>529.6500244140625</v>
+      </c>
+      <c r="D282" t="n">
+        <v>524</v>
+      </c>
+      <c r="E282" t="n">
+        <v>525.0499877929688</v>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G282" t="n">
+        <v>529.6500244140625</v>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>03-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J282" t="n">
+        <v>530.5</v>
+      </c>
+      <c r="K282" t="n">
+        <v>529</v>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>03/06/2024 10:42:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>KOTAKBANK.NS</t>
+        </is>
+      </c>
+      <c r="B283" s="2" t="n">
+        <v>45439.51041666666</v>
+      </c>
+      <c r="C283" t="n">
+        <v>1722</v>
+      </c>
+      <c r="D283" t="n">
+        <v>1717</v>
+      </c>
+      <c r="E283" t="n">
+        <v>1718.349975585938</v>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G283" t="n">
+        <v>1722</v>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>03-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J283" t="n">
+        <v>1725</v>
+      </c>
+      <c r="K283" t="n">
+        <v>1719.150024414062</v>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>03/06/2024 10:42:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>FEDERALBNK.NS</t>
+        </is>
+      </c>
+      <c r="B284" s="2" t="n">
+        <v>45433.51041666666</v>
+      </c>
+      <c r="C284" t="n">
+        <v>165.1999969482422</v>
+      </c>
+      <c r="D284" t="n">
+        <v>164.1000061035156</v>
+      </c>
+      <c r="E284" t="n">
+        <v>164.8500061035156</v>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G284" t="n">
+        <v>165.1999969482422</v>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>03-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J284" t="n">
+        <v>165.5</v>
+      </c>
+      <c r="K284" t="n">
+        <v>165.1499938964844</v>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>03/06/2024 10:42:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>FEDERALBNK.NS</t>
+        </is>
+      </c>
+      <c r="B285" s="2" t="n">
+        <v>45439.55208333334</v>
+      </c>
+      <c r="C285" t="n">
+        <v>165.1999969482422</v>
+      </c>
+      <c r="D285" t="n">
+        <v>164.1499938964844</v>
+      </c>
+      <c r="E285" t="n">
+        <v>164.6000061035156</v>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G285" t="n">
+        <v>165.1999969482422</v>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>03-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J285" t="n">
+        <v>165.5</v>
+      </c>
+      <c r="K285" t="n">
+        <v>165.1499938964844</v>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>03/06/2024 10:42:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>DALMIASUG.NS</t>
+        </is>
+      </c>
+      <c r="B286" s="2" t="n">
+        <v>45436.55208333334</v>
+      </c>
+      <c r="C286" t="n">
+        <v>382.6000061035156</v>
+      </c>
+      <c r="D286" t="n">
+        <v>377.2999877929688</v>
+      </c>
+      <c r="E286" t="n">
+        <v>378.5499877929688</v>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G286" t="n">
+        <v>382.6000061035156</v>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>03-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J286" t="n">
+        <v>383</v>
+      </c>
+      <c r="K286" t="n">
+        <v>381.9500122070312</v>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>03/06/2024 10:42:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>MHRIL.NS</t>
+        </is>
+      </c>
+      <c r="B287" s="2" t="n">
+        <v>45428.55208333334</v>
+      </c>
+      <c r="C287" t="n">
+        <v>402.4500122070312</v>
+      </c>
+      <c r="D287" t="n">
+        <v>398.7999877929688</v>
+      </c>
+      <c r="E287" t="n">
+        <v>401.9500122070312</v>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G287" t="n">
+        <v>398.7999877929688</v>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>03-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J287" t="n">
+        <v>398.2999877929688</v>
+      </c>
+      <c r="K287" t="n">
+        <v>399</v>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>03/06/2024 10:42:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>INDHOTEL.NS</t>
+        </is>
+      </c>
+      <c r="B288" s="2" t="n">
+        <v>45435.38541666666</v>
+      </c>
+      <c r="C288" t="n">
+        <v>576.5999755859375</v>
+      </c>
+      <c r="D288" t="n">
+        <v>568.1500244140625</v>
+      </c>
+      <c r="E288" t="n">
+        <v>569.9500122070312</v>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G288" t="n">
+        <v>576.5999755859375</v>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>03-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J288" t="n">
+        <v>582.5</v>
+      </c>
+      <c r="K288" t="n">
+        <v>575.5499877929688</v>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>03/06/2024 10:42:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>AETHER.NS</t>
+        </is>
+      </c>
+      <c r="B289" s="2" t="n">
+        <v>45426.42708333334</v>
+      </c>
+      <c r="C289" t="n">
+        <v>820.5</v>
+      </c>
+      <c r="D289" t="n">
+        <v>808.8499755859375</v>
+      </c>
+      <c r="E289" t="n">
+        <v>817.75</v>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G289" t="n">
+        <v>808.8499755859375</v>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>03-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J289" t="n">
+        <v>808</v>
+      </c>
+      <c r="K289" t="n">
+        <v>813.75</v>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>03/06/2024 10:42:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>RAJSREESUG.NS</t>
+        </is>
+      </c>
+      <c r="B290" s="2" t="n">
+        <v>45428.63541666666</v>
+      </c>
+      <c r="C290" t="n">
+        <v>62</v>
+      </c>
+      <c r="D290" t="n">
+        <v>61.29999923706055</v>
+      </c>
+      <c r="E290" t="n">
+        <v>61.54999923706055</v>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G290" t="n">
+        <v>61.29999923706055</v>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>03-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J290" t="n">
+        <v>61.09999847412109</v>
+      </c>
+      <c r="K290" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>03/06/2024 10:42:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>RAJSREESUG.NS</t>
+        </is>
+      </c>
+      <c r="B291" s="2" t="n">
+        <v>45434.38541666666</v>
+      </c>
+      <c r="C291" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="D291" t="n">
+        <v>61.40000152587891</v>
+      </c>
+      <c r="E291" t="n">
+        <v>62.25</v>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G291" t="n">
+        <v>61.40000152587891</v>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>03-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J291" t="n">
+        <v>61.09999847412109</v>
+      </c>
+      <c r="K291" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>03/06/2024 10:42:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>CAMLINFINE.NS</t>
+        </is>
+      </c>
+      <c r="B292" s="2" t="n">
+        <v>45443.38541666666</v>
+      </c>
+      <c r="C292" t="n">
+        <v>94.69999694824219</v>
+      </c>
+      <c r="D292" t="n">
+        <v>93.80000305175781</v>
+      </c>
+      <c r="E292" t="n">
+        <v>94.30000305175781</v>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G292" t="n">
+        <v>93.80000305175781</v>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>03-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J292" t="n">
+        <v>93.25</v>
+      </c>
+      <c r="K292" t="n">
+        <v>93.84999847412109</v>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>03/06/2024 10:42:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>CAMLINFINE.NS</t>
+        </is>
+      </c>
+      <c r="B293" s="2" t="n">
+        <v>45443.42708333334</v>
+      </c>
+      <c r="C293" t="n">
+        <v>94.65000152587891</v>
+      </c>
+      <c r="D293" t="n">
+        <v>93.80000305175781</v>
+      </c>
+      <c r="E293" t="n">
+        <v>94.30000305175781</v>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G293" t="n">
+        <v>93.80000305175781</v>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>03-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J293" t="n">
+        <v>93.25</v>
+      </c>
+      <c r="K293" t="n">
+        <v>93.84999847412109</v>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>03/06/2024 10:42:03</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3283,6 +3283,1761 @@
       <c r="K63" t="inlineStr">
         <is>
           <t>03/06/2024 10:42:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>BAJAJFINSV.NS</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1559</v>
+      </c>
+      <c r="F64" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1568.699951171875</v>
+      </c>
+      <c r="H64" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1556</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>UPL.NS</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>44942</v>
+      </c>
+      <c r="E65" t="n">
+        <v>710.5</v>
+      </c>
+      <c r="F65" s="2" t="n">
+        <v>44999</v>
+      </c>
+      <c r="G65" t="n">
+        <v>687.5999755859375</v>
+      </c>
+      <c r="H65" s="2" t="n">
+        <v>45065</v>
+      </c>
+      <c r="I65" t="n">
+        <v>657.0499877929688</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>TATASTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>45217</v>
+      </c>
+      <c r="E66" t="n">
+        <v>128.6999969482422</v>
+      </c>
+      <c r="F66" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="G66" t="n">
+        <v>141.25</v>
+      </c>
+      <c r="H66" s="2" t="n">
+        <v>45329</v>
+      </c>
+      <c r="I66" t="n">
+        <v>147.3999938964844</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>JSWSTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>44928</v>
+      </c>
+      <c r="E67" t="n">
+        <v>783.5</v>
+      </c>
+      <c r="F67" s="2" t="n">
+        <v>45148</v>
+      </c>
+      <c r="G67" t="n">
+        <v>835</v>
+      </c>
+      <c r="H67" s="2" t="n">
+        <v>45181</v>
+      </c>
+      <c r="I67" t="n">
+        <v>840</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>BANKBARODA.NS</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="E68" t="n">
+        <v>219.4499969482422</v>
+      </c>
+      <c r="F68" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="G68" t="n">
+        <v>243.8000030517578</v>
+      </c>
+      <c r="H68" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="I68" t="n">
+        <v>251.1000061035156</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>GAIL.NS</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>45252</v>
+      </c>
+      <c r="E69" t="n">
+        <v>122.9000015258789</v>
+      </c>
+      <c r="F69" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="G69" t="n">
+        <v>155.75</v>
+      </c>
+      <c r="H69" s="2" t="n">
+        <v>45335</v>
+      </c>
+      <c r="I69" t="n">
+        <v>166.3500061035156</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>SHRIRAMFIN.NS</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1901</v>
+      </c>
+      <c r="F70" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1971.800048828125</v>
+      </c>
+      <c r="H70" s="2" t="n">
+        <v>45274</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2130</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>INDUSINDBK.NS</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1393.650024414062</v>
+      </c>
+      <c r="F71" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1428.050048828125</v>
+      </c>
+      <c r="H71" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1440</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>AMBUJACEM.NS</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>45253</v>
+      </c>
+      <c r="E72" t="n">
+        <v>408.6000061035156</v>
+      </c>
+      <c r="F72" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="G72" t="n">
+        <v>550.7999877929688</v>
+      </c>
+      <c r="H72" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="I72" t="n">
+        <v>593.4500122070312</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>AMBUJACEM.NS</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="E73" t="n">
+        <v>480.4500122070312</v>
+      </c>
+      <c r="F73" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="G73" t="n">
+        <v>509</v>
+      </c>
+      <c r="H73" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="I73" t="n">
+        <v>593.4500122070312</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>CANBK.NS</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="E74" t="n">
+        <v>68.41999816894531</v>
+      </c>
+      <c r="F74" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="G74" t="n">
+        <v>82.69000244140625</v>
+      </c>
+      <c r="H74" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="I74" t="n">
+        <v>112.5400009155273</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>VBL.NS</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1196.400024414062</v>
+      </c>
+      <c r="F75" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1349.699951171875</v>
+      </c>
+      <c r="H75" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1405.099975585938</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>PGHH.NS</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>45197</v>
+      </c>
+      <c r="E76" t="n">
+        <v>18597.94921875</v>
+      </c>
+      <c r="F76" s="2" t="n">
+        <v>45288</v>
+      </c>
+      <c r="G76" t="n">
+        <v>17629.900390625</v>
+      </c>
+      <c r="H76" s="2" t="n">
+        <v>45307</v>
+      </c>
+      <c r="I76" t="n">
+        <v>17432.900390625</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>TATAPOWER.NS</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>45114</v>
+      </c>
+      <c r="E77" t="n">
+        <v>232.3500061035156</v>
+      </c>
+      <c r="F77" s="2" t="n">
+        <v>45177</v>
+      </c>
+      <c r="G77" t="n">
+        <v>276.5</v>
+      </c>
+      <c r="H77" s="2" t="n">
+        <v>45280</v>
+      </c>
+      <c r="I77" t="n">
+        <v>346.8999938964844</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>HAVELLS.NS</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>44993</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1228.599975585938</v>
+      </c>
+      <c r="F78" s="2" t="n">
+        <v>45058</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1322.900024414062</v>
+      </c>
+      <c r="H78" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1373.699951171875</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>BAJAJHIND.NS</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="E79" t="n">
+        <v>26.79999923706055</v>
+      </c>
+      <c r="F79" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="G79" t="n">
+        <v>30.64999961853027</v>
+      </c>
+      <c r="H79" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="I79" t="n">
+        <v>30.64999961853027</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>BAJAJHIND.NS</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="E80" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="F80" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="G80" t="n">
+        <v>30.64999961853027</v>
+      </c>
+      <c r="H80" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="I80" t="n">
+        <v>30.64999961853027</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>DALBHARAT.NS</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>45042</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1901.5</v>
+      </c>
+      <c r="F81" s="2" t="n">
+        <v>45131</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1880.650024414062</v>
+      </c>
+      <c r="H81" s="2" t="n">
+        <v>45156</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1873.300048828125</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>BALRAMCHIN.NS</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>45061</v>
+      </c>
+      <c r="E82" t="n">
+        <v>371.5</v>
+      </c>
+      <c r="F82" s="2" t="n">
+        <v>45120</v>
+      </c>
+      <c r="G82" t="n">
+        <v>372.8500061035156</v>
+      </c>
+      <c r="H82" s="2" t="n">
+        <v>45273</v>
+      </c>
+      <c r="I82" t="n">
+        <v>376.2000122070312</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>GIPCL.NS</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>44994</v>
+      </c>
+      <c r="E83" t="n">
+        <v>81.09999847412109</v>
+      </c>
+      <c r="F83" s="2" t="n">
+        <v>45071</v>
+      </c>
+      <c r="G83" t="n">
+        <v>102</v>
+      </c>
+      <c r="H83" s="2" t="n">
+        <v>45118</v>
+      </c>
+      <c r="I83" t="n">
+        <v>116.0999984741211</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>SJVN.NS</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>45280</v>
+      </c>
+      <c r="E84" t="n">
+        <v>81.05000305175781</v>
+      </c>
+      <c r="F84" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="G84" t="n">
+        <v>88.84999847412109</v>
+      </c>
+      <c r="H84" s="2" t="n">
+        <v>45335</v>
+      </c>
+      <c r="I84" t="n">
+        <v>100.6500015258789</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>TATAMTRDVR.NS</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>45013</v>
+      </c>
+      <c r="E85" t="n">
+        <v>202</v>
+      </c>
+      <c r="F85" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="G85" t="n">
+        <v>410.4500122070312</v>
+      </c>
+      <c r="H85" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="I85" t="n">
+        <v>463.5</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>NLCINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="E86" t="n">
+        <v>72.94999694824219</v>
+      </c>
+      <c r="F86" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="G86" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="H86" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="I86" t="n">
+        <v>92.40000152587891</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>MOL.NS</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>45068</v>
+      </c>
+      <c r="E87" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="F87" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="G87" t="n">
+        <v>80.30000305175781</v>
+      </c>
+      <c r="H87" s="2" t="n">
+        <v>45134</v>
+      </c>
+      <c r="I87" t="n">
+        <v>80.30000305175781</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>SHAKTIPUMP.NS</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>45142</v>
+      </c>
+      <c r="E88" t="n">
+        <v>768.5999755859375</v>
+      </c>
+      <c r="F88" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="G88" t="n">
+        <v>927.7000122070312</v>
+      </c>
+      <c r="H88" s="2" t="n">
+        <v>45219</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1224.650024414062</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>SANGHVIMOV.NS</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="E89" t="n">
+        <v>444.1499938964844</v>
+      </c>
+      <c r="F89" s="2" t="n">
+        <v>45182</v>
+      </c>
+      <c r="G89" t="n">
+        <v>612.7000122070312</v>
+      </c>
+      <c r="H89" s="2" t="n">
+        <v>45202</v>
+      </c>
+      <c r="I89" t="n">
+        <v>650</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>WEBELSOLAR.NS</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>44342</v>
+      </c>
+      <c r="E90" t="n">
+        <v>58.04999923706055</v>
+      </c>
+      <c r="F90" s="2" t="n">
+        <v>44383</v>
+      </c>
+      <c r="G90" t="n">
+        <v>78.40000152587891</v>
+      </c>
+      <c r="H90" s="2" t="n">
+        <v>44384</v>
+      </c>
+      <c r="I90" t="n">
+        <v>78.40000152587891</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>NMDC.NS</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="E91" t="n">
+        <v>110.5</v>
+      </c>
+      <c r="F91" s="2" t="n">
+        <v>45184</v>
+      </c>
+      <c r="G91" t="n">
+        <v>154.25</v>
+      </c>
+      <c r="H91" s="2" t="n">
+        <v>45216</v>
+      </c>
+      <c r="I91" t="n">
+        <v>167.5500030517578</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>NMDC.NS</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>45208</v>
+      </c>
+      <c r="E92" t="n">
+        <v>140.6499938964844</v>
+      </c>
+      <c r="F92" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="G92" t="n">
+        <v>179.8999938964844</v>
+      </c>
+      <c r="H92" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="I92" t="n">
+        <v>196.6000061035156</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>NMDC.NS</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="E93" t="n">
+        <v>149.1999969482422</v>
+      </c>
+      <c r="F93" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="G93" t="n">
+        <v>179.8999938964844</v>
+      </c>
+      <c r="H93" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="I93" t="n">
+        <v>196.6000061035156</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>CENTRALBK.BO</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>45141</v>
+      </c>
+      <c r="E94" t="n">
+        <v>29.55999946594238</v>
+      </c>
+      <c r="F94" s="2" t="n">
+        <v>45253</v>
+      </c>
+      <c r="G94" t="n">
+        <v>43.56999969482422</v>
+      </c>
+      <c r="H94" s="2" t="n">
+        <v>45258</v>
+      </c>
+      <c r="I94" t="n">
+        <v>43.56999969482422</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>HPL.NS</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>45125</v>
+      </c>
+      <c r="E95" t="n">
+        <v>244.6999969482422</v>
+      </c>
+      <c r="F95" s="2" t="n">
+        <v>45175</v>
+      </c>
+      <c r="G95" t="n">
+        <v>269.3999938964844</v>
+      </c>
+      <c r="H95" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="I95" t="n">
+        <v>325</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>44210</v>
+      </c>
+      <c r="E96" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="F96" s="2" t="n">
+        <v>44221</v>
+      </c>
+      <c r="G96" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="H96" s="2" t="n">
+        <v>44224</v>
+      </c>
+      <c r="I96" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>44210</v>
+      </c>
+      <c r="E97" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="F97" s="2" t="n">
+        <v>44218</v>
+      </c>
+      <c r="G97" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="H97" s="2" t="n">
+        <v>44223</v>
+      </c>
+      <c r="I97" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>MANAPPURAM.NS</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>44781</v>
+      </c>
+      <c r="E98" t="n">
+        <v>111.4499969482422</v>
+      </c>
+      <c r="F98" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="G98" t="n">
+        <v>133.9499969482422</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>MANAPPURAM.NS</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="E99" t="n">
+        <v>102</v>
+      </c>
+      <c r="F99" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="G99" t="n">
+        <v>158.3000030517578</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>ATUL.NS</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="E100" t="n">
+        <v>6530</v>
+      </c>
+      <c r="F100" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="G100" t="n">
+        <v>6122.0498046875</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>INDIAMART.NS</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>45117</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2611.39990234375</v>
+      </c>
+      <c r="F101" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="G101" t="n">
+        <v>2475</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>BANDHANBNK.NS</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>01-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="E102" t="n">
+        <v>152.1999969482422</v>
+      </c>
+      <c r="F102" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="G102" t="n">
+        <v>182.1499938964844</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
         </is>
       </c>
     </row>
@@ -3297,7 +5052,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4675,6 +6430,357 @@
       <c r="I35" t="inlineStr">
         <is>
           <t>03/06/2024 10:42:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>BAJFINANCE.NS</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="E36" t="n">
+        <v>6945</v>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>45246</v>
+      </c>
+      <c r="G36" t="n">
+        <v>6931.25</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>RELIANCE.NS</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3024.89990234375</v>
+      </c>
+      <c r="F37" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3011.89990234375</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>RELIANCE.NS</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3011.89990234375</v>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2987</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>BAJAJFINSV.NS</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1568.699951171875</v>
+      </c>
+      <c r="F39" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1556</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>SBILIFE.NS</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>45147</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1374</v>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1377.949951171875</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>SHREECEM.NS</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>45202</v>
+      </c>
+      <c r="E41" t="n">
+        <v>25309.099609375</v>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>45226</v>
+      </c>
+      <c r="G41" t="n">
+        <v>25309</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>SBICARD.NS</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>44627</v>
+      </c>
+      <c r="E42" t="n">
+        <v>712.25</v>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>44694</v>
+      </c>
+      <c r="G42" t="n">
+        <v>710.7999877929688</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>DALBHARAT.NS</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>45131</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1880.650024414062</v>
+      </c>
+      <c r="F43" s="2" t="n">
+        <v>45156</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1873.300048828125</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>DYNAMATECH.NS</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>45330</v>
+      </c>
+      <c r="E44" t="n">
+        <v>7780</v>
+      </c>
+      <c r="F44" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="G44" t="n">
+        <v>7780</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
         </is>
       </c>
     </row>
@@ -4689,7 +6795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L293"/>
+  <dimension ref="A1:L432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18775,6 +20881,6678 @@
         </is>
       </c>
     </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>GODREJPROP.NS</t>
+        </is>
+      </c>
+      <c r="B294" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="C294" t="n">
+        <v>2791.800048828125</v>
+      </c>
+      <c r="D294" t="n">
+        <v>2644.449951171875</v>
+      </c>
+      <c r="E294" t="n">
+        <v>2704.5</v>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G294" t="n">
+        <v>2791.800048828125</v>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J294" t="n">
+        <v>3007.199951171875</v>
+      </c>
+      <c r="K294" t="n">
+        <v>2787</v>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>ASTRAL.NS</t>
+        </is>
+      </c>
+      <c r="B295" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C295" t="n">
+        <v>2143.800048828125</v>
+      </c>
+      <c r="D295" t="n">
+        <v>2088</v>
+      </c>
+      <c r="E295" t="n">
+        <v>2106.75</v>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G295" t="n">
+        <v>2143.800048828125</v>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J295" t="n">
+        <v>2179.050048828125</v>
+      </c>
+      <c r="K295" t="n">
+        <v>2133.89990234375</v>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>NIFTY_FIN_SERVICE.NS</t>
+        </is>
+      </c>
+      <c r="B296" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C296" t="n">
+        <v>22136.599609375</v>
+      </c>
+      <c r="D296" t="n">
+        <v>21707.44921875</v>
+      </c>
+      <c r="E296" t="n">
+        <v>21797.400390625</v>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G296" t="n">
+        <v>22136.599609375</v>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J296" t="n">
+        <v>22660.05078125</v>
+      </c>
+      <c r="K296" t="n">
+        <v>21786.80078125</v>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>^NSEBANK</t>
+        </is>
+      </c>
+      <c r="B297" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="C297" t="n">
+        <v>49974.75</v>
+      </c>
+      <c r="D297" t="n">
+        <v>49249.8984375</v>
+      </c>
+      <c r="E297" t="n">
+        <v>49396.75</v>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G297" t="n">
+        <v>49974.75</v>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J297" t="n">
+        <v>51133.19921875</v>
+      </c>
+      <c r="K297" t="n">
+        <v>49122.55078125</v>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>^NSEI</t>
+        </is>
+      </c>
+      <c r="B298" s="2" t="n">
+        <v>45392</v>
+      </c>
+      <c r="C298" t="n">
+        <v>22775.69921875</v>
+      </c>
+      <c r="D298" t="n">
+        <v>22673.69921875</v>
+      </c>
+      <c r="E298" t="n">
+        <v>22753.80078125</v>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G298" t="n">
+        <v>22775.69921875</v>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J298" t="n">
+        <v>23338.69921875</v>
+      </c>
+      <c r="K298" t="n">
+        <v>22653.75</v>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>^NSEI</t>
+        </is>
+      </c>
+      <c r="B299" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C299" t="n">
+        <v>22794.69921875</v>
+      </c>
+      <c r="D299" t="n">
+        <v>22348.05078125</v>
+      </c>
+      <c r="E299" t="n">
+        <v>22475.849609375</v>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G299" t="n">
+        <v>22794.69921875</v>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J299" t="n">
+        <v>23338.69921875</v>
+      </c>
+      <c r="K299" t="n">
+        <v>22653.75</v>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>ULTRACEMCO.NS</t>
+        </is>
+      </c>
+      <c r="B300" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C300" t="n">
+        <v>10183.849609375</v>
+      </c>
+      <c r="D300" t="n">
+        <v>9892.400390625</v>
+      </c>
+      <c r="E300" t="n">
+        <v>10135.5</v>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G300" t="n">
+        <v>10183.849609375</v>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J300" t="n">
+        <v>10519.7998046875</v>
+      </c>
+      <c r="K300" t="n">
+        <v>10080</v>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>ULTRACEMCO.NS</t>
+        </is>
+      </c>
+      <c r="B301" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="C301" t="n">
+        <v>10277.7001953125</v>
+      </c>
+      <c r="D301" t="n">
+        <v>9982.150390625</v>
+      </c>
+      <c r="E301" t="n">
+        <v>10001.900390625</v>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G301" t="n">
+        <v>10277.7001953125</v>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J301" t="n">
+        <v>10519.7998046875</v>
+      </c>
+      <c r="K301" t="n">
+        <v>10080</v>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>ULTRACEMCO.NS</t>
+        </is>
+      </c>
+      <c r="B302" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="C302" t="n">
+        <v>10180</v>
+      </c>
+      <c r="D302" t="n">
+        <v>9911.349609375</v>
+      </c>
+      <c r="E302" t="n">
+        <v>9971.849609375</v>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G302" t="n">
+        <v>10180</v>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J302" t="n">
+        <v>10519.7998046875</v>
+      </c>
+      <c r="K302" t="n">
+        <v>10080</v>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>ASIANPAINT.NS</t>
+        </is>
+      </c>
+      <c r="B303" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="C303" t="n">
+        <v>2943.25</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2851.25</v>
+      </c>
+      <c r="E303" t="n">
+        <v>2918.300048828125</v>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G303" t="n">
+        <v>2943.25</v>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J303" t="n">
+        <v>2950</v>
+      </c>
+      <c r="K303" t="n">
+        <v>2906</v>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>BAJAJ-AUTO.NS</t>
+        </is>
+      </c>
+      <c r="B304" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="C304" t="n">
+        <v>9357.9501953125</v>
+      </c>
+      <c r="D304" t="n">
+        <v>9139.5</v>
+      </c>
+      <c r="E304" t="n">
+        <v>9276.099609375</v>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G304" t="n">
+        <v>9357.9501953125</v>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J304" t="n">
+        <v>9444</v>
+      </c>
+      <c r="K304" t="n">
+        <v>9125.5</v>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>BAJAJ-AUTO.NS</t>
+        </is>
+      </c>
+      <c r="B305" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C305" t="n">
+        <v>9258.599609375</v>
+      </c>
+      <c r="D305" t="n">
+        <v>9064.349609375</v>
+      </c>
+      <c r="E305" t="n">
+        <v>9105.599609375</v>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G305" t="n">
+        <v>9258.599609375</v>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J305" t="n">
+        <v>9444</v>
+      </c>
+      <c r="K305" t="n">
+        <v>9125.5</v>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>RELIANCE.NS</t>
+        </is>
+      </c>
+      <c r="B306" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C306" t="n">
+        <v>3024.89990234375</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2974.449951171875</v>
+      </c>
+      <c r="E306" t="n">
+        <v>3014.800048828125</v>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G306" t="n">
+        <v>3024.89990234375</v>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J306" t="n">
+        <v>3029</v>
+      </c>
+      <c r="K306" t="n">
+        <v>2884.5</v>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>RELIANCE.NS</t>
+        </is>
+      </c>
+      <c r="B307" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C307" t="n">
+        <v>3011.89990234375</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2957.300048828125</v>
+      </c>
+      <c r="E307" t="n">
+        <v>2971.699951171875</v>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G307" t="n">
+        <v>3011.89990234375</v>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J307" t="n">
+        <v>3029</v>
+      </c>
+      <c r="K307" t="n">
+        <v>2884.5</v>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>RELIANCE.NS</t>
+        </is>
+      </c>
+      <c r="B308" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="C308" t="n">
+        <v>2987</v>
+      </c>
+      <c r="D308" t="n">
+        <v>2911.10009765625</v>
+      </c>
+      <c r="E308" t="n">
+        <v>2918.64990234375</v>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G308" t="n">
+        <v>2987</v>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J308" t="n">
+        <v>3029</v>
+      </c>
+      <c r="K308" t="n">
+        <v>2884.5</v>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>BRITANNIA.NS</t>
+        </is>
+      </c>
+      <c r="B309" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C309" t="n">
+        <v>5239.75</v>
+      </c>
+      <c r="D309" t="n">
+        <v>5078.5</v>
+      </c>
+      <c r="E309" t="n">
+        <v>5124.5</v>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G309" t="n">
+        <v>5239.75</v>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J309" t="n">
+        <v>5300</v>
+      </c>
+      <c r="K309" t="n">
+        <v>5221</v>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>BPCL.NS</t>
+        </is>
+      </c>
+      <c r="B310" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C310" t="n">
+        <v>641.7000122070312</v>
+      </c>
+      <c r="D310" t="n">
+        <v>625.0999755859375</v>
+      </c>
+      <c r="E310" t="n">
+        <v>629.8499755859375</v>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G310" t="n">
+        <v>641.7000122070312</v>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J310" t="n">
+        <v>687</v>
+      </c>
+      <c r="K310" t="n">
+        <v>634.4000244140625</v>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>POWERGRID.NS</t>
+        </is>
+      </c>
+      <c r="B311" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="C311" t="n">
+        <v>317.25</v>
+      </c>
+      <c r="D311" t="n">
+        <v>301.8500061035156</v>
+      </c>
+      <c r="E311" t="n">
+        <v>313.6000061035156</v>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G311" t="n">
+        <v>317.25</v>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J311" t="n">
+        <v>348.7000122070312</v>
+      </c>
+      <c r="K311" t="n">
+        <v>311.5</v>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>NTPC.NS</t>
+        </is>
+      </c>
+      <c r="B312" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="C312" t="n">
+        <v>374.5</v>
+      </c>
+      <c r="D312" t="n">
+        <v>361</v>
+      </c>
+      <c r="E312" t="n">
+        <v>361.75</v>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G312" t="n">
+        <v>374.5</v>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J312" t="n">
+        <v>393.2000122070312</v>
+      </c>
+      <c r="K312" t="n">
+        <v>366.6499938964844</v>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>NTPC.NS</t>
+        </is>
+      </c>
+      <c r="B313" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C313" t="n">
+        <v>380.3999938964844</v>
+      </c>
+      <c r="D313" t="n">
+        <v>360.3500061035156</v>
+      </c>
+      <c r="E313" t="n">
+        <v>364.9500122070312</v>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G313" t="n">
+        <v>380.3999938964844</v>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J313" t="n">
+        <v>393.2000122070312</v>
+      </c>
+      <c r="K313" t="n">
+        <v>366.6499938964844</v>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>JSWSTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B314" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="C314" t="n">
+        <v>914</v>
+      </c>
+      <c r="D314" t="n">
+        <v>884.6500244140625</v>
+      </c>
+      <c r="E314" t="n">
+        <v>887.25</v>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G314" t="n">
+        <v>914</v>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J314" t="n">
+        <v>917.7000122070312</v>
+      </c>
+      <c r="K314" t="n">
+        <v>895.4500122070312</v>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>LT.NS</t>
+        </is>
+      </c>
+      <c r="B315" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="C315" t="n">
+        <v>3860</v>
+      </c>
+      <c r="D315" t="n">
+        <v>3771.25</v>
+      </c>
+      <c r="E315" t="n">
+        <v>3807.39990234375</v>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G315" t="n">
+        <v>3860</v>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J315" t="n">
+        <v>3919.89990234375</v>
+      </c>
+      <c r="K315" t="n">
+        <v>3744.800048828125</v>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>AXISBANK.NS</t>
+        </is>
+      </c>
+      <c r="B316" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="C316" t="n">
+        <v>1182.900024414062</v>
+      </c>
+      <c r="D316" t="n">
+        <v>1155.150024414062</v>
+      </c>
+      <c r="E316" t="n">
+        <v>1165.900024414062</v>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G316" t="n">
+        <v>1182.900024414062</v>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J316" t="n">
+        <v>1242.199951171875</v>
+      </c>
+      <c r="K316" t="n">
+        <v>1178</v>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>TATASTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B317" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="C317" t="n">
+        <v>169.8000030517578</v>
+      </c>
+      <c r="D317" t="n">
+        <v>165.1999969482422</v>
+      </c>
+      <c r="E317" t="n">
+        <v>166</v>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G317" t="n">
+        <v>169.8000030517578</v>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J317" t="n">
+        <v>175</v>
+      </c>
+      <c r="K317" t="n">
+        <v>167.9499969482422</v>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>TATASTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B318" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C318" t="n">
+        <v>170.75</v>
+      </c>
+      <c r="D318" t="n">
+        <v>165.1499938964844</v>
+      </c>
+      <c r="E318" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G318" t="n">
+        <v>170.75</v>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J318" t="n">
+        <v>175</v>
+      </c>
+      <c r="K318" t="n">
+        <v>167.9499969482422</v>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>ONGC.NS</t>
+        </is>
+      </c>
+      <c r="B319" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C319" t="n">
+        <v>284.9500122070312</v>
+      </c>
+      <c r="D319" t="n">
+        <v>276.6499938964844</v>
+      </c>
+      <c r="E319" t="n">
+        <v>283.75</v>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G319" t="n">
+        <v>284.9500122070312</v>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J319" t="n">
+        <v>286.5499877929688</v>
+      </c>
+      <c r="K319" t="n">
+        <v>268.4500122070312</v>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>HDFCBANK.NS</t>
+        </is>
+      </c>
+      <c r="B320" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="C320" t="n">
+        <v>1557.400024414062</v>
+      </c>
+      <c r="D320" t="n">
+        <v>1508.300048828125</v>
+      </c>
+      <c r="E320" t="n">
+        <v>1512.199951171875</v>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G320" t="n">
+        <v>1557.400024414062</v>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J320" t="n">
+        <v>1599</v>
+      </c>
+      <c r="K320" t="n">
+        <v>1536</v>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>IRCTC.NS</t>
+        </is>
+      </c>
+      <c r="B321" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="C321" t="n">
+        <v>1068.800048828125</v>
+      </c>
+      <c r="D321" t="n">
+        <v>1016.849975585938</v>
+      </c>
+      <c r="E321" t="n">
+        <v>1057.650024414062</v>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G321" t="n">
+        <v>1068.800048828125</v>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J321" t="n">
+        <v>1084.949951171875</v>
+      </c>
+      <c r="K321" t="n">
+        <v>1037.75</v>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>IRCTC.NS</t>
+        </is>
+      </c>
+      <c r="B322" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="C322" t="n">
+        <v>1076.449951171875</v>
+      </c>
+      <c r="D322" t="n">
+        <v>1036.800048828125</v>
+      </c>
+      <c r="E322" t="n">
+        <v>1056.300048828125</v>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G322" t="n">
+        <v>1076.449951171875</v>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J322" t="n">
+        <v>1084.949951171875</v>
+      </c>
+      <c r="K322" t="n">
+        <v>1037.75</v>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>BANDHANBNK.NS</t>
+        </is>
+      </c>
+      <c r="B323" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C323" t="n">
+        <v>192.5500030517578</v>
+      </c>
+      <c r="D323" t="n">
+        <v>186.8999938964844</v>
+      </c>
+      <c r="E323" t="n">
+        <v>187.6000061035156</v>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G323" t="n">
+        <v>192.5500030517578</v>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J323" t="n">
+        <v>196</v>
+      </c>
+      <c r="K323" t="n">
+        <v>189.1000061035156</v>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>AUBANK.NS</t>
+        </is>
+      </c>
+      <c r="B324" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C324" t="n">
+        <v>655.5499877929688</v>
+      </c>
+      <c r="D324" t="n">
+        <v>639.5</v>
+      </c>
+      <c r="E324" t="n">
+        <v>645</v>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G324" t="n">
+        <v>655.5499877929688</v>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J324" t="n">
+        <v>667.9000244140625</v>
+      </c>
+      <c r="K324" t="n">
+        <v>655.3499755859375</v>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>MUTHOOTFIN.NS</t>
+        </is>
+      </c>
+      <c r="B325" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="C325" t="n">
+        <v>1753.900024414062</v>
+      </c>
+      <c r="D325" t="n">
+        <v>1695.5</v>
+      </c>
+      <c r="E325" t="n">
+        <v>1720.650024414062</v>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G325" t="n">
+        <v>1753.900024414062</v>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J325" t="n">
+        <v>1767.050048828125</v>
+      </c>
+      <c r="K325" t="n">
+        <v>1744.599975585938</v>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>CANBK.NS</t>
+        </is>
+      </c>
+      <c r="B326" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C326" t="n">
+        <v>121.2600021362305</v>
+      </c>
+      <c r="D326" t="n">
+        <v>117.0199966430664</v>
+      </c>
+      <c r="E326" t="n">
+        <v>120</v>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G326" t="n">
+        <v>121.2600021362305</v>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J326" t="n">
+        <v>128.8999938964844</v>
+      </c>
+      <c r="K326" t="n">
+        <v>119.3499984741211</v>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>CANBK.NS</t>
+        </is>
+      </c>
+      <c r="B327" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C327" t="n">
+        <v>123.7900009155273</v>
+      </c>
+      <c r="D327" t="n">
+        <v>121.4199981689453</v>
+      </c>
+      <c r="E327" t="n">
+        <v>122.4899978637695</v>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G327" t="n">
+        <v>123.7900009155273</v>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J327" t="n">
+        <v>128.8999938964844</v>
+      </c>
+      <c r="K327" t="n">
+        <v>119.3499984741211</v>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>CANBK.NS</t>
+        </is>
+      </c>
+      <c r="B328" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C328" t="n">
+        <v>126.5800018310547</v>
+      </c>
+      <c r="D328" t="n">
+        <v>123.8000030517578</v>
+      </c>
+      <c r="E328" t="n">
+        <v>125.129997253418</v>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G328" t="n">
+        <v>126.5800018310547</v>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J328" t="n">
+        <v>128.8999938964844</v>
+      </c>
+      <c r="K328" t="n">
+        <v>119.3499984741211</v>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>MCDOWELL-N.NS</t>
+        </is>
+      </c>
+      <c r="B329" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C329" t="n">
+        <v>1182.150024414062</v>
+      </c>
+      <c r="D329" t="n">
+        <v>1163.550048828125</v>
+      </c>
+      <c r="E329" t="n">
+        <v>1167.25</v>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G329" t="n">
+        <v>1182.150024414062</v>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J329" t="n">
+        <v>1185.5</v>
+      </c>
+      <c r="K329" t="n">
+        <v>1179.949951171875</v>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>BANKBARODA.NS</t>
+        </is>
+      </c>
+      <c r="B330" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C330" t="n">
+        <v>285.6000061035156</v>
+      </c>
+      <c r="D330" t="n">
+        <v>276.5</v>
+      </c>
+      <c r="E330" t="n">
+        <v>277.3999938964844</v>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G330" t="n">
+        <v>285.6000061035156</v>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J330" t="n">
+        <v>299.7000122070312</v>
+      </c>
+      <c r="K330" t="n">
+        <v>266.3500061035156</v>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>BANKBARODA.NS</t>
+        </is>
+      </c>
+      <c r="B331" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="C331" t="n">
+        <v>276.7000122070312</v>
+      </c>
+      <c r="D331" t="n">
+        <v>268.3500061035156</v>
+      </c>
+      <c r="E331" t="n">
+        <v>269.4500122070312</v>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G331" t="n">
+        <v>276.7000122070312</v>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J331" t="n">
+        <v>299.7000122070312</v>
+      </c>
+      <c r="K331" t="n">
+        <v>266.3500061035156</v>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>BANKBARODA.NS</t>
+        </is>
+      </c>
+      <c r="B332" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="C332" t="n">
+        <v>284.7999877929688</v>
+      </c>
+      <c r="D332" t="n">
+        <v>272.6000061035156</v>
+      </c>
+      <c r="E332" t="n">
+        <v>281.5</v>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G332" t="n">
+        <v>284.7999877929688</v>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J332" t="n">
+        <v>299.7000122070312</v>
+      </c>
+      <c r="K332" t="n">
+        <v>266.3500061035156</v>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>ICICIBANK.NS</t>
+        </is>
+      </c>
+      <c r="B333" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="C333" t="n">
+        <v>1169.550048828125</v>
+      </c>
+      <c r="D333" t="n">
+        <v>1146.75</v>
+      </c>
+      <c r="E333" t="n">
+        <v>1150.400024414062</v>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G333" t="n">
+        <v>1169.550048828125</v>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J333" t="n">
+        <v>1173</v>
+      </c>
+      <c r="K333" t="n">
+        <v>1130.599975585938</v>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>SHRIRAMFIN.NS</t>
+        </is>
+      </c>
+      <c r="B334" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C334" t="n">
+        <v>2535</v>
+      </c>
+      <c r="D334" t="n">
+        <v>2447.949951171875</v>
+      </c>
+      <c r="E334" t="n">
+        <v>2485.14990234375</v>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G334" t="n">
+        <v>2535</v>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J334" t="n">
+        <v>2546.949951171875</v>
+      </c>
+      <c r="K334" t="n">
+        <v>2387.35009765625</v>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>PNB.NS</t>
+        </is>
+      </c>
+      <c r="B335" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="C335" t="n">
+        <v>132.6000061035156</v>
+      </c>
+      <c r="D335" t="n">
+        <v>129.3000030517578</v>
+      </c>
+      <c r="E335" t="n">
+        <v>130.1499938964844</v>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G335" t="n">
+        <v>132.6000061035156</v>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J335" t="n">
+        <v>138.6000061035156</v>
+      </c>
+      <c r="K335" t="n">
+        <v>130</v>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>PNB.NS</t>
+        </is>
+      </c>
+      <c r="B336" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C336" t="n">
+        <v>132.9499969482422</v>
+      </c>
+      <c r="D336" t="n">
+        <v>128.1000061035156</v>
+      </c>
+      <c r="E336" t="n">
+        <v>128.8999938964844</v>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G336" t="n">
+        <v>132.9499969482422</v>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J336" t="n">
+        <v>138.6000061035156</v>
+      </c>
+      <c r="K336" t="n">
+        <v>130</v>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>AMBUJACEM.NS</t>
+        </is>
+      </c>
+      <c r="B337" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="C337" t="n">
+        <v>640.7999877929688</v>
+      </c>
+      <c r="D337" t="n">
+        <v>623.5999755859375</v>
+      </c>
+      <c r="E337" t="n">
+        <v>624.7000122070312</v>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G337" t="n">
+        <v>640.7999877929688</v>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J337" t="n">
+        <v>676.6500244140625</v>
+      </c>
+      <c r="K337" t="n">
+        <v>639.8499755859375</v>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>AMBUJACEM.NS</t>
+        </is>
+      </c>
+      <c r="B338" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="C338" t="n">
+        <v>649</v>
+      </c>
+      <c r="D338" t="n">
+        <v>629.2000122070312</v>
+      </c>
+      <c r="E338" t="n">
+        <v>638.3499755859375</v>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G338" t="n">
+        <v>649</v>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J338" t="n">
+        <v>676.6500244140625</v>
+      </c>
+      <c r="K338" t="n">
+        <v>639.8499755859375</v>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>FEDERALBNK.NS</t>
+        </is>
+      </c>
+      <c r="B339" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C339" t="n">
+        <v>166.3500061035156</v>
+      </c>
+      <c r="D339" t="n">
+        <v>162.3500061035156</v>
+      </c>
+      <c r="E339" t="n">
+        <v>162.9499969482422</v>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G339" t="n">
+        <v>166.3500061035156</v>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J339" t="n">
+        <v>167</v>
+      </c>
+      <c r="K339" t="n">
+        <v>162.75</v>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>GAIL.NS</t>
+        </is>
+      </c>
+      <c r="B340" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="C340" t="n">
+        <v>213.6499938964844</v>
+      </c>
+      <c r="D340" t="n">
+        <v>202.25</v>
+      </c>
+      <c r="E340" t="n">
+        <v>203.5500030517578</v>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G340" t="n">
+        <v>213.6499938964844</v>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J340" t="n">
+        <v>233.1999969482422</v>
+      </c>
+      <c r="K340" t="n">
+        <v>205.1499938964844</v>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>ADANIENSOL.NS</t>
+        </is>
+      </c>
+      <c r="B341" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C341" t="n">
+        <v>1190.599975585938</v>
+      </c>
+      <c r="D341" t="n">
+        <v>1081</v>
+      </c>
+      <c r="E341" t="n">
+        <v>1176.150024414062</v>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G341" t="n">
+        <v>1190.599975585938</v>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J341" t="n">
+        <v>1249.400024414062</v>
+      </c>
+      <c r="K341" t="n">
+        <v>1150.099975585938</v>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>AWL.NS</t>
+        </is>
+      </c>
+      <c r="B342" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C342" t="n">
+        <v>366.7000122070312</v>
+      </c>
+      <c r="D342" t="n">
+        <v>354.6000061035156</v>
+      </c>
+      <c r="E342" t="n">
+        <v>356.3999938964844</v>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G342" t="n">
+        <v>366.7000122070312</v>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J342" t="n">
+        <v>383.9500122070312</v>
+      </c>
+      <c r="K342" t="n">
+        <v>361.5499877929688</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>ADANIGREEN.NS</t>
+        </is>
+      </c>
+      <c r="B343" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C343" t="n">
+        <v>2018.949951171875</v>
+      </c>
+      <c r="D343" t="n">
+        <v>1947.949951171875</v>
+      </c>
+      <c r="E343" t="n">
+        <v>1979.5</v>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G343" t="n">
+        <v>2018.949951171875</v>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J343" t="n">
+        <v>2174.10009765625</v>
+      </c>
+      <c r="K343" t="n">
+        <v>1993.900024414062</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>ATGL.NS</t>
+        </is>
+      </c>
+      <c r="B344" s="2" t="n">
+        <v>45329</v>
+      </c>
+      <c r="C344" t="n">
+        <v>1072.199951171875</v>
+      </c>
+      <c r="D344" t="n">
+        <v>1001.049987792969</v>
+      </c>
+      <c r="E344" t="n">
+        <v>1040.050048828125</v>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G344" t="n">
+        <v>1072.199951171875</v>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J344" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K344" t="n">
+        <v>1060</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>ATGL.NS</t>
+        </is>
+      </c>
+      <c r="B345" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C345" t="n">
+        <v>1096</v>
+      </c>
+      <c r="D345" t="n">
+        <v>1042.199951171875</v>
+      </c>
+      <c r="E345" t="n">
+        <v>1048.300048828125</v>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G345" t="n">
+        <v>1096</v>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J345" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K345" t="n">
+        <v>1060</v>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>IOC.NS</t>
+        </is>
+      </c>
+      <c r="B346" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="C346" t="n">
+        <v>175.1999969482422</v>
+      </c>
+      <c r="D346" t="n">
+        <v>173.1499938964844</v>
+      </c>
+      <c r="E346" t="n">
+        <v>173.6999969482422</v>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G346" t="n">
+        <v>175.1999969482422</v>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J346" t="n">
+        <v>176.3999938964844</v>
+      </c>
+      <c r="K346" t="n">
+        <v>163.75</v>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>IRB.NS</t>
+        </is>
+      </c>
+      <c r="B347" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C347" t="n">
+        <v>69.30000305175781</v>
+      </c>
+      <c r="D347" t="n">
+        <v>65.94999694824219</v>
+      </c>
+      <c r="E347" t="n">
+        <v>67.09999847412109</v>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G347" t="n">
+        <v>69.30000305175781</v>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J347" t="n">
+        <v>74.59999847412109</v>
+      </c>
+      <c r="K347" t="n">
+        <v>66.69999694824219</v>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>IRB.NS</t>
+        </is>
+      </c>
+      <c r="B348" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C348" t="n">
+        <v>73.09999847412109</v>
+      </c>
+      <c r="D348" t="n">
+        <v>67.65000152587891</v>
+      </c>
+      <c r="E348" t="n">
+        <v>70</v>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G348" t="n">
+        <v>73.09999847412109</v>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J348" t="n">
+        <v>74.59999847412109</v>
+      </c>
+      <c r="K348" t="n">
+        <v>66.69999694824219</v>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>IRB.NS</t>
+        </is>
+      </c>
+      <c r="B349" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="C349" t="n">
+        <v>70.94999694824219</v>
+      </c>
+      <c r="D349" t="n">
+        <v>67.55000305175781</v>
+      </c>
+      <c r="E349" t="n">
+        <v>69.69999694824219</v>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G349" t="n">
+        <v>70.94999694824219</v>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J349" t="n">
+        <v>74.59999847412109</v>
+      </c>
+      <c r="K349" t="n">
+        <v>66.69999694824219</v>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>CONCOR.NS</t>
+        </is>
+      </c>
+      <c r="B350" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C350" t="n">
+        <v>1083.849975585938</v>
+      </c>
+      <c r="D350" t="n">
+        <v>1036.400024414062</v>
+      </c>
+      <c r="E350" t="n">
+        <v>1049.550048828125</v>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G350" t="n">
+        <v>1083.849975585938</v>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J350" t="n">
+        <v>1180</v>
+      </c>
+      <c r="K350" t="n">
+        <v>1080.650024414062</v>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>GIPCL.NS</t>
+        </is>
+      </c>
+      <c r="B351" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C351" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="D351" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="E351" t="n">
+        <v>186.3500061035156</v>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G351" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J351" t="n">
+        <v>213.8000030517578</v>
+      </c>
+      <c r="K351" t="n">
+        <v>181.6499938964844</v>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>GIPCL.NS</t>
+        </is>
+      </c>
+      <c r="B352" s="2" t="n">
+        <v>45427</v>
+      </c>
+      <c r="C352" t="n">
+        <v>198.8000030517578</v>
+      </c>
+      <c r="D352" t="n">
+        <v>190.8999938964844</v>
+      </c>
+      <c r="E352" t="n">
+        <v>191.3500061035156</v>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G352" t="n">
+        <v>198.8000030517578</v>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J352" t="n">
+        <v>213.8000030517578</v>
+      </c>
+      <c r="K352" t="n">
+        <v>181.6499938964844</v>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>DALMIASUG.NS</t>
+        </is>
+      </c>
+      <c r="B353" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="C353" t="n">
+        <v>389.5</v>
+      </c>
+      <c r="D353" t="n">
+        <v>376.3500061035156</v>
+      </c>
+      <c r="E353" t="n">
+        <v>379.7000122070312</v>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G353" t="n">
+        <v>389.5</v>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J353" t="n">
+        <v>391.3500061035156</v>
+      </c>
+      <c r="K353" t="n">
+        <v>373.8999938964844</v>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>KPIGREEN.NS</t>
+        </is>
+      </c>
+      <c r="B354" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C354" t="n">
+        <v>1890</v>
+      </c>
+      <c r="D354" t="n">
+        <v>1715.300048828125</v>
+      </c>
+      <c r="E354" t="n">
+        <v>1775.449951171875</v>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G354" t="n">
+        <v>1890</v>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J354" t="n">
+        <v>1913.550048828125</v>
+      </c>
+      <c r="K354" t="n">
+        <v>1849.050048828125</v>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>IRFC.NS</t>
+        </is>
+      </c>
+      <c r="B355" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="C355" t="n">
+        <v>192.8000030517578</v>
+      </c>
+      <c r="D355" t="n">
+        <v>158.75</v>
+      </c>
+      <c r="E355" t="n">
+        <v>161.3000030517578</v>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G355" t="n">
+        <v>192.8000030517578</v>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J355" t="n">
+        <v>200</v>
+      </c>
+      <c r="K355" t="n">
+        <v>179.8500061035156</v>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>IRCON.NS</t>
+        </is>
+      </c>
+      <c r="B356" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="C356" t="n">
+        <v>280.8500061035156</v>
+      </c>
+      <c r="D356" t="n">
+        <v>225</v>
+      </c>
+      <c r="E356" t="n">
+        <v>229.6499938964844</v>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G356" t="n">
+        <v>280.8500061035156</v>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J356" t="n">
+        <v>298.9500122070312</v>
+      </c>
+      <c r="K356" t="n">
+        <v>275.2000122070312</v>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>NBCC.NS</t>
+        </is>
+      </c>
+      <c r="B357" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C357" t="n">
+        <v>144.6999969482422</v>
+      </c>
+      <c r="D357" t="n">
+        <v>137.6499938964844</v>
+      </c>
+      <c r="E357" t="n">
+        <v>142.1499938964844</v>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G357" t="n">
+        <v>144.6999969482422</v>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J357" t="n">
+        <v>156</v>
+      </c>
+      <c r="K357" t="n">
+        <v>143</v>
+      </c>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>NHPC.NS</t>
+        </is>
+      </c>
+      <c r="B358" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C358" t="n">
+        <v>115.8499984741211</v>
+      </c>
+      <c r="D358" t="n">
+        <v>98.55000305175781</v>
+      </c>
+      <c r="E358" t="n">
+        <v>103.6500015258789</v>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G358" t="n">
+        <v>115.8499984741211</v>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J358" t="n">
+        <v>118</v>
+      </c>
+      <c r="K358" t="n">
+        <v>110.4499969482422</v>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>OLECTRA.NS</t>
+        </is>
+      </c>
+      <c r="B359" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C359" t="n">
+        <v>1808</v>
+      </c>
+      <c r="D359" t="n">
+        <v>1640</v>
+      </c>
+      <c r="E359" t="n">
+        <v>1705.25</v>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G359" t="n">
+        <v>1808</v>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J359" t="n">
+        <v>1876.150024414062</v>
+      </c>
+      <c r="K359" t="n">
+        <v>1787.25</v>
+      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>GMRINFRA.NS</t>
+        </is>
+      </c>
+      <c r="B360" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="C360" t="n">
+        <v>86.69999694824219</v>
+      </c>
+      <c r="D360" t="n">
+        <v>83.84999847412109</v>
+      </c>
+      <c r="E360" t="n">
+        <v>85.65000152587891</v>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G360" t="n">
+        <v>86.69999694824219</v>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J360" t="n">
+        <v>88.94999694824219</v>
+      </c>
+      <c r="K360" t="n">
+        <v>85.09999847412109</v>
+      </c>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>IGL.NS</t>
+        </is>
+      </c>
+      <c r="B361" s="2" t="n">
+        <v>45329</v>
+      </c>
+      <c r="C361" t="n">
+        <v>459</v>
+      </c>
+      <c r="D361" t="n">
+        <v>448.5499877929688</v>
+      </c>
+      <c r="E361" t="n">
+        <v>449.2999877929688</v>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G361" t="n">
+        <v>459</v>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J361" t="n">
+        <v>471.2000122070312</v>
+      </c>
+      <c r="K361" t="n">
+        <v>455.3999938964844</v>
+      </c>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>IGL.NS</t>
+        </is>
+      </c>
+      <c r="B362" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C362" t="n">
+        <v>460</v>
+      </c>
+      <c r="D362" t="n">
+        <v>447.25</v>
+      </c>
+      <c r="E362" t="n">
+        <v>458.5499877929688</v>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G362" t="n">
+        <v>460</v>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J362" t="n">
+        <v>471.2000122070312</v>
+      </c>
+      <c r="K362" t="n">
+        <v>455.3999938964844</v>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>ACC.NS</t>
+        </is>
+      </c>
+      <c r="B363" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="C363" t="n">
+        <v>2666.699951171875</v>
+      </c>
+      <c r="D363" t="n">
+        <v>2590.10009765625</v>
+      </c>
+      <c r="E363" t="n">
+        <v>2616.25</v>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G363" t="n">
+        <v>2666.699951171875</v>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J363" t="n">
+        <v>2702.699951171875</v>
+      </c>
+      <c r="K363" t="n">
+        <v>2570.10009765625</v>
+      </c>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>ACC.NS</t>
+        </is>
+      </c>
+      <c r="B364" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="C364" t="n">
+        <v>2610</v>
+      </c>
+      <c r="D364" t="n">
+        <v>2516</v>
+      </c>
+      <c r="E364" t="n">
+        <v>2533.050048828125</v>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G364" t="n">
+        <v>2610</v>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J364" t="n">
+        <v>2702.699951171875</v>
+      </c>
+      <c r="K364" t="n">
+        <v>2570.10009765625</v>
+      </c>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>JUSTDIAL.NS</t>
+        </is>
+      </c>
+      <c r="B365" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="C365" t="n">
+        <v>949.4500122070312</v>
+      </c>
+      <c r="D365" t="n">
+        <v>888</v>
+      </c>
+      <c r="E365" t="n">
+        <v>892.8499755859375</v>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G365" t="n">
+        <v>949.4500122070312</v>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J365" t="n">
+        <v>965.3499755859375</v>
+      </c>
+      <c r="K365" t="n">
+        <v>944.7999877929688</v>
+      </c>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>JUSTDIAL.NS</t>
+        </is>
+      </c>
+      <c r="B366" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C366" t="n">
+        <v>961</v>
+      </c>
+      <c r="D366" t="n">
+        <v>911</v>
+      </c>
+      <c r="E366" t="n">
+        <v>924.2000122070312</v>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G366" t="n">
+        <v>961</v>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J366" t="n">
+        <v>965.3499755859375</v>
+      </c>
+      <c r="K366" t="n">
+        <v>944.7999877929688</v>
+      </c>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>INDUSTOWER.NS</t>
+        </is>
+      </c>
+      <c r="B367" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="C367" t="n">
+        <v>366.5499877929688</v>
+      </c>
+      <c r="D367" t="n">
+        <v>356.8500061035156</v>
+      </c>
+      <c r="E367" t="n">
+        <v>359.5</v>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G367" t="n">
+        <v>366.5499877929688</v>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J367" t="n">
+        <v>369.8999938964844</v>
+      </c>
+      <c r="K367" t="n">
+        <v>350.7000122070312</v>
+      </c>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>SOBHA.NS</t>
+        </is>
+      </c>
+      <c r="B368" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C368" t="n">
+        <v>1969.050048828125</v>
+      </c>
+      <c r="D368" t="n">
+        <v>1843.099975585938</v>
+      </c>
+      <c r="E368" t="n">
+        <v>1856</v>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G368" t="n">
+        <v>1969.050048828125</v>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J368" t="n">
+        <v>1984.949951171875</v>
+      </c>
+      <c r="K368" t="n">
+        <v>1921.599975585938</v>
+      </c>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>TARC.NS</t>
+        </is>
+      </c>
+      <c r="B369" s="2" t="n">
+        <v>45331</v>
+      </c>
+      <c r="C369" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="D369" t="n">
+        <v>160.1999969482422</v>
+      </c>
+      <c r="E369" t="n">
+        <v>168.1999969482422</v>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G369" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J369" t="n">
+        <v>177</v>
+      </c>
+      <c r="K369" t="n">
+        <v>170.25</v>
+      </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>KOLTEPATIL.NS</t>
+        </is>
+      </c>
+      <c r="B370" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C370" t="n">
+        <v>509.6499938964844</v>
+      </c>
+      <c r="D370" t="n">
+        <v>484.7000122070312</v>
+      </c>
+      <c r="E370" t="n">
+        <v>487.0499877929688</v>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G370" t="n">
+        <v>509.6499938964844</v>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J370" t="n">
+        <v>513.9500122070312</v>
+      </c>
+      <c r="K370" t="n">
+        <v>458.7999877929688</v>
+      </c>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>RECLTD.NS</t>
+        </is>
+      </c>
+      <c r="B371" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C371" t="n">
+        <v>567.1500244140625</v>
+      </c>
+      <c r="D371" t="n">
+        <v>553.3499755859375</v>
+      </c>
+      <c r="E371" t="n">
+        <v>557.7999877929688</v>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G371" t="n">
+        <v>567.1500244140625</v>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J371" t="n">
+        <v>607.7999877929688</v>
+      </c>
+      <c r="K371" t="n">
+        <v>557.9000244140625</v>
+      </c>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>OIL.NS</t>
+        </is>
+      </c>
+      <c r="B372" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C372" t="n">
+        <v>647</v>
+      </c>
+      <c r="D372" t="n">
+        <v>618</v>
+      </c>
+      <c r="E372" t="n">
+        <v>633.8499755859375</v>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G372" t="n">
+        <v>647</v>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J372" t="n">
+        <v>689.8499755859375</v>
+      </c>
+      <c r="K372" t="n">
+        <v>638.7999877929688</v>
+      </c>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>OIL.NS</t>
+        </is>
+      </c>
+      <c r="B373" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="C373" t="n">
+        <v>669.5</v>
+      </c>
+      <c r="D373" t="n">
+        <v>625.0999755859375</v>
+      </c>
+      <c r="E373" t="n">
+        <v>635.6500244140625</v>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G373" t="n">
+        <v>669.5</v>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J373" t="n">
+        <v>689.8499755859375</v>
+      </c>
+      <c r="K373" t="n">
+        <v>638.7999877929688</v>
+      </c>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>CENTRALBK.BO</t>
+        </is>
+      </c>
+      <c r="B374" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="C374" t="n">
+        <v>67</v>
+      </c>
+      <c r="D374" t="n">
+        <v>64.13999938964844</v>
+      </c>
+      <c r="E374" t="n">
+        <v>64.94000244140625</v>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G374" t="n">
+        <v>67</v>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J374" t="n">
+        <v>72.98999786376953</v>
+      </c>
+      <c r="K374" t="n">
+        <v>65.34999847412109</v>
+      </c>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>CENTRALBK.BO</t>
+        </is>
+      </c>
+      <c r="B375" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="C375" t="n">
+        <v>69.80000305175781</v>
+      </c>
+      <c r="D375" t="n">
+        <v>66.90000152587891</v>
+      </c>
+      <c r="E375" t="n">
+        <v>67.19999694824219</v>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G375" t="n">
+        <v>69.80000305175781</v>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J375" t="n">
+        <v>72.98999786376953</v>
+      </c>
+      <c r="K375" t="n">
+        <v>65.34999847412109</v>
+      </c>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>JPPOWER.NS</t>
+        </is>
+      </c>
+      <c r="B376" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C376" t="n">
+        <v>19.60000038146973</v>
+      </c>
+      <c r="D376" t="n">
+        <v>18.39999961853027</v>
+      </c>
+      <c r="E376" t="n">
+        <v>18.39999961853027</v>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G376" t="n">
+        <v>19.60000038146973</v>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J376" t="n">
+        <v>20.20000076293945</v>
+      </c>
+      <c r="K376" t="n">
+        <v>19.60000038146973</v>
+      </c>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>UNIONBANK.NS</t>
+        </is>
+      </c>
+      <c r="B377" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="C377" t="n">
+        <v>163.1999969482422</v>
+      </c>
+      <c r="D377" t="n">
+        <v>158.1000061035156</v>
+      </c>
+      <c r="E377" t="n">
+        <v>160.1999969482422</v>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G377" t="n">
+        <v>163.1999969482422</v>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J377" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="K377" t="n">
+        <v>161.6000061035156</v>
+      </c>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>TATACOMM.NS</t>
+        </is>
+      </c>
+      <c r="B378" s="2" t="n">
+        <v>45310</v>
+      </c>
+      <c r="C378" t="n">
+        <v>1804.900024414062</v>
+      </c>
+      <c r="D378" t="n">
+        <v>1718.300048828125</v>
+      </c>
+      <c r="E378" t="n">
+        <v>1737.75</v>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G378" t="n">
+        <v>1804.900024414062</v>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J378" t="n">
+        <v>1821.400024414062</v>
+      </c>
+      <c r="K378" t="n">
+        <v>1784</v>
+      </c>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>BHEL.NS</t>
+        </is>
+      </c>
+      <c r="B379" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C379" t="n">
+        <v>318.2999877929688</v>
+      </c>
+      <c r="D379" t="n">
+        <v>294.1000061035156</v>
+      </c>
+      <c r="E379" t="n">
+        <v>305</v>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G379" t="n">
+        <v>318.2999877929688</v>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J379" t="n">
+        <v>321</v>
+      </c>
+      <c r="K379" t="n">
+        <v>300.6000061035156</v>
+      </c>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B380" s="2" t="n">
+        <v>44299</v>
+      </c>
+      <c r="C380" t="n">
+        <v>10</v>
+      </c>
+      <c r="D380" t="n">
+        <v>10</v>
+      </c>
+      <c r="E380" t="n">
+        <v>10</v>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G380" t="n">
+        <v>10</v>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J380" t="n">
+        <v>93.06999969482422</v>
+      </c>
+      <c r="K380" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B381" s="2" t="n">
+        <v>44301</v>
+      </c>
+      <c r="C381" t="n">
+        <v>10</v>
+      </c>
+      <c r="D381" t="n">
+        <v>10</v>
+      </c>
+      <c r="E381" t="n">
+        <v>10</v>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G381" t="n">
+        <v>10</v>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J381" t="n">
+        <v>93.06999969482422</v>
+      </c>
+      <c r="K381" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B382" s="2" t="n">
+        <v>44302</v>
+      </c>
+      <c r="C382" t="n">
+        <v>10</v>
+      </c>
+      <c r="D382" t="n">
+        <v>10</v>
+      </c>
+      <c r="E382" t="n">
+        <v>10</v>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G382" t="n">
+        <v>10</v>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J382" t="n">
+        <v>93.06999969482422</v>
+      </c>
+      <c r="K382" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>IEX.NS</t>
+        </is>
+      </c>
+      <c r="B383" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C383" t="n">
+        <v>158.3999938964844</v>
+      </c>
+      <c r="D383" t="n">
+        <v>152.75</v>
+      </c>
+      <c r="E383" t="n">
+        <v>153.5500030517578</v>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G383" t="n">
+        <v>158.3999938964844</v>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J383" t="n">
+        <v>160.3999938964844</v>
+      </c>
+      <c r="K383" t="n">
+        <v>155.6499938964844</v>
+      </c>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>HPL.NS</t>
+        </is>
+      </c>
+      <c r="B384" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C384" t="n">
+        <v>396.7999877929688</v>
+      </c>
+      <c r="D384" t="n">
+        <v>363.4500122070312</v>
+      </c>
+      <c r="E384" t="n">
+        <v>373.5499877929688</v>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G384" t="n">
+        <v>396.7999877929688</v>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J384" t="n">
+        <v>425</v>
+      </c>
+      <c r="K384" t="n">
+        <v>392.3500061035156</v>
+      </c>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>ZENTEC.NS</t>
+        </is>
+      </c>
+      <c r="B385" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C385" t="n">
+        <v>999.6500244140625</v>
+      </c>
+      <c r="D385" t="n">
+        <v>945.5999755859375</v>
+      </c>
+      <c r="E385" t="n">
+        <v>964.3499755859375</v>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G385" t="n">
+        <v>999.6500244140625</v>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J385" t="n">
+        <v>1013</v>
+      </c>
+      <c r="K385" t="n">
+        <v>972</v>
+      </c>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>GENUSPOWER.NS</t>
+        </is>
+      </c>
+      <c r="B386" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="C386" t="n">
+        <v>317.5</v>
+      </c>
+      <c r="D386" t="n">
+        <v>309.1499938964844</v>
+      </c>
+      <c r="E386" t="n">
+        <v>312.7999877929688</v>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G386" t="n">
+        <v>317.5</v>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I386" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J386" t="n">
+        <v>329</v>
+      </c>
+      <c r="K386" t="n">
+        <v>316.8999938964844</v>
+      </c>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>SIL.NS</t>
+        </is>
+      </c>
+      <c r="B387" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C387" t="n">
+        <v>24.35000038146973</v>
+      </c>
+      <c r="D387" t="n">
+        <v>23.29999923706055</v>
+      </c>
+      <c r="E387" t="n">
+        <v>24</v>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G387" t="n">
+        <v>24.35000038146973</v>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J387" t="n">
+        <v>25</v>
+      </c>
+      <c r="K387" t="n">
+        <v>23.89999961853027</v>
+      </c>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>PSB.NS</t>
+        </is>
+      </c>
+      <c r="B388" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="C388" t="n">
+        <v>65.09999847412109</v>
+      </c>
+      <c r="D388" t="n">
+        <v>62.40000152587891</v>
+      </c>
+      <c r="E388" t="n">
+        <v>63.04999923706055</v>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G388" t="n">
+        <v>65.09999847412109</v>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J388" t="n">
+        <v>66.30000305175781</v>
+      </c>
+      <c r="K388" t="n">
+        <v>61.95000076293945</v>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>LICHSGFIN.NS</t>
+        </is>
+      </c>
+      <c r="B389" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C389" t="n">
+        <v>671.9500122070312</v>
+      </c>
+      <c r="D389" t="n">
+        <v>623</v>
+      </c>
+      <c r="E389" t="n">
+        <v>637.5999755859375</v>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G389" t="n">
+        <v>671.9500122070312</v>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J389" t="n">
+        <v>685.5</v>
+      </c>
+      <c r="K389" t="n">
+        <v>653.8499755859375</v>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>LICHSGFIN.NS</t>
+        </is>
+      </c>
+      <c r="B390" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C390" t="n">
+        <v>683</v>
+      </c>
+      <c r="D390" t="n">
+        <v>644.5</v>
+      </c>
+      <c r="E390" t="n">
+        <v>654.0499877929688</v>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G390" t="n">
+        <v>683</v>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I390" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J390" t="n">
+        <v>685.5</v>
+      </c>
+      <c r="K390" t="n">
+        <v>653.8499755859375</v>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>BAJAJ-AUTO.NS</t>
+        </is>
+      </c>
+      <c r="B391" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C391" t="n">
+        <v>9357.9501953125</v>
+      </c>
+      <c r="D391" t="n">
+        <v>8988.0498046875</v>
+      </c>
+      <c r="E391" t="n">
+        <v>9009.5</v>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G391" t="n">
+        <v>9357.9501953125</v>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I391" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J391" t="n">
+        <v>9444</v>
+      </c>
+      <c r="K391" t="n">
+        <v>9139.4501953125</v>
+      </c>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>RELIANCE.NS</t>
+        </is>
+      </c>
+      <c r="B392" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C392" t="n">
+        <v>3024.89990234375</v>
+      </c>
+      <c r="D392" t="n">
+        <v>2951.10009765625</v>
+      </c>
+      <c r="E392" t="n">
+        <v>2957.85009765625</v>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G392" t="n">
+        <v>3024.89990234375</v>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I392" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J392" t="n">
+        <v>3029</v>
+      </c>
+      <c r="K392" t="n">
+        <v>2969.800048828125</v>
+      </c>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>ONGC.NS</t>
+        </is>
+      </c>
+      <c r="B393" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C393" t="n">
+        <v>284.9500122070312</v>
+      </c>
+      <c r="D393" t="n">
+        <v>272.5</v>
+      </c>
+      <c r="E393" t="n">
+        <v>278.1000061035156</v>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G393" t="n">
+        <v>284.9500122070312</v>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J393" t="n">
+        <v>286.5499877929688</v>
+      </c>
+      <c r="K393" t="n">
+        <v>284.2000122070312</v>
+      </c>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>LT.NS</t>
+        </is>
+      </c>
+      <c r="B394" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C394" t="n">
+        <v>3860</v>
+      </c>
+      <c r="D394" t="n">
+        <v>3716.25</v>
+      </c>
+      <c r="E394" t="n">
+        <v>3743.10009765625</v>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G394" t="n">
+        <v>3860</v>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J394" t="n">
+        <v>3919.89990234375</v>
+      </c>
+      <c r="K394" t="n">
+        <v>3744.800048828125</v>
+      </c>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>HDFCBANK.NS</t>
+        </is>
+      </c>
+      <c r="B395" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="C395" t="n">
+        <v>1557.400024414062</v>
+      </c>
+      <c r="D395" t="n">
+        <v>1503.25</v>
+      </c>
+      <c r="E395" t="n">
+        <v>1509.800048828125</v>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G395" t="n">
+        <v>1557.400024414062</v>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J395" t="n">
+        <v>1599</v>
+      </c>
+      <c r="K395" t="n">
+        <v>1545</v>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>FEDERALBNK.NS</t>
+        </is>
+      </c>
+      <c r="B396" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C396" t="n">
+        <v>166.3500061035156</v>
+      </c>
+      <c r="D396" t="n">
+        <v>149.1499938964844</v>
+      </c>
+      <c r="E396" t="n">
+        <v>152.4499969482422</v>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G396" t="n">
+        <v>166.3500061035156</v>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J396" t="n">
+        <v>167</v>
+      </c>
+      <c r="K396" t="n">
+        <v>165.1999969482422</v>
+      </c>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>GAIL.NS</t>
+        </is>
+      </c>
+      <c r="B397" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="C397" t="n">
+        <v>213.6499938964844</v>
+      </c>
+      <c r="D397" t="n">
+        <v>196.6000061035156</v>
+      </c>
+      <c r="E397" t="n">
+        <v>201.9499969482422</v>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G397" t="n">
+        <v>213.6499938964844</v>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I397" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J397" t="n">
+        <v>233.1999969482422</v>
+      </c>
+      <c r="K397" t="n">
+        <v>207.1499938964844</v>
+      </c>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>CANBK.NS</t>
+        </is>
+      </c>
+      <c r="B398" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C398" t="n">
+        <v>126.5800018310547</v>
+      </c>
+      <c r="D398" t="n">
+        <v>122.8399963378906</v>
+      </c>
+      <c r="E398" t="n">
+        <v>125.129997253418</v>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G398" t="n">
+        <v>126.5800018310547</v>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J398" t="n">
+        <v>128.8999938964844</v>
+      </c>
+      <c r="K398" t="n">
+        <v>119.3499984741211</v>
+      </c>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>BANKBARODA.NS</t>
+        </is>
+      </c>
+      <c r="B399" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C399" t="n">
+        <v>285.6000061035156</v>
+      </c>
+      <c r="D399" t="n">
+        <v>250.1499938964844</v>
+      </c>
+      <c r="E399" t="n">
+        <v>254</v>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G399" t="n">
+        <v>285.6000061035156</v>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J399" t="n">
+        <v>299.7000122070312</v>
+      </c>
+      <c r="K399" t="n">
+        <v>273.3999938964844</v>
+      </c>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>BANKBARODA.NS</t>
+        </is>
+      </c>
+      <c r="B400" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C400" t="n">
+        <v>284.7999877929688</v>
+      </c>
+      <c r="D400" t="n">
+        <v>265</v>
+      </c>
+      <c r="E400" t="n">
+        <v>275.75</v>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G400" t="n">
+        <v>284.7999877929688</v>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I400" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J400" t="n">
+        <v>299.7000122070312</v>
+      </c>
+      <c r="K400" t="n">
+        <v>273.3999938964844</v>
+      </c>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>ADANIENSOL.NS</t>
+        </is>
+      </c>
+      <c r="B401" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C401" t="n">
+        <v>1190.599975585938</v>
+      </c>
+      <c r="D401" t="n">
+        <v>1060</v>
+      </c>
+      <c r="E401" t="n">
+        <v>1080.800048828125</v>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G401" t="n">
+        <v>1190.599975585938</v>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J401" t="n">
+        <v>1249.400024414062</v>
+      </c>
+      <c r="K401" t="n">
+        <v>1150.099975585938</v>
+      </c>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>ATGL.NS</t>
+        </is>
+      </c>
+      <c r="B402" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C402" t="n">
+        <v>1096</v>
+      </c>
+      <c r="D402" t="n">
+        <v>1005.25</v>
+      </c>
+      <c r="E402" t="n">
+        <v>1039.150024414062</v>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G402" t="n">
+        <v>1096</v>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I402" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J402" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K402" t="n">
+        <v>1060</v>
+      </c>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>ADANIGREEN.NS</t>
+        </is>
+      </c>
+      <c r="B403" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C403" t="n">
+        <v>2018.949951171875</v>
+      </c>
+      <c r="D403" t="n">
+        <v>1855.949951171875</v>
+      </c>
+      <c r="E403" t="n">
+        <v>1969.550048828125</v>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G403" t="n">
+        <v>2018.949951171875</v>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I403" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J403" t="n">
+        <v>2174.10009765625</v>
+      </c>
+      <c r="K403" t="n">
+        <v>1993.900024414062</v>
+      </c>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>KPIGREEN.NS</t>
+        </is>
+      </c>
+      <c r="B404" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C404" t="n">
+        <v>1890</v>
+      </c>
+      <c r="D404" t="n">
+        <v>1574.449951171875</v>
+      </c>
+      <c r="E404" t="n">
+        <v>1740.75</v>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G404" t="n">
+        <v>1890</v>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J404" t="n">
+        <v>1913.550048828125</v>
+      </c>
+      <c r="K404" t="n">
+        <v>1886.800048828125</v>
+      </c>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>NHPC.NS</t>
+        </is>
+      </c>
+      <c r="B405" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C405" t="n">
+        <v>115.8499984741211</v>
+      </c>
+      <c r="D405" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="E405" t="n">
+        <v>96.25</v>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G405" t="n">
+        <v>115.8499984741211</v>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I405" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J405" t="n">
+        <v>118</v>
+      </c>
+      <c r="K405" t="n">
+        <v>110.4499969482422</v>
+      </c>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>INDUSTOWER.NS</t>
+        </is>
+      </c>
+      <c r="B406" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="C406" t="n">
+        <v>366.5499877929688</v>
+      </c>
+      <c r="D406" t="n">
+        <v>341.6499938964844</v>
+      </c>
+      <c r="E406" t="n">
+        <v>353.2999877929688</v>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G406" t="n">
+        <v>366.5499877929688</v>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J406" t="n">
+        <v>369.8999938964844</v>
+      </c>
+      <c r="K406" t="n">
+        <v>352</v>
+      </c>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>CENTRALBK.BO</t>
+        </is>
+      </c>
+      <c r="B407" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="C407" t="n">
+        <v>69.80000305175781</v>
+      </c>
+      <c r="D407" t="n">
+        <v>62.84999847412109</v>
+      </c>
+      <c r="E407" t="n">
+        <v>63.56999969482422</v>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G407" t="n">
+        <v>69.80000305175781</v>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I407" t="inlineStr">
+        <is>
+          <t>28-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J407" t="n">
+        <v>72.98999786376953</v>
+      </c>
+      <c r="K407" t="n">
+        <v>69.18000030517578</v>
+      </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>UNIONBANK.NS</t>
+        </is>
+      </c>
+      <c r="B408" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C408" t="n">
+        <v>163.1999969482422</v>
+      </c>
+      <c r="D408" t="n">
+        <v>154.1000061035156</v>
+      </c>
+      <c r="E408" t="n">
+        <v>160.1999969482422</v>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G408" t="n">
+        <v>163.1999969482422</v>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I408" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J408" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="K408" t="n">
+        <v>161.8000030517578</v>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B409" s="2" t="n">
+        <v>44158</v>
+      </c>
+      <c r="C409" t="n">
+        <v>12</v>
+      </c>
+      <c r="D409" t="n">
+        <v>12</v>
+      </c>
+      <c r="E409" t="n">
+        <v>12</v>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G409" t="n">
+        <v>12</v>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I409" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J409" t="n">
+        <v>93.06999969482422</v>
+      </c>
+      <c r="K409" t="n">
+        <v>9.989999771118164</v>
+      </c>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B410" s="2" t="n">
+        <v>44200</v>
+      </c>
+      <c r="C410" t="n">
+        <v>12.52000045776367</v>
+      </c>
+      <c r="D410" t="n">
+        <v>10.82999992370605</v>
+      </c>
+      <c r="E410" t="n">
+        <v>11.35999965667725</v>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G410" t="n">
+        <v>12.52000045776367</v>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I410" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J410" t="n">
+        <v>93.06999969482422</v>
+      </c>
+      <c r="K410" t="n">
+        <v>9.989999771118164</v>
+      </c>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B411" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="C411" t="n">
+        <v>10.97000026702881</v>
+      </c>
+      <c r="D411" t="n">
+        <v>10</v>
+      </c>
+      <c r="E411" t="n">
+        <v>10</v>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G411" t="n">
+        <v>10.97000026702881</v>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I411" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J411" t="n">
+        <v>93.06999969482422</v>
+      </c>
+      <c r="K411" t="n">
+        <v>9.989999771118164</v>
+      </c>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>SJS.NS</t>
+        </is>
+      </c>
+      <c r="B412" s="2" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C412" t="n">
+        <v>745</v>
+      </c>
+      <c r="D412" t="n">
+        <v>678</v>
+      </c>
+      <c r="E412" t="n">
+        <v>683.5</v>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G412" t="n">
+        <v>745</v>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I412" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J412" t="n">
+        <v>757</v>
+      </c>
+      <c r="K412" t="n">
+        <v>741.2000122070312</v>
+      </c>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>RBLBANK.NS</t>
+        </is>
+      </c>
+      <c r="B413" s="2" t="n">
+        <v>45201</v>
+      </c>
+      <c r="C413" t="n">
+        <v>256.7000122070312</v>
+      </c>
+      <c r="D413" t="n">
+        <v>241.1999969482422</v>
+      </c>
+      <c r="E413" t="n">
+        <v>247.5</v>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G413" t="n">
+        <v>256.7000122070312</v>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J413" t="n">
+        <v>266.75</v>
+      </c>
+      <c r="K413" t="n">
+        <v>256.5</v>
+      </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>RELIANCE.NS</t>
+        </is>
+      </c>
+      <c r="B414" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C414" t="n">
+        <v>3024.89990234375</v>
+      </c>
+      <c r="D414" t="n">
+        <v>2825.800048828125</v>
+      </c>
+      <c r="E414" t="n">
+        <v>2971.699951171875</v>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G414" t="n">
+        <v>3024.89990234375</v>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>01-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J414" t="n">
+        <v>3029</v>
+      </c>
+      <c r="K414" t="n">
+        <v>2984.449951171875</v>
+      </c>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>BANKBARODA.NS</t>
+        </is>
+      </c>
+      <c r="B415" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C415" t="n">
+        <v>285.6000061035156</v>
+      </c>
+      <c r="D415" t="n">
+        <v>243.8000030517578</v>
+      </c>
+      <c r="E415" t="n">
+        <v>264.0499877929688</v>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G415" t="n">
+        <v>285.6000061035156</v>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>01-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J415" t="n">
+        <v>299.7000122070312</v>
+      </c>
+      <c r="K415" t="n">
+        <v>283.8999938964844</v>
+      </c>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>ADANIGREEN.NS</t>
+        </is>
+      </c>
+      <c r="B416" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="C416" t="n">
+        <v>2018.949951171875</v>
+      </c>
+      <c r="D416" t="n">
+        <v>1651.599975585938</v>
+      </c>
+      <c r="E416" t="n">
+        <v>1895.050048828125</v>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G416" t="n">
+        <v>2018.949951171875</v>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="I416" t="inlineStr">
+        <is>
+          <t>01-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J416" t="n">
+        <v>2174.10009765625</v>
+      </c>
+      <c r="K416" t="n">
+        <v>1993.900024414062</v>
+      </c>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>NHPC.NS</t>
+        </is>
+      </c>
+      <c r="B417" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="C417" t="n">
+        <v>115.8499984741211</v>
+      </c>
+      <c r="D417" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="E417" t="n">
+        <v>88.15000152587891</v>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G417" t="n">
+        <v>115.8499984741211</v>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="I417" t="inlineStr">
+        <is>
+          <t>01-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J417" t="n">
+        <v>118</v>
+      </c>
+      <c r="K417" t="n">
+        <v>110.4499969482422</v>
+      </c>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>GODREJPROP.NS</t>
+        </is>
+      </c>
+      <c r="B418" s="2" t="n">
+        <v>44470</v>
+      </c>
+      <c r="C418" t="n">
+        <v>2598</v>
+      </c>
+      <c r="D418" t="n">
+        <v>1766.349975585938</v>
+      </c>
+      <c r="E418" t="n">
+        <v>1871.800048828125</v>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G418" t="n">
+        <v>2598</v>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I418" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J418" t="n">
+        <v>3007.199951171875</v>
+      </c>
+      <c r="K418" t="n">
+        <v>2541.300048828125</v>
+      </c>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>HINDALCO.NS</t>
+        </is>
+      </c>
+      <c r="B419" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="C419" t="n">
+        <v>636</v>
+      </c>
+      <c r="D419" t="n">
+        <v>472</v>
+      </c>
+      <c r="E419" t="n">
+        <v>569.5</v>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G419" t="n">
+        <v>636</v>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J419" t="n">
+        <v>715.25</v>
+      </c>
+      <c r="K419" t="n">
+        <v>620.5</v>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>MARICO.NS</t>
+        </is>
+      </c>
+      <c r="B420" s="2" t="n">
+        <v>44409</v>
+      </c>
+      <c r="C420" t="n">
+        <v>607.7000122070312</v>
+      </c>
+      <c r="D420" t="n">
+        <v>511</v>
+      </c>
+      <c r="E420" t="n">
+        <v>568.4500122070312</v>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G420" t="n">
+        <v>607.7000122070312</v>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I420" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J420" t="n">
+        <v>615.9000244140625</v>
+      </c>
+      <c r="K420" t="n">
+        <v>554.7000122070312</v>
+      </c>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>VEDL.NS</t>
+        </is>
+      </c>
+      <c r="B421" s="2" t="n">
+        <v>41730</v>
+      </c>
+      <c r="C421" t="n">
+        <v>318.2999877929688</v>
+      </c>
+      <c r="D421" t="n">
+        <v>178</v>
+      </c>
+      <c r="E421" t="n">
+        <v>292.3500061035156</v>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G421" t="n">
+        <v>318.2999877929688</v>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I421" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J421" t="n">
+        <v>506.75</v>
+      </c>
+      <c r="K421" t="n">
+        <v>289.25</v>
+      </c>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>VEDL.NS</t>
+        </is>
+      </c>
+      <c r="B422" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="C422" t="n">
+        <v>355.7000122070312</v>
+      </c>
+      <c r="D422" t="n">
+        <v>268.75</v>
+      </c>
+      <c r="E422" t="n">
+        <v>277.8500061035156</v>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G422" t="n">
+        <v>355.7000122070312</v>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I422" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J422" t="n">
+        <v>506.75</v>
+      </c>
+      <c r="K422" t="n">
+        <v>289.25</v>
+      </c>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>VEDL.NS</t>
+        </is>
+      </c>
+      <c r="B423" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="C423" t="n">
+        <v>440.75</v>
+      </c>
+      <c r="D423" t="n">
+        <v>216.1000061035156</v>
+      </c>
+      <c r="E423" t="n">
+        <v>223</v>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G423" t="n">
+        <v>440.75</v>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I423" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J423" t="n">
+        <v>506.75</v>
+      </c>
+      <c r="K423" t="n">
+        <v>289.25</v>
+      </c>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>MOTHERSON.NS</t>
+        </is>
+      </c>
+      <c r="B424" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="C424" t="n">
+        <v>134.8666687011719</v>
+      </c>
+      <c r="D424" t="n">
+        <v>79.69999694824219</v>
+      </c>
+      <c r="E424" t="n">
+        <v>92.96666717529297</v>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G424" t="n">
+        <v>134.8666687011719</v>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I424" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J424" t="n">
+        <v>159.6999969482422</v>
+      </c>
+      <c r="K424" t="n">
+        <v>126.5</v>
+      </c>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>VOLTAS.NS</t>
+        </is>
+      </c>
+      <c r="B425" s="2" t="n">
+        <v>44470</v>
+      </c>
+      <c r="C425" t="n">
+        <v>1356.900024414062</v>
+      </c>
+      <c r="D425" t="n">
+        <v>1131.25</v>
+      </c>
+      <c r="E425" t="n">
+        <v>1219.150024414062</v>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G425" t="n">
+        <v>1356.900024414062</v>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I425" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J425" t="n">
+        <v>1502.300048828125</v>
+      </c>
+      <c r="K425" t="n">
+        <v>1133.5</v>
+      </c>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>KNRCON.NS</t>
+        </is>
+      </c>
+      <c r="B426" s="2" t="n">
+        <v>44409</v>
+      </c>
+      <c r="C426" t="n">
+        <v>343.8999938964844</v>
+      </c>
+      <c r="D426" t="n">
+        <v>264.6499938964844</v>
+      </c>
+      <c r="E426" t="n">
+        <v>279.7999877929688</v>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G426" t="n">
+        <v>343.8999938964844</v>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I426" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J426" t="n">
+        <v>348.8999938964844</v>
+      </c>
+      <c r="K426" t="n">
+        <v>292</v>
+      </c>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>EMAMILTD.NS</t>
+        </is>
+      </c>
+      <c r="B427" s="2" t="n">
+        <v>44409</v>
+      </c>
+      <c r="C427" t="n">
+        <v>621.7999877929688</v>
+      </c>
+      <c r="D427" t="n">
+        <v>507.9500122070312</v>
+      </c>
+      <c r="E427" t="n">
+        <v>531.25</v>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G427" t="n">
+        <v>621.7999877929688</v>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I427" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J427" t="n">
+        <v>649.9000244140625</v>
+      </c>
+      <c r="K427" t="n">
+        <v>510.9500122070312</v>
+      </c>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>SAIL.NS</t>
+        </is>
+      </c>
+      <c r="B428" s="2" t="n">
+        <v>44287</v>
+      </c>
+      <c r="C428" t="n">
+        <v>151.3000030517578</v>
+      </c>
+      <c r="D428" t="n">
+        <v>79.55000305175781</v>
+      </c>
+      <c r="E428" t="n">
+        <v>130.6000061035156</v>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G428" t="n">
+        <v>151.3000030517578</v>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I428" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J428" t="n">
+        <v>175.3500061035156</v>
+      </c>
+      <c r="K428" t="n">
+        <v>150</v>
+      </c>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>SJS.NS</t>
+        </is>
+      </c>
+      <c r="B429" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="C429" t="n">
+        <v>745</v>
+      </c>
+      <c r="D429" t="n">
+        <v>595.2999877929688</v>
+      </c>
+      <c r="E429" t="n">
+        <v>676.6500244140625</v>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G429" t="n">
+        <v>745</v>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I429" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J429" t="n">
+        <v>757</v>
+      </c>
+      <c r="K429" t="n">
+        <v>668</v>
+      </c>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>GEOJITFSL.NS</t>
+        </is>
+      </c>
+      <c r="B430" s="2" t="n">
+        <v>44378</v>
+      </c>
+      <c r="C430" t="n">
+        <v>102.6999969482422</v>
+      </c>
+      <c r="D430" t="n">
+        <v>71.25</v>
+      </c>
+      <c r="E430" t="n">
+        <v>76.40000152587891</v>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G430" t="n">
+        <v>102.6999969482422</v>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I430" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J430" t="n">
+        <v>116.0999984741211</v>
+      </c>
+      <c r="K430" t="n">
+        <v>90</v>
+      </c>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>RTNPOWER.NS</t>
+        </is>
+      </c>
+      <c r="B431" s="2" t="n">
+        <v>41730</v>
+      </c>
+      <c r="C431" t="n">
+        <v>16.20000076293945</v>
+      </c>
+      <c r="D431" t="n">
+        <v>7.400000095367432</v>
+      </c>
+      <c r="E431" t="n">
+        <v>14.39999961853027</v>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G431" t="n">
+        <v>16.20000076293945</v>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I431" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J431" t="n">
+        <v>20.10000038146973</v>
+      </c>
+      <c r="K431" t="n">
+        <v>12.30000019073486</v>
+      </c>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>RTNPOWER.NS</t>
+        </is>
+      </c>
+      <c r="B432" s="2" t="n">
+        <v>42370</v>
+      </c>
+      <c r="C432" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D432" t="n">
+        <v>7.849999904632568</v>
+      </c>
+      <c r="E432" t="n">
+        <v>9.949999809265137</v>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G432" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I432" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J432" t="n">
+        <v>20.10000038146973</v>
+      </c>
+      <c r="K432" t="n">
+        <v>12.30000019073486</v>
+      </c>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:K141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5038,6 +5038,1761 @@
       <c r="K102" t="inlineStr">
         <is>
           <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>BAJAJFINSV.NS</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1559</v>
+      </c>
+      <c r="F103" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1568.699951171875</v>
+      </c>
+      <c r="H103" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1556</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>UPL.NS</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>44942</v>
+      </c>
+      <c r="E104" t="n">
+        <v>710.5</v>
+      </c>
+      <c r="F104" s="2" t="n">
+        <v>44999</v>
+      </c>
+      <c r="G104" t="n">
+        <v>687.5999755859375</v>
+      </c>
+      <c r="H104" s="2" t="n">
+        <v>45065</v>
+      </c>
+      <c r="I104" t="n">
+        <v>657.0499877929688</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>TATASTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>45217</v>
+      </c>
+      <c r="E105" t="n">
+        <v>128.6999969482422</v>
+      </c>
+      <c r="F105" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="G105" t="n">
+        <v>141.25</v>
+      </c>
+      <c r="H105" s="2" t="n">
+        <v>45329</v>
+      </c>
+      <c r="I105" t="n">
+        <v>147.3999938964844</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>JSWSTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>44928</v>
+      </c>
+      <c r="E106" t="n">
+        <v>783.5</v>
+      </c>
+      <c r="F106" s="2" t="n">
+        <v>45148</v>
+      </c>
+      <c r="G106" t="n">
+        <v>835</v>
+      </c>
+      <c r="H106" s="2" t="n">
+        <v>45181</v>
+      </c>
+      <c r="I106" t="n">
+        <v>840</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>BANKBARODA.NS</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="E107" t="n">
+        <v>219.4499969482422</v>
+      </c>
+      <c r="F107" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="G107" t="n">
+        <v>243.8000030517578</v>
+      </c>
+      <c r="H107" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="I107" t="n">
+        <v>251.1000061035156</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>GAIL.NS</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>45252</v>
+      </c>
+      <c r="E108" t="n">
+        <v>122.9000015258789</v>
+      </c>
+      <c r="F108" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="G108" t="n">
+        <v>155.75</v>
+      </c>
+      <c r="H108" s="2" t="n">
+        <v>45335</v>
+      </c>
+      <c r="I108" t="n">
+        <v>166.3500061035156</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>SHRIRAMFIN.NS</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1901</v>
+      </c>
+      <c r="F109" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1971.800048828125</v>
+      </c>
+      <c r="H109" s="2" t="n">
+        <v>45274</v>
+      </c>
+      <c r="I109" t="n">
+        <v>2130</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>INDUSINDBK.NS</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1393.650024414062</v>
+      </c>
+      <c r="F110" s="2" t="n">
+        <v>45335</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1430.650024414062</v>
+      </c>
+      <c r="H110" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1440</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>AMBUJACEM.NS</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>45253</v>
+      </c>
+      <c r="E111" t="n">
+        <v>408.6000061035156</v>
+      </c>
+      <c r="F111" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="G111" t="n">
+        <v>550.7999877929688</v>
+      </c>
+      <c r="H111" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="I111" t="n">
+        <v>593.4500122070312</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>AMBUJACEM.NS</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="E112" t="n">
+        <v>480.4500122070312</v>
+      </c>
+      <c r="F112" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="G112" t="n">
+        <v>509</v>
+      </c>
+      <c r="H112" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="I112" t="n">
+        <v>593.4500122070312</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>CANBK.NS</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="E113" t="n">
+        <v>68.41999816894531</v>
+      </c>
+      <c r="F113" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="G113" t="n">
+        <v>82.69000244140625</v>
+      </c>
+      <c r="H113" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="I113" t="n">
+        <v>112.5400009155273</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>VBL.NS</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1196.400024414062</v>
+      </c>
+      <c r="F114" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1349.699951171875</v>
+      </c>
+      <c r="H114" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1405.099975585938</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>PGHH.NS</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>45197</v>
+      </c>
+      <c r="E115" t="n">
+        <v>18597.94921875</v>
+      </c>
+      <c r="F115" s="2" t="n">
+        <v>45288</v>
+      </c>
+      <c r="G115" t="n">
+        <v>17629.900390625</v>
+      </c>
+      <c r="H115" s="2" t="n">
+        <v>45307</v>
+      </c>
+      <c r="I115" t="n">
+        <v>17432.900390625</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>TATAPOWER.NS</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>45114</v>
+      </c>
+      <c r="E116" t="n">
+        <v>232.3500061035156</v>
+      </c>
+      <c r="F116" s="2" t="n">
+        <v>45177</v>
+      </c>
+      <c r="G116" t="n">
+        <v>276.5</v>
+      </c>
+      <c r="H116" s="2" t="n">
+        <v>45280</v>
+      </c>
+      <c r="I116" t="n">
+        <v>346.8999938964844</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>HAVELLS.NS</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>44993</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1228.599975585938</v>
+      </c>
+      <c r="F117" s="2" t="n">
+        <v>45058</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1322.900024414062</v>
+      </c>
+      <c r="H117" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1373.699951171875</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>BAJAJHIND.NS</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="E118" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="F118" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="G118" t="n">
+        <v>30.64999961853027</v>
+      </c>
+      <c r="H118" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="I118" t="n">
+        <v>30.64999961853027</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>BAJAJHIND.NS</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="E119" t="n">
+        <v>26.79999923706055</v>
+      </c>
+      <c r="F119" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="G119" t="n">
+        <v>30.64999961853027</v>
+      </c>
+      <c r="H119" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="I119" t="n">
+        <v>30.64999961853027</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>DALBHARAT.NS</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>45042</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1901.5</v>
+      </c>
+      <c r="F120" s="2" t="n">
+        <v>45131</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1880.650024414062</v>
+      </c>
+      <c r="H120" s="2" t="n">
+        <v>45156</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1873.300048828125</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>BALRAMCHIN.NS</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>45061</v>
+      </c>
+      <c r="E121" t="n">
+        <v>371.5</v>
+      </c>
+      <c r="F121" s="2" t="n">
+        <v>45120</v>
+      </c>
+      <c r="G121" t="n">
+        <v>372.8500061035156</v>
+      </c>
+      <c r="H121" s="2" t="n">
+        <v>45273</v>
+      </c>
+      <c r="I121" t="n">
+        <v>376.2000122070312</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>GIPCL.NS</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>44994</v>
+      </c>
+      <c r="E122" t="n">
+        <v>81.09999847412109</v>
+      </c>
+      <c r="F122" s="2" t="n">
+        <v>45071</v>
+      </c>
+      <c r="G122" t="n">
+        <v>102</v>
+      </c>
+      <c r="H122" s="2" t="n">
+        <v>45118</v>
+      </c>
+      <c r="I122" t="n">
+        <v>116.0999984741211</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>SJVN.NS</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>45280</v>
+      </c>
+      <c r="E123" t="n">
+        <v>81.05000305175781</v>
+      </c>
+      <c r="F123" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="G123" t="n">
+        <v>88.84999847412109</v>
+      </c>
+      <c r="H123" s="2" t="n">
+        <v>45335</v>
+      </c>
+      <c r="I123" t="n">
+        <v>100.6500015258789</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>TATAMTRDVR.NS</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>45013</v>
+      </c>
+      <c r="E124" t="n">
+        <v>202</v>
+      </c>
+      <c r="F124" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="G124" t="n">
+        <v>410.4500122070312</v>
+      </c>
+      <c r="H124" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="I124" t="n">
+        <v>463.5</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>NLCINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="E125" t="n">
+        <v>72.94999694824219</v>
+      </c>
+      <c r="F125" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="G125" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="H125" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="I125" t="n">
+        <v>92.40000152587891</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>MOSCHIP.BO</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>44733</v>
+      </c>
+      <c r="E126" t="n">
+        <v>43.29999923706055</v>
+      </c>
+      <c r="F126" s="2" t="n">
+        <v>44887</v>
+      </c>
+      <c r="G126" t="n">
+        <v>63</v>
+      </c>
+      <c r="H126" s="2" t="n">
+        <v>44888</v>
+      </c>
+      <c r="I126" t="n">
+        <v>63</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>MOL.NS</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>45068</v>
+      </c>
+      <c r="E127" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="F127" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="G127" t="n">
+        <v>80.30000305175781</v>
+      </c>
+      <c r="H127" s="2" t="n">
+        <v>45134</v>
+      </c>
+      <c r="I127" t="n">
+        <v>80.30000305175781</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>SHAKTIPUMP.NS</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>45142</v>
+      </c>
+      <c r="E128" t="n">
+        <v>768.5999755859375</v>
+      </c>
+      <c r="F128" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="G128" t="n">
+        <v>927.7000122070312</v>
+      </c>
+      <c r="H128" s="2" t="n">
+        <v>45219</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1224.650024414062</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>SANGHVIMOV.NS</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="E129" t="n">
+        <v>444.1499938964844</v>
+      </c>
+      <c r="F129" s="2" t="n">
+        <v>45182</v>
+      </c>
+      <c r="G129" t="n">
+        <v>612.7000122070312</v>
+      </c>
+      <c r="H129" s="2" t="n">
+        <v>45202</v>
+      </c>
+      <c r="I129" t="n">
+        <v>650</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>WEBELSOLAR.NS</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>44342</v>
+      </c>
+      <c r="E130" t="n">
+        <v>58.04999923706055</v>
+      </c>
+      <c r="F130" s="2" t="n">
+        <v>44383</v>
+      </c>
+      <c r="G130" t="n">
+        <v>78.40000152587891</v>
+      </c>
+      <c r="H130" s="2" t="n">
+        <v>44384</v>
+      </c>
+      <c r="I130" t="n">
+        <v>78.40000152587891</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>NMDC.NS</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="E131" t="n">
+        <v>110.5</v>
+      </c>
+      <c r="F131" s="2" t="n">
+        <v>45184</v>
+      </c>
+      <c r="G131" t="n">
+        <v>154.25</v>
+      </c>
+      <c r="H131" s="2" t="n">
+        <v>45216</v>
+      </c>
+      <c r="I131" t="n">
+        <v>167.5500030517578</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>NMDC.NS</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="E132" t="n">
+        <v>149.1999969482422</v>
+      </c>
+      <c r="F132" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="G132" t="n">
+        <v>179.8999938964844</v>
+      </c>
+      <c r="H132" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="I132" t="n">
+        <v>196.6000061035156</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>NMDC.NS</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>45208</v>
+      </c>
+      <c r="E133" t="n">
+        <v>140.6499938964844</v>
+      </c>
+      <c r="F133" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="G133" t="n">
+        <v>179.8999938964844</v>
+      </c>
+      <c r="H133" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="I133" t="n">
+        <v>196.6000061035156</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>HPL.NS</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>45125</v>
+      </c>
+      <c r="E134" t="n">
+        <v>244.6999969482422</v>
+      </c>
+      <c r="F134" s="2" t="n">
+        <v>45175</v>
+      </c>
+      <c r="G134" t="n">
+        <v>269.3999938964844</v>
+      </c>
+      <c r="H134" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="I134" t="n">
+        <v>325</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>44210</v>
+      </c>
+      <c r="E135" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="F135" s="2" t="n">
+        <v>44221</v>
+      </c>
+      <c r="G135" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="H135" s="2" t="n">
+        <v>44224</v>
+      </c>
+      <c r="I135" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>44210</v>
+      </c>
+      <c r="E136" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="F136" s="2" t="n">
+        <v>44218</v>
+      </c>
+      <c r="G136" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="H136" s="2" t="n">
+        <v>44223</v>
+      </c>
+      <c r="I136" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>MANAPPURAM.NS</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>44781</v>
+      </c>
+      <c r="E137" t="n">
+        <v>111.4499969482422</v>
+      </c>
+      <c r="F137" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="G137" t="n">
+        <v>133.9499969482422</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>MANAPPURAM.NS</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="E138" t="n">
+        <v>102</v>
+      </c>
+      <c r="F138" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="G138" t="n">
+        <v>158.3000030517578</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>ATUL.NS</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="E139" t="n">
+        <v>6530</v>
+      </c>
+      <c r="F139" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="G139" t="n">
+        <v>6122.0498046875</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>INDIAMART.NS</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>45117</v>
+      </c>
+      <c r="E140" t="n">
+        <v>2611.39990234375</v>
+      </c>
+      <c r="F140" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="G140" t="n">
+        <v>2475</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>BANDHANBNK.NS</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>01-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="E141" t="n">
+        <v>152.1999969482422</v>
+      </c>
+      <c r="F141" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="G141" t="n">
+        <v>182.1499938964844</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
         </is>
       </c>
     </row>
@@ -5052,7 +6807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6781,6 +8536,357 @@
       <c r="I44" t="inlineStr">
         <is>
           <t>03/06/2024 19:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>BAJFINANCE.NS</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="E45" t="n">
+        <v>6945</v>
+      </c>
+      <c r="F45" s="2" t="n">
+        <v>45246</v>
+      </c>
+      <c r="G45" t="n">
+        <v>6931.25</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>RELIANCE.NS</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="E46" t="n">
+        <v>3024.89990234375</v>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3011.89990234375</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>RELIANCE.NS</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3011.89990234375</v>
+      </c>
+      <c r="F47" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2987</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>BAJAJFINSV.NS</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1568.699951171875</v>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1556</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>SBILIFE.NS</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>45147</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1374</v>
+      </c>
+      <c r="F49" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1377.949951171875</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>SHREECEM.NS</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>45202</v>
+      </c>
+      <c r="E50" t="n">
+        <v>25309.099609375</v>
+      </c>
+      <c r="F50" s="2" t="n">
+        <v>45226</v>
+      </c>
+      <c r="G50" t="n">
+        <v>25309</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>SBICARD.NS</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>44627</v>
+      </c>
+      <c r="E51" t="n">
+        <v>712.25</v>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>44694</v>
+      </c>
+      <c r="G51" t="n">
+        <v>710.7999877929688</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>DALBHARAT.NS</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>45131</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1880.650024414062</v>
+      </c>
+      <c r="F52" s="2" t="n">
+        <v>45156</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1873.300048828125</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>DYNAMATECH.NS</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>45330</v>
+      </c>
+      <c r="E53" t="n">
+        <v>7780</v>
+      </c>
+      <c r="F53" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="G53" t="n">
+        <v>7780</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
         </is>
       </c>
     </row>
@@ -6795,7 +8901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L432"/>
+  <dimension ref="A1:L565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27553,6 +29659,6390 @@
         </is>
       </c>
     </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>GODREJPROP.NS</t>
+        </is>
+      </c>
+      <c r="B433" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="C433" t="n">
+        <v>2791.800048828125</v>
+      </c>
+      <c r="D433" t="n">
+        <v>2644.449951171875</v>
+      </c>
+      <c r="E433" t="n">
+        <v>2704.5</v>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G433" t="n">
+        <v>2791.800048828125</v>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I433" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J433" t="n">
+        <v>3007.199951171875</v>
+      </c>
+      <c r="K433" t="n">
+        <v>2787</v>
+      </c>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>ASTRAL.NS</t>
+        </is>
+      </c>
+      <c r="B434" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C434" t="n">
+        <v>2143.800048828125</v>
+      </c>
+      <c r="D434" t="n">
+        <v>2088</v>
+      </c>
+      <c r="E434" t="n">
+        <v>2106.75</v>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G434" t="n">
+        <v>2143.800048828125</v>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I434" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J434" t="n">
+        <v>2179.050048828125</v>
+      </c>
+      <c r="K434" t="n">
+        <v>2133.89990234375</v>
+      </c>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>BAJAJ-AUTO.NS</t>
+        </is>
+      </c>
+      <c r="B435" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="C435" t="n">
+        <v>9357.9501953125</v>
+      </c>
+      <c r="D435" t="n">
+        <v>9139.5</v>
+      </c>
+      <c r="E435" t="n">
+        <v>9276.099609375</v>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G435" t="n">
+        <v>9357.9501953125</v>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I435" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J435" t="n">
+        <v>9444</v>
+      </c>
+      <c r="K435" t="n">
+        <v>9125.5</v>
+      </c>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>BAJAJ-AUTO.NS</t>
+        </is>
+      </c>
+      <c r="B436" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C436" t="n">
+        <v>9258.599609375</v>
+      </c>
+      <c r="D436" t="n">
+        <v>9064.349609375</v>
+      </c>
+      <c r="E436" t="n">
+        <v>9105.599609375</v>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G436" t="n">
+        <v>9258.599609375</v>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I436" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J436" t="n">
+        <v>9444</v>
+      </c>
+      <c r="K436" t="n">
+        <v>9125.5</v>
+      </c>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>ULTRACEMCO.NS</t>
+        </is>
+      </c>
+      <c r="B437" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C437" t="n">
+        <v>10183.849609375</v>
+      </c>
+      <c r="D437" t="n">
+        <v>9892.400390625</v>
+      </c>
+      <c r="E437" t="n">
+        <v>10135.5</v>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G437" t="n">
+        <v>10183.849609375</v>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I437" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J437" t="n">
+        <v>10519.7998046875</v>
+      </c>
+      <c r="K437" t="n">
+        <v>10080</v>
+      </c>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>ULTRACEMCO.NS</t>
+        </is>
+      </c>
+      <c r="B438" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="C438" t="n">
+        <v>10277.7001953125</v>
+      </c>
+      <c r="D438" t="n">
+        <v>9982.150390625</v>
+      </c>
+      <c r="E438" t="n">
+        <v>10001.900390625</v>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G438" t="n">
+        <v>10277.7001953125</v>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I438" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J438" t="n">
+        <v>10519.7998046875</v>
+      </c>
+      <c r="K438" t="n">
+        <v>10080</v>
+      </c>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>ULTRACEMCO.NS</t>
+        </is>
+      </c>
+      <c r="B439" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="C439" t="n">
+        <v>10180</v>
+      </c>
+      <c r="D439" t="n">
+        <v>9911.349609375</v>
+      </c>
+      <c r="E439" t="n">
+        <v>9971.849609375</v>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G439" t="n">
+        <v>10180</v>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I439" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J439" t="n">
+        <v>10519.7998046875</v>
+      </c>
+      <c r="K439" t="n">
+        <v>10080</v>
+      </c>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>BPCL.NS</t>
+        </is>
+      </c>
+      <c r="B440" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C440" t="n">
+        <v>641.7000122070312</v>
+      </c>
+      <c r="D440" t="n">
+        <v>625.0999755859375</v>
+      </c>
+      <c r="E440" t="n">
+        <v>629.8499755859375</v>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G440" t="n">
+        <v>641.7000122070312</v>
+      </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I440" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J440" t="n">
+        <v>687</v>
+      </c>
+      <c r="K440" t="n">
+        <v>634.4000244140625</v>
+      </c>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>NIFTY_FIN_SERVICE.NS</t>
+        </is>
+      </c>
+      <c r="B441" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C441" t="n">
+        <v>22136.599609375</v>
+      </c>
+      <c r="D441" t="n">
+        <v>21707.44921875</v>
+      </c>
+      <c r="E441" t="n">
+        <v>21797.400390625</v>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G441" t="n">
+        <v>22136.599609375</v>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I441" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J441" t="n">
+        <v>22660.05078125</v>
+      </c>
+      <c r="K441" t="n">
+        <v>21786.80078125</v>
+      </c>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>RELIANCE.NS</t>
+        </is>
+      </c>
+      <c r="B442" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C442" t="n">
+        <v>3024.89990234375</v>
+      </c>
+      <c r="D442" t="n">
+        <v>2974.449951171875</v>
+      </c>
+      <c r="E442" t="n">
+        <v>3014.800048828125</v>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G442" t="n">
+        <v>3024.89990234375</v>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I442" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J442" t="n">
+        <v>3029</v>
+      </c>
+      <c r="K442" t="n">
+        <v>2884.5</v>
+      </c>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>RELIANCE.NS</t>
+        </is>
+      </c>
+      <c r="B443" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C443" t="n">
+        <v>3011.89990234375</v>
+      </c>
+      <c r="D443" t="n">
+        <v>2957.300048828125</v>
+      </c>
+      <c r="E443" t="n">
+        <v>2971.699951171875</v>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G443" t="n">
+        <v>3011.89990234375</v>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I443" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J443" t="n">
+        <v>3029</v>
+      </c>
+      <c r="K443" t="n">
+        <v>2884.5</v>
+      </c>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>RELIANCE.NS</t>
+        </is>
+      </c>
+      <c r="B444" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="C444" t="n">
+        <v>2987</v>
+      </c>
+      <c r="D444" t="n">
+        <v>2911.10009765625</v>
+      </c>
+      <c r="E444" t="n">
+        <v>2918.64990234375</v>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G444" t="n">
+        <v>2987</v>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I444" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J444" t="n">
+        <v>3029</v>
+      </c>
+      <c r="K444" t="n">
+        <v>2884.5</v>
+      </c>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>BRITANNIA.NS</t>
+        </is>
+      </c>
+      <c r="B445" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C445" t="n">
+        <v>5239.75</v>
+      </c>
+      <c r="D445" t="n">
+        <v>5078.5</v>
+      </c>
+      <c r="E445" t="n">
+        <v>5124.5</v>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G445" t="n">
+        <v>5239.75</v>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I445" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J445" t="n">
+        <v>5300</v>
+      </c>
+      <c r="K445" t="n">
+        <v>5221</v>
+      </c>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>^NSEI</t>
+        </is>
+      </c>
+      <c r="B446" s="2" t="n">
+        <v>45392</v>
+      </c>
+      <c r="C446" t="n">
+        <v>22775.69921875</v>
+      </c>
+      <c r="D446" t="n">
+        <v>22673.69921875</v>
+      </c>
+      <c r="E446" t="n">
+        <v>22753.80078125</v>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G446" t="n">
+        <v>22775.69921875</v>
+      </c>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I446" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J446" t="n">
+        <v>23338.69921875</v>
+      </c>
+      <c r="K446" t="n">
+        <v>22653.75</v>
+      </c>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>^NSEI</t>
+        </is>
+      </c>
+      <c r="B447" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C447" t="n">
+        <v>22794.69921875</v>
+      </c>
+      <c r="D447" t="n">
+        <v>22348.05078125</v>
+      </c>
+      <c r="E447" t="n">
+        <v>22475.849609375</v>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G447" t="n">
+        <v>22794.69921875</v>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I447" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J447" t="n">
+        <v>23338.69921875</v>
+      </c>
+      <c r="K447" t="n">
+        <v>22653.75</v>
+      </c>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>^NSEBANK</t>
+        </is>
+      </c>
+      <c r="B448" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="C448" t="n">
+        <v>49974.75</v>
+      </c>
+      <c r="D448" t="n">
+        <v>49249.8984375</v>
+      </c>
+      <c r="E448" t="n">
+        <v>49396.75</v>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G448" t="n">
+        <v>49974.75</v>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I448" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J448" t="n">
+        <v>51133.19921875</v>
+      </c>
+      <c r="K448" t="n">
+        <v>49122.55078125</v>
+      </c>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>ASIANPAINT.NS</t>
+        </is>
+      </c>
+      <c r="B449" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="C449" t="n">
+        <v>2943.25</v>
+      </c>
+      <c r="D449" t="n">
+        <v>2851.25</v>
+      </c>
+      <c r="E449" t="n">
+        <v>2918.300048828125</v>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G449" t="n">
+        <v>2943.25</v>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I449" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J449" t="n">
+        <v>2950</v>
+      </c>
+      <c r="K449" t="n">
+        <v>2906</v>
+      </c>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>TATASTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B450" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="C450" t="n">
+        <v>169.8000030517578</v>
+      </c>
+      <c r="D450" t="n">
+        <v>165.1999969482422</v>
+      </c>
+      <c r="E450" t="n">
+        <v>166</v>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G450" t="n">
+        <v>169.8000030517578</v>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I450" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J450" t="n">
+        <v>175</v>
+      </c>
+      <c r="K450" t="n">
+        <v>167.9499969482422</v>
+      </c>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>TATASTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B451" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C451" t="n">
+        <v>170.75</v>
+      </c>
+      <c r="D451" t="n">
+        <v>165.1499938964844</v>
+      </c>
+      <c r="E451" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G451" t="n">
+        <v>170.75</v>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I451" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J451" t="n">
+        <v>175</v>
+      </c>
+      <c r="K451" t="n">
+        <v>167.9499969482422</v>
+      </c>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>NTPC.NS</t>
+        </is>
+      </c>
+      <c r="B452" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="C452" t="n">
+        <v>374.5</v>
+      </c>
+      <c r="D452" t="n">
+        <v>361</v>
+      </c>
+      <c r="E452" t="n">
+        <v>361.75</v>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G452" t="n">
+        <v>374.5</v>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I452" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J452" t="n">
+        <v>393.2000122070312</v>
+      </c>
+      <c r="K452" t="n">
+        <v>366.6499938964844</v>
+      </c>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>NTPC.NS</t>
+        </is>
+      </c>
+      <c r="B453" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C453" t="n">
+        <v>380.3999938964844</v>
+      </c>
+      <c r="D453" t="n">
+        <v>360.3500061035156</v>
+      </c>
+      <c r="E453" t="n">
+        <v>364.9500122070312</v>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G453" t="n">
+        <v>380.3999938964844</v>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I453" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J453" t="n">
+        <v>393.2000122070312</v>
+      </c>
+      <c r="K453" t="n">
+        <v>366.6499938964844</v>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>ONGC.NS</t>
+        </is>
+      </c>
+      <c r="B454" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C454" t="n">
+        <v>284.9500122070312</v>
+      </c>
+      <c r="D454" t="n">
+        <v>276.6499938964844</v>
+      </c>
+      <c r="E454" t="n">
+        <v>283.75</v>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G454" t="n">
+        <v>284.9500122070312</v>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I454" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J454" t="n">
+        <v>286.5499877929688</v>
+      </c>
+      <c r="K454" t="n">
+        <v>268.4500122070312</v>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>JSWSTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B455" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="C455" t="n">
+        <v>914</v>
+      </c>
+      <c r="D455" t="n">
+        <v>884.6500244140625</v>
+      </c>
+      <c r="E455" t="n">
+        <v>887.25</v>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G455" t="n">
+        <v>914</v>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I455" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J455" t="n">
+        <v>917.7000122070312</v>
+      </c>
+      <c r="K455" t="n">
+        <v>895.4500122070312</v>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>AXISBANK.NS</t>
+        </is>
+      </c>
+      <c r="B456" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="C456" t="n">
+        <v>1182.900024414062</v>
+      </c>
+      <c r="D456" t="n">
+        <v>1155.150024414062</v>
+      </c>
+      <c r="E456" t="n">
+        <v>1165.900024414062</v>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G456" t="n">
+        <v>1182.900024414062</v>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I456" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J456" t="n">
+        <v>1242.199951171875</v>
+      </c>
+      <c r="K456" t="n">
+        <v>1178</v>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>POWERGRID.NS</t>
+        </is>
+      </c>
+      <c r="B457" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="C457" t="n">
+        <v>317.25</v>
+      </c>
+      <c r="D457" t="n">
+        <v>301.8500061035156</v>
+      </c>
+      <c r="E457" t="n">
+        <v>313.6000061035156</v>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G457" t="n">
+        <v>317.25</v>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I457" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J457" t="n">
+        <v>348.7000122070312</v>
+      </c>
+      <c r="K457" t="n">
+        <v>311.5</v>
+      </c>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>LT.NS</t>
+        </is>
+      </c>
+      <c r="B458" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="C458" t="n">
+        <v>3860</v>
+      </c>
+      <c r="D458" t="n">
+        <v>3771.25</v>
+      </c>
+      <c r="E458" t="n">
+        <v>3807.39990234375</v>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G458" t="n">
+        <v>3860</v>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I458" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J458" t="n">
+        <v>3919.89990234375</v>
+      </c>
+      <c r="K458" t="n">
+        <v>3744.800048828125</v>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>HDFCBANK.NS</t>
+        </is>
+      </c>
+      <c r="B459" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="C459" t="n">
+        <v>1557.400024414062</v>
+      </c>
+      <c r="D459" t="n">
+        <v>1508.300048828125</v>
+      </c>
+      <c r="E459" t="n">
+        <v>1512.199951171875</v>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G459" t="n">
+        <v>1557.400024414062</v>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I459" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J459" t="n">
+        <v>1599</v>
+      </c>
+      <c r="K459" t="n">
+        <v>1536</v>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>BANKBARODA.NS</t>
+        </is>
+      </c>
+      <c r="B460" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C460" t="n">
+        <v>285.6000061035156</v>
+      </c>
+      <c r="D460" t="n">
+        <v>276.5</v>
+      </c>
+      <c r="E460" t="n">
+        <v>277.3999938964844</v>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G460" t="n">
+        <v>285.6000061035156</v>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I460" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J460" t="n">
+        <v>299.7000122070312</v>
+      </c>
+      <c r="K460" t="n">
+        <v>266.3500061035156</v>
+      </c>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>BANKBARODA.NS</t>
+        </is>
+      </c>
+      <c r="B461" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="C461" t="n">
+        <v>276.7000122070312</v>
+      </c>
+      <c r="D461" t="n">
+        <v>268.3500061035156</v>
+      </c>
+      <c r="E461" t="n">
+        <v>269.4500122070312</v>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G461" t="n">
+        <v>276.7000122070312</v>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I461" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J461" t="n">
+        <v>299.7000122070312</v>
+      </c>
+      <c r="K461" t="n">
+        <v>266.3500061035156</v>
+      </c>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>BANKBARODA.NS</t>
+        </is>
+      </c>
+      <c r="B462" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="C462" t="n">
+        <v>284.7999877929688</v>
+      </c>
+      <c r="D462" t="n">
+        <v>272.6000061035156</v>
+      </c>
+      <c r="E462" t="n">
+        <v>281.5</v>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G462" t="n">
+        <v>284.7999877929688</v>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I462" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J462" t="n">
+        <v>299.7000122070312</v>
+      </c>
+      <c r="K462" t="n">
+        <v>266.3500061035156</v>
+      </c>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>ICICIBANK.NS</t>
+        </is>
+      </c>
+      <c r="B463" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="C463" t="n">
+        <v>1169.550048828125</v>
+      </c>
+      <c r="D463" t="n">
+        <v>1146.75</v>
+      </c>
+      <c r="E463" t="n">
+        <v>1150.400024414062</v>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G463" t="n">
+        <v>1169.550048828125</v>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I463" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J463" t="n">
+        <v>1173</v>
+      </c>
+      <c r="K463" t="n">
+        <v>1130.599975585938</v>
+      </c>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>AUBANK.NS</t>
+        </is>
+      </c>
+      <c r="B464" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C464" t="n">
+        <v>655.5499877929688</v>
+      </c>
+      <c r="D464" t="n">
+        <v>639.5</v>
+      </c>
+      <c r="E464" t="n">
+        <v>645</v>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G464" t="n">
+        <v>655.5499877929688</v>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I464" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J464" t="n">
+        <v>667.9000244140625</v>
+      </c>
+      <c r="K464" t="n">
+        <v>655.3499755859375</v>
+      </c>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>IRCTC.NS</t>
+        </is>
+      </c>
+      <c r="B465" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="C465" t="n">
+        <v>1068.800048828125</v>
+      </c>
+      <c r="D465" t="n">
+        <v>1016.849975585938</v>
+      </c>
+      <c r="E465" t="n">
+        <v>1057.650024414062</v>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G465" t="n">
+        <v>1068.800048828125</v>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I465" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J465" t="n">
+        <v>1084.949951171875</v>
+      </c>
+      <c r="K465" t="n">
+        <v>1037.75</v>
+      </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>IRCTC.NS</t>
+        </is>
+      </c>
+      <c r="B466" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="C466" t="n">
+        <v>1076.449951171875</v>
+      </c>
+      <c r="D466" t="n">
+        <v>1036.800048828125</v>
+      </c>
+      <c r="E466" t="n">
+        <v>1056.300048828125</v>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G466" t="n">
+        <v>1076.449951171875</v>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I466" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J466" t="n">
+        <v>1084.949951171875</v>
+      </c>
+      <c r="K466" t="n">
+        <v>1037.75</v>
+      </c>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>SHRIRAMFIN.NS</t>
+        </is>
+      </c>
+      <c r="B467" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C467" t="n">
+        <v>2535</v>
+      </c>
+      <c r="D467" t="n">
+        <v>2447.949951171875</v>
+      </c>
+      <c r="E467" t="n">
+        <v>2485.14990234375</v>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G467" t="n">
+        <v>2535</v>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I467" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J467" t="n">
+        <v>2546.949951171875</v>
+      </c>
+      <c r="K467" t="n">
+        <v>2387.35009765625</v>
+      </c>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>MUTHOOTFIN.NS</t>
+        </is>
+      </c>
+      <c r="B468" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="C468" t="n">
+        <v>1753.900024414062</v>
+      </c>
+      <c r="D468" t="n">
+        <v>1695.5</v>
+      </c>
+      <c r="E468" t="n">
+        <v>1720.650024414062</v>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G468" t="n">
+        <v>1753.900024414062</v>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I468" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J468" t="n">
+        <v>1767.050048828125</v>
+      </c>
+      <c r="K468" t="n">
+        <v>1744.599975585938</v>
+      </c>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>AMBUJACEM.NS</t>
+        </is>
+      </c>
+      <c r="B469" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="C469" t="n">
+        <v>640.7999877929688</v>
+      </c>
+      <c r="D469" t="n">
+        <v>623.5999755859375</v>
+      </c>
+      <c r="E469" t="n">
+        <v>624.7000122070312</v>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G469" t="n">
+        <v>640.7999877929688</v>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I469" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J469" t="n">
+        <v>676.6500244140625</v>
+      </c>
+      <c r="K469" t="n">
+        <v>639.8499755859375</v>
+      </c>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>AMBUJACEM.NS</t>
+        </is>
+      </c>
+      <c r="B470" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="C470" t="n">
+        <v>649</v>
+      </c>
+      <c r="D470" t="n">
+        <v>629.2000122070312</v>
+      </c>
+      <c r="E470" t="n">
+        <v>638.3499755859375</v>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G470" t="n">
+        <v>649</v>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I470" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J470" t="n">
+        <v>676.6500244140625</v>
+      </c>
+      <c r="K470" t="n">
+        <v>639.8499755859375</v>
+      </c>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>CANBK.NS</t>
+        </is>
+      </c>
+      <c r="B471" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C471" t="n">
+        <v>121.2600021362305</v>
+      </c>
+      <c r="D471" t="n">
+        <v>117.0199966430664</v>
+      </c>
+      <c r="E471" t="n">
+        <v>120</v>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G471" t="n">
+        <v>121.2600021362305</v>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I471" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J471" t="n">
+        <v>128.8999938964844</v>
+      </c>
+      <c r="K471" t="n">
+        <v>119.3499984741211</v>
+      </c>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>CANBK.NS</t>
+        </is>
+      </c>
+      <c r="B472" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C472" t="n">
+        <v>123.7900009155273</v>
+      </c>
+      <c r="D472" t="n">
+        <v>121.4199981689453</v>
+      </c>
+      <c r="E472" t="n">
+        <v>122.4899978637695</v>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G472" t="n">
+        <v>123.7900009155273</v>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I472" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J472" t="n">
+        <v>128.8999938964844</v>
+      </c>
+      <c r="K472" t="n">
+        <v>119.3499984741211</v>
+      </c>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>CANBK.NS</t>
+        </is>
+      </c>
+      <c r="B473" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C473" t="n">
+        <v>126.5800018310547</v>
+      </c>
+      <c r="D473" t="n">
+        <v>123.8000030517578</v>
+      </c>
+      <c r="E473" t="n">
+        <v>125.129997253418</v>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G473" t="n">
+        <v>126.5800018310547</v>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I473" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J473" t="n">
+        <v>128.8999938964844</v>
+      </c>
+      <c r="K473" t="n">
+        <v>119.3499984741211</v>
+      </c>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>BANDHANBNK.NS</t>
+        </is>
+      </c>
+      <c r="B474" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C474" t="n">
+        <v>192.5500030517578</v>
+      </c>
+      <c r="D474" t="n">
+        <v>186.8999938964844</v>
+      </c>
+      <c r="E474" t="n">
+        <v>187.6000061035156</v>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G474" t="n">
+        <v>192.5500030517578</v>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I474" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J474" t="n">
+        <v>196</v>
+      </c>
+      <c r="K474" t="n">
+        <v>189.1000061035156</v>
+      </c>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>GAIL.NS</t>
+        </is>
+      </c>
+      <c r="B475" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="C475" t="n">
+        <v>213.6499938964844</v>
+      </c>
+      <c r="D475" t="n">
+        <v>202.25</v>
+      </c>
+      <c r="E475" t="n">
+        <v>203.5500030517578</v>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G475" t="n">
+        <v>213.6499938964844</v>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I475" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J475" t="n">
+        <v>233.1999969482422</v>
+      </c>
+      <c r="K475" t="n">
+        <v>205.1499938964844</v>
+      </c>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>MCDOWELL-N.NS</t>
+        </is>
+      </c>
+      <c r="B476" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C476" t="n">
+        <v>1182.150024414062</v>
+      </c>
+      <c r="D476" t="n">
+        <v>1163.550048828125</v>
+      </c>
+      <c r="E476" t="n">
+        <v>1167.25</v>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G476" t="n">
+        <v>1182.150024414062</v>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I476" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J476" t="n">
+        <v>1185.5</v>
+      </c>
+      <c r="K476" t="n">
+        <v>1179.949951171875</v>
+      </c>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>FEDERALBNK.NS</t>
+        </is>
+      </c>
+      <c r="B477" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C477" t="n">
+        <v>166.3500061035156</v>
+      </c>
+      <c r="D477" t="n">
+        <v>162.3500061035156</v>
+      </c>
+      <c r="E477" t="n">
+        <v>162.9499969482422</v>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G477" t="n">
+        <v>166.3500061035156</v>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I477" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J477" t="n">
+        <v>167</v>
+      </c>
+      <c r="K477" t="n">
+        <v>162.75</v>
+      </c>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>PNB.NS</t>
+        </is>
+      </c>
+      <c r="B478" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="C478" t="n">
+        <v>132.6000061035156</v>
+      </c>
+      <c r="D478" t="n">
+        <v>129.3000030517578</v>
+      </c>
+      <c r="E478" t="n">
+        <v>130.1499938964844</v>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G478" t="n">
+        <v>132.6000061035156</v>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I478" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J478" t="n">
+        <v>138.6000061035156</v>
+      </c>
+      <c r="K478" t="n">
+        <v>130</v>
+      </c>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>PNB.NS</t>
+        </is>
+      </c>
+      <c r="B479" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C479" t="n">
+        <v>132.9499969482422</v>
+      </c>
+      <c r="D479" t="n">
+        <v>128.1000061035156</v>
+      </c>
+      <c r="E479" t="n">
+        <v>128.8999938964844</v>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G479" t="n">
+        <v>132.9499969482422</v>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I479" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J479" t="n">
+        <v>138.6000061035156</v>
+      </c>
+      <c r="K479" t="n">
+        <v>130</v>
+      </c>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>ADANIENSOL.NS</t>
+        </is>
+      </c>
+      <c r="B480" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C480" t="n">
+        <v>1190.599975585938</v>
+      </c>
+      <c r="D480" t="n">
+        <v>1081</v>
+      </c>
+      <c r="E480" t="n">
+        <v>1176.150024414062</v>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G480" t="n">
+        <v>1190.599975585938</v>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I480" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J480" t="n">
+        <v>1249.400024414062</v>
+      </c>
+      <c r="K480" t="n">
+        <v>1150.099975585938</v>
+      </c>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>ADANIGREEN.NS</t>
+        </is>
+      </c>
+      <c r="B481" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C481" t="n">
+        <v>2018.949951171875</v>
+      </c>
+      <c r="D481" t="n">
+        <v>1947.949951171875</v>
+      </c>
+      <c r="E481" t="n">
+        <v>1979.5</v>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G481" t="n">
+        <v>2018.949951171875</v>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I481" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J481" t="n">
+        <v>2174.10009765625</v>
+      </c>
+      <c r="K481" t="n">
+        <v>1993.900024414062</v>
+      </c>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>AWL.NS</t>
+        </is>
+      </c>
+      <c r="B482" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C482" t="n">
+        <v>366.7000122070312</v>
+      </c>
+      <c r="D482" t="n">
+        <v>354.6000061035156</v>
+      </c>
+      <c r="E482" t="n">
+        <v>356.3999938964844</v>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G482" t="n">
+        <v>366.7000122070312</v>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I482" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J482" t="n">
+        <v>383.9500122070312</v>
+      </c>
+      <c r="K482" t="n">
+        <v>361.5499877929688</v>
+      </c>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>ATGL.NS</t>
+        </is>
+      </c>
+      <c r="B483" s="2" t="n">
+        <v>45329</v>
+      </c>
+      <c r="C483" t="n">
+        <v>1072.199951171875</v>
+      </c>
+      <c r="D483" t="n">
+        <v>1001.049987792969</v>
+      </c>
+      <c r="E483" t="n">
+        <v>1040.050048828125</v>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G483" t="n">
+        <v>1072.199951171875</v>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I483" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J483" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K483" t="n">
+        <v>1060</v>
+      </c>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>ATGL.NS</t>
+        </is>
+      </c>
+      <c r="B484" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C484" t="n">
+        <v>1096</v>
+      </c>
+      <c r="D484" t="n">
+        <v>1042.199951171875</v>
+      </c>
+      <c r="E484" t="n">
+        <v>1048.300048828125</v>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G484" t="n">
+        <v>1096</v>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I484" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J484" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K484" t="n">
+        <v>1060</v>
+      </c>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>IOC.NS</t>
+        </is>
+      </c>
+      <c r="B485" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="C485" t="n">
+        <v>175.1999969482422</v>
+      </c>
+      <c r="D485" t="n">
+        <v>173.1499938964844</v>
+      </c>
+      <c r="E485" t="n">
+        <v>173.6999969482422</v>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G485" t="n">
+        <v>175.1999969482422</v>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I485" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J485" t="n">
+        <v>176.3999938964844</v>
+      </c>
+      <c r="K485" t="n">
+        <v>163.75</v>
+      </c>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>DALMIASUG.NS</t>
+        </is>
+      </c>
+      <c r="B486" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="C486" t="n">
+        <v>389.5</v>
+      </c>
+      <c r="D486" t="n">
+        <v>376.3500061035156</v>
+      </c>
+      <c r="E486" t="n">
+        <v>379.7000122070312</v>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G486" t="n">
+        <v>389.5</v>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I486" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J486" t="n">
+        <v>391.3500061035156</v>
+      </c>
+      <c r="K486" t="n">
+        <v>373.8999938964844</v>
+      </c>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>IRB.NS</t>
+        </is>
+      </c>
+      <c r="B487" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C487" t="n">
+        <v>69.30000305175781</v>
+      </c>
+      <c r="D487" t="n">
+        <v>65.94999694824219</v>
+      </c>
+      <c r="E487" t="n">
+        <v>67.09999847412109</v>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G487" t="n">
+        <v>69.30000305175781</v>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I487" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J487" t="n">
+        <v>74.59999847412109</v>
+      </c>
+      <c r="K487" t="n">
+        <v>66.69999694824219</v>
+      </c>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>IRB.NS</t>
+        </is>
+      </c>
+      <c r="B488" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C488" t="n">
+        <v>73.09999847412109</v>
+      </c>
+      <c r="D488" t="n">
+        <v>67.65000152587891</v>
+      </c>
+      <c r="E488" t="n">
+        <v>70</v>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G488" t="n">
+        <v>73.09999847412109</v>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I488" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J488" t="n">
+        <v>74.59999847412109</v>
+      </c>
+      <c r="K488" t="n">
+        <v>66.69999694824219</v>
+      </c>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>IRB.NS</t>
+        </is>
+      </c>
+      <c r="B489" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="C489" t="n">
+        <v>70.94999694824219</v>
+      </c>
+      <c r="D489" t="n">
+        <v>67.55000305175781</v>
+      </c>
+      <c r="E489" t="n">
+        <v>69.69999694824219</v>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G489" t="n">
+        <v>70.94999694824219</v>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I489" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J489" t="n">
+        <v>74.59999847412109</v>
+      </c>
+      <c r="K489" t="n">
+        <v>66.69999694824219</v>
+      </c>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>GIPCL.NS</t>
+        </is>
+      </c>
+      <c r="B490" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C490" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="D490" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="E490" t="n">
+        <v>186.3500061035156</v>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G490" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I490" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J490" t="n">
+        <v>213.8000030517578</v>
+      </c>
+      <c r="K490" t="n">
+        <v>181.6499938964844</v>
+      </c>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>GIPCL.NS</t>
+        </is>
+      </c>
+      <c r="B491" s="2" t="n">
+        <v>45427</v>
+      </c>
+      <c r="C491" t="n">
+        <v>198.8000030517578</v>
+      </c>
+      <c r="D491" t="n">
+        <v>190.8999938964844</v>
+      </c>
+      <c r="E491" t="n">
+        <v>191.3500061035156</v>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G491" t="n">
+        <v>198.8000030517578</v>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I491" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J491" t="n">
+        <v>213.8000030517578</v>
+      </c>
+      <c r="K491" t="n">
+        <v>181.6499938964844</v>
+      </c>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>CONCOR.NS</t>
+        </is>
+      </c>
+      <c r="B492" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C492" t="n">
+        <v>1083.849975585938</v>
+      </c>
+      <c r="D492" t="n">
+        <v>1036.400024414062</v>
+      </c>
+      <c r="E492" t="n">
+        <v>1049.550048828125</v>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G492" t="n">
+        <v>1083.849975585938</v>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I492" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J492" t="n">
+        <v>1180</v>
+      </c>
+      <c r="K492" t="n">
+        <v>1080.650024414062</v>
+      </c>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>KPIGREEN.NS</t>
+        </is>
+      </c>
+      <c r="B493" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C493" t="n">
+        <v>1890</v>
+      </c>
+      <c r="D493" t="n">
+        <v>1715.300048828125</v>
+      </c>
+      <c r="E493" t="n">
+        <v>1775.449951171875</v>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G493" t="n">
+        <v>1890</v>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I493" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J493" t="n">
+        <v>1913.550048828125</v>
+      </c>
+      <c r="K493" t="n">
+        <v>1849.050048828125</v>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>IRCON.NS</t>
+        </is>
+      </c>
+      <c r="B494" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="C494" t="n">
+        <v>280.8500061035156</v>
+      </c>
+      <c r="D494" t="n">
+        <v>225</v>
+      </c>
+      <c r="E494" t="n">
+        <v>229.6499938964844</v>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G494" t="n">
+        <v>280.8500061035156</v>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I494" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J494" t="n">
+        <v>298.9500122070312</v>
+      </c>
+      <c r="K494" t="n">
+        <v>275.2000122070312</v>
+      </c>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>NBCC.NS</t>
+        </is>
+      </c>
+      <c r="B495" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C495" t="n">
+        <v>144.6999969482422</v>
+      </c>
+      <c r="D495" t="n">
+        <v>137.6499938964844</v>
+      </c>
+      <c r="E495" t="n">
+        <v>142.1499938964844</v>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G495" t="n">
+        <v>144.6999969482422</v>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I495" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J495" t="n">
+        <v>156</v>
+      </c>
+      <c r="K495" t="n">
+        <v>143</v>
+      </c>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>IRFC.NS</t>
+        </is>
+      </c>
+      <c r="B496" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="C496" t="n">
+        <v>192.8000030517578</v>
+      </c>
+      <c r="D496" t="n">
+        <v>158.75</v>
+      </c>
+      <c r="E496" t="n">
+        <v>161.3000030517578</v>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G496" t="n">
+        <v>192.8000030517578</v>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I496" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J496" t="n">
+        <v>200</v>
+      </c>
+      <c r="K496" t="n">
+        <v>179.8500061035156</v>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>NHPC.NS</t>
+        </is>
+      </c>
+      <c r="B497" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C497" t="n">
+        <v>115.8499984741211</v>
+      </c>
+      <c r="D497" t="n">
+        <v>98.55000305175781</v>
+      </c>
+      <c r="E497" t="n">
+        <v>103.6500015258789</v>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G497" t="n">
+        <v>115.8499984741211</v>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I497" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J497" t="n">
+        <v>118</v>
+      </c>
+      <c r="K497" t="n">
+        <v>110.4499969482422</v>
+      </c>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>OLECTRA.NS</t>
+        </is>
+      </c>
+      <c r="B498" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C498" t="n">
+        <v>1808</v>
+      </c>
+      <c r="D498" t="n">
+        <v>1640</v>
+      </c>
+      <c r="E498" t="n">
+        <v>1705.25</v>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G498" t="n">
+        <v>1808</v>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I498" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J498" t="n">
+        <v>1876.150024414062</v>
+      </c>
+      <c r="K498" t="n">
+        <v>1787.25</v>
+      </c>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>IGL.NS</t>
+        </is>
+      </c>
+      <c r="B499" s="2" t="n">
+        <v>45329</v>
+      </c>
+      <c r="C499" t="n">
+        <v>459</v>
+      </c>
+      <c r="D499" t="n">
+        <v>448.5499877929688</v>
+      </c>
+      <c r="E499" t="n">
+        <v>449.2999877929688</v>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G499" t="n">
+        <v>459</v>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I499" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J499" t="n">
+        <v>471.2000122070312</v>
+      </c>
+      <c r="K499" t="n">
+        <v>455.3999938964844</v>
+      </c>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>IGL.NS</t>
+        </is>
+      </c>
+      <c r="B500" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C500" t="n">
+        <v>460</v>
+      </c>
+      <c r="D500" t="n">
+        <v>447.25</v>
+      </c>
+      <c r="E500" t="n">
+        <v>458.5499877929688</v>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G500" t="n">
+        <v>460</v>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I500" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J500" t="n">
+        <v>471.2000122070312</v>
+      </c>
+      <c r="K500" t="n">
+        <v>455.3999938964844</v>
+      </c>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>ACC.NS</t>
+        </is>
+      </c>
+      <c r="B501" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="C501" t="n">
+        <v>2666.699951171875</v>
+      </c>
+      <c r="D501" t="n">
+        <v>2590.10009765625</v>
+      </c>
+      <c r="E501" t="n">
+        <v>2616.25</v>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G501" t="n">
+        <v>2666.699951171875</v>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I501" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J501" t="n">
+        <v>2702.699951171875</v>
+      </c>
+      <c r="K501" t="n">
+        <v>2570.10009765625</v>
+      </c>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>ACC.NS</t>
+        </is>
+      </c>
+      <c r="B502" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="C502" t="n">
+        <v>2610</v>
+      </c>
+      <c r="D502" t="n">
+        <v>2516</v>
+      </c>
+      <c r="E502" t="n">
+        <v>2533.050048828125</v>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G502" t="n">
+        <v>2610</v>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I502" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J502" t="n">
+        <v>2702.699951171875</v>
+      </c>
+      <c r="K502" t="n">
+        <v>2570.10009765625</v>
+      </c>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>GMRINFRA.NS</t>
+        </is>
+      </c>
+      <c r="B503" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="C503" t="n">
+        <v>86.69999694824219</v>
+      </c>
+      <c r="D503" t="n">
+        <v>83.84999847412109</v>
+      </c>
+      <c r="E503" t="n">
+        <v>85.65000152587891</v>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G503" t="n">
+        <v>86.69999694824219</v>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I503" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J503" t="n">
+        <v>88.94999694824219</v>
+      </c>
+      <c r="K503" t="n">
+        <v>85.09999847412109</v>
+      </c>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>SOBHA.NS</t>
+        </is>
+      </c>
+      <c r="B504" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C504" t="n">
+        <v>1969.050048828125</v>
+      </c>
+      <c r="D504" t="n">
+        <v>1843.099975585938</v>
+      </c>
+      <c r="E504" t="n">
+        <v>1856</v>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G504" t="n">
+        <v>1969.050048828125</v>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I504" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J504" t="n">
+        <v>1984.949951171875</v>
+      </c>
+      <c r="K504" t="n">
+        <v>1921.599975585938</v>
+      </c>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>INDUSTOWER.NS</t>
+        </is>
+      </c>
+      <c r="B505" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="C505" t="n">
+        <v>366.5499877929688</v>
+      </c>
+      <c r="D505" t="n">
+        <v>356.8500061035156</v>
+      </c>
+      <c r="E505" t="n">
+        <v>359.5</v>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G505" t="n">
+        <v>366.5499877929688</v>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I505" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J505" t="n">
+        <v>369.8999938964844</v>
+      </c>
+      <c r="K505" t="n">
+        <v>350.7000122070312</v>
+      </c>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>JUSTDIAL.NS</t>
+        </is>
+      </c>
+      <c r="B506" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="C506" t="n">
+        <v>949.4500122070312</v>
+      </c>
+      <c r="D506" t="n">
+        <v>888</v>
+      </c>
+      <c r="E506" t="n">
+        <v>892.8499755859375</v>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G506" t="n">
+        <v>949.4500122070312</v>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I506" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J506" t="n">
+        <v>965.3499755859375</v>
+      </c>
+      <c r="K506" t="n">
+        <v>944.7999877929688</v>
+      </c>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>JUSTDIAL.NS</t>
+        </is>
+      </c>
+      <c r="B507" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C507" t="n">
+        <v>961</v>
+      </c>
+      <c r="D507" t="n">
+        <v>911</v>
+      </c>
+      <c r="E507" t="n">
+        <v>924.2000122070312</v>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G507" t="n">
+        <v>961</v>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I507" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J507" t="n">
+        <v>965.3499755859375</v>
+      </c>
+      <c r="K507" t="n">
+        <v>944.7999877929688</v>
+      </c>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>TARC.NS</t>
+        </is>
+      </c>
+      <c r="B508" s="2" t="n">
+        <v>45331</v>
+      </c>
+      <c r="C508" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="D508" t="n">
+        <v>160.1999969482422</v>
+      </c>
+      <c r="E508" t="n">
+        <v>168.1999969482422</v>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G508" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I508" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J508" t="n">
+        <v>177</v>
+      </c>
+      <c r="K508" t="n">
+        <v>170.25</v>
+      </c>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>KOLTEPATIL.NS</t>
+        </is>
+      </c>
+      <c r="B509" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C509" t="n">
+        <v>509.6499938964844</v>
+      </c>
+      <c r="D509" t="n">
+        <v>484.7000122070312</v>
+      </c>
+      <c r="E509" t="n">
+        <v>487.0499877929688</v>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G509" t="n">
+        <v>509.6499938964844</v>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I509" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J509" t="n">
+        <v>513.9500122070312</v>
+      </c>
+      <c r="K509" t="n">
+        <v>458.7999877929688</v>
+      </c>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>CENTRALBK.BO</t>
+        </is>
+      </c>
+      <c r="B510" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="C510" t="n">
+        <v>67</v>
+      </c>
+      <c r="D510" t="n">
+        <v>64.13999938964844</v>
+      </c>
+      <c r="E510" t="n">
+        <v>64.94000244140625</v>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G510" t="n">
+        <v>67</v>
+      </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I510" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J510" t="n">
+        <v>72.98999786376953</v>
+      </c>
+      <c r="K510" t="n">
+        <v>65.34999847412109</v>
+      </c>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>CENTRALBK.BO</t>
+        </is>
+      </c>
+      <c r="B511" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="C511" t="n">
+        <v>69.80000305175781</v>
+      </c>
+      <c r="D511" t="n">
+        <v>66.90000152587891</v>
+      </c>
+      <c r="E511" t="n">
+        <v>67.19999694824219</v>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G511" t="n">
+        <v>69.80000305175781</v>
+      </c>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I511" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J511" t="n">
+        <v>72.98999786376953</v>
+      </c>
+      <c r="K511" t="n">
+        <v>65.34999847412109</v>
+      </c>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>UNIONBANK.NS</t>
+        </is>
+      </c>
+      <c r="B512" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="C512" t="n">
+        <v>163.1999969482422</v>
+      </c>
+      <c r="D512" t="n">
+        <v>158.1000061035156</v>
+      </c>
+      <c r="E512" t="n">
+        <v>160.1999969482422</v>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G512" t="n">
+        <v>163.1999969482422</v>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I512" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J512" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="K512" t="n">
+        <v>161.6000061035156</v>
+      </c>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>JPPOWER.NS</t>
+        </is>
+      </c>
+      <c r="B513" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C513" t="n">
+        <v>19.60000038146973</v>
+      </c>
+      <c r="D513" t="n">
+        <v>18.39999961853027</v>
+      </c>
+      <c r="E513" t="n">
+        <v>18.39999961853027</v>
+      </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G513" t="n">
+        <v>19.60000038146973</v>
+      </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I513" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J513" t="n">
+        <v>20.20000076293945</v>
+      </c>
+      <c r="K513" t="n">
+        <v>19.60000038146973</v>
+      </c>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>OIL.NS</t>
+        </is>
+      </c>
+      <c r="B514" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C514" t="n">
+        <v>647</v>
+      </c>
+      <c r="D514" t="n">
+        <v>618</v>
+      </c>
+      <c r="E514" t="n">
+        <v>633.8499755859375</v>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G514" t="n">
+        <v>647</v>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I514" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J514" t="n">
+        <v>689.8499755859375</v>
+      </c>
+      <c r="K514" t="n">
+        <v>638.7999877929688</v>
+      </c>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>OIL.NS</t>
+        </is>
+      </c>
+      <c r="B515" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="C515" t="n">
+        <v>669.5</v>
+      </c>
+      <c r="D515" t="n">
+        <v>625.0999755859375</v>
+      </c>
+      <c r="E515" t="n">
+        <v>635.6500244140625</v>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G515" t="n">
+        <v>669.5</v>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I515" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J515" t="n">
+        <v>689.8499755859375</v>
+      </c>
+      <c r="K515" t="n">
+        <v>638.7999877929688</v>
+      </c>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>TATACOMM.NS</t>
+        </is>
+      </c>
+      <c r="B516" s="2" t="n">
+        <v>45310</v>
+      </c>
+      <c r="C516" t="n">
+        <v>1804.900024414062</v>
+      </c>
+      <c r="D516" t="n">
+        <v>1718.300048828125</v>
+      </c>
+      <c r="E516" t="n">
+        <v>1737.75</v>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G516" t="n">
+        <v>1804.900024414062</v>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I516" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J516" t="n">
+        <v>1821.400024414062</v>
+      </c>
+      <c r="K516" t="n">
+        <v>1784</v>
+      </c>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>RECLTD.NS</t>
+        </is>
+      </c>
+      <c r="B517" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C517" t="n">
+        <v>567.1500244140625</v>
+      </c>
+      <c r="D517" t="n">
+        <v>553.3499755859375</v>
+      </c>
+      <c r="E517" t="n">
+        <v>557.7999877929688</v>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G517" t="n">
+        <v>567.1500244140625</v>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I517" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J517" t="n">
+        <v>607.7999877929688</v>
+      </c>
+      <c r="K517" t="n">
+        <v>557.9000244140625</v>
+      </c>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>BHEL.NS</t>
+        </is>
+      </c>
+      <c r="B518" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C518" t="n">
+        <v>318.2999877929688</v>
+      </c>
+      <c r="D518" t="n">
+        <v>294.1000061035156</v>
+      </c>
+      <c r="E518" t="n">
+        <v>305</v>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G518" t="n">
+        <v>318.2999877929688</v>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I518" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J518" t="n">
+        <v>321</v>
+      </c>
+      <c r="K518" t="n">
+        <v>300.6000061035156</v>
+      </c>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>HPL.NS</t>
+        </is>
+      </c>
+      <c r="B519" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C519" t="n">
+        <v>396.7999877929688</v>
+      </c>
+      <c r="D519" t="n">
+        <v>363.4500122070312</v>
+      </c>
+      <c r="E519" t="n">
+        <v>373.5499877929688</v>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G519" t="n">
+        <v>396.7999877929688</v>
+      </c>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I519" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J519" t="n">
+        <v>425</v>
+      </c>
+      <c r="K519" t="n">
+        <v>392.3500061035156</v>
+      </c>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>SIL.NS</t>
+        </is>
+      </c>
+      <c r="B520" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C520" t="n">
+        <v>24.35000038146973</v>
+      </c>
+      <c r="D520" t="n">
+        <v>23.29999923706055</v>
+      </c>
+      <c r="E520" t="n">
+        <v>24</v>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G520" t="n">
+        <v>24.35000038146973</v>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I520" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J520" t="n">
+        <v>25</v>
+      </c>
+      <c r="K520" t="n">
+        <v>23.89999961853027</v>
+      </c>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>GENUSPOWER.NS</t>
+        </is>
+      </c>
+      <c r="B521" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="C521" t="n">
+        <v>317.5</v>
+      </c>
+      <c r="D521" t="n">
+        <v>309.1499938964844</v>
+      </c>
+      <c r="E521" t="n">
+        <v>312.7999877929688</v>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G521" t="n">
+        <v>317.5</v>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I521" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J521" t="n">
+        <v>329</v>
+      </c>
+      <c r="K521" t="n">
+        <v>316.8999938964844</v>
+      </c>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>IEX.NS</t>
+        </is>
+      </c>
+      <c r="B522" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C522" t="n">
+        <v>158.3999938964844</v>
+      </c>
+      <c r="D522" t="n">
+        <v>152.75</v>
+      </c>
+      <c r="E522" t="n">
+        <v>153.5500030517578</v>
+      </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G522" t="n">
+        <v>158.3999938964844</v>
+      </c>
+      <c r="H522" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I522" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J522" t="n">
+        <v>160.3999938964844</v>
+      </c>
+      <c r="K522" t="n">
+        <v>155.6499938964844</v>
+      </c>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>ZENTEC.NS</t>
+        </is>
+      </c>
+      <c r="B523" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C523" t="n">
+        <v>999.6500244140625</v>
+      </c>
+      <c r="D523" t="n">
+        <v>945.5999755859375</v>
+      </c>
+      <c r="E523" t="n">
+        <v>964.3499755859375</v>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G523" t="n">
+        <v>999.6500244140625</v>
+      </c>
+      <c r="H523" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I523" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J523" t="n">
+        <v>1013</v>
+      </c>
+      <c r="K523" t="n">
+        <v>972</v>
+      </c>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>PSB.NS</t>
+        </is>
+      </c>
+      <c r="B524" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="C524" t="n">
+        <v>65.09999847412109</v>
+      </c>
+      <c r="D524" t="n">
+        <v>62.40000152587891</v>
+      </c>
+      <c r="E524" t="n">
+        <v>63.04999923706055</v>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G524" t="n">
+        <v>65.09999847412109</v>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I524" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J524" t="n">
+        <v>66.30000305175781</v>
+      </c>
+      <c r="K524" t="n">
+        <v>61.95000076293945</v>
+      </c>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>LICHSGFIN.NS</t>
+        </is>
+      </c>
+      <c r="B525" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C525" t="n">
+        <v>671.9500122070312</v>
+      </c>
+      <c r="D525" t="n">
+        <v>623</v>
+      </c>
+      <c r="E525" t="n">
+        <v>637.5999755859375</v>
+      </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G525" t="n">
+        <v>671.9500122070312</v>
+      </c>
+      <c r="H525" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I525" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J525" t="n">
+        <v>685.5</v>
+      </c>
+      <c r="K525" t="n">
+        <v>653.8499755859375</v>
+      </c>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>LICHSGFIN.NS</t>
+        </is>
+      </c>
+      <c r="B526" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C526" t="n">
+        <v>683</v>
+      </c>
+      <c r="D526" t="n">
+        <v>644.5</v>
+      </c>
+      <c r="E526" t="n">
+        <v>654.0499877929688</v>
+      </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G526" t="n">
+        <v>683</v>
+      </c>
+      <c r="H526" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I526" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J526" t="n">
+        <v>685.5</v>
+      </c>
+      <c r="K526" t="n">
+        <v>653.8499755859375</v>
+      </c>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>RBLBANK.NS</t>
+        </is>
+      </c>
+      <c r="B527" s="2" t="n">
+        <v>45201</v>
+      </c>
+      <c r="C527" t="n">
+        <v>256.7000122070312</v>
+      </c>
+      <c r="D527" t="n">
+        <v>241.1999969482422</v>
+      </c>
+      <c r="E527" t="n">
+        <v>247.5</v>
+      </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G527" t="n">
+        <v>256.7000122070312</v>
+      </c>
+      <c r="H527" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I527" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J527" t="n">
+        <v>266.75</v>
+      </c>
+      <c r="K527" t="n">
+        <v>256.5</v>
+      </c>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>FEDERALBNK.NS</t>
+        </is>
+      </c>
+      <c r="B528" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C528" t="n">
+        <v>166.3500061035156</v>
+      </c>
+      <c r="D528" t="n">
+        <v>149.1499938964844</v>
+      </c>
+      <c r="E528" t="n">
+        <v>152.4499969482422</v>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G528" t="n">
+        <v>166.3500061035156</v>
+      </c>
+      <c r="H528" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I528" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J528" t="n">
+        <v>167</v>
+      </c>
+      <c r="K528" t="n">
+        <v>165.1999969482422</v>
+      </c>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>ONGC.NS</t>
+        </is>
+      </c>
+      <c r="B529" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C529" t="n">
+        <v>284.9500122070312</v>
+      </c>
+      <c r="D529" t="n">
+        <v>272.5</v>
+      </c>
+      <c r="E529" t="n">
+        <v>278.1000061035156</v>
+      </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G529" t="n">
+        <v>284.9500122070312</v>
+      </c>
+      <c r="H529" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I529" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J529" t="n">
+        <v>286.5499877929688</v>
+      </c>
+      <c r="K529" t="n">
+        <v>284.2000122070312</v>
+      </c>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>RELIANCE.NS</t>
+        </is>
+      </c>
+      <c r="B530" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C530" t="n">
+        <v>3024.89990234375</v>
+      </c>
+      <c r="D530" t="n">
+        <v>2951.10009765625</v>
+      </c>
+      <c r="E530" t="n">
+        <v>2957.85009765625</v>
+      </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G530" t="n">
+        <v>3024.89990234375</v>
+      </c>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I530" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J530" t="n">
+        <v>3029</v>
+      </c>
+      <c r="K530" t="n">
+        <v>2969.800048828125</v>
+      </c>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>BAJAJ-AUTO.NS</t>
+        </is>
+      </c>
+      <c r="B531" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C531" t="n">
+        <v>9357.9501953125</v>
+      </c>
+      <c r="D531" t="n">
+        <v>8988.0498046875</v>
+      </c>
+      <c r="E531" t="n">
+        <v>9009.5</v>
+      </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G531" t="n">
+        <v>9357.9501953125</v>
+      </c>
+      <c r="H531" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I531" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J531" t="n">
+        <v>9444</v>
+      </c>
+      <c r="K531" t="n">
+        <v>9139.4501953125</v>
+      </c>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>HDFCBANK.NS</t>
+        </is>
+      </c>
+      <c r="B532" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="C532" t="n">
+        <v>1557.400024414062</v>
+      </c>
+      <c r="D532" t="n">
+        <v>1503.25</v>
+      </c>
+      <c r="E532" t="n">
+        <v>1509.800048828125</v>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G532" t="n">
+        <v>1557.400024414062</v>
+      </c>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I532" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J532" t="n">
+        <v>1599</v>
+      </c>
+      <c r="K532" t="n">
+        <v>1545</v>
+      </c>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>LT.NS</t>
+        </is>
+      </c>
+      <c r="B533" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C533" t="n">
+        <v>3860</v>
+      </c>
+      <c r="D533" t="n">
+        <v>3716.25</v>
+      </c>
+      <c r="E533" t="n">
+        <v>3743.10009765625</v>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G533" t="n">
+        <v>3860</v>
+      </c>
+      <c r="H533" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I533" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J533" t="n">
+        <v>3919.89990234375</v>
+      </c>
+      <c r="K533" t="n">
+        <v>3744.800048828125</v>
+      </c>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>BANKBARODA.NS</t>
+        </is>
+      </c>
+      <c r="B534" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C534" t="n">
+        <v>285.6000061035156</v>
+      </c>
+      <c r="D534" t="n">
+        <v>250.1499938964844</v>
+      </c>
+      <c r="E534" t="n">
+        <v>254</v>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G534" t="n">
+        <v>285.6000061035156</v>
+      </c>
+      <c r="H534" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I534" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J534" t="n">
+        <v>299.7000122070312</v>
+      </c>
+      <c r="K534" t="n">
+        <v>273.3999938964844</v>
+      </c>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>BANKBARODA.NS</t>
+        </is>
+      </c>
+      <c r="B535" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C535" t="n">
+        <v>284.7999877929688</v>
+      </c>
+      <c r="D535" t="n">
+        <v>265</v>
+      </c>
+      <c r="E535" t="n">
+        <v>275.75</v>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G535" t="n">
+        <v>284.7999877929688</v>
+      </c>
+      <c r="H535" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I535" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J535" t="n">
+        <v>299.7000122070312</v>
+      </c>
+      <c r="K535" t="n">
+        <v>273.3999938964844</v>
+      </c>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>GAIL.NS</t>
+        </is>
+      </c>
+      <c r="B536" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="C536" t="n">
+        <v>213.6499938964844</v>
+      </c>
+      <c r="D536" t="n">
+        <v>196.6000061035156</v>
+      </c>
+      <c r="E536" t="n">
+        <v>201.9499969482422</v>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G536" t="n">
+        <v>213.6499938964844</v>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I536" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J536" t="n">
+        <v>233.1999969482422</v>
+      </c>
+      <c r="K536" t="n">
+        <v>207.1499938964844</v>
+      </c>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>CANBK.NS</t>
+        </is>
+      </c>
+      <c r="B537" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C537" t="n">
+        <v>126.5800018310547</v>
+      </c>
+      <c r="D537" t="n">
+        <v>122.8399963378906</v>
+      </c>
+      <c r="E537" t="n">
+        <v>125.129997253418</v>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G537" t="n">
+        <v>126.5800018310547</v>
+      </c>
+      <c r="H537" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I537" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J537" t="n">
+        <v>128.8999938964844</v>
+      </c>
+      <c r="K537" t="n">
+        <v>119.3499984741211</v>
+      </c>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>ADANIENSOL.NS</t>
+        </is>
+      </c>
+      <c r="B538" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C538" t="n">
+        <v>1190.599975585938</v>
+      </c>
+      <c r="D538" t="n">
+        <v>1060</v>
+      </c>
+      <c r="E538" t="n">
+        <v>1080.800048828125</v>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G538" t="n">
+        <v>1190.599975585938</v>
+      </c>
+      <c r="H538" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I538" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J538" t="n">
+        <v>1249.400024414062</v>
+      </c>
+      <c r="K538" t="n">
+        <v>1150.099975585938</v>
+      </c>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>ADANIGREEN.NS</t>
+        </is>
+      </c>
+      <c r="B539" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C539" t="n">
+        <v>2018.949951171875</v>
+      </c>
+      <c r="D539" t="n">
+        <v>1855.949951171875</v>
+      </c>
+      <c r="E539" t="n">
+        <v>1969.550048828125</v>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G539" t="n">
+        <v>2018.949951171875</v>
+      </c>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I539" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J539" t="n">
+        <v>2174.10009765625</v>
+      </c>
+      <c r="K539" t="n">
+        <v>1993.900024414062</v>
+      </c>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>ATGL.NS</t>
+        </is>
+      </c>
+      <c r="B540" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C540" t="n">
+        <v>1096</v>
+      </c>
+      <c r="D540" t="n">
+        <v>1005.25</v>
+      </c>
+      <c r="E540" t="n">
+        <v>1039.150024414062</v>
+      </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G540" t="n">
+        <v>1096</v>
+      </c>
+      <c r="H540" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I540" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J540" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K540" t="n">
+        <v>1060</v>
+      </c>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>KPIGREEN.NS</t>
+        </is>
+      </c>
+      <c r="B541" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C541" t="n">
+        <v>1890</v>
+      </c>
+      <c r="D541" t="n">
+        <v>1574.449951171875</v>
+      </c>
+      <c r="E541" t="n">
+        <v>1740.75</v>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G541" t="n">
+        <v>1890</v>
+      </c>
+      <c r="H541" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I541" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J541" t="n">
+        <v>1913.550048828125</v>
+      </c>
+      <c r="K541" t="n">
+        <v>1886.800048828125</v>
+      </c>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>NHPC.NS</t>
+        </is>
+      </c>
+      <c r="B542" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C542" t="n">
+        <v>115.8499984741211</v>
+      </c>
+      <c r="D542" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="E542" t="n">
+        <v>96.25</v>
+      </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G542" t="n">
+        <v>115.8499984741211</v>
+      </c>
+      <c r="H542" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I542" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J542" t="n">
+        <v>118</v>
+      </c>
+      <c r="K542" t="n">
+        <v>110.4499969482422</v>
+      </c>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>INDUSTOWER.NS</t>
+        </is>
+      </c>
+      <c r="B543" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="C543" t="n">
+        <v>366.5499877929688</v>
+      </c>
+      <c r="D543" t="n">
+        <v>341.6499938964844</v>
+      </c>
+      <c r="E543" t="n">
+        <v>353.2999877929688</v>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G543" t="n">
+        <v>366.5499877929688</v>
+      </c>
+      <c r="H543" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I543" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J543" t="n">
+        <v>369.8999938964844</v>
+      </c>
+      <c r="K543" t="n">
+        <v>352</v>
+      </c>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>UNIONBANK.NS</t>
+        </is>
+      </c>
+      <c r="B544" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C544" t="n">
+        <v>163.1999969482422</v>
+      </c>
+      <c r="D544" t="n">
+        <v>154.1000061035156</v>
+      </c>
+      <c r="E544" t="n">
+        <v>160.1999969482422</v>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G544" t="n">
+        <v>163.1999969482422</v>
+      </c>
+      <c r="H544" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I544" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J544" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="K544" t="n">
+        <v>161.8000030517578</v>
+      </c>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>CENTRALBK.BO</t>
+        </is>
+      </c>
+      <c r="B545" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="C545" t="n">
+        <v>69.80000305175781</v>
+      </c>
+      <c r="D545" t="n">
+        <v>62.84999847412109</v>
+      </c>
+      <c r="E545" t="n">
+        <v>63.56999969482422</v>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G545" t="n">
+        <v>69.80000305175781</v>
+      </c>
+      <c r="H545" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I545" t="inlineStr">
+        <is>
+          <t>28-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J545" t="n">
+        <v>72.98999786376953</v>
+      </c>
+      <c r="K545" t="n">
+        <v>69.18000030517578</v>
+      </c>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>SJS.NS</t>
+        </is>
+      </c>
+      <c r="B546" s="2" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C546" t="n">
+        <v>745</v>
+      </c>
+      <c r="D546" t="n">
+        <v>678</v>
+      </c>
+      <c r="E546" t="n">
+        <v>683.5</v>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G546" t="n">
+        <v>745</v>
+      </c>
+      <c r="H546" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I546" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J546" t="n">
+        <v>757</v>
+      </c>
+      <c r="K546" t="n">
+        <v>741.2000122070312</v>
+      </c>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>RELIANCE.NS</t>
+        </is>
+      </c>
+      <c r="B547" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C547" t="n">
+        <v>3024.89990234375</v>
+      </c>
+      <c r="D547" t="n">
+        <v>2825.800048828125</v>
+      </c>
+      <c r="E547" t="n">
+        <v>2971.699951171875</v>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G547" t="n">
+        <v>3024.89990234375</v>
+      </c>
+      <c r="H547" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="I547" t="inlineStr">
+        <is>
+          <t>01-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J547" t="n">
+        <v>3029</v>
+      </c>
+      <c r="K547" t="n">
+        <v>2984.449951171875</v>
+      </c>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>BANKBARODA.NS</t>
+        </is>
+      </c>
+      <c r="B548" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C548" t="n">
+        <v>285.6000061035156</v>
+      </c>
+      <c r="D548" t="n">
+        <v>243.8000030517578</v>
+      </c>
+      <c r="E548" t="n">
+        <v>264.0499877929688</v>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G548" t="n">
+        <v>285.6000061035156</v>
+      </c>
+      <c r="H548" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="I548" t="inlineStr">
+        <is>
+          <t>01-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J548" t="n">
+        <v>299.7000122070312</v>
+      </c>
+      <c r="K548" t="n">
+        <v>283.8999938964844</v>
+      </c>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>ADANIGREEN.NS</t>
+        </is>
+      </c>
+      <c r="B549" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="C549" t="n">
+        <v>2018.949951171875</v>
+      </c>
+      <c r="D549" t="n">
+        <v>1651.599975585938</v>
+      </c>
+      <c r="E549" t="n">
+        <v>1895.050048828125</v>
+      </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G549" t="n">
+        <v>2018.949951171875</v>
+      </c>
+      <c r="H549" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="I549" t="inlineStr">
+        <is>
+          <t>01-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J549" t="n">
+        <v>2174.10009765625</v>
+      </c>
+      <c r="K549" t="n">
+        <v>1993.900024414062</v>
+      </c>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>NHPC.NS</t>
+        </is>
+      </c>
+      <c r="B550" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="C550" t="n">
+        <v>115.8499984741211</v>
+      </c>
+      <c r="D550" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="E550" t="n">
+        <v>88.15000152587891</v>
+      </c>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G550" t="n">
+        <v>115.8499984741211</v>
+      </c>
+      <c r="H550" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="I550" t="inlineStr">
+        <is>
+          <t>01-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J550" t="n">
+        <v>118</v>
+      </c>
+      <c r="K550" t="n">
+        <v>110.4499969482422</v>
+      </c>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>GODREJPROP.NS</t>
+        </is>
+      </c>
+      <c r="B551" s="2" t="n">
+        <v>44470</v>
+      </c>
+      <c r="C551" t="n">
+        <v>2598</v>
+      </c>
+      <c r="D551" t="n">
+        <v>1766.349975585938</v>
+      </c>
+      <c r="E551" t="n">
+        <v>1871.800048828125</v>
+      </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G551" t="n">
+        <v>2598</v>
+      </c>
+      <c r="H551" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I551" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J551" t="n">
+        <v>3007.199951171875</v>
+      </c>
+      <c r="K551" t="n">
+        <v>2541.300048828125</v>
+      </c>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>VOLTAS.NS</t>
+        </is>
+      </c>
+      <c r="B552" s="2" t="n">
+        <v>44470</v>
+      </c>
+      <c r="C552" t="n">
+        <v>1356.900024414062</v>
+      </c>
+      <c r="D552" t="n">
+        <v>1131.25</v>
+      </c>
+      <c r="E552" t="n">
+        <v>1219.150024414062</v>
+      </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G552" t="n">
+        <v>1356.900024414062</v>
+      </c>
+      <c r="H552" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I552" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J552" t="n">
+        <v>1502.300048828125</v>
+      </c>
+      <c r="K552" t="n">
+        <v>1133.5</v>
+      </c>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>MOTHERSON.NS</t>
+        </is>
+      </c>
+      <c r="B553" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="C553" t="n">
+        <v>134.8666687011719</v>
+      </c>
+      <c r="D553" t="n">
+        <v>79.69999694824219</v>
+      </c>
+      <c r="E553" t="n">
+        <v>92.96666717529297</v>
+      </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G553" t="n">
+        <v>134.8666687011719</v>
+      </c>
+      <c r="H553" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I553" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J553" t="n">
+        <v>159.6999969482422</v>
+      </c>
+      <c r="K553" t="n">
+        <v>126.5</v>
+      </c>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>HINDALCO.NS</t>
+        </is>
+      </c>
+      <c r="B554" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="C554" t="n">
+        <v>636</v>
+      </c>
+      <c r="D554" t="n">
+        <v>472</v>
+      </c>
+      <c r="E554" t="n">
+        <v>569.5</v>
+      </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G554" t="n">
+        <v>636</v>
+      </c>
+      <c r="H554" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I554" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J554" t="n">
+        <v>715.25</v>
+      </c>
+      <c r="K554" t="n">
+        <v>620.5</v>
+      </c>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>MARICO.NS</t>
+        </is>
+      </c>
+      <c r="B555" s="2" t="n">
+        <v>44409</v>
+      </c>
+      <c r="C555" t="n">
+        <v>607.7000122070312</v>
+      </c>
+      <c r="D555" t="n">
+        <v>511</v>
+      </c>
+      <c r="E555" t="n">
+        <v>568.4500122070312</v>
+      </c>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G555" t="n">
+        <v>607.7000122070312</v>
+      </c>
+      <c r="H555" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I555" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J555" t="n">
+        <v>615.9000244140625</v>
+      </c>
+      <c r="K555" t="n">
+        <v>554.7000122070312</v>
+      </c>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>VEDL.NS</t>
+        </is>
+      </c>
+      <c r="B556" s="2" t="n">
+        <v>41730</v>
+      </c>
+      <c r="C556" t="n">
+        <v>318.2999877929688</v>
+      </c>
+      <c r="D556" t="n">
+        <v>178</v>
+      </c>
+      <c r="E556" t="n">
+        <v>292.3500061035156</v>
+      </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G556" t="n">
+        <v>318.2999877929688</v>
+      </c>
+      <c r="H556" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I556" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J556" t="n">
+        <v>506.75</v>
+      </c>
+      <c r="K556" t="n">
+        <v>289.25</v>
+      </c>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>VEDL.NS</t>
+        </is>
+      </c>
+      <c r="B557" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="C557" t="n">
+        <v>355.7000122070312</v>
+      </c>
+      <c r="D557" t="n">
+        <v>268.75</v>
+      </c>
+      <c r="E557" t="n">
+        <v>277.8500061035156</v>
+      </c>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G557" t="n">
+        <v>355.7000122070312</v>
+      </c>
+      <c r="H557" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I557" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J557" t="n">
+        <v>506.75</v>
+      </c>
+      <c r="K557" t="n">
+        <v>289.25</v>
+      </c>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>VEDL.NS</t>
+        </is>
+      </c>
+      <c r="B558" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="C558" t="n">
+        <v>440.75</v>
+      </c>
+      <c r="D558" t="n">
+        <v>216.1000061035156</v>
+      </c>
+      <c r="E558" t="n">
+        <v>223</v>
+      </c>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G558" t="n">
+        <v>440.75</v>
+      </c>
+      <c r="H558" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I558" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J558" t="n">
+        <v>506.75</v>
+      </c>
+      <c r="K558" t="n">
+        <v>289.25</v>
+      </c>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>KNRCON.NS</t>
+        </is>
+      </c>
+      <c r="B559" s="2" t="n">
+        <v>44409</v>
+      </c>
+      <c r="C559" t="n">
+        <v>343.8999938964844</v>
+      </c>
+      <c r="D559" t="n">
+        <v>264.6499938964844</v>
+      </c>
+      <c r="E559" t="n">
+        <v>279.7999877929688</v>
+      </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G559" t="n">
+        <v>343.8999938964844</v>
+      </c>
+      <c r="H559" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I559" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J559" t="n">
+        <v>348.8999938964844</v>
+      </c>
+      <c r="K559" t="n">
+        <v>292</v>
+      </c>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>EMAMILTD.NS</t>
+        </is>
+      </c>
+      <c r="B560" s="2" t="n">
+        <v>44409</v>
+      </c>
+      <c r="C560" t="n">
+        <v>621.7999877929688</v>
+      </c>
+      <c r="D560" t="n">
+        <v>507.9500122070312</v>
+      </c>
+      <c r="E560" t="n">
+        <v>531.25</v>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G560" t="n">
+        <v>621.7999877929688</v>
+      </c>
+      <c r="H560" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I560" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J560" t="n">
+        <v>649.9000244140625</v>
+      </c>
+      <c r="K560" t="n">
+        <v>510.9500122070312</v>
+      </c>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>SAIL.NS</t>
+        </is>
+      </c>
+      <c r="B561" s="2" t="n">
+        <v>44287</v>
+      </c>
+      <c r="C561" t="n">
+        <v>151.3000030517578</v>
+      </c>
+      <c r="D561" t="n">
+        <v>79.55000305175781</v>
+      </c>
+      <c r="E561" t="n">
+        <v>130.6000061035156</v>
+      </c>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G561" t="n">
+        <v>151.3000030517578</v>
+      </c>
+      <c r="H561" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I561" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J561" t="n">
+        <v>175.3500061035156</v>
+      </c>
+      <c r="K561" t="n">
+        <v>150</v>
+      </c>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>SJS.NS</t>
+        </is>
+      </c>
+      <c r="B562" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="C562" t="n">
+        <v>745</v>
+      </c>
+      <c r="D562" t="n">
+        <v>595.2999877929688</v>
+      </c>
+      <c r="E562" t="n">
+        <v>676.6500244140625</v>
+      </c>
+      <c r="F562" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G562" t="n">
+        <v>745</v>
+      </c>
+      <c r="H562" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I562" t="inlineStr">
+        <is>
+          <t>01-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J562" t="n">
+        <v>757</v>
+      </c>
+      <c r="K562" t="n">
+        <v>668</v>
+      </c>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>GEOJITFSL.NS</t>
+        </is>
+      </c>
+      <c r="B563" s="2" t="n">
+        <v>44378</v>
+      </c>
+      <c r="C563" t="n">
+        <v>102.6999969482422</v>
+      </c>
+      <c r="D563" t="n">
+        <v>71.25</v>
+      </c>
+      <c r="E563" t="n">
+        <v>76.40000152587891</v>
+      </c>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G563" t="n">
+        <v>102.6999969482422</v>
+      </c>
+      <c r="H563" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I563" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J563" t="n">
+        <v>116.0999984741211</v>
+      </c>
+      <c r="K563" t="n">
+        <v>90</v>
+      </c>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>RTNPOWER.NS</t>
+        </is>
+      </c>
+      <c r="B564" s="2" t="n">
+        <v>41730</v>
+      </c>
+      <c r="C564" t="n">
+        <v>16.20000076293945</v>
+      </c>
+      <c r="D564" t="n">
+        <v>7.400000095367432</v>
+      </c>
+      <c r="E564" t="n">
+        <v>14.39999961853027</v>
+      </c>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G564" t="n">
+        <v>16.20000076293945</v>
+      </c>
+      <c r="H564" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I564" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J564" t="n">
+        <v>20.10000038146973</v>
+      </c>
+      <c r="K564" t="n">
+        <v>12.30000019073486</v>
+      </c>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>RTNPOWER.NS</t>
+        </is>
+      </c>
+      <c r="B565" s="2" t="n">
+        <v>42370</v>
+      </c>
+      <c r="C565" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D565" t="n">
+        <v>7.849999904632568</v>
+      </c>
+      <c r="E565" t="n">
+        <v>9.949999809265137</v>
+      </c>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G565" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="H565" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
+      <c r="I565" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J565" t="n">
+        <v>20.10000038146973</v>
+      </c>
+      <c r="K565" t="n">
+        <v>12.30000019073486</v>
+      </c>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>04/06/2024 02:45:37</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3373,6 +3373,186 @@
       <c r="K65" t="inlineStr">
         <is>
           <t>06/06/2024 03:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>PRSMJOHNSN.NS</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>06-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>45406.38541666666</v>
+      </c>
+      <c r="E66" t="n">
+        <v>171.3500061035156</v>
+      </c>
+      <c r="F66" s="2" t="n">
+        <v>45412.55208333334</v>
+      </c>
+      <c r="G66" t="n">
+        <v>168.8999938964844</v>
+      </c>
+      <c r="H66" s="2" t="n">
+        <v>45421.38541666666</v>
+      </c>
+      <c r="I66" t="n">
+        <v>166.8500061035156</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>06/06/2024 09:27:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>SWSOLAR.NS</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>06-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>45440.38541666666</v>
+      </c>
+      <c r="E67" t="n">
+        <v>787.8499755859375</v>
+      </c>
+      <c r="F67" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="G67" t="n">
+        <v>736.9000244140625</v>
+      </c>
+      <c r="H67" s="2" t="n">
+        <v>45446.46875</v>
+      </c>
+      <c r="I67" t="n">
+        <v>736.9000244140625</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>06/06/2024 09:27:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>SWSOLAR.NS</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>06-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>45440.38541666666</v>
+      </c>
+      <c r="E68" t="n">
+        <v>787.8499755859375</v>
+      </c>
+      <c r="F68" s="2" t="n">
+        <v>45446.42708333334</v>
+      </c>
+      <c r="G68" t="n">
+        <v>736.9000244140625</v>
+      </c>
+      <c r="H68" s="2" t="n">
+        <v>45446.46875</v>
+      </c>
+      <c r="I68" t="n">
+        <v>736.9000244140625</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>06/06/2024 09:27:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>PCJEWELLER.NS</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>06-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>45420.38541666666</v>
+      </c>
+      <c r="E69" t="n">
+        <v>52</v>
+      </c>
+      <c r="F69" s="2" t="n">
+        <v>45426.42708333334</v>
+      </c>
+      <c r="G69" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="H69" s="2" t="n">
+        <v>45429.38541666666</v>
+      </c>
+      <c r="I69" t="n">
+        <v>51</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>06/06/2024 09:27:49</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4024,6 +4204,474 @@
       <c r="I16" t="inlineStr">
         <is>
           <t>06/06/2024 03:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>EICHERMOT.NS</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>06-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>45426.42708333334</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4741</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>45433.38541666666</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4728.60009765625</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>06/06/2024 09:27:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>SBILIFE.NS</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>06-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>45428.59375</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1458</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>45435.51041666666</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1452.949951171875</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>06/06/2024 09:27:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SBILIFE.NS</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>06-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>45428.59375</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1458</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>45435.59375</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1452.949951171875</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>06/06/2024 09:27:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NTPC.NS</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>06-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>45404.59375</v>
+      </c>
+      <c r="E20" t="n">
+        <v>342</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>45421.59375</v>
+      </c>
+      <c r="G20" t="n">
+        <v>344.8500061035156</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>06/06/2024 09:27:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>IDFCFIRSTB.NS</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>06-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>45428.46875</v>
+      </c>
+      <c r="E21" t="n">
+        <v>76.59999847412109</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>45434.55208333334</v>
+      </c>
+      <c r="G21" t="n">
+        <v>76.75</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>06/06/2024 09:27:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AUBANK.NS</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>06-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>45427.38541666666</v>
+      </c>
+      <c r="E22" t="n">
+        <v>648.7000122070312</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>45442.38541666666</v>
+      </c>
+      <c r="G22" t="n">
+        <v>653.9000244140625</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>06/06/2024 09:27:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ZOMATO.NS</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>06-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>45441.42708333334</v>
+      </c>
+      <c r="E23" t="n">
+        <v>185.3999938964844</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="G23" t="n">
+        <v>184.8000030517578</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>06/06/2024 09:27:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>GUJGASLTD.NS</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>06-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>45419.38541666666</v>
+      </c>
+      <c r="E24" t="n">
+        <v>566.7000122070312</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>45434.38541666666</v>
+      </c>
+      <c r="G24" t="n">
+        <v>568</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>06/06/2024 09:27:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>SOBHA.NS</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>06-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>45415.38541666666</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1967</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>45419.38541666666</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1964.800048828125</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>06/06/2024 09:27:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>TV18BRDCST.NS</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>06-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>45434.38541666666</v>
+      </c>
+      <c r="E26" t="n">
+        <v>42.65000152587891</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>45441.38541666666</v>
+      </c>
+      <c r="G26" t="n">
+        <v>42.29999923706055</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>06/06/2024 09:27:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>TV18BRDCST.NS</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>06-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>45428.59375</v>
+      </c>
+      <c r="E27" t="n">
+        <v>42.59999847412109</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>45441.38541666666</v>
+      </c>
+      <c r="G27" t="n">
+        <v>42.29999923706055</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>06/06/2024 09:27:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ZENTEC.NS</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>06-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>45441.38541666666</v>
+      </c>
+      <c r="E28" t="n">
+        <v>917.4500122070312</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>45443.38541666666</v>
+      </c>
+      <c r="G28" t="n">
+        <v>916.5499877929688</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>06/06/2024 09:27:49</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L231"/>
+  <dimension ref="A1:L241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15148,6 +15796,486 @@
         </is>
       </c>
     </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>BHARTIARTL.NS</t>
+        </is>
+      </c>
+      <c r="B232" s="2" t="n">
+        <v>45433.38541666666</v>
+      </c>
+      <c r="C232" t="n">
+        <v>1362.75</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1345.599975585938</v>
+      </c>
+      <c r="E232" t="n">
+        <v>1347.25</v>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G232" t="n">
+        <v>1362.75</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>06-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="J232" t="n">
+        <v>1366.900024414062</v>
+      </c>
+      <c r="K232" t="n">
+        <v>1358.699951171875</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>06/06/2024 09:27:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>BOSCHLTD.NS</t>
+        </is>
+      </c>
+      <c r="B233" s="2" t="n">
+        <v>45429.46875</v>
+      </c>
+      <c r="C233" t="n">
+        <v>30773.25</v>
+      </c>
+      <c r="D233" t="n">
+        <v>30544.69921875</v>
+      </c>
+      <c r="E233" t="n">
+        <v>30628.900390625</v>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G233" t="n">
+        <v>30544.69921875</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>06-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="J233" t="n">
+        <v>30544.599609375</v>
+      </c>
+      <c r="K233" t="n">
+        <v>30610.25</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>06/06/2024 09:27:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>BOSCHLTD.NS</t>
+        </is>
+      </c>
+      <c r="B234" s="2" t="n">
+        <v>45434.55208333334</v>
+      </c>
+      <c r="C234" t="n">
+        <v>30843.55078125</v>
+      </c>
+      <c r="D234" t="n">
+        <v>30587.55078125</v>
+      </c>
+      <c r="E234" t="n">
+        <v>30839.19921875</v>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G234" t="n">
+        <v>30587.55078125</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>06-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="J234" t="n">
+        <v>30544.599609375</v>
+      </c>
+      <c r="K234" t="n">
+        <v>30610.25</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>06/06/2024 09:27:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>JBMA.NS</t>
+        </is>
+      </c>
+      <c r="B235" s="2" t="n">
+        <v>45440.38541666666</v>
+      </c>
+      <c r="C235" t="n">
+        <v>2148.800048828125</v>
+      </c>
+      <c r="D235" t="n">
+        <v>2057</v>
+      </c>
+      <c r="E235" t="n">
+        <v>2069.85009765625</v>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G235" t="n">
+        <v>2148.800048828125</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>06-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="J235" t="n">
+        <v>2150</v>
+      </c>
+      <c r="K235" t="n">
+        <v>2141.699951171875</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>06/06/2024 09:27:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>RVNL.NS</t>
+        </is>
+      </c>
+      <c r="B236" s="2" t="n">
+        <v>45443.42708333334</v>
+      </c>
+      <c r="C236" t="n">
+        <v>373</v>
+      </c>
+      <c r="D236" t="n">
+        <v>367.2000122070312</v>
+      </c>
+      <c r="E236" t="n">
+        <v>372.3999938964844</v>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G236" t="n">
+        <v>367.2000122070312</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>06-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="J236" t="n">
+        <v>365.4500122070312</v>
+      </c>
+      <c r="K236" t="n">
+        <v>367.5499877929688</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>06/06/2024 09:27:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>PARAS.NS</t>
+        </is>
+      </c>
+      <c r="B237" s="2" t="n">
+        <v>45443.38541666666</v>
+      </c>
+      <c r="C237" t="n">
+        <v>942.25</v>
+      </c>
+      <c r="D237" t="n">
+        <v>891.4000244140625</v>
+      </c>
+      <c r="E237" t="n">
+        <v>893.9000244140625</v>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G237" t="n">
+        <v>891.4000244140625</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>06-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="J237" t="n">
+        <v>890.3499755859375</v>
+      </c>
+      <c r="K237" t="n">
+        <v>892.0999755859375</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>06/06/2024 09:27:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>MOTILALOFS.NS</t>
+        </is>
+      </c>
+      <c r="B238" s="2" t="n">
+        <v>45439.38541666666</v>
+      </c>
+      <c r="C238" t="n">
+        <v>2304.949951171875</v>
+      </c>
+      <c r="D238" t="n">
+        <v>2243.800048828125</v>
+      </c>
+      <c r="E238" t="n">
+        <v>2264.75</v>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G238" t="n">
+        <v>2304.949951171875</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>06-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="J238" t="n">
+        <v>2305</v>
+      </c>
+      <c r="K238" t="n">
+        <v>2303.89990234375</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>06/06/2024 09:27:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>TATATECH.NS</t>
+        </is>
+      </c>
+      <c r="B239" s="2" t="n">
+        <v>45429.59375</v>
+      </c>
+      <c r="C239" t="n">
+        <v>1047.849975585938</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1044</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1047</v>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G239" t="n">
+        <v>1044</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>06-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="J239" t="n">
+        <v>1042.050048828125</v>
+      </c>
+      <c r="K239" t="n">
+        <v>1044.099975585938</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>06/06/2024 09:27:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>TEJASNET.NS</t>
+        </is>
+      </c>
+      <c r="B240" s="2" t="n">
+        <v>45427.38541666666</v>
+      </c>
+      <c r="C240" t="n">
+        <v>1204.699951171875</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1155</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1174.449951171875</v>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G240" t="n">
+        <v>1155</v>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>06-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="J240" t="n">
+        <v>1151.050048828125</v>
+      </c>
+      <c r="K240" t="n">
+        <v>1155.099975585938</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>06/06/2024 09:27:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>APLAPOLLO.NS</t>
+        </is>
+      </c>
+      <c r="B241" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="C241" t="n">
+        <v>1573.849975585938</v>
+      </c>
+      <c r="D241" t="n">
+        <v>1525.75</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1533.599975585938</v>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G241" t="n">
+        <v>1573.849975585938</v>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>06-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="J241" t="n">
+        <v>1576.449951171875</v>
+      </c>
+      <c r="K241" t="n">
+        <v>1572.599975585938</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>06/06/2024 09:27:49</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L116"/>
+  <dimension ref="A1:L117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6018,6 +6018,54 @@
       <c r="L116" t="inlineStr">
         <is>
           <t>09/06/2024 09:16:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45447.55208333334</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>10-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>DWARKESH.NS</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45418.38541666666</v>
+      </c>
+      <c r="F117" t="n">
+        <v>72.75</v>
+      </c>
+      <c r="G117" s="2" t="n">
+        <v>45436.55208333334</v>
+      </c>
+      <c r="H117" t="n">
+        <v>71.90000152587891</v>
+      </c>
+      <c r="I117" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="J117" t="n">
+        <v>72</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>10/06/2024 04:47:27</t>
         </is>
       </c>
     </row>
@@ -6032,7 +6080,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6593,6 +6641,90 @@
       <c r="J13" t="inlineStr">
         <is>
           <t>09/06/2024 09:16:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45435.38541666666</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>10-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ACC.NS</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>45415.38541666666</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2564</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>45433.51041666666</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2559.89990234375</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>10/06/2024 04:47:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45435.55208333334</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>10-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>BORORENEW.NS</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>45433.38541666666</v>
+      </c>
+      <c r="F15" t="n">
+        <v>495.6000061035156</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>45434.38541666666</v>
+      </c>
+      <c r="H15" t="n">
+        <v>495.6000061035156</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>10/06/2024 04:47:27</t>
         </is>
       </c>
     </row>
@@ -6607,7 +6739,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L491"/>
+  <dimension ref="A1:L497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30197,6 +30329,294 @@
         </is>
       </c>
     </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>PICCADIL.BO</t>
+        </is>
+      </c>
+      <c r="B492" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="C492" t="n">
+        <v>813.2999877929688</v>
+      </c>
+      <c r="D492" t="n">
+        <v>750</v>
+      </c>
+      <c r="E492" t="n">
+        <v>790</v>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G492" t="n">
+        <v>813.2999877929688</v>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I492" t="inlineStr">
+        <is>
+          <t>10-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J492" t="n">
+        <v>819</v>
+      </c>
+      <c r="K492" t="n">
+        <v>800</v>
+      </c>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>10/06/2024 04:47:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>TRIL.BO</t>
+        </is>
+      </c>
+      <c r="B493" s="2" t="n">
+        <v>45449.38541666666</v>
+      </c>
+      <c r="C493" t="n">
+        <v>750</v>
+      </c>
+      <c r="D493" t="n">
+        <v>700</v>
+      </c>
+      <c r="E493" t="n">
+        <v>722</v>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G493" t="n">
+        <v>750</v>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I493" t="inlineStr">
+        <is>
+          <t>10-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J493" t="n">
+        <v>764.4000244140625</v>
+      </c>
+      <c r="K493" t="n">
+        <v>749.4000244140625</v>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>10/06/2024 04:47:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>TRIL.BO</t>
+        </is>
+      </c>
+      <c r="B494" s="2" t="n">
+        <v>45449.42708333334</v>
+      </c>
+      <c r="C494" t="n">
+        <v>750</v>
+      </c>
+      <c r="D494" t="n">
+        <v>728</v>
+      </c>
+      <c r="E494" t="n">
+        <v>740</v>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G494" t="n">
+        <v>750</v>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I494" t="inlineStr">
+        <is>
+          <t>10-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J494" t="n">
+        <v>764.4000244140625</v>
+      </c>
+      <c r="K494" t="n">
+        <v>749.4000244140625</v>
+      </c>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>10/06/2024 04:47:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>JWL.NS</t>
+        </is>
+      </c>
+      <c r="B495" s="2" t="n">
+        <v>45449.38541666666</v>
+      </c>
+      <c r="C495" t="n">
+        <v>613</v>
+      </c>
+      <c r="D495" t="n">
+        <v>563.3499755859375</v>
+      </c>
+      <c r="E495" t="n">
+        <v>605.0499877929688</v>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G495" t="n">
+        <v>613</v>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I495" t="inlineStr">
+        <is>
+          <t>10-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="J495" t="n">
+        <v>614</v>
+      </c>
+      <c r="K495" t="n">
+        <v>612.4000244140625</v>
+      </c>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>10/06/2024 04:47:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>KPEL.BO</t>
+        </is>
+      </c>
+      <c r="B496" s="2" t="n">
+        <v>45442.38541666666</v>
+      </c>
+      <c r="C496" t="n">
+        <v>437.5</v>
+      </c>
+      <c r="D496" t="n">
+        <v>420.2000122070312</v>
+      </c>
+      <c r="E496" t="n">
+        <v>430.25</v>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G496" t="n">
+        <v>437.5</v>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I496" t="inlineStr">
+        <is>
+          <t>10-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J496" t="n">
+        <v>438</v>
+      </c>
+      <c r="K496" t="n">
+        <v>430.9500122070312</v>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>10/06/2024 04:47:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>KPEL.BO</t>
+        </is>
+      </c>
+      <c r="B497" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="C497" t="n">
+        <v>436.2000122070312</v>
+      </c>
+      <c r="D497" t="n">
+        <v>423.7999877929688</v>
+      </c>
+      <c r="E497" t="n">
+        <v>428.8999938964844</v>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G497" t="n">
+        <v>436.2000122070312</v>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I497" t="inlineStr">
+        <is>
+          <t>10-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J497" t="n">
+        <v>438</v>
+      </c>
+      <c r="K497" t="n">
+        <v>430.9500122070312</v>
+      </c>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>10/06/2024 04:47:27</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L117"/>
+  <dimension ref="A1:L118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6066,6 +6066,54 @@
       <c r="L117" t="inlineStr">
         <is>
           <t>10/06/2024 04:47:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45450.59375</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>10-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>TRF.NS</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45446.51041666666</v>
+      </c>
+      <c r="F118" t="n">
+        <v>580.1500244140625</v>
+      </c>
+      <c r="G118" s="2" t="n">
+        <v>45446.55208333334</v>
+      </c>
+      <c r="H118" t="n">
+        <v>580.1500244140625</v>
+      </c>
+      <c r="I118" s="2" t="n">
+        <v>45446.63541666666</v>
+      </c>
+      <c r="J118" t="n">
+        <v>580.1500244140625</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>10/06/2024 05:48:26</t>
         </is>
       </c>
     </row>
@@ -6080,7 +6128,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6725,6 +6773,132 @@
       <c r="J15" t="inlineStr">
         <is>
           <t>10/06/2024 04:47:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45448.38541666666</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>10-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>TRF.NS</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>45446.46875</v>
+      </c>
+      <c r="F16" t="n">
+        <v>580.1500244140625</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>45446.51041666666</v>
+      </c>
+      <c r="H16" t="n">
+        <v>580.1500244140625</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>10/06/2024 05:48:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45448.42708333334</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>10-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>TRF.NS</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>45446.46875</v>
+      </c>
+      <c r="F17" t="n">
+        <v>580.1500244140625</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>45446.55208333334</v>
+      </c>
+      <c r="H17" t="n">
+        <v>580.1500244140625</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>10/06/2024 05:48:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45448.42708333334</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>10-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>TRF.NS</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>45446.51041666666</v>
+      </c>
+      <c r="F18" t="n">
+        <v>580.1500244140625</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>45446.55208333334</v>
+      </c>
+      <c r="H18" t="n">
+        <v>580.1500244140625</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>10/06/2024 05:48:26</t>
         </is>
       </c>
     </row>
@@ -6739,7 +6913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L497"/>
+  <dimension ref="A1:L500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30617,6 +30791,150 @@
         </is>
       </c>
     </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>FACT.NS</t>
+        </is>
+      </c>
+      <c r="B498" s="2" t="n">
+        <v>45436.42708333334</v>
+      </c>
+      <c r="C498" t="n">
+        <v>747.7999877929688</v>
+      </c>
+      <c r="D498" t="n">
+        <v>732.4500122070312</v>
+      </c>
+      <c r="E498" t="n">
+        <v>736.7000122070312</v>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G498" t="n">
+        <v>747.7999877929688</v>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I498" t="inlineStr">
+        <is>
+          <t>10-06-2024 11:15:00</t>
+        </is>
+      </c>
+      <c r="J498" t="n">
+        <v>759.5499877929688</v>
+      </c>
+      <c r="K498" t="n">
+        <v>747.5999755859375</v>
+      </c>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>10/06/2024 05:48:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>TV18BRDCST.NS</t>
+        </is>
+      </c>
+      <c r="B499" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="C499" t="n">
+        <v>43.59999847412109</v>
+      </c>
+      <c r="D499" t="n">
+        <v>43</v>
+      </c>
+      <c r="E499" t="n">
+        <v>43.20000076293945</v>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G499" t="n">
+        <v>43.59999847412109</v>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I499" t="inlineStr">
+        <is>
+          <t>10-06-2024 11:15:00</t>
+        </is>
+      </c>
+      <c r="J499" t="n">
+        <v>43.59999847412109</v>
+      </c>
+      <c r="K499" t="n">
+        <v>43.52000045776367</v>
+      </c>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>10/06/2024 05:48:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>AUROPHARMA.NS</t>
+        </is>
+      </c>
+      <c r="B500" s="2" t="n">
+        <v>45436.59375</v>
+      </c>
+      <c r="C500" t="n">
+        <v>1245.699951171875</v>
+      </c>
+      <c r="D500" t="n">
+        <v>1234</v>
+      </c>
+      <c r="E500" t="n">
+        <v>1235.150024414062</v>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G500" t="n">
+        <v>1245.699951171875</v>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I500" t="inlineStr">
+        <is>
+          <t>10-06-2024 11:15:00</t>
+        </is>
+      </c>
+      <c r="J500" t="n">
+        <v>1245.900024414062</v>
+      </c>
+      <c r="K500" t="n">
+        <v>1244.75</v>
+      </c>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>10/06/2024 05:48:26</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L118"/>
+  <dimension ref="A1:L119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6114,6 +6114,54 @@
       <c r="L118" t="inlineStr">
         <is>
           <t>10/06/2024 05:48:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45443.63541666666</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>10-06-2024 11:15:00</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>MHRIL.NS</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45421.38541666666</v>
+      </c>
+      <c r="F119" t="n">
+        <v>421.5499877929688</v>
+      </c>
+      <c r="G119" s="2" t="n">
+        <v>45442.42708333334</v>
+      </c>
+      <c r="H119" t="n">
+        <v>409.75</v>
+      </c>
+      <c r="I119" s="2" t="n">
+        <v>45442.46875</v>
+      </c>
+      <c r="J119" t="n">
+        <v>409.75</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>10/06/2024 06:47:27</t>
         </is>
       </c>
     </row>
@@ -6128,7 +6176,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6899,6 +6947,216 @@
       <c r="J18" t="inlineStr">
         <is>
           <t>10/06/2024 05:48:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45447.55208333334</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>10-06-2024 12:15:00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>JSWSTEEL.NS</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>45436.38541666666</v>
+      </c>
+      <c r="F19" t="n">
+        <v>925</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="H19" t="n">
+        <v>917.5499877929688</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>10/06/2024 06:47:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45447.55208333334</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>10-06-2024 11:15:00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>BANARISUG.NS</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>45440.63541666666</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2443.800048828125</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2447</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>10/06/2024 06:47:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45436.55208333334</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>10-06-2024 12:15:00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>RENUKA.NS</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>45433.38541666666</v>
+      </c>
+      <c r="F21" t="n">
+        <v>42.79999923706055</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>45435.38541666666</v>
+      </c>
+      <c r="H21" t="n">
+        <v>42.79999923706055</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>10/06/2024 06:47:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45440.55208333334</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>10-06-2024 12:15:00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>TATATECH.NS</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45426.59375</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1062.949951171875</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>45434.38541666666</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1061.400024414062</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>10/06/2024 06:47:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45449.55208333334</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>10-06-2024 12:15:00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>MICEL.NS</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>45428.38541666666</v>
+      </c>
+      <c r="F23" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>45441.38541666666</v>
+      </c>
+      <c r="H23" t="n">
+        <v>48.65000152587891</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>10/06/2024 06:47:27</t>
         </is>
       </c>
     </row>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L119"/>
+  <dimension ref="A1:L120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6162,6 +6162,54 @@
       <c r="L119" t="inlineStr">
         <is>
           <t>10/06/2024 06:47:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45441.55208333334</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>10-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>TATASTEEL.NS</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45415.38541666666</v>
+      </c>
+      <c r="F120" t="n">
+        <v>170.75</v>
+      </c>
+      <c r="G120" s="2" t="n">
+        <v>45434.38541666666</v>
+      </c>
+      <c r="H120" t="n">
+        <v>175.4499969482422</v>
+      </c>
+      <c r="I120" s="2" t="n">
+        <v>45440.38541666666</v>
+      </c>
+      <c r="J120" t="n">
+        <v>177.5</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>10/06/2024 08:53:23</t>
         </is>
       </c>
     </row>
@@ -6176,7 +6224,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7157,6 +7205,132 @@
       <c r="J23" t="inlineStr">
         <is>
           <t>10/06/2024 06:47:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45443.42708333334</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>10-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ASIANPAINT.NS</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>45425.59375</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2894.85009765625</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>45441.55208333334</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2921</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>10/06/2024 08:53:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45441.55208333334</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>10-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>SBIN.NS</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45436.38541666666</v>
+      </c>
+      <c r="F25" t="n">
+        <v>841.1500244140625</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>45440.38541666666</v>
+      </c>
+      <c r="H25" t="n">
+        <v>840.5</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>10/06/2024 08:53:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45447.55208333334</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>10-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>DWARKESH.NS</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>45436.55208333334</v>
+      </c>
+      <c r="F26" t="n">
+        <v>71.90000152587891</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="H26" t="n">
+        <v>72</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>10/06/2024 08:53:23</t>
         </is>
       </c>
     </row>
@@ -7171,7 +7345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L500"/>
+  <dimension ref="A1:L502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31193,6 +31367,102 @@
         </is>
       </c>
     </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>MOL.NS</t>
+        </is>
+      </c>
+      <c r="B501" s="2" t="n">
+        <v>45436.51041666666</v>
+      </c>
+      <c r="C501" t="n">
+        <v>82.34999847412109</v>
+      </c>
+      <c r="D501" t="n">
+        <v>81.75</v>
+      </c>
+      <c r="E501" t="n">
+        <v>82.09999847412109</v>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G501" t="n">
+        <v>82.34999847412109</v>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I501" t="inlineStr">
+        <is>
+          <t>10-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="J501" t="n">
+        <v>82.88999938964844</v>
+      </c>
+      <c r="K501" t="n">
+        <v>82.15000152587891</v>
+      </c>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>10/06/2024 08:53:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>CAMLINFINE.NS</t>
+        </is>
+      </c>
+      <c r="B502" s="2" t="n">
+        <v>45429.42708333334</v>
+      </c>
+      <c r="C502" t="n">
+        <v>101.1999969482422</v>
+      </c>
+      <c r="D502" t="n">
+        <v>99.59999847412109</v>
+      </c>
+      <c r="E502" t="n">
+        <v>100.9000015258789</v>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G502" t="n">
+        <v>101.1999969482422</v>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I502" t="inlineStr">
+        <is>
+          <t>10-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="J502" t="n">
+        <v>101.5999984741211</v>
+      </c>
+      <c r="K502" t="n">
+        <v>99</v>
+      </c>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>10/06/2024 08:53:23</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -6224,7 +6224,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7331,6 +7331,48 @@
       <c r="J26" t="inlineStr">
         <is>
           <t>10/06/2024 08:53:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45435.55208333334</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>10-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>RAJSREESUG.NS</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>45428.63541666666</v>
+      </c>
+      <c r="F27" t="n">
+        <v>61.29999923706055</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>45434.38541666666</v>
+      </c>
+      <c r="H27" t="n">
+        <v>61.40000152587891</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>10/06/2024 09:47:45</t>
         </is>
       </c>
     </row>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L120"/>
+  <dimension ref="A1:L126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6210,6 +6210,294 @@
       <c r="L120" t="inlineStr">
         <is>
           <t>10/06/2024 08:53:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>JSWSTEEL.NS</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="F121" t="n">
+        <v>895.75</v>
+      </c>
+      <c r="G121" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="H121" t="n">
+        <v>850</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>10/06/2024 14:03:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>TECHM.NS</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45187</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1320</v>
+      </c>
+      <c r="G122" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1416.300048828125</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>10/06/2024 14:03:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>PIDILITIND.NS</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>44816</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2918.949951171875</v>
+      </c>
+      <c r="G123" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="H123" t="n">
+        <v>2805</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>10/06/2024 14:03:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>IRB.NS</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="F124" t="n">
+        <v>72</v>
+      </c>
+      <c r="G124" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="H124" t="n">
+        <v>73.09999847412109</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>10/06/2024 14:03:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>JISLJALEQS.NS</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="F125" t="n">
+        <v>69.80000305175781</v>
+      </c>
+      <c r="G125" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="H125" t="n">
+        <v>73.44999694824219</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>10/06/2024 14:03:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>44319</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>43549</v>
+      </c>
+      <c r="F126" t="n">
+        <v>13.10999965667725</v>
+      </c>
+      <c r="G126" s="2" t="n">
+        <v>44200</v>
+      </c>
+      <c r="H126" t="n">
+        <v>12.52000045776367</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>10/06/2024 14:03:06</t>
         </is>
       </c>
     </row>
@@ -6224,7 +6512,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7373,6 +7661,48 @@
       <c r="J27" t="inlineStr">
         <is>
           <t>10/06/2024 09:47:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>BAJAJELEC.NS</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>45026</v>
+      </c>
+      <c r="F28" t="n">
+        <v>974.8753051757812</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="H28" t="n">
+        <v>975</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>10/06/2024 14:03:06</t>
         </is>
       </c>
     </row>
@@ -7387,7 +7717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L502"/>
+  <dimension ref="A1:L525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31505,6 +31835,1110 @@
         </is>
       </c>
     </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS</t>
+        </is>
+      </c>
+      <c r="B503" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C503" t="n">
+        <v>1352.599975585938</v>
+      </c>
+      <c r="D503" t="n">
+        <v>1161.150024414062</v>
+      </c>
+      <c r="E503" t="n">
+        <v>1309.699951171875</v>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G503" t="n">
+        <v>1352.599975585938</v>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I503" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J503" t="n">
+        <v>1369</v>
+      </c>
+      <c r="K503" t="n">
+        <v>1351</v>
+      </c>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>10/06/2024 14:03:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>ULTRACEMCO.NS</t>
+        </is>
+      </c>
+      <c r="B504" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="C504" t="n">
+        <v>10526</v>
+      </c>
+      <c r="D504" t="n">
+        <v>9969</v>
+      </c>
+      <c r="E504" t="n">
+        <v>10503.0498046875</v>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G504" t="n">
+        <v>10526</v>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I504" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J504" t="n">
+        <v>10907.9501953125</v>
+      </c>
+      <c r="K504" t="n">
+        <v>10519.7998046875</v>
+      </c>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>10/06/2024 14:03:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>CIPLA.NS</t>
+        </is>
+      </c>
+      <c r="B505" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C505" t="n">
+        <v>1519</v>
+      </c>
+      <c r="D505" t="n">
+        <v>1449</v>
+      </c>
+      <c r="E505" t="n">
+        <v>1488.050048828125</v>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G505" t="n">
+        <v>1519</v>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I505" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J505" t="n">
+        <v>1540.849975585938</v>
+      </c>
+      <c r="K505" t="n">
+        <v>1514</v>
+      </c>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>10/06/2024 14:03:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>SHREECEM.NS</t>
+        </is>
+      </c>
+      <c r="B506" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="C506" t="n">
+        <v>27298.94921875</v>
+      </c>
+      <c r="D506" t="n">
+        <v>25900</v>
+      </c>
+      <c r="E506" t="n">
+        <v>26084.650390625</v>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G506" t="n">
+        <v>27298.94921875</v>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I506" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J506" t="n">
+        <v>27450</v>
+      </c>
+      <c r="K506" t="n">
+        <v>26250</v>
+      </c>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>10/06/2024 14:03:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>SHREECEM.NS</t>
+        </is>
+      </c>
+      <c r="B507" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C507" t="n">
+        <v>26743.30078125</v>
+      </c>
+      <c r="D507" t="n">
+        <v>25699</v>
+      </c>
+      <c r="E507" t="n">
+        <v>25811.05078125</v>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G507" t="n">
+        <v>26743.30078125</v>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I507" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J507" t="n">
+        <v>27450</v>
+      </c>
+      <c r="K507" t="n">
+        <v>26250</v>
+      </c>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>10/06/2024 14:03:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>PGHH.NS</t>
+        </is>
+      </c>
+      <c r="B508" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="C508" t="n">
+        <v>17050.900390625</v>
+      </c>
+      <c r="D508" t="n">
+        <v>16111</v>
+      </c>
+      <c r="E508" t="n">
+        <v>16928.44921875</v>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G508" t="n">
+        <v>17050.900390625</v>
+      </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I508" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J508" t="n">
+        <v>17064.94921875</v>
+      </c>
+      <c r="K508" t="n">
+        <v>16947.19921875</v>
+      </c>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>10/06/2024 14:03:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>VBL.NS</t>
+        </is>
+      </c>
+      <c r="B509" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C509" t="n">
+        <v>1561.949951171875</v>
+      </c>
+      <c r="D509" t="n">
+        <v>1345</v>
+      </c>
+      <c r="E509" t="n">
+        <v>1417.849975585938</v>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G509" t="n">
+        <v>1561.949951171875</v>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I509" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J509" t="n">
+        <v>1593.699951171875</v>
+      </c>
+      <c r="K509" t="n">
+        <v>1528</v>
+      </c>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>10/06/2024 14:03:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>BAJAJCON.NS</t>
+        </is>
+      </c>
+      <c r="B510" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="C510" t="n">
+        <v>256</v>
+      </c>
+      <c r="D510" t="n">
+        <v>226.4499969482422</v>
+      </c>
+      <c r="E510" t="n">
+        <v>240</v>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G510" t="n">
+        <v>256</v>
+      </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I510" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J510" t="n">
+        <v>260.3999938964844</v>
+      </c>
+      <c r="K510" t="n">
+        <v>255.8999938964844</v>
+      </c>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>10/06/2024 14:03:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>MAHLOG.NS</t>
+        </is>
+      </c>
+      <c r="B511" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="C511" t="n">
+        <v>460</v>
+      </c>
+      <c r="D511" t="n">
+        <v>435</v>
+      </c>
+      <c r="E511" t="n">
+        <v>437.9500122070312</v>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G511" t="n">
+        <v>460</v>
+      </c>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I511" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J511" t="n">
+        <v>473.8999938964844</v>
+      </c>
+      <c r="K511" t="n">
+        <v>458.25</v>
+      </c>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>10/06/2024 14:03:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>APLAPOLLO.NS</t>
+        </is>
+      </c>
+      <c r="B512" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C512" t="n">
+        <v>1660</v>
+      </c>
+      <c r="D512" t="n">
+        <v>1440</v>
+      </c>
+      <c r="E512" t="n">
+        <v>1474.699951171875</v>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G512" t="n">
+        <v>1660</v>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I512" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J512" t="n">
+        <v>1667.5</v>
+      </c>
+      <c r="K512" t="n">
+        <v>1631.5</v>
+      </c>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>10/06/2024 14:03:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>JISLJALEQS.NS</t>
+        </is>
+      </c>
+      <c r="B513" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C513" t="n">
+        <v>69.80000305175781</v>
+      </c>
+      <c r="D513" t="n">
+        <v>61.59999847412109</v>
+      </c>
+      <c r="E513" t="n">
+        <v>65.90000152587891</v>
+      </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G513" t="n">
+        <v>69.80000305175781</v>
+      </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I513" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J513" t="n">
+        <v>76.34999847412109</v>
+      </c>
+      <c r="K513" t="n">
+        <v>67.69999694824219</v>
+      </c>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>10/06/2024 14:03:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>JISLJALEQS.NS</t>
+        </is>
+      </c>
+      <c r="B514" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="C514" t="n">
+        <v>73.44999694824219</v>
+      </c>
+      <c r="D514" t="n">
+        <v>67.05000305175781</v>
+      </c>
+      <c r="E514" t="n">
+        <v>71.19999694824219</v>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G514" t="n">
+        <v>73.44999694824219</v>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I514" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J514" t="n">
+        <v>76.34999847412109</v>
+      </c>
+      <c r="K514" t="n">
+        <v>67.69999694824219</v>
+      </c>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>10/06/2024 14:03:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>JISLJALEQS.NS</t>
+        </is>
+      </c>
+      <c r="B515" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C515" t="n">
+        <v>68.59999847412109</v>
+      </c>
+      <c r="D515" t="n">
+        <v>61.65000152587891</v>
+      </c>
+      <c r="E515" t="n">
+        <v>66.05000305175781</v>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G515" t="n">
+        <v>68.59999847412109</v>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I515" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J515" t="n">
+        <v>76.34999847412109</v>
+      </c>
+      <c r="K515" t="n">
+        <v>67.69999694824219</v>
+      </c>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>10/06/2024 14:03:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B516" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="C516" t="n">
+        <v>527.7999877929688</v>
+      </c>
+      <c r="D516" t="n">
+        <v>472.3999938964844</v>
+      </c>
+      <c r="E516" t="n">
+        <v>513</v>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G516" t="n">
+        <v>527.7999877929688</v>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I516" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J516" t="n">
+        <v>559</v>
+      </c>
+      <c r="K516" t="n">
+        <v>495</v>
+      </c>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>10/06/2024 14:03:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B517" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C517" t="n">
+        <v>522.2000122070312</v>
+      </c>
+      <c r="D517" t="n">
+        <v>464</v>
+      </c>
+      <c r="E517" t="n">
+        <v>491.9500122070312</v>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G517" t="n">
+        <v>522.2000122070312</v>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I517" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J517" t="n">
+        <v>559</v>
+      </c>
+      <c r="K517" t="n">
+        <v>495</v>
+      </c>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>10/06/2024 14:03:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B518" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C518" t="n">
+        <v>527</v>
+      </c>
+      <c r="D518" t="n">
+        <v>476.2000122070312</v>
+      </c>
+      <c r="E518" t="n">
+        <v>479.3999938964844</v>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G518" t="n">
+        <v>527</v>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I518" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J518" t="n">
+        <v>559</v>
+      </c>
+      <c r="K518" t="n">
+        <v>495</v>
+      </c>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>10/06/2024 14:03:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B519" s="2" t="n">
+        <v>45145</v>
+      </c>
+      <c r="C519" t="n">
+        <v>464.9500122070312</v>
+      </c>
+      <c r="D519" t="n">
+        <v>416.1499938964844</v>
+      </c>
+      <c r="E519" t="n">
+        <v>444.0499877929688</v>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G519" t="n">
+        <v>416.1499938964844</v>
+      </c>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I519" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J519" t="n">
+        <v>402.7999877929688</v>
+      </c>
+      <c r="K519" t="n">
+        <v>441.8500061035156</v>
+      </c>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>10/06/2024 14:03:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B520" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="C520" t="n">
+        <v>457.1000061035156</v>
+      </c>
+      <c r="D520" t="n">
+        <v>425</v>
+      </c>
+      <c r="E520" t="n">
+        <v>444.6000061035156</v>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G520" t="n">
+        <v>425</v>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I520" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J520" t="n">
+        <v>402.7999877929688</v>
+      </c>
+      <c r="K520" t="n">
+        <v>441.8500061035156</v>
+      </c>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>10/06/2024 14:03:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B521" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="C521" t="n">
+        <v>480.9500122070312</v>
+      </c>
+      <c r="D521" t="n">
+        <v>413.4500122070312</v>
+      </c>
+      <c r="E521" t="n">
+        <v>450.75</v>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G521" t="n">
+        <v>413.4500122070312</v>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I521" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J521" t="n">
+        <v>402.7999877929688</v>
+      </c>
+      <c r="K521" t="n">
+        <v>441.8500061035156</v>
+      </c>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>10/06/2024 14:03:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>PREMEXPLN.NS</t>
+        </is>
+      </c>
+      <c r="B522" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C522" t="n">
+        <v>2780</v>
+      </c>
+      <c r="D522" t="n">
+        <v>2326.64990234375</v>
+      </c>
+      <c r="E522" t="n">
+        <v>2431.25</v>
+      </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G522" t="n">
+        <v>2780</v>
+      </c>
+      <c r="H522" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I522" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J522" t="n">
+        <v>3045.449951171875</v>
+      </c>
+      <c r="K522" t="n">
+        <v>2688</v>
+      </c>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>10/06/2024 14:03:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>TATACOMM.NS</t>
+        </is>
+      </c>
+      <c r="B523" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="C523" t="n">
+        <v>1842</v>
+      </c>
+      <c r="D523" t="n">
+        <v>1688.050048828125</v>
+      </c>
+      <c r="E523" t="n">
+        <v>1730.150024414062</v>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G523" t="n">
+        <v>1842</v>
+      </c>
+      <c r="H523" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I523" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J523" t="n">
+        <v>1877.599975585938</v>
+      </c>
+      <c r="K523" t="n">
+        <v>1821.400024414062</v>
+      </c>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>10/06/2024 14:03:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>JKPAPER.NS</t>
+        </is>
+      </c>
+      <c r="B524" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="C524" t="n">
+        <v>415.2999877929688</v>
+      </c>
+      <c r="D524" t="n">
+        <v>391</v>
+      </c>
+      <c r="E524" t="n">
+        <v>400.25</v>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G524" t="n">
+        <v>415.2999877929688</v>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I524" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J524" t="n">
+        <v>429</v>
+      </c>
+      <c r="K524" t="n">
+        <v>407.5499877929688</v>
+      </c>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>10/06/2024 14:03:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>HTMEDIA.NS</t>
+        </is>
+      </c>
+      <c r="B525" s="2" t="n">
+        <v>45124</v>
+      </c>
+      <c r="C525" t="n">
+        <v>26.29999923706055</v>
+      </c>
+      <c r="D525" t="n">
+        <v>20.85000038146973</v>
+      </c>
+      <c r="E525" t="n">
+        <v>24.35000038146973</v>
+      </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G525" t="n">
+        <v>26.29999923706055</v>
+      </c>
+      <c r="H525" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I525" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J525" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="K525" t="n">
+        <v>26.29999923706055</v>
+      </c>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>10/06/2024 14:03:06</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L193"/>
+  <dimension ref="A1:L198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9714,6 +9714,246 @@
       <c r="L193" t="inlineStr">
         <is>
           <t>11/06/2024 02:46:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>45441.55208333334</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>11-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>TATASTEEL.NS</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>45415.38541666666</v>
+      </c>
+      <c r="F194" t="n">
+        <v>170.75</v>
+      </c>
+      <c r="G194" s="2" t="n">
+        <v>45434.38541666666</v>
+      </c>
+      <c r="H194" t="n">
+        <v>175.4499969482422</v>
+      </c>
+      <c r="I194" s="2" t="n">
+        <v>45440.38541666666</v>
+      </c>
+      <c r="J194" t="n">
+        <v>177.5</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>11/06/2024 04:47:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>45441.55208333334</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>11-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>TATASTEEL.NS</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>45415.38541666666</v>
+      </c>
+      <c r="F195" t="n">
+        <v>170.75</v>
+      </c>
+      <c r="G195" s="2" t="n">
+        <v>45436.38541666666</v>
+      </c>
+      <c r="H195" t="n">
+        <v>177.5500030517578</v>
+      </c>
+      <c r="I195" s="2" t="n">
+        <v>45440.38541666666</v>
+      </c>
+      <c r="J195" t="n">
+        <v>177.5</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>11/06/2024 04:47:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>45447.55208333334</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>11-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>DHAMPURSUG.NS</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>45436.38541666666</v>
+      </c>
+      <c r="F196" t="n">
+        <v>225</v>
+      </c>
+      <c r="G196" s="2" t="n">
+        <v>45439.38541666666</v>
+      </c>
+      <c r="H196" t="n">
+        <v>225</v>
+      </c>
+      <c r="I196" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="J196" t="n">
+        <v>225.25</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>11/06/2024 04:47:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>45419.55208333334</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>11-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>JKIL.NS</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>45394.38541666666</v>
+      </c>
+      <c r="F197" t="n">
+        <v>644.5999755859375</v>
+      </c>
+      <c r="G197" s="2" t="n">
+        <v>45411.59375</v>
+      </c>
+      <c r="H197" t="n">
+        <v>690.2999877929688</v>
+      </c>
+      <c r="I197" s="2" t="n">
+        <v>45418.38541666666</v>
+      </c>
+      <c r="J197" t="n">
+        <v>704.75</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>11/06/2024 04:47:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>45408.38541666666</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>11-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>ANDHRAPET.BO</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>45377.38541666666</v>
+      </c>
+      <c r="F198" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="G198" s="2" t="n">
+        <v>45386.38541666666</v>
+      </c>
+      <c r="H198" t="n">
+        <v>91.94999694824219</v>
+      </c>
+      <c r="I198" s="2" t="n">
+        <v>45394.38541666666</v>
+      </c>
+      <c r="J198" t="n">
+        <v>94.90000152587891</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>11/06/2024 04:47:04</t>
         </is>
       </c>
     </row>
@@ -9728,7 +9968,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11213,6 +11453,90 @@
       <c r="J35" t="inlineStr">
         <is>
           <t>11/06/2024 02:46:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45447.55208333334</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>11-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>KOTAKBANK.NS</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45433.38541666666</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1714.900024414062</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1726.449951171875</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>11/06/2024 04:47:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45439.55208333334</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>11-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>DLF.NS</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45429.46875</v>
+      </c>
+      <c r="F37" t="n">
+        <v>859.5</v>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>45434.38541666666</v>
+      </c>
+      <c r="H37" t="n">
+        <v>860</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>11/06/2024 04:47:04</t>
         </is>
       </c>
     </row>
@@ -11227,7 +11551,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L683"/>
+  <dimension ref="A1:L695"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44033,6 +44357,582 @@
         </is>
       </c>
     </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>HERCULES.NS</t>
+        </is>
+      </c>
+      <c r="B684" s="2" t="n">
+        <v>45450.42708333334</v>
+      </c>
+      <c r="C684" t="n">
+        <v>493.3999938964844</v>
+      </c>
+      <c r="D684" t="n">
+        <v>463.75</v>
+      </c>
+      <c r="E684" t="n">
+        <v>480.2000122070312</v>
+      </c>
+      <c r="F684" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G684" t="n">
+        <v>493.3999938964844</v>
+      </c>
+      <c r="H684" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I684" t="inlineStr">
+        <is>
+          <t>11-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J684" t="n">
+        <v>497</v>
+      </c>
+      <c r="K684" t="n">
+        <v>491.5</v>
+      </c>
+      <c r="L684" t="inlineStr">
+        <is>
+          <t>11/06/2024 04:47:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>ARTSONEN.BO</t>
+        </is>
+      </c>
+      <c r="B685" s="2" t="n">
+        <v>45439.46875</v>
+      </c>
+      <c r="C685" t="n">
+        <v>189.3999938964844</v>
+      </c>
+      <c r="D685" t="n">
+        <v>189.3000030517578</v>
+      </c>
+      <c r="E685" t="n">
+        <v>189.3999938964844</v>
+      </c>
+      <c r="F685" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G685" t="n">
+        <v>189.3999938964844</v>
+      </c>
+      <c r="H685" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I685" t="inlineStr">
+        <is>
+          <t>11-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J685" t="n">
+        <v>193.3000030517578</v>
+      </c>
+      <c r="K685" t="n">
+        <v>184.6000061035156</v>
+      </c>
+      <c r="L685" t="inlineStr">
+        <is>
+          <t>11/06/2024 04:47:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>ARTSONEN.BO</t>
+        </is>
+      </c>
+      <c r="B686" s="2" t="n">
+        <v>45439.51041666666</v>
+      </c>
+      <c r="C686" t="n">
+        <v>189.3999938964844</v>
+      </c>
+      <c r="D686" t="n">
+        <v>185.4499969482422</v>
+      </c>
+      <c r="E686" t="n">
+        <v>185.4499969482422</v>
+      </c>
+      <c r="F686" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G686" t="n">
+        <v>189.3999938964844</v>
+      </c>
+      <c r="H686" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I686" t="inlineStr">
+        <is>
+          <t>11-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J686" t="n">
+        <v>193.3000030517578</v>
+      </c>
+      <c r="K686" t="n">
+        <v>184.6000061035156</v>
+      </c>
+      <c r="L686" t="inlineStr">
+        <is>
+          <t>11/06/2024 04:47:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>ARTSONEN.BO</t>
+        </is>
+      </c>
+      <c r="B687" s="2" t="n">
+        <v>45439.55208333334</v>
+      </c>
+      <c r="C687" t="n">
+        <v>189.3999938964844</v>
+      </c>
+      <c r="D687" t="n">
+        <v>185</v>
+      </c>
+      <c r="E687" t="n">
+        <v>188</v>
+      </c>
+      <c r="F687" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G687" t="n">
+        <v>189.3999938964844</v>
+      </c>
+      <c r="H687" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I687" t="inlineStr">
+        <is>
+          <t>11-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J687" t="n">
+        <v>193.3000030517578</v>
+      </c>
+      <c r="K687" t="n">
+        <v>184.6000061035156</v>
+      </c>
+      <c r="L687" t="inlineStr">
+        <is>
+          <t>11/06/2024 04:47:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>TRIL.BO</t>
+        </is>
+      </c>
+      <c r="B688" s="2" t="n">
+        <v>45449.38541666666</v>
+      </c>
+      <c r="C688" t="n">
+        <v>750</v>
+      </c>
+      <c r="D688" t="n">
+        <v>700</v>
+      </c>
+      <c r="E688" t="n">
+        <v>722</v>
+      </c>
+      <c r="F688" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G688" t="n">
+        <v>750</v>
+      </c>
+      <c r="H688" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I688" t="inlineStr">
+        <is>
+          <t>11-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J688" t="n">
+        <v>769.1500244140625</v>
+      </c>
+      <c r="K688" t="n">
+        <v>735</v>
+      </c>
+      <c r="L688" t="inlineStr">
+        <is>
+          <t>11/06/2024 04:47:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>TRIL.BO</t>
+        </is>
+      </c>
+      <c r="B689" s="2" t="n">
+        <v>45449.42708333334</v>
+      </c>
+      <c r="C689" t="n">
+        <v>750</v>
+      </c>
+      <c r="D689" t="n">
+        <v>728</v>
+      </c>
+      <c r="E689" t="n">
+        <v>740</v>
+      </c>
+      <c r="F689" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G689" t="n">
+        <v>750</v>
+      </c>
+      <c r="H689" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I689" t="inlineStr">
+        <is>
+          <t>11-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J689" t="n">
+        <v>769.1500244140625</v>
+      </c>
+      <c r="K689" t="n">
+        <v>735</v>
+      </c>
+      <c r="L689" t="inlineStr">
+        <is>
+          <t>11/06/2024 04:47:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>ASMTEC.BO</t>
+        </is>
+      </c>
+      <c r="B690" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="C690" t="n">
+        <v>1100.400024414062</v>
+      </c>
+      <c r="D690" t="n">
+        <v>1075</v>
+      </c>
+      <c r="E690" t="n">
+        <v>1100.400024414062</v>
+      </c>
+      <c r="F690" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G690" t="n">
+        <v>1100.400024414062</v>
+      </c>
+      <c r="H690" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I690" t="inlineStr">
+        <is>
+          <t>11-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J690" t="n">
+        <v>1141.75</v>
+      </c>
+      <c r="K690" t="n">
+        <v>1087.400024414062</v>
+      </c>
+      <c r="L690" t="inlineStr">
+        <is>
+          <t>11/06/2024 04:47:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>SPELS.BO</t>
+        </is>
+      </c>
+      <c r="B691" s="2" t="n">
+        <v>45434.42708333334</v>
+      </c>
+      <c r="C691" t="n">
+        <v>141.6999969482422</v>
+      </c>
+      <c r="D691" t="n">
+        <v>141.6999969482422</v>
+      </c>
+      <c r="E691" t="n">
+        <v>141.6999969482422</v>
+      </c>
+      <c r="F691" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G691" t="n">
+        <v>141.6999969482422</v>
+      </c>
+      <c r="H691" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I691" t="inlineStr">
+        <is>
+          <t>11-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J691" t="n">
+        <v>143.8000030517578</v>
+      </c>
+      <c r="K691" t="n">
+        <v>139.6499938964844</v>
+      </c>
+      <c r="L691" t="inlineStr">
+        <is>
+          <t>11/06/2024 04:47:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>SPELS.BO</t>
+        </is>
+      </c>
+      <c r="B692" s="2" t="n">
+        <v>45434.46875</v>
+      </c>
+      <c r="C692" t="n">
+        <v>141.6999969482422</v>
+      </c>
+      <c r="D692" t="n">
+        <v>141.6999969482422</v>
+      </c>
+      <c r="E692" t="n">
+        <v>141.6999969482422</v>
+      </c>
+      <c r="F692" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G692" t="n">
+        <v>141.6999969482422</v>
+      </c>
+      <c r="H692" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I692" t="inlineStr">
+        <is>
+          <t>11-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J692" t="n">
+        <v>143.8000030517578</v>
+      </c>
+      <c r="K692" t="n">
+        <v>139.6499938964844</v>
+      </c>
+      <c r="L692" t="inlineStr">
+        <is>
+          <t>11/06/2024 04:47:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>CENTRALBK.BO</t>
+        </is>
+      </c>
+      <c r="B693" s="2" t="n">
+        <v>45440.51041666666</v>
+      </c>
+      <c r="C693" t="n">
+        <v>65.98999786376953</v>
+      </c>
+      <c r="D693" t="n">
+        <v>63.90000152587891</v>
+      </c>
+      <c r="E693" t="n">
+        <v>65.37999725341797</v>
+      </c>
+      <c r="F693" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G693" t="n">
+        <v>63.90000152587891</v>
+      </c>
+      <c r="H693" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I693" t="inlineStr">
+        <is>
+          <t>11-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J693" t="n">
+        <v>63.47999954223633</v>
+      </c>
+      <c r="K693" t="n">
+        <v>64</v>
+      </c>
+      <c r="L693" t="inlineStr">
+        <is>
+          <t>11/06/2024 04:47:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>RPEL.BO</t>
+        </is>
+      </c>
+      <c r="B694" s="2" t="n">
+        <v>45439.38541666666</v>
+      </c>
+      <c r="C694" t="n">
+        <v>695.9000244140625</v>
+      </c>
+      <c r="D694" t="n">
+        <v>672</v>
+      </c>
+      <c r="E694" t="n">
+        <v>686</v>
+      </c>
+      <c r="F694" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G694" t="n">
+        <v>672</v>
+      </c>
+      <c r="H694" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I694" t="inlineStr">
+        <is>
+          <t>11-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J694" t="n">
+        <v>671.1500244140625</v>
+      </c>
+      <c r="K694" t="n">
+        <v>672.0999755859375</v>
+      </c>
+      <c r="L694" t="inlineStr">
+        <is>
+          <t>11/06/2024 04:47:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>UNIAUTO.BO</t>
+        </is>
+      </c>
+      <c r="B695" s="2" t="n">
+        <v>45433.38541666666</v>
+      </c>
+      <c r="C695" t="n">
+        <v>168.3999938964844</v>
+      </c>
+      <c r="D695" t="n">
+        <v>163</v>
+      </c>
+      <c r="E695" t="n">
+        <v>163</v>
+      </c>
+      <c r="F695" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G695" t="n">
+        <v>168.3999938964844</v>
+      </c>
+      <c r="H695" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I695" t="inlineStr">
+        <is>
+          <t>11-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J695" t="n">
+        <v>171.9499969482422</v>
+      </c>
+      <c r="K695" t="n">
+        <v>167.8500061035156</v>
+      </c>
+      <c r="L695" t="inlineStr">
+        <is>
+          <t>11/06/2024 04:47:04</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L198"/>
+  <dimension ref="A1:L204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9954,6 +9954,294 @@
       <c r="L198" t="inlineStr">
         <is>
           <t>11/06/2024 04:47:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45439.55208333334</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>11-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>TATASTEEL.NS</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>45408.38541666666</v>
+      </c>
+      <c r="F199" t="n">
+        <v>170.6999969482422</v>
+      </c>
+      <c r="G199" s="2" t="n">
+        <v>45434.38541666666</v>
+      </c>
+      <c r="H199" t="n">
+        <v>175.4499969482422</v>
+      </c>
+      <c r="I199" s="2" t="n">
+        <v>45436.38541666666</v>
+      </c>
+      <c r="J199" t="n">
+        <v>177.5500030517578</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>11/06/2024 05:47:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45441.55208333334</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>11-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>TATASTEEL.NS</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>45415.38541666666</v>
+      </c>
+      <c r="F200" t="n">
+        <v>170.75</v>
+      </c>
+      <c r="G200" s="2" t="n">
+        <v>45434.38541666666</v>
+      </c>
+      <c r="H200" t="n">
+        <v>175.4499969482422</v>
+      </c>
+      <c r="I200" s="2" t="n">
+        <v>45440.38541666666</v>
+      </c>
+      <c r="J200" t="n">
+        <v>177.5</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>11/06/2024 05:47:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45441.55208333334</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>11-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>TATASTEEL.NS</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>45415.38541666666</v>
+      </c>
+      <c r="F201" t="n">
+        <v>170.75</v>
+      </c>
+      <c r="G201" s="2" t="n">
+        <v>45436.38541666666</v>
+      </c>
+      <c r="H201" t="n">
+        <v>177.5500030517578</v>
+      </c>
+      <c r="I201" s="2" t="n">
+        <v>45440.38541666666</v>
+      </c>
+      <c r="J201" t="n">
+        <v>177.5</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>11/06/2024 05:47:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>45447.55208333334</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>11-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>MHRIL.NS</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>45433.38541666666</v>
+      </c>
+      <c r="F202" t="n">
+        <v>412.7999877929688</v>
+      </c>
+      <c r="G202" s="2" t="n">
+        <v>45435.63541666666</v>
+      </c>
+      <c r="H202" t="n">
+        <v>412</v>
+      </c>
+      <c r="I202" s="2" t="n">
+        <v>45442.46875</v>
+      </c>
+      <c r="J202" t="n">
+        <v>409.75</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>11/06/2024 05:47:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>45447.55208333334</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>11-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>MHRIL.NS</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>45433.38541666666</v>
+      </c>
+      <c r="F203" t="n">
+        <v>412.7999877929688</v>
+      </c>
+      <c r="G203" s="2" t="n">
+        <v>45442.42708333334</v>
+      </c>
+      <c r="H203" t="n">
+        <v>409.75</v>
+      </c>
+      <c r="I203" s="2" t="n">
+        <v>45442.46875</v>
+      </c>
+      <c r="J203" t="n">
+        <v>409.75</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>11/06/2024 05:47:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>45436.55208333334</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>11-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>RAJSREESUG.NS</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>45420.55208333334</v>
+      </c>
+      <c r="F204" t="n">
+        <v>65.25</v>
+      </c>
+      <c r="G204" s="2" t="n">
+        <v>45433.38541666666</v>
+      </c>
+      <c r="H204" t="n">
+        <v>64.80000305175781</v>
+      </c>
+      <c r="I204" s="2" t="n">
+        <v>45435.38541666666</v>
+      </c>
+      <c r="J204" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>11/06/2024 05:47:02</t>
         </is>
       </c>
     </row>
@@ -9968,7 +10256,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11537,6 +11825,216 @@
       <c r="J37" t="inlineStr">
         <is>
           <t>11/06/2024 04:47:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45450.63541666666</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>11-06-2024 11:15:00</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>SHRIRAMFIN.NS</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2544.10009765625</v>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>45449.46875</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2535</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>11/06/2024 05:47:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45453.42708333334</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>11-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>ARTSONEN.BO</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45439.51041666666</v>
+      </c>
+      <c r="F39" t="n">
+        <v>189.3999938964844</v>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>45439.55208333334</v>
+      </c>
+      <c r="H39" t="n">
+        <v>189.3999938964844</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>11/06/2024 05:47:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45453.42708333334</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>11-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>ARTSONEN.BO</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45439.46875</v>
+      </c>
+      <c r="F40" t="n">
+        <v>189.3999938964844</v>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>45439.55208333334</v>
+      </c>
+      <c r="H40" t="n">
+        <v>189.3999938964844</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>11/06/2024 05:47:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45433.42708333334</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>11-06-2024 11:15:00</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>GREAVESCOT.NS</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45425.38541666666</v>
+      </c>
+      <c r="F41" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>45425.42708333334</v>
+      </c>
+      <c r="H41" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>11/06/2024 05:47:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45434.55208333334</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>11-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>XPROINDIA.NS</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45422.42708333334</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1039.699951171875</v>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>45433.38541666666</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1035.650024414062</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>11/06/2024 05:47:02</t>
         </is>
       </c>
     </row>
@@ -11551,7 +12049,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L695"/>
+  <dimension ref="A1:L698"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44933,6 +45431,150 @@
         </is>
       </c>
     </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>BGRENERGY.NS</t>
+        </is>
+      </c>
+      <c r="B696" s="2" t="n">
+        <v>45446.51041666666</v>
+      </c>
+      <c r="C696" t="n">
+        <v>40.29999923706055</v>
+      </c>
+      <c r="D696" t="n">
+        <v>40.29999923706055</v>
+      </c>
+      <c r="E696" t="n">
+        <v>40.29999923706055</v>
+      </c>
+      <c r="F696" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G696" t="n">
+        <v>40.29999923706055</v>
+      </c>
+      <c r="H696" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I696" t="inlineStr">
+        <is>
+          <t>11-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="J696" t="n">
+        <v>40.77000045776367</v>
+      </c>
+      <c r="K696" t="n">
+        <v>40</v>
+      </c>
+      <c r="L696" t="inlineStr">
+        <is>
+          <t>11/06/2024 05:47:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>BGRENERGY.NS</t>
+        </is>
+      </c>
+      <c r="B697" s="2" t="n">
+        <v>45446.55208333334</v>
+      </c>
+      <c r="C697" t="n">
+        <v>40.29999923706055</v>
+      </c>
+      <c r="D697" t="n">
+        <v>40.29999923706055</v>
+      </c>
+      <c r="E697" t="n">
+        <v>40.29999923706055</v>
+      </c>
+      <c r="F697" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G697" t="n">
+        <v>40.29999923706055</v>
+      </c>
+      <c r="H697" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I697" t="inlineStr">
+        <is>
+          <t>11-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="J697" t="n">
+        <v>40.77000045776367</v>
+      </c>
+      <c r="K697" t="n">
+        <v>40</v>
+      </c>
+      <c r="L697" t="inlineStr">
+        <is>
+          <t>11/06/2024 05:47:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>BGRENERGY.NS</t>
+        </is>
+      </c>
+      <c r="B698" s="2" t="n">
+        <v>45446.63541666666</v>
+      </c>
+      <c r="C698" t="n">
+        <v>40.29999923706055</v>
+      </c>
+      <c r="D698" t="n">
+        <v>40.29999923706055</v>
+      </c>
+      <c r="E698" t="n">
+        <v>40.29999923706055</v>
+      </c>
+      <c r="F698" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G698" t="n">
+        <v>40.29999923706055</v>
+      </c>
+      <c r="H698" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I698" t="inlineStr">
+        <is>
+          <t>11-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="J698" t="n">
+        <v>40.77000045776367</v>
+      </c>
+      <c r="K698" t="n">
+        <v>40</v>
+      </c>
+      <c r="L698" t="inlineStr">
+        <is>
+          <t>11/06/2024 05:47:02</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L204"/>
+  <dimension ref="A1:L205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10242,6 +10242,54 @@
       <c r="L204" t="inlineStr">
         <is>
           <t>11/06/2024 05:47:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>45440.59375</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>11-06-2024 12:15:00</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>RAIN.NS</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>45408.46875</v>
+      </c>
+      <c r="F205" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="G205" s="2" t="n">
+        <v>45434.42708333334</v>
+      </c>
+      <c r="H205" t="n">
+        <v>174.75</v>
+      </c>
+      <c r="I205" s="2" t="n">
+        <v>45439.42708333334</v>
+      </c>
+      <c r="J205" t="n">
+        <v>173.6499938964844</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>11/06/2024 06:47:46</t>
         </is>
       </c>
     </row>
@@ -10256,7 +10304,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12035,6 +12083,90 @@
       <c r="J42" t="inlineStr">
         <is>
           <t>11/06/2024 05:47:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45448.46875</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>11-06-2024 12:15:00</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>BALRAMCHIN.NS</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45439.38541666666</v>
+      </c>
+      <c r="F43" t="n">
+        <v>392.25</v>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>45446.59375</v>
+      </c>
+      <c r="H43" t="n">
+        <v>394.8999938964844</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>11/06/2024 06:47:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45442.55208333334</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>11-06-2024 12:15:00</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>BUTTERFLY.NS</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45428.38541666666</v>
+      </c>
+      <c r="F44" t="n">
+        <v>748.6500244140625</v>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>45441.38541666666</v>
+      </c>
+      <c r="H44" t="n">
+        <v>750</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>11/06/2024 06:47:46</t>
         </is>
       </c>
     </row>
@@ -12049,7 +12181,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L698"/>
+  <dimension ref="A1:L699"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45575,6 +45707,54 @@
         </is>
       </c>
     </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>ATGL.NS</t>
+        </is>
+      </c>
+      <c r="B699" s="2" t="n">
+        <v>45433.51041666666</v>
+      </c>
+      <c r="C699" t="n">
+        <v>962.9500122070312</v>
+      </c>
+      <c r="D699" t="n">
+        <v>942.0999755859375</v>
+      </c>
+      <c r="E699" t="n">
+        <v>945.9500122070312</v>
+      </c>
+      <c r="F699" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G699" t="n">
+        <v>962.9500122070312</v>
+      </c>
+      <c r="H699" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I699" t="inlineStr">
+        <is>
+          <t>11-06-2024 12:15:00</t>
+        </is>
+      </c>
+      <c r="J699" t="n">
+        <v>964</v>
+      </c>
+      <c r="K699" t="n">
+        <v>962.7000122070312</v>
+      </c>
+      <c r="L699" t="inlineStr">
+        <is>
+          <t>11/06/2024 06:47:46</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L205"/>
+  <dimension ref="A1:L207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10290,6 +10290,102 @@
       <c r="L205" t="inlineStr">
         <is>
           <t>11/06/2024 06:47:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>45448.46875</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>11-06-2024 12:15:00</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>DALBHARAT.NS</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>45412.59375</v>
+      </c>
+      <c r="F206" t="n">
+        <v>1850</v>
+      </c>
+      <c r="G206" s="2" t="n">
+        <v>45433.38541666666</v>
+      </c>
+      <c r="H206" t="n">
+        <v>1858</v>
+      </c>
+      <c r="I206" s="2" t="n">
+        <v>45446.59375</v>
+      </c>
+      <c r="J206" t="n">
+        <v>1882</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>11/06/2024 07:46:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>45447.55208333334</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>11-06-2024 12:15:00</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>MCX.NS</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>45427.38541666666</v>
+      </c>
+      <c r="F207" t="n">
+        <v>3963.39990234375</v>
+      </c>
+      <c r="G207" s="2" t="n">
+        <v>45440.38541666666</v>
+      </c>
+      <c r="H207" t="n">
+        <v>3882.949951171875</v>
+      </c>
+      <c r="I207" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="J207" t="n">
+        <v>3808.14990234375</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>11/06/2024 07:46:47</t>
         </is>
       </c>
     </row>
@@ -10304,7 +10400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12167,6 +12263,174 @@
       <c r="J44" t="inlineStr">
         <is>
           <t>11/06/2024 06:47:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45415.55208333334</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>11-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>LICI.NS</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45406.38541666666</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1009.900024414062</v>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>45414.38541666666</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1009.5</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>11/06/2024 07:46:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45421.51041666666</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>11-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>SYRMA.NS</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45407.63541666666</v>
+      </c>
+      <c r="F46" t="n">
+        <v>473.1000061035156</v>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>45419.63541666666</v>
+      </c>
+      <c r="H46" t="n">
+        <v>473</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>11/06/2024 07:46:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45435.59375</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>11-06-2024 12:15:00</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>HERCULES.NS</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45420.55208333334</v>
+      </c>
+      <c r="F47" t="n">
+        <v>495.75</v>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>45434.42708333334</v>
+      </c>
+      <c r="H47" t="n">
+        <v>496.9500122070312</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>11/06/2024 07:46:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45447.55208333334</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>11-06-2024 12:15:00</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>ADFFOODS.NS</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45441.42708333334</v>
+      </c>
+      <c r="F48" t="n">
+        <v>226.8000030517578</v>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="H48" t="n">
+        <v>227.25</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>11/06/2024 07:46:47</t>
         </is>
       </c>
     </row>
@@ -12181,7 +12445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L699"/>
+  <dimension ref="A1:L700"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45755,6 +46019,54 @@
         </is>
       </c>
     </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>ZOMATO.NS</t>
+        </is>
+      </c>
+      <c r="B700" s="2" t="n">
+        <v>45441.42708333334</v>
+      </c>
+      <c r="C700" t="n">
+        <v>185.3999938964844</v>
+      </c>
+      <c r="D700" t="n">
+        <v>183.3000030517578</v>
+      </c>
+      <c r="E700" t="n">
+        <v>184.3999938964844</v>
+      </c>
+      <c r="F700" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G700" t="n">
+        <v>185.3999938964844</v>
+      </c>
+      <c r="H700" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I700" t="inlineStr">
+        <is>
+          <t>11-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="J700" t="n">
+        <v>185.6900024414062</v>
+      </c>
+      <c r="K700" t="n">
+        <v>185.2599945068359</v>
+      </c>
+      <c r="L700" t="inlineStr">
+        <is>
+          <t>11/06/2024 07:46:47</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L207"/>
+  <dimension ref="A1:L210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10386,6 +10386,150 @@
       <c r="L207" t="inlineStr">
         <is>
           <t>11/06/2024 07:46:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>45419.55208333334</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>11-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>PRAJIND.NS</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>45392.38541666666</v>
+      </c>
+      <c r="F208" t="n">
+        <v>531.4500122070312</v>
+      </c>
+      <c r="G208" s="2" t="n">
+        <v>45412.38541666666</v>
+      </c>
+      <c r="H208" t="n">
+        <v>556.4500122070312</v>
+      </c>
+      <c r="I208" s="2" t="n">
+        <v>45418.38541666666</v>
+      </c>
+      <c r="J208" t="n">
+        <v>560.3499755859375</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>11/06/2024 08:47:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>45435.46875</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>11-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>UGARSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>45426.38541666666</v>
+      </c>
+      <c r="F209" t="n">
+        <v>77</v>
+      </c>
+      <c r="G209" s="2" t="n">
+        <v>45427.38541666666</v>
+      </c>
+      <c r="H209" t="n">
+        <v>77</v>
+      </c>
+      <c r="I209" s="2" t="n">
+        <v>45433.59375</v>
+      </c>
+      <c r="J209" t="n">
+        <v>76.94999694824219</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>11/06/2024 08:47:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>11-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>SHANKARA.NS</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>45433.42708333334</v>
+      </c>
+      <c r="F210" t="n">
+        <v>715</v>
+      </c>
+      <c r="G210" s="2" t="n">
+        <v>45433.46875</v>
+      </c>
+      <c r="H210" t="n">
+        <v>715</v>
+      </c>
+      <c r="I210" s="2" t="n">
+        <v>45442.51041666666</v>
+      </c>
+      <c r="J210" t="n">
+        <v>712.5</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>11/06/2024 08:47:02</t>
         </is>
       </c>
     </row>
@@ -10400,7 +10544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12431,6 +12575,132 @@
       <c r="J48" t="inlineStr">
         <is>
           <t>11/06/2024 07:46:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45439.59375</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>11-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>HDFCLIFE.NS</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45429.59375</v>
+      </c>
+      <c r="F49" t="n">
+        <v>572</v>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>45436.42708333334</v>
+      </c>
+      <c r="H49" t="n">
+        <v>571.7000122070312</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>11/06/2024 08:47:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45447.55208333334</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>11-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>ADFFOODS.NS</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45441.42708333334</v>
+      </c>
+      <c r="F50" t="n">
+        <v>226.8000030517578</v>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="H50" t="n">
+        <v>227.25</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>11/06/2024 08:47:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45434.55208333334</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>11-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>XPROINDIA.NS</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45422.42708333334</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1039.699951171875</v>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>45433.38541666666</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1035.650024414062</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>11/06/2024 08:47:02</t>
         </is>
       </c>
     </row>
@@ -12445,7 +12715,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L700"/>
+  <dimension ref="A1:L704"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46067,6 +46337,198 @@
         </is>
       </c>
     </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>MUKANDLTD.NS</t>
+        </is>
+      </c>
+      <c r="B701" s="2" t="n">
+        <v>45436.59375</v>
+      </c>
+      <c r="C701" t="n">
+        <v>159.75</v>
+      </c>
+      <c r="D701" t="n">
+        <v>157.9499969482422</v>
+      </c>
+      <c r="E701" t="n">
+        <v>159</v>
+      </c>
+      <c r="F701" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G701" t="n">
+        <v>159.75</v>
+      </c>
+      <c r="H701" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I701" t="inlineStr">
+        <is>
+          <t>11-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="J701" t="n">
+        <v>160</v>
+      </c>
+      <c r="K701" t="n">
+        <v>159.1199951171875</v>
+      </c>
+      <c r="L701" t="inlineStr">
+        <is>
+          <t>11/06/2024 08:47:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>ZFCVINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B702" s="2" t="n">
+        <v>45440.63541666666</v>
+      </c>
+      <c r="C702" t="n">
+        <v>17452.69921875</v>
+      </c>
+      <c r="D702" t="n">
+        <v>16900</v>
+      </c>
+      <c r="E702" t="n">
+        <v>16986</v>
+      </c>
+      <c r="F702" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G702" t="n">
+        <v>17452.69921875</v>
+      </c>
+      <c r="H702" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I702" t="inlineStr">
+        <is>
+          <t>11-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="J702" t="n">
+        <v>17667.75</v>
+      </c>
+      <c r="K702" t="n">
+        <v>17399.5</v>
+      </c>
+      <c r="L702" t="inlineStr">
+        <is>
+          <t>11/06/2024 08:47:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>ZFCVINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B703" s="2" t="n">
+        <v>45450.42708333334</v>
+      </c>
+      <c r="C703" t="n">
+        <v>17400</v>
+      </c>
+      <c r="D703" t="n">
+        <v>16861.44921875</v>
+      </c>
+      <c r="E703" t="n">
+        <v>17368.099609375</v>
+      </c>
+      <c r="F703" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G703" t="n">
+        <v>17400</v>
+      </c>
+      <c r="H703" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I703" t="inlineStr">
+        <is>
+          <t>11-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="J703" t="n">
+        <v>17667.75</v>
+      </c>
+      <c r="K703" t="n">
+        <v>17399.5</v>
+      </c>
+      <c r="L703" t="inlineStr">
+        <is>
+          <t>11/06/2024 08:47:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>SIKA.BO</t>
+        </is>
+      </c>
+      <c r="B704" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="C704" t="n">
+        <v>2684.35009765625</v>
+      </c>
+      <c r="D704" t="n">
+        <v>2590</v>
+      </c>
+      <c r="E704" t="n">
+        <v>2679.949951171875</v>
+      </c>
+      <c r="F704" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G704" t="n">
+        <v>2684.35009765625</v>
+      </c>
+      <c r="H704" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I704" t="inlineStr">
+        <is>
+          <t>11-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="J704" t="n">
+        <v>2710</v>
+      </c>
+      <c r="K704" t="n">
+        <v>2680</v>
+      </c>
+      <c r="L704" t="inlineStr">
+        <is>
+          <t>11/06/2024 08:47:02</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L210"/>
+  <dimension ref="A1:L211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10530,6 +10530,54 @@
       <c r="L210" t="inlineStr">
         <is>
           <t>11/06/2024 08:47:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45442.63541666666</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>11-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>GRASIM.NS</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>45418.38541666666</v>
+      </c>
+      <c r="F211" t="n">
+        <v>2487</v>
+      </c>
+      <c r="G211" s="2" t="n">
+        <v>45434.38541666666</v>
+      </c>
+      <c r="H211" t="n">
+        <v>2461.89990234375</v>
+      </c>
+      <c r="I211" s="2" t="n">
+        <v>45436.42708333334</v>
+      </c>
+      <c r="J211" t="n">
+        <v>2474.75</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>11/06/2024 09:46:55</t>
         </is>
       </c>
     </row>
@@ -10544,7 +10592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12701,6 +12749,90 @@
       <c r="J51" t="inlineStr">
         <is>
           <t>11/06/2024 08:47:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45447.55208333334</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>11-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>JSWSTEEL.NS</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45436.38541666666</v>
+      </c>
+      <c r="F52" t="n">
+        <v>925</v>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="H52" t="n">
+        <v>917.5499877929688</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>11/06/2024 09:46:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45415.55208333334</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>11-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>LICI.NS</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45406.38541666666</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1009.900024414062</v>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>45414.38541666666</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1009.5</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>11/06/2024 09:46:55</t>
         </is>
       </c>
     </row>
@@ -12715,7 +12847,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L704"/>
+  <dimension ref="A1:L709"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46529,6 +46661,246 @@
         </is>
       </c>
     </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>ARTSONEN.BO</t>
+        </is>
+      </c>
+      <c r="B705" s="2" t="n">
+        <v>45439.46875</v>
+      </c>
+      <c r="C705" t="n">
+        <v>189.3999938964844</v>
+      </c>
+      <c r="D705" t="n">
+        <v>189.3000030517578</v>
+      </c>
+      <c r="E705" t="n">
+        <v>189.3999938964844</v>
+      </c>
+      <c r="F705" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G705" t="n">
+        <v>189.3999938964844</v>
+      </c>
+      <c r="H705" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I705" t="inlineStr">
+        <is>
+          <t>11-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="J705" t="n">
+        <v>192</v>
+      </c>
+      <c r="K705" t="n">
+        <v>188.6999969482422</v>
+      </c>
+      <c r="L705" t="inlineStr">
+        <is>
+          <t>11/06/2024 09:46:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>ARTSONEN.BO</t>
+        </is>
+      </c>
+      <c r="B706" s="2" t="n">
+        <v>45439.51041666666</v>
+      </c>
+      <c r="C706" t="n">
+        <v>189.3999938964844</v>
+      </c>
+      <c r="D706" t="n">
+        <v>185.4499969482422</v>
+      </c>
+      <c r="E706" t="n">
+        <v>185.4499969482422</v>
+      </c>
+      <c r="F706" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G706" t="n">
+        <v>189.3999938964844</v>
+      </c>
+      <c r="H706" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I706" t="inlineStr">
+        <is>
+          <t>11-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="J706" t="n">
+        <v>192</v>
+      </c>
+      <c r="K706" t="n">
+        <v>188.6999969482422</v>
+      </c>
+      <c r="L706" t="inlineStr">
+        <is>
+          <t>11/06/2024 09:46:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>ARTSONEN.BO</t>
+        </is>
+      </c>
+      <c r="B707" s="2" t="n">
+        <v>45439.55208333334</v>
+      </c>
+      <c r="C707" t="n">
+        <v>189.3999938964844</v>
+      </c>
+      <c r="D707" t="n">
+        <v>185</v>
+      </c>
+      <c r="E707" t="n">
+        <v>188</v>
+      </c>
+      <c r="F707" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G707" t="n">
+        <v>189.3999938964844</v>
+      </c>
+      <c r="H707" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I707" t="inlineStr">
+        <is>
+          <t>11-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="J707" t="n">
+        <v>192</v>
+      </c>
+      <c r="K707" t="n">
+        <v>188.6999969482422</v>
+      </c>
+      <c r="L707" t="inlineStr">
+        <is>
+          <t>11/06/2024 09:46:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>HTMEDIA.NS</t>
+        </is>
+      </c>
+      <c r="B708" s="2" t="n">
+        <v>45434.38541666666</v>
+      </c>
+      <c r="C708" t="n">
+        <v>26.95000076293945</v>
+      </c>
+      <c r="D708" t="n">
+        <v>26.45000076293945</v>
+      </c>
+      <c r="E708" t="n">
+        <v>26.64999961853027</v>
+      </c>
+      <c r="F708" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G708" t="n">
+        <v>26.45000076293945</v>
+      </c>
+      <c r="H708" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I708" t="inlineStr">
+        <is>
+          <t>11-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="J708" t="n">
+        <v>26.39999961853027</v>
+      </c>
+      <c r="K708" t="n">
+        <v>26.56999969482422</v>
+      </c>
+      <c r="L708" t="inlineStr">
+        <is>
+          <t>11/06/2024 09:46:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>RPEL.BO</t>
+        </is>
+      </c>
+      <c r="B709" s="2" t="n">
+        <v>45439.38541666666</v>
+      </c>
+      <c r="C709" t="n">
+        <v>695.9000244140625</v>
+      </c>
+      <c r="D709" t="n">
+        <v>672</v>
+      </c>
+      <c r="E709" t="n">
+        <v>686</v>
+      </c>
+      <c r="F709" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G709" t="n">
+        <v>672</v>
+      </c>
+      <c r="H709" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I709" t="inlineStr">
+        <is>
+          <t>11-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="J709" t="n">
+        <v>671.2000122070312</v>
+      </c>
+      <c r="K709" t="n">
+        <v>673.0999755859375</v>
+      </c>
+      <c r="L709" t="inlineStr">
+        <is>
+          <t>11/06/2024 09:46:55</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L211"/>
+  <dimension ref="A1:L230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10578,6 +10578,918 @@
       <c r="L211" t="inlineStr">
         <is>
           <t>11/06/2024 09:46:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>ULTRACEMCO.NS</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="F212" t="n">
+        <v>10526</v>
+      </c>
+      <c r="G212" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="H212" t="n">
+        <v>10277.7001953125</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>TECHM.NS</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>45187</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1320</v>
+      </c>
+      <c r="G213" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="H213" t="n">
+        <v>1416.300048828125</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>PIDILITIND.NS</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>44816</v>
+      </c>
+      <c r="F214" t="n">
+        <v>2918.949951171875</v>
+      </c>
+      <c r="G214" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="H214" t="n">
+        <v>2805</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>PIDILITIND.NS</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>44816</v>
+      </c>
+      <c r="F215" t="n">
+        <v>2918.949951171875</v>
+      </c>
+      <c r="G215" s="2" t="n">
+        <v>45089</v>
+      </c>
+      <c r="H215" t="n">
+        <v>2735</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>IRB.NS</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="F216" t="n">
+        <v>72</v>
+      </c>
+      <c r="G216" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="H216" t="n">
+        <v>73.09999847412109</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>SWARAJENG.NS</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="F217" t="n">
+        <v>2553.75</v>
+      </c>
+      <c r="G217" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="H217" t="n">
+        <v>2649.949951171875</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>BAJAJST.BO</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>45068</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1399</v>
+      </c>
+      <c r="G218" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="H218" t="n">
+        <v>1626.900024414062</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>BAJAJST.BO</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>45061</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1399</v>
+      </c>
+      <c r="G219" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1626.900024414062</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>LODHA.NS</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>44767</v>
+      </c>
+      <c r="F220" t="n">
+        <v>594.5</v>
+      </c>
+      <c r="G220" s="2" t="n">
+        <v>44942</v>
+      </c>
+      <c r="H220" t="n">
+        <v>571</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>LODHA.NS</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>44767</v>
+      </c>
+      <c r="F221" t="n">
+        <v>594.5</v>
+      </c>
+      <c r="G221" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="H221" t="n">
+        <v>1225</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>JISLJALEQS.NS</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="F222" t="n">
+        <v>69.80000305175781</v>
+      </c>
+      <c r="G222" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="H222" t="n">
+        <v>73.44999694824219</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>JISLJALEQS.NS</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="F223" t="n">
+        <v>73.44999694824219</v>
+      </c>
+      <c r="G223" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="H223" t="n">
+        <v>68.59999847412109</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>44319</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>43549</v>
+      </c>
+      <c r="F224" t="n">
+        <v>13.10999965667725</v>
+      </c>
+      <c r="G224" s="2" t="n">
+        <v>44200</v>
+      </c>
+      <c r="H224" t="n">
+        <v>12.52000045776367</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>44319</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>44200</v>
+      </c>
+      <c r="F225" t="n">
+        <v>12.52000045776367</v>
+      </c>
+      <c r="G225" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="H225" t="n">
+        <v>10.97000026702881</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>44319</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>43542</v>
+      </c>
+      <c r="F226" t="n">
+        <v>13.10999965667725</v>
+      </c>
+      <c r="G226" s="2" t="n">
+        <v>44200</v>
+      </c>
+      <c r="H226" t="n">
+        <v>12.52000045776367</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>44319</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>43542</v>
+      </c>
+      <c r="F227" t="n">
+        <v>13.10999965667725</v>
+      </c>
+      <c r="G227" s="2" t="n">
+        <v>44158</v>
+      </c>
+      <c r="H227" t="n">
+        <v>12</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>DECCANCE.NS</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>44816</v>
+      </c>
+      <c r="F228" t="n">
+        <v>588</v>
+      </c>
+      <c r="G228" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="H228" t="n">
+        <v>668.4500122070312</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45019</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>LIKHITHA.NS</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>44662</v>
+      </c>
+      <c r="F229" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="G229" s="2" t="n">
+        <v>44893</v>
+      </c>
+      <c r="H229" t="n">
+        <v>273.3500061035156</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>ANDHRAPET.BO</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="F230" t="n">
+        <v>115.9499969482422</v>
+      </c>
+      <c r="G230" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="H230" t="n">
+        <v>94.90000152587891</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
         </is>
       </c>
     </row>
@@ -10592,7 +11504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12833,6 +13745,90 @@
       <c r="J53" t="inlineStr">
         <is>
           <t>11/06/2024 09:46:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>44599</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>KOTAKBANK.NS</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>44550</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1721</v>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>44557</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1721</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>BAJAJELEC.NS</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45026</v>
+      </c>
+      <c r="F55" t="n">
+        <v>974.8753051757812</v>
+      </c>
+      <c r="G55" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="H55" t="n">
+        <v>975</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
         </is>
       </c>
     </row>
@@ -12847,7 +13843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L709"/>
+  <dimension ref="A1:L757"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46901,6 +47897,2310 @@
         </is>
       </c>
     </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>ULTRACEMCO.NS</t>
+        </is>
+      </c>
+      <c r="B710" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="C710" t="n">
+        <v>10526</v>
+      </c>
+      <c r="D710" t="n">
+        <v>9969</v>
+      </c>
+      <c r="E710" t="n">
+        <v>10503.0498046875</v>
+      </c>
+      <c r="F710" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G710" t="n">
+        <v>10526</v>
+      </c>
+      <c r="H710" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I710" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J710" t="n">
+        <v>10989</v>
+      </c>
+      <c r="K710" t="n">
+        <v>10519.7998046875</v>
+      </c>
+      <c r="L710" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>CIPLA.NS</t>
+        </is>
+      </c>
+      <c r="B711" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C711" t="n">
+        <v>1519</v>
+      </c>
+      <c r="D711" t="n">
+        <v>1449</v>
+      </c>
+      <c r="E711" t="n">
+        <v>1488.050048828125</v>
+      </c>
+      <c r="F711" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G711" t="n">
+        <v>1519</v>
+      </c>
+      <c r="H711" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I711" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J711" t="n">
+        <v>1546.449951171875</v>
+      </c>
+      <c r="K711" t="n">
+        <v>1514</v>
+      </c>
+      <c r="L711" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS</t>
+        </is>
+      </c>
+      <c r="B712" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C712" t="n">
+        <v>1352.599975585938</v>
+      </c>
+      <c r="D712" t="n">
+        <v>1161.150024414062</v>
+      </c>
+      <c r="E712" t="n">
+        <v>1309.699951171875</v>
+      </c>
+      <c r="F712" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G712" t="n">
+        <v>1352.599975585938</v>
+      </c>
+      <c r="H712" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I712" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J712" t="n">
+        <v>1369</v>
+      </c>
+      <c r="K712" t="n">
+        <v>1351</v>
+      </c>
+      <c r="L712" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>VBL.NS</t>
+        </is>
+      </c>
+      <c r="B713" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C713" t="n">
+        <v>1561.949951171875</v>
+      </c>
+      <c r="D713" t="n">
+        <v>1345</v>
+      </c>
+      <c r="E713" t="n">
+        <v>1417.849975585938</v>
+      </c>
+      <c r="F713" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G713" t="n">
+        <v>1561.949951171875</v>
+      </c>
+      <c r="H713" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I713" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J713" t="n">
+        <v>1593.699951171875</v>
+      </c>
+      <c r="K713" t="n">
+        <v>1528</v>
+      </c>
+      <c r="L713" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>SHREECEM.NS</t>
+        </is>
+      </c>
+      <c r="B714" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="C714" t="n">
+        <v>27298.94921875</v>
+      </c>
+      <c r="D714" t="n">
+        <v>25900</v>
+      </c>
+      <c r="E714" t="n">
+        <v>26084.650390625</v>
+      </c>
+      <c r="F714" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G714" t="n">
+        <v>27298.94921875</v>
+      </c>
+      <c r="H714" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I714" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J714" t="n">
+        <v>27450</v>
+      </c>
+      <c r="K714" t="n">
+        <v>26250</v>
+      </c>
+      <c r="L714" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>SHREECEM.NS</t>
+        </is>
+      </c>
+      <c r="B715" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C715" t="n">
+        <v>26743.30078125</v>
+      </c>
+      <c r="D715" t="n">
+        <v>25699</v>
+      </c>
+      <c r="E715" t="n">
+        <v>25811.05078125</v>
+      </c>
+      <c r="F715" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G715" t="n">
+        <v>26743.30078125</v>
+      </c>
+      <c r="H715" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I715" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J715" t="n">
+        <v>27450</v>
+      </c>
+      <c r="K715" t="n">
+        <v>26250</v>
+      </c>
+      <c r="L715" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>PGHH.NS</t>
+        </is>
+      </c>
+      <c r="B716" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="C716" t="n">
+        <v>17050.900390625</v>
+      </c>
+      <c r="D716" t="n">
+        <v>16111</v>
+      </c>
+      <c r="E716" t="n">
+        <v>16928.44921875</v>
+      </c>
+      <c r="F716" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G716" t="n">
+        <v>17050.900390625</v>
+      </c>
+      <c r="H716" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I716" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J716" t="n">
+        <v>17064.94921875</v>
+      </c>
+      <c r="K716" t="n">
+        <v>16947.19921875</v>
+      </c>
+      <c r="L716" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>BAJAJHIND.NS</t>
+        </is>
+      </c>
+      <c r="B717" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="C717" t="n">
+        <v>35.84999847412109</v>
+      </c>
+      <c r="D717" t="n">
+        <v>30</v>
+      </c>
+      <c r="E717" t="n">
+        <v>32.40000152587891</v>
+      </c>
+      <c r="F717" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G717" t="n">
+        <v>35.84999847412109</v>
+      </c>
+      <c r="H717" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I717" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J717" t="n">
+        <v>36.68999862670898</v>
+      </c>
+      <c r="K717" t="n">
+        <v>34.25</v>
+      </c>
+      <c r="L717" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>PRAJIND.NS</t>
+        </is>
+      </c>
+      <c r="B718" s="2" t="n">
+        <v>45208</v>
+      </c>
+      <c r="C718" t="n">
+        <v>614.6500244140625</v>
+      </c>
+      <c r="D718" t="n">
+        <v>565.8499755859375</v>
+      </c>
+      <c r="E718" t="n">
+        <v>591.9000244140625</v>
+      </c>
+      <c r="F718" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G718" t="n">
+        <v>614.6500244140625</v>
+      </c>
+      <c r="H718" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I718" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J718" t="n">
+        <v>624</v>
+      </c>
+      <c r="K718" t="n">
+        <v>598.2000122070312</v>
+      </c>
+      <c r="L718" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>MAHEPC.NS</t>
+        </is>
+      </c>
+      <c r="B719" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C719" t="n">
+        <v>154</v>
+      </c>
+      <c r="D719" t="n">
+        <v>130.6000061035156</v>
+      </c>
+      <c r="E719" t="n">
+        <v>137.6499938964844</v>
+      </c>
+      <c r="F719" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G719" t="n">
+        <v>154</v>
+      </c>
+      <c r="H719" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I719" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J719" t="n">
+        <v>160</v>
+      </c>
+      <c r="K719" t="n">
+        <v>138.9499969482422</v>
+      </c>
+      <c r="L719" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>MAHLOG.NS</t>
+        </is>
+      </c>
+      <c r="B720" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="C720" t="n">
+        <v>460</v>
+      </c>
+      <c r="D720" t="n">
+        <v>435</v>
+      </c>
+      <c r="E720" t="n">
+        <v>437.9500122070312</v>
+      </c>
+      <c r="F720" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G720" t="n">
+        <v>460</v>
+      </c>
+      <c r="H720" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I720" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J720" t="n">
+        <v>480</v>
+      </c>
+      <c r="K720" t="n">
+        <v>458.25</v>
+      </c>
+      <c r="L720" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>GMRINFRA.NS</t>
+        </is>
+      </c>
+      <c r="B721" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="C721" t="n">
+        <v>92.40000152587891</v>
+      </c>
+      <c r="D721" t="n">
+        <v>80.55000305175781</v>
+      </c>
+      <c r="E721" t="n">
+        <v>90.75</v>
+      </c>
+      <c r="F721" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G721" t="n">
+        <v>92.40000152587891</v>
+      </c>
+      <c r="H721" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I721" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J721" t="n">
+        <v>93.23000335693359</v>
+      </c>
+      <c r="K721" t="n">
+        <v>88.94999694824219</v>
+      </c>
+      <c r="L721" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>SWARAJENG.NS</t>
+        </is>
+      </c>
+      <c r="B722" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C722" t="n">
+        <v>2649.949951171875</v>
+      </c>
+      <c r="D722" t="n">
+        <v>2310.5</v>
+      </c>
+      <c r="E722" t="n">
+        <v>2541.050048828125</v>
+      </c>
+      <c r="F722" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G722" t="n">
+        <v>2649.949951171875</v>
+      </c>
+      <c r="H722" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I722" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J722" t="n">
+        <v>2664</v>
+      </c>
+      <c r="K722" t="n">
+        <v>2557.64990234375</v>
+      </c>
+      <c r="L722" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>ARTSONEN.BO</t>
+        </is>
+      </c>
+      <c r="B723" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="C723" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="D723" t="n">
+        <v>144</v>
+      </c>
+      <c r="E723" t="n">
+        <v>181.0500030517578</v>
+      </c>
+      <c r="F723" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G723" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="H723" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I723" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J723" t="n">
+        <v>193.3000030517578</v>
+      </c>
+      <c r="K723" t="n">
+        <v>185</v>
+      </c>
+      <c r="L723" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>APLAPOLLO.NS</t>
+        </is>
+      </c>
+      <c r="B724" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C724" t="n">
+        <v>1660</v>
+      </c>
+      <c r="D724" t="n">
+        <v>1440</v>
+      </c>
+      <c r="E724" t="n">
+        <v>1474.699951171875</v>
+      </c>
+      <c r="F724" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G724" t="n">
+        <v>1660</v>
+      </c>
+      <c r="H724" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I724" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J724" t="n">
+        <v>1667.5</v>
+      </c>
+      <c r="K724" t="n">
+        <v>1631.5</v>
+      </c>
+      <c r="L724" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>JISLJALEQS.NS</t>
+        </is>
+      </c>
+      <c r="B725" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C725" t="n">
+        <v>69.80000305175781</v>
+      </c>
+      <c r="D725" t="n">
+        <v>61.59999847412109</v>
+      </c>
+      <c r="E725" t="n">
+        <v>65.90000152587891</v>
+      </c>
+      <c r="F725" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G725" t="n">
+        <v>69.80000305175781</v>
+      </c>
+      <c r="H725" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I725" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J725" t="n">
+        <v>79.51000213623047</v>
+      </c>
+      <c r="K725" t="n">
+        <v>67.69999694824219</v>
+      </c>
+      <c r="L725" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>JISLJALEQS.NS</t>
+        </is>
+      </c>
+      <c r="B726" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="C726" t="n">
+        <v>73.44999694824219</v>
+      </c>
+      <c r="D726" t="n">
+        <v>67.05000305175781</v>
+      </c>
+      <c r="E726" t="n">
+        <v>71.19999694824219</v>
+      </c>
+      <c r="F726" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G726" t="n">
+        <v>73.44999694824219</v>
+      </c>
+      <c r="H726" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I726" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J726" t="n">
+        <v>79.51000213623047</v>
+      </c>
+      <c r="K726" t="n">
+        <v>67.69999694824219</v>
+      </c>
+      <c r="L726" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>JISLJALEQS.NS</t>
+        </is>
+      </c>
+      <c r="B727" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C727" t="n">
+        <v>68.59999847412109</v>
+      </c>
+      <c r="D727" t="n">
+        <v>61.65000152587891</v>
+      </c>
+      <c r="E727" t="n">
+        <v>66.05000305175781</v>
+      </c>
+      <c r="F727" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G727" t="n">
+        <v>68.59999847412109</v>
+      </c>
+      <c r="H727" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I727" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J727" t="n">
+        <v>79.51000213623047</v>
+      </c>
+      <c r="K727" t="n">
+        <v>67.69999694824219</v>
+      </c>
+      <c r="L727" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>TATACHEM.NS</t>
+        </is>
+      </c>
+      <c r="B728" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C728" t="n">
+        <v>1110.849975585938</v>
+      </c>
+      <c r="D728" t="n">
+        <v>1070.5</v>
+      </c>
+      <c r="E728" t="n">
+        <v>1085.300048828125</v>
+      </c>
+      <c r="F728" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G728" t="n">
+        <v>1110.849975585938</v>
+      </c>
+      <c r="H728" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I728" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J728" t="n">
+        <v>1120.949951171875</v>
+      </c>
+      <c r="K728" t="n">
+        <v>1068</v>
+      </c>
+      <c r="L728" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B729" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="C729" t="n">
+        <v>527.7999877929688</v>
+      </c>
+      <c r="D729" t="n">
+        <v>472.3999938964844</v>
+      </c>
+      <c r="E729" t="n">
+        <v>513</v>
+      </c>
+      <c r="F729" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G729" t="n">
+        <v>527.7999877929688</v>
+      </c>
+      <c r="H729" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I729" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J729" t="n">
+        <v>563.7000122070312</v>
+      </c>
+      <c r="K729" t="n">
+        <v>495</v>
+      </c>
+      <c r="L729" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B730" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C730" t="n">
+        <v>522.2000122070312</v>
+      </c>
+      <c r="D730" t="n">
+        <v>464</v>
+      </c>
+      <c r="E730" t="n">
+        <v>491.9500122070312</v>
+      </c>
+      <c r="F730" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G730" t="n">
+        <v>522.2000122070312</v>
+      </c>
+      <c r="H730" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I730" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J730" t="n">
+        <v>563.7000122070312</v>
+      </c>
+      <c r="K730" t="n">
+        <v>495</v>
+      </c>
+      <c r="L730" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B731" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C731" t="n">
+        <v>527</v>
+      </c>
+      <c r="D731" t="n">
+        <v>476.2000122070312</v>
+      </c>
+      <c r="E731" t="n">
+        <v>479.3999938964844</v>
+      </c>
+      <c r="F731" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G731" t="n">
+        <v>527</v>
+      </c>
+      <c r="H731" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I731" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J731" t="n">
+        <v>563.7000122070312</v>
+      </c>
+      <c r="K731" t="n">
+        <v>495</v>
+      </c>
+      <c r="L731" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B732" s="2" t="n">
+        <v>45145</v>
+      </c>
+      <c r="C732" t="n">
+        <v>464.9500122070312</v>
+      </c>
+      <c r="D732" t="n">
+        <v>416.1499938964844</v>
+      </c>
+      <c r="E732" t="n">
+        <v>444.0499877929688</v>
+      </c>
+      <c r="F732" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G732" t="n">
+        <v>416.1499938964844</v>
+      </c>
+      <c r="H732" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I732" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J732" t="n">
+        <v>402.7999877929688</v>
+      </c>
+      <c r="K732" t="n">
+        <v>441.8500061035156</v>
+      </c>
+      <c r="L732" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B733" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="C733" t="n">
+        <v>457.1000061035156</v>
+      </c>
+      <c r="D733" t="n">
+        <v>425</v>
+      </c>
+      <c r="E733" t="n">
+        <v>444.6000061035156</v>
+      </c>
+      <c r="F733" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G733" t="n">
+        <v>425</v>
+      </c>
+      <c r="H733" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I733" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J733" t="n">
+        <v>402.7999877929688</v>
+      </c>
+      <c r="K733" t="n">
+        <v>441.8500061035156</v>
+      </c>
+      <c r="L733" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B734" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="C734" t="n">
+        <v>480.9500122070312</v>
+      </c>
+      <c r="D734" t="n">
+        <v>413.4500122070312</v>
+      </c>
+      <c r="E734" t="n">
+        <v>450.75</v>
+      </c>
+      <c r="F734" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G734" t="n">
+        <v>413.4500122070312</v>
+      </c>
+      <c r="H734" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I734" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J734" t="n">
+        <v>402.7999877929688</v>
+      </c>
+      <c r="K734" t="n">
+        <v>441.8500061035156</v>
+      </c>
+      <c r="L734" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B735" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C735" t="n">
+        <v>961</v>
+      </c>
+      <c r="D735" t="n">
+        <v>912.2999877929688</v>
+      </c>
+      <c r="E735" t="n">
+        <v>935.25</v>
+      </c>
+      <c r="F735" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G735" t="n">
+        <v>961</v>
+      </c>
+      <c r="H735" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I735" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J735" t="n">
+        <v>966</v>
+      </c>
+      <c r="K735" t="n">
+        <v>947.2999877929688</v>
+      </c>
+      <c r="L735" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>PREMEXPLN.NS</t>
+        </is>
+      </c>
+      <c r="B736" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C736" t="n">
+        <v>2780</v>
+      </c>
+      <c r="D736" t="n">
+        <v>2326.64990234375</v>
+      </c>
+      <c r="E736" t="n">
+        <v>2431.25</v>
+      </c>
+      <c r="F736" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G736" t="n">
+        <v>2780</v>
+      </c>
+      <c r="H736" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I736" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J736" t="n">
+        <v>3099</v>
+      </c>
+      <c r="K736" t="n">
+        <v>2688</v>
+      </c>
+      <c r="L736" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>ASMTEC.BO</t>
+        </is>
+      </c>
+      <c r="B737" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C737" t="n">
+        <v>1118</v>
+      </c>
+      <c r="D737" t="n">
+        <v>954</v>
+      </c>
+      <c r="E737" t="n">
+        <v>989.3499755859375</v>
+      </c>
+      <c r="F737" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G737" t="n">
+        <v>1118</v>
+      </c>
+      <c r="H737" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I737" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J737" t="n">
+        <v>1141.75</v>
+      </c>
+      <c r="K737" t="n">
+        <v>1100.400024414062</v>
+      </c>
+      <c r="L737" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>TATACOMM.NS</t>
+        </is>
+      </c>
+      <c r="B738" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="C738" t="n">
+        <v>1842</v>
+      </c>
+      <c r="D738" t="n">
+        <v>1688.050048828125</v>
+      </c>
+      <c r="E738" t="n">
+        <v>1730.150024414062</v>
+      </c>
+      <c r="F738" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G738" t="n">
+        <v>1842</v>
+      </c>
+      <c r="H738" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I738" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J738" t="n">
+        <v>1909</v>
+      </c>
+      <c r="K738" t="n">
+        <v>1821.400024414062</v>
+      </c>
+      <c r="L738" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B739" s="2" t="n">
+        <v>44158</v>
+      </c>
+      <c r="C739" t="n">
+        <v>12</v>
+      </c>
+      <c r="D739" t="n">
+        <v>12</v>
+      </c>
+      <c r="E739" t="n">
+        <v>12</v>
+      </c>
+      <c r="F739" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G739" t="n">
+        <v>12</v>
+      </c>
+      <c r="H739" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I739" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J739" t="n">
+        <v>124.6900024414062</v>
+      </c>
+      <c r="K739" t="n">
+        <v>9.989999771118164</v>
+      </c>
+      <c r="L739" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B740" s="2" t="n">
+        <v>44200</v>
+      </c>
+      <c r="C740" t="n">
+        <v>12.52000045776367</v>
+      </c>
+      <c r="D740" t="n">
+        <v>10.82999992370605</v>
+      </c>
+      <c r="E740" t="n">
+        <v>11.35999965667725</v>
+      </c>
+      <c r="F740" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G740" t="n">
+        <v>12.52000045776367</v>
+      </c>
+      <c r="H740" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I740" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J740" t="n">
+        <v>124.6900024414062</v>
+      </c>
+      <c r="K740" t="n">
+        <v>9.989999771118164</v>
+      </c>
+      <c r="L740" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B741" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="C741" t="n">
+        <v>10.97000026702881</v>
+      </c>
+      <c r="D741" t="n">
+        <v>10</v>
+      </c>
+      <c r="E741" t="n">
+        <v>10</v>
+      </c>
+      <c r="F741" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G741" t="n">
+        <v>10.97000026702881</v>
+      </c>
+      <c r="H741" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I741" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J741" t="n">
+        <v>124.6900024414062</v>
+      </c>
+      <c r="K741" t="n">
+        <v>9.989999771118164</v>
+      </c>
+      <c r="L741" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>JKPAPER.NS</t>
+        </is>
+      </c>
+      <c r="B742" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="C742" t="n">
+        <v>415.2999877929688</v>
+      </c>
+      <c r="D742" t="n">
+        <v>391</v>
+      </c>
+      <c r="E742" t="n">
+        <v>400.25</v>
+      </c>
+      <c r="F742" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G742" t="n">
+        <v>415.2999877929688</v>
+      </c>
+      <c r="H742" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I742" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J742" t="n">
+        <v>439</v>
+      </c>
+      <c r="K742" t="n">
+        <v>407.5499877929688</v>
+      </c>
+      <c r="L742" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>ANJANIFOODS.BO</t>
+        </is>
+      </c>
+      <c r="B743" s="2" t="n">
+        <v>44900</v>
+      </c>
+      <c r="C743" t="n">
+        <v>36.29999923706055</v>
+      </c>
+      <c r="D743" t="n">
+        <v>29.29999923706055</v>
+      </c>
+      <c r="E743" t="n">
+        <v>33.15000152587891</v>
+      </c>
+      <c r="F743" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G743" t="n">
+        <v>36.29999923706055</v>
+      </c>
+      <c r="H743" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I743" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J743" t="n">
+        <v>43.31999969482422</v>
+      </c>
+      <c r="K743" t="n">
+        <v>31.88999938964844</v>
+      </c>
+      <c r="L743" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>ANJANIFOODS.BO</t>
+        </is>
+      </c>
+      <c r="B744" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C744" t="n">
+        <v>31.95000076293945</v>
+      </c>
+      <c r="D744" t="n">
+        <v>27.71999931335449</v>
+      </c>
+      <c r="E744" t="n">
+        <v>29.20999908447266</v>
+      </c>
+      <c r="F744" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G744" t="n">
+        <v>31.95000076293945</v>
+      </c>
+      <c r="H744" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I744" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J744" t="n">
+        <v>43.31999969482422</v>
+      </c>
+      <c r="K744" t="n">
+        <v>31.88999938964844</v>
+      </c>
+      <c r="L744" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>ALKALI.NS</t>
+        </is>
+      </c>
+      <c r="B745" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C745" t="n">
+        <v>124</v>
+      </c>
+      <c r="D745" t="n">
+        <v>103</v>
+      </c>
+      <c r="E745" t="n">
+        <v>122.9499969482422</v>
+      </c>
+      <c r="F745" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G745" t="n">
+        <v>124</v>
+      </c>
+      <c r="H745" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I745" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J745" t="n">
+        <v>130.3099975585938</v>
+      </c>
+      <c r="K745" t="n">
+        <v>116.25</v>
+      </c>
+      <c r="L745" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>DECCANCE.NS</t>
+        </is>
+      </c>
+      <c r="B746" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C746" t="n">
+        <v>668.4500122070312</v>
+      </c>
+      <c r="D746" t="n">
+        <v>619.2000122070312</v>
+      </c>
+      <c r="E746" t="n">
+        <v>635.7999877929688</v>
+      </c>
+      <c r="F746" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G746" t="n">
+        <v>668.4500122070312</v>
+      </c>
+      <c r="H746" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I746" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J746" t="n">
+        <v>670.4000244140625</v>
+      </c>
+      <c r="K746" t="n">
+        <v>627.5999755859375</v>
+      </c>
+      <c r="L746" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>DECCANCE.NS</t>
+        </is>
+      </c>
+      <c r="B747" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="C747" t="n">
+        <v>647</v>
+      </c>
+      <c r="D747" t="n">
+        <v>612</v>
+      </c>
+      <c r="E747" t="n">
+        <v>635</v>
+      </c>
+      <c r="F747" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G747" t="n">
+        <v>647</v>
+      </c>
+      <c r="H747" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I747" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J747" t="n">
+        <v>670.4000244140625</v>
+      </c>
+      <c r="K747" t="n">
+        <v>627.5999755859375</v>
+      </c>
+      <c r="L747" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>AGARIND.NS</t>
+        </is>
+      </c>
+      <c r="B748" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="C748" t="n">
+        <v>1032.400024414062</v>
+      </c>
+      <c r="D748" t="n">
+        <v>939</v>
+      </c>
+      <c r="E748" t="n">
+        <v>970.2000122070312</v>
+      </c>
+      <c r="F748" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G748" t="n">
+        <v>1032.400024414062</v>
+      </c>
+      <c r="H748" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I748" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J748" t="n">
+        <v>1097.849975585938</v>
+      </c>
+      <c r="K748" t="n">
+        <v>950</v>
+      </c>
+      <c r="L748" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>SASTASUNDR.NS</t>
+        </is>
+      </c>
+      <c r="B749" s="2" t="n">
+        <v>45089</v>
+      </c>
+      <c r="C749" t="n">
+        <v>314.7999877929688</v>
+      </c>
+      <c r="D749" t="n">
+        <v>285.1499938964844</v>
+      </c>
+      <c r="E749" t="n">
+        <v>289.4500122070312</v>
+      </c>
+      <c r="F749" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G749" t="n">
+        <v>314.7999877929688</v>
+      </c>
+      <c r="H749" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I749" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J749" t="n">
+        <v>367</v>
+      </c>
+      <c r="K749" t="n">
+        <v>314.0499877929688</v>
+      </c>
+      <c r="L749" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>SASTASUNDR.NS</t>
+        </is>
+      </c>
+      <c r="B750" s="2" t="n">
+        <v>45152</v>
+      </c>
+      <c r="C750" t="n">
+        <v>334.75</v>
+      </c>
+      <c r="D750" t="n">
+        <v>280.25</v>
+      </c>
+      <c r="E750" t="n">
+        <v>315.75</v>
+      </c>
+      <c r="F750" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G750" t="n">
+        <v>334.75</v>
+      </c>
+      <c r="H750" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I750" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J750" t="n">
+        <v>367</v>
+      </c>
+      <c r="K750" t="n">
+        <v>314.0499877929688</v>
+      </c>
+      <c r="L750" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>ANDHRSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="B751" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C751" t="n">
+        <v>119.5500030517578</v>
+      </c>
+      <c r="D751" t="n">
+        <v>110.0500030517578</v>
+      </c>
+      <c r="E751" t="n">
+        <v>111.25</v>
+      </c>
+      <c r="F751" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G751" t="n">
+        <v>119.5500030517578</v>
+      </c>
+      <c r="H751" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I751" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J751" t="n">
+        <v>121.8000030517578</v>
+      </c>
+      <c r="K751" t="n">
+        <v>109.75</v>
+      </c>
+      <c r="L751" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>ANDHRAPET.BO</t>
+        </is>
+      </c>
+      <c r="B752" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C752" t="n">
+        <v>115.9499969482422</v>
+      </c>
+      <c r="D752" t="n">
+        <v>102</v>
+      </c>
+      <c r="E752" t="n">
+        <v>104</v>
+      </c>
+      <c r="F752" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G752" t="n">
+        <v>115.9499969482422</v>
+      </c>
+      <c r="H752" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I752" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J752" t="n">
+        <v>126.9000015258789</v>
+      </c>
+      <c r="K752" t="n">
+        <v>111</v>
+      </c>
+      <c r="L752" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>SKYGOLD.NS</t>
+        </is>
+      </c>
+      <c r="B753" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C753" t="n">
+        <v>1288</v>
+      </c>
+      <c r="D753" t="n">
+        <v>1140</v>
+      </c>
+      <c r="E753" t="n">
+        <v>1162.699951171875</v>
+      </c>
+      <c r="F753" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G753" t="n">
+        <v>1288</v>
+      </c>
+      <c r="H753" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I753" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J753" t="n">
+        <v>1297.949951171875</v>
+      </c>
+      <c r="K753" t="n">
+        <v>1275</v>
+      </c>
+      <c r="L753" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>DHABRIYA.BO</t>
+        </is>
+      </c>
+      <c r="B754" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C754" t="n">
+        <v>315</v>
+      </c>
+      <c r="D754" t="n">
+        <v>281.2999877929688</v>
+      </c>
+      <c r="E754" t="n">
+        <v>291.7000122070312</v>
+      </c>
+      <c r="F754" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G754" t="n">
+        <v>315</v>
+      </c>
+      <c r="H754" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I754" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J754" t="n">
+        <v>323.8500061035156</v>
+      </c>
+      <c r="K754" t="n">
+        <v>300</v>
+      </c>
+      <c r="L754" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>STOVEKRAFT.NS</t>
+        </is>
+      </c>
+      <c r="B755" s="2" t="n">
+        <v>45075</v>
+      </c>
+      <c r="C755" t="n">
+        <v>507.3999938964844</v>
+      </c>
+      <c r="D755" t="n">
+        <v>421</v>
+      </c>
+      <c r="E755" t="n">
+        <v>437.8999938964844</v>
+      </c>
+      <c r="F755" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G755" t="n">
+        <v>507.3999938964844</v>
+      </c>
+      <c r="H755" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I755" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J755" t="n">
+        <v>548.6500244140625</v>
+      </c>
+      <c r="K755" t="n">
+        <v>498.9500122070312</v>
+      </c>
+      <c r="L755" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>STOVEKRAFT.NS</t>
+        </is>
+      </c>
+      <c r="B756" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C756" t="n">
+        <v>515</v>
+      </c>
+      <c r="D756" t="n">
+        <v>480</v>
+      </c>
+      <c r="E756" t="n">
+        <v>500.2000122070312</v>
+      </c>
+      <c r="F756" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G756" t="n">
+        <v>515</v>
+      </c>
+      <c r="H756" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I756" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J756" t="n">
+        <v>548.6500244140625</v>
+      </c>
+      <c r="K756" t="n">
+        <v>498.9500122070312</v>
+      </c>
+      <c r="L756" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>GRAVITA.NS</t>
+        </is>
+      </c>
+      <c r="B757" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="C757" t="n">
+        <v>1166</v>
+      </c>
+      <c r="D757" t="n">
+        <v>1120.550048828125</v>
+      </c>
+      <c r="E757" t="n">
+        <v>1138.099975585938</v>
+      </c>
+      <c r="F757" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G757" t="n">
+        <v>1166</v>
+      </c>
+      <c r="H757" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I757" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J757" t="n">
+        <v>1166.949951171875</v>
+      </c>
+      <c r="K757" t="n">
+        <v>1145.5</v>
+      </c>
+      <c r="L757" t="inlineStr">
+        <is>
+          <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L230"/>
+  <dimension ref="A1:L239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11490,6 +11490,438 @@
       <c r="L230" t="inlineStr">
         <is>
           <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>45439.55208333334</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>12-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>TATASTEEL.NS</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>45408.38541666666</v>
+      </c>
+      <c r="F231" t="n">
+        <v>170.6999969482422</v>
+      </c>
+      <c r="G231" s="2" t="n">
+        <v>45434.38541666666</v>
+      </c>
+      <c r="H231" t="n">
+        <v>175.4499969482422</v>
+      </c>
+      <c r="I231" s="2" t="n">
+        <v>45436.38541666666</v>
+      </c>
+      <c r="J231" t="n">
+        <v>177.5500030517578</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>12/06/2024 04:46:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>45441.55208333334</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>12-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>TATASTEEL.NS</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>45415.38541666666</v>
+      </c>
+      <c r="F232" t="n">
+        <v>170.75</v>
+      </c>
+      <c r="G232" s="2" t="n">
+        <v>45436.38541666666</v>
+      </c>
+      <c r="H232" t="n">
+        <v>177.5500030517578</v>
+      </c>
+      <c r="I232" s="2" t="n">
+        <v>45440.38541666666</v>
+      </c>
+      <c r="J232" t="n">
+        <v>177.5</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>12/06/2024 04:46:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>45441.55208333334</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>12-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>TATASTEEL.NS</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>45415.38541666666</v>
+      </c>
+      <c r="F233" t="n">
+        <v>170.75</v>
+      </c>
+      <c r="G233" s="2" t="n">
+        <v>45434.38541666666</v>
+      </c>
+      <c r="H233" t="n">
+        <v>175.4499969482422</v>
+      </c>
+      <c r="I233" s="2" t="n">
+        <v>45440.38541666666</v>
+      </c>
+      <c r="J233" t="n">
+        <v>177.5</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>12/06/2024 04:46:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>45450.55208333334</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>12-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>FEDERALBNK.NS</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>45427.38541666666</v>
+      </c>
+      <c r="F234" t="n">
+        <v>164.3500061035156</v>
+      </c>
+      <c r="G234" s="2" t="n">
+        <v>45433.51041666666</v>
+      </c>
+      <c r="H234" t="n">
+        <v>165.1999969482422</v>
+      </c>
+      <c r="I234" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="J234" t="n">
+        <v>166.9499969482422</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>12/06/2024 04:46:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>45450.63541666666</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>12-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>PETRONET.NS</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>45415.38541666666</v>
+      </c>
+      <c r="F235" t="n">
+        <v>322.75</v>
+      </c>
+      <c r="G235" s="2" t="n">
+        <v>45429.38541666666</v>
+      </c>
+      <c r="H235" t="n">
+        <v>320.1499938964844</v>
+      </c>
+      <c r="I235" s="2" t="n">
+        <v>45446.59375</v>
+      </c>
+      <c r="J235" t="n">
+        <v>317.7000122070312</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>12/06/2024 04:46:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>45440.59375</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>12-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>RAIN.NS</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>45408.46875</v>
+      </c>
+      <c r="F236" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="G236" s="2" t="n">
+        <v>45434.42708333334</v>
+      </c>
+      <c r="H236" t="n">
+        <v>174.75</v>
+      </c>
+      <c r="I236" s="2" t="n">
+        <v>45439.42708333334</v>
+      </c>
+      <c r="J236" t="n">
+        <v>173.6499938964844</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>12/06/2024 04:46:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>45434.55208333334</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>12-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>NECLIFE.NS</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>45415.38541666666</v>
+      </c>
+      <c r="F237" t="n">
+        <v>35.90000152587891</v>
+      </c>
+      <c r="G237" s="2" t="n">
+        <v>45418.59375</v>
+      </c>
+      <c r="H237" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="I237" s="2" t="n">
+        <v>45433.38541666666</v>
+      </c>
+      <c r="J237" t="n">
+        <v>34.90000152587891</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>12/06/2024 04:46:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>45447.55208333334</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>12-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>MCX.NS</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>45427.38541666666</v>
+      </c>
+      <c r="F238" t="n">
+        <v>3963.39990234375</v>
+      </c>
+      <c r="G238" s="2" t="n">
+        <v>45440.38541666666</v>
+      </c>
+      <c r="H238" t="n">
+        <v>3882.949951171875</v>
+      </c>
+      <c r="I238" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="J238" t="n">
+        <v>3808.14990234375</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>12/06/2024 04:46:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>45447.59375</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>12-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>FAZE3Q.NS</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>45434.38541666666</v>
+      </c>
+      <c r="F239" t="n">
+        <v>440.3500061035156</v>
+      </c>
+      <c r="G239" s="2" t="n">
+        <v>45435.55208333334</v>
+      </c>
+      <c r="H239" t="n">
+        <v>438.5</v>
+      </c>
+      <c r="I239" s="2" t="n">
+        <v>45435.59375</v>
+      </c>
+      <c r="J239" t="n">
+        <v>438.5</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>12/06/2024 04:46:55</t>
         </is>
       </c>
     </row>
@@ -11504,7 +11936,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13829,6 +14261,216 @@
       <c r="J55" t="inlineStr">
         <is>
           <t>11/06/2024 11:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45448.59375</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>12-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>SHILCTECH.BO</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45447.38541666666</v>
+      </c>
+      <c r="F56" t="n">
+        <v>5350</v>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>45447.42708333334</v>
+      </c>
+      <c r="H56" t="n">
+        <v>5350</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>12/06/2024 04:46:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45454.55208333334</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>12-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>KPEL.BO</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45442.38541666666</v>
+      </c>
+      <c r="F57" t="n">
+        <v>437.5</v>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>45453.38541666666</v>
+      </c>
+      <c r="H57" t="n">
+        <v>438</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>12/06/2024 04:46:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45454.55208333334</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>12-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>KPEL.BO</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="F58" t="n">
+        <v>436.2000122070312</v>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>45453.38541666666</v>
+      </c>
+      <c r="H58" t="n">
+        <v>438</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>12/06/2024 04:46:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>12-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>SHANKARA.NS</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45433.46875</v>
+      </c>
+      <c r="F59" t="n">
+        <v>715</v>
+      </c>
+      <c r="G59" s="2" t="n">
+        <v>45442.51041666666</v>
+      </c>
+      <c r="H59" t="n">
+        <v>712.5</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>12/06/2024 04:46:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45447.55208333334</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>12-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>SHANKARA.NS</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45433.46875</v>
+      </c>
+      <c r="F60" t="n">
+        <v>715</v>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="H60" t="n">
+        <v>711.7999877929688</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>12/06/2024 04:46:55</t>
         </is>
       </c>
     </row>
@@ -13843,7 +14485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L757"/>
+  <dimension ref="A1:L769"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50201,6 +50843,582 @@
         </is>
       </c>
     </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>TRIL.BO</t>
+        </is>
+      </c>
+      <c r="B758" s="2" t="n">
+        <v>45447.38541666666</v>
+      </c>
+      <c r="C758" t="n">
+        <v>771.2999877929688</v>
+      </c>
+      <c r="D758" t="n">
+        <v>706.5499877929688</v>
+      </c>
+      <c r="E758" t="n">
+        <v>731</v>
+      </c>
+      <c r="F758" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G758" t="n">
+        <v>771.2999877929688</v>
+      </c>
+      <c r="H758" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I758" t="inlineStr">
+        <is>
+          <t>12-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J758" t="n">
+        <v>807.5999755859375</v>
+      </c>
+      <c r="K758" t="n">
+        <v>769.1500244140625</v>
+      </c>
+      <c r="L758" t="inlineStr">
+        <is>
+          <t>12/06/2024 04:46:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>SHILCTECH.BO</t>
+        </is>
+      </c>
+      <c r="B759" s="2" t="n">
+        <v>45447.38541666666</v>
+      </c>
+      <c r="C759" t="n">
+        <v>5350</v>
+      </c>
+      <c r="D759" t="n">
+        <v>5029.14990234375</v>
+      </c>
+      <c r="E759" t="n">
+        <v>5200</v>
+      </c>
+      <c r="F759" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G759" t="n">
+        <v>5350</v>
+      </c>
+      <c r="H759" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I759" t="inlineStr">
+        <is>
+          <t>12-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J759" t="n">
+        <v>5400</v>
+      </c>
+      <c r="K759" t="n">
+        <v>5290</v>
+      </c>
+      <c r="L759" t="inlineStr">
+        <is>
+          <t>12/06/2024 04:46:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>SHILCTECH.BO</t>
+        </is>
+      </c>
+      <c r="B760" s="2" t="n">
+        <v>45447.42708333334</v>
+      </c>
+      <c r="C760" t="n">
+        <v>5350</v>
+      </c>
+      <c r="D760" t="n">
+        <v>5029.14990234375</v>
+      </c>
+      <c r="E760" t="n">
+        <v>5029.14990234375</v>
+      </c>
+      <c r="F760" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G760" t="n">
+        <v>5350</v>
+      </c>
+      <c r="H760" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I760" t="inlineStr">
+        <is>
+          <t>12-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J760" t="n">
+        <v>5400</v>
+      </c>
+      <c r="K760" t="n">
+        <v>5290</v>
+      </c>
+      <c r="L760" t="inlineStr">
+        <is>
+          <t>12/06/2024 04:46:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>SHILCTECH.BO</t>
+        </is>
+      </c>
+      <c r="B761" s="2" t="n">
+        <v>45449.38541666666</v>
+      </c>
+      <c r="C761" t="n">
+        <v>5394</v>
+      </c>
+      <c r="D761" t="n">
+        <v>5100</v>
+      </c>
+      <c r="E761" t="n">
+        <v>5200</v>
+      </c>
+      <c r="F761" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G761" t="n">
+        <v>5394</v>
+      </c>
+      <c r="H761" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I761" t="inlineStr">
+        <is>
+          <t>12-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J761" t="n">
+        <v>5400</v>
+      </c>
+      <c r="K761" t="n">
+        <v>5290</v>
+      </c>
+      <c r="L761" t="inlineStr">
+        <is>
+          <t>12/06/2024 04:46:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>SPELS.BO</t>
+        </is>
+      </c>
+      <c r="B762" s="2" t="n">
+        <v>45434.42708333334</v>
+      </c>
+      <c r="C762" t="n">
+        <v>141.6999969482422</v>
+      </c>
+      <c r="D762" t="n">
+        <v>141.6999969482422</v>
+      </c>
+      <c r="E762" t="n">
+        <v>141.6999969482422</v>
+      </c>
+      <c r="F762" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G762" t="n">
+        <v>141.6999969482422</v>
+      </c>
+      <c r="H762" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I762" t="inlineStr">
+        <is>
+          <t>12-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J762" t="n">
+        <v>143.9499969482422</v>
+      </c>
+      <c r="K762" t="n">
+        <v>139.9499969482422</v>
+      </c>
+      <c r="L762" t="inlineStr">
+        <is>
+          <t>12/06/2024 04:46:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>SPELS.BO</t>
+        </is>
+      </c>
+      <c r="B763" s="2" t="n">
+        <v>45434.46875</v>
+      </c>
+      <c r="C763" t="n">
+        <v>141.6999969482422</v>
+      </c>
+      <c r="D763" t="n">
+        <v>141.6999969482422</v>
+      </c>
+      <c r="E763" t="n">
+        <v>141.6999969482422</v>
+      </c>
+      <c r="F763" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G763" t="n">
+        <v>141.6999969482422</v>
+      </c>
+      <c r="H763" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I763" t="inlineStr">
+        <is>
+          <t>12-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J763" t="n">
+        <v>143.9499969482422</v>
+      </c>
+      <c r="K763" t="n">
+        <v>139.9499969482422</v>
+      </c>
+      <c r="L763" t="inlineStr">
+        <is>
+          <t>12/06/2024 04:46:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>SIKA.BO</t>
+        </is>
+      </c>
+      <c r="B764" s="2" t="n">
+        <v>45436.38541666666</v>
+      </c>
+      <c r="C764" t="n">
+        <v>2749</v>
+      </c>
+      <c r="D764" t="n">
+        <v>2680</v>
+      </c>
+      <c r="E764" t="n">
+        <v>2707</v>
+      </c>
+      <c r="F764" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G764" t="n">
+        <v>2749</v>
+      </c>
+      <c r="H764" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I764" t="inlineStr">
+        <is>
+          <t>12-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J764" t="n">
+        <v>2792</v>
+      </c>
+      <c r="K764" t="n">
+        <v>2690</v>
+      </c>
+      <c r="L764" t="inlineStr">
+        <is>
+          <t>12/06/2024 04:46:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>SIL.NS</t>
+        </is>
+      </c>
+      <c r="B765" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="C765" t="n">
+        <v>24.89999961853027</v>
+      </c>
+      <c r="D765" t="n">
+        <v>23.45000076293945</v>
+      </c>
+      <c r="E765" t="n">
+        <v>23.85000038146973</v>
+      </c>
+      <c r="F765" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G765" t="n">
+        <v>24.89999961853027</v>
+      </c>
+      <c r="H765" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I765" t="inlineStr">
+        <is>
+          <t>12-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J765" t="n">
+        <v>25.35000038146973</v>
+      </c>
+      <c r="K765" t="n">
+        <v>24.6200008392334</v>
+      </c>
+      <c r="L765" t="inlineStr">
+        <is>
+          <t>12/06/2024 04:46:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>KPEL.BO</t>
+        </is>
+      </c>
+      <c r="B766" s="2" t="n">
+        <v>45442.38541666666</v>
+      </c>
+      <c r="C766" t="n">
+        <v>437.5</v>
+      </c>
+      <c r="D766" t="n">
+        <v>420.2000122070312</v>
+      </c>
+      <c r="E766" t="n">
+        <v>430.25</v>
+      </c>
+      <c r="F766" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G766" t="n">
+        <v>437.5</v>
+      </c>
+      <c r="H766" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I766" t="inlineStr">
+        <is>
+          <t>12-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J766" t="n">
+        <v>445</v>
+      </c>
+      <c r="K766" t="n">
+        <v>436.8999938964844</v>
+      </c>
+      <c r="L766" t="inlineStr">
+        <is>
+          <t>12/06/2024 04:46:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>KPEL.BO</t>
+        </is>
+      </c>
+      <c r="B767" s="2" t="n">
+        <v>45453.38541666666</v>
+      </c>
+      <c r="C767" t="n">
+        <v>438</v>
+      </c>
+      <c r="D767" t="n">
+        <v>420.1000061035156</v>
+      </c>
+      <c r="E767" t="n">
+        <v>424.3500061035156</v>
+      </c>
+      <c r="F767" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G767" t="n">
+        <v>438</v>
+      </c>
+      <c r="H767" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I767" t="inlineStr">
+        <is>
+          <t>12-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J767" t="n">
+        <v>445</v>
+      </c>
+      <c r="K767" t="n">
+        <v>436.8999938964844</v>
+      </c>
+      <c r="L767" t="inlineStr">
+        <is>
+          <t>12/06/2024 04:46:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>UDS.NS</t>
+        </is>
+      </c>
+      <c r="B768" s="2" t="n">
+        <v>45439.38541666666</v>
+      </c>
+      <c r="C768" t="n">
+        <v>303</v>
+      </c>
+      <c r="D768" t="n">
+        <v>295.2999877929688</v>
+      </c>
+      <c r="E768" t="n">
+        <v>297.5499877929688</v>
+      </c>
+      <c r="F768" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G768" t="n">
+        <v>303</v>
+      </c>
+      <c r="H768" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I768" t="inlineStr">
+        <is>
+          <t>12-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J768" t="n">
+        <v>303.3999938964844</v>
+      </c>
+      <c r="K768" t="n">
+        <v>297.8500061035156</v>
+      </c>
+      <c r="L768" t="inlineStr">
+        <is>
+          <t>12/06/2024 04:46:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>UNIAUTO.BO</t>
+        </is>
+      </c>
+      <c r="B769" s="2" t="n">
+        <v>45433.38541666666</v>
+      </c>
+      <c r="C769" t="n">
+        <v>168.3999938964844</v>
+      </c>
+      <c r="D769" t="n">
+        <v>163</v>
+      </c>
+      <c r="E769" t="n">
+        <v>163</v>
+      </c>
+      <c r="F769" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G769" t="n">
+        <v>168.3999938964844</v>
+      </c>
+      <c r="H769" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I769" t="inlineStr">
+        <is>
+          <t>12-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J769" t="n">
+        <v>169.6999969482422</v>
+      </c>
+      <c r="K769" t="n">
+        <v>167</v>
+      </c>
+      <c r="L769" t="inlineStr">
+        <is>
+          <t>12/06/2024 04:46:55</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L239"/>
+  <dimension ref="A1:L240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11922,6 +11922,54 @@
       <c r="L239" t="inlineStr">
         <is>
           <t>12/06/2024 04:46:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>45408.38541666666</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>12-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>ANDHRAPET.BO</t>
+        </is>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>45377.38541666666</v>
+      </c>
+      <c r="F240" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="G240" s="2" t="n">
+        <v>45386.38541666666</v>
+      </c>
+      <c r="H240" t="n">
+        <v>91.94999694824219</v>
+      </c>
+      <c r="I240" s="2" t="n">
+        <v>45394.38541666666</v>
+      </c>
+      <c r="J240" t="n">
+        <v>94.90000152587891</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>12/06/2024 05:48:33</t>
         </is>
       </c>
     </row>
@@ -11936,7 +11984,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14471,6 +14519,132 @@
       <c r="J60" t="inlineStr">
         <is>
           <t>12/06/2024 04:46:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45406.55208333334</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>12-06-2024 11:15:00</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>ZENTEC.NS</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45398.38541666666</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1042.050048828125</v>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>45405.38541666666</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1039.949951171875</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>12/06/2024 05:48:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45454.55208333334</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>12-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>KPEL.BO</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45442.38541666666</v>
+      </c>
+      <c r="F62" t="n">
+        <v>437.5</v>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>45453.38541666666</v>
+      </c>
+      <c r="H62" t="n">
+        <v>438</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>12/06/2024 05:48:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45454.55208333334</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>12-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>KPEL.BO</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="F63" t="n">
+        <v>436.2000122070312</v>
+      </c>
+      <c r="G63" s="2" t="n">
+        <v>45453.38541666666</v>
+      </c>
+      <c r="H63" t="n">
+        <v>438</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>12/06/2024 05:48:33</t>
         </is>
       </c>
     </row>
@@ -14485,7 +14659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L769"/>
+  <dimension ref="A1:L772"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51419,6 +51593,150 @@
         </is>
       </c>
     </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>CENTRALBK.BO</t>
+        </is>
+      </c>
+      <c r="B770" s="2" t="n">
+        <v>45449.46875</v>
+      </c>
+      <c r="C770" t="n">
+        <v>66.45999908447266</v>
+      </c>
+      <c r="D770" t="n">
+        <v>64.69999694824219</v>
+      </c>
+      <c r="E770" t="n">
+        <v>64.93000030517578</v>
+      </c>
+      <c r="F770" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G770" t="n">
+        <v>66.45999908447266</v>
+      </c>
+      <c r="H770" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I770" t="inlineStr">
+        <is>
+          <t>12-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="J770" t="n">
+        <v>67.23999786376953</v>
+      </c>
+      <c r="K770" t="n">
+        <v>65.87000274658203</v>
+      </c>
+      <c r="L770" t="inlineStr">
+        <is>
+          <t>12/06/2024 05:48:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>NMDC.NS</t>
+        </is>
+      </c>
+      <c r="B771" s="2" t="n">
+        <v>45450.59375</v>
+      </c>
+      <c r="C771" t="n">
+        <v>259.7999877929688</v>
+      </c>
+      <c r="D771" t="n">
+        <v>257.5499877929688</v>
+      </c>
+      <c r="E771" t="n">
+        <v>258.7999877929688</v>
+      </c>
+      <c r="F771" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G771" t="n">
+        <v>259.7999877929688</v>
+      </c>
+      <c r="H771" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I771" t="inlineStr">
+        <is>
+          <t>12-06-2024 11:15:00</t>
+        </is>
+      </c>
+      <c r="J771" t="n">
+        <v>259.8999938964844</v>
+      </c>
+      <c r="K771" t="n">
+        <v>259.4500122070312</v>
+      </c>
+      <c r="L771" t="inlineStr">
+        <is>
+          <t>12/06/2024 05:48:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>ZENTEC.NS</t>
+        </is>
+      </c>
+      <c r="B772" s="2" t="n">
+        <v>45453.38541666666</v>
+      </c>
+      <c r="C772" t="n">
+        <v>1023.299987792969</v>
+      </c>
+      <c r="D772" t="n">
+        <v>986.5999755859375</v>
+      </c>
+      <c r="E772" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F772" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G772" t="n">
+        <v>1023.299987792969</v>
+      </c>
+      <c r="H772" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I772" t="inlineStr">
+        <is>
+          <t>12-06-2024 11:15:00</t>
+        </is>
+      </c>
+      <c r="J772" t="n">
+        <v>1034</v>
+      </c>
+      <c r="K772" t="n">
+        <v>1020.099975585938</v>
+      </c>
+      <c r="L772" t="inlineStr">
+        <is>
+          <t>12/06/2024 05:48:33</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -11984,7 +11984,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14645,6 +14645,132 @@
       <c r="J63" t="inlineStr">
         <is>
           <t>12/06/2024 05:48:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45427.55208333334</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>12-06-2024 12:15:00</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>ZOMATO.NS</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45419.55208333334</v>
+      </c>
+      <c r="F64" t="n">
+        <v>182.3500061035156</v>
+      </c>
+      <c r="G64" s="2" t="n">
+        <v>45426.38541666666</v>
+      </c>
+      <c r="H64" t="n">
+        <v>182.25</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>12/06/2024 06:47:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45433.59375</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>12-06-2024 11:15:00</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>WALCHANNAG.NS</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45429.38541666666</v>
+      </c>
+      <c r="F65" t="n">
+        <v>219.0500030517578</v>
+      </c>
+      <c r="G65" s="2" t="n">
+        <v>45429.42708333334</v>
+      </c>
+      <c r="H65" t="n">
+        <v>219.0500030517578</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>12/06/2024 06:47:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45433.63541666666</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>12-06-2024 11:15:00</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>WALCHANNAG.NS</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45429.38541666666</v>
+      </c>
+      <c r="F66" t="n">
+        <v>219.0500030517578</v>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v>45429.46875</v>
+      </c>
+      <c r="H66" t="n">
+        <v>219.0500030517578</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>12/06/2024 06:47:35</t>
         </is>
       </c>
     </row>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L240"/>
+  <dimension ref="A1:L242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11970,6 +11970,102 @@
       <c r="L240" t="inlineStr">
         <is>
           <t>12/06/2024 05:48:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>45418.55208333334</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>12-06-2024 12:15:00</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>HERCULES.NS</t>
+        </is>
+      </c>
+      <c r="E241" s="2" t="n">
+        <v>45400.38541666666</v>
+      </c>
+      <c r="F241" t="n">
+        <v>522.9500122070312</v>
+      </c>
+      <c r="G241" s="2" t="n">
+        <v>45411.46875</v>
+      </c>
+      <c r="H241" t="n">
+        <v>517.0999755859375</v>
+      </c>
+      <c r="I241" s="2" t="n">
+        <v>45415.38541666666</v>
+      </c>
+      <c r="J241" t="n">
+        <v>519.2000122070312</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>12/06/2024 07:46:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>45447.55208333334</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>12-06-2024 12:15:00</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>TANFACIND.BO</t>
+        </is>
+      </c>
+      <c r="E242" s="2" t="n">
+        <v>45428.38541666666</v>
+      </c>
+      <c r="F242" t="n">
+        <v>2230.449951171875</v>
+      </c>
+      <c r="G242" s="2" t="n">
+        <v>45434.63541666666</v>
+      </c>
+      <c r="H242" t="n">
+        <v>2189.89990234375</v>
+      </c>
+      <c r="I242" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="J242" t="n">
+        <v>2100</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>12/06/2024 07:46:53</t>
         </is>
       </c>
     </row>
@@ -11984,7 +12080,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14771,6 +14867,342 @@
       <c r="J66" t="inlineStr">
         <is>
           <t>12/06/2024 06:47:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45439.46875</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>12-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>SBILIFE.NS</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45435.51041666666</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1452.949951171875</v>
+      </c>
+      <c r="G67" s="2" t="n">
+        <v>45435.59375</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1452.949951171875</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>12/06/2024 07:46:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45415.55208333334</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>12-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>LICI.NS</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45406.38541666666</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1009.900024414062</v>
+      </c>
+      <c r="G68" s="2" t="n">
+        <v>45414.38541666666</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1009.5</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>12/06/2024 07:46:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45447.55208333334</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>12-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>SWELECTES.NS</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45441.38541666666</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1286.650024414062</v>
+      </c>
+      <c r="G69" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1288.699951171875</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>12/06/2024 07:46:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45447.55208333334</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>12-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>SWELECTES.NS</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45436.42708333334</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1285.75</v>
+      </c>
+      <c r="G70" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1288.699951171875</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>12/06/2024 07:46:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45345.51041666666</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>12-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>DCXINDIA.NS</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45341.38541666666</v>
+      </c>
+      <c r="F71" t="n">
+        <v>317.0499877929688</v>
+      </c>
+      <c r="G71" s="2" t="n">
+        <v>45343.63541666666</v>
+      </c>
+      <c r="H71" t="n">
+        <v>317</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>12/06/2024 07:46:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45450.63541666666</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>12-06-2024 12:15:00</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>TANFACIND.BO</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45442.38541666666</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2034.849975585938</v>
+      </c>
+      <c r="G72" s="2" t="n">
+        <v>45449.46875</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2036.849975585938</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>12/06/2024 07:46:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45433.59375</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>12-06-2024 12:15:00</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>WALCHANNAG.NS</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45429.38541666666</v>
+      </c>
+      <c r="F73" t="n">
+        <v>219.0500030517578</v>
+      </c>
+      <c r="G73" s="2" t="n">
+        <v>45429.42708333334</v>
+      </c>
+      <c r="H73" t="n">
+        <v>219.0500030517578</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>12/06/2024 07:46:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45433.63541666666</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>12-06-2024 12:15:00</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>WALCHANNAG.NS</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45429.38541666666</v>
+      </c>
+      <c r="F74" t="n">
+        <v>219.0500030517578</v>
+      </c>
+      <c r="G74" s="2" t="n">
+        <v>45429.46875</v>
+      </c>
+      <c r="H74" t="n">
+        <v>219.0500030517578</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>12/06/2024 07:46:53</t>
         </is>
       </c>
     </row>
@@ -14785,7 +15217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L772"/>
+  <dimension ref="A1:L774"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51863,6 +52295,102 @@
         </is>
       </c>
     </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>TANFACIND.BO</t>
+        </is>
+      </c>
+      <c r="B773" s="2" t="n">
+        <v>45449.46875</v>
+      </c>
+      <c r="C773" t="n">
+        <v>2036.849975585938</v>
+      </c>
+      <c r="D773" t="n">
+        <v>1971</v>
+      </c>
+      <c r="E773" t="n">
+        <v>1997.949951171875</v>
+      </c>
+      <c r="F773" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G773" t="n">
+        <v>2036.849975585938</v>
+      </c>
+      <c r="H773" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I773" t="inlineStr">
+        <is>
+          <t>12-06-2024 12:15:00</t>
+        </is>
+      </c>
+      <c r="J773" t="n">
+        <v>2049.949951171875</v>
+      </c>
+      <c r="K773" t="n">
+        <v>1975</v>
+      </c>
+      <c r="L773" t="inlineStr">
+        <is>
+          <t>12/06/2024 07:46:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>RPEL.BO</t>
+        </is>
+      </c>
+      <c r="B774" s="2" t="n">
+        <v>45439.38541666666</v>
+      </c>
+      <c r="C774" t="n">
+        <v>695.9000244140625</v>
+      </c>
+      <c r="D774" t="n">
+        <v>672</v>
+      </c>
+      <c r="E774" t="n">
+        <v>686</v>
+      </c>
+      <c r="F774" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G774" t="n">
+        <v>672</v>
+      </c>
+      <c r="H774" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I774" t="inlineStr">
+        <is>
+          <t>12-06-2024 12:15:00</t>
+        </is>
+      </c>
+      <c r="J774" t="n">
+        <v>665</v>
+      </c>
+      <c r="K774" t="n">
+        <v>675</v>
+      </c>
+      <c r="L774" t="inlineStr">
+        <is>
+          <t>12/06/2024 07:46:53</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L242"/>
+  <dimension ref="A1:L246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12066,6 +12066,198 @@
       <c r="L242" t="inlineStr">
         <is>
           <t>12/06/2024 07:46:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>45418.55208333334</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>12-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>HERCULES.NS</t>
+        </is>
+      </c>
+      <c r="E243" s="2" t="n">
+        <v>45400.38541666666</v>
+      </c>
+      <c r="F243" t="n">
+        <v>522.9500122070312</v>
+      </c>
+      <c r="G243" s="2" t="n">
+        <v>45411.46875</v>
+      </c>
+      <c r="H243" t="n">
+        <v>517.0999755859375</v>
+      </c>
+      <c r="I243" s="2" t="n">
+        <v>45415.38541666666</v>
+      </c>
+      <c r="J243" t="n">
+        <v>519.2000122070312</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>12/06/2024 08:46:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>45363.55208333334</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>12-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>ACC.NS</t>
+        </is>
+      </c>
+      <c r="E244" s="2" t="n">
+        <v>45338.51041666666</v>
+      </c>
+      <c r="F244" t="n">
+        <v>2746.25</v>
+      </c>
+      <c r="G244" s="2" t="n">
+        <v>45348.38541666666</v>
+      </c>
+      <c r="H244" t="n">
+        <v>2720</v>
+      </c>
+      <c r="I244" s="2" t="n">
+        <v>45355.38541666666</v>
+      </c>
+      <c r="J244" t="n">
+        <v>2723.14990234375</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>12/06/2024 08:46:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>45454.55208333334</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>12-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>JIOFIN.NS</t>
+        </is>
+      </c>
+      <c r="E245" s="2" t="n">
+        <v>45435.51041666666</v>
+      </c>
+      <c r="F245" t="n">
+        <v>374.8999938964844</v>
+      </c>
+      <c r="G245" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="H245" t="n">
+        <v>365.6499938964844</v>
+      </c>
+      <c r="I245" s="2" t="n">
+        <v>45453.38541666666</v>
+      </c>
+      <c r="J245" t="n">
+        <v>357</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>12/06/2024 08:46:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>45447.55208333334</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>12-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>TANFACIND.BO</t>
+        </is>
+      </c>
+      <c r="E246" s="2" t="n">
+        <v>45428.38541666666</v>
+      </c>
+      <c r="F246" t="n">
+        <v>2230.449951171875</v>
+      </c>
+      <c r="G246" s="2" t="n">
+        <v>45434.63541666666</v>
+      </c>
+      <c r="H246" t="n">
+        <v>2189.89990234375</v>
+      </c>
+      <c r="I246" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="J246" t="n">
+        <v>2100</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>12/06/2024 08:46:51</t>
         </is>
       </c>
     </row>
@@ -12080,7 +12272,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15203,6 +15395,132 @@
       <c r="J74" t="inlineStr">
         <is>
           <t>12/06/2024 07:46:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45433.55208333334</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>12-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>WEBELSOLAR.NS</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45427.51041666666</v>
+      </c>
+      <c r="F75" t="n">
+        <v>659.8499755859375</v>
+      </c>
+      <c r="G75" s="2" t="n">
+        <v>45429.38541666666</v>
+      </c>
+      <c r="H75" t="n">
+        <v>660</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>12/06/2024 08:46:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45433.59375</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>12-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>WALCHANNAG.NS</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45429.38541666666</v>
+      </c>
+      <c r="F76" t="n">
+        <v>219.0500030517578</v>
+      </c>
+      <c r="G76" s="2" t="n">
+        <v>45429.42708333334</v>
+      </c>
+      <c r="H76" t="n">
+        <v>219.0500030517578</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>12/06/2024 08:46:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45433.63541666666</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>12-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>WALCHANNAG.NS</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45429.38541666666</v>
+      </c>
+      <c r="F77" t="n">
+        <v>219.0500030517578</v>
+      </c>
+      <c r="G77" s="2" t="n">
+        <v>45429.46875</v>
+      </c>
+      <c r="H77" t="n">
+        <v>219.0500030517578</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>12/06/2024 08:46:51</t>
         </is>
       </c>
     </row>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -12272,7 +12272,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15521,6 +15521,216 @@
       <c r="J77" t="inlineStr">
         <is>
           <t>12/06/2024 08:46:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45446.42708333334</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>12-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>SKYGOLD.NS</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45439.38541666666</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1239</v>
+      </c>
+      <c r="G78" s="2" t="n">
+        <v>45442.55208333334</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1232.550048828125</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>12/06/2024 09:48:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45448.42708333334</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>12-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>SKYGOLD.NS</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45442.63541666666</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1232.550048828125</v>
+      </c>
+      <c r="G79" s="2" t="n">
+        <v>45446.55208333334</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1231.699951171875</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>12/06/2024 09:48:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45448.42708333334</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>12-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>SKYGOLD.NS</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45442.59375</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1232.550048828125</v>
+      </c>
+      <c r="G80" s="2" t="n">
+        <v>45446.55208333334</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1231.699951171875</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>12/06/2024 09:48:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45448.46875</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>12-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>SKYGOLD.NS</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45442.63541666666</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1232.550048828125</v>
+      </c>
+      <c r="G81" s="2" t="n">
+        <v>45446.59375</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1231.699951171875</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>12/06/2024 09:48:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45435.46875</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>12-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>MANINDS.NS</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45420.59375</v>
+      </c>
+      <c r="F82" t="n">
+        <v>387</v>
+      </c>
+      <c r="G82" s="2" t="n">
+        <v>45433.59375</v>
+      </c>
+      <c r="H82" t="n">
+        <v>386</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>12/06/2024 09:48:01</t>
         </is>
       </c>
     </row>
@@ -15535,7 +15745,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L774"/>
+  <dimension ref="A1:L777"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52709,6 +52919,150 @@
         </is>
       </c>
     </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>SHANKARA.NS</t>
+        </is>
+      </c>
+      <c r="B775" s="2" t="n">
+        <v>45442.51041666666</v>
+      </c>
+      <c r="C775" t="n">
+        <v>712.5</v>
+      </c>
+      <c r="D775" t="n">
+        <v>703.9500122070312</v>
+      </c>
+      <c r="E775" t="n">
+        <v>706.0499877929688</v>
+      </c>
+      <c r="F775" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G775" t="n">
+        <v>712.5</v>
+      </c>
+      <c r="H775" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I775" t="inlineStr">
+        <is>
+          <t>12-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J775" t="n">
+        <v>713.9500122070312</v>
+      </c>
+      <c r="K775" t="n">
+        <v>710.5999755859375</v>
+      </c>
+      <c r="L775" t="inlineStr">
+        <is>
+          <t>12/06/2024 09:48:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>SHANKARA.NS</t>
+        </is>
+      </c>
+      <c r="B776" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="C776" t="n">
+        <v>711.7999877929688</v>
+      </c>
+      <c r="D776" t="n">
+        <v>693.0499877929688</v>
+      </c>
+      <c r="E776" t="n">
+        <v>694.9000244140625</v>
+      </c>
+      <c r="F776" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G776" t="n">
+        <v>711.7999877929688</v>
+      </c>
+      <c r="H776" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I776" t="inlineStr">
+        <is>
+          <t>12-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J776" t="n">
+        <v>713.9500122070312</v>
+      </c>
+      <c r="K776" t="n">
+        <v>710.5999755859375</v>
+      </c>
+      <c r="L776" t="inlineStr">
+        <is>
+          <t>12/06/2024 09:48:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>SHANKARA.NS</t>
+        </is>
+      </c>
+      <c r="B777" s="2" t="n">
+        <v>45453.42708333334</v>
+      </c>
+      <c r="C777" t="n">
+        <v>713.5999755859375</v>
+      </c>
+      <c r="D777" t="n">
+        <v>694.0499877929688</v>
+      </c>
+      <c r="E777" t="n">
+        <v>713</v>
+      </c>
+      <c r="F777" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G777" t="n">
+        <v>713.5999755859375</v>
+      </c>
+      <c r="H777" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I777" t="inlineStr">
+        <is>
+          <t>12-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J777" t="n">
+        <v>713.9500122070312</v>
+      </c>
+      <c r="K777" t="n">
+        <v>710.5999755859375</v>
+      </c>
+      <c r="L777" t="inlineStr">
+        <is>
+          <t>12/06/2024 09:48:01</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L246"/>
+  <dimension ref="A1:L263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12258,6 +12258,822 @@
       <c r="L246" t="inlineStr">
         <is>
           <t>12/06/2024 08:46:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>ULTRACEMCO.NS</t>
+        </is>
+      </c>
+      <c r="E247" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="F247" t="n">
+        <v>10526</v>
+      </c>
+      <c r="G247" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="H247" t="n">
+        <v>10277.7001953125</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>JSWSTEEL.NS</t>
+        </is>
+      </c>
+      <c r="E248" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="F248" t="n">
+        <v>895.75</v>
+      </c>
+      <c r="G248" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="H248" t="n">
+        <v>850</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>TECHM.NS</t>
+        </is>
+      </c>
+      <c r="E249" s="2" t="n">
+        <v>45187</v>
+      </c>
+      <c r="F249" t="n">
+        <v>1320</v>
+      </c>
+      <c r="G249" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="H249" t="n">
+        <v>1416.300048828125</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>AMBUJACEM.NS</t>
+        </is>
+      </c>
+      <c r="E250" s="2" t="n">
+        <v>44900</v>
+      </c>
+      <c r="F250" t="n">
+        <v>598</v>
+      </c>
+      <c r="G250" s="2" t="n">
+        <v>45089</v>
+      </c>
+      <c r="H250" t="n">
+        <v>468.8999938964844</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>IRB.NS</t>
+        </is>
+      </c>
+      <c r="E251" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="F251" t="n">
+        <v>72</v>
+      </c>
+      <c r="G251" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="H251" t="n">
+        <v>73.09999847412109</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>SWARAJENG.NS</t>
+        </is>
+      </c>
+      <c r="E252" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="F252" t="n">
+        <v>2553.75</v>
+      </c>
+      <c r="G252" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="H252" t="n">
+        <v>2649.949951171875</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>BAJAJST.BO</t>
+        </is>
+      </c>
+      <c r="E253" s="2" t="n">
+        <v>45068</v>
+      </c>
+      <c r="F253" t="n">
+        <v>1399</v>
+      </c>
+      <c r="G253" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="H253" t="n">
+        <v>1626.900024414062</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>BAJAJST.BO</t>
+        </is>
+      </c>
+      <c r="E254" s="2" t="n">
+        <v>45061</v>
+      </c>
+      <c r="F254" t="n">
+        <v>1399</v>
+      </c>
+      <c r="G254" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="H254" t="n">
+        <v>1626.900024414062</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>JISLJALEQS.NS</t>
+        </is>
+      </c>
+      <c r="E255" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="F255" t="n">
+        <v>69.80000305175781</v>
+      </c>
+      <c r="G255" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="H255" t="n">
+        <v>73.44999694824219</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>JISLJALEQS.NS</t>
+        </is>
+      </c>
+      <c r="E256" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="F256" t="n">
+        <v>73.44999694824219</v>
+      </c>
+      <c r="G256" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="H256" t="n">
+        <v>68.59999847412109</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>44319</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="E257" s="2" t="n">
+        <v>43549</v>
+      </c>
+      <c r="F257" t="n">
+        <v>13.10999965667725</v>
+      </c>
+      <c r="G257" s="2" t="n">
+        <v>44200</v>
+      </c>
+      <c r="H257" t="n">
+        <v>12.52000045776367</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>44319</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="E258" s="2" t="n">
+        <v>44200</v>
+      </c>
+      <c r="F258" t="n">
+        <v>12.52000045776367</v>
+      </c>
+      <c r="G258" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="H258" t="n">
+        <v>10.97000026702881</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>44319</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="E259" s="2" t="n">
+        <v>43542</v>
+      </c>
+      <c r="F259" t="n">
+        <v>13.10999965667725</v>
+      </c>
+      <c r="G259" s="2" t="n">
+        <v>44200</v>
+      </c>
+      <c r="H259" t="n">
+        <v>12.52000045776367</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>44319</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="E260" s="2" t="n">
+        <v>43542</v>
+      </c>
+      <c r="F260" t="n">
+        <v>13.10999965667725</v>
+      </c>
+      <c r="G260" s="2" t="n">
+        <v>44158</v>
+      </c>
+      <c r="H260" t="n">
+        <v>12</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>DECCANCE.NS</t>
+        </is>
+      </c>
+      <c r="E261" s="2" t="n">
+        <v>44816</v>
+      </c>
+      <c r="F261" t="n">
+        <v>588</v>
+      </c>
+      <c r="G261" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="H261" t="n">
+        <v>668.4500122070312</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>45019</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>LIKHITHA.NS</t>
+        </is>
+      </c>
+      <c r="E262" s="2" t="n">
+        <v>44662</v>
+      </c>
+      <c r="F262" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="G262" s="2" t="n">
+        <v>44893</v>
+      </c>
+      <c r="H262" t="n">
+        <v>273.3500061035156</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>ANDHRAPET.BO</t>
+        </is>
+      </c>
+      <c r="E263" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="F263" t="n">
+        <v>115.9499969482422</v>
+      </c>
+      <c r="G263" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="H263" t="n">
+        <v>94.90000152587891</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
         </is>
       </c>
     </row>
@@ -12272,7 +13088,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15731,6 +16547,132 @@
       <c r="J82" t="inlineStr">
         <is>
           <t>12/06/2024 09:48:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>44599</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>KOTAKBANK.NS</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>44550</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1721</v>
+      </c>
+      <c r="G83" s="2" t="n">
+        <v>44557</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1721</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>BALRAMCHIN.NS</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>44914</v>
+      </c>
+      <c r="F84" t="n">
+        <v>414.8999938964844</v>
+      </c>
+      <c r="G84" s="2" t="n">
+        <v>45096</v>
+      </c>
+      <c r="H84" t="n">
+        <v>416</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="F85" t="n">
+        <v>527.7999877929688</v>
+      </c>
+      <c r="G85" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="H85" t="n">
+        <v>527</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
         </is>
       </c>
     </row>
@@ -15745,7 +16687,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L777"/>
+  <dimension ref="A1:L839"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53063,6 +54005,2982 @@
         </is>
       </c>
     </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>ULTRACEMCO.NS</t>
+        </is>
+      </c>
+      <c r="B778" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="C778" t="n">
+        <v>10526</v>
+      </c>
+      <c r="D778" t="n">
+        <v>9969</v>
+      </c>
+      <c r="E778" t="n">
+        <v>10503.0498046875</v>
+      </c>
+      <c r="F778" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G778" t="n">
+        <v>10526</v>
+      </c>
+      <c r="H778" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I778" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J778" t="n">
+        <v>11099.9501953125</v>
+      </c>
+      <c r="K778" t="n">
+        <v>10519.7998046875</v>
+      </c>
+      <c r="L778" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>CIPLA.NS</t>
+        </is>
+      </c>
+      <c r="B779" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C779" t="n">
+        <v>1519</v>
+      </c>
+      <c r="D779" t="n">
+        <v>1449</v>
+      </c>
+      <c r="E779" t="n">
+        <v>1488.050048828125</v>
+      </c>
+      <c r="F779" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G779" t="n">
+        <v>1519</v>
+      </c>
+      <c r="H779" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I779" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J779" t="n">
+        <v>1549</v>
+      </c>
+      <c r="K779" t="n">
+        <v>1514</v>
+      </c>
+      <c r="L779" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS</t>
+        </is>
+      </c>
+      <c r="B780" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C780" t="n">
+        <v>1352.599975585938</v>
+      </c>
+      <c r="D780" t="n">
+        <v>1161.150024414062</v>
+      </c>
+      <c r="E780" t="n">
+        <v>1309.699951171875</v>
+      </c>
+      <c r="F780" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G780" t="n">
+        <v>1352.599975585938</v>
+      </c>
+      <c r="H780" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I780" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J780" t="n">
+        <v>1369.199951171875</v>
+      </c>
+      <c r="K780" t="n">
+        <v>1351</v>
+      </c>
+      <c r="L780" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>FEDERALBNK.NS</t>
+        </is>
+      </c>
+      <c r="B781" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C781" t="n">
+        <v>170.3000030517578</v>
+      </c>
+      <c r="D781" t="n">
+        <v>156.0500030517578</v>
+      </c>
+      <c r="E781" t="n">
+        <v>165.9499969482422</v>
+      </c>
+      <c r="F781" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G781" t="n">
+        <v>170.3000030517578</v>
+      </c>
+      <c r="H781" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I781" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J781" t="n">
+        <v>174.5599975585938</v>
+      </c>
+      <c r="K781" t="n">
+        <v>169.1000061035156</v>
+      </c>
+      <c r="L781" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>VBL.NS</t>
+        </is>
+      </c>
+      <c r="B782" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C782" t="n">
+        <v>1561.949951171875</v>
+      </c>
+      <c r="D782" t="n">
+        <v>1345</v>
+      </c>
+      <c r="E782" t="n">
+        <v>1417.849975585938</v>
+      </c>
+      <c r="F782" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G782" t="n">
+        <v>1561.949951171875</v>
+      </c>
+      <c r="H782" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I782" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J782" t="n">
+        <v>1593.699951171875</v>
+      </c>
+      <c r="K782" t="n">
+        <v>1528</v>
+      </c>
+      <c r="L782" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>SHREECEM.NS</t>
+        </is>
+      </c>
+      <c r="B783" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="C783" t="n">
+        <v>27298.94921875</v>
+      </c>
+      <c r="D783" t="n">
+        <v>25900</v>
+      </c>
+      <c r="E783" t="n">
+        <v>26084.650390625</v>
+      </c>
+      <c r="F783" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G783" t="n">
+        <v>27298.94921875</v>
+      </c>
+      <c r="H783" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I783" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J783" t="n">
+        <v>27720.5</v>
+      </c>
+      <c r="K783" t="n">
+        <v>26250</v>
+      </c>
+      <c r="L783" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>SHREECEM.NS</t>
+        </is>
+      </c>
+      <c r="B784" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C784" t="n">
+        <v>26743.30078125</v>
+      </c>
+      <c r="D784" t="n">
+        <v>25699</v>
+      </c>
+      <c r="E784" t="n">
+        <v>25811.05078125</v>
+      </c>
+      <c r="F784" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G784" t="n">
+        <v>26743.30078125</v>
+      </c>
+      <c r="H784" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I784" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J784" t="n">
+        <v>27720.5</v>
+      </c>
+      <c r="K784" t="n">
+        <v>26250</v>
+      </c>
+      <c r="L784" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>PGHH.NS</t>
+        </is>
+      </c>
+      <c r="B785" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="C785" t="n">
+        <v>17050.900390625</v>
+      </c>
+      <c r="D785" t="n">
+        <v>16111</v>
+      </c>
+      <c r="E785" t="n">
+        <v>16928.44921875</v>
+      </c>
+      <c r="F785" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G785" t="n">
+        <v>17050.900390625</v>
+      </c>
+      <c r="H785" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I785" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J785" t="n">
+        <v>17064.94921875</v>
+      </c>
+      <c r="K785" t="n">
+        <v>16947.19921875</v>
+      </c>
+      <c r="L785" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>BALRAMCHIN.NS</t>
+        </is>
+      </c>
+      <c r="B786" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C786" t="n">
+        <v>409.5</v>
+      </c>
+      <c r="D786" t="n">
+        <v>387.1000061035156</v>
+      </c>
+      <c r="E786" t="n">
+        <v>391.6000061035156</v>
+      </c>
+      <c r="F786" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G786" t="n">
+        <v>409.5</v>
+      </c>
+      <c r="H786" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I786" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J786" t="n">
+        <v>421.25</v>
+      </c>
+      <c r="K786" t="n">
+        <v>407.3999938964844</v>
+      </c>
+      <c r="L786" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>BAJAJHIND.NS</t>
+        </is>
+      </c>
+      <c r="B787" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="C787" t="n">
+        <v>35.84999847412109</v>
+      </c>
+      <c r="D787" t="n">
+        <v>30</v>
+      </c>
+      <c r="E787" t="n">
+        <v>32.40000152587891</v>
+      </c>
+      <c r="F787" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G787" t="n">
+        <v>35.84999847412109</v>
+      </c>
+      <c r="H787" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I787" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J787" t="n">
+        <v>37.31000137329102</v>
+      </c>
+      <c r="K787" t="n">
+        <v>34.25</v>
+      </c>
+      <c r="L787" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>PATELENG.NS</t>
+        </is>
+      </c>
+      <c r="B788" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="C788" t="n">
+        <v>66.19999694824219</v>
+      </c>
+      <c r="D788" t="n">
+        <v>60.29999923706055</v>
+      </c>
+      <c r="E788" t="n">
+        <v>64.59999847412109</v>
+      </c>
+      <c r="F788" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G788" t="n">
+        <v>66.19999694824219</v>
+      </c>
+      <c r="H788" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I788" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J788" t="n">
+        <v>67.40000152587891</v>
+      </c>
+      <c r="K788" t="n">
+        <v>65.05000305175781</v>
+      </c>
+      <c r="L788" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>PRAJIND.NS</t>
+        </is>
+      </c>
+      <c r="B789" s="2" t="n">
+        <v>45208</v>
+      </c>
+      <c r="C789" t="n">
+        <v>614.6500244140625</v>
+      </c>
+      <c r="D789" t="n">
+        <v>565.8499755859375</v>
+      </c>
+      <c r="E789" t="n">
+        <v>591.9000244140625</v>
+      </c>
+      <c r="F789" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G789" t="n">
+        <v>614.6500244140625</v>
+      </c>
+      <c r="H789" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I789" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J789" t="n">
+        <v>658</v>
+      </c>
+      <c r="K789" t="n">
+        <v>598.2000122070312</v>
+      </c>
+      <c r="L789" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>PRAJIND.NS</t>
+        </is>
+      </c>
+      <c r="B790" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="C790" t="n">
+        <v>650.5</v>
+      </c>
+      <c r="D790" t="n">
+        <v>609.1500244140625</v>
+      </c>
+      <c r="E790" t="n">
+        <v>630.4000244140625</v>
+      </c>
+      <c r="F790" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G790" t="n">
+        <v>650.5</v>
+      </c>
+      <c r="H790" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I790" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J790" t="n">
+        <v>658</v>
+      </c>
+      <c r="K790" t="n">
+        <v>598.2000122070312</v>
+      </c>
+      <c r="L790" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>MAHEPC.NS</t>
+        </is>
+      </c>
+      <c r="B791" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C791" t="n">
+        <v>162.8000030517578</v>
+      </c>
+      <c r="D791" t="n">
+        <v>142.6000061035156</v>
+      </c>
+      <c r="E791" t="n">
+        <v>143.75</v>
+      </c>
+      <c r="F791" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G791" t="n">
+        <v>162.8000030517578</v>
+      </c>
+      <c r="H791" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I791" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J791" t="n">
+        <v>167.6499938964844</v>
+      </c>
+      <c r="K791" t="n">
+        <v>138.9499969482422</v>
+      </c>
+      <c r="L791" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>MAHEPC.NS</t>
+        </is>
+      </c>
+      <c r="B792" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C792" t="n">
+        <v>154</v>
+      </c>
+      <c r="D792" t="n">
+        <v>130.6000061035156</v>
+      </c>
+      <c r="E792" t="n">
+        <v>137.6499938964844</v>
+      </c>
+      <c r="F792" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G792" t="n">
+        <v>154</v>
+      </c>
+      <c r="H792" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I792" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J792" t="n">
+        <v>167.6499938964844</v>
+      </c>
+      <c r="K792" t="n">
+        <v>138.9499969482422</v>
+      </c>
+      <c r="L792" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>MAHLOG.NS</t>
+        </is>
+      </c>
+      <c r="B793" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="C793" t="n">
+        <v>460</v>
+      </c>
+      <c r="D793" t="n">
+        <v>435</v>
+      </c>
+      <c r="E793" t="n">
+        <v>437.9500122070312</v>
+      </c>
+      <c r="F793" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G793" t="n">
+        <v>460</v>
+      </c>
+      <c r="H793" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I793" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J793" t="n">
+        <v>473.9500122070312</v>
+      </c>
+      <c r="K793" t="n">
+        <v>458.25</v>
+      </c>
+      <c r="L793" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>PETRONET.NS</t>
+        </is>
+      </c>
+      <c r="B794" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C794" t="n">
+        <v>323.1499938964844</v>
+      </c>
+      <c r="D794" t="n">
+        <v>303.6499938964844</v>
+      </c>
+      <c r="E794" t="n">
+        <v>313.7999877929688</v>
+      </c>
+      <c r="F794" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G794" t="n">
+        <v>323.1499938964844</v>
+      </c>
+      <c r="H794" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I794" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J794" t="n">
+        <v>326</v>
+      </c>
+      <c r="K794" t="n">
+        <v>317.7000122070312</v>
+      </c>
+      <c r="L794" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>GMRINFRA.NS</t>
+        </is>
+      </c>
+      <c r="B795" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="C795" t="n">
+        <v>92.40000152587891</v>
+      </c>
+      <c r="D795" t="n">
+        <v>80.55000305175781</v>
+      </c>
+      <c r="E795" t="n">
+        <v>90.75</v>
+      </c>
+      <c r="F795" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G795" t="n">
+        <v>92.40000152587891</v>
+      </c>
+      <c r="H795" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I795" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J795" t="n">
+        <v>92.80000305175781</v>
+      </c>
+      <c r="K795" t="n">
+        <v>88.94999694824219</v>
+      </c>
+      <c r="L795" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>SWARAJENG.NS</t>
+        </is>
+      </c>
+      <c r="B796" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C796" t="n">
+        <v>2649.949951171875</v>
+      </c>
+      <c r="D796" t="n">
+        <v>2310.5</v>
+      </c>
+      <c r="E796" t="n">
+        <v>2541.050048828125</v>
+      </c>
+      <c r="F796" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G796" t="n">
+        <v>2649.949951171875</v>
+      </c>
+      <c r="H796" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I796" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J796" t="n">
+        <v>2755</v>
+      </c>
+      <c r="K796" t="n">
+        <v>2557.64990234375</v>
+      </c>
+      <c r="L796" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>HATHWAY.NS</t>
+        </is>
+      </c>
+      <c r="B797" s="2" t="n">
+        <v>45201</v>
+      </c>
+      <c r="C797" t="n">
+        <v>22.29999923706055</v>
+      </c>
+      <c r="D797" t="n">
+        <v>19.89999961853027</v>
+      </c>
+      <c r="E797" t="n">
+        <v>20.60000038146973</v>
+      </c>
+      <c r="F797" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G797" t="n">
+        <v>22.29999923706055</v>
+      </c>
+      <c r="H797" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I797" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J797" t="n">
+        <v>22.56999969482422</v>
+      </c>
+      <c r="K797" t="n">
+        <v>21.29999923706055</v>
+      </c>
+      <c r="L797" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>ARTSONEN.BO</t>
+        </is>
+      </c>
+      <c r="B798" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="C798" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="D798" t="n">
+        <v>144</v>
+      </c>
+      <c r="E798" t="n">
+        <v>181.0500030517578</v>
+      </c>
+      <c r="F798" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G798" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="H798" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I798" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J798" t="n">
+        <v>199</v>
+      </c>
+      <c r="K798" t="n">
+        <v>185</v>
+      </c>
+      <c r="L798" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>APLAPOLLO.NS</t>
+        </is>
+      </c>
+      <c r="B799" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C799" t="n">
+        <v>1660</v>
+      </c>
+      <c r="D799" t="n">
+        <v>1440</v>
+      </c>
+      <c r="E799" t="n">
+        <v>1474.699951171875</v>
+      </c>
+      <c r="F799" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G799" t="n">
+        <v>1660</v>
+      </c>
+      <c r="H799" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I799" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J799" t="n">
+        <v>1667.5</v>
+      </c>
+      <c r="K799" t="n">
+        <v>1631.5</v>
+      </c>
+      <c r="L799" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>SCHNEIDER.NS</t>
+        </is>
+      </c>
+      <c r="B800" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C800" t="n">
+        <v>857.8499755859375</v>
+      </c>
+      <c r="D800" t="n">
+        <v>765</v>
+      </c>
+      <c r="E800" t="n">
+        <v>787.25</v>
+      </c>
+      <c r="F800" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G800" t="n">
+        <v>857.8499755859375</v>
+      </c>
+      <c r="H800" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I800" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J800" t="n">
+        <v>862.4500122070312</v>
+      </c>
+      <c r="K800" t="n">
+        <v>745.0499877929688</v>
+      </c>
+      <c r="L800" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>JISLJALEQS.NS</t>
+        </is>
+      </c>
+      <c r="B801" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C801" t="n">
+        <v>69.80000305175781</v>
+      </c>
+      <c r="D801" t="n">
+        <v>61.59999847412109</v>
+      </c>
+      <c r="E801" t="n">
+        <v>65.90000152587891</v>
+      </c>
+      <c r="F801" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G801" t="n">
+        <v>69.80000305175781</v>
+      </c>
+      <c r="H801" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I801" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J801" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="K801" t="n">
+        <v>67.69999694824219</v>
+      </c>
+      <c r="L801" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>JISLJALEQS.NS</t>
+        </is>
+      </c>
+      <c r="B802" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="C802" t="n">
+        <v>73.44999694824219</v>
+      </c>
+      <c r="D802" t="n">
+        <v>67.05000305175781</v>
+      </c>
+      <c r="E802" t="n">
+        <v>71.19999694824219</v>
+      </c>
+      <c r="F802" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G802" t="n">
+        <v>73.44999694824219</v>
+      </c>
+      <c r="H802" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I802" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J802" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="K802" t="n">
+        <v>67.69999694824219</v>
+      </c>
+      <c r="L802" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>JISLJALEQS.NS</t>
+        </is>
+      </c>
+      <c r="B803" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C803" t="n">
+        <v>68.59999847412109</v>
+      </c>
+      <c r="D803" t="n">
+        <v>61.65000152587891</v>
+      </c>
+      <c r="E803" t="n">
+        <v>66.05000305175781</v>
+      </c>
+      <c r="F803" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G803" t="n">
+        <v>68.59999847412109</v>
+      </c>
+      <c r="H803" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I803" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J803" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="K803" t="n">
+        <v>67.69999694824219</v>
+      </c>
+      <c r="L803" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>TATACHEM.NS</t>
+        </is>
+      </c>
+      <c r="B804" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C804" t="n">
+        <v>1110.849975585938</v>
+      </c>
+      <c r="D804" t="n">
+        <v>1070.5</v>
+      </c>
+      <c r="E804" t="n">
+        <v>1085.300048828125</v>
+      </c>
+      <c r="F804" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G804" t="n">
+        <v>1110.849975585938</v>
+      </c>
+      <c r="H804" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I804" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J804" t="n">
+        <v>1135</v>
+      </c>
+      <c r="K804" t="n">
+        <v>1068</v>
+      </c>
+      <c r="L804" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B805" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="C805" t="n">
+        <v>527.7999877929688</v>
+      </c>
+      <c r="D805" t="n">
+        <v>472.3999938964844</v>
+      </c>
+      <c r="E805" t="n">
+        <v>513</v>
+      </c>
+      <c r="F805" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G805" t="n">
+        <v>527.7999877929688</v>
+      </c>
+      <c r="H805" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I805" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J805" t="n">
+        <v>563.7000122070312</v>
+      </c>
+      <c r="K805" t="n">
+        <v>495</v>
+      </c>
+      <c r="L805" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B806" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C806" t="n">
+        <v>522.2000122070312</v>
+      </c>
+      <c r="D806" t="n">
+        <v>464</v>
+      </c>
+      <c r="E806" t="n">
+        <v>491.9500122070312</v>
+      </c>
+      <c r="F806" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G806" t="n">
+        <v>522.2000122070312</v>
+      </c>
+      <c r="H806" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I806" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J806" t="n">
+        <v>563.7000122070312</v>
+      </c>
+      <c r="K806" t="n">
+        <v>495</v>
+      </c>
+      <c r="L806" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B807" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C807" t="n">
+        <v>527</v>
+      </c>
+      <c r="D807" t="n">
+        <v>476.2000122070312</v>
+      </c>
+      <c r="E807" t="n">
+        <v>479.3999938964844</v>
+      </c>
+      <c r="F807" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G807" t="n">
+        <v>527</v>
+      </c>
+      <c r="H807" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I807" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J807" t="n">
+        <v>563.7000122070312</v>
+      </c>
+      <c r="K807" t="n">
+        <v>495</v>
+      </c>
+      <c r="L807" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B808" s="2" t="n">
+        <v>45145</v>
+      </c>
+      <c r="C808" t="n">
+        <v>464.9500122070312</v>
+      </c>
+      <c r="D808" t="n">
+        <v>416.1499938964844</v>
+      </c>
+      <c r="E808" t="n">
+        <v>444.0499877929688</v>
+      </c>
+      <c r="F808" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G808" t="n">
+        <v>416.1499938964844</v>
+      </c>
+      <c r="H808" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I808" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J808" t="n">
+        <v>402.7999877929688</v>
+      </c>
+      <c r="K808" t="n">
+        <v>441.8500061035156</v>
+      </c>
+      <c r="L808" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B809" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="C809" t="n">
+        <v>457.1000061035156</v>
+      </c>
+      <c r="D809" t="n">
+        <v>425</v>
+      </c>
+      <c r="E809" t="n">
+        <v>444.6000061035156</v>
+      </c>
+      <c r="F809" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G809" t="n">
+        <v>425</v>
+      </c>
+      <c r="H809" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I809" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J809" t="n">
+        <v>402.7999877929688</v>
+      </c>
+      <c r="K809" t="n">
+        <v>441.8500061035156</v>
+      </c>
+      <c r="L809" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B810" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="C810" t="n">
+        <v>480.9500122070312</v>
+      </c>
+      <c r="D810" t="n">
+        <v>413.4500122070312</v>
+      </c>
+      <c r="E810" t="n">
+        <v>450.75</v>
+      </c>
+      <c r="F810" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G810" t="n">
+        <v>413.4500122070312</v>
+      </c>
+      <c r="H810" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I810" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J810" t="n">
+        <v>402.7999877929688</v>
+      </c>
+      <c r="K810" t="n">
+        <v>441.8500061035156</v>
+      </c>
+      <c r="L810" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B811" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C811" t="n">
+        <v>961</v>
+      </c>
+      <c r="D811" t="n">
+        <v>912.2999877929688</v>
+      </c>
+      <c r="E811" t="n">
+        <v>935.25</v>
+      </c>
+      <c r="F811" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G811" t="n">
+        <v>961</v>
+      </c>
+      <c r="H811" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I811" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J811" t="n">
+        <v>966.2000122070312</v>
+      </c>
+      <c r="K811" t="n">
+        <v>947.2999877929688</v>
+      </c>
+      <c r="L811" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>PREMEXPLN.NS</t>
+        </is>
+      </c>
+      <c r="B812" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C812" t="n">
+        <v>2780</v>
+      </c>
+      <c r="D812" t="n">
+        <v>2326.64990234375</v>
+      </c>
+      <c r="E812" t="n">
+        <v>2431.25</v>
+      </c>
+      <c r="F812" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G812" t="n">
+        <v>2780</v>
+      </c>
+      <c r="H812" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I812" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J812" t="n">
+        <v>3345.449951171875</v>
+      </c>
+      <c r="K812" t="n">
+        <v>2688</v>
+      </c>
+      <c r="L812" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>MICEL.NS</t>
+        </is>
+      </c>
+      <c r="B813" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C813" t="n">
+        <v>53.65000152587891</v>
+      </c>
+      <c r="D813" t="n">
+        <v>44.29999923706055</v>
+      </c>
+      <c r="E813" t="n">
+        <v>48.25</v>
+      </c>
+      <c r="F813" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G813" t="n">
+        <v>53.65000152587891</v>
+      </c>
+      <c r="H813" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I813" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J813" t="n">
+        <v>54.81999969482422</v>
+      </c>
+      <c r="K813" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="L813" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>ASMTEC.BO</t>
+        </is>
+      </c>
+      <c r="B814" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C814" t="n">
+        <v>1118</v>
+      </c>
+      <c r="D814" t="n">
+        <v>954</v>
+      </c>
+      <c r="E814" t="n">
+        <v>989.3499755859375</v>
+      </c>
+      <c r="F814" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G814" t="n">
+        <v>1118</v>
+      </c>
+      <c r="H814" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I814" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J814" t="n">
+        <v>1149.949951171875</v>
+      </c>
+      <c r="K814" t="n">
+        <v>1100.400024414062</v>
+      </c>
+      <c r="L814" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>AMBER.NS</t>
+        </is>
+      </c>
+      <c r="B815" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="C815" t="n">
+        <v>4147.9501953125</v>
+      </c>
+      <c r="D815" t="n">
+        <v>3781.5</v>
+      </c>
+      <c r="E815" t="n">
+        <v>3803.25</v>
+      </c>
+      <c r="F815" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G815" t="n">
+        <v>4147.9501953125</v>
+      </c>
+      <c r="H815" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I815" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J815" t="n">
+        <v>4180</v>
+      </c>
+      <c r="K815" t="n">
+        <v>3800</v>
+      </c>
+      <c r="L815" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>TATACOMM.NS</t>
+        </is>
+      </c>
+      <c r="B816" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="C816" t="n">
+        <v>1842</v>
+      </c>
+      <c r="D816" t="n">
+        <v>1688.050048828125</v>
+      </c>
+      <c r="E816" t="n">
+        <v>1730.150024414062</v>
+      </c>
+      <c r="F816" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G816" t="n">
+        <v>1842</v>
+      </c>
+      <c r="H816" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I816" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J816" t="n">
+        <v>1917.150024414062</v>
+      </c>
+      <c r="K816" t="n">
+        <v>1821.400024414062</v>
+      </c>
+      <c r="L816" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B817" s="2" t="n">
+        <v>44158</v>
+      </c>
+      <c r="C817" t="n">
+        <v>12</v>
+      </c>
+      <c r="D817" t="n">
+        <v>12</v>
+      </c>
+      <c r="E817" t="n">
+        <v>12</v>
+      </c>
+      <c r="F817" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G817" t="n">
+        <v>12</v>
+      </c>
+      <c r="H817" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I817" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J817" t="n">
+        <v>130.9199981689453</v>
+      </c>
+      <c r="K817" t="n">
+        <v>9.989999771118164</v>
+      </c>
+      <c r="L817" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B818" s="2" t="n">
+        <v>44200</v>
+      </c>
+      <c r="C818" t="n">
+        <v>12.52000045776367</v>
+      </c>
+      <c r="D818" t="n">
+        <v>10.82999992370605</v>
+      </c>
+      <c r="E818" t="n">
+        <v>11.35999965667725</v>
+      </c>
+      <c r="F818" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G818" t="n">
+        <v>12.52000045776367</v>
+      </c>
+      <c r="H818" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I818" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J818" t="n">
+        <v>130.9199981689453</v>
+      </c>
+      <c r="K818" t="n">
+        <v>9.989999771118164</v>
+      </c>
+      <c r="L818" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B819" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="C819" t="n">
+        <v>10.97000026702881</v>
+      </c>
+      <c r="D819" t="n">
+        <v>10</v>
+      </c>
+      <c r="E819" t="n">
+        <v>10</v>
+      </c>
+      <c r="F819" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G819" t="n">
+        <v>10.97000026702881</v>
+      </c>
+      <c r="H819" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I819" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J819" t="n">
+        <v>130.9199981689453</v>
+      </c>
+      <c r="K819" t="n">
+        <v>9.989999771118164</v>
+      </c>
+      <c r="L819" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>IEX.NS</t>
+        </is>
+      </c>
+      <c r="B820" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="C820" t="n">
+        <v>173.3500061035156</v>
+      </c>
+      <c r="D820" t="n">
+        <v>162.0500030517578</v>
+      </c>
+      <c r="E820" t="n">
+        <v>164.1999969482422</v>
+      </c>
+      <c r="F820" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G820" t="n">
+        <v>173.3500061035156</v>
+      </c>
+      <c r="H820" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I820" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J820" t="n">
+        <v>174.6000061035156</v>
+      </c>
+      <c r="K820" t="n">
+        <v>167.5</v>
+      </c>
+      <c r="L820" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>JKPAPER.NS</t>
+        </is>
+      </c>
+      <c r="B821" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="C821" t="n">
+        <v>415.2999877929688</v>
+      </c>
+      <c r="D821" t="n">
+        <v>391</v>
+      </c>
+      <c r="E821" t="n">
+        <v>400.25</v>
+      </c>
+      <c r="F821" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G821" t="n">
+        <v>415.2999877929688</v>
+      </c>
+      <c r="H821" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I821" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J821" t="n">
+        <v>434.3999938964844</v>
+      </c>
+      <c r="K821" t="n">
+        <v>407.5499877929688</v>
+      </c>
+      <c r="L821" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>ANJANIFOODS.BO</t>
+        </is>
+      </c>
+      <c r="B822" s="2" t="n">
+        <v>44900</v>
+      </c>
+      <c r="C822" t="n">
+        <v>36.29999923706055</v>
+      </c>
+      <c r="D822" t="n">
+        <v>29.29999923706055</v>
+      </c>
+      <c r="E822" t="n">
+        <v>33.15000152587891</v>
+      </c>
+      <c r="F822" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G822" t="n">
+        <v>36.29999923706055</v>
+      </c>
+      <c r="H822" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I822" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J822" t="n">
+        <v>47.65000152587891</v>
+      </c>
+      <c r="K822" t="n">
+        <v>31.88999938964844</v>
+      </c>
+      <c r="L822" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>ANJANIFOODS.BO</t>
+        </is>
+      </c>
+      <c r="B823" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C823" t="n">
+        <v>31.95000076293945</v>
+      </c>
+      <c r="D823" t="n">
+        <v>27.71999931335449</v>
+      </c>
+      <c r="E823" t="n">
+        <v>29.20999908447266</v>
+      </c>
+      <c r="F823" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G823" t="n">
+        <v>31.95000076293945</v>
+      </c>
+      <c r="H823" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I823" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J823" t="n">
+        <v>47.65000152587891</v>
+      </c>
+      <c r="K823" t="n">
+        <v>31.88999938964844</v>
+      </c>
+      <c r="L823" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>ANJANIFOODS.BO</t>
+        </is>
+      </c>
+      <c r="B824" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="C824" t="n">
+        <v>43.77999877929688</v>
+      </c>
+      <c r="D824" t="n">
+        <v>37.83000183105469</v>
+      </c>
+      <c r="E824" t="n">
+        <v>41.41999816894531</v>
+      </c>
+      <c r="F824" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G824" t="n">
+        <v>43.77999877929688</v>
+      </c>
+      <c r="H824" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I824" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J824" t="n">
+        <v>47.65000152587891</v>
+      </c>
+      <c r="K824" t="n">
+        <v>31.88999938964844</v>
+      </c>
+      <c r="L824" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>ALKALI.NS</t>
+        </is>
+      </c>
+      <c r="B825" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C825" t="n">
+        <v>124</v>
+      </c>
+      <c r="D825" t="n">
+        <v>103</v>
+      </c>
+      <c r="E825" t="n">
+        <v>122.9499969482422</v>
+      </c>
+      <c r="F825" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G825" t="n">
+        <v>124</v>
+      </c>
+      <c r="H825" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I825" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J825" t="n">
+        <v>130.3099975585938</v>
+      </c>
+      <c r="K825" t="n">
+        <v>116.25</v>
+      </c>
+      <c r="L825" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>DECCANCE.NS</t>
+        </is>
+      </c>
+      <c r="B826" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C826" t="n">
+        <v>668.4500122070312</v>
+      </c>
+      <c r="D826" t="n">
+        <v>619.2000122070312</v>
+      </c>
+      <c r="E826" t="n">
+        <v>635.7999877929688</v>
+      </c>
+      <c r="F826" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G826" t="n">
+        <v>668.4500122070312</v>
+      </c>
+      <c r="H826" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I826" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J826" t="n">
+        <v>682.5999755859375</v>
+      </c>
+      <c r="K826" t="n">
+        <v>627.5999755859375</v>
+      </c>
+      <c r="L826" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>DECCANCE.NS</t>
+        </is>
+      </c>
+      <c r="B827" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="C827" t="n">
+        <v>647</v>
+      </c>
+      <c r="D827" t="n">
+        <v>612</v>
+      </c>
+      <c r="E827" t="n">
+        <v>635</v>
+      </c>
+      <c r="F827" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G827" t="n">
+        <v>647</v>
+      </c>
+      <c r="H827" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I827" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J827" t="n">
+        <v>682.5999755859375</v>
+      </c>
+      <c r="K827" t="n">
+        <v>627.5999755859375</v>
+      </c>
+      <c r="L827" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>AMIORG.NS</t>
+        </is>
+      </c>
+      <c r="B828" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C828" t="n">
+        <v>1296.5</v>
+      </c>
+      <c r="D828" t="n">
+        <v>1147</v>
+      </c>
+      <c r="E828" t="n">
+        <v>1220.800048828125</v>
+      </c>
+      <c r="F828" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G828" t="n">
+        <v>1296.5</v>
+      </c>
+      <c r="H828" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I828" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J828" t="n">
+        <v>1341.25</v>
+      </c>
+      <c r="K828" t="n">
+        <v>1248</v>
+      </c>
+      <c r="L828" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>AGARIND.NS</t>
+        </is>
+      </c>
+      <c r="B829" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C829" t="n">
+        <v>1099</v>
+      </c>
+      <c r="D829" t="n">
+        <v>1009.299987792969</v>
+      </c>
+      <c r="E829" t="n">
+        <v>1038.699951171875</v>
+      </c>
+      <c r="F829" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G829" t="n">
+        <v>1099</v>
+      </c>
+      <c r="H829" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I829" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J829" t="n">
+        <v>1144.849975585938</v>
+      </c>
+      <c r="K829" t="n">
+        <v>950</v>
+      </c>
+      <c r="L829" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>AGARIND.NS</t>
+        </is>
+      </c>
+      <c r="B830" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="C830" t="n">
+        <v>1032.400024414062</v>
+      </c>
+      <c r="D830" t="n">
+        <v>939</v>
+      </c>
+      <c r="E830" t="n">
+        <v>970.2000122070312</v>
+      </c>
+      <c r="F830" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G830" t="n">
+        <v>1032.400024414062</v>
+      </c>
+      <c r="H830" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I830" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J830" t="n">
+        <v>1144.849975585938</v>
+      </c>
+      <c r="K830" t="n">
+        <v>950</v>
+      </c>
+      <c r="L830" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>SASTASUNDR.NS</t>
+        </is>
+      </c>
+      <c r="B831" s="2" t="n">
+        <v>45089</v>
+      </c>
+      <c r="C831" t="n">
+        <v>314.7999877929688</v>
+      </c>
+      <c r="D831" t="n">
+        <v>285.1499938964844</v>
+      </c>
+      <c r="E831" t="n">
+        <v>289.4500122070312</v>
+      </c>
+      <c r="F831" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G831" t="n">
+        <v>314.7999877929688</v>
+      </c>
+      <c r="H831" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I831" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J831" t="n">
+        <v>357.6499938964844</v>
+      </c>
+      <c r="K831" t="n">
+        <v>314.0499877929688</v>
+      </c>
+      <c r="L831" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>SASTASUNDR.NS</t>
+        </is>
+      </c>
+      <c r="B832" s="2" t="n">
+        <v>45152</v>
+      </c>
+      <c r="C832" t="n">
+        <v>334.75</v>
+      </c>
+      <c r="D832" t="n">
+        <v>280.25</v>
+      </c>
+      <c r="E832" t="n">
+        <v>315.75</v>
+      </c>
+      <c r="F832" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G832" t="n">
+        <v>334.75</v>
+      </c>
+      <c r="H832" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I832" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J832" t="n">
+        <v>357.6499938964844</v>
+      </c>
+      <c r="K832" t="n">
+        <v>314.0499877929688</v>
+      </c>
+      <c r="L832" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>ANDHRSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="B833" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C833" t="n">
+        <v>119.5500030517578</v>
+      </c>
+      <c r="D833" t="n">
+        <v>110.0500030517578</v>
+      </c>
+      <c r="E833" t="n">
+        <v>111.25</v>
+      </c>
+      <c r="F833" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G833" t="n">
+        <v>119.5500030517578</v>
+      </c>
+      <c r="H833" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I833" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J833" t="n">
+        <v>121.8000030517578</v>
+      </c>
+      <c r="K833" t="n">
+        <v>109.75</v>
+      </c>
+      <c r="L833" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>ANDHRAPET.BO</t>
+        </is>
+      </c>
+      <c r="B834" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C834" t="n">
+        <v>115.9499969482422</v>
+      </c>
+      <c r="D834" t="n">
+        <v>102</v>
+      </c>
+      <c r="E834" t="n">
+        <v>104</v>
+      </c>
+      <c r="F834" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G834" t="n">
+        <v>115.9499969482422</v>
+      </c>
+      <c r="H834" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I834" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J834" t="n">
+        <v>126.9000015258789</v>
+      </c>
+      <c r="K834" t="n">
+        <v>111</v>
+      </c>
+      <c r="L834" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>SKYGOLD.NS</t>
+        </is>
+      </c>
+      <c r="B835" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C835" t="n">
+        <v>1288</v>
+      </c>
+      <c r="D835" t="n">
+        <v>1140</v>
+      </c>
+      <c r="E835" t="n">
+        <v>1162.699951171875</v>
+      </c>
+      <c r="F835" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G835" t="n">
+        <v>1288</v>
+      </c>
+      <c r="H835" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I835" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J835" t="n">
+        <v>1297.949951171875</v>
+      </c>
+      <c r="K835" t="n">
+        <v>1275</v>
+      </c>
+      <c r="L835" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>DHABRIYA.BO</t>
+        </is>
+      </c>
+      <c r="B836" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C836" t="n">
+        <v>315</v>
+      </c>
+      <c r="D836" t="n">
+        <v>281.2999877929688</v>
+      </c>
+      <c r="E836" t="n">
+        <v>291.7000122070312</v>
+      </c>
+      <c r="F836" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G836" t="n">
+        <v>315</v>
+      </c>
+      <c r="H836" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I836" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J836" t="n">
+        <v>339.8999938964844</v>
+      </c>
+      <c r="K836" t="n">
+        <v>300</v>
+      </c>
+      <c r="L836" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>STOVEKRAFT.NS</t>
+        </is>
+      </c>
+      <c r="B837" s="2" t="n">
+        <v>45075</v>
+      </c>
+      <c r="C837" t="n">
+        <v>507.3999938964844</v>
+      </c>
+      <c r="D837" t="n">
+        <v>421</v>
+      </c>
+      <c r="E837" t="n">
+        <v>437.8999938964844</v>
+      </c>
+      <c r="F837" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G837" t="n">
+        <v>507.3999938964844</v>
+      </c>
+      <c r="H837" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I837" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J837" t="n">
+        <v>550</v>
+      </c>
+      <c r="K837" t="n">
+        <v>498.9500122070312</v>
+      </c>
+      <c r="L837" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>STOVEKRAFT.NS</t>
+        </is>
+      </c>
+      <c r="B838" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C838" t="n">
+        <v>515</v>
+      </c>
+      <c r="D838" t="n">
+        <v>480</v>
+      </c>
+      <c r="E838" t="n">
+        <v>500.2000122070312</v>
+      </c>
+      <c r="F838" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G838" t="n">
+        <v>515</v>
+      </c>
+      <c r="H838" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I838" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J838" t="n">
+        <v>550</v>
+      </c>
+      <c r="K838" t="n">
+        <v>498.9500122070312</v>
+      </c>
+      <c r="L838" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>GRAVITA.NS</t>
+        </is>
+      </c>
+      <c r="B839" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="C839" t="n">
+        <v>1166</v>
+      </c>
+      <c r="D839" t="n">
+        <v>1120.550048828125</v>
+      </c>
+      <c r="E839" t="n">
+        <v>1138.099975585938</v>
+      </c>
+      <c r="F839" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G839" t="n">
+        <v>1166</v>
+      </c>
+      <c r="H839" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I839" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J839" t="n">
+        <v>1350</v>
+      </c>
+      <c r="K839" t="n">
+        <v>1145.5</v>
+      </c>
+      <c r="L839" t="inlineStr">
+        <is>
+          <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L263"/>
+  <dimension ref="A1:L265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13074,6 +13074,102 @@
       <c r="L263" t="inlineStr">
         <is>
           <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>45440.59375</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>13-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>RAIN.NS</t>
+        </is>
+      </c>
+      <c r="E264" s="2" t="n">
+        <v>45408.46875</v>
+      </c>
+      <c r="F264" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="G264" s="2" t="n">
+        <v>45434.42708333334</v>
+      </c>
+      <c r="H264" t="n">
+        <v>174.75</v>
+      </c>
+      <c r="I264" s="2" t="n">
+        <v>45439.42708333334</v>
+      </c>
+      <c r="J264" t="n">
+        <v>173.6499938964844</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>13/06/2024 04:46:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>45411.55208333334</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>13-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>DEVYANI.NS</t>
+        </is>
+      </c>
+      <c r="E265" s="2" t="n">
+        <v>45391.46875</v>
+      </c>
+      <c r="F265" t="n">
+        <v>167.8000030517578</v>
+      </c>
+      <c r="G265" s="2" t="n">
+        <v>45394.38541666666</v>
+      </c>
+      <c r="H265" t="n">
+        <v>168</v>
+      </c>
+      <c r="I265" s="2" t="n">
+        <v>45408.38541666666</v>
+      </c>
+      <c r="J265" t="n">
+        <v>170.6000061035156</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>13/06/2024 04:46:56</t>
         </is>
       </c>
     </row>
@@ -13088,7 +13184,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16673,6 +16769,174 @@
       <c r="J85" t="inlineStr">
         <is>
           <t>12/06/2024 13:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45447.55208333334</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>13-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>KOTAKBANK.NS</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45439.51041666666</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1722</v>
+      </c>
+      <c r="G86" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1726.449951171875</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>13/06/2024 04:46:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45429.55208333334</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>13-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>KSOLVES.NS</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45426.55208333334</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1135</v>
+      </c>
+      <c r="G87" s="2" t="n">
+        <v>45428.38541666666</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1135</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>13/06/2024 04:46:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45433.59375</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>13-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>WALCHANNAG.NS</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45429.38541666666</v>
+      </c>
+      <c r="F88" t="n">
+        <v>219.0500030517578</v>
+      </c>
+      <c r="G88" s="2" t="n">
+        <v>45429.42708333334</v>
+      </c>
+      <c r="H88" t="n">
+        <v>219.0500030517578</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>13/06/2024 04:46:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45433.63541666666</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>13-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>WALCHANNAG.NS</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45429.38541666666</v>
+      </c>
+      <c r="F89" t="n">
+        <v>219.0500030517578</v>
+      </c>
+      <c r="G89" s="2" t="n">
+        <v>45429.46875</v>
+      </c>
+      <c r="H89" t="n">
+        <v>219.0500030517578</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>13/06/2024 04:46:56</t>
         </is>
       </c>
     </row>
@@ -16687,7 +16951,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L839"/>
+  <dimension ref="A1:L851"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56981,6 +57245,582 @@
         </is>
       </c>
     </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>CROWN.NS</t>
+        </is>
+      </c>
+      <c r="B840" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="C840" t="n">
+        <v>244.9499969482422</v>
+      </c>
+      <c r="D840" t="n">
+        <v>244.9499969482422</v>
+      </c>
+      <c r="E840" t="n">
+        <v>244.9499969482422</v>
+      </c>
+      <c r="F840" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G840" t="n">
+        <v>244.9499969482422</v>
+      </c>
+      <c r="H840" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I840" t="inlineStr">
+        <is>
+          <t>13-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J840" t="n">
+        <v>245.0899963378906</v>
+      </c>
+      <c r="K840" t="n">
+        <v>240.2899932861328</v>
+      </c>
+      <c r="L840" t="inlineStr">
+        <is>
+          <t>13/06/2024 04:46:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>ZODIAC.NS</t>
+        </is>
+      </c>
+      <c r="B841" s="2" t="n">
+        <v>45448.51041666666</v>
+      </c>
+      <c r="C841" t="n">
+        <v>611.8499755859375</v>
+      </c>
+      <c r="D841" t="n">
+        <v>611.8499755859375</v>
+      </c>
+      <c r="E841" t="n">
+        <v>611.8499755859375</v>
+      </c>
+      <c r="F841" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G841" t="n">
+        <v>611.8499755859375</v>
+      </c>
+      <c r="H841" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I841" t="inlineStr">
+        <is>
+          <t>13-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J841" t="n">
+        <v>611.0999755859375</v>
+      </c>
+      <c r="K841" t="n">
+        <v>623.5499877929688</v>
+      </c>
+      <c r="L841" t="inlineStr">
+        <is>
+          <t>13/06/2024 04:46:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>ZODIAC.NS</t>
+        </is>
+      </c>
+      <c r="B842" s="2" t="n">
+        <v>45448.55208333334</v>
+      </c>
+      <c r="C842" t="n">
+        <v>611.8499755859375</v>
+      </c>
+      <c r="D842" t="n">
+        <v>611.8499755859375</v>
+      </c>
+      <c r="E842" t="n">
+        <v>611.8499755859375</v>
+      </c>
+      <c r="F842" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G842" t="n">
+        <v>611.8499755859375</v>
+      </c>
+      <c r="H842" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I842" t="inlineStr">
+        <is>
+          <t>13-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J842" t="n">
+        <v>611.0999755859375</v>
+      </c>
+      <c r="K842" t="n">
+        <v>623.5499877929688</v>
+      </c>
+      <c r="L842" t="inlineStr">
+        <is>
+          <t>13/06/2024 04:46:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>ZODIAC.NS</t>
+        </is>
+      </c>
+      <c r="B843" s="2" t="n">
+        <v>45448.59375</v>
+      </c>
+      <c r="C843" t="n">
+        <v>611.8499755859375</v>
+      </c>
+      <c r="D843" t="n">
+        <v>611.8499755859375</v>
+      </c>
+      <c r="E843" t="n">
+        <v>611.8499755859375</v>
+      </c>
+      <c r="F843" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G843" t="n">
+        <v>611.8499755859375</v>
+      </c>
+      <c r="H843" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I843" t="inlineStr">
+        <is>
+          <t>13-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J843" t="n">
+        <v>611.0999755859375</v>
+      </c>
+      <c r="K843" t="n">
+        <v>623.5499877929688</v>
+      </c>
+      <c r="L843" t="inlineStr">
+        <is>
+          <t>13/06/2024 04:46:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>SPELS.BO</t>
+        </is>
+      </c>
+      <c r="B844" s="2" t="n">
+        <v>45434.42708333334</v>
+      </c>
+      <c r="C844" t="n">
+        <v>141.6999969482422</v>
+      </c>
+      <c r="D844" t="n">
+        <v>141.6999969482422</v>
+      </c>
+      <c r="E844" t="n">
+        <v>141.6999969482422</v>
+      </c>
+      <c r="F844" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G844" t="n">
+        <v>141.6999969482422</v>
+      </c>
+      <c r="H844" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I844" t="inlineStr">
+        <is>
+          <t>13-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J844" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="K844" t="n">
+        <v>138.6499938964844</v>
+      </c>
+      <c r="L844" t="inlineStr">
+        <is>
+          <t>13/06/2024 04:46:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>SPELS.BO</t>
+        </is>
+      </c>
+      <c r="B845" s="2" t="n">
+        <v>45434.46875</v>
+      </c>
+      <c r="C845" t="n">
+        <v>141.6999969482422</v>
+      </c>
+      <c r="D845" t="n">
+        <v>141.6999969482422</v>
+      </c>
+      <c r="E845" t="n">
+        <v>141.6999969482422</v>
+      </c>
+      <c r="F845" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G845" t="n">
+        <v>141.6999969482422</v>
+      </c>
+      <c r="H845" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I845" t="inlineStr">
+        <is>
+          <t>13-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J845" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="K845" t="n">
+        <v>138.6499938964844</v>
+      </c>
+      <c r="L845" t="inlineStr">
+        <is>
+          <t>13/06/2024 04:46:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>CENTRALBK.BO</t>
+        </is>
+      </c>
+      <c r="B846" s="2" t="n">
+        <v>45449.46875</v>
+      </c>
+      <c r="C846" t="n">
+        <v>66.45999908447266</v>
+      </c>
+      <c r="D846" t="n">
+        <v>64.69999694824219</v>
+      </c>
+      <c r="E846" t="n">
+        <v>64.93000030517578</v>
+      </c>
+      <c r="F846" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G846" t="n">
+        <v>66.45999908447266</v>
+      </c>
+      <c r="H846" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I846" t="inlineStr">
+        <is>
+          <t>13-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J846" t="n">
+        <v>67.09999847412109</v>
+      </c>
+      <c r="K846" t="n">
+        <v>66.43000030517578</v>
+      </c>
+      <c r="L846" t="inlineStr">
+        <is>
+          <t>13/06/2024 04:46:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>WINSOMTX.BO</t>
+        </is>
+      </c>
+      <c r="B847" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="C847" t="n">
+        <v>80.90000152587891</v>
+      </c>
+      <c r="D847" t="n">
+        <v>79</v>
+      </c>
+      <c r="E847" t="n">
+        <v>79</v>
+      </c>
+      <c r="F847" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G847" t="n">
+        <v>80.90000152587891</v>
+      </c>
+      <c r="H847" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I847" t="inlineStr">
+        <is>
+          <t>13-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J847" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="K847" t="n">
+        <v>80.09999847412109</v>
+      </c>
+      <c r="L847" t="inlineStr">
+        <is>
+          <t>13/06/2024 04:46:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>HTMEDIA.NS</t>
+        </is>
+      </c>
+      <c r="B848" s="2" t="n">
+        <v>45436.38541666666</v>
+      </c>
+      <c r="C848" t="n">
+        <v>27.10000038146973</v>
+      </c>
+      <c r="D848" t="n">
+        <v>26.60000038146973</v>
+      </c>
+      <c r="E848" t="n">
+        <v>26.85000038146973</v>
+      </c>
+      <c r="F848" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G848" t="n">
+        <v>27.10000038146973</v>
+      </c>
+      <c r="H848" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I848" t="inlineStr">
+        <is>
+          <t>13-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J848" t="n">
+        <v>27.11000061035156</v>
+      </c>
+      <c r="K848" t="n">
+        <v>26.84000015258789</v>
+      </c>
+      <c r="L848" t="inlineStr">
+        <is>
+          <t>13/06/2024 04:46:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>HTMEDIA.NS</t>
+        </is>
+      </c>
+      <c r="B849" s="2" t="n">
+        <v>45454.42708333334</v>
+      </c>
+      <c r="C849" t="n">
+        <v>26.94000053405762</v>
+      </c>
+      <c r="D849" t="n">
+        <v>26.54999923706055</v>
+      </c>
+      <c r="E849" t="n">
+        <v>26.57999992370605</v>
+      </c>
+      <c r="F849" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G849" t="n">
+        <v>26.94000053405762</v>
+      </c>
+      <c r="H849" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I849" t="inlineStr">
+        <is>
+          <t>13-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J849" t="n">
+        <v>27.11000061035156</v>
+      </c>
+      <c r="K849" t="n">
+        <v>26.84000015258789</v>
+      </c>
+      <c r="L849" t="inlineStr">
+        <is>
+          <t>13/06/2024 04:46:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>KPEL.BO</t>
+        </is>
+      </c>
+      <c r="B850" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="C850" t="n">
+        <v>436.2000122070312</v>
+      </c>
+      <c r="D850" t="n">
+        <v>423.7999877929688</v>
+      </c>
+      <c r="E850" t="n">
+        <v>428.8999938964844</v>
+      </c>
+      <c r="F850" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G850" t="n">
+        <v>436.2000122070312</v>
+      </c>
+      <c r="H850" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I850" t="inlineStr">
+        <is>
+          <t>13-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J850" t="n">
+        <v>437.3999938964844</v>
+      </c>
+      <c r="K850" t="n">
+        <v>434</v>
+      </c>
+      <c r="L850" t="inlineStr">
+        <is>
+          <t>13/06/2024 04:46:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>ADFFOODS.NS</t>
+        </is>
+      </c>
+      <c r="B851" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="C851" t="n">
+        <v>227.25</v>
+      </c>
+      <c r="D851" t="n">
+        <v>215.3999938964844</v>
+      </c>
+      <c r="E851" t="n">
+        <v>217.75</v>
+      </c>
+      <c r="F851" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G851" t="n">
+        <v>227.25</v>
+      </c>
+      <c r="H851" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I851" t="inlineStr">
+        <is>
+          <t>13-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J851" t="n">
+        <v>227.5099945068359</v>
+      </c>
+      <c r="K851" t="n">
+        <v>224.0099945068359</v>
+      </c>
+      <c r="L851" t="inlineStr">
+        <is>
+          <t>13/06/2024 04:46:56</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -13184,7 +13184,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J89"/>
+  <dimension ref="A1:J96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16937,6 +16937,300 @@
       <c r="J89" t="inlineStr">
         <is>
           <t>13/06/2024 04:46:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45448.42708333334</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>13-06-2024 11:15:00</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>SIEMENS.NS</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45433.38541666666</v>
+      </c>
+      <c r="F90" t="n">
+        <v>7347</v>
+      </c>
+      <c r="G90" s="2" t="n">
+        <v>45446.55208333334</v>
+      </c>
+      <c r="H90" t="n">
+        <v>7344.89990234375</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>13/06/2024 05:47:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45447.55208333334</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>13-06-2024 11:15:00</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>CAMS.NS</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45435.42708333334</v>
+      </c>
+      <c r="F91" t="n">
+        <v>3636.39990234375</v>
+      </c>
+      <c r="G91" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="H91" t="n">
+        <v>3635.85009765625</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>13/06/2024 05:47:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45448.42708333334</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>13-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>SKYGOLD.NS</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45442.63541666666</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1232.550048828125</v>
+      </c>
+      <c r="G92" s="2" t="n">
+        <v>45446.55208333334</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1231.699951171875</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>13/06/2024 05:47:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45448.42708333334</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>13-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>SKYGOLD.NS</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45442.59375</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1232.550048828125</v>
+      </c>
+      <c r="G93" s="2" t="n">
+        <v>45446.55208333334</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1231.699951171875</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>13/06/2024 05:47:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45448.46875</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>13-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>SKYGOLD.NS</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45442.63541666666</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1232.550048828125</v>
+      </c>
+      <c r="G94" s="2" t="n">
+        <v>45446.59375</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1231.699951171875</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>13/06/2024 05:47:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45433.59375</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>13-06-2024 11:15:00</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>WALCHANNAG.NS</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45429.38541666666</v>
+      </c>
+      <c r="F95" t="n">
+        <v>219.0500030517578</v>
+      </c>
+      <c r="G95" s="2" t="n">
+        <v>45429.42708333334</v>
+      </c>
+      <c r="H95" t="n">
+        <v>219.0500030517578</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>13/06/2024 05:47:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45433.63541666666</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>13-06-2024 11:15:00</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>WALCHANNAG.NS</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45429.38541666666</v>
+      </c>
+      <c r="F96" t="n">
+        <v>219.0500030517578</v>
+      </c>
+      <c r="G96" s="2" t="n">
+        <v>45429.46875</v>
+      </c>
+      <c r="H96" t="n">
+        <v>219.0500030517578</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>13/06/2024 05:47:00</t>
         </is>
       </c>
     </row>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L265"/>
+  <dimension ref="A1:L266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13170,6 +13170,54 @@
       <c r="L265" t="inlineStr">
         <is>
           <t>13/06/2024 04:46:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>45447.55208333334</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>13-06-2024 11:15:00</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>HDFCLIFE.NS</t>
+        </is>
+      </c>
+      <c r="E266" s="2" t="n">
+        <v>45425.63541666666</v>
+      </c>
+      <c r="F266" t="n">
+        <v>568.4000244140625</v>
+      </c>
+      <c r="G266" s="2" t="n">
+        <v>45429.59375</v>
+      </c>
+      <c r="H266" t="n">
+        <v>572</v>
+      </c>
+      <c r="I266" s="2" t="n">
+        <v>45440.59375</v>
+      </c>
+      <c r="J266" t="n">
+        <v>579.7999877929688</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>13/06/2024 06:46:07</t>
         </is>
       </c>
     </row>
@@ -13184,7 +13232,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J96"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17231,6 +17279,174 @@
       <c r="J96" t="inlineStr">
         <is>
           <t>13/06/2024 05:47:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45448.42708333334</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>13-06-2024 12:15:00</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>SIEMENS.NS</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45433.38541666666</v>
+      </c>
+      <c r="F97" t="n">
+        <v>7347</v>
+      </c>
+      <c r="G97" s="2" t="n">
+        <v>45446.55208333334</v>
+      </c>
+      <c r="H97" t="n">
+        <v>7344.89990234375</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>13/06/2024 06:46:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45448.42708333334</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>13-06-2024 11:15:00</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>SKYGOLD.NS</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45442.63541666666</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1232.550048828125</v>
+      </c>
+      <c r="G98" s="2" t="n">
+        <v>45446.55208333334</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1231.699951171875</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>13/06/2024 06:46:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45448.42708333334</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>13-06-2024 11:15:00</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>SKYGOLD.NS</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45442.59375</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1232.550048828125</v>
+      </c>
+      <c r="G99" s="2" t="n">
+        <v>45446.55208333334</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1231.699951171875</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>13/06/2024 06:46:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45448.46875</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>13-06-2024 11:15:00</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>SKYGOLD.NS</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45442.63541666666</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1232.550048828125</v>
+      </c>
+      <c r="G100" s="2" t="n">
+        <v>45446.59375</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1231.699951171875</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>13/06/2024 06:46:07</t>
         </is>
       </c>
     </row>
@@ -17245,7 +17461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L851"/>
+  <dimension ref="A1:L852"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58115,6 +58331,54 @@
         </is>
       </c>
     </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>SANJIVIN.BO</t>
+        </is>
+      </c>
+      <c r="B852" s="2" t="n">
+        <v>45454.38541666666</v>
+      </c>
+      <c r="C852" t="n">
+        <v>176.8000030517578</v>
+      </c>
+      <c r="D852" t="n">
+        <v>170.1999969482422</v>
+      </c>
+      <c r="E852" t="n">
+        <v>170.5500030517578</v>
+      </c>
+      <c r="F852" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G852" t="n">
+        <v>176.8000030517578</v>
+      </c>
+      <c r="H852" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I852" t="inlineStr">
+        <is>
+          <t>13-06-2024 11:15:00</t>
+        </is>
+      </c>
+      <c r="J852" t="n">
+        <v>177.1000061035156</v>
+      </c>
+      <c r="K852" t="n">
+        <v>175.0500030517578</v>
+      </c>
+      <c r="L852" t="inlineStr">
+        <is>
+          <t>13/06/2024 06:46:07</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -13232,7 +13232,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J100"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17447,6 +17447,132 @@
       <c r="J100" t="inlineStr">
         <is>
           <t>13/06/2024 06:46:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45442.55208333334</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>13-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>BANDHANBNK.NS</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45415.38541666666</v>
+      </c>
+      <c r="F101" t="n">
+        <v>192.5500030517578</v>
+      </c>
+      <c r="G101" s="2" t="n">
+        <v>45441.38541666666</v>
+      </c>
+      <c r="H101" t="n">
+        <v>194.1000061035156</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>13/06/2024 07:48:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45401.59375</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>13-06-2024 12:15:00</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>WINSOMTX.BO</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45387.59375</v>
+      </c>
+      <c r="F102" t="n">
+        <v>84</v>
+      </c>
+      <c r="G102" s="2" t="n">
+        <v>45392.55208333334</v>
+      </c>
+      <c r="H102" t="n">
+        <v>84</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>13/06/2024 07:48:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45442.55208333334</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>13-06-2024 12:15:00</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>SANJIVIN.BO</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45439.55208333334</v>
+      </c>
+      <c r="F103" t="n">
+        <v>178</v>
+      </c>
+      <c r="G103" s="2" t="n">
+        <v>45441.38541666666</v>
+      </c>
+      <c r="H103" t="n">
+        <v>178</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>13/06/2024 07:48:02</t>
         </is>
       </c>
     </row>
@@ -17461,7 +17587,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L852"/>
+  <dimension ref="A1:L853"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58379,6 +58505,54 @@
         </is>
       </c>
     </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>WINSOMTX.BO</t>
+        </is>
+      </c>
+      <c r="B853" s="2" t="n">
+        <v>45439.59375</v>
+      </c>
+      <c r="C853" t="n">
+        <v>82</v>
+      </c>
+      <c r="D853" t="n">
+        <v>80</v>
+      </c>
+      <c r="E853" t="n">
+        <v>80</v>
+      </c>
+      <c r="F853" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G853" t="n">
+        <v>82</v>
+      </c>
+      <c r="H853" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I853" t="inlineStr">
+        <is>
+          <t>13-06-2024 12:15:00</t>
+        </is>
+      </c>
+      <c r="J853" t="n">
+        <v>85</v>
+      </c>
+      <c r="K853" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="L853" t="inlineStr">
+        <is>
+          <t>13/06/2024 07:48:02</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L266"/>
+  <dimension ref="A1:L267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13218,6 +13218,54 @@
       <c r="L266" t="inlineStr">
         <is>
           <t>13/06/2024 06:46:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>45411.55208333334</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>13-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>DEVYANI.NS</t>
+        </is>
+      </c>
+      <c r="E267" s="2" t="n">
+        <v>45391.46875</v>
+      </c>
+      <c r="F267" t="n">
+        <v>167.8000030517578</v>
+      </c>
+      <c r="G267" s="2" t="n">
+        <v>45394.38541666666</v>
+      </c>
+      <c r="H267" t="n">
+        <v>168</v>
+      </c>
+      <c r="I267" s="2" t="n">
+        <v>45408.38541666666</v>
+      </c>
+      <c r="J267" t="n">
+        <v>170.6000061035156</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>13/06/2024 08:46:50</t>
         </is>
       </c>
     </row>
@@ -13232,7 +13280,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J103"/>
+  <dimension ref="A1:J105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17573,6 +17621,90 @@
       <c r="J103" t="inlineStr">
         <is>
           <t>13/06/2024 07:48:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45433.59375</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>13-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>WALCHANNAG.NS</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45429.38541666666</v>
+      </c>
+      <c r="F104" t="n">
+        <v>219.0500030517578</v>
+      </c>
+      <c r="G104" s="2" t="n">
+        <v>45429.42708333334</v>
+      </c>
+      <c r="H104" t="n">
+        <v>219.0500030517578</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>13/06/2024 08:46:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45433.63541666666</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>13-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>WALCHANNAG.NS</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45429.38541666666</v>
+      </c>
+      <c r="F105" t="n">
+        <v>219.0500030517578</v>
+      </c>
+      <c r="G105" s="2" t="n">
+        <v>45429.46875</v>
+      </c>
+      <c r="H105" t="n">
+        <v>219.0500030517578</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>13/06/2024 08:46:50</t>
         </is>
       </c>
     </row>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L267"/>
+  <dimension ref="A1:L269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13266,6 +13266,102 @@
       <c r="L267" t="inlineStr">
         <is>
           <t>13/06/2024 08:46:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>45447.55208333334</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>13-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>HDFCLIFE.NS</t>
+        </is>
+      </c>
+      <c r="E268" s="2" t="n">
+        <v>45425.63541666666</v>
+      </c>
+      <c r="F268" t="n">
+        <v>568.4000244140625</v>
+      </c>
+      <c r="G268" s="2" t="n">
+        <v>45429.59375</v>
+      </c>
+      <c r="H268" t="n">
+        <v>572</v>
+      </c>
+      <c r="I268" s="2" t="n">
+        <v>45440.59375</v>
+      </c>
+      <c r="J268" t="n">
+        <v>579.7999877929688</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>13/06/2024 09:47:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>45447.55208333334</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>13-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>TANFACIND.BO</t>
+        </is>
+      </c>
+      <c r="E269" s="2" t="n">
+        <v>45428.38541666666</v>
+      </c>
+      <c r="F269" t="n">
+        <v>2230.449951171875</v>
+      </c>
+      <c r="G269" s="2" t="n">
+        <v>45434.63541666666</v>
+      </c>
+      <c r="H269" t="n">
+        <v>2189.89990234375</v>
+      </c>
+      <c r="I269" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="J269" t="n">
+        <v>2100</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>13/06/2024 09:47:44</t>
         </is>
       </c>
     </row>
@@ -13280,7 +13376,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J105"/>
+  <dimension ref="A1:J107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17705,6 +17801,90 @@
       <c r="J105" t="inlineStr">
         <is>
           <t>13/06/2024 08:46:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45440.55208333334</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>13-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>BOSCHLTD.NS</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45426.51041666666</v>
+      </c>
+      <c r="F106" t="n">
+        <v>32096.849609375</v>
+      </c>
+      <c r="G106" s="2" t="n">
+        <v>45439.38541666666</v>
+      </c>
+      <c r="H106" t="n">
+        <v>32229.5</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>13/06/2024 09:47:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45454.55208333334</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>13-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>TV18BRDCST.NS</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45442.42708333334</v>
+      </c>
+      <c r="F107" t="n">
+        <v>43.79999923706055</v>
+      </c>
+      <c r="G107" s="2" t="n">
+        <v>45453.38541666666</v>
+      </c>
+      <c r="H107" t="n">
+        <v>43.93000030517578</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>13/06/2024 09:47:44</t>
         </is>
       </c>
     </row>
@@ -17719,7 +17899,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L853"/>
+  <dimension ref="A1:L854"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58685,6 +58865,54 @@
         </is>
       </c>
     </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>CENTRALBK.BO</t>
+        </is>
+      </c>
+      <c r="B854" s="2" t="n">
+        <v>45453.38541666666</v>
+      </c>
+      <c r="C854" t="n">
+        <v>65.73000335693359</v>
+      </c>
+      <c r="D854" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="E854" t="n">
+        <v>65.30000305175781</v>
+      </c>
+      <c r="F854" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G854" t="n">
+        <v>65.73000335693359</v>
+      </c>
+      <c r="H854" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I854" t="inlineStr">
+        <is>
+          <t>13-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="J854" t="n">
+        <v>65.84999847412109</v>
+      </c>
+      <c r="K854" t="n">
+        <v>65.72000122070312</v>
+      </c>
+      <c r="L854" t="inlineStr">
+        <is>
+          <t>13/06/2024 09:47:44</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L269"/>
+  <dimension ref="A1:L291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13362,6 +13362,1062 @@
       <c r="L269" t="inlineStr">
         <is>
           <t>13/06/2024 09:47:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>ULTRACEMCO.NS</t>
+        </is>
+      </c>
+      <c r="E270" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="F270" t="n">
+        <v>10526</v>
+      </c>
+      <c r="G270" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="H270" t="n">
+        <v>10277.7001953125</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>JSWSTEEL.NS</t>
+        </is>
+      </c>
+      <c r="E271" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="F271" t="n">
+        <v>895.75</v>
+      </c>
+      <c r="G271" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="H271" t="n">
+        <v>850</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>HDFCLIFE.NS</t>
+        </is>
+      </c>
+      <c r="E272" s="2" t="n">
+        <v>44998</v>
+      </c>
+      <c r="F272" t="n">
+        <v>457.7999877929688</v>
+      </c>
+      <c r="G272" s="2" t="n">
+        <v>45152</v>
+      </c>
+      <c r="H272" t="n">
+        <v>616.75</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>HDFCLIFE.NS</t>
+        </is>
+      </c>
+      <c r="E273" s="2" t="n">
+        <v>44998</v>
+      </c>
+      <c r="F273" t="n">
+        <v>457.7999877929688</v>
+      </c>
+      <c r="G273" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="H273" t="n">
+        <v>561.5499877929688</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>AMBUJACEM.NS</t>
+        </is>
+      </c>
+      <c r="E274" s="2" t="n">
+        <v>44900</v>
+      </c>
+      <c r="F274" t="n">
+        <v>598</v>
+      </c>
+      <c r="G274" s="2" t="n">
+        <v>45089</v>
+      </c>
+      <c r="H274" t="n">
+        <v>468.8999938964844</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>IRB.NS</t>
+        </is>
+      </c>
+      <c r="E275" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="F275" t="n">
+        <v>72</v>
+      </c>
+      <c r="G275" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="H275" t="n">
+        <v>73.09999847412109</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>MAHEPC.NS</t>
+        </is>
+      </c>
+      <c r="E276" s="2" t="n">
+        <v>44928</v>
+      </c>
+      <c r="F276" t="n">
+        <v>113</v>
+      </c>
+      <c r="G276" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="H276" t="n">
+        <v>162.8000030517578</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>GUJGASLTD.NS</t>
+        </is>
+      </c>
+      <c r="E277" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="F277" t="n">
+        <v>526</v>
+      </c>
+      <c r="G277" s="2" t="n">
+        <v>45075</v>
+      </c>
+      <c r="H277" t="n">
+        <v>508.3999938964844</v>
+      </c>
+      <c r="I277" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>BAJAJST.BO</t>
+        </is>
+      </c>
+      <c r="E278" s="2" t="n">
+        <v>45061</v>
+      </c>
+      <c r="F278" t="n">
+        <v>1399</v>
+      </c>
+      <c r="G278" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="H278" t="n">
+        <v>1626.900024414062</v>
+      </c>
+      <c r="I278" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>VOLTAS.NS</t>
+        </is>
+      </c>
+      <c r="E279" s="2" t="n">
+        <v>44571</v>
+      </c>
+      <c r="F279" t="n">
+        <v>1317.300048828125</v>
+      </c>
+      <c r="G279" s="2" t="n">
+        <v>44655</v>
+      </c>
+      <c r="H279" t="n">
+        <v>1347.650024414062</v>
+      </c>
+      <c r="I279" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>LODHA.NS</t>
+        </is>
+      </c>
+      <c r="E280" s="2" t="n">
+        <v>44767</v>
+      </c>
+      <c r="F280" t="n">
+        <v>594.5</v>
+      </c>
+      <c r="G280" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="H280" t="n">
+        <v>1225</v>
+      </c>
+      <c r="I280" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>JISLJALEQS.NS</t>
+        </is>
+      </c>
+      <c r="E281" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="F281" t="n">
+        <v>69.80000305175781</v>
+      </c>
+      <c r="G281" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="H281" t="n">
+        <v>73.44999694824219</v>
+      </c>
+      <c r="I281" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>JISLJALEQS.NS</t>
+        </is>
+      </c>
+      <c r="E282" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="F282" t="n">
+        <v>73.44999694824219</v>
+      </c>
+      <c r="G282" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="H282" t="n">
+        <v>68.59999847412109</v>
+      </c>
+      <c r="I282" t="n">
+        <v>0</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>JKPAPER.NS</t>
+        </is>
+      </c>
+      <c r="E283" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="F283" t="n">
+        <v>415.2999877929688</v>
+      </c>
+      <c r="G283" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="H283" t="n">
+        <v>452</v>
+      </c>
+      <c r="I283" t="n">
+        <v>0</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>44319</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="E284" s="2" t="n">
+        <v>44200</v>
+      </c>
+      <c r="F284" t="n">
+        <v>12.52000045776367</v>
+      </c>
+      <c r="G284" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="H284" t="n">
+        <v>10.97000026702881</v>
+      </c>
+      <c r="I284" t="n">
+        <v>0</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>44319</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="E285" s="2" t="n">
+        <v>43549</v>
+      </c>
+      <c r="F285" t="n">
+        <v>13.10999965667725</v>
+      </c>
+      <c r="G285" s="2" t="n">
+        <v>44200</v>
+      </c>
+      <c r="H285" t="n">
+        <v>12.52000045776367</v>
+      </c>
+      <c r="I285" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>44319</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="E286" s="2" t="n">
+        <v>43542</v>
+      </c>
+      <c r="F286" t="n">
+        <v>13.10999965667725</v>
+      </c>
+      <c r="G286" s="2" t="n">
+        <v>44200</v>
+      </c>
+      <c r="H286" t="n">
+        <v>12.52000045776367</v>
+      </c>
+      <c r="I286" t="n">
+        <v>0</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>44319</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="E287" s="2" t="n">
+        <v>43542</v>
+      </c>
+      <c r="F287" t="n">
+        <v>13.10999965667725</v>
+      </c>
+      <c r="G287" s="2" t="n">
+        <v>44158</v>
+      </c>
+      <c r="H287" t="n">
+        <v>12</v>
+      </c>
+      <c r="I287" t="n">
+        <v>0</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>ANJANIFOODS.BO</t>
+        </is>
+      </c>
+      <c r="E288" s="2" t="n">
+        <v>44550</v>
+      </c>
+      <c r="F288" t="n">
+        <v>40.59000015258789</v>
+      </c>
+      <c r="G288" s="2" t="n">
+        <v>44900</v>
+      </c>
+      <c r="H288" t="n">
+        <v>36.29999923706055</v>
+      </c>
+      <c r="I288" t="n">
+        <v>0</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>DECCANCE.NS</t>
+        </is>
+      </c>
+      <c r="E289" s="2" t="n">
+        <v>44816</v>
+      </c>
+      <c r="F289" t="n">
+        <v>588</v>
+      </c>
+      <c r="G289" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="H289" t="n">
+        <v>668.4500122070312</v>
+      </c>
+      <c r="I289" t="n">
+        <v>0</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>45019</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>LIKHITHA.NS</t>
+        </is>
+      </c>
+      <c r="E290" s="2" t="n">
+        <v>44662</v>
+      </c>
+      <c r="F290" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="G290" s="2" t="n">
+        <v>44893</v>
+      </c>
+      <c r="H290" t="n">
+        <v>273.3500061035156</v>
+      </c>
+      <c r="I290" t="n">
+        <v>0</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>ANDHRAPET.BO</t>
+        </is>
+      </c>
+      <c r="E291" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="F291" t="n">
+        <v>115.9499969482422</v>
+      </c>
+      <c r="G291" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="H291" t="n">
+        <v>94.90000152587891</v>
+      </c>
+      <c r="I291" t="n">
+        <v>0</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
         </is>
       </c>
     </row>
@@ -13376,7 +14432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J107"/>
+  <dimension ref="A1:J108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17885,6 +18941,48 @@
       <c r="J107" t="inlineStr">
         <is>
           <t>13/06/2024 09:47:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>DHAMPURSUG.NS</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45166</v>
+      </c>
+      <c r="F108" t="n">
+        <v>250</v>
+      </c>
+      <c r="G108" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="H108" t="n">
+        <v>248.8999938964844</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
         </is>
       </c>
     </row>
@@ -17899,7 +18997,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L854"/>
+  <dimension ref="A1:L937"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58913,6 +60011,3990 @@
         </is>
       </c>
     </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>ULTRACEMCO.NS</t>
+        </is>
+      </c>
+      <c r="B855" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="C855" t="n">
+        <v>10526</v>
+      </c>
+      <c r="D855" t="n">
+        <v>9969</v>
+      </c>
+      <c r="E855" t="n">
+        <v>10503.0498046875</v>
+      </c>
+      <c r="F855" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G855" t="n">
+        <v>10526</v>
+      </c>
+      <c r="H855" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I855" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J855" t="n">
+        <v>11299</v>
+      </c>
+      <c r="K855" t="n">
+        <v>10519.7998046875</v>
+      </c>
+      <c r="L855" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>CIPLA.NS</t>
+        </is>
+      </c>
+      <c r="B856" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C856" t="n">
+        <v>1519</v>
+      </c>
+      <c r="D856" t="n">
+        <v>1449</v>
+      </c>
+      <c r="E856" t="n">
+        <v>1488.050048828125</v>
+      </c>
+      <c r="F856" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G856" t="n">
+        <v>1519</v>
+      </c>
+      <c r="H856" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I856" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J856" t="n">
+        <v>1551</v>
+      </c>
+      <c r="K856" t="n">
+        <v>1514</v>
+      </c>
+      <c r="L856" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>SHRIRAMFIN.NS</t>
+        </is>
+      </c>
+      <c r="B857" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C857" t="n">
+        <v>2658</v>
+      </c>
+      <c r="D857" t="n">
+        <v>2430.25</v>
+      </c>
+      <c r="E857" t="n">
+        <v>2588.550048828125</v>
+      </c>
+      <c r="F857" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G857" t="n">
+        <v>2658</v>
+      </c>
+      <c r="H857" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I857" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J857" t="n">
+        <v>2697.64990234375</v>
+      </c>
+      <c r="K857" t="n">
+        <v>2546.949951171875</v>
+      </c>
+      <c r="L857" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS</t>
+        </is>
+      </c>
+      <c r="B858" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C858" t="n">
+        <v>1352.599975585938</v>
+      </c>
+      <c r="D858" t="n">
+        <v>1161.150024414062</v>
+      </c>
+      <c r="E858" t="n">
+        <v>1309.699951171875</v>
+      </c>
+      <c r="F858" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G858" t="n">
+        <v>1352.599975585938</v>
+      </c>
+      <c r="H858" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I858" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J858" t="n">
+        <v>1439.699951171875</v>
+      </c>
+      <c r="K858" t="n">
+        <v>1351</v>
+      </c>
+      <c r="L858" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>FEDERALBNK.NS</t>
+        </is>
+      </c>
+      <c r="B859" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C859" t="n">
+        <v>170.3000030517578</v>
+      </c>
+      <c r="D859" t="n">
+        <v>156.0500030517578</v>
+      </c>
+      <c r="E859" t="n">
+        <v>165.9499969482422</v>
+      </c>
+      <c r="F859" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G859" t="n">
+        <v>170.3000030517578</v>
+      </c>
+      <c r="H859" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I859" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J859" t="n">
+        <v>175.1000061035156</v>
+      </c>
+      <c r="K859" t="n">
+        <v>169.1000061035156</v>
+      </c>
+      <c r="L859" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>VBL.NS</t>
+        </is>
+      </c>
+      <c r="B860" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C860" t="n">
+        <v>1561.949951171875</v>
+      </c>
+      <c r="D860" t="n">
+        <v>1345</v>
+      </c>
+      <c r="E860" t="n">
+        <v>1417.849975585938</v>
+      </c>
+      <c r="F860" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G860" t="n">
+        <v>1561.949951171875</v>
+      </c>
+      <c r="H860" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I860" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J860" t="n">
+        <v>1598.349975585938</v>
+      </c>
+      <c r="K860" t="n">
+        <v>1528</v>
+      </c>
+      <c r="L860" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>SHREECEM.NS</t>
+        </is>
+      </c>
+      <c r="B861" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="C861" t="n">
+        <v>27298.94921875</v>
+      </c>
+      <c r="D861" t="n">
+        <v>25900</v>
+      </c>
+      <c r="E861" t="n">
+        <v>26084.650390625</v>
+      </c>
+      <c r="F861" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G861" t="n">
+        <v>27298.94921875</v>
+      </c>
+      <c r="H861" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I861" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J861" t="n">
+        <v>27720.5</v>
+      </c>
+      <c r="K861" t="n">
+        <v>26250</v>
+      </c>
+      <c r="L861" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>SHREECEM.NS</t>
+        </is>
+      </c>
+      <c r="B862" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C862" t="n">
+        <v>26743.30078125</v>
+      </c>
+      <c r="D862" t="n">
+        <v>25699</v>
+      </c>
+      <c r="E862" t="n">
+        <v>25811.05078125</v>
+      </c>
+      <c r="F862" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G862" t="n">
+        <v>26743.30078125</v>
+      </c>
+      <c r="H862" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I862" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J862" t="n">
+        <v>27720.5</v>
+      </c>
+      <c r="K862" t="n">
+        <v>26250</v>
+      </c>
+      <c r="L862" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>PGHH.NS</t>
+        </is>
+      </c>
+      <c r="B863" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="C863" t="n">
+        <v>17050.900390625</v>
+      </c>
+      <c r="D863" t="n">
+        <v>16111</v>
+      </c>
+      <c r="E863" t="n">
+        <v>16928.44921875</v>
+      </c>
+      <c r="F863" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G863" t="n">
+        <v>17050.900390625</v>
+      </c>
+      <c r="H863" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I863" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J863" t="n">
+        <v>17064.94921875</v>
+      </c>
+      <c r="K863" t="n">
+        <v>16947.19921875</v>
+      </c>
+      <c r="L863" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>DCMSRIND.NS</t>
+        </is>
+      </c>
+      <c r="B864" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C864" t="n">
+        <v>228</v>
+      </c>
+      <c r="D864" t="n">
+        <v>210.0500030517578</v>
+      </c>
+      <c r="E864" t="n">
+        <v>212.9499969482422</v>
+      </c>
+      <c r="F864" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G864" t="n">
+        <v>228</v>
+      </c>
+      <c r="H864" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I864" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J864" t="n">
+        <v>234.8000030517578</v>
+      </c>
+      <c r="K864" t="n">
+        <v>223.8000030517578</v>
+      </c>
+      <c r="L864" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>BALRAMCHIN.NS</t>
+        </is>
+      </c>
+      <c r="B865" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C865" t="n">
+        <v>409.5</v>
+      </c>
+      <c r="D865" t="n">
+        <v>387.1000061035156</v>
+      </c>
+      <c r="E865" t="n">
+        <v>391.6000061035156</v>
+      </c>
+      <c r="F865" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G865" t="n">
+        <v>409.5</v>
+      </c>
+      <c r="H865" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I865" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J865" t="n">
+        <v>441.3999938964844</v>
+      </c>
+      <c r="K865" t="n">
+        <v>407.3999938964844</v>
+      </c>
+      <c r="L865" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>BAJAJHIND.NS</t>
+        </is>
+      </c>
+      <c r="B866" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="C866" t="n">
+        <v>35.84999847412109</v>
+      </c>
+      <c r="D866" t="n">
+        <v>30</v>
+      </c>
+      <c r="E866" t="n">
+        <v>32.40000152587891</v>
+      </c>
+      <c r="F866" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G866" t="n">
+        <v>35.84999847412109</v>
+      </c>
+      <c r="H866" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I866" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J866" t="n">
+        <v>42.9900016784668</v>
+      </c>
+      <c r="K866" t="n">
+        <v>34.25</v>
+      </c>
+      <c r="L866" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>BAJAJHIND.NS</t>
+        </is>
+      </c>
+      <c r="B867" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C867" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="D867" t="n">
+        <v>35.79999923706055</v>
+      </c>
+      <c r="E867" t="n">
+        <v>37.29999923706055</v>
+      </c>
+      <c r="F867" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G867" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="H867" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I867" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J867" t="n">
+        <v>42.9900016784668</v>
+      </c>
+      <c r="K867" t="n">
+        <v>34.25</v>
+      </c>
+      <c r="L867" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>BAJAJHIND.NS</t>
+        </is>
+      </c>
+      <c r="B868" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C868" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="D868" t="n">
+        <v>34.29999923706055</v>
+      </c>
+      <c r="E868" t="n">
+        <v>35.29999923706055</v>
+      </c>
+      <c r="F868" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G868" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="H868" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I868" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J868" t="n">
+        <v>42.9900016784668</v>
+      </c>
+      <c r="K868" t="n">
+        <v>34.25</v>
+      </c>
+      <c r="L868" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>DHAMPURSUG.NS</t>
+        </is>
+      </c>
+      <c r="B869" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C869" t="n">
+        <v>241.8500061035156</v>
+      </c>
+      <c r="D869" t="n">
+        <v>226.8999938964844</v>
+      </c>
+      <c r="E869" t="n">
+        <v>229.4499969482422</v>
+      </c>
+      <c r="F869" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G869" t="n">
+        <v>241.8500061035156</v>
+      </c>
+      <c r="H869" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I869" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J869" t="n">
+        <v>254.7899932861328</v>
+      </c>
+      <c r="K869" t="n">
+        <v>225.5500030517578</v>
+      </c>
+      <c r="L869" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>DALMIASUG.NS</t>
+        </is>
+      </c>
+      <c r="B870" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C870" t="n">
+        <v>425.1000061035156</v>
+      </c>
+      <c r="D870" t="n">
+        <v>396</v>
+      </c>
+      <c r="E870" t="n">
+        <v>404.1499938964844</v>
+      </c>
+      <c r="F870" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G870" t="n">
+        <v>425.1000061035156</v>
+      </c>
+      <c r="H870" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I870" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J870" t="n">
+        <v>440</v>
+      </c>
+      <c r="K870" t="n">
+        <v>391.3500061035156</v>
+      </c>
+      <c r="L870" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>DALMIASUG.NS</t>
+        </is>
+      </c>
+      <c r="B871" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C871" t="n">
+        <v>425.5</v>
+      </c>
+      <c r="D871" t="n">
+        <v>391.5499877929688</v>
+      </c>
+      <c r="E871" t="n">
+        <v>411.1499938964844</v>
+      </c>
+      <c r="F871" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G871" t="n">
+        <v>425.5</v>
+      </c>
+      <c r="H871" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I871" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J871" t="n">
+        <v>440</v>
+      </c>
+      <c r="K871" t="n">
+        <v>391.3500061035156</v>
+      </c>
+      <c r="L871" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>BANARISUG.NS</t>
+        </is>
+      </c>
+      <c r="B872" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="C872" t="n">
+        <v>2699.89990234375</v>
+      </c>
+      <c r="D872" t="n">
+        <v>2488</v>
+      </c>
+      <c r="E872" t="n">
+        <v>2519.300048828125</v>
+      </c>
+      <c r="F872" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G872" t="n">
+        <v>2699.89990234375</v>
+      </c>
+      <c r="H872" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I872" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J872" t="n">
+        <v>2796.949951171875</v>
+      </c>
+      <c r="K872" t="n">
+        <v>2447</v>
+      </c>
+      <c r="L872" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>BANARISUG.NS</t>
+        </is>
+      </c>
+      <c r="B873" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C873" t="n">
+        <v>2732.800048828125</v>
+      </c>
+      <c r="D873" t="n">
+        <v>2549.550048828125</v>
+      </c>
+      <c r="E873" t="n">
+        <v>2606.550048828125</v>
+      </c>
+      <c r="F873" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G873" t="n">
+        <v>2732.800048828125</v>
+      </c>
+      <c r="H873" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I873" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J873" t="n">
+        <v>2796.949951171875</v>
+      </c>
+      <c r="K873" t="n">
+        <v>2447</v>
+      </c>
+      <c r="L873" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>UGARSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="B874" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C874" t="n">
+        <v>85</v>
+      </c>
+      <c r="D874" t="n">
+        <v>66.34999847412109</v>
+      </c>
+      <c r="E874" t="n">
+        <v>79.90000152587891</v>
+      </c>
+      <c r="F874" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G874" t="n">
+        <v>85</v>
+      </c>
+      <c r="H874" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I874" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J874" t="n">
+        <v>89.90000152587891</v>
+      </c>
+      <c r="K874" t="n">
+        <v>76.80000305175781</v>
+      </c>
+      <c r="L874" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>PATELENG.NS</t>
+        </is>
+      </c>
+      <c r="B875" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="C875" t="n">
+        <v>66.19999694824219</v>
+      </c>
+      <c r="D875" t="n">
+        <v>60.29999923706055</v>
+      </c>
+      <c r="E875" t="n">
+        <v>64.59999847412109</v>
+      </c>
+      <c r="F875" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G875" t="n">
+        <v>66.19999694824219</v>
+      </c>
+      <c r="H875" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I875" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J875" t="n">
+        <v>67.69999694824219</v>
+      </c>
+      <c r="K875" t="n">
+        <v>65.05000305175781</v>
+      </c>
+      <c r="L875" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>RENUKA.NS</t>
+        </is>
+      </c>
+      <c r="B876" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="C876" t="n">
+        <v>49.29999923706055</v>
+      </c>
+      <c r="D876" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="E876" t="n">
+        <v>46.79999923706055</v>
+      </c>
+      <c r="F876" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G876" t="n">
+        <v>49.29999923706055</v>
+      </c>
+      <c r="H876" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I876" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J876" t="n">
+        <v>49.95000076293945</v>
+      </c>
+      <c r="K876" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="L876" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>PRAJIND.NS</t>
+        </is>
+      </c>
+      <c r="B877" s="2" t="n">
+        <v>45208</v>
+      </c>
+      <c r="C877" t="n">
+        <v>614.6500244140625</v>
+      </c>
+      <c r="D877" t="n">
+        <v>565.8499755859375</v>
+      </c>
+      <c r="E877" t="n">
+        <v>591.9000244140625</v>
+      </c>
+      <c r="F877" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G877" t="n">
+        <v>614.6500244140625</v>
+      </c>
+      <c r="H877" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I877" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J877" t="n">
+        <v>692.8499755859375</v>
+      </c>
+      <c r="K877" t="n">
+        <v>598.2000122070312</v>
+      </c>
+      <c r="L877" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>PRAJIND.NS</t>
+        </is>
+      </c>
+      <c r="B878" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="C878" t="n">
+        <v>650.5</v>
+      </c>
+      <c r="D878" t="n">
+        <v>609.1500244140625</v>
+      </c>
+      <c r="E878" t="n">
+        <v>630.4000244140625</v>
+      </c>
+      <c r="F878" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G878" t="n">
+        <v>650.5</v>
+      </c>
+      <c r="H878" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I878" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J878" t="n">
+        <v>692.8499755859375</v>
+      </c>
+      <c r="K878" t="n">
+        <v>598.2000122070312</v>
+      </c>
+      <c r="L878" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>MAHEPC.NS</t>
+        </is>
+      </c>
+      <c r="B879" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C879" t="n">
+        <v>162.8000030517578</v>
+      </c>
+      <c r="D879" t="n">
+        <v>142.6000061035156</v>
+      </c>
+      <c r="E879" t="n">
+        <v>143.75</v>
+      </c>
+      <c r="F879" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G879" t="n">
+        <v>162.8000030517578</v>
+      </c>
+      <c r="H879" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I879" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J879" t="n">
+        <v>177.5</v>
+      </c>
+      <c r="K879" t="n">
+        <v>138.9499969482422</v>
+      </c>
+      <c r="L879" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>MAHEPC.NS</t>
+        </is>
+      </c>
+      <c r="B880" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C880" t="n">
+        <v>154</v>
+      </c>
+      <c r="D880" t="n">
+        <v>130.6000061035156</v>
+      </c>
+      <c r="E880" t="n">
+        <v>137.6499938964844</v>
+      </c>
+      <c r="F880" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G880" t="n">
+        <v>154</v>
+      </c>
+      <c r="H880" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I880" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J880" t="n">
+        <v>177.5</v>
+      </c>
+      <c r="K880" t="n">
+        <v>138.9499969482422</v>
+      </c>
+      <c r="L880" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>MAHLOG.NS</t>
+        </is>
+      </c>
+      <c r="B881" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="C881" t="n">
+        <v>460</v>
+      </c>
+      <c r="D881" t="n">
+        <v>435</v>
+      </c>
+      <c r="E881" t="n">
+        <v>437.9500122070312</v>
+      </c>
+      <c r="F881" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G881" t="n">
+        <v>460</v>
+      </c>
+      <c r="H881" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I881" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J881" t="n">
+        <v>480</v>
+      </c>
+      <c r="K881" t="n">
+        <v>458.25</v>
+      </c>
+      <c r="L881" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>GUJGASLTD.NS</t>
+        </is>
+      </c>
+      <c r="B882" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C882" t="n">
+        <v>620</v>
+      </c>
+      <c r="D882" t="n">
+        <v>566.0499877929688</v>
+      </c>
+      <c r="E882" t="n">
+        <v>582.9000244140625</v>
+      </c>
+      <c r="F882" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G882" t="n">
+        <v>620</v>
+      </c>
+      <c r="H882" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I882" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J882" t="n">
+        <v>644.0999755859375</v>
+      </c>
+      <c r="K882" t="n">
+        <v>590</v>
+      </c>
+      <c r="L882" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>GMRINFRA.NS</t>
+        </is>
+      </c>
+      <c r="B883" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="C883" t="n">
+        <v>92.40000152587891</v>
+      </c>
+      <c r="D883" t="n">
+        <v>80.55000305175781</v>
+      </c>
+      <c r="E883" t="n">
+        <v>90.75</v>
+      </c>
+      <c r="F883" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G883" t="n">
+        <v>92.40000152587891</v>
+      </c>
+      <c r="H883" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I883" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J883" t="n">
+        <v>93.23000335693359</v>
+      </c>
+      <c r="K883" t="n">
+        <v>88.94999694824219</v>
+      </c>
+      <c r="L883" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>PETRONET.NS</t>
+        </is>
+      </c>
+      <c r="B884" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C884" t="n">
+        <v>323.1499938964844</v>
+      </c>
+      <c r="D884" t="n">
+        <v>303.6499938964844</v>
+      </c>
+      <c r="E884" t="n">
+        <v>313.7999877929688</v>
+      </c>
+      <c r="F884" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G884" t="n">
+        <v>323.1499938964844</v>
+      </c>
+      <c r="H884" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I884" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J884" t="n">
+        <v>326</v>
+      </c>
+      <c r="K884" t="n">
+        <v>317.7000122070312</v>
+      </c>
+      <c r="L884" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>IGL.NS</t>
+        </is>
+      </c>
+      <c r="B885" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C885" t="n">
+        <v>486.5499877929688</v>
+      </c>
+      <c r="D885" t="n">
+        <v>455.9500122070312</v>
+      </c>
+      <c r="E885" t="n">
+        <v>481.75</v>
+      </c>
+      <c r="F885" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G885" t="n">
+        <v>486.5499877929688</v>
+      </c>
+      <c r="H885" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I885" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J885" t="n">
+        <v>490.4500122070312</v>
+      </c>
+      <c r="K885" t="n">
+        <v>474</v>
+      </c>
+      <c r="L885" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>IGL.NS</t>
+        </is>
+      </c>
+      <c r="B886" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="C886" t="n">
+        <v>489</v>
+      </c>
+      <c r="D886" t="n">
+        <v>432.1499938964844</v>
+      </c>
+      <c r="E886" t="n">
+        <v>436.2000122070312</v>
+      </c>
+      <c r="F886" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G886" t="n">
+        <v>489</v>
+      </c>
+      <c r="H886" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I886" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J886" t="n">
+        <v>490.4500122070312</v>
+      </c>
+      <c r="K886" t="n">
+        <v>474</v>
+      </c>
+      <c r="L886" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>SWARAJENG.NS</t>
+        </is>
+      </c>
+      <c r="B887" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C887" t="n">
+        <v>2649.949951171875</v>
+      </c>
+      <c r="D887" t="n">
+        <v>2310.5</v>
+      </c>
+      <c r="E887" t="n">
+        <v>2541.050048828125</v>
+      </c>
+      <c r="F887" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G887" t="n">
+        <v>2649.949951171875</v>
+      </c>
+      <c r="H887" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I887" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J887" t="n">
+        <v>2794.699951171875</v>
+      </c>
+      <c r="K887" t="n">
+        <v>2557.64990234375</v>
+      </c>
+      <c r="L887" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>HATHWAY.NS</t>
+        </is>
+      </c>
+      <c r="B888" s="2" t="n">
+        <v>45201</v>
+      </c>
+      <c r="C888" t="n">
+        <v>22.29999923706055</v>
+      </c>
+      <c r="D888" t="n">
+        <v>19.89999961853027</v>
+      </c>
+      <c r="E888" t="n">
+        <v>20.60000038146973</v>
+      </c>
+      <c r="F888" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G888" t="n">
+        <v>22.29999923706055</v>
+      </c>
+      <c r="H888" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I888" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J888" t="n">
+        <v>22.57999992370605</v>
+      </c>
+      <c r="K888" t="n">
+        <v>21.29999923706055</v>
+      </c>
+      <c r="L888" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>OFSS.NS</t>
+        </is>
+      </c>
+      <c r="B889" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C889" t="n">
+        <v>9023</v>
+      </c>
+      <c r="D889" t="n">
+        <v>8702</v>
+      </c>
+      <c r="E889" t="n">
+        <v>8775.4501953125</v>
+      </c>
+      <c r="F889" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G889" t="n">
+        <v>9023</v>
+      </c>
+      <c r="H889" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I889" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J889" t="n">
+        <v>9760</v>
+      </c>
+      <c r="K889" t="n">
+        <v>8507.650390625</v>
+      </c>
+      <c r="L889" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>ACGL.BO</t>
+        </is>
+      </c>
+      <c r="B890" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="C890" t="n">
+        <v>2300</v>
+      </c>
+      <c r="D890" t="n">
+        <v>2103.64990234375</v>
+      </c>
+      <c r="E890" t="n">
+        <v>2190.699951171875</v>
+      </c>
+      <c r="F890" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G890" t="n">
+        <v>2300</v>
+      </c>
+      <c r="H890" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I890" t="inlineStr">
+        <is>
+          <t>11-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J890" t="n">
+        <v>2440</v>
+      </c>
+      <c r="K890" t="n">
+        <v>2098.800048828125</v>
+      </c>
+      <c r="L890" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>ARTSONEN.BO</t>
+        </is>
+      </c>
+      <c r="B891" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="C891" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="D891" t="n">
+        <v>144</v>
+      </c>
+      <c r="E891" t="n">
+        <v>181.0500030517578</v>
+      </c>
+      <c r="F891" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G891" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="H891" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I891" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J891" t="n">
+        <v>199</v>
+      </c>
+      <c r="K891" t="n">
+        <v>185</v>
+      </c>
+      <c r="L891" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>DBL.NS</t>
+        </is>
+      </c>
+      <c r="B892" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C892" t="n">
+        <v>504.5</v>
+      </c>
+      <c r="D892" t="n">
+        <v>436.3500061035156</v>
+      </c>
+      <c r="E892" t="n">
+        <v>458.1499938964844</v>
+      </c>
+      <c r="F892" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G892" t="n">
+        <v>504.5</v>
+      </c>
+      <c r="H892" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I892" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J892" t="n">
+        <v>514.5</v>
+      </c>
+      <c r="K892" t="n">
+        <v>445.6000061035156</v>
+      </c>
+      <c r="L892" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>DBL.NS</t>
+        </is>
+      </c>
+      <c r="B893" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C893" t="n">
+        <v>502.2000122070312</v>
+      </c>
+      <c r="D893" t="n">
+        <v>455.7000122070312</v>
+      </c>
+      <c r="E893" t="n">
+        <v>457.4500122070312</v>
+      </c>
+      <c r="F893" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G893" t="n">
+        <v>502.2000122070312</v>
+      </c>
+      <c r="H893" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I893" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J893" t="n">
+        <v>514.5</v>
+      </c>
+      <c r="K893" t="n">
+        <v>445.6000061035156</v>
+      </c>
+      <c r="L893" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>APLAPOLLO.NS</t>
+        </is>
+      </c>
+      <c r="B894" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C894" t="n">
+        <v>1660</v>
+      </c>
+      <c r="D894" t="n">
+        <v>1440</v>
+      </c>
+      <c r="E894" t="n">
+        <v>1474.699951171875</v>
+      </c>
+      <c r="F894" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G894" t="n">
+        <v>1660</v>
+      </c>
+      <c r="H894" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I894" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J894" t="n">
+        <v>1667.5</v>
+      </c>
+      <c r="K894" t="n">
+        <v>1631.5</v>
+      </c>
+      <c r="L894" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>SCHNEIDER.NS</t>
+        </is>
+      </c>
+      <c r="B895" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C895" t="n">
+        <v>857.8499755859375</v>
+      </c>
+      <c r="D895" t="n">
+        <v>765</v>
+      </c>
+      <c r="E895" t="n">
+        <v>787.25</v>
+      </c>
+      <c r="F895" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G895" t="n">
+        <v>857.8499755859375</v>
+      </c>
+      <c r="H895" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I895" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J895" t="n">
+        <v>862.4500122070312</v>
+      </c>
+      <c r="K895" t="n">
+        <v>745.0499877929688</v>
+      </c>
+      <c r="L895" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>JISLJALEQS.NS</t>
+        </is>
+      </c>
+      <c r="B896" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C896" t="n">
+        <v>69.80000305175781</v>
+      </c>
+      <c r="D896" t="n">
+        <v>61.59999847412109</v>
+      </c>
+      <c r="E896" t="n">
+        <v>65.90000152587891</v>
+      </c>
+      <c r="F896" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G896" t="n">
+        <v>69.80000305175781</v>
+      </c>
+      <c r="H896" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I896" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J896" t="n">
+        <v>79.51000213623047</v>
+      </c>
+      <c r="K896" t="n">
+        <v>67.69999694824219</v>
+      </c>
+      <c r="L896" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>JISLJALEQS.NS</t>
+        </is>
+      </c>
+      <c r="B897" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="C897" t="n">
+        <v>73.44999694824219</v>
+      </c>
+      <c r="D897" t="n">
+        <v>67.05000305175781</v>
+      </c>
+      <c r="E897" t="n">
+        <v>71.19999694824219</v>
+      </c>
+      <c r="F897" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G897" t="n">
+        <v>73.44999694824219</v>
+      </c>
+      <c r="H897" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I897" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J897" t="n">
+        <v>79.51000213623047</v>
+      </c>
+      <c r="K897" t="n">
+        <v>67.69999694824219</v>
+      </c>
+      <c r="L897" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>JISLJALEQS.NS</t>
+        </is>
+      </c>
+      <c r="B898" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C898" t="n">
+        <v>68.59999847412109</v>
+      </c>
+      <c r="D898" t="n">
+        <v>61.65000152587891</v>
+      </c>
+      <c r="E898" t="n">
+        <v>66.05000305175781</v>
+      </c>
+      <c r="F898" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G898" t="n">
+        <v>68.59999847412109</v>
+      </c>
+      <c r="H898" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I898" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J898" t="n">
+        <v>79.51000213623047</v>
+      </c>
+      <c r="K898" t="n">
+        <v>67.69999694824219</v>
+      </c>
+      <c r="L898" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>TATACHEM.NS</t>
+        </is>
+      </c>
+      <c r="B899" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C899" t="n">
+        <v>1110.849975585938</v>
+      </c>
+      <c r="D899" t="n">
+        <v>1070.5</v>
+      </c>
+      <c r="E899" t="n">
+        <v>1085.300048828125</v>
+      </c>
+      <c r="F899" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G899" t="n">
+        <v>1110.849975585938</v>
+      </c>
+      <c r="H899" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I899" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J899" t="n">
+        <v>1135</v>
+      </c>
+      <c r="K899" t="n">
+        <v>1068</v>
+      </c>
+      <c r="L899" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B900" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="C900" t="n">
+        <v>527.7999877929688</v>
+      </c>
+      <c r="D900" t="n">
+        <v>472.3999938964844</v>
+      </c>
+      <c r="E900" t="n">
+        <v>513</v>
+      </c>
+      <c r="F900" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G900" t="n">
+        <v>527.7999877929688</v>
+      </c>
+      <c r="H900" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I900" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J900" t="n">
+        <v>574.4000244140625</v>
+      </c>
+      <c r="K900" t="n">
+        <v>495</v>
+      </c>
+      <c r="L900" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B901" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C901" t="n">
+        <v>522.2000122070312</v>
+      </c>
+      <c r="D901" t="n">
+        <v>464</v>
+      </c>
+      <c r="E901" t="n">
+        <v>491.9500122070312</v>
+      </c>
+      <c r="F901" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G901" t="n">
+        <v>522.2000122070312</v>
+      </c>
+      <c r="H901" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I901" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J901" t="n">
+        <v>574.4000244140625</v>
+      </c>
+      <c r="K901" t="n">
+        <v>495</v>
+      </c>
+      <c r="L901" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B902" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C902" t="n">
+        <v>527</v>
+      </c>
+      <c r="D902" t="n">
+        <v>476.2000122070312</v>
+      </c>
+      <c r="E902" t="n">
+        <v>479.3999938964844</v>
+      </c>
+      <c r="F902" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G902" t="n">
+        <v>527</v>
+      </c>
+      <c r="H902" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I902" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J902" t="n">
+        <v>574.4000244140625</v>
+      </c>
+      <c r="K902" t="n">
+        <v>495</v>
+      </c>
+      <c r="L902" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B903" s="2" t="n">
+        <v>45145</v>
+      </c>
+      <c r="C903" t="n">
+        <v>464.9500122070312</v>
+      </c>
+      <c r="D903" t="n">
+        <v>416.1499938964844</v>
+      </c>
+      <c r="E903" t="n">
+        <v>444.0499877929688</v>
+      </c>
+      <c r="F903" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G903" t="n">
+        <v>416.1499938964844</v>
+      </c>
+      <c r="H903" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I903" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J903" t="n">
+        <v>402.7999877929688</v>
+      </c>
+      <c r="K903" t="n">
+        <v>441.8500061035156</v>
+      </c>
+      <c r="L903" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B904" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="C904" t="n">
+        <v>457.1000061035156</v>
+      </c>
+      <c r="D904" t="n">
+        <v>425</v>
+      </c>
+      <c r="E904" t="n">
+        <v>444.6000061035156</v>
+      </c>
+      <c r="F904" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G904" t="n">
+        <v>425</v>
+      </c>
+      <c r="H904" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I904" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J904" t="n">
+        <v>402.7999877929688</v>
+      </c>
+      <c r="K904" t="n">
+        <v>441.8500061035156</v>
+      </c>
+      <c r="L904" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B905" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="C905" t="n">
+        <v>480.9500122070312</v>
+      </c>
+      <c r="D905" t="n">
+        <v>413.4500122070312</v>
+      </c>
+      <c r="E905" t="n">
+        <v>450.75</v>
+      </c>
+      <c r="F905" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G905" t="n">
+        <v>413.4500122070312</v>
+      </c>
+      <c r="H905" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I905" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J905" t="n">
+        <v>402.7999877929688</v>
+      </c>
+      <c r="K905" t="n">
+        <v>441.8500061035156</v>
+      </c>
+      <c r="L905" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>TARC.NS</t>
+        </is>
+      </c>
+      <c r="B906" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="C906" t="n">
+        <v>184.8999938964844</v>
+      </c>
+      <c r="D906" t="n">
+        <v>137.3999938964844</v>
+      </c>
+      <c r="E906" t="n">
+        <v>178.5500030517578</v>
+      </c>
+      <c r="F906" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G906" t="n">
+        <v>184.8999938964844</v>
+      </c>
+      <c r="H906" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I906" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J906" t="n">
+        <v>194.5</v>
+      </c>
+      <c r="K906" t="n">
+        <v>177</v>
+      </c>
+      <c r="L906" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B907" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C907" t="n">
+        <v>961</v>
+      </c>
+      <c r="D907" t="n">
+        <v>912.2999877929688</v>
+      </c>
+      <c r="E907" t="n">
+        <v>935.25</v>
+      </c>
+      <c r="F907" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G907" t="n">
+        <v>961</v>
+      </c>
+      <c r="H907" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I907" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J907" t="n">
+        <v>995</v>
+      </c>
+      <c r="K907" t="n">
+        <v>947.2999877929688</v>
+      </c>
+      <c r="L907" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>PREMEXPLN.NS</t>
+        </is>
+      </c>
+      <c r="B908" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C908" t="n">
+        <v>2780</v>
+      </c>
+      <c r="D908" t="n">
+        <v>2326.64990234375</v>
+      </c>
+      <c r="E908" t="n">
+        <v>2431.25</v>
+      </c>
+      <c r="F908" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G908" t="n">
+        <v>2780</v>
+      </c>
+      <c r="H908" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I908" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J908" t="n">
+        <v>3557.39990234375</v>
+      </c>
+      <c r="K908" t="n">
+        <v>2688</v>
+      </c>
+      <c r="L908" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>MICEL.NS</t>
+        </is>
+      </c>
+      <c r="B909" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C909" t="n">
+        <v>53.65000152587891</v>
+      </c>
+      <c r="D909" t="n">
+        <v>44.29999923706055</v>
+      </c>
+      <c r="E909" t="n">
+        <v>48.25</v>
+      </c>
+      <c r="F909" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G909" t="n">
+        <v>53.65000152587891</v>
+      </c>
+      <c r="H909" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I909" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J909" t="n">
+        <v>54.81999969482422</v>
+      </c>
+      <c r="K909" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="L909" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>M&amp;MFIN.NS</t>
+        </is>
+      </c>
+      <c r="B910" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="C910" t="n">
+        <v>296</v>
+      </c>
+      <c r="D910" t="n">
+        <v>267.4500122070312</v>
+      </c>
+      <c r="E910" t="n">
+        <v>286.7000122070312</v>
+      </c>
+      <c r="F910" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G910" t="n">
+        <v>296</v>
+      </c>
+      <c r="H910" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I910" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J910" t="n">
+        <v>296.5</v>
+      </c>
+      <c r="K910" t="n">
+        <v>283.1000061035156</v>
+      </c>
+      <c r="L910" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>ASMTEC.BO</t>
+        </is>
+      </c>
+      <c r="B911" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C911" t="n">
+        <v>1118</v>
+      </c>
+      <c r="D911" t="n">
+        <v>954</v>
+      </c>
+      <c r="E911" t="n">
+        <v>989.3499755859375</v>
+      </c>
+      <c r="F911" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G911" t="n">
+        <v>1118</v>
+      </c>
+      <c r="H911" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I911" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J911" t="n">
+        <v>1149.949951171875</v>
+      </c>
+      <c r="K911" t="n">
+        <v>1100.400024414062</v>
+      </c>
+      <c r="L911" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>AMBER.NS</t>
+        </is>
+      </c>
+      <c r="B912" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="C912" t="n">
+        <v>4147.9501953125</v>
+      </c>
+      <c r="D912" t="n">
+        <v>3781.5</v>
+      </c>
+      <c r="E912" t="n">
+        <v>3803.25</v>
+      </c>
+      <c r="F912" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G912" t="n">
+        <v>4147.9501953125</v>
+      </c>
+      <c r="H912" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I912" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J912" t="n">
+        <v>4180</v>
+      </c>
+      <c r="K912" t="n">
+        <v>3800</v>
+      </c>
+      <c r="L912" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>TATACOMM.NS</t>
+        </is>
+      </c>
+      <c r="B913" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="C913" t="n">
+        <v>1842</v>
+      </c>
+      <c r="D913" t="n">
+        <v>1688.050048828125</v>
+      </c>
+      <c r="E913" t="n">
+        <v>1730.150024414062</v>
+      </c>
+      <c r="F913" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G913" t="n">
+        <v>1842</v>
+      </c>
+      <c r="H913" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I913" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J913" t="n">
+        <v>1926</v>
+      </c>
+      <c r="K913" t="n">
+        <v>1821.400024414062</v>
+      </c>
+      <c r="L913" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>IEX.NS</t>
+        </is>
+      </c>
+      <c r="B914" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="C914" t="n">
+        <v>173.3500061035156</v>
+      </c>
+      <c r="D914" t="n">
+        <v>162.0500030517578</v>
+      </c>
+      <c r="E914" t="n">
+        <v>164.1999969482422</v>
+      </c>
+      <c r="F914" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G914" t="n">
+        <v>173.3500061035156</v>
+      </c>
+      <c r="H914" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I914" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J914" t="n">
+        <v>181.75</v>
+      </c>
+      <c r="K914" t="n">
+        <v>167.5</v>
+      </c>
+      <c r="L914" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>JKPAPER.NS</t>
+        </is>
+      </c>
+      <c r="B915" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="C915" t="n">
+        <v>415.2999877929688</v>
+      </c>
+      <c r="D915" t="n">
+        <v>391</v>
+      </c>
+      <c r="E915" t="n">
+        <v>400.25</v>
+      </c>
+      <c r="F915" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G915" t="n">
+        <v>415.2999877929688</v>
+      </c>
+      <c r="H915" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I915" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J915" t="n">
+        <v>448.5</v>
+      </c>
+      <c r="K915" t="n">
+        <v>407.5499877929688</v>
+      </c>
+      <c r="L915" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>ANJANIFOODS.BO</t>
+        </is>
+      </c>
+      <c r="B916" s="2" t="n">
+        <v>44900</v>
+      </c>
+      <c r="C916" t="n">
+        <v>36.29999923706055</v>
+      </c>
+      <c r="D916" t="n">
+        <v>29.29999923706055</v>
+      </c>
+      <c r="E916" t="n">
+        <v>33.15000152587891</v>
+      </c>
+      <c r="F916" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G916" t="n">
+        <v>36.29999923706055</v>
+      </c>
+      <c r="H916" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I916" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J916" t="n">
+        <v>52.40999984741211</v>
+      </c>
+      <c r="K916" t="n">
+        <v>31.88999938964844</v>
+      </c>
+      <c r="L916" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>ANJANIFOODS.BO</t>
+        </is>
+      </c>
+      <c r="B917" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C917" t="n">
+        <v>31.95000076293945</v>
+      </c>
+      <c r="D917" t="n">
+        <v>27.71999931335449</v>
+      </c>
+      <c r="E917" t="n">
+        <v>29.20999908447266</v>
+      </c>
+      <c r="F917" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G917" t="n">
+        <v>31.95000076293945</v>
+      </c>
+      <c r="H917" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I917" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J917" t="n">
+        <v>52.40999984741211</v>
+      </c>
+      <c r="K917" t="n">
+        <v>31.88999938964844</v>
+      </c>
+      <c r="L917" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>ANJANIFOODS.BO</t>
+        </is>
+      </c>
+      <c r="B918" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="C918" t="n">
+        <v>43.77999877929688</v>
+      </c>
+      <c r="D918" t="n">
+        <v>37.83000183105469</v>
+      </c>
+      <c r="E918" t="n">
+        <v>41.41999816894531</v>
+      </c>
+      <c r="F918" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G918" t="n">
+        <v>43.77999877929688</v>
+      </c>
+      <c r="H918" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I918" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J918" t="n">
+        <v>52.40999984741211</v>
+      </c>
+      <c r="K918" t="n">
+        <v>31.88999938964844</v>
+      </c>
+      <c r="L918" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>ALKALI.NS</t>
+        </is>
+      </c>
+      <c r="B919" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C919" t="n">
+        <v>124</v>
+      </c>
+      <c r="D919" t="n">
+        <v>103</v>
+      </c>
+      <c r="E919" t="n">
+        <v>122.9499969482422</v>
+      </c>
+      <c r="F919" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G919" t="n">
+        <v>124</v>
+      </c>
+      <c r="H919" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I919" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J919" t="n">
+        <v>130.3099975585938</v>
+      </c>
+      <c r="K919" t="n">
+        <v>116.25</v>
+      </c>
+      <c r="L919" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>DECCANCE.NS</t>
+        </is>
+      </c>
+      <c r="B920" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C920" t="n">
+        <v>668.4500122070312</v>
+      </c>
+      <c r="D920" t="n">
+        <v>619.2000122070312</v>
+      </c>
+      <c r="E920" t="n">
+        <v>635.7999877929688</v>
+      </c>
+      <c r="F920" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G920" t="n">
+        <v>668.4500122070312</v>
+      </c>
+      <c r="H920" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I920" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J920" t="n">
+        <v>696.25</v>
+      </c>
+      <c r="K920" t="n">
+        <v>627.5999755859375</v>
+      </c>
+      <c r="L920" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>DECCANCE.NS</t>
+        </is>
+      </c>
+      <c r="B921" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="C921" t="n">
+        <v>647</v>
+      </c>
+      <c r="D921" t="n">
+        <v>612</v>
+      </c>
+      <c r="E921" t="n">
+        <v>635</v>
+      </c>
+      <c r="F921" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G921" t="n">
+        <v>647</v>
+      </c>
+      <c r="H921" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I921" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J921" t="n">
+        <v>696.25</v>
+      </c>
+      <c r="K921" t="n">
+        <v>627.5999755859375</v>
+      </c>
+      <c r="L921" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>ANDHRAPAP.NS</t>
+        </is>
+      </c>
+      <c r="B922" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C922" t="n">
+        <v>544.0999755859375</v>
+      </c>
+      <c r="D922" t="n">
+        <v>525</v>
+      </c>
+      <c r="E922" t="n">
+        <v>528.5</v>
+      </c>
+      <c r="F922" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G922" t="n">
+        <v>544.0999755859375</v>
+      </c>
+      <c r="H922" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I922" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J922" t="n">
+        <v>546.8499755859375</v>
+      </c>
+      <c r="K922" t="n">
+        <v>514.75</v>
+      </c>
+      <c r="L922" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>AMIORG.NS</t>
+        </is>
+      </c>
+      <c r="B923" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C923" t="n">
+        <v>1296.5</v>
+      </c>
+      <c r="D923" t="n">
+        <v>1147</v>
+      </c>
+      <c r="E923" t="n">
+        <v>1220.800048828125</v>
+      </c>
+      <c r="F923" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G923" t="n">
+        <v>1296.5</v>
+      </c>
+      <c r="H923" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I923" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J923" t="n">
+        <v>1341.25</v>
+      </c>
+      <c r="K923" t="n">
+        <v>1248</v>
+      </c>
+      <c r="L923" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>SASTASUNDR.NS</t>
+        </is>
+      </c>
+      <c r="B924" s="2" t="n">
+        <v>45089</v>
+      </c>
+      <c r="C924" t="n">
+        <v>314.7999877929688</v>
+      </c>
+      <c r="D924" t="n">
+        <v>285.1499938964844</v>
+      </c>
+      <c r="E924" t="n">
+        <v>289.4500122070312</v>
+      </c>
+      <c r="F924" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G924" t="n">
+        <v>314.7999877929688</v>
+      </c>
+      <c r="H924" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I924" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J924" t="n">
+        <v>378</v>
+      </c>
+      <c r="K924" t="n">
+        <v>314.0499877929688</v>
+      </c>
+      <c r="L924" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>SASTASUNDR.NS</t>
+        </is>
+      </c>
+      <c r="B925" s="2" t="n">
+        <v>45152</v>
+      </c>
+      <c r="C925" t="n">
+        <v>334.75</v>
+      </c>
+      <c r="D925" t="n">
+        <v>280.25</v>
+      </c>
+      <c r="E925" t="n">
+        <v>315.75</v>
+      </c>
+      <c r="F925" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G925" t="n">
+        <v>334.75</v>
+      </c>
+      <c r="H925" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I925" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J925" t="n">
+        <v>378</v>
+      </c>
+      <c r="K925" t="n">
+        <v>314.0499877929688</v>
+      </c>
+      <c r="L925" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>ANDHRSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="B926" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="C926" t="n">
+        <v>124.75</v>
+      </c>
+      <c r="D926" t="n">
+        <v>116.1999969482422</v>
+      </c>
+      <c r="E926" t="n">
+        <v>121.8000030517578</v>
+      </c>
+      <c r="F926" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G926" t="n">
+        <v>124.75</v>
+      </c>
+      <c r="H926" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I926" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J926" t="n">
+        <v>128.9900054931641</v>
+      </c>
+      <c r="K926" t="n">
+        <v>109.75</v>
+      </c>
+      <c r="L926" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>ANDHRSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="B927" s="2" t="n">
+        <v>45194</v>
+      </c>
+      <c r="C927" t="n">
+        <v>128.6499938964844</v>
+      </c>
+      <c r="D927" t="n">
+        <v>116.25</v>
+      </c>
+      <c r="E927" t="n">
+        <v>118.6500015258789</v>
+      </c>
+      <c r="F927" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G927" t="n">
+        <v>128.6499938964844</v>
+      </c>
+      <c r="H927" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I927" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J927" t="n">
+        <v>128.9900054931641</v>
+      </c>
+      <c r="K927" t="n">
+        <v>109.75</v>
+      </c>
+      <c r="L927" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>ANDHRSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="B928" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C928" t="n">
+        <v>119.5500030517578</v>
+      </c>
+      <c r="D928" t="n">
+        <v>110.0500030517578</v>
+      </c>
+      <c r="E928" t="n">
+        <v>111.25</v>
+      </c>
+      <c r="F928" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G928" t="n">
+        <v>119.5500030517578</v>
+      </c>
+      <c r="H928" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I928" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J928" t="n">
+        <v>128.9900054931641</v>
+      </c>
+      <c r="K928" t="n">
+        <v>109.75</v>
+      </c>
+      <c r="L928" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>AGARIND.NS</t>
+        </is>
+      </c>
+      <c r="B929" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C929" t="n">
+        <v>1099</v>
+      </c>
+      <c r="D929" t="n">
+        <v>1009.299987792969</v>
+      </c>
+      <c r="E929" t="n">
+        <v>1038.699951171875</v>
+      </c>
+      <c r="F929" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G929" t="n">
+        <v>1099</v>
+      </c>
+      <c r="H929" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I929" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J929" t="n">
+        <v>1144.849975585938</v>
+      </c>
+      <c r="K929" t="n">
+        <v>950</v>
+      </c>
+      <c r="L929" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>AGARIND.NS</t>
+        </is>
+      </c>
+      <c r="B930" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="C930" t="n">
+        <v>1032.400024414062</v>
+      </c>
+      <c r="D930" t="n">
+        <v>939</v>
+      </c>
+      <c r="E930" t="n">
+        <v>970.2000122070312</v>
+      </c>
+      <c r="F930" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G930" t="n">
+        <v>1032.400024414062</v>
+      </c>
+      <c r="H930" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I930" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J930" t="n">
+        <v>1144.849975585938</v>
+      </c>
+      <c r="K930" t="n">
+        <v>950</v>
+      </c>
+      <c r="L930" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>ANDHRAPET.BO</t>
+        </is>
+      </c>
+      <c r="B931" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C931" t="n">
+        <v>115.9499969482422</v>
+      </c>
+      <c r="D931" t="n">
+        <v>102</v>
+      </c>
+      <c r="E931" t="n">
+        <v>104</v>
+      </c>
+      <c r="F931" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G931" t="n">
+        <v>115.9499969482422</v>
+      </c>
+      <c r="H931" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I931" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J931" t="n">
+        <v>126.9000015258789</v>
+      </c>
+      <c r="K931" t="n">
+        <v>111</v>
+      </c>
+      <c r="L931" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>FAZE3Q.NS</t>
+        </is>
+      </c>
+      <c r="B932" s="2" t="n">
+        <v>45117</v>
+      </c>
+      <c r="C932" t="n">
+        <v>436.9500122070312</v>
+      </c>
+      <c r="D932" t="n">
+        <v>362</v>
+      </c>
+      <c r="E932" t="n">
+        <v>411.4500122070312</v>
+      </c>
+      <c r="F932" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G932" t="n">
+        <v>436.9500122070312</v>
+      </c>
+      <c r="H932" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I932" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J932" t="n">
+        <v>448</v>
+      </c>
+      <c r="K932" t="n">
+        <v>412</v>
+      </c>
+      <c r="L932" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>SKYGOLD.NS</t>
+        </is>
+      </c>
+      <c r="B933" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C933" t="n">
+        <v>1288</v>
+      </c>
+      <c r="D933" t="n">
+        <v>1140</v>
+      </c>
+      <c r="E933" t="n">
+        <v>1162.699951171875</v>
+      </c>
+      <c r="F933" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G933" t="n">
+        <v>1288</v>
+      </c>
+      <c r="H933" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I933" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J933" t="n">
+        <v>1297.949951171875</v>
+      </c>
+      <c r="K933" t="n">
+        <v>1275</v>
+      </c>
+      <c r="L933" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>DHABRIYA.BO</t>
+        </is>
+      </c>
+      <c r="B934" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C934" t="n">
+        <v>315</v>
+      </c>
+      <c r="D934" t="n">
+        <v>281.2999877929688</v>
+      </c>
+      <c r="E934" t="n">
+        <v>291.7000122070312</v>
+      </c>
+      <c r="F934" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G934" t="n">
+        <v>315</v>
+      </c>
+      <c r="H934" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I934" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J934" t="n">
+        <v>349.9500122070312</v>
+      </c>
+      <c r="K934" t="n">
+        <v>300</v>
+      </c>
+      <c r="L934" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>GRAVITA.NS</t>
+        </is>
+      </c>
+      <c r="B935" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="C935" t="n">
+        <v>1166</v>
+      </c>
+      <c r="D935" t="n">
+        <v>1120.550048828125</v>
+      </c>
+      <c r="E935" t="n">
+        <v>1138.099975585938</v>
+      </c>
+      <c r="F935" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G935" t="n">
+        <v>1166</v>
+      </c>
+      <c r="H935" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I935" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J935" t="n">
+        <v>1350</v>
+      </c>
+      <c r="K935" t="n">
+        <v>1145.5</v>
+      </c>
+      <c r="L935" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>STOVEKRAFT.NS</t>
+        </is>
+      </c>
+      <c r="B936" s="2" t="n">
+        <v>45075</v>
+      </c>
+      <c r="C936" t="n">
+        <v>507.3999938964844</v>
+      </c>
+      <c r="D936" t="n">
+        <v>421</v>
+      </c>
+      <c r="E936" t="n">
+        <v>437.8999938964844</v>
+      </c>
+      <c r="F936" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G936" t="n">
+        <v>507.3999938964844</v>
+      </c>
+      <c r="H936" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I936" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J936" t="n">
+        <v>550</v>
+      </c>
+      <c r="K936" t="n">
+        <v>498.9500122070312</v>
+      </c>
+      <c r="L936" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>STOVEKRAFT.NS</t>
+        </is>
+      </c>
+      <c r="B937" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C937" t="n">
+        <v>515</v>
+      </c>
+      <c r="D937" t="n">
+        <v>480</v>
+      </c>
+      <c r="E937" t="n">
+        <v>500.2000122070312</v>
+      </c>
+      <c r="F937" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G937" t="n">
+        <v>515</v>
+      </c>
+      <c r="H937" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I937" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J937" t="n">
+        <v>550</v>
+      </c>
+      <c r="K937" t="n">
+        <v>498.9500122070312</v>
+      </c>
+      <c r="L937" t="inlineStr">
+        <is>
+          <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -14432,7 +14432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J108"/>
+  <dimension ref="A1:J113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18983,6 +18983,216 @@
       <c r="J108" t="inlineStr">
         <is>
           <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45443.42708333334</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>14-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>ASIANPAINT.NS</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45435.38541666666</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2921.25</v>
+      </c>
+      <c r="G109" s="2" t="n">
+        <v>45441.55208333334</v>
+      </c>
+      <c r="H109" t="n">
+        <v>2921</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>14/06/2024 04:48:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45455.59375</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>14-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>VOLTAS.NS</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45449.38541666666</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1477.849975585938</v>
+      </c>
+      <c r="G110" s="2" t="n">
+        <v>45454.42708333334</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1476</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>14/06/2024 04:48:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45427.42708333334</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>14-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>KPEL.BO</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45425.46875</v>
+      </c>
+      <c r="F111" t="n">
+        <v>422.1000061035156</v>
+      </c>
+      <c r="G111" s="2" t="n">
+        <v>45425.55208333334</v>
+      </c>
+      <c r="H111" t="n">
+        <v>422.1000061035156</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>14/06/2024 04:48:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45434.51041666666</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>14-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>NIITLTD.NS</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45429.51041666666</v>
+      </c>
+      <c r="F112" t="n">
+        <v>104.9499969482422</v>
+      </c>
+      <c r="G112" s="2" t="n">
+        <v>45429.63541666666</v>
+      </c>
+      <c r="H112" t="n">
+        <v>104.9499969482422</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>14/06/2024 04:48:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45447.55208333334</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>14-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>ADFFOODS.NS</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45441.42708333334</v>
+      </c>
+      <c r="F113" t="n">
+        <v>226.8000030517578</v>
+      </c>
+      <c r="G113" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="H113" t="n">
+        <v>227.25</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>14/06/2024 04:48:06</t>
         </is>
       </c>
     </row>
@@ -18997,7 +19207,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L937"/>
+  <dimension ref="A1:L947"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63995,6 +64205,486 @@
         </is>
       </c>
     </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>RIR.BO</t>
+        </is>
+      </c>
+      <c r="B938" s="2" t="n">
+        <v>45442.38541666666</v>
+      </c>
+      <c r="C938" t="n">
+        <v>1789.800048828125</v>
+      </c>
+      <c r="D938" t="n">
+        <v>1700</v>
+      </c>
+      <c r="E938" t="n">
+        <v>1710.050048828125</v>
+      </c>
+      <c r="F938" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G938" t="n">
+        <v>1789.800048828125</v>
+      </c>
+      <c r="H938" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I938" t="inlineStr">
+        <is>
+          <t>14-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J938" t="n">
+        <v>1823.25</v>
+      </c>
+      <c r="K938" t="n">
+        <v>1736.449951171875</v>
+      </c>
+      <c r="L938" t="inlineStr">
+        <is>
+          <t>14/06/2024 04:48:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>RIR.BO</t>
+        </is>
+      </c>
+      <c r="B939" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="C939" t="n">
+        <v>1782.800048828125</v>
+      </c>
+      <c r="D939" t="n">
+        <v>1655.5</v>
+      </c>
+      <c r="E939" t="n">
+        <v>1678</v>
+      </c>
+      <c r="F939" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G939" t="n">
+        <v>1782.800048828125</v>
+      </c>
+      <c r="H939" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I939" t="inlineStr">
+        <is>
+          <t>14-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J939" t="n">
+        <v>1823.25</v>
+      </c>
+      <c r="K939" t="n">
+        <v>1736.449951171875</v>
+      </c>
+      <c r="L939" t="inlineStr">
+        <is>
+          <t>14/06/2024 04:48:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>RIR.BO</t>
+        </is>
+      </c>
+      <c r="B940" s="2" t="n">
+        <v>45454.38541666666</v>
+      </c>
+      <c r="C940" t="n">
+        <v>1760</v>
+      </c>
+      <c r="D940" t="n">
+        <v>1690</v>
+      </c>
+      <c r="E940" t="n">
+        <v>1699</v>
+      </c>
+      <c r="F940" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G940" t="n">
+        <v>1760</v>
+      </c>
+      <c r="H940" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I940" t="inlineStr">
+        <is>
+          <t>14-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J940" t="n">
+        <v>1823.25</v>
+      </c>
+      <c r="K940" t="n">
+        <v>1736.449951171875</v>
+      </c>
+      <c r="L940" t="inlineStr">
+        <is>
+          <t>14/06/2024 04:48:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>MOSCHIP.BO</t>
+        </is>
+      </c>
+      <c r="B941" s="2" t="n">
+        <v>45453.38541666666</v>
+      </c>
+      <c r="C941" t="n">
+        <v>197.3000030517578</v>
+      </c>
+      <c r="D941" t="n">
+        <v>188</v>
+      </c>
+      <c r="E941" t="n">
+        <v>189.6000061035156</v>
+      </c>
+      <c r="F941" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G941" t="n">
+        <v>197.3000030517578</v>
+      </c>
+      <c r="H941" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I941" t="inlineStr">
+        <is>
+          <t>14-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J941" t="n">
+        <v>209.9499969482422</v>
+      </c>
+      <c r="K941" t="n">
+        <v>197</v>
+      </c>
+      <c r="L941" t="inlineStr">
+        <is>
+          <t>14/06/2024 04:48:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>GPTINFRA.NS</t>
+        </is>
+      </c>
+      <c r="B942" s="2" t="n">
+        <v>45450.38541666666</v>
+      </c>
+      <c r="C942" t="n">
+        <v>259.7999877929688</v>
+      </c>
+      <c r="D942" t="n">
+        <v>247.3000030517578</v>
+      </c>
+      <c r="E942" t="n">
+        <v>255.25</v>
+      </c>
+      <c r="F942" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G942" t="n">
+        <v>259.7999877929688</v>
+      </c>
+      <c r="H942" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I942" t="inlineStr">
+        <is>
+          <t>14-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="J942" t="n">
+        <v>260</v>
+      </c>
+      <c r="K942" t="n">
+        <v>259.7999877929688</v>
+      </c>
+      <c r="L942" t="inlineStr">
+        <is>
+          <t>14/06/2024 04:48:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>GOODYEAR.BO</t>
+        </is>
+      </c>
+      <c r="B943" s="2" t="n">
+        <v>45454.38541666666</v>
+      </c>
+      <c r="C943" t="n">
+        <v>1179.75</v>
+      </c>
+      <c r="D943" t="n">
+        <v>1156.050048828125</v>
+      </c>
+      <c r="E943" t="n">
+        <v>1170.050048828125</v>
+      </c>
+      <c r="F943" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G943" t="n">
+        <v>1179.75</v>
+      </c>
+      <c r="H943" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I943" t="inlineStr">
+        <is>
+          <t>14-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J943" t="n">
+        <v>1182.599975585938</v>
+      </c>
+      <c r="K943" t="n">
+        <v>1179.599975585938</v>
+      </c>
+      <c r="L943" t="inlineStr">
+        <is>
+          <t>14/06/2024 04:48:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>SANJIVIN.BO</t>
+        </is>
+      </c>
+      <c r="B944" s="2" t="n">
+        <v>45454.38541666666</v>
+      </c>
+      <c r="C944" t="n">
+        <v>176.8000030517578</v>
+      </c>
+      <c r="D944" t="n">
+        <v>170.1999969482422</v>
+      </c>
+      <c r="E944" t="n">
+        <v>170.5500030517578</v>
+      </c>
+      <c r="F944" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G944" t="n">
+        <v>176.8000030517578</v>
+      </c>
+      <c r="H944" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I944" t="inlineStr">
+        <is>
+          <t>14-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J944" t="n">
+        <v>177.8500061035156</v>
+      </c>
+      <c r="K944" t="n">
+        <v>175.8999938964844</v>
+      </c>
+      <c r="L944" t="inlineStr">
+        <is>
+          <t>14/06/2024 04:48:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>SKYGOLD.NS</t>
+        </is>
+      </c>
+      <c r="B945" s="2" t="n">
+        <v>45453.38541666666</v>
+      </c>
+      <c r="C945" t="n">
+        <v>1297.949951171875</v>
+      </c>
+      <c r="D945" t="n">
+        <v>1269</v>
+      </c>
+      <c r="E945" t="n">
+        <v>1269.949951171875</v>
+      </c>
+      <c r="F945" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G945" t="n">
+        <v>1297.949951171875</v>
+      </c>
+      <c r="H945" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I945" t="inlineStr">
+        <is>
+          <t>14-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J945" t="n">
+        <v>1337.400024414062</v>
+      </c>
+      <c r="K945" t="n">
+        <v>1273.75</v>
+      </c>
+      <c r="L945" t="inlineStr">
+        <is>
+          <t>14/06/2024 04:48:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>UNIAUTO.BO</t>
+        </is>
+      </c>
+      <c r="B946" s="2" t="n">
+        <v>45443.38541666666</v>
+      </c>
+      <c r="C946" t="n">
+        <v>171.9499969482422</v>
+      </c>
+      <c r="D946" t="n">
+        <v>164</v>
+      </c>
+      <c r="E946" t="n">
+        <v>167.4499969482422</v>
+      </c>
+      <c r="F946" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G946" t="n">
+        <v>171.9499969482422</v>
+      </c>
+      <c r="H946" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I946" t="inlineStr">
+        <is>
+          <t>14-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J946" t="n">
+        <v>172.9499969482422</v>
+      </c>
+      <c r="K946" t="n">
+        <v>170.1999969482422</v>
+      </c>
+      <c r="L946" t="inlineStr">
+        <is>
+          <t>14/06/2024 04:48:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>UNIAUTO.BO</t>
+        </is>
+      </c>
+      <c r="B947" s="2" t="n">
+        <v>45454.38541666666</v>
+      </c>
+      <c r="C947" t="n">
+        <v>171.9499969482422</v>
+      </c>
+      <c r="D947" t="n">
+        <v>163.1999969482422</v>
+      </c>
+      <c r="E947" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="F947" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G947" t="n">
+        <v>171.9499969482422</v>
+      </c>
+      <c r="H947" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I947" t="inlineStr">
+        <is>
+          <t>14-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J947" t="n">
+        <v>172.9499969482422</v>
+      </c>
+      <c r="K947" t="n">
+        <v>170.1999969482422</v>
+      </c>
+      <c r="L947" t="inlineStr">
+        <is>
+          <t>14/06/2024 04:48:06</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L291"/>
+  <dimension ref="A1:L292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14418,6 +14418,54 @@
       <c r="L291" t="inlineStr">
         <is>
           <t>13/06/2024 11:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>45414.63541666666</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>14-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>GET&amp;D.NS</t>
+        </is>
+      </c>
+      <c r="E292" s="2" t="n">
+        <v>45377.63541666666</v>
+      </c>
+      <c r="F292" t="n">
+        <v>895.5999755859375</v>
+      </c>
+      <c r="G292" s="2" t="n">
+        <v>45412.42708333334</v>
+      </c>
+      <c r="H292" t="n">
+        <v>1199</v>
+      </c>
+      <c r="I292" s="2" t="n">
+        <v>45412.46875</v>
+      </c>
+      <c r="J292" t="n">
+        <v>1199</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>14/06/2024 05:46:53</t>
         </is>
       </c>
     </row>
@@ -14432,7 +14480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J113"/>
+  <dimension ref="A1:J117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19193,6 +19241,174 @@
       <c r="J113" t="inlineStr">
         <is>
           <t>14/06/2024 04:48:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45443.42708333334</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>14-06-2024 11:15:00</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>ASIANPAINT.NS</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45435.38541666666</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2921.25</v>
+      </c>
+      <c r="G114" s="2" t="n">
+        <v>45441.55208333334</v>
+      </c>
+      <c r="H114" t="n">
+        <v>2921</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>14/06/2024 05:46:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45456.59375</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>14-06-2024 11:15:00</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>IDFCFIRSTB.NS</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45453.38541666666</v>
+      </c>
+      <c r="F115" t="n">
+        <v>78.55000305175781</v>
+      </c>
+      <c r="G115" s="2" t="n">
+        <v>45455.42708333334</v>
+      </c>
+      <c r="H115" t="n">
+        <v>78.38999938964844</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>14/06/2024 05:46:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45434.51041666666</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>14-06-2024 11:15:00</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>NIITLTD.NS</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45429.51041666666</v>
+      </c>
+      <c r="F116" t="n">
+        <v>104.9499969482422</v>
+      </c>
+      <c r="G116" s="2" t="n">
+        <v>45429.63541666666</v>
+      </c>
+      <c r="H116" t="n">
+        <v>104.9499969482422</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>14/06/2024 05:46:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45447.59375</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>14-06-2024 11:15:00</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>THOMASCOOK.NS</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45441.55208333334</v>
+      </c>
+      <c r="F117" t="n">
+        <v>216.3999938964844</v>
+      </c>
+      <c r="G117" s="2" t="n">
+        <v>45446.42708333334</v>
+      </c>
+      <c r="H117" t="n">
+        <v>216.1999969482422</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>14/06/2024 05:46:53</t>
         </is>
       </c>
     </row>
@@ -19207,7 +19423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L947"/>
+  <dimension ref="A1:L948"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64685,6 +64901,54 @@
         </is>
       </c>
     </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>IDFCFIRSTB.NS</t>
+        </is>
+      </c>
+      <c r="B948" s="2" t="n">
+        <v>45449.46875</v>
+      </c>
+      <c r="C948" t="n">
+        <v>78.25</v>
+      </c>
+      <c r="D948" t="n">
+        <v>77.19999694824219</v>
+      </c>
+      <c r="E948" t="n">
+        <v>77.44999694824219</v>
+      </c>
+      <c r="F948" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G948" t="n">
+        <v>78.25</v>
+      </c>
+      <c r="H948" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I948" t="inlineStr">
+        <is>
+          <t>14-06-2024 11:15:00</t>
+        </is>
+      </c>
+      <c r="J948" t="n">
+        <v>78.27999877929688</v>
+      </c>
+      <c r="K948" t="n">
+        <v>78.23000335693359</v>
+      </c>
+      <c r="L948" t="inlineStr">
+        <is>
+          <t>14/06/2024 05:46:53</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -14480,7 +14480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J117"/>
+  <dimension ref="A1:J122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19409,6 +19409,216 @@
       <c r="J117" t="inlineStr">
         <is>
           <t>14/06/2024 05:46:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45443.42708333334</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>14-06-2024 12:15:00</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>ASIANPAINT.NS</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45435.38541666666</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2921.25</v>
+      </c>
+      <c r="G118" s="2" t="n">
+        <v>45441.55208333334</v>
+      </c>
+      <c r="H118" t="n">
+        <v>2921</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>14/06/2024 06:47:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45455.38541666666</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>14-06-2024 12:15:00</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>BAJAJFINSV.NS</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45446.42708333334</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1582.900024414062</v>
+      </c>
+      <c r="G119" s="2" t="n">
+        <v>45453.51041666666</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1589</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>14/06/2024 06:47:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45456.42708333334</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>14-06-2024 12:15:00</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>GRASIM.NS</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45441.46875</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2459.949951171875</v>
+      </c>
+      <c r="G120" s="2" t="n">
+        <v>45454.55208333334</v>
+      </c>
+      <c r="H120" t="n">
+        <v>2482</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>14/06/2024 06:47:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>45447.59375</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>14-06-2024 12:15:00</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>IOC.NS</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45436.51041666666</v>
+      </c>
+      <c r="F121" t="n">
+        <v>170.4499969482422</v>
+      </c>
+      <c r="G121" s="2" t="n">
+        <v>45439.59375</v>
+      </c>
+      <c r="H121" t="n">
+        <v>170.4499969482422</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>14/06/2024 06:47:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>45447.55208333334</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>14-06-2024 12:15:00</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>ADFFOODS.NS</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45441.42708333334</v>
+      </c>
+      <c r="F122" t="n">
+        <v>226.8000030517578</v>
+      </c>
+      <c r="G122" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="H122" t="n">
+        <v>227.25</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>14/06/2024 06:47:08</t>
         </is>
       </c>
     </row>
@@ -19423,7 +19633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L948"/>
+  <dimension ref="A1:L949"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64949,6 +65159,54 @@
         </is>
       </c>
     </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>SHAILY.NS</t>
+        </is>
+      </c>
+      <c r="B949" s="2" t="n">
+        <v>45439.38541666666</v>
+      </c>
+      <c r="C949" t="n">
+        <v>692</v>
+      </c>
+      <c r="D949" t="n">
+        <v>643.2999877929688</v>
+      </c>
+      <c r="E949" t="n">
+        <v>653.6500244140625</v>
+      </c>
+      <c r="F949" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G949" t="n">
+        <v>692</v>
+      </c>
+      <c r="H949" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I949" t="inlineStr">
+        <is>
+          <t>14-06-2024 11:15:00</t>
+        </is>
+      </c>
+      <c r="J949" t="n">
+        <v>692.7999877929688</v>
+      </c>
+      <c r="K949" t="n">
+        <v>678.7000122070312</v>
+      </c>
+      <c r="L949" t="inlineStr">
+        <is>
+          <t>14/06/2024 06:47:08</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -14480,7 +14480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J122"/>
+  <dimension ref="A1:J127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19619,6 +19619,216 @@
       <c r="J122" t="inlineStr">
         <is>
           <t>14/06/2024 06:47:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>45456.63541666666</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>14-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>BAJAJ-AUTO.NS</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45453.38541666666</v>
+      </c>
+      <c r="F123" t="n">
+        <v>9921.5498046875</v>
+      </c>
+      <c r="G123" s="2" t="n">
+        <v>45455.46875</v>
+      </c>
+      <c r="H123" t="n">
+        <v>9944</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>14/06/2024 07:46:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>45443.42708333334</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>14-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>ASIANPAINT.NS</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45435.38541666666</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2921.25</v>
+      </c>
+      <c r="G124" s="2" t="n">
+        <v>45441.55208333334</v>
+      </c>
+      <c r="H124" t="n">
+        <v>2921</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>14/06/2024 07:46:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>45442.51041666666</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>14-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>SBILIFE.NS</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45435.51041666666</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1452.949951171875</v>
+      </c>
+      <c r="G125" s="2" t="n">
+        <v>45440.63541666666</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1454.949951171875</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>14/06/2024 07:46:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>45421.51041666666</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>14-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>SYRMA.NS</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45407.63541666666</v>
+      </c>
+      <c r="F126" t="n">
+        <v>473.1000061035156</v>
+      </c>
+      <c r="G126" s="2" t="n">
+        <v>45419.63541666666</v>
+      </c>
+      <c r="H126" t="n">
+        <v>473</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>14/06/2024 07:46:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>45421.38541666666</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>14-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>PCBL.NS</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45401.38541666666</v>
+      </c>
+      <c r="F127" t="n">
+        <v>252.1999969482422</v>
+      </c>
+      <c r="G127" s="2" t="n">
+        <v>45419.51041666666</v>
+      </c>
+      <c r="H127" t="n">
+        <v>251.8500061035156</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>14/06/2024 07:46:50</t>
         </is>
       </c>
     </row>
@@ -19633,7 +19843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L949"/>
+  <dimension ref="A1:L950"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65207,6 +65417,54 @@
         </is>
       </c>
     </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>JMFINANCIL.NS</t>
+        </is>
+      </c>
+      <c r="B950" s="2" t="n">
+        <v>45440.38541666666</v>
+      </c>
+      <c r="C950" t="n">
+        <v>85</v>
+      </c>
+      <c r="D950" t="n">
+        <v>83.05000305175781</v>
+      </c>
+      <c r="E950" t="n">
+        <v>84.40000152587891</v>
+      </c>
+      <c r="F950" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G950" t="n">
+        <v>85</v>
+      </c>
+      <c r="H950" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I950" t="inlineStr">
+        <is>
+          <t>14-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="J950" t="n">
+        <v>85.06999969482422</v>
+      </c>
+      <c r="K950" t="n">
+        <v>84.90000152587891</v>
+      </c>
+      <c r="L950" t="inlineStr">
+        <is>
+          <t>14/06/2024 07:46:50</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -14480,7 +14480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J127"/>
+  <dimension ref="A1:J131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19829,6 +19829,174 @@
       <c r="J127" t="inlineStr">
         <is>
           <t>14/06/2024 07:46:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>45455.38541666666</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>14-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>JSWSTEEL.NS</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45440.55208333334</v>
+      </c>
+      <c r="F128" t="n">
+        <v>915.8499755859375</v>
+      </c>
+      <c r="G128" s="2" t="n">
+        <v>45453.51041666666</v>
+      </c>
+      <c r="H128" t="n">
+        <v>920</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>14/06/2024 08:46:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>45447.59375</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>14-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>IOC.NS</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45436.51041666666</v>
+      </c>
+      <c r="F129" t="n">
+        <v>170.4499969482422</v>
+      </c>
+      <c r="G129" s="2" t="n">
+        <v>45439.59375</v>
+      </c>
+      <c r="H129" t="n">
+        <v>170.4499969482422</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>14/06/2024 08:46:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>45427.42708333334</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>14-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>KPEL.BO</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45425.46875</v>
+      </c>
+      <c r="F130" t="n">
+        <v>422.1000061035156</v>
+      </c>
+      <c r="G130" s="2" t="n">
+        <v>45425.55208333334</v>
+      </c>
+      <c r="H130" t="n">
+        <v>422.1000061035156</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>14/06/2024 08:46:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>45446.59375</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>14-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>WALCHANNAG.NS</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45436.38541666666</v>
+      </c>
+      <c r="F131" t="n">
+        <v>216</v>
+      </c>
+      <c r="G131" s="2" t="n">
+        <v>45436.42708333334</v>
+      </c>
+      <c r="H131" t="n">
+        <v>216</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>14/06/2024 08:46:29</t>
         </is>
       </c>
     </row>
@@ -19843,7 +20011,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L950"/>
+  <dimension ref="A1:L954"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65465,6 +65633,198 @@
         </is>
       </c>
     </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>SPELS.BO</t>
+        </is>
+      </c>
+      <c r="B951" s="2" t="n">
+        <v>45434.46875</v>
+      </c>
+      <c r="C951" t="n">
+        <v>141.6999969482422</v>
+      </c>
+      <c r="D951" t="n">
+        <v>141.6999969482422</v>
+      </c>
+      <c r="E951" t="n">
+        <v>141.6999969482422</v>
+      </c>
+      <c r="F951" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G951" t="n">
+        <v>141.6999969482422</v>
+      </c>
+      <c r="H951" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I951" t="inlineStr">
+        <is>
+          <t>14-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="J951" t="n">
+        <v>143.1000061035156</v>
+      </c>
+      <c r="K951" t="n">
+        <v>140.9499969482422</v>
+      </c>
+      <c r="L951" t="inlineStr">
+        <is>
+          <t>14/06/2024 08:46:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>TANFACIND.BO</t>
+        </is>
+      </c>
+      <c r="B952" s="2" t="n">
+        <v>45442.63541666666</v>
+      </c>
+      <c r="C952" t="n">
+        <v>1980</v>
+      </c>
+      <c r="D952" t="n">
+        <v>1960.099975585938</v>
+      </c>
+      <c r="E952" t="n">
+        <v>1975.25</v>
+      </c>
+      <c r="F952" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G952" t="n">
+        <v>1960.099975585938</v>
+      </c>
+      <c r="H952" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I952" t="inlineStr">
+        <is>
+          <t>14-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="J952" t="n">
+        <v>1958.199951171875</v>
+      </c>
+      <c r="K952" t="n">
+        <v>1963.050048828125</v>
+      </c>
+      <c r="L952" t="inlineStr">
+        <is>
+          <t>14/06/2024 08:46:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>TANFACIND.BO</t>
+        </is>
+      </c>
+      <c r="B953" s="2" t="n">
+        <v>45455.42708333334</v>
+      </c>
+      <c r="C953" t="n">
+        <v>1977.900024414062</v>
+      </c>
+      <c r="D953" t="n">
+        <v>1962</v>
+      </c>
+      <c r="E953" t="n">
+        <v>1970</v>
+      </c>
+      <c r="F953" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G953" t="n">
+        <v>1962</v>
+      </c>
+      <c r="H953" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I953" t="inlineStr">
+        <is>
+          <t>14-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="J953" t="n">
+        <v>1958.199951171875</v>
+      </c>
+      <c r="K953" t="n">
+        <v>1963.050048828125</v>
+      </c>
+      <c r="L953" t="inlineStr">
+        <is>
+          <t>14/06/2024 08:46:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>GENESYS.NS</t>
+        </is>
+      </c>
+      <c r="B954" s="2" t="n">
+        <v>45449.38541666666</v>
+      </c>
+      <c r="C954" t="n">
+        <v>517.4000244140625</v>
+      </c>
+      <c r="D954" t="n">
+        <v>474</v>
+      </c>
+      <c r="E954" t="n">
+        <v>505.9500122070312</v>
+      </c>
+      <c r="F954" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G954" t="n">
+        <v>517.4000244140625</v>
+      </c>
+      <c r="H954" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I954" t="inlineStr">
+        <is>
+          <t>14-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="J954" t="n">
+        <v>518.9000244140625</v>
+      </c>
+      <c r="K954" t="n">
+        <v>516.0499877929688</v>
+      </c>
+      <c r="L954" t="inlineStr">
+        <is>
+          <t>14/06/2024 08:46:29</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -14480,7 +14480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J131"/>
+  <dimension ref="A1:J133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19997,6 +19997,90 @@
       <c r="J131" t="inlineStr">
         <is>
           <t>14/06/2024 08:46:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>45443.42708333334</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>ASIANPAINT.NS</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45435.38541666666</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2921.25</v>
+      </c>
+      <c r="G132" s="2" t="n">
+        <v>45441.55208333334</v>
+      </c>
+      <c r="H132" t="n">
+        <v>2921</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>14/06/2024 09:47:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>45447.59375</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>THOMASCOOK.NS</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45441.55208333334</v>
+      </c>
+      <c r="F133" t="n">
+        <v>216.3999938964844</v>
+      </c>
+      <c r="G133" s="2" t="n">
+        <v>45446.42708333334</v>
+      </c>
+      <c r="H133" t="n">
+        <v>216.1999969482422</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>14/06/2024 09:47:54</t>
         </is>
       </c>
     </row>
@@ -20011,7 +20095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L954"/>
+  <dimension ref="A1:L955"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65825,6 +65909,54 @@
         </is>
       </c>
     </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>INDUSTOWER.NS</t>
+        </is>
+      </c>
+      <c r="B955" s="2" t="n">
+        <v>45442.38541666666</v>
+      </c>
+      <c r="C955" t="n">
+        <v>343.5499877929688</v>
+      </c>
+      <c r="D955" t="n">
+        <v>339.1499938964844</v>
+      </c>
+      <c r="E955" t="n">
+        <v>340.6499938964844</v>
+      </c>
+      <c r="F955" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G955" t="n">
+        <v>339.1499938964844</v>
+      </c>
+      <c r="H955" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I955" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J955" t="n">
+        <v>338.5</v>
+      </c>
+      <c r="K955" t="n">
+        <v>339.4500122070312</v>
+      </c>
+      <c r="L955" t="inlineStr">
+        <is>
+          <t>14/06/2024 09:47:54</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L292"/>
+  <dimension ref="A1:L316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14466,6 +14466,1158 @@
       <c r="L292" t="inlineStr">
         <is>
           <t>14/06/2024 05:46:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>ULTRACEMCO.NS</t>
+        </is>
+      </c>
+      <c r="E293" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="F293" t="n">
+        <v>10526</v>
+      </c>
+      <c r="G293" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="H293" t="n">
+        <v>10277.7001953125</v>
+      </c>
+      <c r="I293" t="n">
+        <v>0</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>JSWSTEEL.NS</t>
+        </is>
+      </c>
+      <c r="E294" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="F294" t="n">
+        <v>895.75</v>
+      </c>
+      <c r="G294" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="H294" t="n">
+        <v>850</v>
+      </c>
+      <c r="I294" t="n">
+        <v>0</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>HDFCLIFE.NS</t>
+        </is>
+      </c>
+      <c r="E295" s="2" t="n">
+        <v>44998</v>
+      </c>
+      <c r="F295" t="n">
+        <v>457.7999877929688</v>
+      </c>
+      <c r="G295" s="2" t="n">
+        <v>45152</v>
+      </c>
+      <c r="H295" t="n">
+        <v>616.75</v>
+      </c>
+      <c r="I295" t="n">
+        <v>0</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>HDFCLIFE.NS</t>
+        </is>
+      </c>
+      <c r="E296" s="2" t="n">
+        <v>44998</v>
+      </c>
+      <c r="F296" t="n">
+        <v>457.7999877929688</v>
+      </c>
+      <c r="G296" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="H296" t="n">
+        <v>561.5499877929688</v>
+      </c>
+      <c r="I296" t="n">
+        <v>0</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>AMBUJACEM.NS</t>
+        </is>
+      </c>
+      <c r="E297" s="2" t="n">
+        <v>44900</v>
+      </c>
+      <c r="F297" t="n">
+        <v>598</v>
+      </c>
+      <c r="G297" s="2" t="n">
+        <v>45089</v>
+      </c>
+      <c r="H297" t="n">
+        <v>468.8999938964844</v>
+      </c>
+      <c r="I297" t="n">
+        <v>0</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>IRB.NS</t>
+        </is>
+      </c>
+      <c r="E298" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="F298" t="n">
+        <v>72</v>
+      </c>
+      <c r="G298" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="H298" t="n">
+        <v>73.09999847412109</v>
+      </c>
+      <c r="I298" t="n">
+        <v>0</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>BANARISUG.NS</t>
+        </is>
+      </c>
+      <c r="E299" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="F299" t="n">
+        <v>2699.89990234375</v>
+      </c>
+      <c r="G299" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="H299" t="n">
+        <v>2732.800048828125</v>
+      </c>
+      <c r="I299" t="n">
+        <v>0</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>BANARISUG.NS</t>
+        </is>
+      </c>
+      <c r="E300" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="F300" t="n">
+        <v>2848.85009765625</v>
+      </c>
+      <c r="G300" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="H300" t="n">
+        <v>2732.800048828125</v>
+      </c>
+      <c r="I300" t="n">
+        <v>0</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>MAHEPC.NS</t>
+        </is>
+      </c>
+      <c r="E301" s="2" t="n">
+        <v>44928</v>
+      </c>
+      <c r="F301" t="n">
+        <v>113</v>
+      </c>
+      <c r="G301" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="H301" t="n">
+        <v>162.8000030517578</v>
+      </c>
+      <c r="I301" t="n">
+        <v>0</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>SWARAJENG.NS</t>
+        </is>
+      </c>
+      <c r="E302" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="F302" t="n">
+        <v>2553.75</v>
+      </c>
+      <c r="G302" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="H302" t="n">
+        <v>2649.949951171875</v>
+      </c>
+      <c r="I302" t="n">
+        <v>0</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>GUJGASLTD.NS</t>
+        </is>
+      </c>
+      <c r="E303" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="F303" t="n">
+        <v>526</v>
+      </c>
+      <c r="G303" s="2" t="n">
+        <v>45075</v>
+      </c>
+      <c r="H303" t="n">
+        <v>508.3999938964844</v>
+      </c>
+      <c r="I303" t="n">
+        <v>0</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>VOLTAS.NS</t>
+        </is>
+      </c>
+      <c r="E304" s="2" t="n">
+        <v>44655</v>
+      </c>
+      <c r="F304" t="n">
+        <v>1347.650024414062</v>
+      </c>
+      <c r="G304" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="H304" t="n">
+        <v>934</v>
+      </c>
+      <c r="I304" t="n">
+        <v>0</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>VOLTAS.NS</t>
+        </is>
+      </c>
+      <c r="E305" s="2" t="n">
+        <v>44571</v>
+      </c>
+      <c r="F305" t="n">
+        <v>1317.300048828125</v>
+      </c>
+      <c r="G305" s="2" t="n">
+        <v>44655</v>
+      </c>
+      <c r="H305" t="n">
+        <v>1347.650024414062</v>
+      </c>
+      <c r="I305" t="n">
+        <v>0</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>VOLTAS.NS</t>
+        </is>
+      </c>
+      <c r="E306" s="2" t="n">
+        <v>44655</v>
+      </c>
+      <c r="F306" t="n">
+        <v>1347.650024414062</v>
+      </c>
+      <c r="G306" s="2" t="n">
+        <v>44760</v>
+      </c>
+      <c r="H306" t="n">
+        <v>1064.949951171875</v>
+      </c>
+      <c r="I306" t="n">
+        <v>0</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>LODHA.NS</t>
+        </is>
+      </c>
+      <c r="E307" s="2" t="n">
+        <v>44767</v>
+      </c>
+      <c r="F307" t="n">
+        <v>594.5</v>
+      </c>
+      <c r="G307" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="H307" t="n">
+        <v>1225</v>
+      </c>
+      <c r="I307" t="n">
+        <v>0</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>JISLJALEQS.NS</t>
+        </is>
+      </c>
+      <c r="E308" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="F308" t="n">
+        <v>69.80000305175781</v>
+      </c>
+      <c r="G308" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="H308" t="n">
+        <v>73.44999694824219</v>
+      </c>
+      <c r="I308" t="n">
+        <v>0</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>JISLJALEQS.NS</t>
+        </is>
+      </c>
+      <c r="E309" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="F309" t="n">
+        <v>73.44999694824219</v>
+      </c>
+      <c r="G309" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="H309" t="n">
+        <v>68.59999847412109</v>
+      </c>
+      <c r="I309" t="n">
+        <v>0</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>JKPAPER.NS</t>
+        </is>
+      </c>
+      <c r="E310" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="F310" t="n">
+        <v>415.2999877929688</v>
+      </c>
+      <c r="G310" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="H310" t="n">
+        <v>452</v>
+      </c>
+      <c r="I310" t="n">
+        <v>0</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="n">
+        <v>44319</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="E311" s="2" t="n">
+        <v>43549</v>
+      </c>
+      <c r="F311" t="n">
+        <v>13.10999965667725</v>
+      </c>
+      <c r="G311" s="2" t="n">
+        <v>44200</v>
+      </c>
+      <c r="H311" t="n">
+        <v>12.52000045776367</v>
+      </c>
+      <c r="I311" t="n">
+        <v>0</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="n">
+        <v>44319</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="E312" s="2" t="n">
+        <v>43542</v>
+      </c>
+      <c r="F312" t="n">
+        <v>13.10999965667725</v>
+      </c>
+      <c r="G312" s="2" t="n">
+        <v>44158</v>
+      </c>
+      <c r="H312" t="n">
+        <v>12</v>
+      </c>
+      <c r="I312" t="n">
+        <v>0</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="n">
+        <v>44319</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="E313" s="2" t="n">
+        <v>43542</v>
+      </c>
+      <c r="F313" t="n">
+        <v>13.10999965667725</v>
+      </c>
+      <c r="G313" s="2" t="n">
+        <v>44200</v>
+      </c>
+      <c r="H313" t="n">
+        <v>12.52000045776367</v>
+      </c>
+      <c r="I313" t="n">
+        <v>0</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="n">
+        <v>44319</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="E314" s="2" t="n">
+        <v>44200</v>
+      </c>
+      <c r="F314" t="n">
+        <v>12.52000045776367</v>
+      </c>
+      <c r="G314" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="H314" t="n">
+        <v>10.97000026702881</v>
+      </c>
+      <c r="I314" t="n">
+        <v>0</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>DECCANCE.NS</t>
+        </is>
+      </c>
+      <c r="E315" s="2" t="n">
+        <v>44816</v>
+      </c>
+      <c r="F315" t="n">
+        <v>588</v>
+      </c>
+      <c r="G315" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="H315" t="n">
+        <v>668.4500122070312</v>
+      </c>
+      <c r="I315" t="n">
+        <v>0</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="n">
+        <v>45019</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>LIKHITHA.NS</t>
+        </is>
+      </c>
+      <c r="E316" s="2" t="n">
+        <v>44662</v>
+      </c>
+      <c r="F316" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="G316" s="2" t="n">
+        <v>44893</v>
+      </c>
+      <c r="H316" t="n">
+        <v>273.3500061035156</v>
+      </c>
+      <c r="I316" t="n">
+        <v>0</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
         </is>
       </c>
     </row>
@@ -14480,7 +15632,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J133"/>
+  <dimension ref="A1:J136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20081,6 +21233,132 @@
       <c r="J133" t="inlineStr">
         <is>
           <t>14/06/2024 09:47:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>44599</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>KOTAKBANK.NS</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>44550</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1721</v>
+      </c>
+      <c r="G134" s="2" t="n">
+        <v>44557</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1721</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>BANARISUG.NS</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45089</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2930.050048828125</v>
+      </c>
+      <c r="G135" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="H135" t="n">
+        <v>2930.300048828125</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>DBL.NS</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="F136" t="n">
+        <v>504.5</v>
+      </c>
+      <c r="G136" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="H136" t="n">
+        <v>502.2000122070312</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
         </is>
       </c>
     </row>
@@ -20095,7 +21373,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L955"/>
+  <dimension ref="A1:L1060"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65957,6 +67235,5046 @@
         </is>
       </c>
     </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>CIPLA.NS</t>
+        </is>
+      </c>
+      <c r="B956" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C956" t="n">
+        <v>1519</v>
+      </c>
+      <c r="D956" t="n">
+        <v>1449</v>
+      </c>
+      <c r="E956" t="n">
+        <v>1488.050048828125</v>
+      </c>
+      <c r="F956" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G956" t="n">
+        <v>1519</v>
+      </c>
+      <c r="H956" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I956" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J956" t="n">
+        <v>1567</v>
+      </c>
+      <c r="K956" t="n">
+        <v>1514</v>
+      </c>
+      <c r="L956" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>ULTRACEMCO.NS</t>
+        </is>
+      </c>
+      <c r="B957" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="C957" t="n">
+        <v>10526</v>
+      </c>
+      <c r="D957" t="n">
+        <v>9969</v>
+      </c>
+      <c r="E957" t="n">
+        <v>10503.0498046875</v>
+      </c>
+      <c r="F957" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G957" t="n">
+        <v>10526</v>
+      </c>
+      <c r="H957" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I957" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J957" t="n">
+        <v>11299</v>
+      </c>
+      <c r="K957" t="n">
+        <v>10519.7998046875</v>
+      </c>
+      <c r="L957" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>GRASIM.NS</t>
+        </is>
+      </c>
+      <c r="B958" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="C958" t="n">
+        <v>2489.75</v>
+      </c>
+      <c r="D958" t="n">
+        <v>2322</v>
+      </c>
+      <c r="E958" t="n">
+        <v>2377.14990234375</v>
+      </c>
+      <c r="F958" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G958" t="n">
+        <v>2489.75</v>
+      </c>
+      <c r="H958" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I958" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J958" t="n">
+        <v>2523.699951171875</v>
+      </c>
+      <c r="K958" t="n">
+        <v>2405.199951171875</v>
+      </c>
+      <c r="L958" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS</t>
+        </is>
+      </c>
+      <c r="B959" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C959" t="n">
+        <v>1352.599975585938</v>
+      </c>
+      <c r="D959" t="n">
+        <v>1161.150024414062</v>
+      </c>
+      <c r="E959" t="n">
+        <v>1309.699951171875</v>
+      </c>
+      <c r="F959" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G959" t="n">
+        <v>1352.599975585938</v>
+      </c>
+      <c r="H959" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I959" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J959" t="n">
+        <v>1455.849975585938</v>
+      </c>
+      <c r="K959" t="n">
+        <v>1351</v>
+      </c>
+      <c r="L959" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>FEDERALBNK.NS</t>
+        </is>
+      </c>
+      <c r="B960" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C960" t="n">
+        <v>170.3000030517578</v>
+      </c>
+      <c r="D960" t="n">
+        <v>156.0500030517578</v>
+      </c>
+      <c r="E960" t="n">
+        <v>165.9499969482422</v>
+      </c>
+      <c r="F960" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G960" t="n">
+        <v>170.3000030517578</v>
+      </c>
+      <c r="H960" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I960" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J960" t="n">
+        <v>175.1000061035156</v>
+      </c>
+      <c r="K960" t="n">
+        <v>169.1000061035156</v>
+      </c>
+      <c r="L960" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>SHRIRAMFIN.NS</t>
+        </is>
+      </c>
+      <c r="B961" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C961" t="n">
+        <v>2658</v>
+      </c>
+      <c r="D961" t="n">
+        <v>2430.25</v>
+      </c>
+      <c r="E961" t="n">
+        <v>2588.550048828125</v>
+      </c>
+      <c r="F961" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G961" t="n">
+        <v>2658</v>
+      </c>
+      <c r="H961" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I961" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J961" t="n">
+        <v>2747</v>
+      </c>
+      <c r="K961" t="n">
+        <v>2546.949951171875</v>
+      </c>
+      <c r="L961" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>SHREECEM.NS</t>
+        </is>
+      </c>
+      <c r="B962" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="C962" t="n">
+        <v>27298.94921875</v>
+      </c>
+      <c r="D962" t="n">
+        <v>25900</v>
+      </c>
+      <c r="E962" t="n">
+        <v>26084.650390625</v>
+      </c>
+      <c r="F962" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G962" t="n">
+        <v>27298.94921875</v>
+      </c>
+      <c r="H962" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I962" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J962" t="n">
+        <v>28025</v>
+      </c>
+      <c r="K962" t="n">
+        <v>26250</v>
+      </c>
+      <c r="L962" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>SHREECEM.NS</t>
+        </is>
+      </c>
+      <c r="B963" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C963" t="n">
+        <v>26743.30078125</v>
+      </c>
+      <c r="D963" t="n">
+        <v>25699</v>
+      </c>
+      <c r="E963" t="n">
+        <v>25811.05078125</v>
+      </c>
+      <c r="F963" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G963" t="n">
+        <v>26743.30078125</v>
+      </c>
+      <c r="H963" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I963" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J963" t="n">
+        <v>28025</v>
+      </c>
+      <c r="K963" t="n">
+        <v>26250</v>
+      </c>
+      <c r="L963" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>ICICIPRULI.NS</t>
+        </is>
+      </c>
+      <c r="B964" s="2" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C964" t="n">
+        <v>606.4000244140625</v>
+      </c>
+      <c r="D964" t="n">
+        <v>564.25</v>
+      </c>
+      <c r="E964" t="n">
+        <v>578.2000122070312</v>
+      </c>
+      <c r="F964" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G964" t="n">
+        <v>606.4000244140625</v>
+      </c>
+      <c r="H964" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I964" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J964" t="n">
+        <v>622</v>
+      </c>
+      <c r="K964" t="n">
+        <v>572.9000244140625</v>
+      </c>
+      <c r="L964" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t>VBL.NS</t>
+        </is>
+      </c>
+      <c r="B965" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C965" t="n">
+        <v>1561.949951171875</v>
+      </c>
+      <c r="D965" t="n">
+        <v>1345</v>
+      </c>
+      <c r="E965" t="n">
+        <v>1417.849975585938</v>
+      </c>
+      <c r="F965" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G965" t="n">
+        <v>1561.949951171875</v>
+      </c>
+      <c r="H965" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I965" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J965" t="n">
+        <v>1650</v>
+      </c>
+      <c r="K965" t="n">
+        <v>1528</v>
+      </c>
+      <c r="L965" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="inlineStr">
+        <is>
+          <t>ICICIGI.NS</t>
+        </is>
+      </c>
+      <c r="B966" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C966" t="n">
+        <v>1734.900024414062</v>
+      </c>
+      <c r="D966" t="n">
+        <v>1630.050048828125</v>
+      </c>
+      <c r="E966" t="n">
+        <v>1643.849975585938</v>
+      </c>
+      <c r="F966" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G966" t="n">
+        <v>1734.900024414062</v>
+      </c>
+      <c r="H966" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I966" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J966" t="n">
+        <v>1766.949951171875</v>
+      </c>
+      <c r="K966" t="n">
+        <v>1660.25</v>
+      </c>
+      <c r="L966" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="inlineStr">
+        <is>
+          <t>ICICIGI.NS</t>
+        </is>
+      </c>
+      <c r="B967" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="C967" t="n">
+        <v>1747</v>
+      </c>
+      <c r="D967" t="n">
+        <v>1611.5</v>
+      </c>
+      <c r="E967" t="n">
+        <v>1689.75</v>
+      </c>
+      <c r="F967" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G967" t="n">
+        <v>1747</v>
+      </c>
+      <c r="H967" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I967" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J967" t="n">
+        <v>1766.949951171875</v>
+      </c>
+      <c r="K967" t="n">
+        <v>1660.25</v>
+      </c>
+      <c r="L967" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>PGHH.NS</t>
+        </is>
+      </c>
+      <c r="B968" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="C968" t="n">
+        <v>17050.900390625</v>
+      </c>
+      <c r="D968" t="n">
+        <v>16111</v>
+      </c>
+      <c r="E968" t="n">
+        <v>16928.44921875</v>
+      </c>
+      <c r="F968" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G968" t="n">
+        <v>17050.900390625</v>
+      </c>
+      <c r="H968" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I968" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J968" t="n">
+        <v>17064.94921875</v>
+      </c>
+      <c r="K968" t="n">
+        <v>16947.19921875</v>
+      </c>
+      <c r="L968" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>DHAMPURSUG.NS</t>
+        </is>
+      </c>
+      <c r="B969" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C969" t="n">
+        <v>241.8500061035156</v>
+      </c>
+      <c r="D969" t="n">
+        <v>226.8999938964844</v>
+      </c>
+      <c r="E969" t="n">
+        <v>229.4499969482422</v>
+      </c>
+      <c r="F969" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G969" t="n">
+        <v>241.8500061035156</v>
+      </c>
+      <c r="H969" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I969" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J969" t="n">
+        <v>254.7899932861328</v>
+      </c>
+      <c r="K969" t="n">
+        <v>225.5500030517578</v>
+      </c>
+      <c r="L969" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>DALMIASUG.NS</t>
+        </is>
+      </c>
+      <c r="B970" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C970" t="n">
+        <v>425.1000061035156</v>
+      </c>
+      <c r="D970" t="n">
+        <v>396</v>
+      </c>
+      <c r="E970" t="n">
+        <v>404.1499938964844</v>
+      </c>
+      <c r="F970" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G970" t="n">
+        <v>425.1000061035156</v>
+      </c>
+      <c r="H970" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I970" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J970" t="n">
+        <v>442</v>
+      </c>
+      <c r="K970" t="n">
+        <v>391.3500061035156</v>
+      </c>
+      <c r="L970" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>DALMIASUG.NS</t>
+        </is>
+      </c>
+      <c r="B971" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C971" t="n">
+        <v>425.5</v>
+      </c>
+      <c r="D971" t="n">
+        <v>391.5499877929688</v>
+      </c>
+      <c r="E971" t="n">
+        <v>411.1499938964844</v>
+      </c>
+      <c r="F971" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G971" t="n">
+        <v>425.5</v>
+      </c>
+      <c r="H971" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I971" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J971" t="n">
+        <v>442</v>
+      </c>
+      <c r="K971" t="n">
+        <v>391.3500061035156</v>
+      </c>
+      <c r="L971" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>GIPCL.NS</t>
+        </is>
+      </c>
+      <c r="B972" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C972" t="n">
+        <v>237.5</v>
+      </c>
+      <c r="D972" t="n">
+        <v>213.6000061035156</v>
+      </c>
+      <c r="E972" t="n">
+        <v>219</v>
+      </c>
+      <c r="F972" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G972" t="n">
+        <v>237.5</v>
+      </c>
+      <c r="H972" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I972" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J972" t="n">
+        <v>238.3999938964844</v>
+      </c>
+      <c r="K972" t="n">
+        <v>213.8000030517578</v>
+      </c>
+      <c r="L972" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>DCMSRIND.NS</t>
+        </is>
+      </c>
+      <c r="B973" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C973" t="n">
+        <v>228</v>
+      </c>
+      <c r="D973" t="n">
+        <v>210.0500030517578</v>
+      </c>
+      <c r="E973" t="n">
+        <v>212.9499969482422</v>
+      </c>
+      <c r="F973" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G973" t="n">
+        <v>228</v>
+      </c>
+      <c r="H973" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I973" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J973" t="n">
+        <v>240.6100006103516</v>
+      </c>
+      <c r="K973" t="n">
+        <v>223.8000030517578</v>
+      </c>
+      <c r="L973" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>BALRAMCHIN.NS</t>
+        </is>
+      </c>
+      <c r="B974" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C974" t="n">
+        <v>409.5</v>
+      </c>
+      <c r="D974" t="n">
+        <v>387.1000061035156</v>
+      </c>
+      <c r="E974" t="n">
+        <v>391.6000061035156</v>
+      </c>
+      <c r="F974" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G974" t="n">
+        <v>409.5</v>
+      </c>
+      <c r="H974" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I974" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J974" t="n">
+        <v>445.8999938964844</v>
+      </c>
+      <c r="K974" t="n">
+        <v>407.3999938964844</v>
+      </c>
+      <c r="L974" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>BANARISUG.NS</t>
+        </is>
+      </c>
+      <c r="B975" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="C975" t="n">
+        <v>2699.89990234375</v>
+      </c>
+      <c r="D975" t="n">
+        <v>2488</v>
+      </c>
+      <c r="E975" t="n">
+        <v>2519.300048828125</v>
+      </c>
+      <c r="F975" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G975" t="n">
+        <v>2699.89990234375</v>
+      </c>
+      <c r="H975" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I975" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J975" t="n">
+        <v>3048.800048828125</v>
+      </c>
+      <c r="K975" t="n">
+        <v>2447</v>
+      </c>
+      <c r="L975" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t>BANARISUG.NS</t>
+        </is>
+      </c>
+      <c r="B976" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C976" t="n">
+        <v>2848.85009765625</v>
+      </c>
+      <c r="D976" t="n">
+        <v>2572.449951171875</v>
+      </c>
+      <c r="E976" t="n">
+        <v>2582.10009765625</v>
+      </c>
+      <c r="F976" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G976" t="n">
+        <v>2848.85009765625</v>
+      </c>
+      <c r="H976" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I976" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J976" t="n">
+        <v>3048.800048828125</v>
+      </c>
+      <c r="K976" t="n">
+        <v>2447</v>
+      </c>
+      <c r="L976" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t>BANARISUG.NS</t>
+        </is>
+      </c>
+      <c r="B977" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C977" t="n">
+        <v>2732.800048828125</v>
+      </c>
+      <c r="D977" t="n">
+        <v>2549.550048828125</v>
+      </c>
+      <c r="E977" t="n">
+        <v>2606.550048828125</v>
+      </c>
+      <c r="F977" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G977" t="n">
+        <v>2732.800048828125</v>
+      </c>
+      <c r="H977" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I977" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J977" t="n">
+        <v>3048.800048828125</v>
+      </c>
+      <c r="K977" t="n">
+        <v>2447</v>
+      </c>
+      <c r="L977" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t>BAJAJHIND.NS</t>
+        </is>
+      </c>
+      <c r="B978" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="C978" t="n">
+        <v>35.84999847412109</v>
+      </c>
+      <c r="D978" t="n">
+        <v>30</v>
+      </c>
+      <c r="E978" t="n">
+        <v>32.40000152587891</v>
+      </c>
+      <c r="F978" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G978" t="n">
+        <v>35.84999847412109</v>
+      </c>
+      <c r="H978" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I978" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J978" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K978" t="n">
+        <v>34.25</v>
+      </c>
+      <c r="L978" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>BAJAJHIND.NS</t>
+        </is>
+      </c>
+      <c r="B979" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C979" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="D979" t="n">
+        <v>35.79999923706055</v>
+      </c>
+      <c r="E979" t="n">
+        <v>37.29999923706055</v>
+      </c>
+      <c r="F979" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G979" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="H979" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I979" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J979" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K979" t="n">
+        <v>34.25</v>
+      </c>
+      <c r="L979" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>BAJAJHIND.NS</t>
+        </is>
+      </c>
+      <c r="B980" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C980" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="D980" t="n">
+        <v>34.29999923706055</v>
+      </c>
+      <c r="E980" t="n">
+        <v>35.29999923706055</v>
+      </c>
+      <c r="F980" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G980" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="H980" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I980" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J980" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K980" t="n">
+        <v>34.25</v>
+      </c>
+      <c r="L980" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>UGARSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="B981" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C981" t="n">
+        <v>85</v>
+      </c>
+      <c r="D981" t="n">
+        <v>66.34999847412109</v>
+      </c>
+      <c r="E981" t="n">
+        <v>79.90000152587891</v>
+      </c>
+      <c r="F981" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G981" t="n">
+        <v>85</v>
+      </c>
+      <c r="H981" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I981" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J981" t="n">
+        <v>89.90000152587891</v>
+      </c>
+      <c r="K981" t="n">
+        <v>76.80000305175781</v>
+      </c>
+      <c r="L981" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>PATELENG.NS</t>
+        </is>
+      </c>
+      <c r="B982" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="C982" t="n">
+        <v>66.19999694824219</v>
+      </c>
+      <c r="D982" t="n">
+        <v>60.29999923706055</v>
+      </c>
+      <c r="E982" t="n">
+        <v>64.59999847412109</v>
+      </c>
+      <c r="F982" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G982" t="n">
+        <v>66.19999694824219</v>
+      </c>
+      <c r="H982" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I982" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J982" t="n">
+        <v>69.19999694824219</v>
+      </c>
+      <c r="K982" t="n">
+        <v>65.05000305175781</v>
+      </c>
+      <c r="L982" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>RENUKA.NS</t>
+        </is>
+      </c>
+      <c r="B983" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="C983" t="n">
+        <v>49.29999923706055</v>
+      </c>
+      <c r="D983" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="E983" t="n">
+        <v>46.79999923706055</v>
+      </c>
+      <c r="F983" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G983" t="n">
+        <v>49.29999923706055</v>
+      </c>
+      <c r="H983" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I983" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J983" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="K983" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="L983" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>PRAJIND.NS</t>
+        </is>
+      </c>
+      <c r="B984" s="2" t="n">
+        <v>45208</v>
+      </c>
+      <c r="C984" t="n">
+        <v>614.6500244140625</v>
+      </c>
+      <c r="D984" t="n">
+        <v>565.8499755859375</v>
+      </c>
+      <c r="E984" t="n">
+        <v>591.9000244140625</v>
+      </c>
+      <c r="F984" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G984" t="n">
+        <v>614.6500244140625</v>
+      </c>
+      <c r="H984" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I984" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J984" t="n">
+        <v>711.7000122070312</v>
+      </c>
+      <c r="K984" t="n">
+        <v>598.2000122070312</v>
+      </c>
+      <c r="L984" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>PRAJIND.NS</t>
+        </is>
+      </c>
+      <c r="B985" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="C985" t="n">
+        <v>650.5</v>
+      </c>
+      <c r="D985" t="n">
+        <v>609.1500244140625</v>
+      </c>
+      <c r="E985" t="n">
+        <v>630.4000244140625</v>
+      </c>
+      <c r="F985" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G985" t="n">
+        <v>650.5</v>
+      </c>
+      <c r="H985" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I985" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J985" t="n">
+        <v>711.7000122070312</v>
+      </c>
+      <c r="K985" t="n">
+        <v>598.2000122070312</v>
+      </c>
+      <c r="L985" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>MAHEPC.NS</t>
+        </is>
+      </c>
+      <c r="B986" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C986" t="n">
+        <v>162.8000030517578</v>
+      </c>
+      <c r="D986" t="n">
+        <v>142.6000061035156</v>
+      </c>
+      <c r="E986" t="n">
+        <v>143.75</v>
+      </c>
+      <c r="F986" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G986" t="n">
+        <v>162.8000030517578</v>
+      </c>
+      <c r="H986" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I986" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J986" t="n">
+        <v>179.6499938964844</v>
+      </c>
+      <c r="K986" t="n">
+        <v>138.9499969482422</v>
+      </c>
+      <c r="L986" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>MAHEPC.NS</t>
+        </is>
+      </c>
+      <c r="B987" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C987" t="n">
+        <v>154</v>
+      </c>
+      <c r="D987" t="n">
+        <v>130.6000061035156</v>
+      </c>
+      <c r="E987" t="n">
+        <v>137.6499938964844</v>
+      </c>
+      <c r="F987" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G987" t="n">
+        <v>154</v>
+      </c>
+      <c r="H987" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I987" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J987" t="n">
+        <v>179.6499938964844</v>
+      </c>
+      <c r="K987" t="n">
+        <v>138.9499969482422</v>
+      </c>
+      <c r="L987" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>GUJGASLTD.NS</t>
+        </is>
+      </c>
+      <c r="B988" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C988" t="n">
+        <v>620</v>
+      </c>
+      <c r="D988" t="n">
+        <v>566.0499877929688</v>
+      </c>
+      <c r="E988" t="n">
+        <v>582.9000244140625</v>
+      </c>
+      <c r="F988" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G988" t="n">
+        <v>620</v>
+      </c>
+      <c r="H988" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I988" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J988" t="n">
+        <v>648.9500122070312</v>
+      </c>
+      <c r="K988" t="n">
+        <v>590</v>
+      </c>
+      <c r="L988" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>PETRONET.NS</t>
+        </is>
+      </c>
+      <c r="B989" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C989" t="n">
+        <v>323.1499938964844</v>
+      </c>
+      <c r="D989" t="n">
+        <v>303.6499938964844</v>
+      </c>
+      <c r="E989" t="n">
+        <v>313.7999877929688</v>
+      </c>
+      <c r="F989" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G989" t="n">
+        <v>323.1499938964844</v>
+      </c>
+      <c r="H989" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I989" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J989" t="n">
+        <v>327.8500061035156</v>
+      </c>
+      <c r="K989" t="n">
+        <v>317.7000122070312</v>
+      </c>
+      <c r="L989" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>MAHLOG.NS</t>
+        </is>
+      </c>
+      <c r="B990" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="C990" t="n">
+        <v>460</v>
+      </c>
+      <c r="D990" t="n">
+        <v>435</v>
+      </c>
+      <c r="E990" t="n">
+        <v>437.9500122070312</v>
+      </c>
+      <c r="F990" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G990" t="n">
+        <v>460</v>
+      </c>
+      <c r="H990" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I990" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J990" t="n">
+        <v>480</v>
+      </c>
+      <c r="K990" t="n">
+        <v>458.25</v>
+      </c>
+      <c r="L990" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>GMRINFRA.NS</t>
+        </is>
+      </c>
+      <c r="B991" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C991" t="n">
+        <v>94.34999847412109</v>
+      </c>
+      <c r="D991" t="n">
+        <v>84.55000305175781</v>
+      </c>
+      <c r="E991" t="n">
+        <v>88.34999847412109</v>
+      </c>
+      <c r="F991" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G991" t="n">
+        <v>94.34999847412109</v>
+      </c>
+      <c r="H991" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I991" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J991" t="n">
+        <v>94.55000305175781</v>
+      </c>
+      <c r="K991" t="n">
+        <v>88.94999694824219</v>
+      </c>
+      <c r="L991" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>GMRINFRA.NS</t>
+        </is>
+      </c>
+      <c r="B992" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="C992" t="n">
+        <v>92.40000152587891</v>
+      </c>
+      <c r="D992" t="n">
+        <v>80.55000305175781</v>
+      </c>
+      <c r="E992" t="n">
+        <v>90.75</v>
+      </c>
+      <c r="F992" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G992" t="n">
+        <v>92.40000152587891</v>
+      </c>
+      <c r="H992" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I992" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J992" t="n">
+        <v>94.55000305175781</v>
+      </c>
+      <c r="K992" t="n">
+        <v>88.94999694824219</v>
+      </c>
+      <c r="L992" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>IGL.NS</t>
+        </is>
+      </c>
+      <c r="B993" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C993" t="n">
+        <v>486.5499877929688</v>
+      </c>
+      <c r="D993" t="n">
+        <v>455.9500122070312</v>
+      </c>
+      <c r="E993" t="n">
+        <v>481.75</v>
+      </c>
+      <c r="F993" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G993" t="n">
+        <v>486.5499877929688</v>
+      </c>
+      <c r="H993" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I993" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J993" t="n">
+        <v>490.4500122070312</v>
+      </c>
+      <c r="K993" t="n">
+        <v>474</v>
+      </c>
+      <c r="L993" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>IGL.NS</t>
+        </is>
+      </c>
+      <c r="B994" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="C994" t="n">
+        <v>489</v>
+      </c>
+      <c r="D994" t="n">
+        <v>432.1499938964844</v>
+      </c>
+      <c r="E994" t="n">
+        <v>436.2000122070312</v>
+      </c>
+      <c r="F994" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G994" t="n">
+        <v>489</v>
+      </c>
+      <c r="H994" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I994" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J994" t="n">
+        <v>490.4500122070312</v>
+      </c>
+      <c r="K994" t="n">
+        <v>474</v>
+      </c>
+      <c r="L994" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>SWARAJENG.NS</t>
+        </is>
+      </c>
+      <c r="B995" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C995" t="n">
+        <v>2649.949951171875</v>
+      </c>
+      <c r="D995" t="n">
+        <v>2310.5</v>
+      </c>
+      <c r="E995" t="n">
+        <v>2541.050048828125</v>
+      </c>
+      <c r="F995" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G995" t="n">
+        <v>2649.949951171875</v>
+      </c>
+      <c r="H995" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I995" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J995" t="n">
+        <v>2816</v>
+      </c>
+      <c r="K995" t="n">
+        <v>2557.64990234375</v>
+      </c>
+      <c r="L995" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t>INDHOTEL.NS</t>
+        </is>
+      </c>
+      <c r="B996" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C996" t="n">
+        <v>602.75</v>
+      </c>
+      <c r="D996" t="n">
+        <v>535.0999755859375</v>
+      </c>
+      <c r="E996" t="n">
+        <v>594.5</v>
+      </c>
+      <c r="F996" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G996" t="n">
+        <v>602.75</v>
+      </c>
+      <c r="H996" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I996" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J996" t="n">
+        <v>615.5999755859375</v>
+      </c>
+      <c r="K996" t="n">
+        <v>593.4500122070312</v>
+      </c>
+      <c r="L996" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="inlineStr">
+        <is>
+          <t>ARTSONEN.BO</t>
+        </is>
+      </c>
+      <c r="B997" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="C997" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="D997" t="n">
+        <v>144</v>
+      </c>
+      <c r="E997" t="n">
+        <v>181.0500030517578</v>
+      </c>
+      <c r="F997" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G997" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="H997" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I997" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J997" t="n">
+        <v>199</v>
+      </c>
+      <c r="K997" t="n">
+        <v>185</v>
+      </c>
+      <c r="L997" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>VOLTAS.NS</t>
+        </is>
+      </c>
+      <c r="B998" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="C998" t="n">
+        <v>1502.300048828125</v>
+      </c>
+      <c r="D998" t="n">
+        <v>1262</v>
+      </c>
+      <c r="E998" t="n">
+        <v>1287.550048828125</v>
+      </c>
+      <c r="F998" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G998" t="n">
+        <v>1502.300048828125</v>
+      </c>
+      <c r="H998" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I998" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J998" t="n">
+        <v>1511.949951171875</v>
+      </c>
+      <c r="K998" t="n">
+        <v>1478.199951171875</v>
+      </c>
+      <c r="L998" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>HATHWAY.NS</t>
+        </is>
+      </c>
+      <c r="B999" s="2" t="n">
+        <v>45201</v>
+      </c>
+      <c r="C999" t="n">
+        <v>22.29999923706055</v>
+      </c>
+      <c r="D999" t="n">
+        <v>19.89999961853027</v>
+      </c>
+      <c r="E999" t="n">
+        <v>20.60000038146973</v>
+      </c>
+      <c r="F999" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G999" t="n">
+        <v>22.29999923706055</v>
+      </c>
+      <c r="H999" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I999" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J999" t="n">
+        <v>22.67000007629395</v>
+      </c>
+      <c r="K999" t="n">
+        <v>21.29999923706055</v>
+      </c>
+      <c r="L999" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>OFSS.NS</t>
+        </is>
+      </c>
+      <c r="B1000" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C1000" t="n">
+        <v>9023</v>
+      </c>
+      <c r="D1000" t="n">
+        <v>8702</v>
+      </c>
+      <c r="E1000" t="n">
+        <v>8775.4501953125</v>
+      </c>
+      <c r="F1000" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1000" t="n">
+        <v>9023</v>
+      </c>
+      <c r="H1000" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1000" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1000" t="n">
+        <v>9793.5</v>
+      </c>
+      <c r="K1000" t="n">
+        <v>8507.650390625</v>
+      </c>
+      <c r="L1000" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>ACGL.BO</t>
+        </is>
+      </c>
+      <c r="B1001" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>2300</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>2103.64990234375</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>2190.699951171875</v>
+      </c>
+      <c r="F1001" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1001" t="n">
+        <v>2300</v>
+      </c>
+      <c r="H1001" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1001" t="inlineStr">
+        <is>
+          <t>11-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1001" t="n">
+        <v>2470</v>
+      </c>
+      <c r="K1001" t="n">
+        <v>2098.800048828125</v>
+      </c>
+      <c r="L1001" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>DBL.NS</t>
+        </is>
+      </c>
+      <c r="B1002" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>504.5</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>436.3500061035156</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>458.1499938964844</v>
+      </c>
+      <c r="F1002" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1002" t="n">
+        <v>504.5</v>
+      </c>
+      <c r="H1002" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1002" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1002" t="n">
+        <v>514.5</v>
+      </c>
+      <c r="K1002" t="n">
+        <v>445.6000061035156</v>
+      </c>
+      <c r="L1002" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>DBL.NS</t>
+        </is>
+      </c>
+      <c r="B1003" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>502.2000122070312</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>455.7000122070312</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>457.4500122070312</v>
+      </c>
+      <c r="F1003" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1003" t="n">
+        <v>502.2000122070312</v>
+      </c>
+      <c r="H1003" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1003" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1003" t="n">
+        <v>514.5</v>
+      </c>
+      <c r="K1003" t="n">
+        <v>445.6000061035156</v>
+      </c>
+      <c r="L1003" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>SCHNEIDER.NS</t>
+        </is>
+      </c>
+      <c r="B1004" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>857.8499755859375</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>765</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>787.25</v>
+      </c>
+      <c r="F1004" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1004" t="n">
+        <v>857.8499755859375</v>
+      </c>
+      <c r="H1004" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1004" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1004" t="n">
+        <v>862.4500122070312</v>
+      </c>
+      <c r="K1004" t="n">
+        <v>745.0499877929688</v>
+      </c>
+      <c r="L1004" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>APLAPOLLO.NS</t>
+        </is>
+      </c>
+      <c r="B1005" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>1660</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>1440</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>1474.699951171875</v>
+      </c>
+      <c r="F1005" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1005" t="n">
+        <v>1660</v>
+      </c>
+      <c r="H1005" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1005" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1005" t="n">
+        <v>1667.5</v>
+      </c>
+      <c r="K1005" t="n">
+        <v>1631.5</v>
+      </c>
+      <c r="L1005" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>JISLJALEQS.NS</t>
+        </is>
+      </c>
+      <c r="B1006" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>69.80000305175781</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>61.59999847412109</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>65.90000152587891</v>
+      </c>
+      <c r="F1006" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1006" t="n">
+        <v>69.80000305175781</v>
+      </c>
+      <c r="H1006" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1006" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1006" t="n">
+        <v>79.51000213623047</v>
+      </c>
+      <c r="K1006" t="n">
+        <v>67.69999694824219</v>
+      </c>
+      <c r="L1006" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>JISLJALEQS.NS</t>
+        </is>
+      </c>
+      <c r="B1007" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>73.44999694824219</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>67.05000305175781</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>71.19999694824219</v>
+      </c>
+      <c r="F1007" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1007" t="n">
+        <v>73.44999694824219</v>
+      </c>
+      <c r="H1007" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1007" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1007" t="n">
+        <v>79.51000213623047</v>
+      </c>
+      <c r="K1007" t="n">
+        <v>67.69999694824219</v>
+      </c>
+      <c r="L1007" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>JISLJALEQS.NS</t>
+        </is>
+      </c>
+      <c r="B1008" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>68.59999847412109</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>61.65000152587891</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>66.05000305175781</v>
+      </c>
+      <c r="F1008" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1008" t="n">
+        <v>68.59999847412109</v>
+      </c>
+      <c r="H1008" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1008" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1008" t="n">
+        <v>79.51000213623047</v>
+      </c>
+      <c r="K1008" t="n">
+        <v>67.69999694824219</v>
+      </c>
+      <c r="L1008" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t>TATACHEM.NS</t>
+        </is>
+      </c>
+      <c r="B1009" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>1110.849975585938</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>1070.5</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>1085.300048828125</v>
+      </c>
+      <c r="F1009" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1009" t="n">
+        <v>1110.849975585938</v>
+      </c>
+      <c r="H1009" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1009" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1009" t="n">
+        <v>1135</v>
+      </c>
+      <c r="K1009" t="n">
+        <v>1068</v>
+      </c>
+      <c r="L1009" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>TARC.NS</t>
+        </is>
+      </c>
+      <c r="B1010" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>184.8999938964844</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>137.3999938964844</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>178.5500030517578</v>
+      </c>
+      <c r="F1010" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1010" t="n">
+        <v>184.8999938964844</v>
+      </c>
+      <c r="H1010" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1010" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1010" t="n">
+        <v>201</v>
+      </c>
+      <c r="K1010" t="n">
+        <v>177</v>
+      </c>
+      <c r="L1010" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B1011" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>527.7999877929688</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>472.3999938964844</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>513</v>
+      </c>
+      <c r="F1011" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1011" t="n">
+        <v>527.7999877929688</v>
+      </c>
+      <c r="H1011" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1011" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1011" t="n">
+        <v>633.9000244140625</v>
+      </c>
+      <c r="K1011" t="n">
+        <v>495</v>
+      </c>
+      <c r="L1011" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B1012" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C1012" t="n">
+        <v>522.2000122070312</v>
+      </c>
+      <c r="D1012" t="n">
+        <v>464</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>491.9500122070312</v>
+      </c>
+      <c r="F1012" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1012" t="n">
+        <v>522.2000122070312</v>
+      </c>
+      <c r="H1012" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1012" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1012" t="n">
+        <v>633.9000244140625</v>
+      </c>
+      <c r="K1012" t="n">
+        <v>495</v>
+      </c>
+      <c r="L1012" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B1013" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C1013" t="n">
+        <v>527</v>
+      </c>
+      <c r="D1013" t="n">
+        <v>476.2000122070312</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>479.3999938964844</v>
+      </c>
+      <c r="F1013" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1013" t="n">
+        <v>527</v>
+      </c>
+      <c r="H1013" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1013" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1013" t="n">
+        <v>633.9000244140625</v>
+      </c>
+      <c r="K1013" t="n">
+        <v>495</v>
+      </c>
+      <c r="L1013" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B1014" s="2" t="n">
+        <v>45145</v>
+      </c>
+      <c r="C1014" t="n">
+        <v>464.9500122070312</v>
+      </c>
+      <c r="D1014" t="n">
+        <v>416.1499938964844</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>444.0499877929688</v>
+      </c>
+      <c r="F1014" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G1014" t="n">
+        <v>416.1499938964844</v>
+      </c>
+      <c r="H1014" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1014" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1014" t="n">
+        <v>402.7999877929688</v>
+      </c>
+      <c r="K1014" t="n">
+        <v>441.8500061035156</v>
+      </c>
+      <c r="L1014" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B1015" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="C1015" t="n">
+        <v>457.1000061035156</v>
+      </c>
+      <c r="D1015" t="n">
+        <v>425</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>444.6000061035156</v>
+      </c>
+      <c r="F1015" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G1015" t="n">
+        <v>425</v>
+      </c>
+      <c r="H1015" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1015" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1015" t="n">
+        <v>402.7999877929688</v>
+      </c>
+      <c r="K1015" t="n">
+        <v>441.8500061035156</v>
+      </c>
+      <c r="L1015" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B1016" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="C1016" t="n">
+        <v>480.9500122070312</v>
+      </c>
+      <c r="D1016" t="n">
+        <v>413.4500122070312</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>450.75</v>
+      </c>
+      <c r="F1016" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G1016" t="n">
+        <v>413.4500122070312</v>
+      </c>
+      <c r="H1016" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1016" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1016" t="n">
+        <v>402.7999877929688</v>
+      </c>
+      <c r="K1016" t="n">
+        <v>441.8500061035156</v>
+      </c>
+      <c r="L1016" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B1017" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C1017" t="n">
+        <v>961</v>
+      </c>
+      <c r="D1017" t="n">
+        <v>912.2999877929688</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>935.25</v>
+      </c>
+      <c r="F1017" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1017" t="n">
+        <v>961</v>
+      </c>
+      <c r="H1017" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1017" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1017" t="n">
+        <v>999.6500244140625</v>
+      </c>
+      <c r="K1017" t="n">
+        <v>947.2999877929688</v>
+      </c>
+      <c r="L1017" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="inlineStr">
+        <is>
+          <t>M&amp;MFIN.NS</t>
+        </is>
+      </c>
+      <c r="B1018" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="C1018" t="n">
+        <v>296</v>
+      </c>
+      <c r="D1018" t="n">
+        <v>267.4500122070312</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>286.7000122070312</v>
+      </c>
+      <c r="F1018" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1018" t="n">
+        <v>296</v>
+      </c>
+      <c r="H1018" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1018" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1018" t="n">
+        <v>300</v>
+      </c>
+      <c r="K1018" t="n">
+        <v>283.1000061035156</v>
+      </c>
+      <c r="L1018" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="inlineStr">
+        <is>
+          <t>PREMEXPLN.NS</t>
+        </is>
+      </c>
+      <c r="B1019" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C1019" t="n">
+        <v>2780</v>
+      </c>
+      <c r="D1019" t="n">
+        <v>2326.64990234375</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>2431.25</v>
+      </c>
+      <c r="F1019" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1019" t="n">
+        <v>2780</v>
+      </c>
+      <c r="H1019" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1019" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1019" t="n">
+        <v>3660</v>
+      </c>
+      <c r="K1019" t="n">
+        <v>2688</v>
+      </c>
+      <c r="L1019" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t>ASMTEC.BO</t>
+        </is>
+      </c>
+      <c r="B1020" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C1020" t="n">
+        <v>1118</v>
+      </c>
+      <c r="D1020" t="n">
+        <v>954</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>989.3499755859375</v>
+      </c>
+      <c r="F1020" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1020" t="n">
+        <v>1118</v>
+      </c>
+      <c r="H1020" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1020" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1020" t="n">
+        <v>1149.949951171875</v>
+      </c>
+      <c r="K1020" t="n">
+        <v>1100.400024414062</v>
+      </c>
+      <c r="L1020" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="inlineStr">
+        <is>
+          <t>MICEL.NS</t>
+        </is>
+      </c>
+      <c r="B1021" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>53.65000152587891</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>44.29999923706055</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>48.25</v>
+      </c>
+      <c r="F1021" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1021" t="n">
+        <v>53.65000152587891</v>
+      </c>
+      <c r="H1021" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1021" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1021" t="n">
+        <v>54.81999969482422</v>
+      </c>
+      <c r="K1021" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="L1021" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="inlineStr">
+        <is>
+          <t>AMBER.NS</t>
+        </is>
+      </c>
+      <c r="B1022" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>4147.9501953125</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>3781.5</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>3803.25</v>
+      </c>
+      <c r="F1022" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1022" t="n">
+        <v>4147.9501953125</v>
+      </c>
+      <c r="H1022" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1022" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1022" t="n">
+        <v>4211.89990234375</v>
+      </c>
+      <c r="K1022" t="n">
+        <v>3800</v>
+      </c>
+      <c r="L1022" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="inlineStr">
+        <is>
+          <t>TATACOMM.NS</t>
+        </is>
+      </c>
+      <c r="B1023" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>1842</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>1688.050048828125</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>1730.150024414062</v>
+      </c>
+      <c r="F1023" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1023" t="n">
+        <v>1842</v>
+      </c>
+      <c r="H1023" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1023" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1023" t="n">
+        <v>1926</v>
+      </c>
+      <c r="K1023" t="n">
+        <v>1821.400024414062</v>
+      </c>
+      <c r="L1023" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B1024" s="2" t="n">
+        <v>44158</v>
+      </c>
+      <c r="C1024" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1024" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1024" t="n">
+        <v>12</v>
+      </c>
+      <c r="H1024" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1024" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1024" t="n">
+        <v>144.3300018310547</v>
+      </c>
+      <c r="K1024" t="n">
+        <v>9.989999771118164</v>
+      </c>
+      <c r="L1024" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B1025" s="2" t="n">
+        <v>44200</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>12.52000045776367</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>10.82999992370605</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>11.35999965667725</v>
+      </c>
+      <c r="F1025" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1025" t="n">
+        <v>12.52000045776367</v>
+      </c>
+      <c r="H1025" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1025" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1025" t="n">
+        <v>144.3300018310547</v>
+      </c>
+      <c r="K1025" t="n">
+        <v>9.989999771118164</v>
+      </c>
+      <c r="L1025" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B1026" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>10.97000026702881</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1026" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1026" t="n">
+        <v>10.97000026702881</v>
+      </c>
+      <c r="H1026" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1026" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1026" t="n">
+        <v>144.3300018310547</v>
+      </c>
+      <c r="K1026" t="n">
+        <v>9.989999771118164</v>
+      </c>
+      <c r="L1026" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="inlineStr">
+        <is>
+          <t>DCXINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B1027" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>351</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>333.1000061035156</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>339.6000061035156</v>
+      </c>
+      <c r="F1027" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1027" t="n">
+        <v>351</v>
+      </c>
+      <c r="H1027" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1027" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1027" t="n">
+        <v>366.8999938964844</v>
+      </c>
+      <c r="K1027" t="n">
+        <v>321.9500122070312</v>
+      </c>
+      <c r="L1027" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="inlineStr">
+        <is>
+          <t>ZENTEC.NS</t>
+        </is>
+      </c>
+      <c r="B1028" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>1130</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>1026.050048828125</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>1088.300048828125</v>
+      </c>
+      <c r="F1028" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1028" t="n">
+        <v>1130</v>
+      </c>
+      <c r="H1028" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1028" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1028" t="n">
+        <v>1132.599975585938</v>
+      </c>
+      <c r="K1028" t="n">
+        <v>1013</v>
+      </c>
+      <c r="L1028" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="inlineStr">
+        <is>
+          <t>IEX.NS</t>
+        </is>
+      </c>
+      <c r="B1029" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>173.3500061035156</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>162.0500030517578</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>164.1999969482422</v>
+      </c>
+      <c r="F1029" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1029" t="n">
+        <v>173.3500061035156</v>
+      </c>
+      <c r="H1029" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1029" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1029" t="n">
+        <v>182.5500030517578</v>
+      </c>
+      <c r="K1029" t="n">
+        <v>167.5</v>
+      </c>
+      <c r="L1029" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="inlineStr">
+        <is>
+          <t>JKPAPER.NS</t>
+        </is>
+      </c>
+      <c r="B1030" s="2" t="n">
+        <v>44914</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>453.2000122070312</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>370</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>372.8999938964844</v>
+      </c>
+      <c r="F1030" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1030" t="n">
+        <v>453.2000122070312</v>
+      </c>
+      <c r="H1030" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1030" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1030" t="n">
+        <v>498</v>
+      </c>
+      <c r="K1030" t="n">
+        <v>407.5499877929688</v>
+      </c>
+      <c r="L1030" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="inlineStr">
+        <is>
+          <t>JKPAPER.NS</t>
+        </is>
+      </c>
+      <c r="B1031" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>415.2999877929688</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>391</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>400.25</v>
+      </c>
+      <c r="F1031" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1031" t="n">
+        <v>415.2999877929688</v>
+      </c>
+      <c r="H1031" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1031" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1031" t="n">
+        <v>498</v>
+      </c>
+      <c r="K1031" t="n">
+        <v>407.5499877929688</v>
+      </c>
+      <c r="L1031" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t>JKPAPER.NS</t>
+        </is>
+      </c>
+      <c r="B1032" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>452</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>415.0499877929688</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>417.2999877929688</v>
+      </c>
+      <c r="F1032" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1032" t="n">
+        <v>452</v>
+      </c>
+      <c r="H1032" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1032" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1032" t="n">
+        <v>498</v>
+      </c>
+      <c r="K1032" t="n">
+        <v>407.5499877929688</v>
+      </c>
+      <c r="L1032" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="inlineStr">
+        <is>
+          <t>CRANEINFRA.BO</t>
+        </is>
+      </c>
+      <c r="B1033" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>30.84000015258789</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>25.27000045776367</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="F1033" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1033" t="n">
+        <v>30.84000015258789</v>
+      </c>
+      <c r="H1033" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1033" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1033" t="n">
+        <v>31.3700008392334</v>
+      </c>
+      <c r="K1033" t="n">
+        <v>22.40999984741211</v>
+      </c>
+      <c r="L1033" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="inlineStr">
+        <is>
+          <t>DECCANCE.NS</t>
+        </is>
+      </c>
+      <c r="B1034" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>668.4500122070312</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>619.2000122070312</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>635.7999877929688</v>
+      </c>
+      <c r="F1034" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1034" t="n">
+        <v>668.4500122070312</v>
+      </c>
+      <c r="H1034" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1034" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1034" t="n">
+        <v>723.5</v>
+      </c>
+      <c r="K1034" t="n">
+        <v>627.5999755859375</v>
+      </c>
+      <c r="L1034" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="inlineStr">
+        <is>
+          <t>DECCANCE.NS</t>
+        </is>
+      </c>
+      <c r="B1035" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>647</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>612</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>635</v>
+      </c>
+      <c r="F1035" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1035" t="n">
+        <v>647</v>
+      </c>
+      <c r="H1035" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1035" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1035" t="n">
+        <v>723.5</v>
+      </c>
+      <c r="K1035" t="n">
+        <v>627.5999755859375</v>
+      </c>
+      <c r="L1035" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="inlineStr">
+        <is>
+          <t>ANDHRAPAP.NS</t>
+        </is>
+      </c>
+      <c r="B1036" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>544.0999755859375</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>525</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>528.5</v>
+      </c>
+      <c r="F1036" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1036" t="n">
+        <v>544.0999755859375</v>
+      </c>
+      <c r="H1036" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1036" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1036" t="n">
+        <v>576.1500244140625</v>
+      </c>
+      <c r="K1036" t="n">
+        <v>514.75</v>
+      </c>
+      <c r="L1036" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="inlineStr">
+        <is>
+          <t>ANJANIFOODS.BO</t>
+        </is>
+      </c>
+      <c r="B1037" s="2" t="n">
+        <v>44900</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>36.29999923706055</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>29.29999923706055</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>33.15000152587891</v>
+      </c>
+      <c r="F1037" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1037" t="n">
+        <v>36.29999923706055</v>
+      </c>
+      <c r="H1037" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1037" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1037" t="n">
+        <v>52.40999984741211</v>
+      </c>
+      <c r="K1037" t="n">
+        <v>31.88999938964844</v>
+      </c>
+      <c r="L1037" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="inlineStr">
+        <is>
+          <t>ANJANIFOODS.BO</t>
+        </is>
+      </c>
+      <c r="B1038" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C1038" t="n">
+        <v>31.95000076293945</v>
+      </c>
+      <c r="D1038" t="n">
+        <v>27.71999931335449</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>29.20999908447266</v>
+      </c>
+      <c r="F1038" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1038" t="n">
+        <v>31.95000076293945</v>
+      </c>
+      <c r="H1038" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1038" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1038" t="n">
+        <v>52.40999984741211</v>
+      </c>
+      <c r="K1038" t="n">
+        <v>31.88999938964844</v>
+      </c>
+      <c r="L1038" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="inlineStr">
+        <is>
+          <t>ANJANIFOODS.BO</t>
+        </is>
+      </c>
+      <c r="B1039" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="C1039" t="n">
+        <v>43.77999877929688</v>
+      </c>
+      <c r="D1039" t="n">
+        <v>37.83000183105469</v>
+      </c>
+      <c r="E1039" t="n">
+        <v>41.41999816894531</v>
+      </c>
+      <c r="F1039" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1039" t="n">
+        <v>43.77999877929688</v>
+      </c>
+      <c r="H1039" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1039" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1039" t="n">
+        <v>52.40999984741211</v>
+      </c>
+      <c r="K1039" t="n">
+        <v>31.88999938964844</v>
+      </c>
+      <c r="L1039" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="inlineStr">
+        <is>
+          <t>ALKALI.NS</t>
+        </is>
+      </c>
+      <c r="B1040" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C1040" t="n">
+        <v>124</v>
+      </c>
+      <c r="D1040" t="n">
+        <v>103</v>
+      </c>
+      <c r="E1040" t="n">
+        <v>122.9499969482422</v>
+      </c>
+      <c r="F1040" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1040" t="n">
+        <v>124</v>
+      </c>
+      <c r="H1040" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1040" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1040" t="n">
+        <v>130.3099975585938</v>
+      </c>
+      <c r="K1040" t="n">
+        <v>116.25</v>
+      </c>
+      <c r="L1040" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="inlineStr">
+        <is>
+          <t>AGARIND.NS</t>
+        </is>
+      </c>
+      <c r="B1041" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C1041" t="n">
+        <v>1099</v>
+      </c>
+      <c r="D1041" t="n">
+        <v>1009.299987792969</v>
+      </c>
+      <c r="E1041" t="n">
+        <v>1038.699951171875</v>
+      </c>
+      <c r="F1041" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1041" t="n">
+        <v>1099</v>
+      </c>
+      <c r="H1041" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1041" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1041" t="n">
+        <v>1180</v>
+      </c>
+      <c r="K1041" t="n">
+        <v>950</v>
+      </c>
+      <c r="L1041" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="inlineStr">
+        <is>
+          <t>AGARIND.NS</t>
+        </is>
+      </c>
+      <c r="B1042" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="C1042" t="n">
+        <v>1032.400024414062</v>
+      </c>
+      <c r="D1042" t="n">
+        <v>939</v>
+      </c>
+      <c r="E1042" t="n">
+        <v>970.2000122070312</v>
+      </c>
+      <c r="F1042" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1042" t="n">
+        <v>1032.400024414062</v>
+      </c>
+      <c r="H1042" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1042" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1042" t="n">
+        <v>1180</v>
+      </c>
+      <c r="K1042" t="n">
+        <v>950</v>
+      </c>
+      <c r="L1042" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="inlineStr">
+        <is>
+          <t>AGARIND.NS</t>
+        </is>
+      </c>
+      <c r="B1043" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C1043" t="n">
+        <v>1155</v>
+      </c>
+      <c r="D1043" t="n">
+        <v>1001.25</v>
+      </c>
+      <c r="E1043" t="n">
+        <v>1096.150024414062</v>
+      </c>
+      <c r="F1043" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1043" t="n">
+        <v>1155</v>
+      </c>
+      <c r="H1043" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1043" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1043" t="n">
+        <v>1180</v>
+      </c>
+      <c r="K1043" t="n">
+        <v>950</v>
+      </c>
+      <c r="L1043" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="inlineStr">
+        <is>
+          <t>AMIORG.NS</t>
+        </is>
+      </c>
+      <c r="B1044" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C1044" t="n">
+        <v>1296.5</v>
+      </c>
+      <c r="D1044" t="n">
+        <v>1147</v>
+      </c>
+      <c r="E1044" t="n">
+        <v>1220.800048828125</v>
+      </c>
+      <c r="F1044" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1044" t="n">
+        <v>1296.5</v>
+      </c>
+      <c r="H1044" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1044" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1044" t="n">
+        <v>1355</v>
+      </c>
+      <c r="K1044" t="n">
+        <v>1248</v>
+      </c>
+      <c r="L1044" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="inlineStr">
+        <is>
+          <t>ANDHRSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="B1045" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="C1045" t="n">
+        <v>124.75</v>
+      </c>
+      <c r="D1045" t="n">
+        <v>116.1999969482422</v>
+      </c>
+      <c r="E1045" t="n">
+        <v>121.8000030517578</v>
+      </c>
+      <c r="F1045" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1045" t="n">
+        <v>124.75</v>
+      </c>
+      <c r="H1045" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1045" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1045" t="n">
+        <v>128.9900054931641</v>
+      </c>
+      <c r="K1045" t="n">
+        <v>109.75</v>
+      </c>
+      <c r="L1045" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="inlineStr">
+        <is>
+          <t>ANDHRSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="B1046" s="2" t="n">
+        <v>45194</v>
+      </c>
+      <c r="C1046" t="n">
+        <v>128.6499938964844</v>
+      </c>
+      <c r="D1046" t="n">
+        <v>116.25</v>
+      </c>
+      <c r="E1046" t="n">
+        <v>118.6500015258789</v>
+      </c>
+      <c r="F1046" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1046" t="n">
+        <v>128.6499938964844</v>
+      </c>
+      <c r="H1046" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1046" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1046" t="n">
+        <v>128.9900054931641</v>
+      </c>
+      <c r="K1046" t="n">
+        <v>109.75</v>
+      </c>
+      <c r="L1046" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="inlineStr">
+        <is>
+          <t>ANDHRSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="B1047" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C1047" t="n">
+        <v>119.5500030517578</v>
+      </c>
+      <c r="D1047" t="n">
+        <v>110.0500030517578</v>
+      </c>
+      <c r="E1047" t="n">
+        <v>111.25</v>
+      </c>
+      <c r="F1047" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1047" t="n">
+        <v>119.5500030517578</v>
+      </c>
+      <c r="H1047" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1047" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1047" t="n">
+        <v>128.9900054931641</v>
+      </c>
+      <c r="K1047" t="n">
+        <v>109.75</v>
+      </c>
+      <c r="L1047" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="inlineStr">
+        <is>
+          <t>LEMONTREE.NS</t>
+        </is>
+      </c>
+      <c r="B1048" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C1048" t="n">
+        <v>147.25</v>
+      </c>
+      <c r="D1048" t="n">
+        <v>134.1000061035156</v>
+      </c>
+      <c r="E1048" t="n">
+        <v>141.6999969482422</v>
+      </c>
+      <c r="F1048" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1048" t="n">
+        <v>147.25</v>
+      </c>
+      <c r="H1048" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1048" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1048" t="n">
+        <v>150.9499969482422</v>
+      </c>
+      <c r="K1048" t="n">
+        <v>143.8000030517578</v>
+      </c>
+      <c r="L1048" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="inlineStr">
+        <is>
+          <t>SASTASUNDR.NS</t>
+        </is>
+      </c>
+      <c r="B1049" s="2" t="n">
+        <v>45089</v>
+      </c>
+      <c r="C1049" t="n">
+        <v>314.7999877929688</v>
+      </c>
+      <c r="D1049" t="n">
+        <v>285.1499938964844</v>
+      </c>
+      <c r="E1049" t="n">
+        <v>289.4500122070312</v>
+      </c>
+      <c r="F1049" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1049" t="n">
+        <v>314.7999877929688</v>
+      </c>
+      <c r="H1049" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1049" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1049" t="n">
+        <v>378</v>
+      </c>
+      <c r="K1049" t="n">
+        <v>314.0499877929688</v>
+      </c>
+      <c r="L1049" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="inlineStr">
+        <is>
+          <t>SASTASUNDR.NS</t>
+        </is>
+      </c>
+      <c r="B1050" s="2" t="n">
+        <v>45152</v>
+      </c>
+      <c r="C1050" t="n">
+        <v>334.75</v>
+      </c>
+      <c r="D1050" t="n">
+        <v>280.25</v>
+      </c>
+      <c r="E1050" t="n">
+        <v>315.75</v>
+      </c>
+      <c r="F1050" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1050" t="n">
+        <v>334.75</v>
+      </c>
+      <c r="H1050" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1050" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1050" t="n">
+        <v>378</v>
+      </c>
+      <c r="K1050" t="n">
+        <v>314.0499877929688</v>
+      </c>
+      <c r="L1050" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="inlineStr">
+        <is>
+          <t>ANDHRAPET.BO</t>
+        </is>
+      </c>
+      <c r="B1051" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C1051" t="n">
+        <v>115.9499969482422</v>
+      </c>
+      <c r="D1051" t="n">
+        <v>102</v>
+      </c>
+      <c r="E1051" t="n">
+        <v>104</v>
+      </c>
+      <c r="F1051" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1051" t="n">
+        <v>115.9499969482422</v>
+      </c>
+      <c r="H1051" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1051" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1051" t="n">
+        <v>126.9000015258789</v>
+      </c>
+      <c r="K1051" t="n">
+        <v>111</v>
+      </c>
+      <c r="L1051" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="inlineStr">
+        <is>
+          <t>FAZE3Q.NS</t>
+        </is>
+      </c>
+      <c r="B1052" s="2" t="n">
+        <v>45117</v>
+      </c>
+      <c r="C1052" t="n">
+        <v>436.9500122070312</v>
+      </c>
+      <c r="D1052" t="n">
+        <v>362</v>
+      </c>
+      <c r="E1052" t="n">
+        <v>411.4500122070312</v>
+      </c>
+      <c r="F1052" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1052" t="n">
+        <v>436.9500122070312</v>
+      </c>
+      <c r="H1052" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1052" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1052" t="n">
+        <v>454.5</v>
+      </c>
+      <c r="K1052" t="n">
+        <v>412</v>
+      </c>
+      <c r="L1052" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t>MANINDS.NS</t>
+        </is>
+      </c>
+      <c r="B1053" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="C1053" t="n">
+        <v>435</v>
+      </c>
+      <c r="D1053" t="n">
+        <v>394.6000061035156</v>
+      </c>
+      <c r="E1053" t="n">
+        <v>420.1000061035156</v>
+      </c>
+      <c r="F1053" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1053" t="n">
+        <v>435</v>
+      </c>
+      <c r="H1053" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1053" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1053" t="n">
+        <v>439.7999877929688</v>
+      </c>
+      <c r="K1053" t="n">
+        <v>375.7999877929688</v>
+      </c>
+      <c r="L1053" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>DHABRIYA.BO</t>
+        </is>
+      </c>
+      <c r="B1054" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C1054" t="n">
+        <v>315</v>
+      </c>
+      <c r="D1054" t="n">
+        <v>281.2999877929688</v>
+      </c>
+      <c r="E1054" t="n">
+        <v>291.7000122070312</v>
+      </c>
+      <c r="F1054" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1054" t="n">
+        <v>315</v>
+      </c>
+      <c r="H1054" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1054" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1054" t="n">
+        <v>349.9500122070312</v>
+      </c>
+      <c r="K1054" t="n">
+        <v>300</v>
+      </c>
+      <c r="L1054" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>SKYGOLD.NS</t>
+        </is>
+      </c>
+      <c r="B1055" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="C1055" t="n">
+        <v>1299.349975585938</v>
+      </c>
+      <c r="D1055" t="n">
+        <v>1096.099975585938</v>
+      </c>
+      <c r="E1055" t="n">
+        <v>1179.25</v>
+      </c>
+      <c r="F1055" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1055" t="n">
+        <v>1299.349975585938</v>
+      </c>
+      <c r="H1055" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1055" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1055" t="n">
+        <v>1337.400024414062</v>
+      </c>
+      <c r="K1055" t="n">
+        <v>1275</v>
+      </c>
+      <c r="L1055" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="inlineStr">
+        <is>
+          <t>SKYGOLD.NS</t>
+        </is>
+      </c>
+      <c r="B1056" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C1056" t="n">
+        <v>1288</v>
+      </c>
+      <c r="D1056" t="n">
+        <v>1140</v>
+      </c>
+      <c r="E1056" t="n">
+        <v>1162.699951171875</v>
+      </c>
+      <c r="F1056" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1056" t="n">
+        <v>1288</v>
+      </c>
+      <c r="H1056" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1056" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1056" t="n">
+        <v>1337.400024414062</v>
+      </c>
+      <c r="K1056" t="n">
+        <v>1275</v>
+      </c>
+      <c r="L1056" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="inlineStr">
+        <is>
+          <t>STOVEKRAFT.NS</t>
+        </is>
+      </c>
+      <c r="B1057" s="2" t="n">
+        <v>45075</v>
+      </c>
+      <c r="C1057" t="n">
+        <v>507.3999938964844</v>
+      </c>
+      <c r="D1057" t="n">
+        <v>421</v>
+      </c>
+      <c r="E1057" t="n">
+        <v>437.8999938964844</v>
+      </c>
+      <c r="F1057" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1057" t="n">
+        <v>507.3999938964844</v>
+      </c>
+      <c r="H1057" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1057" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1057" t="n">
+        <v>550</v>
+      </c>
+      <c r="K1057" t="n">
+        <v>498.9500122070312</v>
+      </c>
+      <c r="L1057" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="inlineStr">
+        <is>
+          <t>STOVEKRAFT.NS</t>
+        </is>
+      </c>
+      <c r="B1058" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C1058" t="n">
+        <v>515</v>
+      </c>
+      <c r="D1058" t="n">
+        <v>480</v>
+      </c>
+      <c r="E1058" t="n">
+        <v>500.2000122070312</v>
+      </c>
+      <c r="F1058" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1058" t="n">
+        <v>515</v>
+      </c>
+      <c r="H1058" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1058" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1058" t="n">
+        <v>550</v>
+      </c>
+      <c r="K1058" t="n">
+        <v>498.9500122070312</v>
+      </c>
+      <c r="L1058" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="inlineStr">
+        <is>
+          <t>GRAVITA.NS</t>
+        </is>
+      </c>
+      <c r="B1059" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="C1059" t="n">
+        <v>1166</v>
+      </c>
+      <c r="D1059" t="n">
+        <v>1120.550048828125</v>
+      </c>
+      <c r="E1059" t="n">
+        <v>1138.099975585938</v>
+      </c>
+      <c r="F1059" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1059" t="n">
+        <v>1166</v>
+      </c>
+      <c r="H1059" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1059" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1059" t="n">
+        <v>1350</v>
+      </c>
+      <c r="K1059" t="n">
+        <v>1145.5</v>
+      </c>
+      <c r="L1059" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="inlineStr">
+        <is>
+          <t>HFCL.NS</t>
+        </is>
+      </c>
+      <c r="B1060" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C1060" t="n">
+        <v>117.8000030517578</v>
+      </c>
+      <c r="D1060" t="n">
+        <v>102.0999984741211</v>
+      </c>
+      <c r="E1060" t="n">
+        <v>108.4000015258789</v>
+      </c>
+      <c r="F1060" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1060" t="n">
+        <v>117.8000030517578</v>
+      </c>
+      <c r="H1060" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1060" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1060" t="n">
+        <v>120.3000030517578</v>
+      </c>
+      <c r="K1060" t="n">
+        <v>108.0999984741211</v>
+      </c>
+      <c r="L1060" t="inlineStr">
+        <is>
+          <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L316"/>
+  <dimension ref="A1:L340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15618,6 +15618,1158 @@
       <c r="L316" t="inlineStr">
         <is>
           <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>ULTRACEMCO.NS</t>
+        </is>
+      </c>
+      <c r="E317" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="F317" t="n">
+        <v>10526</v>
+      </c>
+      <c r="G317" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="H317" t="n">
+        <v>10277.7001953125</v>
+      </c>
+      <c r="I317" t="n">
+        <v>0</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>JSWSTEEL.NS</t>
+        </is>
+      </c>
+      <c r="E318" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="F318" t="n">
+        <v>895.75</v>
+      </c>
+      <c r="G318" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="H318" t="n">
+        <v>850</v>
+      </c>
+      <c r="I318" t="n">
+        <v>0</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>HDFCLIFE.NS</t>
+        </is>
+      </c>
+      <c r="E319" s="2" t="n">
+        <v>44998</v>
+      </c>
+      <c r="F319" t="n">
+        <v>457.7999877929688</v>
+      </c>
+      <c r="G319" s="2" t="n">
+        <v>45152</v>
+      </c>
+      <c r="H319" t="n">
+        <v>616.75</v>
+      </c>
+      <c r="I319" t="n">
+        <v>0</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>HDFCLIFE.NS</t>
+        </is>
+      </c>
+      <c r="E320" s="2" t="n">
+        <v>44998</v>
+      </c>
+      <c r="F320" t="n">
+        <v>457.7999877929688</v>
+      </c>
+      <c r="G320" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="H320" t="n">
+        <v>561.5499877929688</v>
+      </c>
+      <c r="I320" t="n">
+        <v>0</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>AMBUJACEM.NS</t>
+        </is>
+      </c>
+      <c r="E321" s="2" t="n">
+        <v>44900</v>
+      </c>
+      <c r="F321" t="n">
+        <v>598</v>
+      </c>
+      <c r="G321" s="2" t="n">
+        <v>45089</v>
+      </c>
+      <c r="H321" t="n">
+        <v>468.8999938964844</v>
+      </c>
+      <c r="I321" t="n">
+        <v>0</v>
+      </c>
+      <c r="J321" t="n">
+        <v>0</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>IRB.NS</t>
+        </is>
+      </c>
+      <c r="E322" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="F322" t="n">
+        <v>72</v>
+      </c>
+      <c r="G322" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="H322" t="n">
+        <v>73.09999847412109</v>
+      </c>
+      <c r="I322" t="n">
+        <v>0</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>BANARISUG.NS</t>
+        </is>
+      </c>
+      <c r="E323" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="F323" t="n">
+        <v>2699.89990234375</v>
+      </c>
+      <c r="G323" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="H323" t="n">
+        <v>2732.800048828125</v>
+      </c>
+      <c r="I323" t="n">
+        <v>0</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>BANARISUG.NS</t>
+        </is>
+      </c>
+      <c r="E324" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="F324" t="n">
+        <v>2848.85009765625</v>
+      </c>
+      <c r="G324" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="H324" t="n">
+        <v>2732.800048828125</v>
+      </c>
+      <c r="I324" t="n">
+        <v>0</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>MAHEPC.NS</t>
+        </is>
+      </c>
+      <c r="E325" s="2" t="n">
+        <v>44928</v>
+      </c>
+      <c r="F325" t="n">
+        <v>113</v>
+      </c>
+      <c r="G325" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="H325" t="n">
+        <v>162.8000030517578</v>
+      </c>
+      <c r="I325" t="n">
+        <v>0</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>SWARAJENG.NS</t>
+        </is>
+      </c>
+      <c r="E326" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="F326" t="n">
+        <v>2553.75</v>
+      </c>
+      <c r="G326" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="H326" t="n">
+        <v>2649.949951171875</v>
+      </c>
+      <c r="I326" t="n">
+        <v>0</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>GUJGASLTD.NS</t>
+        </is>
+      </c>
+      <c r="E327" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="F327" t="n">
+        <v>526</v>
+      </c>
+      <c r="G327" s="2" t="n">
+        <v>45075</v>
+      </c>
+      <c r="H327" t="n">
+        <v>508.3999938964844</v>
+      </c>
+      <c r="I327" t="n">
+        <v>0</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>VOLTAS.NS</t>
+        </is>
+      </c>
+      <c r="E328" s="2" t="n">
+        <v>44655</v>
+      </c>
+      <c r="F328" t="n">
+        <v>1347.650024414062</v>
+      </c>
+      <c r="G328" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="H328" t="n">
+        <v>934</v>
+      </c>
+      <c r="I328" t="n">
+        <v>0</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>VOLTAS.NS</t>
+        </is>
+      </c>
+      <c r="E329" s="2" t="n">
+        <v>44571</v>
+      </c>
+      <c r="F329" t="n">
+        <v>1317.300048828125</v>
+      </c>
+      <c r="G329" s="2" t="n">
+        <v>44655</v>
+      </c>
+      <c r="H329" t="n">
+        <v>1347.650024414062</v>
+      </c>
+      <c r="I329" t="n">
+        <v>0</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>VOLTAS.NS</t>
+        </is>
+      </c>
+      <c r="E330" s="2" t="n">
+        <v>44655</v>
+      </c>
+      <c r="F330" t="n">
+        <v>1347.650024414062</v>
+      </c>
+      <c r="G330" s="2" t="n">
+        <v>44760</v>
+      </c>
+      <c r="H330" t="n">
+        <v>1064.949951171875</v>
+      </c>
+      <c r="I330" t="n">
+        <v>0</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>LODHA.NS</t>
+        </is>
+      </c>
+      <c r="E331" s="2" t="n">
+        <v>44767</v>
+      </c>
+      <c r="F331" t="n">
+        <v>594.5</v>
+      </c>
+      <c r="G331" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="H331" t="n">
+        <v>1225</v>
+      </c>
+      <c r="I331" t="n">
+        <v>0</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>JISLJALEQS.NS</t>
+        </is>
+      </c>
+      <c r="E332" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="F332" t="n">
+        <v>69.80000305175781</v>
+      </c>
+      <c r="G332" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="H332" t="n">
+        <v>73.44999694824219</v>
+      </c>
+      <c r="I332" t="n">
+        <v>0</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>JISLJALEQS.NS</t>
+        </is>
+      </c>
+      <c r="E333" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="F333" t="n">
+        <v>73.44999694824219</v>
+      </c>
+      <c r="G333" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="H333" t="n">
+        <v>68.59999847412109</v>
+      </c>
+      <c r="I333" t="n">
+        <v>0</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>JKPAPER.NS</t>
+        </is>
+      </c>
+      <c r="E334" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="F334" t="n">
+        <v>415.2999877929688</v>
+      </c>
+      <c r="G334" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="H334" t="n">
+        <v>452</v>
+      </c>
+      <c r="I334" t="n">
+        <v>0</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="n">
+        <v>44319</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="E335" s="2" t="n">
+        <v>43549</v>
+      </c>
+      <c r="F335" t="n">
+        <v>13.10999965667725</v>
+      </c>
+      <c r="G335" s="2" t="n">
+        <v>44200</v>
+      </c>
+      <c r="H335" t="n">
+        <v>12.52000045776367</v>
+      </c>
+      <c r="I335" t="n">
+        <v>0</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="n">
+        <v>44319</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="E336" s="2" t="n">
+        <v>43542</v>
+      </c>
+      <c r="F336" t="n">
+        <v>13.10999965667725</v>
+      </c>
+      <c r="G336" s="2" t="n">
+        <v>44158</v>
+      </c>
+      <c r="H336" t="n">
+        <v>12</v>
+      </c>
+      <c r="I336" t="n">
+        <v>0</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2" t="n">
+        <v>44319</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="E337" s="2" t="n">
+        <v>43542</v>
+      </c>
+      <c r="F337" t="n">
+        <v>13.10999965667725</v>
+      </c>
+      <c r="G337" s="2" t="n">
+        <v>44200</v>
+      </c>
+      <c r="H337" t="n">
+        <v>12.52000045776367</v>
+      </c>
+      <c r="I337" t="n">
+        <v>0</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2" t="n">
+        <v>44319</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="E338" s="2" t="n">
+        <v>44200</v>
+      </c>
+      <c r="F338" t="n">
+        <v>12.52000045776367</v>
+      </c>
+      <c r="G338" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="H338" t="n">
+        <v>10.97000026702881</v>
+      </c>
+      <c r="I338" t="n">
+        <v>0</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>DECCANCE.NS</t>
+        </is>
+      </c>
+      <c r="E339" s="2" t="n">
+        <v>44816</v>
+      </c>
+      <c r="F339" t="n">
+        <v>588</v>
+      </c>
+      <c r="G339" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="H339" t="n">
+        <v>668.4500122070312</v>
+      </c>
+      <c r="I339" t="n">
+        <v>0</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2" t="n">
+        <v>45019</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>LIKHITHA.NS</t>
+        </is>
+      </c>
+      <c r="E340" s="2" t="n">
+        <v>44662</v>
+      </c>
+      <c r="F340" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="G340" s="2" t="n">
+        <v>44893</v>
+      </c>
+      <c r="H340" t="n">
+        <v>273.3500061035156</v>
+      </c>
+      <c r="I340" t="n">
+        <v>0</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
         </is>
       </c>
     </row>
@@ -15632,7 +16784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J136"/>
+  <dimension ref="A1:J139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21359,6 +22511,132 @@
       <c r="J136" t="inlineStr">
         <is>
           <t>14/06/2024 13:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>44599</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>KOTAKBANK.NS</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>44550</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1721</v>
+      </c>
+      <c r="G137" s="2" t="n">
+        <v>44557</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1721</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>BANARISUG.NS</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45089</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2930.050048828125</v>
+      </c>
+      <c r="G138" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="H138" t="n">
+        <v>2930.300048828125</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>DBL.NS</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="F139" t="n">
+        <v>504.5</v>
+      </c>
+      <c r="G139" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="H139" t="n">
+        <v>502.2000122070312</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
         </is>
       </c>
     </row>
@@ -21373,7 +22651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1060"/>
+  <dimension ref="A1:L1165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72275,6 +73553,5046 @@
         </is>
       </c>
     </row>
+    <row r="1061">
+      <c r="A1061" t="inlineStr">
+        <is>
+          <t>ULTRACEMCO.NS</t>
+        </is>
+      </c>
+      <c r="B1061" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="C1061" t="n">
+        <v>10526</v>
+      </c>
+      <c r="D1061" t="n">
+        <v>9969</v>
+      </c>
+      <c r="E1061" t="n">
+        <v>10503.0498046875</v>
+      </c>
+      <c r="F1061" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1061" t="n">
+        <v>10526</v>
+      </c>
+      <c r="H1061" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1061" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1061" t="n">
+        <v>11299</v>
+      </c>
+      <c r="K1061" t="n">
+        <v>10519.7998046875</v>
+      </c>
+      <c r="L1061" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="inlineStr">
+        <is>
+          <t>CIPLA.NS</t>
+        </is>
+      </c>
+      <c r="B1062" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C1062" t="n">
+        <v>1519</v>
+      </c>
+      <c r="D1062" t="n">
+        <v>1449</v>
+      </c>
+      <c r="E1062" t="n">
+        <v>1488.050048828125</v>
+      </c>
+      <c r="F1062" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1062" t="n">
+        <v>1519</v>
+      </c>
+      <c r="H1062" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1062" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1062" t="n">
+        <v>1567</v>
+      </c>
+      <c r="K1062" t="n">
+        <v>1514</v>
+      </c>
+      <c r="L1062" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="inlineStr">
+        <is>
+          <t>GRASIM.NS</t>
+        </is>
+      </c>
+      <c r="B1063" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="C1063" t="n">
+        <v>2489.75</v>
+      </c>
+      <c r="D1063" t="n">
+        <v>2322</v>
+      </c>
+      <c r="E1063" t="n">
+        <v>2377.14990234375</v>
+      </c>
+      <c r="F1063" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1063" t="n">
+        <v>2489.75</v>
+      </c>
+      <c r="H1063" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1063" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1063" t="n">
+        <v>2523.699951171875</v>
+      </c>
+      <c r="K1063" t="n">
+        <v>2405.199951171875</v>
+      </c>
+      <c r="L1063" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="inlineStr">
+        <is>
+          <t>FEDERALBNK.NS</t>
+        </is>
+      </c>
+      <c r="B1064" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C1064" t="n">
+        <v>170.3000030517578</v>
+      </c>
+      <c r="D1064" t="n">
+        <v>156.0500030517578</v>
+      </c>
+      <c r="E1064" t="n">
+        <v>165.9499969482422</v>
+      </c>
+      <c r="F1064" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1064" t="n">
+        <v>170.3000030517578</v>
+      </c>
+      <c r="H1064" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1064" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1064" t="n">
+        <v>175.1000061035156</v>
+      </c>
+      <c r="K1064" t="n">
+        <v>169.1000061035156</v>
+      </c>
+      <c r="L1064" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS</t>
+        </is>
+      </c>
+      <c r="B1065" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C1065" t="n">
+        <v>1352.599975585938</v>
+      </c>
+      <c r="D1065" t="n">
+        <v>1161.150024414062</v>
+      </c>
+      <c r="E1065" t="n">
+        <v>1309.699951171875</v>
+      </c>
+      <c r="F1065" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1065" t="n">
+        <v>1352.599975585938</v>
+      </c>
+      <c r="H1065" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1065" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1065" t="n">
+        <v>1455.849975585938</v>
+      </c>
+      <c r="K1065" t="n">
+        <v>1351</v>
+      </c>
+      <c r="L1065" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="inlineStr">
+        <is>
+          <t>SHRIRAMFIN.NS</t>
+        </is>
+      </c>
+      <c r="B1066" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C1066" t="n">
+        <v>2658</v>
+      </c>
+      <c r="D1066" t="n">
+        <v>2430.25</v>
+      </c>
+      <c r="E1066" t="n">
+        <v>2588.550048828125</v>
+      </c>
+      <c r="F1066" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1066" t="n">
+        <v>2658</v>
+      </c>
+      <c r="H1066" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1066" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1066" t="n">
+        <v>2747</v>
+      </c>
+      <c r="K1066" t="n">
+        <v>2546.949951171875</v>
+      </c>
+      <c r="L1066" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="inlineStr">
+        <is>
+          <t>ICICIGI.NS</t>
+        </is>
+      </c>
+      <c r="B1067" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C1067" t="n">
+        <v>1734.900024414062</v>
+      </c>
+      <c r="D1067" t="n">
+        <v>1630.050048828125</v>
+      </c>
+      <c r="E1067" t="n">
+        <v>1643.849975585938</v>
+      </c>
+      <c r="F1067" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1067" t="n">
+        <v>1734.900024414062</v>
+      </c>
+      <c r="H1067" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1067" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1067" t="n">
+        <v>1766.949951171875</v>
+      </c>
+      <c r="K1067" t="n">
+        <v>1660.25</v>
+      </c>
+      <c r="L1067" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>ICICIGI.NS</t>
+        </is>
+      </c>
+      <c r="B1068" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="C1068" t="n">
+        <v>1747</v>
+      </c>
+      <c r="D1068" t="n">
+        <v>1611.5</v>
+      </c>
+      <c r="E1068" t="n">
+        <v>1689.75</v>
+      </c>
+      <c r="F1068" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1068" t="n">
+        <v>1747</v>
+      </c>
+      <c r="H1068" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1068" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1068" t="n">
+        <v>1766.949951171875</v>
+      </c>
+      <c r="K1068" t="n">
+        <v>1660.25</v>
+      </c>
+      <c r="L1068" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="inlineStr">
+        <is>
+          <t>PGHH.NS</t>
+        </is>
+      </c>
+      <c r="B1069" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="C1069" t="n">
+        <v>17050.900390625</v>
+      </c>
+      <c r="D1069" t="n">
+        <v>16111</v>
+      </c>
+      <c r="E1069" t="n">
+        <v>16928.44921875</v>
+      </c>
+      <c r="F1069" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1069" t="n">
+        <v>17050.900390625</v>
+      </c>
+      <c r="H1069" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1069" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1069" t="n">
+        <v>17064.94921875</v>
+      </c>
+      <c r="K1069" t="n">
+        <v>16947.19921875</v>
+      </c>
+      <c r="L1069" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="inlineStr">
+        <is>
+          <t>ICICIPRULI.NS</t>
+        </is>
+      </c>
+      <c r="B1070" s="2" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C1070" t="n">
+        <v>606.4000244140625</v>
+      </c>
+      <c r="D1070" t="n">
+        <v>564.25</v>
+      </c>
+      <c r="E1070" t="n">
+        <v>578.2000122070312</v>
+      </c>
+      <c r="F1070" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1070" t="n">
+        <v>606.4000244140625</v>
+      </c>
+      <c r="H1070" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1070" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1070" t="n">
+        <v>622</v>
+      </c>
+      <c r="K1070" t="n">
+        <v>572.9000244140625</v>
+      </c>
+      <c r="L1070" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="inlineStr">
+        <is>
+          <t>VBL.NS</t>
+        </is>
+      </c>
+      <c r="B1071" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C1071" t="n">
+        <v>1561.949951171875</v>
+      </c>
+      <c r="D1071" t="n">
+        <v>1345</v>
+      </c>
+      <c r="E1071" t="n">
+        <v>1417.849975585938</v>
+      </c>
+      <c r="F1071" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1071" t="n">
+        <v>1561.949951171875</v>
+      </c>
+      <c r="H1071" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1071" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1071" t="n">
+        <v>1650</v>
+      </c>
+      <c r="K1071" t="n">
+        <v>1528</v>
+      </c>
+      <c r="L1071" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="inlineStr">
+        <is>
+          <t>SHREECEM.NS</t>
+        </is>
+      </c>
+      <c r="B1072" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="C1072" t="n">
+        <v>27298.94921875</v>
+      </c>
+      <c r="D1072" t="n">
+        <v>25900</v>
+      </c>
+      <c r="E1072" t="n">
+        <v>26084.650390625</v>
+      </c>
+      <c r="F1072" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1072" t="n">
+        <v>27298.94921875</v>
+      </c>
+      <c r="H1072" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1072" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1072" t="n">
+        <v>28025</v>
+      </c>
+      <c r="K1072" t="n">
+        <v>26250</v>
+      </c>
+      <c r="L1072" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="inlineStr">
+        <is>
+          <t>SHREECEM.NS</t>
+        </is>
+      </c>
+      <c r="B1073" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C1073" t="n">
+        <v>26743.30078125</v>
+      </c>
+      <c r="D1073" t="n">
+        <v>25699</v>
+      </c>
+      <c r="E1073" t="n">
+        <v>25811.05078125</v>
+      </c>
+      <c r="F1073" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1073" t="n">
+        <v>26743.30078125</v>
+      </c>
+      <c r="H1073" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1073" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1073" t="n">
+        <v>28025</v>
+      </c>
+      <c r="K1073" t="n">
+        <v>26250</v>
+      </c>
+      <c r="L1073" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="inlineStr">
+        <is>
+          <t>BALRAMCHIN.NS</t>
+        </is>
+      </c>
+      <c r="B1074" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C1074" t="n">
+        <v>409.5</v>
+      </c>
+      <c r="D1074" t="n">
+        <v>387.1000061035156</v>
+      </c>
+      <c r="E1074" t="n">
+        <v>391.6000061035156</v>
+      </c>
+      <c r="F1074" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1074" t="n">
+        <v>409.5</v>
+      </c>
+      <c r="H1074" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1074" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1074" t="n">
+        <v>445.8999938964844</v>
+      </c>
+      <c r="K1074" t="n">
+        <v>407.3999938964844</v>
+      </c>
+      <c r="L1074" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="inlineStr">
+        <is>
+          <t>DALMIASUG.NS</t>
+        </is>
+      </c>
+      <c r="B1075" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C1075" t="n">
+        <v>425.1000061035156</v>
+      </c>
+      <c r="D1075" t="n">
+        <v>396</v>
+      </c>
+      <c r="E1075" t="n">
+        <v>404.1499938964844</v>
+      </c>
+      <c r="F1075" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1075" t="n">
+        <v>425.1000061035156</v>
+      </c>
+      <c r="H1075" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1075" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1075" t="n">
+        <v>442</v>
+      </c>
+      <c r="K1075" t="n">
+        <v>391.3500061035156</v>
+      </c>
+      <c r="L1075" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="inlineStr">
+        <is>
+          <t>DALMIASUG.NS</t>
+        </is>
+      </c>
+      <c r="B1076" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C1076" t="n">
+        <v>425.5</v>
+      </c>
+      <c r="D1076" t="n">
+        <v>391.5499877929688</v>
+      </c>
+      <c r="E1076" t="n">
+        <v>411.1499938964844</v>
+      </c>
+      <c r="F1076" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1076" t="n">
+        <v>425.5</v>
+      </c>
+      <c r="H1076" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1076" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1076" t="n">
+        <v>442</v>
+      </c>
+      <c r="K1076" t="n">
+        <v>391.3500061035156</v>
+      </c>
+      <c r="L1076" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="inlineStr">
+        <is>
+          <t>BANARISUG.NS</t>
+        </is>
+      </c>
+      <c r="B1077" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="C1077" t="n">
+        <v>2699.89990234375</v>
+      </c>
+      <c r="D1077" t="n">
+        <v>2488</v>
+      </c>
+      <c r="E1077" t="n">
+        <v>2519.300048828125</v>
+      </c>
+      <c r="F1077" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1077" t="n">
+        <v>2699.89990234375</v>
+      </c>
+      <c r="H1077" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1077" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1077" t="n">
+        <v>3048.800048828125</v>
+      </c>
+      <c r="K1077" t="n">
+        <v>2447</v>
+      </c>
+      <c r="L1077" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="inlineStr">
+        <is>
+          <t>BANARISUG.NS</t>
+        </is>
+      </c>
+      <c r="B1078" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C1078" t="n">
+        <v>2848.85009765625</v>
+      </c>
+      <c r="D1078" t="n">
+        <v>2572.449951171875</v>
+      </c>
+      <c r="E1078" t="n">
+        <v>2582.10009765625</v>
+      </c>
+      <c r="F1078" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1078" t="n">
+        <v>2848.85009765625</v>
+      </c>
+      <c r="H1078" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1078" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1078" t="n">
+        <v>3048.800048828125</v>
+      </c>
+      <c r="K1078" t="n">
+        <v>2447</v>
+      </c>
+      <c r="L1078" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="inlineStr">
+        <is>
+          <t>BANARISUG.NS</t>
+        </is>
+      </c>
+      <c r="B1079" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C1079" t="n">
+        <v>2732.800048828125</v>
+      </c>
+      <c r="D1079" t="n">
+        <v>2549.550048828125</v>
+      </c>
+      <c r="E1079" t="n">
+        <v>2606.550048828125</v>
+      </c>
+      <c r="F1079" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1079" t="n">
+        <v>2732.800048828125</v>
+      </c>
+      <c r="H1079" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1079" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1079" t="n">
+        <v>3048.800048828125</v>
+      </c>
+      <c r="K1079" t="n">
+        <v>2447</v>
+      </c>
+      <c r="L1079" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>DCMSRIND.NS</t>
+        </is>
+      </c>
+      <c r="B1080" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C1080" t="n">
+        <v>228</v>
+      </c>
+      <c r="D1080" t="n">
+        <v>210.0500030517578</v>
+      </c>
+      <c r="E1080" t="n">
+        <v>212.9499969482422</v>
+      </c>
+      <c r="F1080" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1080" t="n">
+        <v>228</v>
+      </c>
+      <c r="H1080" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1080" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1080" t="n">
+        <v>240.6100006103516</v>
+      </c>
+      <c r="K1080" t="n">
+        <v>223.8000030517578</v>
+      </c>
+      <c r="L1080" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>DHAMPURSUG.NS</t>
+        </is>
+      </c>
+      <c r="B1081" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C1081" t="n">
+        <v>241.8500061035156</v>
+      </c>
+      <c r="D1081" t="n">
+        <v>226.8999938964844</v>
+      </c>
+      <c r="E1081" t="n">
+        <v>229.4499969482422</v>
+      </c>
+      <c r="F1081" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1081" t="n">
+        <v>241.8500061035156</v>
+      </c>
+      <c r="H1081" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1081" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1081" t="n">
+        <v>254.7899932861328</v>
+      </c>
+      <c r="K1081" t="n">
+        <v>225.5500030517578</v>
+      </c>
+      <c r="L1081" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>GIPCL.NS</t>
+        </is>
+      </c>
+      <c r="B1082" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C1082" t="n">
+        <v>237.5</v>
+      </c>
+      <c r="D1082" t="n">
+        <v>213.6000061035156</v>
+      </c>
+      <c r="E1082" t="n">
+        <v>219</v>
+      </c>
+      <c r="F1082" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1082" t="n">
+        <v>237.5</v>
+      </c>
+      <c r="H1082" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1082" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1082" t="n">
+        <v>238.3999938964844</v>
+      </c>
+      <c r="K1082" t="n">
+        <v>213.8000030517578</v>
+      </c>
+      <c r="L1082" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="inlineStr">
+        <is>
+          <t>BAJAJHIND.NS</t>
+        </is>
+      </c>
+      <c r="B1083" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="C1083" t="n">
+        <v>35.84999847412109</v>
+      </c>
+      <c r="D1083" t="n">
+        <v>30</v>
+      </c>
+      <c r="E1083" t="n">
+        <v>32.40000152587891</v>
+      </c>
+      <c r="F1083" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1083" t="n">
+        <v>35.84999847412109</v>
+      </c>
+      <c r="H1083" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1083" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1083" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1083" t="n">
+        <v>34.25</v>
+      </c>
+      <c r="L1083" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>BAJAJHIND.NS</t>
+        </is>
+      </c>
+      <c r="B1084" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C1084" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="D1084" t="n">
+        <v>35.79999923706055</v>
+      </c>
+      <c r="E1084" t="n">
+        <v>37.29999923706055</v>
+      </c>
+      <c r="F1084" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1084" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="H1084" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1084" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1084" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1084" t="n">
+        <v>34.25</v>
+      </c>
+      <c r="L1084" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>BAJAJHIND.NS</t>
+        </is>
+      </c>
+      <c r="B1085" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C1085" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="D1085" t="n">
+        <v>34.29999923706055</v>
+      </c>
+      <c r="E1085" t="n">
+        <v>35.29999923706055</v>
+      </c>
+      <c r="F1085" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1085" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="H1085" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1085" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1085" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1085" t="n">
+        <v>34.25</v>
+      </c>
+      <c r="L1085" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="inlineStr">
+        <is>
+          <t>PATELENG.NS</t>
+        </is>
+      </c>
+      <c r="B1086" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="C1086" t="n">
+        <v>66.19999694824219</v>
+      </c>
+      <c r="D1086" t="n">
+        <v>60.29999923706055</v>
+      </c>
+      <c r="E1086" t="n">
+        <v>64.59999847412109</v>
+      </c>
+      <c r="F1086" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1086" t="n">
+        <v>66.19999694824219</v>
+      </c>
+      <c r="H1086" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1086" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1086" t="n">
+        <v>69.19999694824219</v>
+      </c>
+      <c r="K1086" t="n">
+        <v>65.05000305175781</v>
+      </c>
+      <c r="L1086" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="inlineStr">
+        <is>
+          <t>RENUKA.NS</t>
+        </is>
+      </c>
+      <c r="B1087" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="C1087" t="n">
+        <v>49.29999923706055</v>
+      </c>
+      <c r="D1087" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="E1087" t="n">
+        <v>46.79999923706055</v>
+      </c>
+      <c r="F1087" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1087" t="n">
+        <v>49.29999923706055</v>
+      </c>
+      <c r="H1087" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1087" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1087" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="K1087" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="L1087" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t>PRAJIND.NS</t>
+        </is>
+      </c>
+      <c r="B1088" s="2" t="n">
+        <v>45208</v>
+      </c>
+      <c r="C1088" t="n">
+        <v>614.6500244140625</v>
+      </c>
+      <c r="D1088" t="n">
+        <v>565.8499755859375</v>
+      </c>
+      <c r="E1088" t="n">
+        <v>591.9000244140625</v>
+      </c>
+      <c r="F1088" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1088" t="n">
+        <v>614.6500244140625</v>
+      </c>
+      <c r="H1088" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1088" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1088" t="n">
+        <v>711.7000122070312</v>
+      </c>
+      <c r="K1088" t="n">
+        <v>598.2000122070312</v>
+      </c>
+      <c r="L1088" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="inlineStr">
+        <is>
+          <t>PRAJIND.NS</t>
+        </is>
+      </c>
+      <c r="B1089" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="C1089" t="n">
+        <v>650.5</v>
+      </c>
+      <c r="D1089" t="n">
+        <v>609.1500244140625</v>
+      </c>
+      <c r="E1089" t="n">
+        <v>630.4000244140625</v>
+      </c>
+      <c r="F1089" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1089" t="n">
+        <v>650.5</v>
+      </c>
+      <c r="H1089" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1089" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1089" t="n">
+        <v>711.7000122070312</v>
+      </c>
+      <c r="K1089" t="n">
+        <v>598.2000122070312</v>
+      </c>
+      <c r="L1089" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="inlineStr">
+        <is>
+          <t>UGARSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="B1090" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C1090" t="n">
+        <v>85</v>
+      </c>
+      <c r="D1090" t="n">
+        <v>66.34999847412109</v>
+      </c>
+      <c r="E1090" t="n">
+        <v>79.90000152587891</v>
+      </c>
+      <c r="F1090" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1090" t="n">
+        <v>85</v>
+      </c>
+      <c r="H1090" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1090" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1090" t="n">
+        <v>89.90000152587891</v>
+      </c>
+      <c r="K1090" t="n">
+        <v>76.80000305175781</v>
+      </c>
+      <c r="L1090" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="inlineStr">
+        <is>
+          <t>GMRINFRA.NS</t>
+        </is>
+      </c>
+      <c r="B1091" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C1091" t="n">
+        <v>94.34999847412109</v>
+      </c>
+      <c r="D1091" t="n">
+        <v>84.55000305175781</v>
+      </c>
+      <c r="E1091" t="n">
+        <v>88.34999847412109</v>
+      </c>
+      <c r="F1091" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1091" t="n">
+        <v>94.34999847412109</v>
+      </c>
+      <c r="H1091" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1091" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1091" t="n">
+        <v>94.55000305175781</v>
+      </c>
+      <c r="K1091" t="n">
+        <v>88.94999694824219</v>
+      </c>
+      <c r="L1091" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="inlineStr">
+        <is>
+          <t>GMRINFRA.NS</t>
+        </is>
+      </c>
+      <c r="B1092" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="C1092" t="n">
+        <v>92.40000152587891</v>
+      </c>
+      <c r="D1092" t="n">
+        <v>80.55000305175781</v>
+      </c>
+      <c r="E1092" t="n">
+        <v>90.75</v>
+      </c>
+      <c r="F1092" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1092" t="n">
+        <v>92.40000152587891</v>
+      </c>
+      <c r="H1092" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1092" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1092" t="n">
+        <v>94.55000305175781</v>
+      </c>
+      <c r="K1092" t="n">
+        <v>88.94999694824219</v>
+      </c>
+      <c r="L1092" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="inlineStr">
+        <is>
+          <t>PETRONET.NS</t>
+        </is>
+      </c>
+      <c r="B1093" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C1093" t="n">
+        <v>323.1499938964844</v>
+      </c>
+      <c r="D1093" t="n">
+        <v>303.6499938964844</v>
+      </c>
+      <c r="E1093" t="n">
+        <v>313.7999877929688</v>
+      </c>
+      <c r="F1093" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1093" t="n">
+        <v>323.1499938964844</v>
+      </c>
+      <c r="H1093" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1093" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1093" t="n">
+        <v>327.8500061035156</v>
+      </c>
+      <c r="K1093" t="n">
+        <v>317.7000122070312</v>
+      </c>
+      <c r="L1093" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="inlineStr">
+        <is>
+          <t>MAHLOG.NS</t>
+        </is>
+      </c>
+      <c r="B1094" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="C1094" t="n">
+        <v>460</v>
+      </c>
+      <c r="D1094" t="n">
+        <v>435</v>
+      </c>
+      <c r="E1094" t="n">
+        <v>437.9500122070312</v>
+      </c>
+      <c r="F1094" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1094" t="n">
+        <v>460</v>
+      </c>
+      <c r="H1094" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1094" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1094" t="n">
+        <v>480</v>
+      </c>
+      <c r="K1094" t="n">
+        <v>458.25</v>
+      </c>
+      <c r="L1094" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="inlineStr">
+        <is>
+          <t>MAHEPC.NS</t>
+        </is>
+      </c>
+      <c r="B1095" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C1095" t="n">
+        <v>162.8000030517578</v>
+      </c>
+      <c r="D1095" t="n">
+        <v>142.6000061035156</v>
+      </c>
+      <c r="E1095" t="n">
+        <v>143.75</v>
+      </c>
+      <c r="F1095" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1095" t="n">
+        <v>162.8000030517578</v>
+      </c>
+      <c r="H1095" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1095" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1095" t="n">
+        <v>179.6499938964844</v>
+      </c>
+      <c r="K1095" t="n">
+        <v>138.9499969482422</v>
+      </c>
+      <c r="L1095" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="inlineStr">
+        <is>
+          <t>MAHEPC.NS</t>
+        </is>
+      </c>
+      <c r="B1096" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C1096" t="n">
+        <v>154</v>
+      </c>
+      <c r="D1096" t="n">
+        <v>130.6000061035156</v>
+      </c>
+      <c r="E1096" t="n">
+        <v>137.6499938964844</v>
+      </c>
+      <c r="F1096" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1096" t="n">
+        <v>154</v>
+      </c>
+      <c r="H1096" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1096" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1096" t="n">
+        <v>179.6499938964844</v>
+      </c>
+      <c r="K1096" t="n">
+        <v>138.9499969482422</v>
+      </c>
+      <c r="L1096" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="inlineStr">
+        <is>
+          <t>GUJGASLTD.NS</t>
+        </is>
+      </c>
+      <c r="B1097" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C1097" t="n">
+        <v>620</v>
+      </c>
+      <c r="D1097" t="n">
+        <v>566.0499877929688</v>
+      </c>
+      <c r="E1097" t="n">
+        <v>582.9000244140625</v>
+      </c>
+      <c r="F1097" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1097" t="n">
+        <v>620</v>
+      </c>
+      <c r="H1097" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1097" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1097" t="n">
+        <v>648.9500122070312</v>
+      </c>
+      <c r="K1097" t="n">
+        <v>590</v>
+      </c>
+      <c r="L1097" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="inlineStr">
+        <is>
+          <t>IGL.NS</t>
+        </is>
+      </c>
+      <c r="B1098" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C1098" t="n">
+        <v>486.5499877929688</v>
+      </c>
+      <c r="D1098" t="n">
+        <v>455.9500122070312</v>
+      </c>
+      <c r="E1098" t="n">
+        <v>481.75</v>
+      </c>
+      <c r="F1098" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1098" t="n">
+        <v>486.5499877929688</v>
+      </c>
+      <c r="H1098" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1098" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1098" t="n">
+        <v>490.4500122070312</v>
+      </c>
+      <c r="K1098" t="n">
+        <v>474</v>
+      </c>
+      <c r="L1098" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="inlineStr">
+        <is>
+          <t>IGL.NS</t>
+        </is>
+      </c>
+      <c r="B1099" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="C1099" t="n">
+        <v>489</v>
+      </c>
+      <c r="D1099" t="n">
+        <v>432.1499938964844</v>
+      </c>
+      <c r="E1099" t="n">
+        <v>436.2000122070312</v>
+      </c>
+      <c r="F1099" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1099" t="n">
+        <v>489</v>
+      </c>
+      <c r="H1099" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1099" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1099" t="n">
+        <v>490.4500122070312</v>
+      </c>
+      <c r="K1099" t="n">
+        <v>474</v>
+      </c>
+      <c r="L1099" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="inlineStr">
+        <is>
+          <t>SWARAJENG.NS</t>
+        </is>
+      </c>
+      <c r="B1100" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C1100" t="n">
+        <v>2649.949951171875</v>
+      </c>
+      <c r="D1100" t="n">
+        <v>2310.5</v>
+      </c>
+      <c r="E1100" t="n">
+        <v>2541.050048828125</v>
+      </c>
+      <c r="F1100" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1100" t="n">
+        <v>2649.949951171875</v>
+      </c>
+      <c r="H1100" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1100" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1100" t="n">
+        <v>2816</v>
+      </c>
+      <c r="K1100" t="n">
+        <v>2557.64990234375</v>
+      </c>
+      <c r="L1100" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="inlineStr">
+        <is>
+          <t>VOLTAS.NS</t>
+        </is>
+      </c>
+      <c r="B1101" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="C1101" t="n">
+        <v>1502.300048828125</v>
+      </c>
+      <c r="D1101" t="n">
+        <v>1262</v>
+      </c>
+      <c r="E1101" t="n">
+        <v>1287.550048828125</v>
+      </c>
+      <c r="F1101" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1101" t="n">
+        <v>1502.300048828125</v>
+      </c>
+      <c r="H1101" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1101" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1101" t="n">
+        <v>1511.949951171875</v>
+      </c>
+      <c r="K1101" t="n">
+        <v>1478.199951171875</v>
+      </c>
+      <c r="L1101" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="inlineStr">
+        <is>
+          <t>HATHWAY.NS</t>
+        </is>
+      </c>
+      <c r="B1102" s="2" t="n">
+        <v>45201</v>
+      </c>
+      <c r="C1102" t="n">
+        <v>22.29999923706055</v>
+      </c>
+      <c r="D1102" t="n">
+        <v>19.89999961853027</v>
+      </c>
+      <c r="E1102" t="n">
+        <v>20.60000038146973</v>
+      </c>
+      <c r="F1102" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1102" t="n">
+        <v>22.29999923706055</v>
+      </c>
+      <c r="H1102" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1102" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1102" t="n">
+        <v>22.67000007629395</v>
+      </c>
+      <c r="K1102" t="n">
+        <v>21.29999923706055</v>
+      </c>
+      <c r="L1102" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="inlineStr">
+        <is>
+          <t>ARTSONEN.BO</t>
+        </is>
+      </c>
+      <c r="B1103" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="C1103" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="D1103" t="n">
+        <v>144</v>
+      </c>
+      <c r="E1103" t="n">
+        <v>181.0500030517578</v>
+      </c>
+      <c r="F1103" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1103" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="H1103" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1103" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1103" t="n">
+        <v>199</v>
+      </c>
+      <c r="K1103" t="n">
+        <v>185</v>
+      </c>
+      <c r="L1103" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="inlineStr">
+        <is>
+          <t>INDHOTEL.NS</t>
+        </is>
+      </c>
+      <c r="B1104" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C1104" t="n">
+        <v>602.75</v>
+      </c>
+      <c r="D1104" t="n">
+        <v>535.0999755859375</v>
+      </c>
+      <c r="E1104" t="n">
+        <v>594.5</v>
+      </c>
+      <c r="F1104" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1104" t="n">
+        <v>602.75</v>
+      </c>
+      <c r="H1104" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1104" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1104" t="n">
+        <v>615.5999755859375</v>
+      </c>
+      <c r="K1104" t="n">
+        <v>593.4500122070312</v>
+      </c>
+      <c r="L1104" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="inlineStr">
+        <is>
+          <t>OFSS.NS</t>
+        </is>
+      </c>
+      <c r="B1105" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C1105" t="n">
+        <v>9023</v>
+      </c>
+      <c r="D1105" t="n">
+        <v>8702</v>
+      </c>
+      <c r="E1105" t="n">
+        <v>8775.4501953125</v>
+      </c>
+      <c r="F1105" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1105" t="n">
+        <v>9023</v>
+      </c>
+      <c r="H1105" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1105" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1105" t="n">
+        <v>9793.5</v>
+      </c>
+      <c r="K1105" t="n">
+        <v>8507.650390625</v>
+      </c>
+      <c r="L1105" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="inlineStr">
+        <is>
+          <t>ACGL.BO</t>
+        </is>
+      </c>
+      <c r="B1106" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="C1106" t="n">
+        <v>2300</v>
+      </c>
+      <c r="D1106" t="n">
+        <v>2103.64990234375</v>
+      </c>
+      <c r="E1106" t="n">
+        <v>2190.699951171875</v>
+      </c>
+      <c r="F1106" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1106" t="n">
+        <v>2300</v>
+      </c>
+      <c r="H1106" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1106" t="inlineStr">
+        <is>
+          <t>11-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1106" t="n">
+        <v>2470</v>
+      </c>
+      <c r="K1106" t="n">
+        <v>2098.800048828125</v>
+      </c>
+      <c r="L1106" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="inlineStr">
+        <is>
+          <t>APLAPOLLO.NS</t>
+        </is>
+      </c>
+      <c r="B1107" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C1107" t="n">
+        <v>1660</v>
+      </c>
+      <c r="D1107" t="n">
+        <v>1440</v>
+      </c>
+      <c r="E1107" t="n">
+        <v>1474.699951171875</v>
+      </c>
+      <c r="F1107" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1107" t="n">
+        <v>1660</v>
+      </c>
+      <c r="H1107" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1107" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1107" t="n">
+        <v>1667.5</v>
+      </c>
+      <c r="K1107" t="n">
+        <v>1631.5</v>
+      </c>
+      <c r="L1107" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="inlineStr">
+        <is>
+          <t>SCHNEIDER.NS</t>
+        </is>
+      </c>
+      <c r="B1108" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C1108" t="n">
+        <v>857.8499755859375</v>
+      </c>
+      <c r="D1108" t="n">
+        <v>765</v>
+      </c>
+      <c r="E1108" t="n">
+        <v>787.25</v>
+      </c>
+      <c r="F1108" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1108" t="n">
+        <v>857.8499755859375</v>
+      </c>
+      <c r="H1108" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1108" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1108" t="n">
+        <v>862.4500122070312</v>
+      </c>
+      <c r="K1108" t="n">
+        <v>745.0499877929688</v>
+      </c>
+      <c r="L1108" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="inlineStr">
+        <is>
+          <t>DBL.NS</t>
+        </is>
+      </c>
+      <c r="B1109" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C1109" t="n">
+        <v>504.5</v>
+      </c>
+      <c r="D1109" t="n">
+        <v>436.3500061035156</v>
+      </c>
+      <c r="E1109" t="n">
+        <v>458.1499938964844</v>
+      </c>
+      <c r="F1109" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1109" t="n">
+        <v>504.5</v>
+      </c>
+      <c r="H1109" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1109" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1109" t="n">
+        <v>514.5</v>
+      </c>
+      <c r="K1109" t="n">
+        <v>445.6000061035156</v>
+      </c>
+      <c r="L1109" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="inlineStr">
+        <is>
+          <t>DBL.NS</t>
+        </is>
+      </c>
+      <c r="B1110" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C1110" t="n">
+        <v>502.2000122070312</v>
+      </c>
+      <c r="D1110" t="n">
+        <v>455.7000122070312</v>
+      </c>
+      <c r="E1110" t="n">
+        <v>457.4500122070312</v>
+      </c>
+      <c r="F1110" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1110" t="n">
+        <v>502.2000122070312</v>
+      </c>
+      <c r="H1110" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1110" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1110" t="n">
+        <v>514.5</v>
+      </c>
+      <c r="K1110" t="n">
+        <v>445.6000061035156</v>
+      </c>
+      <c r="L1110" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="inlineStr">
+        <is>
+          <t>TATACHEM.NS</t>
+        </is>
+      </c>
+      <c r="B1111" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C1111" t="n">
+        <v>1110.849975585938</v>
+      </c>
+      <c r="D1111" t="n">
+        <v>1070.5</v>
+      </c>
+      <c r="E1111" t="n">
+        <v>1085.300048828125</v>
+      </c>
+      <c r="F1111" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1111" t="n">
+        <v>1110.849975585938</v>
+      </c>
+      <c r="H1111" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1111" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1111" t="n">
+        <v>1135</v>
+      </c>
+      <c r="K1111" t="n">
+        <v>1068</v>
+      </c>
+      <c r="L1111" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="inlineStr">
+        <is>
+          <t>JISLJALEQS.NS</t>
+        </is>
+      </c>
+      <c r="B1112" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C1112" t="n">
+        <v>69.80000305175781</v>
+      </c>
+      <c r="D1112" t="n">
+        <v>61.59999847412109</v>
+      </c>
+      <c r="E1112" t="n">
+        <v>65.90000152587891</v>
+      </c>
+      <c r="F1112" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1112" t="n">
+        <v>69.80000305175781</v>
+      </c>
+      <c r="H1112" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1112" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1112" t="n">
+        <v>79.51000213623047</v>
+      </c>
+      <c r="K1112" t="n">
+        <v>67.69999694824219</v>
+      </c>
+      <c r="L1112" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="inlineStr">
+        <is>
+          <t>JISLJALEQS.NS</t>
+        </is>
+      </c>
+      <c r="B1113" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="C1113" t="n">
+        <v>73.44999694824219</v>
+      </c>
+      <c r="D1113" t="n">
+        <v>67.05000305175781</v>
+      </c>
+      <c r="E1113" t="n">
+        <v>71.19999694824219</v>
+      </c>
+      <c r="F1113" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1113" t="n">
+        <v>73.44999694824219</v>
+      </c>
+      <c r="H1113" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1113" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1113" t="n">
+        <v>79.51000213623047</v>
+      </c>
+      <c r="K1113" t="n">
+        <v>67.69999694824219</v>
+      </c>
+      <c r="L1113" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="inlineStr">
+        <is>
+          <t>JISLJALEQS.NS</t>
+        </is>
+      </c>
+      <c r="B1114" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C1114" t="n">
+        <v>68.59999847412109</v>
+      </c>
+      <c r="D1114" t="n">
+        <v>61.65000152587891</v>
+      </c>
+      <c r="E1114" t="n">
+        <v>66.05000305175781</v>
+      </c>
+      <c r="F1114" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1114" t="n">
+        <v>68.59999847412109</v>
+      </c>
+      <c r="H1114" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1114" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1114" t="n">
+        <v>79.51000213623047</v>
+      </c>
+      <c r="K1114" t="n">
+        <v>67.69999694824219</v>
+      </c>
+      <c r="L1114" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="inlineStr">
+        <is>
+          <t>TARC.NS</t>
+        </is>
+      </c>
+      <c r="B1115" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="C1115" t="n">
+        <v>184.8999938964844</v>
+      </c>
+      <c r="D1115" t="n">
+        <v>137.3999938964844</v>
+      </c>
+      <c r="E1115" t="n">
+        <v>178.5500030517578</v>
+      </c>
+      <c r="F1115" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1115" t="n">
+        <v>184.8999938964844</v>
+      </c>
+      <c r="H1115" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1115" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1115" t="n">
+        <v>201</v>
+      </c>
+      <c r="K1115" t="n">
+        <v>177</v>
+      </c>
+      <c r="L1115" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B1116" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="C1116" t="n">
+        <v>527.7999877929688</v>
+      </c>
+      <c r="D1116" t="n">
+        <v>472.3999938964844</v>
+      </c>
+      <c r="E1116" t="n">
+        <v>513</v>
+      </c>
+      <c r="F1116" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1116" t="n">
+        <v>527.7999877929688</v>
+      </c>
+      <c r="H1116" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1116" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1116" t="n">
+        <v>633.9000244140625</v>
+      </c>
+      <c r="K1116" t="n">
+        <v>495</v>
+      </c>
+      <c r="L1116" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B1117" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C1117" t="n">
+        <v>522.2000122070312</v>
+      </c>
+      <c r="D1117" t="n">
+        <v>464</v>
+      </c>
+      <c r="E1117" t="n">
+        <v>491.9500122070312</v>
+      </c>
+      <c r="F1117" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1117" t="n">
+        <v>522.2000122070312</v>
+      </c>
+      <c r="H1117" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1117" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1117" t="n">
+        <v>633.9000244140625</v>
+      </c>
+      <c r="K1117" t="n">
+        <v>495</v>
+      </c>
+      <c r="L1117" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B1118" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C1118" t="n">
+        <v>527</v>
+      </c>
+      <c r="D1118" t="n">
+        <v>476.2000122070312</v>
+      </c>
+      <c r="E1118" t="n">
+        <v>479.3999938964844</v>
+      </c>
+      <c r="F1118" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1118" t="n">
+        <v>527</v>
+      </c>
+      <c r="H1118" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1118" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1118" t="n">
+        <v>633.9000244140625</v>
+      </c>
+      <c r="K1118" t="n">
+        <v>495</v>
+      </c>
+      <c r="L1118" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B1119" s="2" t="n">
+        <v>45145</v>
+      </c>
+      <c r="C1119" t="n">
+        <v>464.9500122070312</v>
+      </c>
+      <c r="D1119" t="n">
+        <v>416.1499938964844</v>
+      </c>
+      <c r="E1119" t="n">
+        <v>444.0499877929688</v>
+      </c>
+      <c r="F1119" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G1119" t="n">
+        <v>416.1499938964844</v>
+      </c>
+      <c r="H1119" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1119" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1119" t="n">
+        <v>402.7999877929688</v>
+      </c>
+      <c r="K1119" t="n">
+        <v>441.8500061035156</v>
+      </c>
+      <c r="L1119" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B1120" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="C1120" t="n">
+        <v>457.1000061035156</v>
+      </c>
+      <c r="D1120" t="n">
+        <v>425</v>
+      </c>
+      <c r="E1120" t="n">
+        <v>444.6000061035156</v>
+      </c>
+      <c r="F1120" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G1120" t="n">
+        <v>425</v>
+      </c>
+      <c r="H1120" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1120" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1120" t="n">
+        <v>402.7999877929688</v>
+      </c>
+      <c r="K1120" t="n">
+        <v>441.8500061035156</v>
+      </c>
+      <c r="L1120" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B1121" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="C1121" t="n">
+        <v>480.9500122070312</v>
+      </c>
+      <c r="D1121" t="n">
+        <v>413.4500122070312</v>
+      </c>
+      <c r="E1121" t="n">
+        <v>450.75</v>
+      </c>
+      <c r="F1121" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G1121" t="n">
+        <v>413.4500122070312</v>
+      </c>
+      <c r="H1121" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1121" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1121" t="n">
+        <v>402.7999877929688</v>
+      </c>
+      <c r="K1121" t="n">
+        <v>441.8500061035156</v>
+      </c>
+      <c r="L1121" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B1122" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C1122" t="n">
+        <v>961</v>
+      </c>
+      <c r="D1122" t="n">
+        <v>912.2999877929688</v>
+      </c>
+      <c r="E1122" t="n">
+        <v>935.25</v>
+      </c>
+      <c r="F1122" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1122" t="n">
+        <v>961</v>
+      </c>
+      <c r="H1122" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1122" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1122" t="n">
+        <v>999.6500244140625</v>
+      </c>
+      <c r="K1122" t="n">
+        <v>947.2999877929688</v>
+      </c>
+      <c r="L1122" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="inlineStr">
+        <is>
+          <t>PREMEXPLN.NS</t>
+        </is>
+      </c>
+      <c r="B1123" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C1123" t="n">
+        <v>2780</v>
+      </c>
+      <c r="D1123" t="n">
+        <v>2326.64990234375</v>
+      </c>
+      <c r="E1123" t="n">
+        <v>2431.25</v>
+      </c>
+      <c r="F1123" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1123" t="n">
+        <v>2780</v>
+      </c>
+      <c r="H1123" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1123" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1123" t="n">
+        <v>3660</v>
+      </c>
+      <c r="K1123" t="n">
+        <v>2688</v>
+      </c>
+      <c r="L1123" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="inlineStr">
+        <is>
+          <t>M&amp;MFIN.NS</t>
+        </is>
+      </c>
+      <c r="B1124" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="C1124" t="n">
+        <v>296</v>
+      </c>
+      <c r="D1124" t="n">
+        <v>267.4500122070312</v>
+      </c>
+      <c r="E1124" t="n">
+        <v>286.7000122070312</v>
+      </c>
+      <c r="F1124" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1124" t="n">
+        <v>296</v>
+      </c>
+      <c r="H1124" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1124" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1124" t="n">
+        <v>300</v>
+      </c>
+      <c r="K1124" t="n">
+        <v>283.1000061035156</v>
+      </c>
+      <c r="L1124" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="inlineStr">
+        <is>
+          <t>ASMTEC.BO</t>
+        </is>
+      </c>
+      <c r="B1125" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C1125" t="n">
+        <v>1118</v>
+      </c>
+      <c r="D1125" t="n">
+        <v>954</v>
+      </c>
+      <c r="E1125" t="n">
+        <v>989.3499755859375</v>
+      </c>
+      <c r="F1125" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1125" t="n">
+        <v>1118</v>
+      </c>
+      <c r="H1125" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1125" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1125" t="n">
+        <v>1149.949951171875</v>
+      </c>
+      <c r="K1125" t="n">
+        <v>1100.400024414062</v>
+      </c>
+      <c r="L1125" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="inlineStr">
+        <is>
+          <t>MICEL.NS</t>
+        </is>
+      </c>
+      <c r="B1126" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C1126" t="n">
+        <v>53.65000152587891</v>
+      </c>
+      <c r="D1126" t="n">
+        <v>44.29999923706055</v>
+      </c>
+      <c r="E1126" t="n">
+        <v>48.25</v>
+      </c>
+      <c r="F1126" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1126" t="n">
+        <v>53.65000152587891</v>
+      </c>
+      <c r="H1126" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1126" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1126" t="n">
+        <v>54.81999969482422</v>
+      </c>
+      <c r="K1126" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="L1126" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="inlineStr">
+        <is>
+          <t>TATACOMM.NS</t>
+        </is>
+      </c>
+      <c r="B1127" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="C1127" t="n">
+        <v>1842</v>
+      </c>
+      <c r="D1127" t="n">
+        <v>1688.050048828125</v>
+      </c>
+      <c r="E1127" t="n">
+        <v>1730.150024414062</v>
+      </c>
+      <c r="F1127" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1127" t="n">
+        <v>1842</v>
+      </c>
+      <c r="H1127" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1127" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1127" t="n">
+        <v>1926</v>
+      </c>
+      <c r="K1127" t="n">
+        <v>1821.400024414062</v>
+      </c>
+      <c r="L1127" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="inlineStr">
+        <is>
+          <t>AMBER.NS</t>
+        </is>
+      </c>
+      <c r="B1128" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="C1128" t="n">
+        <v>4147.9501953125</v>
+      </c>
+      <c r="D1128" t="n">
+        <v>3781.5</v>
+      </c>
+      <c r="E1128" t="n">
+        <v>3803.25</v>
+      </c>
+      <c r="F1128" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1128" t="n">
+        <v>4147.9501953125</v>
+      </c>
+      <c r="H1128" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1128" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1128" t="n">
+        <v>4211.89990234375</v>
+      </c>
+      <c r="K1128" t="n">
+        <v>3800</v>
+      </c>
+      <c r="L1128" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="inlineStr">
+        <is>
+          <t>IEX.NS</t>
+        </is>
+      </c>
+      <c r="B1129" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="C1129" t="n">
+        <v>173.3500061035156</v>
+      </c>
+      <c r="D1129" t="n">
+        <v>162.0500030517578</v>
+      </c>
+      <c r="E1129" t="n">
+        <v>164.1999969482422</v>
+      </c>
+      <c r="F1129" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1129" t="n">
+        <v>173.3500061035156</v>
+      </c>
+      <c r="H1129" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1129" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1129" t="n">
+        <v>182.5500030517578</v>
+      </c>
+      <c r="K1129" t="n">
+        <v>167.5</v>
+      </c>
+      <c r="L1129" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B1130" s="2" t="n">
+        <v>44158</v>
+      </c>
+      <c r="C1130" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1130" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1130" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1130" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1130" t="n">
+        <v>12</v>
+      </c>
+      <c r="H1130" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1130" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1130" t="n">
+        <v>144.3300018310547</v>
+      </c>
+      <c r="K1130" t="n">
+        <v>9.989999771118164</v>
+      </c>
+      <c r="L1130" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B1131" s="2" t="n">
+        <v>44200</v>
+      </c>
+      <c r="C1131" t="n">
+        <v>12.52000045776367</v>
+      </c>
+      <c r="D1131" t="n">
+        <v>10.82999992370605</v>
+      </c>
+      <c r="E1131" t="n">
+        <v>11.35999965667725</v>
+      </c>
+      <c r="F1131" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1131" t="n">
+        <v>12.52000045776367</v>
+      </c>
+      <c r="H1131" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1131" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1131" t="n">
+        <v>144.3300018310547</v>
+      </c>
+      <c r="K1131" t="n">
+        <v>9.989999771118164</v>
+      </c>
+      <c r="L1131" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B1132" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="C1132" t="n">
+        <v>10.97000026702881</v>
+      </c>
+      <c r="D1132" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1132" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1132" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1132" t="n">
+        <v>10.97000026702881</v>
+      </c>
+      <c r="H1132" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1132" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1132" t="n">
+        <v>144.3300018310547</v>
+      </c>
+      <c r="K1132" t="n">
+        <v>9.989999771118164</v>
+      </c>
+      <c r="L1132" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="inlineStr">
+        <is>
+          <t>DCXINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B1133" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C1133" t="n">
+        <v>351</v>
+      </c>
+      <c r="D1133" t="n">
+        <v>333.1000061035156</v>
+      </c>
+      <c r="E1133" t="n">
+        <v>339.6000061035156</v>
+      </c>
+      <c r="F1133" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1133" t="n">
+        <v>351</v>
+      </c>
+      <c r="H1133" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1133" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1133" t="n">
+        <v>366.8999938964844</v>
+      </c>
+      <c r="K1133" t="n">
+        <v>321.9500122070312</v>
+      </c>
+      <c r="L1133" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="inlineStr">
+        <is>
+          <t>JKPAPER.NS</t>
+        </is>
+      </c>
+      <c r="B1134" s="2" t="n">
+        <v>44914</v>
+      </c>
+      <c r="C1134" t="n">
+        <v>453.2000122070312</v>
+      </c>
+      <c r="D1134" t="n">
+        <v>370</v>
+      </c>
+      <c r="E1134" t="n">
+        <v>372.8999938964844</v>
+      </c>
+      <c r="F1134" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1134" t="n">
+        <v>453.2000122070312</v>
+      </c>
+      <c r="H1134" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1134" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1134" t="n">
+        <v>498</v>
+      </c>
+      <c r="K1134" t="n">
+        <v>407.5499877929688</v>
+      </c>
+      <c r="L1134" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="inlineStr">
+        <is>
+          <t>JKPAPER.NS</t>
+        </is>
+      </c>
+      <c r="B1135" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="C1135" t="n">
+        <v>415.2999877929688</v>
+      </c>
+      <c r="D1135" t="n">
+        <v>391</v>
+      </c>
+      <c r="E1135" t="n">
+        <v>400.25</v>
+      </c>
+      <c r="F1135" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1135" t="n">
+        <v>415.2999877929688</v>
+      </c>
+      <c r="H1135" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1135" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1135" t="n">
+        <v>498</v>
+      </c>
+      <c r="K1135" t="n">
+        <v>407.5499877929688</v>
+      </c>
+      <c r="L1135" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="inlineStr">
+        <is>
+          <t>JKPAPER.NS</t>
+        </is>
+      </c>
+      <c r="B1136" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C1136" t="n">
+        <v>452</v>
+      </c>
+      <c r="D1136" t="n">
+        <v>415.0499877929688</v>
+      </c>
+      <c r="E1136" t="n">
+        <v>417.2999877929688</v>
+      </c>
+      <c r="F1136" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1136" t="n">
+        <v>452</v>
+      </c>
+      <c r="H1136" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1136" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1136" t="n">
+        <v>498</v>
+      </c>
+      <c r="K1136" t="n">
+        <v>407.5499877929688</v>
+      </c>
+      <c r="L1136" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="inlineStr">
+        <is>
+          <t>ZENTEC.NS</t>
+        </is>
+      </c>
+      <c r="B1137" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C1137" t="n">
+        <v>1130</v>
+      </c>
+      <c r="D1137" t="n">
+        <v>1026.050048828125</v>
+      </c>
+      <c r="E1137" t="n">
+        <v>1088.300048828125</v>
+      </c>
+      <c r="F1137" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1137" t="n">
+        <v>1130</v>
+      </c>
+      <c r="H1137" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1137" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1137" t="n">
+        <v>1132.599975585938</v>
+      </c>
+      <c r="K1137" t="n">
+        <v>1013</v>
+      </c>
+      <c r="L1137" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="inlineStr">
+        <is>
+          <t>DECCANCE.NS</t>
+        </is>
+      </c>
+      <c r="B1138" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C1138" t="n">
+        <v>668.4500122070312</v>
+      </c>
+      <c r="D1138" t="n">
+        <v>619.2000122070312</v>
+      </c>
+      <c r="E1138" t="n">
+        <v>635.7999877929688</v>
+      </c>
+      <c r="F1138" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1138" t="n">
+        <v>668.4500122070312</v>
+      </c>
+      <c r="H1138" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1138" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1138" t="n">
+        <v>723.5</v>
+      </c>
+      <c r="K1138" t="n">
+        <v>627.5999755859375</v>
+      </c>
+      <c r="L1138" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="inlineStr">
+        <is>
+          <t>DECCANCE.NS</t>
+        </is>
+      </c>
+      <c r="B1139" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="C1139" t="n">
+        <v>647</v>
+      </c>
+      <c r="D1139" t="n">
+        <v>612</v>
+      </c>
+      <c r="E1139" t="n">
+        <v>635</v>
+      </c>
+      <c r="F1139" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1139" t="n">
+        <v>647</v>
+      </c>
+      <c r="H1139" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1139" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1139" t="n">
+        <v>723.5</v>
+      </c>
+      <c r="K1139" t="n">
+        <v>627.5999755859375</v>
+      </c>
+      <c r="L1139" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="inlineStr">
+        <is>
+          <t>ANDHRAPAP.NS</t>
+        </is>
+      </c>
+      <c r="B1140" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C1140" t="n">
+        <v>544.0999755859375</v>
+      </c>
+      <c r="D1140" t="n">
+        <v>525</v>
+      </c>
+      <c r="E1140" t="n">
+        <v>528.5</v>
+      </c>
+      <c r="F1140" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1140" t="n">
+        <v>544.0999755859375</v>
+      </c>
+      <c r="H1140" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1140" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1140" t="n">
+        <v>576.1500244140625</v>
+      </c>
+      <c r="K1140" t="n">
+        <v>514.75</v>
+      </c>
+      <c r="L1140" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="inlineStr">
+        <is>
+          <t>CRANEINFRA.BO</t>
+        </is>
+      </c>
+      <c r="B1141" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C1141" t="n">
+        <v>30.84000015258789</v>
+      </c>
+      <c r="D1141" t="n">
+        <v>25.27000045776367</v>
+      </c>
+      <c r="E1141" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="F1141" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1141" t="n">
+        <v>30.84000015258789</v>
+      </c>
+      <c r="H1141" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1141" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1141" t="n">
+        <v>31.3700008392334</v>
+      </c>
+      <c r="K1141" t="n">
+        <v>22.40999984741211</v>
+      </c>
+      <c r="L1141" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="inlineStr">
+        <is>
+          <t>ANJANIFOODS.BO</t>
+        </is>
+      </c>
+      <c r="B1142" s="2" t="n">
+        <v>44900</v>
+      </c>
+      <c r="C1142" t="n">
+        <v>36.29999923706055</v>
+      </c>
+      <c r="D1142" t="n">
+        <v>29.29999923706055</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>33.15000152587891</v>
+      </c>
+      <c r="F1142" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1142" t="n">
+        <v>36.29999923706055</v>
+      </c>
+      <c r="H1142" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1142" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1142" t="n">
+        <v>52.40999984741211</v>
+      </c>
+      <c r="K1142" t="n">
+        <v>31.88999938964844</v>
+      </c>
+      <c r="L1142" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="inlineStr">
+        <is>
+          <t>ANJANIFOODS.BO</t>
+        </is>
+      </c>
+      <c r="B1143" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C1143" t="n">
+        <v>31.95000076293945</v>
+      </c>
+      <c r="D1143" t="n">
+        <v>27.71999931335449</v>
+      </c>
+      <c r="E1143" t="n">
+        <v>29.20999908447266</v>
+      </c>
+      <c r="F1143" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1143" t="n">
+        <v>31.95000076293945</v>
+      </c>
+      <c r="H1143" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1143" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1143" t="n">
+        <v>52.40999984741211</v>
+      </c>
+      <c r="K1143" t="n">
+        <v>31.88999938964844</v>
+      </c>
+      <c r="L1143" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="inlineStr">
+        <is>
+          <t>ANJANIFOODS.BO</t>
+        </is>
+      </c>
+      <c r="B1144" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="C1144" t="n">
+        <v>43.77999877929688</v>
+      </c>
+      <c r="D1144" t="n">
+        <v>37.83000183105469</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>41.41999816894531</v>
+      </c>
+      <c r="F1144" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1144" t="n">
+        <v>43.77999877929688</v>
+      </c>
+      <c r="H1144" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1144" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1144" t="n">
+        <v>52.40999984741211</v>
+      </c>
+      <c r="K1144" t="n">
+        <v>31.88999938964844</v>
+      </c>
+      <c r="L1144" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="inlineStr">
+        <is>
+          <t>ALKALI.NS</t>
+        </is>
+      </c>
+      <c r="B1145" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C1145" t="n">
+        <v>124</v>
+      </c>
+      <c r="D1145" t="n">
+        <v>103</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>122.9499969482422</v>
+      </c>
+      <c r="F1145" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1145" t="n">
+        <v>124</v>
+      </c>
+      <c r="H1145" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1145" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1145" t="n">
+        <v>130.3099975585938</v>
+      </c>
+      <c r="K1145" t="n">
+        <v>116.25</v>
+      </c>
+      <c r="L1145" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="inlineStr">
+        <is>
+          <t>AMIORG.NS</t>
+        </is>
+      </c>
+      <c r="B1146" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C1146" t="n">
+        <v>1296.5</v>
+      </c>
+      <c r="D1146" t="n">
+        <v>1147</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>1220.800048828125</v>
+      </c>
+      <c r="F1146" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1146" t="n">
+        <v>1296.5</v>
+      </c>
+      <c r="H1146" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1146" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1146" t="n">
+        <v>1355</v>
+      </c>
+      <c r="K1146" t="n">
+        <v>1248</v>
+      </c>
+      <c r="L1146" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="inlineStr">
+        <is>
+          <t>SASTASUNDR.NS</t>
+        </is>
+      </c>
+      <c r="B1147" s="2" t="n">
+        <v>45089</v>
+      </c>
+      <c r="C1147" t="n">
+        <v>314.7999877929688</v>
+      </c>
+      <c r="D1147" t="n">
+        <v>285.1499938964844</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>289.4500122070312</v>
+      </c>
+      <c r="F1147" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1147" t="n">
+        <v>314.7999877929688</v>
+      </c>
+      <c r="H1147" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1147" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1147" t="n">
+        <v>378</v>
+      </c>
+      <c r="K1147" t="n">
+        <v>314.0499877929688</v>
+      </c>
+      <c r="L1147" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>SASTASUNDR.NS</t>
+        </is>
+      </c>
+      <c r="B1148" s="2" t="n">
+        <v>45152</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>334.75</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>280.25</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>315.75</v>
+      </c>
+      <c r="F1148" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1148" t="n">
+        <v>334.75</v>
+      </c>
+      <c r="H1148" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1148" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1148" t="n">
+        <v>378</v>
+      </c>
+      <c r="K1148" t="n">
+        <v>314.0499877929688</v>
+      </c>
+      <c r="L1148" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="inlineStr">
+        <is>
+          <t>AGARIND.NS</t>
+        </is>
+      </c>
+      <c r="B1149" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>1099</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>1009.299987792969</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>1038.699951171875</v>
+      </c>
+      <c r="F1149" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1149" t="n">
+        <v>1099</v>
+      </c>
+      <c r="H1149" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1149" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1149" t="n">
+        <v>1180</v>
+      </c>
+      <c r="K1149" t="n">
+        <v>950</v>
+      </c>
+      <c r="L1149" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr">
+        <is>
+          <t>AGARIND.NS</t>
+        </is>
+      </c>
+      <c r="B1150" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>1032.400024414062</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>939</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>970.2000122070312</v>
+      </c>
+      <c r="F1150" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1150" t="n">
+        <v>1032.400024414062</v>
+      </c>
+      <c r="H1150" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1150" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1150" t="n">
+        <v>1180</v>
+      </c>
+      <c r="K1150" t="n">
+        <v>950</v>
+      </c>
+      <c r="L1150" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="inlineStr">
+        <is>
+          <t>AGARIND.NS</t>
+        </is>
+      </c>
+      <c r="B1151" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>1155</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>1001.25</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>1096.150024414062</v>
+      </c>
+      <c r="F1151" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1151" t="n">
+        <v>1155</v>
+      </c>
+      <c r="H1151" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1151" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1151" t="n">
+        <v>1180</v>
+      </c>
+      <c r="K1151" t="n">
+        <v>950</v>
+      </c>
+      <c r="L1151" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="inlineStr">
+        <is>
+          <t>ANDHRSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="B1152" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>124.75</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>116.1999969482422</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>121.8000030517578</v>
+      </c>
+      <c r="F1152" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1152" t="n">
+        <v>124.75</v>
+      </c>
+      <c r="H1152" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1152" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1152" t="n">
+        <v>128.9900054931641</v>
+      </c>
+      <c r="K1152" t="n">
+        <v>109.75</v>
+      </c>
+      <c r="L1152" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="inlineStr">
+        <is>
+          <t>ANDHRSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="B1153" s="2" t="n">
+        <v>45194</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>128.6499938964844</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>116.25</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>118.6500015258789</v>
+      </c>
+      <c r="F1153" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1153" t="n">
+        <v>128.6499938964844</v>
+      </c>
+      <c r="H1153" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1153" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1153" t="n">
+        <v>128.9900054931641</v>
+      </c>
+      <c r="K1153" t="n">
+        <v>109.75</v>
+      </c>
+      <c r="L1153" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="inlineStr">
+        <is>
+          <t>ANDHRSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="B1154" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>119.5500030517578</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>110.0500030517578</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>111.25</v>
+      </c>
+      <c r="F1154" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1154" t="n">
+        <v>119.5500030517578</v>
+      </c>
+      <c r="H1154" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1154" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1154" t="n">
+        <v>128.9900054931641</v>
+      </c>
+      <c r="K1154" t="n">
+        <v>109.75</v>
+      </c>
+      <c r="L1154" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="inlineStr">
+        <is>
+          <t>LEMONTREE.NS</t>
+        </is>
+      </c>
+      <c r="B1155" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>147.25</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>134.1000061035156</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>141.6999969482422</v>
+      </c>
+      <c r="F1155" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1155" t="n">
+        <v>147.25</v>
+      </c>
+      <c r="H1155" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1155" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1155" t="n">
+        <v>150.9499969482422</v>
+      </c>
+      <c r="K1155" t="n">
+        <v>143.8000030517578</v>
+      </c>
+      <c r="L1155" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="inlineStr">
+        <is>
+          <t>ANDHRAPET.BO</t>
+        </is>
+      </c>
+      <c r="B1156" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>115.9499969482422</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>102</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>104</v>
+      </c>
+      <c r="F1156" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1156" t="n">
+        <v>115.9499969482422</v>
+      </c>
+      <c r="H1156" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1156" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1156" t="n">
+        <v>126.9000015258789</v>
+      </c>
+      <c r="K1156" t="n">
+        <v>111</v>
+      </c>
+      <c r="L1156" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="inlineStr">
+        <is>
+          <t>FAZE3Q.NS</t>
+        </is>
+      </c>
+      <c r="B1157" s="2" t="n">
+        <v>45117</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>436.9500122070312</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>362</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>411.4500122070312</v>
+      </c>
+      <c r="F1157" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1157" t="n">
+        <v>436.9500122070312</v>
+      </c>
+      <c r="H1157" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1157" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1157" t="n">
+        <v>454.5</v>
+      </c>
+      <c r="K1157" t="n">
+        <v>412</v>
+      </c>
+      <c r="L1157" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="inlineStr">
+        <is>
+          <t>SKYGOLD.NS</t>
+        </is>
+      </c>
+      <c r="B1158" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>1299.349975585938</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>1096.099975585938</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>1179.25</v>
+      </c>
+      <c r="F1158" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1158" t="n">
+        <v>1299.349975585938</v>
+      </c>
+      <c r="H1158" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1158" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1158" t="n">
+        <v>1337.400024414062</v>
+      </c>
+      <c r="K1158" t="n">
+        <v>1275</v>
+      </c>
+      <c r="L1158" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="inlineStr">
+        <is>
+          <t>SKYGOLD.NS</t>
+        </is>
+      </c>
+      <c r="B1159" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>1288</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>1140</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>1162.699951171875</v>
+      </c>
+      <c r="F1159" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1159" t="n">
+        <v>1288</v>
+      </c>
+      <c r="H1159" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1159" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1159" t="n">
+        <v>1337.400024414062</v>
+      </c>
+      <c r="K1159" t="n">
+        <v>1275</v>
+      </c>
+      <c r="L1159" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t>DHABRIYA.BO</t>
+        </is>
+      </c>
+      <c r="B1160" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>315</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>281.2999877929688</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>291.7000122070312</v>
+      </c>
+      <c r="F1160" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1160" t="n">
+        <v>315</v>
+      </c>
+      <c r="H1160" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1160" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1160" t="n">
+        <v>349.9500122070312</v>
+      </c>
+      <c r="K1160" t="n">
+        <v>300</v>
+      </c>
+      <c r="L1160" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>MANINDS.NS</t>
+        </is>
+      </c>
+      <c r="B1161" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>435</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>394.6000061035156</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>420.1000061035156</v>
+      </c>
+      <c r="F1161" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1161" t="n">
+        <v>435</v>
+      </c>
+      <c r="H1161" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1161" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1161" t="n">
+        <v>439.7999877929688</v>
+      </c>
+      <c r="K1161" t="n">
+        <v>375.7999877929688</v>
+      </c>
+      <c r="L1161" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="inlineStr">
+        <is>
+          <t>HFCL.NS</t>
+        </is>
+      </c>
+      <c r="B1162" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>117.8000030517578</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>102.0999984741211</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>108.4000015258789</v>
+      </c>
+      <c r="F1162" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1162" t="n">
+        <v>117.8000030517578</v>
+      </c>
+      <c r="H1162" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1162" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1162" t="n">
+        <v>120.3000030517578</v>
+      </c>
+      <c r="K1162" t="n">
+        <v>108.0999984741211</v>
+      </c>
+      <c r="L1162" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="inlineStr">
+        <is>
+          <t>STOVEKRAFT.NS</t>
+        </is>
+      </c>
+      <c r="B1163" s="2" t="n">
+        <v>45075</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>507.3999938964844</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>421</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>437.8999938964844</v>
+      </c>
+      <c r="F1163" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1163" t="n">
+        <v>507.3999938964844</v>
+      </c>
+      <c r="H1163" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1163" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1163" t="n">
+        <v>550</v>
+      </c>
+      <c r="K1163" t="n">
+        <v>498.9500122070312</v>
+      </c>
+      <c r="L1163" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="inlineStr">
+        <is>
+          <t>STOVEKRAFT.NS</t>
+        </is>
+      </c>
+      <c r="B1164" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>515</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>480</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>500.2000122070312</v>
+      </c>
+      <c r="F1164" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1164" t="n">
+        <v>515</v>
+      </c>
+      <c r="H1164" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1164" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1164" t="n">
+        <v>550</v>
+      </c>
+      <c r="K1164" t="n">
+        <v>498.9500122070312</v>
+      </c>
+      <c r="L1164" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="inlineStr">
+        <is>
+          <t>GRAVITA.NS</t>
+        </is>
+      </c>
+      <c r="B1165" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>1166</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>1120.550048828125</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>1138.099975585938</v>
+      </c>
+      <c r="F1165" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1165" t="n">
+        <v>1166</v>
+      </c>
+      <c r="H1165" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1165" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1165" t="n">
+        <v>1350</v>
+      </c>
+      <c r="K1165" t="n">
+        <v>1145.5</v>
+      </c>
+      <c r="L1165" t="inlineStr">
+        <is>
+          <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -16784,7 +16784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J139"/>
+  <dimension ref="A1:J146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22637,6 +22637,300 @@
       <c r="J139" t="inlineStr">
         <is>
           <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>45456.63541666666</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>BAJAJ-AUTO.NS</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45453.38541666666</v>
+      </c>
+      <c r="F140" t="n">
+        <v>9921.5498046875</v>
+      </c>
+      <c r="G140" s="2" t="n">
+        <v>45455.46875</v>
+      </c>
+      <c r="H140" t="n">
+        <v>9944</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>17/06/2024 04:47:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>45447.59375</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>IOC.NS</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45436.51041666666</v>
+      </c>
+      <c r="F141" t="n">
+        <v>170.4499969482422</v>
+      </c>
+      <c r="G141" s="2" t="n">
+        <v>45439.59375</v>
+      </c>
+      <c r="H141" t="n">
+        <v>170.4499969482422</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>17/06/2024 04:47:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>45456.42708333334</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>ZOMATO.NS</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45441.42708333334</v>
+      </c>
+      <c r="F142" t="n">
+        <v>185.3999938964844</v>
+      </c>
+      <c r="G142" s="2" t="n">
+        <v>45454.55208333334</v>
+      </c>
+      <c r="H142" t="n">
+        <v>186</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>17/06/2024 04:47:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>45442.38541666666</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>SANGHVIMOV.NS</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45434.38541666666</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1097.5</v>
+      </c>
+      <c r="G143" s="2" t="n">
+        <v>45440.51041666666</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1096.150024414062</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>17/06/2024 04:47:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>45447.59375</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>THOMASCOOK.NS</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45441.55208333334</v>
+      </c>
+      <c r="F144" t="n">
+        <v>216.3999938964844</v>
+      </c>
+      <c r="G144" s="2" t="n">
+        <v>45446.42708333334</v>
+      </c>
+      <c r="H144" t="n">
+        <v>216.1999969482422</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>17/06/2024 04:47:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>45456.55208333334</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>HLEGLAS.NS</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45453.42708333334</v>
+      </c>
+      <c r="F145" t="n">
+        <v>449.5499877929688</v>
+      </c>
+      <c r="G145" s="2" t="n">
+        <v>45455.38541666666</v>
+      </c>
+      <c r="H145" t="n">
+        <v>448.75</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>17/06/2024 04:47:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>45439.46875</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>FAZE3Q.NS</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45435.55208333334</v>
+      </c>
+      <c r="F146" t="n">
+        <v>438.5</v>
+      </c>
+      <c r="G146" s="2" t="n">
+        <v>45435.59375</v>
+      </c>
+      <c r="H146" t="n">
+        <v>438.5</v>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>17/06/2024 04:47:06</t>
         </is>
       </c>
     </row>
@@ -22651,7 +22945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1165"/>
+  <dimension ref="A1:L1170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78593,6 +78887,246 @@
         </is>
       </c>
     </row>
+    <row r="1166">
+      <c r="A1166" t="inlineStr">
+        <is>
+          <t>INDUSTOWER.NS</t>
+        </is>
+      </c>
+      <c r="B1166" s="2" t="n">
+        <v>45442.38541666666</v>
+      </c>
+      <c r="C1166" t="n">
+        <v>343.5499877929688</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>339.1499938964844</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>340.6499938964844</v>
+      </c>
+      <c r="F1166" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G1166" t="n">
+        <v>339.1499938964844</v>
+      </c>
+      <c r="H1166" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1166" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J1166" t="n">
+        <v>338.5</v>
+      </c>
+      <c r="K1166" t="n">
+        <v>339.4500122070312</v>
+      </c>
+      <c r="L1166" t="inlineStr">
+        <is>
+          <t>17/06/2024 04:47:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="inlineStr">
+        <is>
+          <t>BEML.NS</t>
+        </is>
+      </c>
+      <c r="B1167" s="2" t="n">
+        <v>45446.55208333334</v>
+      </c>
+      <c r="C1167" t="n">
+        <v>4756.60009765625</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>4682</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>4689.25</v>
+      </c>
+      <c r="F1167" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1167" t="n">
+        <v>4756.60009765625</v>
+      </c>
+      <c r="H1167" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1167" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J1167" t="n">
+        <v>4783.7001953125</v>
+      </c>
+      <c r="K1167" t="n">
+        <v>4737.64990234375</v>
+      </c>
+      <c r="L1167" t="inlineStr">
+        <is>
+          <t>17/06/2024 04:47:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="inlineStr">
+        <is>
+          <t>KOLTEPATIL.NS</t>
+        </is>
+      </c>
+      <c r="B1168" s="2" t="n">
+        <v>45450.46875</v>
+      </c>
+      <c r="C1168" t="n">
+        <v>447.75</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>435.0499877929688</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>445.8999938964844</v>
+      </c>
+      <c r="F1168" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G1168" t="n">
+        <v>435.0499877929688</v>
+      </c>
+      <c r="H1168" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1168" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J1168" t="n">
+        <v>435</v>
+      </c>
+      <c r="K1168" t="n">
+        <v>450</v>
+      </c>
+      <c r="L1168" t="inlineStr">
+        <is>
+          <t>17/06/2024 04:47:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="inlineStr">
+        <is>
+          <t>TATACOMM.NS</t>
+        </is>
+      </c>
+      <c r="B1169" s="2" t="n">
+        <v>45456.46875</v>
+      </c>
+      <c r="C1169" t="n">
+        <v>1894.400024414062</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>1865</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>1877</v>
+      </c>
+      <c r="F1169" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G1169" t="n">
+        <v>1865</v>
+      </c>
+      <c r="H1169" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1169" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J1169" t="n">
+        <v>1861.949951171875</v>
+      </c>
+      <c r="K1169" t="n">
+        <v>1866.550048828125</v>
+      </c>
+      <c r="L1169" t="inlineStr">
+        <is>
+          <t>17/06/2024 04:47:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="inlineStr">
+        <is>
+          <t>GENESYS.NS</t>
+        </is>
+      </c>
+      <c r="B1170" s="2" t="n">
+        <v>45449.38541666666</v>
+      </c>
+      <c r="C1170" t="n">
+        <v>517.4000244140625</v>
+      </c>
+      <c r="D1170" t="n">
+        <v>474</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>505.9500122070312</v>
+      </c>
+      <c r="F1170" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1170" t="n">
+        <v>517.4000244140625</v>
+      </c>
+      <c r="H1170" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1170" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J1170" t="n">
+        <v>517.7999877929688</v>
+      </c>
+      <c r="K1170" t="n">
+        <v>516.75</v>
+      </c>
+      <c r="L1170" t="inlineStr">
+        <is>
+          <t>17/06/2024 04:47:06</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -16784,7 +16784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J146"/>
+  <dimension ref="A1:J153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22931,6 +22931,300 @@
       <c r="J146" t="inlineStr">
         <is>
           <t>17/06/2024 04:47:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>45456.63541666666</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>BAJAJ-AUTO.NS</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45453.38541666666</v>
+      </c>
+      <c r="F147" t="n">
+        <v>9921.5498046875</v>
+      </c>
+      <c r="G147" s="2" t="n">
+        <v>45455.46875</v>
+      </c>
+      <c r="H147" t="n">
+        <v>9944</v>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>17/06/2024 05:45:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>45447.59375</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>IOC.NS</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45436.51041666666</v>
+      </c>
+      <c r="F148" t="n">
+        <v>170.4499969482422</v>
+      </c>
+      <c r="G148" s="2" t="n">
+        <v>45439.59375</v>
+      </c>
+      <c r="H148" t="n">
+        <v>170.4499969482422</v>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>17/06/2024 05:45:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>45456.42708333334</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>ZOMATO.NS</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45441.42708333334</v>
+      </c>
+      <c r="F149" t="n">
+        <v>185.3999938964844</v>
+      </c>
+      <c r="G149" s="2" t="n">
+        <v>45454.55208333334</v>
+      </c>
+      <c r="H149" t="n">
+        <v>186</v>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>17/06/2024 05:45:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>45442.38541666666</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>SANGHVIMOV.NS</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45434.38541666666</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1097.5</v>
+      </c>
+      <c r="G150" s="2" t="n">
+        <v>45440.51041666666</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1096.150024414062</v>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>17/06/2024 05:45:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>45447.59375</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>THOMASCOOK.NS</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45441.55208333334</v>
+      </c>
+      <c r="F151" t="n">
+        <v>216.3999938964844</v>
+      </c>
+      <c r="G151" s="2" t="n">
+        <v>45446.42708333334</v>
+      </c>
+      <c r="H151" t="n">
+        <v>216.1999969482422</v>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>17/06/2024 05:45:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>45456.55208333334</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>HLEGLAS.NS</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45453.42708333334</v>
+      </c>
+      <c r="F152" t="n">
+        <v>449.5499877929688</v>
+      </c>
+      <c r="G152" s="2" t="n">
+        <v>45455.38541666666</v>
+      </c>
+      <c r="H152" t="n">
+        <v>448.75</v>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>17/06/2024 05:45:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>45439.46875</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>FAZE3Q.NS</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45435.55208333334</v>
+      </c>
+      <c r="F153" t="n">
+        <v>438.5</v>
+      </c>
+      <c r="G153" s="2" t="n">
+        <v>45435.59375</v>
+      </c>
+      <c r="H153" t="n">
+        <v>438.5</v>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>17/06/2024 05:45:53</t>
         </is>
       </c>
     </row>
@@ -22945,7 +23239,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1170"/>
+  <dimension ref="A1:L1175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79127,6 +79421,246 @@
         </is>
       </c>
     </row>
+    <row r="1171">
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>INDUSTOWER.NS</t>
+        </is>
+      </c>
+      <c r="B1171" s="2" t="n">
+        <v>45442.38541666666</v>
+      </c>
+      <c r="C1171" t="n">
+        <v>343.5499877929688</v>
+      </c>
+      <c r="D1171" t="n">
+        <v>339.1499938964844</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>340.6499938964844</v>
+      </c>
+      <c r="F1171" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G1171" t="n">
+        <v>339.1499938964844</v>
+      </c>
+      <c r="H1171" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1171" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J1171" t="n">
+        <v>338.5</v>
+      </c>
+      <c r="K1171" t="n">
+        <v>339.4500122070312</v>
+      </c>
+      <c r="L1171" t="inlineStr">
+        <is>
+          <t>17/06/2024 05:45:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t>BEML.NS</t>
+        </is>
+      </c>
+      <c r="B1172" s="2" t="n">
+        <v>45446.55208333334</v>
+      </c>
+      <c r="C1172" t="n">
+        <v>4756.60009765625</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>4682</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>4689.25</v>
+      </c>
+      <c r="F1172" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1172" t="n">
+        <v>4756.60009765625</v>
+      </c>
+      <c r="H1172" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1172" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J1172" t="n">
+        <v>4783.7001953125</v>
+      </c>
+      <c r="K1172" t="n">
+        <v>4737.64990234375</v>
+      </c>
+      <c r="L1172" t="inlineStr">
+        <is>
+          <t>17/06/2024 05:45:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="inlineStr">
+        <is>
+          <t>KOLTEPATIL.NS</t>
+        </is>
+      </c>
+      <c r="B1173" s="2" t="n">
+        <v>45450.46875</v>
+      </c>
+      <c r="C1173" t="n">
+        <v>447.75</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>435.0499877929688</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>445.8999938964844</v>
+      </c>
+      <c r="F1173" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G1173" t="n">
+        <v>435.0499877929688</v>
+      </c>
+      <c r="H1173" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1173" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J1173" t="n">
+        <v>435</v>
+      </c>
+      <c r="K1173" t="n">
+        <v>450</v>
+      </c>
+      <c r="L1173" t="inlineStr">
+        <is>
+          <t>17/06/2024 05:45:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="inlineStr">
+        <is>
+          <t>TATACOMM.NS</t>
+        </is>
+      </c>
+      <c r="B1174" s="2" t="n">
+        <v>45456.46875</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>1894.400024414062</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>1865</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>1877</v>
+      </c>
+      <c r="F1174" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G1174" t="n">
+        <v>1865</v>
+      </c>
+      <c r="H1174" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1174" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J1174" t="n">
+        <v>1861.949951171875</v>
+      </c>
+      <c r="K1174" t="n">
+        <v>1866.550048828125</v>
+      </c>
+      <c r="L1174" t="inlineStr">
+        <is>
+          <t>17/06/2024 05:45:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="inlineStr">
+        <is>
+          <t>GENESYS.NS</t>
+        </is>
+      </c>
+      <c r="B1175" s="2" t="n">
+        <v>45449.38541666666</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>517.4000244140625</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>474</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>505.9500122070312</v>
+      </c>
+      <c r="F1175" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1175" t="n">
+        <v>517.4000244140625</v>
+      </c>
+      <c r="H1175" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1175" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J1175" t="n">
+        <v>517.7999877929688</v>
+      </c>
+      <c r="K1175" t="n">
+        <v>516.75</v>
+      </c>
+      <c r="L1175" t="inlineStr">
+        <is>
+          <t>17/06/2024 05:45:53</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -16784,7 +16784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J153"/>
+  <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23225,6 +23225,300 @@
       <c r="J153" t="inlineStr">
         <is>
           <t>17/06/2024 05:45:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>45456.63541666666</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>BAJAJ-AUTO.NS</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45453.38541666666</v>
+      </c>
+      <c r="F154" t="n">
+        <v>9921.5498046875</v>
+      </c>
+      <c r="G154" s="2" t="n">
+        <v>45455.46875</v>
+      </c>
+      <c r="H154" t="n">
+        <v>9944</v>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>17/06/2024 06:46:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>45447.59375</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>IOC.NS</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45436.51041666666</v>
+      </c>
+      <c r="F155" t="n">
+        <v>170.4499969482422</v>
+      </c>
+      <c r="G155" s="2" t="n">
+        <v>45439.59375</v>
+      </c>
+      <c r="H155" t="n">
+        <v>170.4499969482422</v>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>17/06/2024 06:46:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>45456.42708333334</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>ZOMATO.NS</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45441.42708333334</v>
+      </c>
+      <c r="F156" t="n">
+        <v>185.3999938964844</v>
+      </c>
+      <c r="G156" s="2" t="n">
+        <v>45454.55208333334</v>
+      </c>
+      <c r="H156" t="n">
+        <v>186</v>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>17/06/2024 06:46:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>45442.38541666666</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>SANGHVIMOV.NS</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45434.38541666666</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1097.5</v>
+      </c>
+      <c r="G157" s="2" t="n">
+        <v>45440.51041666666</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1096.150024414062</v>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>17/06/2024 06:46:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>45447.59375</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>THOMASCOOK.NS</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45441.55208333334</v>
+      </c>
+      <c r="F158" t="n">
+        <v>216.3999938964844</v>
+      </c>
+      <c r="G158" s="2" t="n">
+        <v>45446.42708333334</v>
+      </c>
+      <c r="H158" t="n">
+        <v>216.1999969482422</v>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>17/06/2024 06:46:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>45456.55208333334</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>HLEGLAS.NS</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45453.42708333334</v>
+      </c>
+      <c r="F159" t="n">
+        <v>449.5499877929688</v>
+      </c>
+      <c r="G159" s="2" t="n">
+        <v>45455.38541666666</v>
+      </c>
+      <c r="H159" t="n">
+        <v>448.75</v>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>17/06/2024 06:46:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>45439.46875</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>FAZE3Q.NS</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>45435.55208333334</v>
+      </c>
+      <c r="F160" t="n">
+        <v>438.5</v>
+      </c>
+      <c r="G160" s="2" t="n">
+        <v>45435.59375</v>
+      </c>
+      <c r="H160" t="n">
+        <v>438.5</v>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>17/06/2024 06:46:57</t>
         </is>
       </c>
     </row>
@@ -23239,7 +23533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1175"/>
+  <dimension ref="A1:L1180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79661,6 +79955,246 @@
         </is>
       </c>
     </row>
+    <row r="1176">
+      <c r="A1176" t="inlineStr">
+        <is>
+          <t>INDUSTOWER.NS</t>
+        </is>
+      </c>
+      <c r="B1176" s="2" t="n">
+        <v>45442.38541666666</v>
+      </c>
+      <c r="C1176" t="n">
+        <v>343.5499877929688</v>
+      </c>
+      <c r="D1176" t="n">
+        <v>339.1499938964844</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>340.6499938964844</v>
+      </c>
+      <c r="F1176" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G1176" t="n">
+        <v>339.1499938964844</v>
+      </c>
+      <c r="H1176" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1176" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J1176" t="n">
+        <v>338.5</v>
+      </c>
+      <c r="K1176" t="n">
+        <v>339.4500122070312</v>
+      </c>
+      <c r="L1176" t="inlineStr">
+        <is>
+          <t>17/06/2024 06:46:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="inlineStr">
+        <is>
+          <t>BEML.NS</t>
+        </is>
+      </c>
+      <c r="B1177" s="2" t="n">
+        <v>45446.55208333334</v>
+      </c>
+      <c r="C1177" t="n">
+        <v>4756.60009765625</v>
+      </c>
+      <c r="D1177" t="n">
+        <v>4682</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>4689.25</v>
+      </c>
+      <c r="F1177" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1177" t="n">
+        <v>4756.60009765625</v>
+      </c>
+      <c r="H1177" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1177" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J1177" t="n">
+        <v>4783.7001953125</v>
+      </c>
+      <c r="K1177" t="n">
+        <v>4737.64990234375</v>
+      </c>
+      <c r="L1177" t="inlineStr">
+        <is>
+          <t>17/06/2024 06:46:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="inlineStr">
+        <is>
+          <t>KOLTEPATIL.NS</t>
+        </is>
+      </c>
+      <c r="B1178" s="2" t="n">
+        <v>45450.46875</v>
+      </c>
+      <c r="C1178" t="n">
+        <v>447.75</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>435.0499877929688</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>445.8999938964844</v>
+      </c>
+      <c r="F1178" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G1178" t="n">
+        <v>435.0499877929688</v>
+      </c>
+      <c r="H1178" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1178" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J1178" t="n">
+        <v>435</v>
+      </c>
+      <c r="K1178" t="n">
+        <v>450</v>
+      </c>
+      <c r="L1178" t="inlineStr">
+        <is>
+          <t>17/06/2024 06:46:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="inlineStr">
+        <is>
+          <t>TATACOMM.NS</t>
+        </is>
+      </c>
+      <c r="B1179" s="2" t="n">
+        <v>45456.46875</v>
+      </c>
+      <c r="C1179" t="n">
+        <v>1894.400024414062</v>
+      </c>
+      <c r="D1179" t="n">
+        <v>1865</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>1877</v>
+      </c>
+      <c r="F1179" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G1179" t="n">
+        <v>1865</v>
+      </c>
+      <c r="H1179" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1179" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J1179" t="n">
+        <v>1861.949951171875</v>
+      </c>
+      <c r="K1179" t="n">
+        <v>1866.550048828125</v>
+      </c>
+      <c r="L1179" t="inlineStr">
+        <is>
+          <t>17/06/2024 06:46:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="inlineStr">
+        <is>
+          <t>GENESYS.NS</t>
+        </is>
+      </c>
+      <c r="B1180" s="2" t="n">
+        <v>45449.38541666666</v>
+      </c>
+      <c r="C1180" t="n">
+        <v>517.4000244140625</v>
+      </c>
+      <c r="D1180" t="n">
+        <v>474</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>505.9500122070312</v>
+      </c>
+      <c r="F1180" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1180" t="n">
+        <v>517.4000244140625</v>
+      </c>
+      <c r="H1180" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1180" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J1180" t="n">
+        <v>517.7999877929688</v>
+      </c>
+      <c r="K1180" t="n">
+        <v>516.75</v>
+      </c>
+      <c r="L1180" t="inlineStr">
+        <is>
+          <t>17/06/2024 06:46:57</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -16784,7 +16784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J160"/>
+  <dimension ref="A1:J167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23519,6 +23519,300 @@
       <c r="J160" t="inlineStr">
         <is>
           <t>17/06/2024 06:46:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>45456.63541666666</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>BAJAJ-AUTO.NS</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>45453.38541666666</v>
+      </c>
+      <c r="F161" t="n">
+        <v>9921.5498046875</v>
+      </c>
+      <c r="G161" s="2" t="n">
+        <v>45455.46875</v>
+      </c>
+      <c r="H161" t="n">
+        <v>9944</v>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>17/06/2024 07:46:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>45447.59375</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>IOC.NS</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45436.51041666666</v>
+      </c>
+      <c r="F162" t="n">
+        <v>170.4499969482422</v>
+      </c>
+      <c r="G162" s="2" t="n">
+        <v>45439.59375</v>
+      </c>
+      <c r="H162" t="n">
+        <v>170.4499969482422</v>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>17/06/2024 07:46:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>45456.42708333334</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>ZOMATO.NS</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45441.42708333334</v>
+      </c>
+      <c r="F163" t="n">
+        <v>185.3999938964844</v>
+      </c>
+      <c r="G163" s="2" t="n">
+        <v>45454.55208333334</v>
+      </c>
+      <c r="H163" t="n">
+        <v>186</v>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>17/06/2024 07:46:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>45442.38541666666</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>SANGHVIMOV.NS</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>45434.38541666666</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1097.5</v>
+      </c>
+      <c r="G164" s="2" t="n">
+        <v>45440.51041666666</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1096.150024414062</v>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>17/06/2024 07:46:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>45447.59375</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>THOMASCOOK.NS</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>45441.55208333334</v>
+      </c>
+      <c r="F165" t="n">
+        <v>216.3999938964844</v>
+      </c>
+      <c r="G165" s="2" t="n">
+        <v>45446.42708333334</v>
+      </c>
+      <c r="H165" t="n">
+        <v>216.1999969482422</v>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>17/06/2024 07:46:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>45456.55208333334</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>HLEGLAS.NS</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>45453.42708333334</v>
+      </c>
+      <c r="F166" t="n">
+        <v>449.5499877929688</v>
+      </c>
+      <c r="G166" s="2" t="n">
+        <v>45455.38541666666</v>
+      </c>
+      <c r="H166" t="n">
+        <v>448.75</v>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>17/06/2024 07:46:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>45439.46875</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>FAZE3Q.NS</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>45435.55208333334</v>
+      </c>
+      <c r="F167" t="n">
+        <v>438.5</v>
+      </c>
+      <c r="G167" s="2" t="n">
+        <v>45435.59375</v>
+      </c>
+      <c r="H167" t="n">
+        <v>438.5</v>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>17/06/2024 07:46:53</t>
         </is>
       </c>
     </row>
@@ -23533,7 +23827,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1180"/>
+  <dimension ref="A1:L1185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80195,6 +80489,246 @@
         </is>
       </c>
     </row>
+    <row r="1181">
+      <c r="A1181" t="inlineStr">
+        <is>
+          <t>INDUSTOWER.NS</t>
+        </is>
+      </c>
+      <c r="B1181" s="2" t="n">
+        <v>45442.38541666666</v>
+      </c>
+      <c r="C1181" t="n">
+        <v>343.5499877929688</v>
+      </c>
+      <c r="D1181" t="n">
+        <v>339.1499938964844</v>
+      </c>
+      <c r="E1181" t="n">
+        <v>340.6499938964844</v>
+      </c>
+      <c r="F1181" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G1181" t="n">
+        <v>339.1499938964844</v>
+      </c>
+      <c r="H1181" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1181" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J1181" t="n">
+        <v>338.5</v>
+      </c>
+      <c r="K1181" t="n">
+        <v>339.4500122070312</v>
+      </c>
+      <c r="L1181" t="inlineStr">
+        <is>
+          <t>17/06/2024 07:46:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="inlineStr">
+        <is>
+          <t>BEML.NS</t>
+        </is>
+      </c>
+      <c r="B1182" s="2" t="n">
+        <v>45446.55208333334</v>
+      </c>
+      <c r="C1182" t="n">
+        <v>4756.60009765625</v>
+      </c>
+      <c r="D1182" t="n">
+        <v>4682</v>
+      </c>
+      <c r="E1182" t="n">
+        <v>4689.25</v>
+      </c>
+      <c r="F1182" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1182" t="n">
+        <v>4756.60009765625</v>
+      </c>
+      <c r="H1182" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1182" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J1182" t="n">
+        <v>4783.7001953125</v>
+      </c>
+      <c r="K1182" t="n">
+        <v>4737.64990234375</v>
+      </c>
+      <c r="L1182" t="inlineStr">
+        <is>
+          <t>17/06/2024 07:46:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="inlineStr">
+        <is>
+          <t>KOLTEPATIL.NS</t>
+        </is>
+      </c>
+      <c r="B1183" s="2" t="n">
+        <v>45450.46875</v>
+      </c>
+      <c r="C1183" t="n">
+        <v>447.75</v>
+      </c>
+      <c r="D1183" t="n">
+        <v>435.0499877929688</v>
+      </c>
+      <c r="E1183" t="n">
+        <v>445.8999938964844</v>
+      </c>
+      <c r="F1183" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G1183" t="n">
+        <v>435.0499877929688</v>
+      </c>
+      <c r="H1183" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1183" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J1183" t="n">
+        <v>435</v>
+      </c>
+      <c r="K1183" t="n">
+        <v>450</v>
+      </c>
+      <c r="L1183" t="inlineStr">
+        <is>
+          <t>17/06/2024 07:46:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="inlineStr">
+        <is>
+          <t>TATACOMM.NS</t>
+        </is>
+      </c>
+      <c r="B1184" s="2" t="n">
+        <v>45456.46875</v>
+      </c>
+      <c r="C1184" t="n">
+        <v>1894.400024414062</v>
+      </c>
+      <c r="D1184" t="n">
+        <v>1865</v>
+      </c>
+      <c r="E1184" t="n">
+        <v>1877</v>
+      </c>
+      <c r="F1184" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G1184" t="n">
+        <v>1865</v>
+      </c>
+      <c r="H1184" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1184" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J1184" t="n">
+        <v>1861.949951171875</v>
+      </c>
+      <c r="K1184" t="n">
+        <v>1866.550048828125</v>
+      </c>
+      <c r="L1184" t="inlineStr">
+        <is>
+          <t>17/06/2024 07:46:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="inlineStr">
+        <is>
+          <t>GENESYS.NS</t>
+        </is>
+      </c>
+      <c r="B1185" s="2" t="n">
+        <v>45449.38541666666</v>
+      </c>
+      <c r="C1185" t="n">
+        <v>517.4000244140625</v>
+      </c>
+      <c r="D1185" t="n">
+        <v>474</v>
+      </c>
+      <c r="E1185" t="n">
+        <v>505.9500122070312</v>
+      </c>
+      <c r="F1185" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1185" t="n">
+        <v>517.4000244140625</v>
+      </c>
+      <c r="H1185" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1185" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J1185" t="n">
+        <v>517.7999877929688</v>
+      </c>
+      <c r="K1185" t="n">
+        <v>516.75</v>
+      </c>
+      <c r="L1185" t="inlineStr">
+        <is>
+          <t>17/06/2024 07:46:53</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -16784,7 +16784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J167"/>
+  <dimension ref="A1:J174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23813,6 +23813,300 @@
       <c r="J167" t="inlineStr">
         <is>
           <t>17/06/2024 07:46:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>45456.63541666666</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>BAJAJ-AUTO.NS</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>45453.38541666666</v>
+      </c>
+      <c r="F168" t="n">
+        <v>9921.5498046875</v>
+      </c>
+      <c r="G168" s="2" t="n">
+        <v>45455.46875</v>
+      </c>
+      <c r="H168" t="n">
+        <v>9944</v>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>17/06/2024 08:48:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>45447.59375</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>IOC.NS</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>45436.51041666666</v>
+      </c>
+      <c r="F169" t="n">
+        <v>170.4499969482422</v>
+      </c>
+      <c r="G169" s="2" t="n">
+        <v>45439.59375</v>
+      </c>
+      <c r="H169" t="n">
+        <v>170.4499969482422</v>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>17/06/2024 08:48:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>45456.42708333334</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>ZOMATO.NS</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>45441.42708333334</v>
+      </c>
+      <c r="F170" t="n">
+        <v>185.3999938964844</v>
+      </c>
+      <c r="G170" s="2" t="n">
+        <v>45454.55208333334</v>
+      </c>
+      <c r="H170" t="n">
+        <v>186</v>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>17/06/2024 08:48:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>45442.38541666666</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>SANGHVIMOV.NS</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>45434.38541666666</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1097.5</v>
+      </c>
+      <c r="G171" s="2" t="n">
+        <v>45440.51041666666</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1096.150024414062</v>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>17/06/2024 08:48:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>45447.59375</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>THOMASCOOK.NS</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>45441.55208333334</v>
+      </c>
+      <c r="F172" t="n">
+        <v>216.3999938964844</v>
+      </c>
+      <c r="G172" s="2" t="n">
+        <v>45446.42708333334</v>
+      </c>
+      <c r="H172" t="n">
+        <v>216.1999969482422</v>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>17/06/2024 08:48:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>45456.55208333334</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>HLEGLAS.NS</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>45453.42708333334</v>
+      </c>
+      <c r="F173" t="n">
+        <v>449.5499877929688</v>
+      </c>
+      <c r="G173" s="2" t="n">
+        <v>45455.38541666666</v>
+      </c>
+      <c r="H173" t="n">
+        <v>448.75</v>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>17/06/2024 08:48:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>45439.46875</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>FAZE3Q.NS</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>45435.55208333334</v>
+      </c>
+      <c r="F174" t="n">
+        <v>438.5</v>
+      </c>
+      <c r="G174" s="2" t="n">
+        <v>45435.59375</v>
+      </c>
+      <c r="H174" t="n">
+        <v>438.5</v>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>17/06/2024 08:48:08</t>
         </is>
       </c>
     </row>
@@ -23827,7 +24121,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1185"/>
+  <dimension ref="A1:L1190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80729,6 +81023,246 @@
         </is>
       </c>
     </row>
+    <row r="1186">
+      <c r="A1186" t="inlineStr">
+        <is>
+          <t>INDUSTOWER.NS</t>
+        </is>
+      </c>
+      <c r="B1186" s="2" t="n">
+        <v>45442.38541666666</v>
+      </c>
+      <c r="C1186" t="n">
+        <v>343.5499877929688</v>
+      </c>
+      <c r="D1186" t="n">
+        <v>339.1499938964844</v>
+      </c>
+      <c r="E1186" t="n">
+        <v>340.6499938964844</v>
+      </c>
+      <c r="F1186" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G1186" t="n">
+        <v>339.1499938964844</v>
+      </c>
+      <c r="H1186" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1186" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J1186" t="n">
+        <v>338.5</v>
+      </c>
+      <c r="K1186" t="n">
+        <v>339.4500122070312</v>
+      </c>
+      <c r="L1186" t="inlineStr">
+        <is>
+          <t>17/06/2024 08:48:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="inlineStr">
+        <is>
+          <t>BEML.NS</t>
+        </is>
+      </c>
+      <c r="B1187" s="2" t="n">
+        <v>45446.55208333334</v>
+      </c>
+      <c r="C1187" t="n">
+        <v>4756.60009765625</v>
+      </c>
+      <c r="D1187" t="n">
+        <v>4682</v>
+      </c>
+      <c r="E1187" t="n">
+        <v>4689.25</v>
+      </c>
+      <c r="F1187" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1187" t="n">
+        <v>4756.60009765625</v>
+      </c>
+      <c r="H1187" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1187" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J1187" t="n">
+        <v>4783.7001953125</v>
+      </c>
+      <c r="K1187" t="n">
+        <v>4737.64990234375</v>
+      </c>
+      <c r="L1187" t="inlineStr">
+        <is>
+          <t>17/06/2024 08:48:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="inlineStr">
+        <is>
+          <t>KOLTEPATIL.NS</t>
+        </is>
+      </c>
+      <c r="B1188" s="2" t="n">
+        <v>45450.46875</v>
+      </c>
+      <c r="C1188" t="n">
+        <v>447.75</v>
+      </c>
+      <c r="D1188" t="n">
+        <v>435.0499877929688</v>
+      </c>
+      <c r="E1188" t="n">
+        <v>445.8999938964844</v>
+      </c>
+      <c r="F1188" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G1188" t="n">
+        <v>435.0499877929688</v>
+      </c>
+      <c r="H1188" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1188" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J1188" t="n">
+        <v>435</v>
+      </c>
+      <c r="K1188" t="n">
+        <v>450</v>
+      </c>
+      <c r="L1188" t="inlineStr">
+        <is>
+          <t>17/06/2024 08:48:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="inlineStr">
+        <is>
+          <t>TATACOMM.NS</t>
+        </is>
+      </c>
+      <c r="B1189" s="2" t="n">
+        <v>45456.46875</v>
+      </c>
+      <c r="C1189" t="n">
+        <v>1894.400024414062</v>
+      </c>
+      <c r="D1189" t="n">
+        <v>1865</v>
+      </c>
+      <c r="E1189" t="n">
+        <v>1877</v>
+      </c>
+      <c r="F1189" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G1189" t="n">
+        <v>1865</v>
+      </c>
+      <c r="H1189" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1189" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J1189" t="n">
+        <v>1861.949951171875</v>
+      </c>
+      <c r="K1189" t="n">
+        <v>1866.550048828125</v>
+      </c>
+      <c r="L1189" t="inlineStr">
+        <is>
+          <t>17/06/2024 08:48:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="inlineStr">
+        <is>
+          <t>GENESYS.NS</t>
+        </is>
+      </c>
+      <c r="B1190" s="2" t="n">
+        <v>45449.38541666666</v>
+      </c>
+      <c r="C1190" t="n">
+        <v>517.4000244140625</v>
+      </c>
+      <c r="D1190" t="n">
+        <v>474</v>
+      </c>
+      <c r="E1190" t="n">
+        <v>505.9500122070312</v>
+      </c>
+      <c r="F1190" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1190" t="n">
+        <v>517.4000244140625</v>
+      </c>
+      <c r="H1190" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1190" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J1190" t="n">
+        <v>517.7999877929688</v>
+      </c>
+      <c r="K1190" t="n">
+        <v>516.75</v>
+      </c>
+      <c r="L1190" t="inlineStr">
+        <is>
+          <t>17/06/2024 08:48:08</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -16784,7 +16784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J174"/>
+  <dimension ref="A1:J181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24107,6 +24107,300 @@
       <c r="J174" t="inlineStr">
         <is>
           <t>17/06/2024 08:48:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>45456.63541666666</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>BAJAJ-AUTO.NS</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>45453.38541666666</v>
+      </c>
+      <c r="F175" t="n">
+        <v>9921.5498046875</v>
+      </c>
+      <c r="G175" s="2" t="n">
+        <v>45455.46875</v>
+      </c>
+      <c r="H175" t="n">
+        <v>9944</v>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>17/06/2024 09:47:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>45447.59375</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>IOC.NS</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>45436.51041666666</v>
+      </c>
+      <c r="F176" t="n">
+        <v>170.4499969482422</v>
+      </c>
+      <c r="G176" s="2" t="n">
+        <v>45439.59375</v>
+      </c>
+      <c r="H176" t="n">
+        <v>170.4499969482422</v>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>17/06/2024 09:47:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>45456.42708333334</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>ZOMATO.NS</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>45441.42708333334</v>
+      </c>
+      <c r="F177" t="n">
+        <v>185.3999938964844</v>
+      </c>
+      <c r="G177" s="2" t="n">
+        <v>45454.55208333334</v>
+      </c>
+      <c r="H177" t="n">
+        <v>186</v>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>17/06/2024 09:47:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>45442.38541666666</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>SANGHVIMOV.NS</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>45434.38541666666</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1097.5</v>
+      </c>
+      <c r="G178" s="2" t="n">
+        <v>45440.51041666666</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1096.150024414062</v>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>17/06/2024 09:47:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>45447.59375</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>THOMASCOOK.NS</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>45441.55208333334</v>
+      </c>
+      <c r="F179" t="n">
+        <v>216.3999938964844</v>
+      </c>
+      <c r="G179" s="2" t="n">
+        <v>45446.42708333334</v>
+      </c>
+      <c r="H179" t="n">
+        <v>216.1999969482422</v>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>17/06/2024 09:47:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>45456.55208333334</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>HLEGLAS.NS</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>45453.42708333334</v>
+      </c>
+      <c r="F180" t="n">
+        <v>449.5499877929688</v>
+      </c>
+      <c r="G180" s="2" t="n">
+        <v>45455.38541666666</v>
+      </c>
+      <c r="H180" t="n">
+        <v>448.75</v>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>17/06/2024 09:47:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>45439.46875</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>FAZE3Q.NS</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>45435.55208333334</v>
+      </c>
+      <c r="F181" t="n">
+        <v>438.5</v>
+      </c>
+      <c r="G181" s="2" t="n">
+        <v>45435.59375</v>
+      </c>
+      <c r="H181" t="n">
+        <v>438.5</v>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>17/06/2024 09:47:10</t>
         </is>
       </c>
     </row>
@@ -24121,7 +24415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1190"/>
+  <dimension ref="A1:L1195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81263,6 +81557,246 @@
         </is>
       </c>
     </row>
+    <row r="1191">
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t>INDUSTOWER.NS</t>
+        </is>
+      </c>
+      <c r="B1191" s="2" t="n">
+        <v>45442.38541666666</v>
+      </c>
+      <c r="C1191" t="n">
+        <v>343.5499877929688</v>
+      </c>
+      <c r="D1191" t="n">
+        <v>339.1499938964844</v>
+      </c>
+      <c r="E1191" t="n">
+        <v>340.6499938964844</v>
+      </c>
+      <c r="F1191" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G1191" t="n">
+        <v>339.1499938964844</v>
+      </c>
+      <c r="H1191" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1191" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J1191" t="n">
+        <v>338.5</v>
+      </c>
+      <c r="K1191" t="n">
+        <v>339.4500122070312</v>
+      </c>
+      <c r="L1191" t="inlineStr">
+        <is>
+          <t>17/06/2024 09:47:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>BEML.NS</t>
+        </is>
+      </c>
+      <c r="B1192" s="2" t="n">
+        <v>45446.55208333334</v>
+      </c>
+      <c r="C1192" t="n">
+        <v>4756.60009765625</v>
+      </c>
+      <c r="D1192" t="n">
+        <v>4682</v>
+      </c>
+      <c r="E1192" t="n">
+        <v>4689.25</v>
+      </c>
+      <c r="F1192" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1192" t="n">
+        <v>4756.60009765625</v>
+      </c>
+      <c r="H1192" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1192" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J1192" t="n">
+        <v>4783.7001953125</v>
+      </c>
+      <c r="K1192" t="n">
+        <v>4737.64990234375</v>
+      </c>
+      <c r="L1192" t="inlineStr">
+        <is>
+          <t>17/06/2024 09:47:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="inlineStr">
+        <is>
+          <t>KOLTEPATIL.NS</t>
+        </is>
+      </c>
+      <c r="B1193" s="2" t="n">
+        <v>45450.46875</v>
+      </c>
+      <c r="C1193" t="n">
+        <v>447.75</v>
+      </c>
+      <c r="D1193" t="n">
+        <v>435.0499877929688</v>
+      </c>
+      <c r="E1193" t="n">
+        <v>445.8999938964844</v>
+      </c>
+      <c r="F1193" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G1193" t="n">
+        <v>435.0499877929688</v>
+      </c>
+      <c r="H1193" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1193" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J1193" t="n">
+        <v>435</v>
+      </c>
+      <c r="K1193" t="n">
+        <v>450</v>
+      </c>
+      <c r="L1193" t="inlineStr">
+        <is>
+          <t>17/06/2024 09:47:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>TATACOMM.NS</t>
+        </is>
+      </c>
+      <c r="B1194" s="2" t="n">
+        <v>45456.46875</v>
+      </c>
+      <c r="C1194" t="n">
+        <v>1894.400024414062</v>
+      </c>
+      <c r="D1194" t="n">
+        <v>1865</v>
+      </c>
+      <c r="E1194" t="n">
+        <v>1877</v>
+      </c>
+      <c r="F1194" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G1194" t="n">
+        <v>1865</v>
+      </c>
+      <c r="H1194" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1194" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J1194" t="n">
+        <v>1861.949951171875</v>
+      </c>
+      <c r="K1194" t="n">
+        <v>1866.550048828125</v>
+      </c>
+      <c r="L1194" t="inlineStr">
+        <is>
+          <t>17/06/2024 09:47:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>GENESYS.NS</t>
+        </is>
+      </c>
+      <c r="B1195" s="2" t="n">
+        <v>45449.38541666666</v>
+      </c>
+      <c r="C1195" t="n">
+        <v>517.4000244140625</v>
+      </c>
+      <c r="D1195" t="n">
+        <v>474</v>
+      </c>
+      <c r="E1195" t="n">
+        <v>505.9500122070312</v>
+      </c>
+      <c r="F1195" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1195" t="n">
+        <v>517.4000244140625</v>
+      </c>
+      <c r="H1195" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1195" t="inlineStr">
+        <is>
+          <t>14-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="J1195" t="n">
+        <v>517.7999877929688</v>
+      </c>
+      <c r="K1195" t="n">
+        <v>516.75</v>
+      </c>
+      <c r="L1195" t="inlineStr">
+        <is>
+          <t>17/06/2024 09:47:10</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L340"/>
+  <dimension ref="A1:L361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16770,6 +16770,1014 @@
       <c r="L340" t="inlineStr">
         <is>
           <t>16/06/2024 11:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>ULTRACEMCO.NS</t>
+        </is>
+      </c>
+      <c r="E341" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="F341" t="n">
+        <v>10526</v>
+      </c>
+      <c r="G341" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="H341" t="n">
+        <v>10277.7001953125</v>
+      </c>
+      <c r="I341" t="n">
+        <v>0</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>JSWSTEEL.NS</t>
+        </is>
+      </c>
+      <c r="E342" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="F342" t="n">
+        <v>895.75</v>
+      </c>
+      <c r="G342" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="H342" t="n">
+        <v>850</v>
+      </c>
+      <c r="I342" t="n">
+        <v>0</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>HDFCLIFE.NS</t>
+        </is>
+      </c>
+      <c r="E343" s="2" t="n">
+        <v>44998</v>
+      </c>
+      <c r="F343" t="n">
+        <v>457.7999877929688</v>
+      </c>
+      <c r="G343" s="2" t="n">
+        <v>45152</v>
+      </c>
+      <c r="H343" t="n">
+        <v>616.75</v>
+      </c>
+      <c r="I343" t="n">
+        <v>0</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>HDFCLIFE.NS</t>
+        </is>
+      </c>
+      <c r="E344" s="2" t="n">
+        <v>44998</v>
+      </c>
+      <c r="F344" t="n">
+        <v>457.7999877929688</v>
+      </c>
+      <c r="G344" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="H344" t="n">
+        <v>561.5499877929688</v>
+      </c>
+      <c r="I344" t="n">
+        <v>0</v>
+      </c>
+      <c r="J344" t="n">
+        <v>0</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>TECHM.NS</t>
+        </is>
+      </c>
+      <c r="E345" s="2" t="n">
+        <v>45187</v>
+      </c>
+      <c r="F345" t="n">
+        <v>1320</v>
+      </c>
+      <c r="G345" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="H345" t="n">
+        <v>1416.300048828125</v>
+      </c>
+      <c r="I345" t="n">
+        <v>0</v>
+      </c>
+      <c r="J345" t="n">
+        <v>0</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>AMBUJACEM.NS</t>
+        </is>
+      </c>
+      <c r="E346" s="2" t="n">
+        <v>44900</v>
+      </c>
+      <c r="F346" t="n">
+        <v>598</v>
+      </c>
+      <c r="G346" s="2" t="n">
+        <v>45089</v>
+      </c>
+      <c r="H346" t="n">
+        <v>468.8999938964844</v>
+      </c>
+      <c r="I346" t="n">
+        <v>0</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>IRB.NS</t>
+        </is>
+      </c>
+      <c r="E347" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="F347" t="n">
+        <v>72</v>
+      </c>
+      <c r="G347" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="H347" t="n">
+        <v>73.09999847412109</v>
+      </c>
+      <c r="I347" t="n">
+        <v>0</v>
+      </c>
+      <c r="J347" t="n">
+        <v>0</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>BANARISUG.NS</t>
+        </is>
+      </c>
+      <c r="E348" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="F348" t="n">
+        <v>2848.85009765625</v>
+      </c>
+      <c r="G348" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="H348" t="n">
+        <v>2732.800048828125</v>
+      </c>
+      <c r="I348" t="n">
+        <v>0</v>
+      </c>
+      <c r="J348" t="n">
+        <v>0</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>BANARISUG.NS</t>
+        </is>
+      </c>
+      <c r="E349" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="F349" t="n">
+        <v>2699.89990234375</v>
+      </c>
+      <c r="G349" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="H349" t="n">
+        <v>2732.800048828125</v>
+      </c>
+      <c r="I349" t="n">
+        <v>0</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>MAHEPC.NS</t>
+        </is>
+      </c>
+      <c r="E350" s="2" t="n">
+        <v>44928</v>
+      </c>
+      <c r="F350" t="n">
+        <v>113</v>
+      </c>
+      <c r="G350" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="H350" t="n">
+        <v>162.8000030517578</v>
+      </c>
+      <c r="I350" t="n">
+        <v>0</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>SWARAJENG.NS</t>
+        </is>
+      </c>
+      <c r="E351" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="F351" t="n">
+        <v>2553.75</v>
+      </c>
+      <c r="G351" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="H351" t="n">
+        <v>2649.949951171875</v>
+      </c>
+      <c r="I351" t="n">
+        <v>0</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>GUJGASLTD.NS</t>
+        </is>
+      </c>
+      <c r="E352" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="F352" t="n">
+        <v>526</v>
+      </c>
+      <c r="G352" s="2" t="n">
+        <v>45075</v>
+      </c>
+      <c r="H352" t="n">
+        <v>508.3999938964844</v>
+      </c>
+      <c r="I352" t="n">
+        <v>0</v>
+      </c>
+      <c r="J352" t="n">
+        <v>0</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>VOLTAS.NS</t>
+        </is>
+      </c>
+      <c r="E353" s="2" t="n">
+        <v>44655</v>
+      </c>
+      <c r="F353" t="n">
+        <v>1347.650024414062</v>
+      </c>
+      <c r="G353" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="H353" t="n">
+        <v>934</v>
+      </c>
+      <c r="I353" t="n">
+        <v>0</v>
+      </c>
+      <c r="J353" t="n">
+        <v>0</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>VOLTAS.NS</t>
+        </is>
+      </c>
+      <c r="E354" s="2" t="n">
+        <v>44571</v>
+      </c>
+      <c r="F354" t="n">
+        <v>1317.300048828125</v>
+      </c>
+      <c r="G354" s="2" t="n">
+        <v>44655</v>
+      </c>
+      <c r="H354" t="n">
+        <v>1347.650024414062</v>
+      </c>
+      <c r="I354" t="n">
+        <v>0</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>VOLTAS.NS</t>
+        </is>
+      </c>
+      <c r="E355" s="2" t="n">
+        <v>44655</v>
+      </c>
+      <c r="F355" t="n">
+        <v>1347.650024414062</v>
+      </c>
+      <c r="G355" s="2" t="n">
+        <v>44760</v>
+      </c>
+      <c r="H355" t="n">
+        <v>1064.949951171875</v>
+      </c>
+      <c r="I355" t="n">
+        <v>0</v>
+      </c>
+      <c r="J355" t="n">
+        <v>0</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>LODHA.NS</t>
+        </is>
+      </c>
+      <c r="E356" s="2" t="n">
+        <v>44767</v>
+      </c>
+      <c r="F356" t="n">
+        <v>594.5</v>
+      </c>
+      <c r="G356" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="H356" t="n">
+        <v>1225</v>
+      </c>
+      <c r="I356" t="n">
+        <v>0</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>JISLJALEQS.NS</t>
+        </is>
+      </c>
+      <c r="E357" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="F357" t="n">
+        <v>69.80000305175781</v>
+      </c>
+      <c r="G357" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="H357" t="n">
+        <v>73.44999694824219</v>
+      </c>
+      <c r="I357" t="n">
+        <v>0</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>JISLJALEQS.NS</t>
+        </is>
+      </c>
+      <c r="E358" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="F358" t="n">
+        <v>73.44999694824219</v>
+      </c>
+      <c r="G358" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="H358" t="n">
+        <v>68.59999847412109</v>
+      </c>
+      <c r="I358" t="n">
+        <v>0</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>JKPAPER.NS</t>
+        </is>
+      </c>
+      <c r="E359" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="F359" t="n">
+        <v>415.2999877929688</v>
+      </c>
+      <c r="G359" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="H359" t="n">
+        <v>452</v>
+      </c>
+      <c r="I359" t="n">
+        <v>0</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>DECCANCE.NS</t>
+        </is>
+      </c>
+      <c r="E360" s="2" t="n">
+        <v>44816</v>
+      </c>
+      <c r="F360" t="n">
+        <v>588</v>
+      </c>
+      <c r="G360" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="H360" t="n">
+        <v>668.4500122070312</v>
+      </c>
+      <c r="I360" t="n">
+        <v>0</v>
+      </c>
+      <c r="J360" t="n">
+        <v>0</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2" t="n">
+        <v>45019</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>LIKHITHA.NS</t>
+        </is>
+      </c>
+      <c r="E361" s="2" t="n">
+        <v>44662</v>
+      </c>
+      <c r="F361" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="G361" s="2" t="n">
+        <v>44893</v>
+      </c>
+      <c r="H361" t="n">
+        <v>273.3500061035156</v>
+      </c>
+      <c r="I361" t="n">
+        <v>0</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
         </is>
       </c>
     </row>
@@ -16784,7 +17792,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J181"/>
+  <dimension ref="A1:J184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24401,6 +25409,132 @@
       <c r="J181" t="inlineStr">
         <is>
           <t>17/06/2024 09:47:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>44599</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>KOTAKBANK.NS</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>44550</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1721</v>
+      </c>
+      <c r="G182" s="2" t="n">
+        <v>44557</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1721</v>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>BANARISUG.NS</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>45089</v>
+      </c>
+      <c r="F183" t="n">
+        <v>2930.050048828125</v>
+      </c>
+      <c r="G183" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="H183" t="n">
+        <v>2930.300048828125</v>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>DBL.NS</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="F184" t="n">
+        <v>504.5</v>
+      </c>
+      <c r="G184" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="H184" t="n">
+        <v>502.2000122070312</v>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
         </is>
       </c>
     </row>
@@ -24415,7 +25549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1195"/>
+  <dimension ref="A1:L1298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81797,6 +82931,4950 @@
         </is>
       </c>
     </row>
+    <row r="1196">
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>ULTRACEMCO.NS</t>
+        </is>
+      </c>
+      <c r="B1196" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="C1196" t="n">
+        <v>10526</v>
+      </c>
+      <c r="D1196" t="n">
+        <v>9969</v>
+      </c>
+      <c r="E1196" t="n">
+        <v>10503.0498046875</v>
+      </c>
+      <c r="F1196" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1196" t="n">
+        <v>10526</v>
+      </c>
+      <c r="H1196" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1196" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1196" t="n">
+        <v>11299</v>
+      </c>
+      <c r="K1196" t="n">
+        <v>10519.7998046875</v>
+      </c>
+      <c r="L1196" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="inlineStr">
+        <is>
+          <t>GRASIM.NS</t>
+        </is>
+      </c>
+      <c r="B1197" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="C1197" t="n">
+        <v>2489.75</v>
+      </c>
+      <c r="D1197" t="n">
+        <v>2322</v>
+      </c>
+      <c r="E1197" t="n">
+        <v>2377.14990234375</v>
+      </c>
+      <c r="F1197" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1197" t="n">
+        <v>2489.75</v>
+      </c>
+      <c r="H1197" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1197" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1197" t="n">
+        <v>2523.699951171875</v>
+      </c>
+      <c r="K1197" t="n">
+        <v>2405.199951171875</v>
+      </c>
+      <c r="L1197" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="inlineStr">
+        <is>
+          <t>FEDERALBNK.NS</t>
+        </is>
+      </c>
+      <c r="B1198" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C1198" t="n">
+        <v>170.3000030517578</v>
+      </c>
+      <c r="D1198" t="n">
+        <v>156.0500030517578</v>
+      </c>
+      <c r="E1198" t="n">
+        <v>165.9499969482422</v>
+      </c>
+      <c r="F1198" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1198" t="n">
+        <v>170.3000030517578</v>
+      </c>
+      <c r="H1198" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1198" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1198" t="n">
+        <v>175.1000061035156</v>
+      </c>
+      <c r="K1198" t="n">
+        <v>169.1000061035156</v>
+      </c>
+      <c r="L1198" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS</t>
+        </is>
+      </c>
+      <c r="B1199" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C1199" t="n">
+        <v>1352.599975585938</v>
+      </c>
+      <c r="D1199" t="n">
+        <v>1161.150024414062</v>
+      </c>
+      <c r="E1199" t="n">
+        <v>1309.699951171875</v>
+      </c>
+      <c r="F1199" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1199" t="n">
+        <v>1352.599975585938</v>
+      </c>
+      <c r="H1199" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1199" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1199" t="n">
+        <v>1455.849975585938</v>
+      </c>
+      <c r="K1199" t="n">
+        <v>1351</v>
+      </c>
+      <c r="L1199" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="inlineStr">
+        <is>
+          <t>SHRIRAMFIN.NS</t>
+        </is>
+      </c>
+      <c r="B1200" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C1200" t="n">
+        <v>2658</v>
+      </c>
+      <c r="D1200" t="n">
+        <v>2430.25</v>
+      </c>
+      <c r="E1200" t="n">
+        <v>2588.550048828125</v>
+      </c>
+      <c r="F1200" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1200" t="n">
+        <v>2658</v>
+      </c>
+      <c r="H1200" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1200" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1200" t="n">
+        <v>2747</v>
+      </c>
+      <c r="K1200" t="n">
+        <v>2546.949951171875</v>
+      </c>
+      <c r="L1200" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="inlineStr">
+        <is>
+          <t>ICICIGI.NS</t>
+        </is>
+      </c>
+      <c r="B1201" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C1201" t="n">
+        <v>1734.900024414062</v>
+      </c>
+      <c r="D1201" t="n">
+        <v>1630.050048828125</v>
+      </c>
+      <c r="E1201" t="n">
+        <v>1643.849975585938</v>
+      </c>
+      <c r="F1201" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1201" t="n">
+        <v>1734.900024414062</v>
+      </c>
+      <c r="H1201" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1201" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1201" t="n">
+        <v>1766.949951171875</v>
+      </c>
+      <c r="K1201" t="n">
+        <v>1660.25</v>
+      </c>
+      <c r="L1201" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="inlineStr">
+        <is>
+          <t>ICICIGI.NS</t>
+        </is>
+      </c>
+      <c r="B1202" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="C1202" t="n">
+        <v>1747</v>
+      </c>
+      <c r="D1202" t="n">
+        <v>1611.5</v>
+      </c>
+      <c r="E1202" t="n">
+        <v>1689.75</v>
+      </c>
+      <c r="F1202" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1202" t="n">
+        <v>1747</v>
+      </c>
+      <c r="H1202" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1202" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1202" t="n">
+        <v>1766.949951171875</v>
+      </c>
+      <c r="K1202" t="n">
+        <v>1660.25</v>
+      </c>
+      <c r="L1202" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="inlineStr">
+        <is>
+          <t>PGHH.NS</t>
+        </is>
+      </c>
+      <c r="B1203" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="C1203" t="n">
+        <v>17050.900390625</v>
+      </c>
+      <c r="D1203" t="n">
+        <v>16111</v>
+      </c>
+      <c r="E1203" t="n">
+        <v>16928.44921875</v>
+      </c>
+      <c r="F1203" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1203" t="n">
+        <v>17050.900390625</v>
+      </c>
+      <c r="H1203" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1203" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1203" t="n">
+        <v>17064.94921875</v>
+      </c>
+      <c r="K1203" t="n">
+        <v>16947.19921875</v>
+      </c>
+      <c r="L1203" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="inlineStr">
+        <is>
+          <t>ICICIPRULI.NS</t>
+        </is>
+      </c>
+      <c r="B1204" s="2" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C1204" t="n">
+        <v>606.4000244140625</v>
+      </c>
+      <c r="D1204" t="n">
+        <v>564.25</v>
+      </c>
+      <c r="E1204" t="n">
+        <v>578.2000122070312</v>
+      </c>
+      <c r="F1204" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1204" t="n">
+        <v>606.4000244140625</v>
+      </c>
+      <c r="H1204" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1204" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1204" t="n">
+        <v>622</v>
+      </c>
+      <c r="K1204" t="n">
+        <v>572.9000244140625</v>
+      </c>
+      <c r="L1204" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="inlineStr">
+        <is>
+          <t>VBL.NS</t>
+        </is>
+      </c>
+      <c r="B1205" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C1205" t="n">
+        <v>1561.949951171875</v>
+      </c>
+      <c r="D1205" t="n">
+        <v>1345</v>
+      </c>
+      <c r="E1205" t="n">
+        <v>1417.849975585938</v>
+      </c>
+      <c r="F1205" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1205" t="n">
+        <v>1561.949951171875</v>
+      </c>
+      <c r="H1205" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1205" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1205" t="n">
+        <v>1650</v>
+      </c>
+      <c r="K1205" t="n">
+        <v>1528</v>
+      </c>
+      <c r="L1205" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="inlineStr">
+        <is>
+          <t>SHREECEM.NS</t>
+        </is>
+      </c>
+      <c r="B1206" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="C1206" t="n">
+        <v>27298.94921875</v>
+      </c>
+      <c r="D1206" t="n">
+        <v>25900</v>
+      </c>
+      <c r="E1206" t="n">
+        <v>26084.650390625</v>
+      </c>
+      <c r="F1206" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1206" t="n">
+        <v>27298.94921875</v>
+      </c>
+      <c r="H1206" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1206" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1206" t="n">
+        <v>28025</v>
+      </c>
+      <c r="K1206" t="n">
+        <v>26250</v>
+      </c>
+      <c r="L1206" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="inlineStr">
+        <is>
+          <t>SHREECEM.NS</t>
+        </is>
+      </c>
+      <c r="B1207" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C1207" t="n">
+        <v>26743.30078125</v>
+      </c>
+      <c r="D1207" t="n">
+        <v>25699</v>
+      </c>
+      <c r="E1207" t="n">
+        <v>25811.05078125</v>
+      </c>
+      <c r="F1207" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1207" t="n">
+        <v>26743.30078125</v>
+      </c>
+      <c r="H1207" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1207" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1207" t="n">
+        <v>28025</v>
+      </c>
+      <c r="K1207" t="n">
+        <v>26250</v>
+      </c>
+      <c r="L1207" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="inlineStr">
+        <is>
+          <t>BALRAMCHIN.NS</t>
+        </is>
+      </c>
+      <c r="B1208" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C1208" t="n">
+        <v>409.5</v>
+      </c>
+      <c r="D1208" t="n">
+        <v>387.1000061035156</v>
+      </c>
+      <c r="E1208" t="n">
+        <v>391.6000061035156</v>
+      </c>
+      <c r="F1208" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1208" t="n">
+        <v>409.5</v>
+      </c>
+      <c r="H1208" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1208" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1208" t="n">
+        <v>445.8999938964844</v>
+      </c>
+      <c r="K1208" t="n">
+        <v>407.3999938964844</v>
+      </c>
+      <c r="L1208" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="inlineStr">
+        <is>
+          <t>DALMIASUG.NS</t>
+        </is>
+      </c>
+      <c r="B1209" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C1209" t="n">
+        <v>425.1000061035156</v>
+      </c>
+      <c r="D1209" t="n">
+        <v>396</v>
+      </c>
+      <c r="E1209" t="n">
+        <v>404.1499938964844</v>
+      </c>
+      <c r="F1209" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1209" t="n">
+        <v>425.1000061035156</v>
+      </c>
+      <c r="H1209" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1209" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1209" t="n">
+        <v>442</v>
+      </c>
+      <c r="K1209" t="n">
+        <v>391.3500061035156</v>
+      </c>
+      <c r="L1209" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="inlineStr">
+        <is>
+          <t>DALMIASUG.NS</t>
+        </is>
+      </c>
+      <c r="B1210" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C1210" t="n">
+        <v>425.5</v>
+      </c>
+      <c r="D1210" t="n">
+        <v>391.5499877929688</v>
+      </c>
+      <c r="E1210" t="n">
+        <v>411.1499938964844</v>
+      </c>
+      <c r="F1210" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1210" t="n">
+        <v>425.5</v>
+      </c>
+      <c r="H1210" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1210" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1210" t="n">
+        <v>442</v>
+      </c>
+      <c r="K1210" t="n">
+        <v>391.3500061035156</v>
+      </c>
+      <c r="L1210" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="inlineStr">
+        <is>
+          <t>BANARISUG.NS</t>
+        </is>
+      </c>
+      <c r="B1211" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="C1211" t="n">
+        <v>2699.89990234375</v>
+      </c>
+      <c r="D1211" t="n">
+        <v>2488</v>
+      </c>
+      <c r="E1211" t="n">
+        <v>2519.300048828125</v>
+      </c>
+      <c r="F1211" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1211" t="n">
+        <v>2699.89990234375</v>
+      </c>
+      <c r="H1211" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1211" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1211" t="n">
+        <v>3048.800048828125</v>
+      </c>
+      <c r="K1211" t="n">
+        <v>2447</v>
+      </c>
+      <c r="L1211" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="inlineStr">
+        <is>
+          <t>BANARISUG.NS</t>
+        </is>
+      </c>
+      <c r="B1212" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C1212" t="n">
+        <v>2848.85009765625</v>
+      </c>
+      <c r="D1212" t="n">
+        <v>2572.449951171875</v>
+      </c>
+      <c r="E1212" t="n">
+        <v>2582.10009765625</v>
+      </c>
+      <c r="F1212" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1212" t="n">
+        <v>2848.85009765625</v>
+      </c>
+      <c r="H1212" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1212" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1212" t="n">
+        <v>3048.800048828125</v>
+      </c>
+      <c r="K1212" t="n">
+        <v>2447</v>
+      </c>
+      <c r="L1212" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="inlineStr">
+        <is>
+          <t>BANARISUG.NS</t>
+        </is>
+      </c>
+      <c r="B1213" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C1213" t="n">
+        <v>2732.800048828125</v>
+      </c>
+      <c r="D1213" t="n">
+        <v>2549.550048828125</v>
+      </c>
+      <c r="E1213" t="n">
+        <v>2606.550048828125</v>
+      </c>
+      <c r="F1213" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1213" t="n">
+        <v>2732.800048828125</v>
+      </c>
+      <c r="H1213" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1213" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1213" t="n">
+        <v>3048.800048828125</v>
+      </c>
+      <c r="K1213" t="n">
+        <v>2447</v>
+      </c>
+      <c r="L1213" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="inlineStr">
+        <is>
+          <t>DCMSRIND.NS</t>
+        </is>
+      </c>
+      <c r="B1214" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C1214" t="n">
+        <v>228</v>
+      </c>
+      <c r="D1214" t="n">
+        <v>210.0500030517578</v>
+      </c>
+      <c r="E1214" t="n">
+        <v>212.9499969482422</v>
+      </c>
+      <c r="F1214" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1214" t="n">
+        <v>228</v>
+      </c>
+      <c r="H1214" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1214" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1214" t="n">
+        <v>240.6100006103516</v>
+      </c>
+      <c r="K1214" t="n">
+        <v>223.8000030517578</v>
+      </c>
+      <c r="L1214" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="inlineStr">
+        <is>
+          <t>DHAMPURSUG.NS</t>
+        </is>
+      </c>
+      <c r="B1215" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C1215" t="n">
+        <v>241.8500061035156</v>
+      </c>
+      <c r="D1215" t="n">
+        <v>226.8999938964844</v>
+      </c>
+      <c r="E1215" t="n">
+        <v>229.4499969482422</v>
+      </c>
+      <c r="F1215" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1215" t="n">
+        <v>241.8500061035156</v>
+      </c>
+      <c r="H1215" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1215" t="n">
+        <v>254.7899932861328</v>
+      </c>
+      <c r="K1215" t="n">
+        <v>225.5500030517578</v>
+      </c>
+      <c r="L1215" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="inlineStr">
+        <is>
+          <t>GIPCL.NS</t>
+        </is>
+      </c>
+      <c r="B1216" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C1216" t="n">
+        <v>237.5</v>
+      </c>
+      <c r="D1216" t="n">
+        <v>213.6000061035156</v>
+      </c>
+      <c r="E1216" t="n">
+        <v>219</v>
+      </c>
+      <c r="F1216" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1216" t="n">
+        <v>237.5</v>
+      </c>
+      <c r="H1216" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1216" t="n">
+        <v>238.3999938964844</v>
+      </c>
+      <c r="K1216" t="n">
+        <v>213.8000030517578</v>
+      </c>
+      <c r="L1216" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="inlineStr">
+        <is>
+          <t>BAJAJHIND.NS</t>
+        </is>
+      </c>
+      <c r="B1217" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="C1217" t="n">
+        <v>35.84999847412109</v>
+      </c>
+      <c r="D1217" t="n">
+        <v>30</v>
+      </c>
+      <c r="E1217" t="n">
+        <v>32.40000152587891</v>
+      </c>
+      <c r="F1217" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1217" t="n">
+        <v>35.84999847412109</v>
+      </c>
+      <c r="H1217" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1217" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1217" t="n">
+        <v>34.25</v>
+      </c>
+      <c r="L1217" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="inlineStr">
+        <is>
+          <t>BAJAJHIND.NS</t>
+        </is>
+      </c>
+      <c r="B1218" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C1218" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="D1218" t="n">
+        <v>35.79999923706055</v>
+      </c>
+      <c r="E1218" t="n">
+        <v>37.29999923706055</v>
+      </c>
+      <c r="F1218" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1218" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="H1218" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1218" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1218" t="n">
+        <v>34.25</v>
+      </c>
+      <c r="L1218" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="inlineStr">
+        <is>
+          <t>BAJAJHIND.NS</t>
+        </is>
+      </c>
+      <c r="B1219" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C1219" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="D1219" t="n">
+        <v>34.29999923706055</v>
+      </c>
+      <c r="E1219" t="n">
+        <v>35.29999923706055</v>
+      </c>
+      <c r="F1219" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1219" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="H1219" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1219" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1219" t="n">
+        <v>34.25</v>
+      </c>
+      <c r="L1219" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="inlineStr">
+        <is>
+          <t>PATELENG.NS</t>
+        </is>
+      </c>
+      <c r="B1220" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="C1220" t="n">
+        <v>66.19999694824219</v>
+      </c>
+      <c r="D1220" t="n">
+        <v>60.29999923706055</v>
+      </c>
+      <c r="E1220" t="n">
+        <v>64.59999847412109</v>
+      </c>
+      <c r="F1220" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1220" t="n">
+        <v>66.19999694824219</v>
+      </c>
+      <c r="H1220" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1220" t="n">
+        <v>69.19999694824219</v>
+      </c>
+      <c r="K1220" t="n">
+        <v>65.05000305175781</v>
+      </c>
+      <c r="L1220" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="inlineStr">
+        <is>
+          <t>RENUKA.NS</t>
+        </is>
+      </c>
+      <c r="B1221" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="C1221" t="n">
+        <v>49.29999923706055</v>
+      </c>
+      <c r="D1221" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="E1221" t="n">
+        <v>46.79999923706055</v>
+      </c>
+      <c r="F1221" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1221" t="n">
+        <v>49.29999923706055</v>
+      </c>
+      <c r="H1221" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1221" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="K1221" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="L1221" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="inlineStr">
+        <is>
+          <t>PRAJIND.NS</t>
+        </is>
+      </c>
+      <c r="B1222" s="2" t="n">
+        <v>45208</v>
+      </c>
+      <c r="C1222" t="n">
+        <v>614.6500244140625</v>
+      </c>
+      <c r="D1222" t="n">
+        <v>565.8499755859375</v>
+      </c>
+      <c r="E1222" t="n">
+        <v>591.9000244140625</v>
+      </c>
+      <c r="F1222" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1222" t="n">
+        <v>614.6500244140625</v>
+      </c>
+      <c r="H1222" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1222" t="n">
+        <v>711.7000122070312</v>
+      </c>
+      <c r="K1222" t="n">
+        <v>598.2000122070312</v>
+      </c>
+      <c r="L1222" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="inlineStr">
+        <is>
+          <t>PRAJIND.NS</t>
+        </is>
+      </c>
+      <c r="B1223" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="C1223" t="n">
+        <v>650.5</v>
+      </c>
+      <c r="D1223" t="n">
+        <v>609.1500244140625</v>
+      </c>
+      <c r="E1223" t="n">
+        <v>630.4000244140625</v>
+      </c>
+      <c r="F1223" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1223" t="n">
+        <v>650.5</v>
+      </c>
+      <c r="H1223" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1223" t="n">
+        <v>711.7000122070312</v>
+      </c>
+      <c r="K1223" t="n">
+        <v>598.2000122070312</v>
+      </c>
+      <c r="L1223" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="inlineStr">
+        <is>
+          <t>UGARSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="B1224" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C1224" t="n">
+        <v>85</v>
+      </c>
+      <c r="D1224" t="n">
+        <v>66.34999847412109</v>
+      </c>
+      <c r="E1224" t="n">
+        <v>79.90000152587891</v>
+      </c>
+      <c r="F1224" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1224" t="n">
+        <v>85</v>
+      </c>
+      <c r="H1224" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1224" t="n">
+        <v>89.90000152587891</v>
+      </c>
+      <c r="K1224" t="n">
+        <v>76.80000305175781</v>
+      </c>
+      <c r="L1224" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="inlineStr">
+        <is>
+          <t>GMRINFRA.NS</t>
+        </is>
+      </c>
+      <c r="B1225" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C1225" t="n">
+        <v>94.34999847412109</v>
+      </c>
+      <c r="D1225" t="n">
+        <v>84.55000305175781</v>
+      </c>
+      <c r="E1225" t="n">
+        <v>88.34999847412109</v>
+      </c>
+      <c r="F1225" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1225" t="n">
+        <v>94.34999847412109</v>
+      </c>
+      <c r="H1225" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1225" t="n">
+        <v>94.55000305175781</v>
+      </c>
+      <c r="K1225" t="n">
+        <v>88.94999694824219</v>
+      </c>
+      <c r="L1225" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="inlineStr">
+        <is>
+          <t>GMRINFRA.NS</t>
+        </is>
+      </c>
+      <c r="B1226" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="C1226" t="n">
+        <v>92.40000152587891</v>
+      </c>
+      <c r="D1226" t="n">
+        <v>80.55000305175781</v>
+      </c>
+      <c r="E1226" t="n">
+        <v>90.75</v>
+      </c>
+      <c r="F1226" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1226" t="n">
+        <v>92.40000152587891</v>
+      </c>
+      <c r="H1226" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1226" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1226" t="n">
+        <v>94.55000305175781</v>
+      </c>
+      <c r="K1226" t="n">
+        <v>88.94999694824219</v>
+      </c>
+      <c r="L1226" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="inlineStr">
+        <is>
+          <t>PETRONET.NS</t>
+        </is>
+      </c>
+      <c r="B1227" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C1227" t="n">
+        <v>323.1499938964844</v>
+      </c>
+      <c r="D1227" t="n">
+        <v>303.6499938964844</v>
+      </c>
+      <c r="E1227" t="n">
+        <v>313.7999877929688</v>
+      </c>
+      <c r="F1227" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1227" t="n">
+        <v>323.1499938964844</v>
+      </c>
+      <c r="H1227" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1227" t="n">
+        <v>327.8500061035156</v>
+      </c>
+      <c r="K1227" t="n">
+        <v>317.7000122070312</v>
+      </c>
+      <c r="L1227" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="inlineStr">
+        <is>
+          <t>MAHLOG.NS</t>
+        </is>
+      </c>
+      <c r="B1228" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="C1228" t="n">
+        <v>460</v>
+      </c>
+      <c r="D1228" t="n">
+        <v>435</v>
+      </c>
+      <c r="E1228" t="n">
+        <v>437.9500122070312</v>
+      </c>
+      <c r="F1228" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1228" t="n">
+        <v>460</v>
+      </c>
+      <c r="H1228" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1228" t="n">
+        <v>480</v>
+      </c>
+      <c r="K1228" t="n">
+        <v>458.25</v>
+      </c>
+      <c r="L1228" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="inlineStr">
+        <is>
+          <t>MAHEPC.NS</t>
+        </is>
+      </c>
+      <c r="B1229" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C1229" t="n">
+        <v>162.8000030517578</v>
+      </c>
+      <c r="D1229" t="n">
+        <v>142.6000061035156</v>
+      </c>
+      <c r="E1229" t="n">
+        <v>143.75</v>
+      </c>
+      <c r="F1229" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1229" t="n">
+        <v>162.8000030517578</v>
+      </c>
+      <c r="H1229" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1229" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1229" t="n">
+        <v>179.6499938964844</v>
+      </c>
+      <c r="K1229" t="n">
+        <v>138.9499969482422</v>
+      </c>
+      <c r="L1229" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="inlineStr">
+        <is>
+          <t>MAHEPC.NS</t>
+        </is>
+      </c>
+      <c r="B1230" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C1230" t="n">
+        <v>154</v>
+      </c>
+      <c r="D1230" t="n">
+        <v>130.6000061035156</v>
+      </c>
+      <c r="E1230" t="n">
+        <v>137.6499938964844</v>
+      </c>
+      <c r="F1230" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1230" t="n">
+        <v>154</v>
+      </c>
+      <c r="H1230" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1230" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1230" t="n">
+        <v>179.6499938964844</v>
+      </c>
+      <c r="K1230" t="n">
+        <v>138.9499969482422</v>
+      </c>
+      <c r="L1230" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="inlineStr">
+        <is>
+          <t>GUJGASLTD.NS</t>
+        </is>
+      </c>
+      <c r="B1231" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C1231" t="n">
+        <v>620</v>
+      </c>
+      <c r="D1231" t="n">
+        <v>566.0499877929688</v>
+      </c>
+      <c r="E1231" t="n">
+        <v>582.9000244140625</v>
+      </c>
+      <c r="F1231" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1231" t="n">
+        <v>620</v>
+      </c>
+      <c r="H1231" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1231" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1231" t="n">
+        <v>648.9500122070312</v>
+      </c>
+      <c r="K1231" t="n">
+        <v>590</v>
+      </c>
+      <c r="L1231" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="inlineStr">
+        <is>
+          <t>IGL.NS</t>
+        </is>
+      </c>
+      <c r="B1232" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C1232" t="n">
+        <v>486.5499877929688</v>
+      </c>
+      <c r="D1232" t="n">
+        <v>455.9500122070312</v>
+      </c>
+      <c r="E1232" t="n">
+        <v>481.75</v>
+      </c>
+      <c r="F1232" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1232" t="n">
+        <v>486.5499877929688</v>
+      </c>
+      <c r="H1232" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1232" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1232" t="n">
+        <v>490.4500122070312</v>
+      </c>
+      <c r="K1232" t="n">
+        <v>474</v>
+      </c>
+      <c r="L1232" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="inlineStr">
+        <is>
+          <t>IGL.NS</t>
+        </is>
+      </c>
+      <c r="B1233" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="C1233" t="n">
+        <v>489</v>
+      </c>
+      <c r="D1233" t="n">
+        <v>432.1499938964844</v>
+      </c>
+      <c r="E1233" t="n">
+        <v>436.2000122070312</v>
+      </c>
+      <c r="F1233" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1233" t="n">
+        <v>489</v>
+      </c>
+      <c r="H1233" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1233" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1233" t="n">
+        <v>490.4500122070312</v>
+      </c>
+      <c r="K1233" t="n">
+        <v>474</v>
+      </c>
+      <c r="L1233" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="inlineStr">
+        <is>
+          <t>SWARAJENG.NS</t>
+        </is>
+      </c>
+      <c r="B1234" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C1234" t="n">
+        <v>2649.949951171875</v>
+      </c>
+      <c r="D1234" t="n">
+        <v>2310.5</v>
+      </c>
+      <c r="E1234" t="n">
+        <v>2541.050048828125</v>
+      </c>
+      <c r="F1234" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1234" t="n">
+        <v>2649.949951171875</v>
+      </c>
+      <c r="H1234" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1234" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1234" t="n">
+        <v>2816</v>
+      </c>
+      <c r="K1234" t="n">
+        <v>2557.64990234375</v>
+      </c>
+      <c r="L1234" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="inlineStr">
+        <is>
+          <t>VOLTAS.NS</t>
+        </is>
+      </c>
+      <c r="B1235" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="C1235" t="n">
+        <v>1502.300048828125</v>
+      </c>
+      <c r="D1235" t="n">
+        <v>1262</v>
+      </c>
+      <c r="E1235" t="n">
+        <v>1287.550048828125</v>
+      </c>
+      <c r="F1235" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1235" t="n">
+        <v>1502.300048828125</v>
+      </c>
+      <c r="H1235" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1235" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1235" t="n">
+        <v>1511.949951171875</v>
+      </c>
+      <c r="K1235" t="n">
+        <v>1478.199951171875</v>
+      </c>
+      <c r="L1235" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="inlineStr">
+        <is>
+          <t>HATHWAY.NS</t>
+        </is>
+      </c>
+      <c r="B1236" s="2" t="n">
+        <v>45201</v>
+      </c>
+      <c r="C1236" t="n">
+        <v>22.29999923706055</v>
+      </c>
+      <c r="D1236" t="n">
+        <v>19.89999961853027</v>
+      </c>
+      <c r="E1236" t="n">
+        <v>20.60000038146973</v>
+      </c>
+      <c r="F1236" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1236" t="n">
+        <v>22.29999923706055</v>
+      </c>
+      <c r="H1236" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1236" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1236" t="n">
+        <v>22.67000007629395</v>
+      </c>
+      <c r="K1236" t="n">
+        <v>21.29999923706055</v>
+      </c>
+      <c r="L1236" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="inlineStr">
+        <is>
+          <t>ARTSONEN.BO</t>
+        </is>
+      </c>
+      <c r="B1237" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="C1237" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="D1237" t="n">
+        <v>144</v>
+      </c>
+      <c r="E1237" t="n">
+        <v>181.0500030517578</v>
+      </c>
+      <c r="F1237" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1237" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="H1237" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1237" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1237" t="n">
+        <v>199</v>
+      </c>
+      <c r="K1237" t="n">
+        <v>185</v>
+      </c>
+      <c r="L1237" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="inlineStr">
+        <is>
+          <t>INDHOTEL.NS</t>
+        </is>
+      </c>
+      <c r="B1238" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C1238" t="n">
+        <v>602.75</v>
+      </c>
+      <c r="D1238" t="n">
+        <v>535.0999755859375</v>
+      </c>
+      <c r="E1238" t="n">
+        <v>594.5</v>
+      </c>
+      <c r="F1238" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1238" t="n">
+        <v>602.75</v>
+      </c>
+      <c r="H1238" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1238" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1238" t="n">
+        <v>615.5999755859375</v>
+      </c>
+      <c r="K1238" t="n">
+        <v>593.4500122070312</v>
+      </c>
+      <c r="L1238" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="inlineStr">
+        <is>
+          <t>OFSS.NS</t>
+        </is>
+      </c>
+      <c r="B1239" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C1239" t="n">
+        <v>9023</v>
+      </c>
+      <c r="D1239" t="n">
+        <v>8702</v>
+      </c>
+      <c r="E1239" t="n">
+        <v>8775.4501953125</v>
+      </c>
+      <c r="F1239" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1239" t="n">
+        <v>9023</v>
+      </c>
+      <c r="H1239" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1239" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1239" t="n">
+        <v>9793.5</v>
+      </c>
+      <c r="K1239" t="n">
+        <v>8507.650390625</v>
+      </c>
+      <c r="L1239" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="inlineStr">
+        <is>
+          <t>ACGL.BO</t>
+        </is>
+      </c>
+      <c r="B1240" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="C1240" t="n">
+        <v>2300</v>
+      </c>
+      <c r="D1240" t="n">
+        <v>2103.64990234375</v>
+      </c>
+      <c r="E1240" t="n">
+        <v>2190.699951171875</v>
+      </c>
+      <c r="F1240" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1240" t="n">
+        <v>2300</v>
+      </c>
+      <c r="H1240" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1240" t="inlineStr">
+        <is>
+          <t>11-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1240" t="n">
+        <v>2470</v>
+      </c>
+      <c r="K1240" t="n">
+        <v>2098.800048828125</v>
+      </c>
+      <c r="L1240" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="inlineStr">
+        <is>
+          <t>APLAPOLLO.NS</t>
+        </is>
+      </c>
+      <c r="B1241" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C1241" t="n">
+        <v>1660</v>
+      </c>
+      <c r="D1241" t="n">
+        <v>1440</v>
+      </c>
+      <c r="E1241" t="n">
+        <v>1474.699951171875</v>
+      </c>
+      <c r="F1241" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1241" t="n">
+        <v>1660</v>
+      </c>
+      <c r="H1241" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1241" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1241" t="n">
+        <v>1667.5</v>
+      </c>
+      <c r="K1241" t="n">
+        <v>1631.5</v>
+      </c>
+      <c r="L1241" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="inlineStr">
+        <is>
+          <t>SCHNEIDER.NS</t>
+        </is>
+      </c>
+      <c r="B1242" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C1242" t="n">
+        <v>857.8499755859375</v>
+      </c>
+      <c r="D1242" t="n">
+        <v>765</v>
+      </c>
+      <c r="E1242" t="n">
+        <v>787.25</v>
+      </c>
+      <c r="F1242" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1242" t="n">
+        <v>857.8499755859375</v>
+      </c>
+      <c r="H1242" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1242" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1242" t="n">
+        <v>862.4500122070312</v>
+      </c>
+      <c r="K1242" t="n">
+        <v>745.0499877929688</v>
+      </c>
+      <c r="L1242" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="inlineStr">
+        <is>
+          <t>DBL.NS</t>
+        </is>
+      </c>
+      <c r="B1243" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C1243" t="n">
+        <v>504.5</v>
+      </c>
+      <c r="D1243" t="n">
+        <v>436.3500061035156</v>
+      </c>
+      <c r="E1243" t="n">
+        <v>458.1499938964844</v>
+      </c>
+      <c r="F1243" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1243" t="n">
+        <v>504.5</v>
+      </c>
+      <c r="H1243" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1243" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1243" t="n">
+        <v>514.5</v>
+      </c>
+      <c r="K1243" t="n">
+        <v>445.6000061035156</v>
+      </c>
+      <c r="L1243" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="inlineStr">
+        <is>
+          <t>DBL.NS</t>
+        </is>
+      </c>
+      <c r="B1244" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C1244" t="n">
+        <v>502.2000122070312</v>
+      </c>
+      <c r="D1244" t="n">
+        <v>455.7000122070312</v>
+      </c>
+      <c r="E1244" t="n">
+        <v>457.4500122070312</v>
+      </c>
+      <c r="F1244" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1244" t="n">
+        <v>502.2000122070312</v>
+      </c>
+      <c r="H1244" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1244" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1244" t="n">
+        <v>514.5</v>
+      </c>
+      <c r="K1244" t="n">
+        <v>445.6000061035156</v>
+      </c>
+      <c r="L1244" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="inlineStr">
+        <is>
+          <t>TATACHEM.NS</t>
+        </is>
+      </c>
+      <c r="B1245" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C1245" t="n">
+        <v>1110.849975585938</v>
+      </c>
+      <c r="D1245" t="n">
+        <v>1070.5</v>
+      </c>
+      <c r="E1245" t="n">
+        <v>1085.300048828125</v>
+      </c>
+      <c r="F1245" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1245" t="n">
+        <v>1110.849975585938</v>
+      </c>
+      <c r="H1245" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1245" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1245" t="n">
+        <v>1135</v>
+      </c>
+      <c r="K1245" t="n">
+        <v>1068</v>
+      </c>
+      <c r="L1245" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="inlineStr">
+        <is>
+          <t>JISLJALEQS.NS</t>
+        </is>
+      </c>
+      <c r="B1246" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C1246" t="n">
+        <v>69.80000305175781</v>
+      </c>
+      <c r="D1246" t="n">
+        <v>61.59999847412109</v>
+      </c>
+      <c r="E1246" t="n">
+        <v>65.90000152587891</v>
+      </c>
+      <c r="F1246" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1246" t="n">
+        <v>69.80000305175781</v>
+      </c>
+      <c r="H1246" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1246" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1246" t="n">
+        <v>79.51000213623047</v>
+      </c>
+      <c r="K1246" t="n">
+        <v>67.69999694824219</v>
+      </c>
+      <c r="L1246" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="inlineStr">
+        <is>
+          <t>JISLJALEQS.NS</t>
+        </is>
+      </c>
+      <c r="B1247" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="C1247" t="n">
+        <v>73.44999694824219</v>
+      </c>
+      <c r="D1247" t="n">
+        <v>67.05000305175781</v>
+      </c>
+      <c r="E1247" t="n">
+        <v>71.19999694824219</v>
+      </c>
+      <c r="F1247" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1247" t="n">
+        <v>73.44999694824219</v>
+      </c>
+      <c r="H1247" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1247" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1247" t="n">
+        <v>79.51000213623047</v>
+      </c>
+      <c r="K1247" t="n">
+        <v>67.69999694824219</v>
+      </c>
+      <c r="L1247" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="inlineStr">
+        <is>
+          <t>JISLJALEQS.NS</t>
+        </is>
+      </c>
+      <c r="B1248" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C1248" t="n">
+        <v>68.59999847412109</v>
+      </c>
+      <c r="D1248" t="n">
+        <v>61.65000152587891</v>
+      </c>
+      <c r="E1248" t="n">
+        <v>66.05000305175781</v>
+      </c>
+      <c r="F1248" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1248" t="n">
+        <v>68.59999847412109</v>
+      </c>
+      <c r="H1248" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1248" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1248" t="n">
+        <v>79.51000213623047</v>
+      </c>
+      <c r="K1248" t="n">
+        <v>67.69999694824219</v>
+      </c>
+      <c r="L1248" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="inlineStr">
+        <is>
+          <t>TARC.NS</t>
+        </is>
+      </c>
+      <c r="B1249" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="C1249" t="n">
+        <v>184.8999938964844</v>
+      </c>
+      <c r="D1249" t="n">
+        <v>137.3999938964844</v>
+      </c>
+      <c r="E1249" t="n">
+        <v>178.5500030517578</v>
+      </c>
+      <c r="F1249" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1249" t="n">
+        <v>184.8999938964844</v>
+      </c>
+      <c r="H1249" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1249" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1249" t="n">
+        <v>201</v>
+      </c>
+      <c r="K1249" t="n">
+        <v>177</v>
+      </c>
+      <c r="L1249" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B1250" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="C1250" t="n">
+        <v>527.7999877929688</v>
+      </c>
+      <c r="D1250" t="n">
+        <v>472.3999938964844</v>
+      </c>
+      <c r="E1250" t="n">
+        <v>513</v>
+      </c>
+      <c r="F1250" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1250" t="n">
+        <v>527.7999877929688</v>
+      </c>
+      <c r="H1250" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1250" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1250" t="n">
+        <v>633.9000244140625</v>
+      </c>
+      <c r="K1250" t="n">
+        <v>495</v>
+      </c>
+      <c r="L1250" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B1251" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C1251" t="n">
+        <v>522.2000122070312</v>
+      </c>
+      <c r="D1251" t="n">
+        <v>464</v>
+      </c>
+      <c r="E1251" t="n">
+        <v>491.9500122070312</v>
+      </c>
+      <c r="F1251" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1251" t="n">
+        <v>522.2000122070312</v>
+      </c>
+      <c r="H1251" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1251" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1251" t="n">
+        <v>633.9000244140625</v>
+      </c>
+      <c r="K1251" t="n">
+        <v>495</v>
+      </c>
+      <c r="L1251" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B1252" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C1252" t="n">
+        <v>527</v>
+      </c>
+      <c r="D1252" t="n">
+        <v>476.2000122070312</v>
+      </c>
+      <c r="E1252" t="n">
+        <v>479.3999938964844</v>
+      </c>
+      <c r="F1252" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1252" t="n">
+        <v>527</v>
+      </c>
+      <c r="H1252" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1252" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1252" t="n">
+        <v>633.9000244140625</v>
+      </c>
+      <c r="K1252" t="n">
+        <v>495</v>
+      </c>
+      <c r="L1252" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B1253" s="2" t="n">
+        <v>45145</v>
+      </c>
+      <c r="C1253" t="n">
+        <v>464.9500122070312</v>
+      </c>
+      <c r="D1253" t="n">
+        <v>416.1499938964844</v>
+      </c>
+      <c r="E1253" t="n">
+        <v>444.0499877929688</v>
+      </c>
+      <c r="F1253" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G1253" t="n">
+        <v>416.1499938964844</v>
+      </c>
+      <c r="H1253" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1253" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1253" t="n">
+        <v>402.7999877929688</v>
+      </c>
+      <c r="K1253" t="n">
+        <v>441.8500061035156</v>
+      </c>
+      <c r="L1253" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B1254" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="C1254" t="n">
+        <v>457.1000061035156</v>
+      </c>
+      <c r="D1254" t="n">
+        <v>425</v>
+      </c>
+      <c r="E1254" t="n">
+        <v>444.6000061035156</v>
+      </c>
+      <c r="F1254" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G1254" t="n">
+        <v>425</v>
+      </c>
+      <c r="H1254" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1254" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1254" t="n">
+        <v>402.7999877929688</v>
+      </c>
+      <c r="K1254" t="n">
+        <v>441.8500061035156</v>
+      </c>
+      <c r="L1254" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="inlineStr">
+        <is>
+          <t>CHEMPLASTS.NS</t>
+        </is>
+      </c>
+      <c r="B1255" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="C1255" t="n">
+        <v>480.9500122070312</v>
+      </c>
+      <c r="D1255" t="n">
+        <v>413.4500122070312</v>
+      </c>
+      <c r="E1255" t="n">
+        <v>450.75</v>
+      </c>
+      <c r="F1255" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G1255" t="n">
+        <v>413.4500122070312</v>
+      </c>
+      <c r="H1255" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1255" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1255" t="n">
+        <v>402.7999877929688</v>
+      </c>
+      <c r="K1255" t="n">
+        <v>441.8500061035156</v>
+      </c>
+      <c r="L1255" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B1256" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C1256" t="n">
+        <v>961</v>
+      </c>
+      <c r="D1256" t="n">
+        <v>912.2999877929688</v>
+      </c>
+      <c r="E1256" t="n">
+        <v>935.25</v>
+      </c>
+      <c r="F1256" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1256" t="n">
+        <v>961</v>
+      </c>
+      <c r="H1256" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1256" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1256" t="n">
+        <v>999.6500244140625</v>
+      </c>
+      <c r="K1256" t="n">
+        <v>947.2999877929688</v>
+      </c>
+      <c r="L1256" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="inlineStr">
+        <is>
+          <t>PREMEXPLN.NS</t>
+        </is>
+      </c>
+      <c r="B1257" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C1257" t="n">
+        <v>2780</v>
+      </c>
+      <c r="D1257" t="n">
+        <v>2326.64990234375</v>
+      </c>
+      <c r="E1257" t="n">
+        <v>2431.25</v>
+      </c>
+      <c r="F1257" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1257" t="n">
+        <v>2780</v>
+      </c>
+      <c r="H1257" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1257" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1257" t="n">
+        <v>3660</v>
+      </c>
+      <c r="K1257" t="n">
+        <v>2688</v>
+      </c>
+      <c r="L1257" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="inlineStr">
+        <is>
+          <t>ASMTEC.BO</t>
+        </is>
+      </c>
+      <c r="B1258" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C1258" t="n">
+        <v>1118</v>
+      </c>
+      <c r="D1258" t="n">
+        <v>954</v>
+      </c>
+      <c r="E1258" t="n">
+        <v>989.3499755859375</v>
+      </c>
+      <c r="F1258" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1258" t="n">
+        <v>1118</v>
+      </c>
+      <c r="H1258" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1258" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1258" t="n">
+        <v>1149.949951171875</v>
+      </c>
+      <c r="K1258" t="n">
+        <v>1100.400024414062</v>
+      </c>
+      <c r="L1258" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="inlineStr">
+        <is>
+          <t>MICEL.NS</t>
+        </is>
+      </c>
+      <c r="B1259" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C1259" t="n">
+        <v>53.65000152587891</v>
+      </c>
+      <c r="D1259" t="n">
+        <v>44.29999923706055</v>
+      </c>
+      <c r="E1259" t="n">
+        <v>48.25</v>
+      </c>
+      <c r="F1259" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1259" t="n">
+        <v>53.65000152587891</v>
+      </c>
+      <c r="H1259" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1259" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1259" t="n">
+        <v>54.81999969482422</v>
+      </c>
+      <c r="K1259" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="L1259" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="inlineStr">
+        <is>
+          <t>TATACOMM.NS</t>
+        </is>
+      </c>
+      <c r="B1260" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="C1260" t="n">
+        <v>1842</v>
+      </c>
+      <c r="D1260" t="n">
+        <v>1688.050048828125</v>
+      </c>
+      <c r="E1260" t="n">
+        <v>1730.150024414062</v>
+      </c>
+      <c r="F1260" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1260" t="n">
+        <v>1842</v>
+      </c>
+      <c r="H1260" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1260" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1260" t="n">
+        <v>1926</v>
+      </c>
+      <c r="K1260" t="n">
+        <v>1821.400024414062</v>
+      </c>
+      <c r="L1260" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="inlineStr">
+        <is>
+          <t>AMBER.NS</t>
+        </is>
+      </c>
+      <c r="B1261" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="C1261" t="n">
+        <v>4147.9501953125</v>
+      </c>
+      <c r="D1261" t="n">
+        <v>3781.5</v>
+      </c>
+      <c r="E1261" t="n">
+        <v>3803.25</v>
+      </c>
+      <c r="F1261" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1261" t="n">
+        <v>4147.9501953125</v>
+      </c>
+      <c r="H1261" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1261" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1261" t="n">
+        <v>4211.89990234375</v>
+      </c>
+      <c r="K1261" t="n">
+        <v>3800</v>
+      </c>
+      <c r="L1261" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="inlineStr">
+        <is>
+          <t>IEX.NS</t>
+        </is>
+      </c>
+      <c r="B1262" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="C1262" t="n">
+        <v>173.3500061035156</v>
+      </c>
+      <c r="D1262" t="n">
+        <v>162.0500030517578</v>
+      </c>
+      <c r="E1262" t="n">
+        <v>164.1999969482422</v>
+      </c>
+      <c r="F1262" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1262" t="n">
+        <v>173.3500061035156</v>
+      </c>
+      <c r="H1262" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1262" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1262" t="n">
+        <v>182.5500030517578</v>
+      </c>
+      <c r="K1262" t="n">
+        <v>167.5</v>
+      </c>
+      <c r="L1262" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="inlineStr">
+        <is>
+          <t>DCXINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B1263" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C1263" t="n">
+        <v>351</v>
+      </c>
+      <c r="D1263" t="n">
+        <v>333.1000061035156</v>
+      </c>
+      <c r="E1263" t="n">
+        <v>339.6000061035156</v>
+      </c>
+      <c r="F1263" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1263" t="n">
+        <v>351</v>
+      </c>
+      <c r="H1263" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1263" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1263" t="n">
+        <v>366.8999938964844</v>
+      </c>
+      <c r="K1263" t="n">
+        <v>321.9500122070312</v>
+      </c>
+      <c r="L1263" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="inlineStr">
+        <is>
+          <t>JKPAPER.NS</t>
+        </is>
+      </c>
+      <c r="B1264" s="2" t="n">
+        <v>44914</v>
+      </c>
+      <c r="C1264" t="n">
+        <v>453.2000122070312</v>
+      </c>
+      <c r="D1264" t="n">
+        <v>370</v>
+      </c>
+      <c r="E1264" t="n">
+        <v>372.8999938964844</v>
+      </c>
+      <c r="F1264" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1264" t="n">
+        <v>453.2000122070312</v>
+      </c>
+      <c r="H1264" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1264" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1264" t="n">
+        <v>498</v>
+      </c>
+      <c r="K1264" t="n">
+        <v>407.5499877929688</v>
+      </c>
+      <c r="L1264" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="inlineStr">
+        <is>
+          <t>JKPAPER.NS</t>
+        </is>
+      </c>
+      <c r="B1265" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="C1265" t="n">
+        <v>415.2999877929688</v>
+      </c>
+      <c r="D1265" t="n">
+        <v>391</v>
+      </c>
+      <c r="E1265" t="n">
+        <v>400.25</v>
+      </c>
+      <c r="F1265" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1265" t="n">
+        <v>415.2999877929688</v>
+      </c>
+      <c r="H1265" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1265" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1265" t="n">
+        <v>498</v>
+      </c>
+      <c r="K1265" t="n">
+        <v>407.5499877929688</v>
+      </c>
+      <c r="L1265" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="inlineStr">
+        <is>
+          <t>JKPAPER.NS</t>
+        </is>
+      </c>
+      <c r="B1266" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C1266" t="n">
+        <v>452</v>
+      </c>
+      <c r="D1266" t="n">
+        <v>415.0499877929688</v>
+      </c>
+      <c r="E1266" t="n">
+        <v>417.2999877929688</v>
+      </c>
+      <c r="F1266" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1266" t="n">
+        <v>452</v>
+      </c>
+      <c r="H1266" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1266" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1266" t="n">
+        <v>498</v>
+      </c>
+      <c r="K1266" t="n">
+        <v>407.5499877929688</v>
+      </c>
+      <c r="L1266" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="inlineStr">
+        <is>
+          <t>ZENTEC.NS</t>
+        </is>
+      </c>
+      <c r="B1267" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C1267" t="n">
+        <v>1130</v>
+      </c>
+      <c r="D1267" t="n">
+        <v>1026.050048828125</v>
+      </c>
+      <c r="E1267" t="n">
+        <v>1088.300048828125</v>
+      </c>
+      <c r="F1267" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1267" t="n">
+        <v>1130</v>
+      </c>
+      <c r="H1267" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1267" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1267" t="n">
+        <v>1132.599975585938</v>
+      </c>
+      <c r="K1267" t="n">
+        <v>1013</v>
+      </c>
+      <c r="L1267" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="inlineStr">
+        <is>
+          <t>DECCANCE.NS</t>
+        </is>
+      </c>
+      <c r="B1268" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C1268" t="n">
+        <v>668.4500122070312</v>
+      </c>
+      <c r="D1268" t="n">
+        <v>619.2000122070312</v>
+      </c>
+      <c r="E1268" t="n">
+        <v>635.7999877929688</v>
+      </c>
+      <c r="F1268" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1268" t="n">
+        <v>668.4500122070312</v>
+      </c>
+      <c r="H1268" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1268" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1268" t="n">
+        <v>723.5</v>
+      </c>
+      <c r="K1268" t="n">
+        <v>627.5999755859375</v>
+      </c>
+      <c r="L1268" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="inlineStr">
+        <is>
+          <t>DECCANCE.NS</t>
+        </is>
+      </c>
+      <c r="B1269" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="C1269" t="n">
+        <v>647</v>
+      </c>
+      <c r="D1269" t="n">
+        <v>612</v>
+      </c>
+      <c r="E1269" t="n">
+        <v>635</v>
+      </c>
+      <c r="F1269" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1269" t="n">
+        <v>647</v>
+      </c>
+      <c r="H1269" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1269" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1269" t="n">
+        <v>723.5</v>
+      </c>
+      <c r="K1269" t="n">
+        <v>627.5999755859375</v>
+      </c>
+      <c r="L1269" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="inlineStr">
+        <is>
+          <t>ANDHRAPAP.NS</t>
+        </is>
+      </c>
+      <c r="B1270" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C1270" t="n">
+        <v>544.0999755859375</v>
+      </c>
+      <c r="D1270" t="n">
+        <v>525</v>
+      </c>
+      <c r="E1270" t="n">
+        <v>528.5</v>
+      </c>
+      <c r="F1270" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1270" t="n">
+        <v>544.0999755859375</v>
+      </c>
+      <c r="H1270" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1270" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1270" t="n">
+        <v>576.1500244140625</v>
+      </c>
+      <c r="K1270" t="n">
+        <v>514.75</v>
+      </c>
+      <c r="L1270" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="inlineStr">
+        <is>
+          <t>CRANEINFRA.BO</t>
+        </is>
+      </c>
+      <c r="B1271" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C1271" t="n">
+        <v>30.84000015258789</v>
+      </c>
+      <c r="D1271" t="n">
+        <v>25.27000045776367</v>
+      </c>
+      <c r="E1271" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="F1271" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1271" t="n">
+        <v>30.84000015258789</v>
+      </c>
+      <c r="H1271" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1271" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1271" t="n">
+        <v>31.3700008392334</v>
+      </c>
+      <c r="K1271" t="n">
+        <v>22.40999984741211</v>
+      </c>
+      <c r="L1271" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="inlineStr">
+        <is>
+          <t>ANJANIFOODS.BO</t>
+        </is>
+      </c>
+      <c r="B1272" s="2" t="n">
+        <v>44900</v>
+      </c>
+      <c r="C1272" t="n">
+        <v>36.29999923706055</v>
+      </c>
+      <c r="D1272" t="n">
+        <v>29.29999923706055</v>
+      </c>
+      <c r="E1272" t="n">
+        <v>33.15000152587891</v>
+      </c>
+      <c r="F1272" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1272" t="n">
+        <v>36.29999923706055</v>
+      </c>
+      <c r="H1272" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1272" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1272" t="n">
+        <v>52.40999984741211</v>
+      </c>
+      <c r="K1272" t="n">
+        <v>31.88999938964844</v>
+      </c>
+      <c r="L1272" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="inlineStr">
+        <is>
+          <t>ANJANIFOODS.BO</t>
+        </is>
+      </c>
+      <c r="B1273" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C1273" t="n">
+        <v>31.95000076293945</v>
+      </c>
+      <c r="D1273" t="n">
+        <v>27.71999931335449</v>
+      </c>
+      <c r="E1273" t="n">
+        <v>29.20999908447266</v>
+      </c>
+      <c r="F1273" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1273" t="n">
+        <v>31.95000076293945</v>
+      </c>
+      <c r="H1273" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1273" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1273" t="n">
+        <v>52.40999984741211</v>
+      </c>
+      <c r="K1273" t="n">
+        <v>31.88999938964844</v>
+      </c>
+      <c r="L1273" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="inlineStr">
+        <is>
+          <t>ANJANIFOODS.BO</t>
+        </is>
+      </c>
+      <c r="B1274" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="C1274" t="n">
+        <v>43.77999877929688</v>
+      </c>
+      <c r="D1274" t="n">
+        <v>37.83000183105469</v>
+      </c>
+      <c r="E1274" t="n">
+        <v>41.41999816894531</v>
+      </c>
+      <c r="F1274" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1274" t="n">
+        <v>43.77999877929688</v>
+      </c>
+      <c r="H1274" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1274" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1274" t="n">
+        <v>52.40999984741211</v>
+      </c>
+      <c r="K1274" t="n">
+        <v>31.88999938964844</v>
+      </c>
+      <c r="L1274" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="inlineStr">
+        <is>
+          <t>ALKALI.NS</t>
+        </is>
+      </c>
+      <c r="B1275" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C1275" t="n">
+        <v>124</v>
+      </c>
+      <c r="D1275" t="n">
+        <v>103</v>
+      </c>
+      <c r="E1275" t="n">
+        <v>122.9499969482422</v>
+      </c>
+      <c r="F1275" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1275" t="n">
+        <v>124</v>
+      </c>
+      <c r="H1275" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1275" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1275" t="n">
+        <v>130.3099975585938</v>
+      </c>
+      <c r="K1275" t="n">
+        <v>116.25</v>
+      </c>
+      <c r="L1275" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="inlineStr">
+        <is>
+          <t>AMIORG.NS</t>
+        </is>
+      </c>
+      <c r="B1276" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C1276" t="n">
+        <v>1296.5</v>
+      </c>
+      <c r="D1276" t="n">
+        <v>1147</v>
+      </c>
+      <c r="E1276" t="n">
+        <v>1220.800048828125</v>
+      </c>
+      <c r="F1276" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1276" t="n">
+        <v>1296.5</v>
+      </c>
+      <c r="H1276" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1276" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1276" t="n">
+        <v>1355</v>
+      </c>
+      <c r="K1276" t="n">
+        <v>1248</v>
+      </c>
+      <c r="L1276" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="inlineStr">
+        <is>
+          <t>SASTASUNDR.NS</t>
+        </is>
+      </c>
+      <c r="B1277" s="2" t="n">
+        <v>45089</v>
+      </c>
+      <c r="C1277" t="n">
+        <v>314.7999877929688</v>
+      </c>
+      <c r="D1277" t="n">
+        <v>285.1499938964844</v>
+      </c>
+      <c r="E1277" t="n">
+        <v>289.4500122070312</v>
+      </c>
+      <c r="F1277" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1277" t="n">
+        <v>314.7999877929688</v>
+      </c>
+      <c r="H1277" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1277" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1277" t="n">
+        <v>378</v>
+      </c>
+      <c r="K1277" t="n">
+        <v>314.0499877929688</v>
+      </c>
+      <c r="L1277" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="inlineStr">
+        <is>
+          <t>SASTASUNDR.NS</t>
+        </is>
+      </c>
+      <c r="B1278" s="2" t="n">
+        <v>45152</v>
+      </c>
+      <c r="C1278" t="n">
+        <v>334.75</v>
+      </c>
+      <c r="D1278" t="n">
+        <v>280.25</v>
+      </c>
+      <c r="E1278" t="n">
+        <v>315.75</v>
+      </c>
+      <c r="F1278" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1278" t="n">
+        <v>334.75</v>
+      </c>
+      <c r="H1278" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1278" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1278" t="n">
+        <v>378</v>
+      </c>
+      <c r="K1278" t="n">
+        <v>314.0499877929688</v>
+      </c>
+      <c r="L1278" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="inlineStr">
+        <is>
+          <t>AGARIND.NS</t>
+        </is>
+      </c>
+      <c r="B1279" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C1279" t="n">
+        <v>1099</v>
+      </c>
+      <c r="D1279" t="n">
+        <v>1009.299987792969</v>
+      </c>
+      <c r="E1279" t="n">
+        <v>1038.699951171875</v>
+      </c>
+      <c r="F1279" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1279" t="n">
+        <v>1099</v>
+      </c>
+      <c r="H1279" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1279" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1279" t="n">
+        <v>1180</v>
+      </c>
+      <c r="K1279" t="n">
+        <v>950</v>
+      </c>
+      <c r="L1279" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="inlineStr">
+        <is>
+          <t>AGARIND.NS</t>
+        </is>
+      </c>
+      <c r="B1280" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="C1280" t="n">
+        <v>1032.400024414062</v>
+      </c>
+      <c r="D1280" t="n">
+        <v>939</v>
+      </c>
+      <c r="E1280" t="n">
+        <v>970.2000122070312</v>
+      </c>
+      <c r="F1280" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1280" t="n">
+        <v>1032.400024414062</v>
+      </c>
+      <c r="H1280" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1280" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1280" t="n">
+        <v>1180</v>
+      </c>
+      <c r="K1280" t="n">
+        <v>950</v>
+      </c>
+      <c r="L1280" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="inlineStr">
+        <is>
+          <t>AGARIND.NS</t>
+        </is>
+      </c>
+      <c r="B1281" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C1281" t="n">
+        <v>1155</v>
+      </c>
+      <c r="D1281" t="n">
+        <v>1001.25</v>
+      </c>
+      <c r="E1281" t="n">
+        <v>1096.150024414062</v>
+      </c>
+      <c r="F1281" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1281" t="n">
+        <v>1155</v>
+      </c>
+      <c r="H1281" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1281" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1281" t="n">
+        <v>1180</v>
+      </c>
+      <c r="K1281" t="n">
+        <v>950</v>
+      </c>
+      <c r="L1281" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="inlineStr">
+        <is>
+          <t>ANDHRSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="B1282" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="C1282" t="n">
+        <v>124.75</v>
+      </c>
+      <c r="D1282" t="n">
+        <v>116.1999969482422</v>
+      </c>
+      <c r="E1282" t="n">
+        <v>121.8000030517578</v>
+      </c>
+      <c r="F1282" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1282" t="n">
+        <v>124.75</v>
+      </c>
+      <c r="H1282" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1282" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1282" t="n">
+        <v>128.9900054931641</v>
+      </c>
+      <c r="K1282" t="n">
+        <v>109.75</v>
+      </c>
+      <c r="L1282" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="inlineStr">
+        <is>
+          <t>ANDHRSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="B1283" s="2" t="n">
+        <v>45194</v>
+      </c>
+      <c r="C1283" t="n">
+        <v>128.6499938964844</v>
+      </c>
+      <c r="D1283" t="n">
+        <v>116.25</v>
+      </c>
+      <c r="E1283" t="n">
+        <v>118.6500015258789</v>
+      </c>
+      <c r="F1283" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1283" t="n">
+        <v>128.6499938964844</v>
+      </c>
+      <c r="H1283" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1283" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1283" t="n">
+        <v>128.9900054931641</v>
+      </c>
+      <c r="K1283" t="n">
+        <v>109.75</v>
+      </c>
+      <c r="L1283" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="inlineStr">
+        <is>
+          <t>ANDHRSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="B1284" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C1284" t="n">
+        <v>119.5500030517578</v>
+      </c>
+      <c r="D1284" t="n">
+        <v>110.0500030517578</v>
+      </c>
+      <c r="E1284" t="n">
+        <v>111.25</v>
+      </c>
+      <c r="F1284" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1284" t="n">
+        <v>119.5500030517578</v>
+      </c>
+      <c r="H1284" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1284" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1284" t="n">
+        <v>128.9900054931641</v>
+      </c>
+      <c r="K1284" t="n">
+        <v>109.75</v>
+      </c>
+      <c r="L1284" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="inlineStr">
+        <is>
+          <t>LEMONTREE.NS</t>
+        </is>
+      </c>
+      <c r="B1285" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C1285" t="n">
+        <v>147.25</v>
+      </c>
+      <c r="D1285" t="n">
+        <v>134.1000061035156</v>
+      </c>
+      <c r="E1285" t="n">
+        <v>141.6999969482422</v>
+      </c>
+      <c r="F1285" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1285" t="n">
+        <v>147.25</v>
+      </c>
+      <c r="H1285" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1285" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1285" t="n">
+        <v>150.9499969482422</v>
+      </c>
+      <c r="K1285" t="n">
+        <v>143.8000030517578</v>
+      </c>
+      <c r="L1285" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="inlineStr">
+        <is>
+          <t>ANDHRAPET.BO</t>
+        </is>
+      </c>
+      <c r="B1286" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C1286" t="n">
+        <v>115.9499969482422</v>
+      </c>
+      <c r="D1286" t="n">
+        <v>102</v>
+      </c>
+      <c r="E1286" t="n">
+        <v>104</v>
+      </c>
+      <c r="F1286" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1286" t="n">
+        <v>115.9499969482422</v>
+      </c>
+      <c r="H1286" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1286" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1286" t="n">
+        <v>126.9000015258789</v>
+      </c>
+      <c r="K1286" t="n">
+        <v>111</v>
+      </c>
+      <c r="L1286" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="inlineStr">
+        <is>
+          <t>FAZE3Q.NS</t>
+        </is>
+      </c>
+      <c r="B1287" s="2" t="n">
+        <v>45117</v>
+      </c>
+      <c r="C1287" t="n">
+        <v>436.9500122070312</v>
+      </c>
+      <c r="D1287" t="n">
+        <v>362</v>
+      </c>
+      <c r="E1287" t="n">
+        <v>411.4500122070312</v>
+      </c>
+      <c r="F1287" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1287" t="n">
+        <v>436.9500122070312</v>
+      </c>
+      <c r="H1287" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1287" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1287" t="n">
+        <v>454.5</v>
+      </c>
+      <c r="K1287" t="n">
+        <v>412</v>
+      </c>
+      <c r="L1287" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="inlineStr">
+        <is>
+          <t>SKYGOLD.NS</t>
+        </is>
+      </c>
+      <c r="B1288" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="C1288" t="n">
+        <v>1299.349975585938</v>
+      </c>
+      <c r="D1288" t="n">
+        <v>1096.099975585938</v>
+      </c>
+      <c r="E1288" t="n">
+        <v>1179.25</v>
+      </c>
+      <c r="F1288" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1288" t="n">
+        <v>1299.349975585938</v>
+      </c>
+      <c r="H1288" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1288" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1288" t="n">
+        <v>1337.400024414062</v>
+      </c>
+      <c r="K1288" t="n">
+        <v>1275</v>
+      </c>
+      <c r="L1288" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="inlineStr">
+        <is>
+          <t>SKYGOLD.NS</t>
+        </is>
+      </c>
+      <c r="B1289" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C1289" t="n">
+        <v>1288</v>
+      </c>
+      <c r="D1289" t="n">
+        <v>1140</v>
+      </c>
+      <c r="E1289" t="n">
+        <v>1162.699951171875</v>
+      </c>
+      <c r="F1289" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1289" t="n">
+        <v>1288</v>
+      </c>
+      <c r="H1289" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1289" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1289" t="n">
+        <v>1337.400024414062</v>
+      </c>
+      <c r="K1289" t="n">
+        <v>1275</v>
+      </c>
+      <c r="L1289" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="inlineStr">
+        <is>
+          <t>DHABRIYA.BO</t>
+        </is>
+      </c>
+      <c r="B1290" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C1290" t="n">
+        <v>315</v>
+      </c>
+      <c r="D1290" t="n">
+        <v>281.2999877929688</v>
+      </c>
+      <c r="E1290" t="n">
+        <v>291.7000122070312</v>
+      </c>
+      <c r="F1290" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1290" t="n">
+        <v>315</v>
+      </c>
+      <c r="H1290" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1290" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1290" t="n">
+        <v>349.9500122070312</v>
+      </c>
+      <c r="K1290" t="n">
+        <v>300</v>
+      </c>
+      <c r="L1290" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="inlineStr">
+        <is>
+          <t>MANINDS.NS</t>
+        </is>
+      </c>
+      <c r="B1291" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="C1291" t="n">
+        <v>435</v>
+      </c>
+      <c r="D1291" t="n">
+        <v>394.6000061035156</v>
+      </c>
+      <c r="E1291" t="n">
+        <v>420.1000061035156</v>
+      </c>
+      <c r="F1291" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1291" t="n">
+        <v>435</v>
+      </c>
+      <c r="H1291" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1291" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1291" t="n">
+        <v>439.7999877929688</v>
+      </c>
+      <c r="K1291" t="n">
+        <v>375.7999877929688</v>
+      </c>
+      <c r="L1291" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="inlineStr">
+        <is>
+          <t>HFCL.NS</t>
+        </is>
+      </c>
+      <c r="B1292" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C1292" t="n">
+        <v>117.8000030517578</v>
+      </c>
+      <c r="D1292" t="n">
+        <v>102.0999984741211</v>
+      </c>
+      <c r="E1292" t="n">
+        <v>108.4000015258789</v>
+      </c>
+      <c r="F1292" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1292" t="n">
+        <v>117.8000030517578</v>
+      </c>
+      <c r="H1292" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1292" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1292" t="n">
+        <v>120.3000030517578</v>
+      </c>
+      <c r="K1292" t="n">
+        <v>108.0999984741211</v>
+      </c>
+      <c r="L1292" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="inlineStr">
+        <is>
+          <t>STOVEKRAFT.NS</t>
+        </is>
+      </c>
+      <c r="B1293" s="2" t="n">
+        <v>45075</v>
+      </c>
+      <c r="C1293" t="n">
+        <v>507.3999938964844</v>
+      </c>
+      <c r="D1293" t="n">
+        <v>421</v>
+      </c>
+      <c r="E1293" t="n">
+        <v>437.8999938964844</v>
+      </c>
+      <c r="F1293" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1293" t="n">
+        <v>507.3999938964844</v>
+      </c>
+      <c r="H1293" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1293" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1293" t="n">
+        <v>550</v>
+      </c>
+      <c r="K1293" t="n">
+        <v>498.9500122070312</v>
+      </c>
+      <c r="L1293" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="inlineStr">
+        <is>
+          <t>STOVEKRAFT.NS</t>
+        </is>
+      </c>
+      <c r="B1294" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C1294" t="n">
+        <v>515</v>
+      </c>
+      <c r="D1294" t="n">
+        <v>480</v>
+      </c>
+      <c r="E1294" t="n">
+        <v>500.2000122070312</v>
+      </c>
+      <c r="F1294" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1294" t="n">
+        <v>515</v>
+      </c>
+      <c r="H1294" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1294" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1294" t="n">
+        <v>550</v>
+      </c>
+      <c r="K1294" t="n">
+        <v>498.9500122070312</v>
+      </c>
+      <c r="L1294" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="inlineStr">
+        <is>
+          <t>GRAVITA.NS</t>
+        </is>
+      </c>
+      <c r="B1295" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="C1295" t="n">
+        <v>1166</v>
+      </c>
+      <c r="D1295" t="n">
+        <v>1120.550048828125</v>
+      </c>
+      <c r="E1295" t="n">
+        <v>1138.099975585938</v>
+      </c>
+      <c r="F1295" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1295" t="n">
+        <v>1166</v>
+      </c>
+      <c r="H1295" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1295" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1295" t="n">
+        <v>1350</v>
+      </c>
+      <c r="K1295" t="n">
+        <v>1145.5</v>
+      </c>
+      <c r="L1295" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="inlineStr">
+        <is>
+          <t>M&amp;MFIN.NS</t>
+        </is>
+      </c>
+      <c r="B1296" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="C1296" t="n">
+        <v>296</v>
+      </c>
+      <c r="D1296" t="n">
+        <v>267.4500122070312</v>
+      </c>
+      <c r="E1296" t="n">
+        <v>286.7000122070312</v>
+      </c>
+      <c r="F1296" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1296" t="n">
+        <v>296</v>
+      </c>
+      <c r="H1296" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1296" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1296" t="n">
+        <v>300</v>
+      </c>
+      <c r="K1296" t="n">
+        <v>283.1000061035156</v>
+      </c>
+      <c r="L1296" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="inlineStr">
+        <is>
+          <t>CIPLA.NS</t>
+        </is>
+      </c>
+      <c r="B1297" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C1297" t="n">
+        <v>1519</v>
+      </c>
+      <c r="D1297" t="n">
+        <v>1449</v>
+      </c>
+      <c r="E1297" t="n">
+        <v>1488.050048828125</v>
+      </c>
+      <c r="F1297" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1297" t="n">
+        <v>1519</v>
+      </c>
+      <c r="H1297" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1297" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1297" t="n">
+        <v>1567</v>
+      </c>
+      <c r="K1297" t="n">
+        <v>1514</v>
+      </c>
+      <c r="L1297" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="inlineStr">
+        <is>
+          <t>DEEPAKNTR.NS</t>
+        </is>
+      </c>
+      <c r="B1298" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C1298" t="n">
+        <v>2372.699951171875</v>
+      </c>
+      <c r="D1298" t="n">
+        <v>2218.64990234375</v>
+      </c>
+      <c r="E1298" t="n">
+        <v>2319.25</v>
+      </c>
+      <c r="F1298" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1298" t="n">
+        <v>2372.699951171875</v>
+      </c>
+      <c r="H1298" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1298" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1298" t="n">
+        <v>2441.39990234375</v>
+      </c>
+      <c r="K1298" t="n">
+        <v>2295</v>
+      </c>
+      <c r="L1298" t="inlineStr">
+        <is>
+          <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L361"/>
+  <dimension ref="A1:L364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17778,6 +17778,150 @@
       <c r="L361" t="inlineStr">
         <is>
           <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2" t="n">
+        <v>45442.55208333334</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>18-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>TATAINVEST.NS</t>
+        </is>
+      </c>
+      <c r="E362" s="2" t="n">
+        <v>45400.38541666666</v>
+      </c>
+      <c r="F362" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G362" s="2" t="n">
+        <v>45422.38541666666</v>
+      </c>
+      <c r="H362" t="n">
+        <v>6890</v>
+      </c>
+      <c r="I362" s="2" t="n">
+        <v>45436.38541666666</v>
+      </c>
+      <c r="J362" t="n">
+        <v>6874</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>18/06/2024 04:46:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2" t="n">
+        <v>45450.55208333334</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>18-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>SHILCTECH.BO</t>
+        </is>
+      </c>
+      <c r="E363" s="2" t="n">
+        <v>45447.38541666666</v>
+      </c>
+      <c r="F363" t="n">
+        <v>5350</v>
+      </c>
+      <c r="G363" s="2" t="n">
+        <v>45447.42708333334</v>
+      </c>
+      <c r="H363" t="n">
+        <v>5350</v>
+      </c>
+      <c r="I363" s="2" t="n">
+        <v>45449.38541666666</v>
+      </c>
+      <c r="J363" t="n">
+        <v>5394</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>18/06/2024 04:46:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2" t="n">
+        <v>45440.55208333334</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>18-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>STOVEKRAFT.NS</t>
+        </is>
+      </c>
+      <c r="E364" s="2" t="n">
+        <v>45412.46875</v>
+      </c>
+      <c r="F364" t="n">
+        <v>464.2999877929688</v>
+      </c>
+      <c r="G364" s="2" t="n">
+        <v>45433.55208333334</v>
+      </c>
+      <c r="H364" t="n">
+        <v>509.8500061035156</v>
+      </c>
+      <c r="I364" s="2" t="n">
+        <v>45439.38541666666</v>
+      </c>
+      <c r="J364" t="n">
+        <v>517</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>18/06/2024 04:46:11</t>
         </is>
       </c>
     </row>
@@ -17792,7 +17936,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J184"/>
+  <dimension ref="A1:J190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25535,6 +25679,258 @@
       <c r="J184" t="inlineStr">
         <is>
           <t>17/06/2024 11:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>45406.55208333334</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>18-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>DMART.NS</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>45392.38541666666</v>
+      </c>
+      <c r="F185" t="n">
+        <v>4831.5</v>
+      </c>
+      <c r="G185" s="2" t="n">
+        <v>45401.38541666666</v>
+      </c>
+      <c r="H185" t="n">
+        <v>4831.7998046875</v>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>18/06/2024 04:46:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>45455.63541666666</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>18-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>NAUKRI.NS</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>45450.38541666666</v>
+      </c>
+      <c r="F186" t="n">
+        <v>6359.9501953125</v>
+      </c>
+      <c r="G186" s="2" t="n">
+        <v>45454.46875</v>
+      </c>
+      <c r="H186" t="n">
+        <v>6327.60009765625</v>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>18/06/2024 04:46:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>45450.55208333334</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>18-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>SHILCTECH.BO</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>45447.38541666666</v>
+      </c>
+      <c r="F187" t="n">
+        <v>5350</v>
+      </c>
+      <c r="G187" s="2" t="n">
+        <v>45449.38541666666</v>
+      </c>
+      <c r="H187" t="n">
+        <v>5394</v>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>18/06/2024 04:46:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>45450.55208333334</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>18-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>SHILCTECH.BO</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45447.42708333334</v>
+      </c>
+      <c r="F188" t="n">
+        <v>5350</v>
+      </c>
+      <c r="G188" s="2" t="n">
+        <v>45449.38541666666</v>
+      </c>
+      <c r="H188" t="n">
+        <v>5394</v>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>18/06/2024 04:46:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>45427.42708333334</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>18-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>KPEL.BO</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>45425.46875</v>
+      </c>
+      <c r="F189" t="n">
+        <v>422.1000061035156</v>
+      </c>
+      <c r="G189" s="2" t="n">
+        <v>45425.55208333334</v>
+      </c>
+      <c r="H189" t="n">
+        <v>422.1000061035156</v>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>18/06/2024 04:46:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>45439.42708333334</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>18-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>CARYSIL.NS</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>45421.59375</v>
+      </c>
+      <c r="F190" t="n">
+        <v>847.0499877929688</v>
+      </c>
+      <c r="G190" s="2" t="n">
+        <v>45435.55208333334</v>
+      </c>
+      <c r="H190" t="n">
+        <v>850</v>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>18/06/2024 04:46:11</t>
         </is>
       </c>
     </row>
@@ -25549,7 +25945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1298"/>
+  <dimension ref="A1:L1316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87875,6 +88271,870 @@
         </is>
       </c>
     </row>
+    <row r="1299">
+      <c r="A1299" t="inlineStr">
+        <is>
+          <t>BAJAJST.BO</t>
+        </is>
+      </c>
+      <c r="B1299" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="C1299" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D1299" t="n">
+        <v>1420</v>
+      </c>
+      <c r="E1299" t="n">
+        <v>1467.75</v>
+      </c>
+      <c r="F1299" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1299" t="n">
+        <v>1500</v>
+      </c>
+      <c r="H1299" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1299" t="inlineStr">
+        <is>
+          <t>18-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J1299" t="n">
+        <v>1510</v>
+      </c>
+      <c r="K1299" t="n">
+        <v>1495</v>
+      </c>
+      <c r="L1299" t="inlineStr">
+        <is>
+          <t>18/06/2024 04:46:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="inlineStr">
+        <is>
+          <t>TRF.NS</t>
+        </is>
+      </c>
+      <c r="B1300" s="2" t="n">
+        <v>45456.38541666666</v>
+      </c>
+      <c r="C1300" t="n">
+        <v>648.9500122070312</v>
+      </c>
+      <c r="D1300" t="n">
+        <v>611.25</v>
+      </c>
+      <c r="E1300" t="n">
+        <v>630</v>
+      </c>
+      <c r="F1300" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G1300" t="n">
+        <v>611.25</v>
+      </c>
+      <c r="H1300" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1300" t="inlineStr">
+        <is>
+          <t>18-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J1300" t="n">
+        <v>610.8499755859375</v>
+      </c>
+      <c r="K1300" t="n">
+        <v>623.2999877929688</v>
+      </c>
+      <c r="L1300" t="inlineStr">
+        <is>
+          <t>18/06/2024 04:46:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="inlineStr">
+        <is>
+          <t>ASMTEC.BO</t>
+        </is>
+      </c>
+      <c r="B1301" s="2" t="n">
+        <v>45455.38541666666</v>
+      </c>
+      <c r="C1301" t="n">
+        <v>1149.949951171875</v>
+      </c>
+      <c r="D1301" t="n">
+        <v>1101.099975585938</v>
+      </c>
+      <c r="E1301" t="n">
+        <v>1129.849975585938</v>
+      </c>
+      <c r="F1301" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1301" t="n">
+        <v>1149.949951171875</v>
+      </c>
+      <c r="H1301" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1301" t="inlineStr">
+        <is>
+          <t>18-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J1301" t="n">
+        <v>1160</v>
+      </c>
+      <c r="K1301" t="n">
+        <v>1122</v>
+      </c>
+      <c r="L1301" t="inlineStr">
+        <is>
+          <t>18/06/2024 04:46:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="inlineStr">
+        <is>
+          <t>SPELS.BO</t>
+        </is>
+      </c>
+      <c r="B1302" s="2" t="n">
+        <v>45455.38541666666</v>
+      </c>
+      <c r="C1302" t="n">
+        <v>143.9499969482422</v>
+      </c>
+      <c r="D1302" t="n">
+        <v>136</v>
+      </c>
+      <c r="E1302" t="n">
+        <v>139.5</v>
+      </c>
+      <c r="F1302" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1302" t="n">
+        <v>143.9499969482422</v>
+      </c>
+      <c r="H1302" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1302" t="inlineStr">
+        <is>
+          <t>18-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J1302" t="n">
+        <v>145.5</v>
+      </c>
+      <c r="K1302" t="n">
+        <v>143</v>
+      </c>
+      <c r="L1302" t="inlineStr">
+        <is>
+          <t>18/06/2024 04:46:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="inlineStr">
+        <is>
+          <t>SPELS.BO</t>
+        </is>
+      </c>
+      <c r="B1303" s="2" t="n">
+        <v>45455.46875</v>
+      </c>
+      <c r="C1303" t="n">
+        <v>138.8000030517578</v>
+      </c>
+      <c r="D1303" t="n">
+        <v>135</v>
+      </c>
+      <c r="E1303" t="n">
+        <v>137</v>
+      </c>
+      <c r="F1303" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G1303" t="n">
+        <v>135</v>
+      </c>
+      <c r="H1303" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1303" t="inlineStr">
+        <is>
+          <t>18-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J1303" t="n">
+        <v>134.75</v>
+      </c>
+      <c r="K1303" t="n">
+        <v>140</v>
+      </c>
+      <c r="L1303" t="inlineStr">
+        <is>
+          <t>18/06/2024 04:46:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="inlineStr">
+        <is>
+          <t>SPELS.BO</t>
+        </is>
+      </c>
+      <c r="B1304" s="2" t="n">
+        <v>45455.51041666666</v>
+      </c>
+      <c r="C1304" t="n">
+        <v>139</v>
+      </c>
+      <c r="D1304" t="n">
+        <v>135</v>
+      </c>
+      <c r="E1304" t="n">
+        <v>136.8999938964844</v>
+      </c>
+      <c r="F1304" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G1304" t="n">
+        <v>135</v>
+      </c>
+      <c r="H1304" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1304" t="inlineStr">
+        <is>
+          <t>18-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J1304" t="n">
+        <v>134.75</v>
+      </c>
+      <c r="K1304" t="n">
+        <v>140</v>
+      </c>
+      <c r="L1304" t="inlineStr">
+        <is>
+          <t>18/06/2024 04:46:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="inlineStr">
+        <is>
+          <t>CROWN.NS</t>
+        </is>
+      </c>
+      <c r="B1305" s="2" t="n">
+        <v>45421.38541666666</v>
+      </c>
+      <c r="C1305" t="n">
+        <v>260.4500122070312</v>
+      </c>
+      <c r="D1305" t="n">
+        <v>236.75</v>
+      </c>
+      <c r="E1305" t="n">
+        <v>236.75</v>
+      </c>
+      <c r="F1305" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1305" t="n">
+        <v>260.4500122070312</v>
+      </c>
+      <c r="H1305" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1305" t="inlineStr">
+        <is>
+          <t>18-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J1305" t="n">
+        <v>262.4800109863281</v>
+      </c>
+      <c r="K1305" t="n">
+        <v>249.9900054931641</v>
+      </c>
+      <c r="L1305" t="inlineStr">
+        <is>
+          <t>18/06/2024 04:46:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="inlineStr">
+        <is>
+          <t>ZODIAC.NS</t>
+        </is>
+      </c>
+      <c r="B1306" s="2" t="n">
+        <v>45448.55208333334</v>
+      </c>
+      <c r="C1306" t="n">
+        <v>611.8499755859375</v>
+      </c>
+      <c r="D1306" t="n">
+        <v>611.8499755859375</v>
+      </c>
+      <c r="E1306" t="n">
+        <v>611.8499755859375</v>
+      </c>
+      <c r="F1306" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G1306" t="n">
+        <v>611.8499755859375</v>
+      </c>
+      <c r="H1306" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1306" t="inlineStr">
+        <is>
+          <t>18-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J1306" t="n">
+        <v>608.9500122070312</v>
+      </c>
+      <c r="K1306" t="n">
+        <v>621.3499755859375</v>
+      </c>
+      <c r="L1306" t="inlineStr">
+        <is>
+          <t>18/06/2024 04:46:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="inlineStr">
+        <is>
+          <t>ZODIAC.NS</t>
+        </is>
+      </c>
+      <c r="B1307" s="2" t="n">
+        <v>45448.59375</v>
+      </c>
+      <c r="C1307" t="n">
+        <v>611.8499755859375</v>
+      </c>
+      <c r="D1307" t="n">
+        <v>611.8499755859375</v>
+      </c>
+      <c r="E1307" t="n">
+        <v>611.8499755859375</v>
+      </c>
+      <c r="F1307" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G1307" t="n">
+        <v>611.8499755859375</v>
+      </c>
+      <c r="H1307" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1307" t="inlineStr">
+        <is>
+          <t>18-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J1307" t="n">
+        <v>608.9500122070312</v>
+      </c>
+      <c r="K1307" t="n">
+        <v>621.3499755859375</v>
+      </c>
+      <c r="L1307" t="inlineStr">
+        <is>
+          <t>18/06/2024 04:46:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="inlineStr">
+        <is>
+          <t>ZODIAC.NS</t>
+        </is>
+      </c>
+      <c r="B1308" s="2" t="n">
+        <v>45456.38541666666</v>
+      </c>
+      <c r="C1308" t="n">
+        <v>611.0999755859375</v>
+      </c>
+      <c r="D1308" t="n">
+        <v>611.0999755859375</v>
+      </c>
+      <c r="E1308" t="n">
+        <v>611.0999755859375</v>
+      </c>
+      <c r="F1308" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G1308" t="n">
+        <v>611.0999755859375</v>
+      </c>
+      <c r="H1308" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1308" t="inlineStr">
+        <is>
+          <t>18-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J1308" t="n">
+        <v>608.9500122070312</v>
+      </c>
+      <c r="K1308" t="n">
+        <v>621.3499755859375</v>
+      </c>
+      <c r="L1308" t="inlineStr">
+        <is>
+          <t>18/06/2024 04:46:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="inlineStr">
+        <is>
+          <t>CENTRALBK.BO</t>
+        </is>
+      </c>
+      <c r="B1309" s="2" t="n">
+        <v>45453.38541666666</v>
+      </c>
+      <c r="C1309" t="n">
+        <v>65.73000335693359</v>
+      </c>
+      <c r="D1309" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="E1309" t="n">
+        <v>65.30000305175781</v>
+      </c>
+      <c r="F1309" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1309" t="n">
+        <v>65.73000335693359</v>
+      </c>
+      <c r="H1309" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1309" t="inlineStr">
+        <is>
+          <t>18-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J1309" t="n">
+        <v>65.80000305175781</v>
+      </c>
+      <c r="K1309" t="n">
+        <v>65.55000305175781</v>
+      </c>
+      <c r="L1309" t="inlineStr">
+        <is>
+          <t>18/06/2024 04:46:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="inlineStr">
+        <is>
+          <t>SIL.NS</t>
+        </is>
+      </c>
+      <c r="B1310" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="C1310" t="n">
+        <v>24.89999961853027</v>
+      </c>
+      <c r="D1310" t="n">
+        <v>23.45000076293945</v>
+      </c>
+      <c r="E1310" t="n">
+        <v>23.85000038146973</v>
+      </c>
+      <c r="F1310" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1310" t="n">
+        <v>24.89999961853027</v>
+      </c>
+      <c r="H1310" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1310" t="inlineStr">
+        <is>
+          <t>18-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J1310" t="n">
+        <v>24.94000053405762</v>
+      </c>
+      <c r="K1310" t="n">
+        <v>24.85000038146973</v>
+      </c>
+      <c r="L1310" t="inlineStr">
+        <is>
+          <t>18/06/2024 04:46:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="inlineStr">
+        <is>
+          <t>AGARIND.NS</t>
+        </is>
+      </c>
+      <c r="B1311" s="2" t="n">
+        <v>45455.42708333334</v>
+      </c>
+      <c r="C1311" t="n">
+        <v>1143</v>
+      </c>
+      <c r="D1311" t="n">
+        <v>1077</v>
+      </c>
+      <c r="E1311" t="n">
+        <v>1120</v>
+      </c>
+      <c r="F1311" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1311" t="n">
+        <v>1143</v>
+      </c>
+      <c r="H1311" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1311" t="inlineStr">
+        <is>
+          <t>18-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J1311" t="n">
+        <v>1179.300048828125</v>
+      </c>
+      <c r="K1311" t="n">
+        <v>1142</v>
+      </c>
+      <c r="L1311" t="inlineStr">
+        <is>
+          <t>18/06/2024 04:46:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="inlineStr">
+        <is>
+          <t>AGARIND.NS</t>
+        </is>
+      </c>
+      <c r="B1312" s="2" t="n">
+        <v>45455.46875</v>
+      </c>
+      <c r="C1312" t="n">
+        <v>1143</v>
+      </c>
+      <c r="D1312" t="n">
+        <v>1111.449951171875</v>
+      </c>
+      <c r="E1312" t="n">
+        <v>1116.900024414062</v>
+      </c>
+      <c r="F1312" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1312" t="n">
+        <v>1143</v>
+      </c>
+      <c r="H1312" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1312" t="inlineStr">
+        <is>
+          <t>18-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J1312" t="n">
+        <v>1179.300048828125</v>
+      </c>
+      <c r="K1312" t="n">
+        <v>1142</v>
+      </c>
+      <c r="L1312" t="inlineStr">
+        <is>
+          <t>18/06/2024 04:46:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="inlineStr">
+        <is>
+          <t>RPEL.BO</t>
+        </is>
+      </c>
+      <c r="B1313" s="2" t="n">
+        <v>45439.59375</v>
+      </c>
+      <c r="C1313" t="n">
+        <v>725.4500122070312</v>
+      </c>
+      <c r="D1313" t="n">
+        <v>682.4000244140625</v>
+      </c>
+      <c r="E1313" t="n">
+        <v>710</v>
+      </c>
+      <c r="F1313" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1313" t="n">
+        <v>725.4500122070312</v>
+      </c>
+      <c r="H1313" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1313" t="inlineStr">
+        <is>
+          <t>18-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J1313" t="n">
+        <v>729</v>
+      </c>
+      <c r="K1313" t="n">
+        <v>718.9000244140625</v>
+      </c>
+      <c r="L1313" t="inlineStr">
+        <is>
+          <t>18/06/2024 04:46:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="inlineStr">
+        <is>
+          <t>SANJIVIN.BO</t>
+        </is>
+      </c>
+      <c r="B1314" s="2" t="n">
+        <v>45454.38541666666</v>
+      </c>
+      <c r="C1314" t="n">
+        <v>176.8000030517578</v>
+      </c>
+      <c r="D1314" t="n">
+        <v>170.1999969482422</v>
+      </c>
+      <c r="E1314" t="n">
+        <v>170.5500030517578</v>
+      </c>
+      <c r="F1314" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1314" t="n">
+        <v>176.8000030517578</v>
+      </c>
+      <c r="H1314" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1314" t="inlineStr">
+        <is>
+          <t>18-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J1314" t="n">
+        <v>177.8999938964844</v>
+      </c>
+      <c r="K1314" t="n">
+        <v>175</v>
+      </c>
+      <c r="L1314" t="inlineStr">
+        <is>
+          <t>18/06/2024 04:46:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="inlineStr">
+        <is>
+          <t>UNIAUTO.BO</t>
+        </is>
+      </c>
+      <c r="B1315" s="2" t="n">
+        <v>45443.38541666666</v>
+      </c>
+      <c r="C1315" t="n">
+        <v>171.9499969482422</v>
+      </c>
+      <c r="D1315" t="n">
+        <v>164</v>
+      </c>
+      <c r="E1315" t="n">
+        <v>167.4499969482422</v>
+      </c>
+      <c r="F1315" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1315" t="n">
+        <v>171.9499969482422</v>
+      </c>
+      <c r="H1315" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1315" t="inlineStr">
+        <is>
+          <t>18-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J1315" t="n">
+        <v>174</v>
+      </c>
+      <c r="K1315" t="n">
+        <v>170.8500061035156</v>
+      </c>
+      <c r="L1315" t="inlineStr">
+        <is>
+          <t>18/06/2024 04:46:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="inlineStr">
+        <is>
+          <t>UNIAUTO.BO</t>
+        </is>
+      </c>
+      <c r="B1316" s="2" t="n">
+        <v>45454.38541666666</v>
+      </c>
+      <c r="C1316" t="n">
+        <v>171.9499969482422</v>
+      </c>
+      <c r="D1316" t="n">
+        <v>163.1999969482422</v>
+      </c>
+      <c r="E1316" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="F1316" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1316" t="n">
+        <v>171.9499969482422</v>
+      </c>
+      <c r="H1316" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1316" t="inlineStr">
+        <is>
+          <t>18-06-2024 09:15:00</t>
+        </is>
+      </c>
+      <c r="J1316" t="n">
+        <v>174</v>
+      </c>
+      <c r="K1316" t="n">
+        <v>170.8500061035156</v>
+      </c>
+      <c r="L1316" t="inlineStr">
+        <is>
+          <t>18/06/2024 04:46:11</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -17936,7 +17936,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J190"/>
+  <dimension ref="A1:J195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25931,6 +25931,216 @@
       <c r="J190" t="inlineStr">
         <is>
           <t>18/06/2024 04:46:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>45456.55208333334</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>18-06-2024 11:15:00</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>RAIN.NS</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>45443.38541666666</v>
+      </c>
+      <c r="F191" t="n">
+        <v>169.25</v>
+      </c>
+      <c r="G191" s="2" t="n">
+        <v>45455.38541666666</v>
+      </c>
+      <c r="H191" t="n">
+        <v>167.8899993896484</v>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>18/06/2024 05:47:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>45386.63541666666</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>18-06-2024 11:15:00</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>PSB.NS</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>45385.42708333334</v>
+      </c>
+      <c r="F192" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="G192" s="2" t="n">
+        <v>45385.46875</v>
+      </c>
+      <c r="H192" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>18/06/2024 05:47:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>45427.42708333334</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>18-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>KPEL.BO</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>45425.46875</v>
+      </c>
+      <c r="F193" t="n">
+        <v>422.1000061035156</v>
+      </c>
+      <c r="G193" s="2" t="n">
+        <v>45425.55208333334</v>
+      </c>
+      <c r="H193" t="n">
+        <v>422.1000061035156</v>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>18/06/2024 05:47:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>45447.55208333334</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>18-06-2024 10:15:00</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>SHANKARA.NS</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>45433.46875</v>
+      </c>
+      <c r="F194" t="n">
+        <v>715</v>
+      </c>
+      <c r="G194" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="H194" t="n">
+        <v>711.7999877929688</v>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>18/06/2024 05:47:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>45440.55208333334</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>18-06-2024 11:15:00</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>SHAILY.NS</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>45434.46875</v>
+      </c>
+      <c r="F195" t="n">
+        <v>692.0999755859375</v>
+      </c>
+      <c r="G195" s="2" t="n">
+        <v>45439.38541666666</v>
+      </c>
+      <c r="H195" t="n">
+        <v>692</v>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>18/06/2024 05:47:43</t>
         </is>
       </c>
     </row>
@@ -25945,7 +26155,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1316"/>
+  <dimension ref="A1:L1317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89135,6 +89345,54 @@
         </is>
       </c>
     </row>
+    <row r="1317">
+      <c r="A1317" t="inlineStr">
+        <is>
+          <t>RAIN.NS</t>
+        </is>
+      </c>
+      <c r="B1317" s="2" t="n">
+        <v>45455.38541666666</v>
+      </c>
+      <c r="C1317" t="n">
+        <v>167.8899993896484</v>
+      </c>
+      <c r="D1317" t="n">
+        <v>166.2100067138672</v>
+      </c>
+      <c r="E1317" t="n">
+        <v>167.1999969482422</v>
+      </c>
+      <c r="F1317" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1317" t="n">
+        <v>167.8899993896484</v>
+      </c>
+      <c r="H1317" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1317" t="inlineStr">
+        <is>
+          <t>18-06-2024 11:15:00</t>
+        </is>
+      </c>
+      <c r="J1317" t="n">
+        <v>168.6300048828125</v>
+      </c>
+      <c r="K1317" t="n">
+        <v>167.3000030517578</v>
+      </c>
+      <c r="L1317" t="inlineStr">
+        <is>
+          <t>18/06/2024 05:47:43</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L364"/>
+  <dimension ref="A1:L365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17922,6 +17922,54 @@
       <c r="L364" t="inlineStr">
         <is>
           <t>18/06/2024 04:46:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2" t="n">
+        <v>45446.55208333334</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>18-06-2024 11:15:00</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>RAIN.NS</t>
+        </is>
+      </c>
+      <c r="E365" s="2" t="n">
+        <v>45414.55208333334</v>
+      </c>
+      <c r="F365" t="n">
+        <v>178.1999969482422</v>
+      </c>
+      <c r="G365" s="2" t="n">
+        <v>45434.42708333334</v>
+      </c>
+      <c r="H365" t="n">
+        <v>174.75</v>
+      </c>
+      <c r="I365" s="2" t="n">
+        <v>45439.42708333334</v>
+      </c>
+      <c r="J365" t="n">
+        <v>173.6499938964844</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>18/06/2024 06:46:59</t>
         </is>
       </c>
     </row>
@@ -17936,7 +17984,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J195"/>
+  <dimension ref="A1:J198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26141,6 +26189,132 @@
       <c r="J195" t="inlineStr">
         <is>
           <t>18/06/2024 05:47:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>45441.63541666666</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>18-06-2024 12:15:00</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>MARICO.NS</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>45426.55208333334</v>
+      </c>
+      <c r="F196" t="n">
+        <v>612.4000244140625</v>
+      </c>
+      <c r="G196" s="2" t="n">
+        <v>45440.46875</v>
+      </c>
+      <c r="H196" t="n">
+        <v>615.9000244140625</v>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>18/06/2024 06:46:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>45449.63541666666</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>18-06-2024 12:15:00</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>GODREJIND.NS</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>45446.55208333334</v>
+      </c>
+      <c r="F197" t="n">
+        <v>806.8499755859375</v>
+      </c>
+      <c r="G197" s="2" t="n">
+        <v>45448.46875</v>
+      </c>
+      <c r="H197" t="n">
+        <v>807.9500122070312</v>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>18/06/2024 06:46:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>45454.55208333334</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>18-06-2024 12:15:00</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>TV18BRDCST.NS</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>45442.42708333334</v>
+      </c>
+      <c r="F198" t="n">
+        <v>43.79999923706055</v>
+      </c>
+      <c r="G198" s="2" t="n">
+        <v>45453.38541666666</v>
+      </c>
+      <c r="H198" t="n">
+        <v>43.93000030517578</v>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>18/06/2024 06:46:59</t>
         </is>
       </c>
     </row>
@@ -26155,7 +26329,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1317"/>
+  <dimension ref="A1:L1318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89393,6 +89567,54 @@
         </is>
       </c>
     </row>
+    <row r="1318">
+      <c r="A1318" t="inlineStr">
+        <is>
+          <t>GREENPLY.NS</t>
+        </is>
+      </c>
+      <c r="B1318" s="2" t="n">
+        <v>45455.38541666666</v>
+      </c>
+      <c r="C1318" t="n">
+        <v>293.9500122070312</v>
+      </c>
+      <c r="D1318" t="n">
+        <v>290</v>
+      </c>
+      <c r="E1318" t="n">
+        <v>292.3999938964844</v>
+      </c>
+      <c r="F1318" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1318" t="n">
+        <v>293.9500122070312</v>
+      </c>
+      <c r="H1318" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1318" t="inlineStr">
+        <is>
+          <t>18-06-2024 12:15:00</t>
+        </is>
+      </c>
+      <c r="J1318" t="n">
+        <v>294</v>
+      </c>
+      <c r="K1318" t="n">
+        <v>293.8999938964844</v>
+      </c>
+      <c r="L1318" t="inlineStr">
+        <is>
+          <t>18/06/2024 06:46:59</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -17984,7 +17984,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J198"/>
+  <dimension ref="A1:J201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26315,6 +26315,132 @@
       <c r="J198" t="inlineStr">
         <is>
           <t>18/06/2024 06:46:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45441.63541666666</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>18-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>MARICO.NS</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>45426.55208333334</v>
+      </c>
+      <c r="F199" t="n">
+        <v>612.4000244140625</v>
+      </c>
+      <c r="G199" s="2" t="n">
+        <v>45440.46875</v>
+      </c>
+      <c r="H199" t="n">
+        <v>615.9000244140625</v>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>18/06/2024 07:47:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45456.42708333334</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>18-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>TVSMOTOR.NS</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>45453.38541666666</v>
+      </c>
+      <c r="F200" t="n">
+        <v>2444.949951171875</v>
+      </c>
+      <c r="G200" s="2" t="n">
+        <v>45454.55208333334</v>
+      </c>
+      <c r="H200" t="n">
+        <v>2452</v>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>18/06/2024 07:47:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45457.55208333334</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>18-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>PIIND.NS</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>45454.38541666666</v>
+      </c>
+      <c r="F201" t="n">
+        <v>3664.25</v>
+      </c>
+      <c r="G201" s="2" t="n">
+        <v>45456.38541666666</v>
+      </c>
+      <c r="H201" t="n">
+        <v>3658.699951171875</v>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>18/06/2024 07:47:52</t>
         </is>
       </c>
     </row>
@@ -26329,7 +26455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1318"/>
+  <dimension ref="A1:L1320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89615,6 +89741,102 @@
         </is>
       </c>
     </row>
+    <row r="1319">
+      <c r="A1319" t="inlineStr">
+        <is>
+          <t>ASMTEC.BO</t>
+        </is>
+      </c>
+      <c r="B1319" s="2" t="n">
+        <v>45455.38541666666</v>
+      </c>
+      <c r="C1319" t="n">
+        <v>1149.949951171875</v>
+      </c>
+      <c r="D1319" t="n">
+        <v>1101.099975585938</v>
+      </c>
+      <c r="E1319" t="n">
+        <v>1129.849975585938</v>
+      </c>
+      <c r="F1319" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1319" t="n">
+        <v>1149.949951171875</v>
+      </c>
+      <c r="H1319" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1319" t="inlineStr">
+        <is>
+          <t>18-06-2024 12:15:00</t>
+        </is>
+      </c>
+      <c r="J1319" t="n">
+        <v>1155</v>
+      </c>
+      <c r="K1319" t="n">
+        <v>1139</v>
+      </c>
+      <c r="L1319" t="inlineStr">
+        <is>
+          <t>18/06/2024 07:47:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="inlineStr">
+        <is>
+          <t>SAFARI.NS</t>
+        </is>
+      </c>
+      <c r="B1320" s="2" t="n">
+        <v>45440.46875</v>
+      </c>
+      <c r="C1320" t="n">
+        <v>2072.949951171875</v>
+      </c>
+      <c r="D1320" t="n">
+        <v>2048.550048828125</v>
+      </c>
+      <c r="E1320" t="n">
+        <v>2052.14990234375</v>
+      </c>
+      <c r="F1320" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1320" t="n">
+        <v>2072.949951171875</v>
+      </c>
+      <c r="H1320" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1320" t="inlineStr">
+        <is>
+          <t>18-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="J1320" t="n">
+        <v>2084.5</v>
+      </c>
+      <c r="K1320" t="n">
+        <v>2072.60009765625</v>
+      </c>
+      <c r="L1320" t="inlineStr">
+        <is>
+          <t>18/06/2024 07:47:52</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L365"/>
+  <dimension ref="A1:L366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17970,6 +17970,54 @@
       <c r="L365" t="inlineStr">
         <is>
           <t>18/06/2024 06:46:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2" t="n">
+        <v>45429.55208333334</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>18-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>GOODYEAR.BO</t>
+        </is>
+      </c>
+      <c r="E366" s="2" t="n">
+        <v>45412.38541666666</v>
+      </c>
+      <c r="F366" t="n">
+        <v>1182</v>
+      </c>
+      <c r="G366" s="2" t="n">
+        <v>45418.38541666666</v>
+      </c>
+      <c r="H366" t="n">
+        <v>1183.800048828125</v>
+      </c>
+      <c r="I366" s="2" t="n">
+        <v>45428.38541666666</v>
+      </c>
+      <c r="J366" t="n">
+        <v>1184.949951171875</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>18/06/2024 08:47:09</t>
         </is>
       </c>
     </row>
@@ -17984,7 +18032,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J201"/>
+  <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26441,6 +26489,174 @@
       <c r="J201" t="inlineStr">
         <is>
           <t>18/06/2024 07:47:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>45436.42708333334</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>18-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>INDUSTOWER.NS</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>45428.46875</v>
+      </c>
+      <c r="F202" t="n">
+        <v>337.5499877929688</v>
+      </c>
+      <c r="G202" s="2" t="n">
+        <v>45434.55208333334</v>
+      </c>
+      <c r="H202" t="n">
+        <v>336.9500122070312</v>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>18/06/2024 08:47:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>45436.42708333334</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>18-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>INDUSTOWER.NS</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>45428.51041666666</v>
+      </c>
+      <c r="F203" t="n">
+        <v>337.5499877929688</v>
+      </c>
+      <c r="G203" s="2" t="n">
+        <v>45434.55208333334</v>
+      </c>
+      <c r="H203" t="n">
+        <v>336.9500122070312</v>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>18/06/2024 08:47:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>45386.63541666666</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>18-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>PSB.NS</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>45385.42708333334</v>
+      </c>
+      <c r="F204" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="G204" s="2" t="n">
+        <v>45385.46875</v>
+      </c>
+      <c r="H204" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>18/06/2024 08:47:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>45427.42708333334</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>18-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>KPEL.BO</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>45425.46875</v>
+      </c>
+      <c r="F205" t="n">
+        <v>422.1000061035156</v>
+      </c>
+      <c r="G205" s="2" t="n">
+        <v>45425.55208333334</v>
+      </c>
+      <c r="H205" t="n">
+        <v>422.1000061035156</v>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>18/06/2024 08:47:09</t>
         </is>
       </c>
     </row>
@@ -26455,7 +26671,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1320"/>
+  <dimension ref="A1:L1324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89837,6 +90053,198 @@
         </is>
       </c>
     </row>
+    <row r="1321">
+      <c r="A1321" t="inlineStr">
+        <is>
+          <t>PICCADIL.BO</t>
+        </is>
+      </c>
+      <c r="B1321" s="2" t="n">
+        <v>45455.38541666666</v>
+      </c>
+      <c r="C1321" t="n">
+        <v>783.9000244140625</v>
+      </c>
+      <c r="D1321" t="n">
+        <v>758</v>
+      </c>
+      <c r="E1321" t="n">
+        <v>768</v>
+      </c>
+      <c r="F1321" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G1321" t="n">
+        <v>758</v>
+      </c>
+      <c r="H1321" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1321" t="inlineStr">
+        <is>
+          <t>18-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="J1321" t="n">
+        <v>754.0499877929688</v>
+      </c>
+      <c r="K1321" t="n">
+        <v>763</v>
+      </c>
+      <c r="L1321" t="inlineStr">
+        <is>
+          <t>18/06/2024 08:47:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="inlineStr">
+        <is>
+          <t>PICCADIL.BO</t>
+        </is>
+      </c>
+      <c r="B1322" s="2" t="n">
+        <v>45455.42708333334</v>
+      </c>
+      <c r="C1322" t="n">
+        <v>770</v>
+      </c>
+      <c r="D1322" t="n">
+        <v>758</v>
+      </c>
+      <c r="E1322" t="n">
+        <v>768.0499877929688</v>
+      </c>
+      <c r="F1322" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G1322" t="n">
+        <v>758</v>
+      </c>
+      <c r="H1322" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1322" t="inlineStr">
+        <is>
+          <t>18-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="J1322" t="n">
+        <v>754.0499877929688</v>
+      </c>
+      <c r="K1322" t="n">
+        <v>763</v>
+      </c>
+      <c r="L1322" t="inlineStr">
+        <is>
+          <t>18/06/2024 08:47:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="inlineStr">
+        <is>
+          <t>ANDHRAPET.BO</t>
+        </is>
+      </c>
+      <c r="B1323" s="2" t="n">
+        <v>45456.46875</v>
+      </c>
+      <c r="C1323" t="n">
+        <v>120.4000015258789</v>
+      </c>
+      <c r="D1323" t="n">
+        <v>115.3000030517578</v>
+      </c>
+      <c r="E1323" t="n">
+        <v>118.1999969482422</v>
+      </c>
+      <c r="F1323" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G1323" t="n">
+        <v>115.3000030517578</v>
+      </c>
+      <c r="H1323" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1323" t="inlineStr">
+        <is>
+          <t>18-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="J1323" t="n">
+        <v>115.0999984741211</v>
+      </c>
+      <c r="K1323" t="n">
+        <v>115.5</v>
+      </c>
+      <c r="L1323" t="inlineStr">
+        <is>
+          <t>18/06/2024 08:47:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="inlineStr">
+        <is>
+          <t>NILE.BO</t>
+        </is>
+      </c>
+      <c r="B1324" s="2" t="n">
+        <v>45455.63541666666</v>
+      </c>
+      <c r="C1324" t="n">
+        <v>1250</v>
+      </c>
+      <c r="D1324" t="n">
+        <v>1235.050048828125</v>
+      </c>
+      <c r="E1324" t="n">
+        <v>1244.449951171875</v>
+      </c>
+      <c r="F1324" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G1324" t="n">
+        <v>1235.050048828125</v>
+      </c>
+      <c r="H1324" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1324" t="inlineStr">
+        <is>
+          <t>18-06-2024 13:15:00</t>
+        </is>
+      </c>
+      <c r="J1324" t="n">
+        <v>1230.650024414062</v>
+      </c>
+      <c r="K1324" t="n">
+        <v>1237</v>
+      </c>
+      <c r="L1324" t="inlineStr">
+        <is>
+          <t>18/06/2024 08:47:09</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -18032,7 +18032,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J205"/>
+  <dimension ref="A1:J206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26657,6 +26657,48 @@
       <c r="J205" t="inlineStr">
         <is>
           <t>18/06/2024 08:47:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>45443.38541666666</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>18-06-2024 15:15:00</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>BERGEPAINT.NS</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>45426.38541666666</v>
+      </c>
+      <c r="F206" t="n">
+        <v>498.9500122070312</v>
+      </c>
+      <c r="G206" s="2" t="n">
+        <v>45441.51041666666</v>
+      </c>
+      <c r="H206" t="n">
+        <v>501.3999938964844</v>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>18/06/2024 09:47:02</t>
         </is>
       </c>
     </row>
@@ -26671,7 +26713,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1324"/>
+  <dimension ref="A1:L1328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90245,6 +90287,198 @@
         </is>
       </c>
     </row>
+    <row r="1325">
+      <c r="A1325" t="inlineStr">
+        <is>
+          <t>TANFACIND.BO</t>
+        </is>
+      </c>
+      <c r="B1325" s="2" t="n">
+        <v>45449.46875</v>
+      </c>
+      <c r="C1325" t="n">
+        <v>2036.849975585938</v>
+      </c>
+      <c r="D1325" t="n">
+        <v>1971</v>
+      </c>
+      <c r="E1325" t="n">
+        <v>1997.949951171875</v>
+      </c>
+      <c r="F1325" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1325" t="n">
+        <v>2036.849975585938</v>
+      </c>
+      <c r="H1325" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1325" t="inlineStr">
+        <is>
+          <t>18-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="J1325" t="n">
+        <v>2051</v>
+      </c>
+      <c r="K1325" t="n">
+        <v>2026.599975585938</v>
+      </c>
+      <c r="L1325" t="inlineStr">
+        <is>
+          <t>18/06/2024 09:47:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="inlineStr">
+        <is>
+          <t>TANFACIND.BO</t>
+        </is>
+      </c>
+      <c r="B1326" s="2" t="n">
+        <v>45453.51041666666</v>
+      </c>
+      <c r="C1326" t="n">
+        <v>2050</v>
+      </c>
+      <c r="D1326" t="n">
+        <v>1969.699951171875</v>
+      </c>
+      <c r="E1326" t="n">
+        <v>2024.050048828125</v>
+      </c>
+      <c r="F1326" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1326" t="n">
+        <v>2050</v>
+      </c>
+      <c r="H1326" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1326" t="inlineStr">
+        <is>
+          <t>18-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="J1326" t="n">
+        <v>2051</v>
+      </c>
+      <c r="K1326" t="n">
+        <v>2026.599975585938</v>
+      </c>
+      <c r="L1326" t="inlineStr">
+        <is>
+          <t>18/06/2024 09:47:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="inlineStr">
+        <is>
+          <t>TANFACIND.BO</t>
+        </is>
+      </c>
+      <c r="B1327" s="2" t="n">
+        <v>45455.51041666666</v>
+      </c>
+      <c r="C1327" t="n">
+        <v>2049.949951171875</v>
+      </c>
+      <c r="D1327" t="n">
+        <v>1975</v>
+      </c>
+      <c r="E1327" t="n">
+        <v>2024.949951171875</v>
+      </c>
+      <c r="F1327" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1327" t="n">
+        <v>2049.949951171875</v>
+      </c>
+      <c r="H1327" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1327" t="inlineStr">
+        <is>
+          <t>18-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="J1327" t="n">
+        <v>2051</v>
+      </c>
+      <c r="K1327" t="n">
+        <v>2026.599975585938</v>
+      </c>
+      <c r="L1327" t="inlineStr">
+        <is>
+          <t>18/06/2024 09:47:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="inlineStr">
+        <is>
+          <t>RPEL.BO</t>
+        </is>
+      </c>
+      <c r="B1328" s="2" t="n">
+        <v>45439.59375</v>
+      </c>
+      <c r="C1328" t="n">
+        <v>725.4500122070312</v>
+      </c>
+      <c r="D1328" t="n">
+        <v>682.4000244140625</v>
+      </c>
+      <c r="E1328" t="n">
+        <v>710</v>
+      </c>
+      <c r="F1328" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1328" t="n">
+        <v>725.4500122070312</v>
+      </c>
+      <c r="H1328" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="I1328" t="inlineStr">
+        <is>
+          <t>18-06-2024 14:15:00</t>
+        </is>
+      </c>
+      <c r="J1328" t="n">
+        <v>738</v>
+      </c>
+      <c r="K1328" t="n">
+        <v>724.7999877929688</v>
+      </c>
+      <c r="L1328" t="inlineStr">
+        <is>
+          <t>18/06/2024 09:47:02</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/line_breakout.xlsx
+++ b/excel/breakout/line_breakout.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L366"/>
+  <dimension ref="A1:L378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18018,6 +18018,582 @@
       <c r="L366" t="inlineStr">
         <is>
           <t>18/06/2024 08:47:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>17-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>DMART.NS</t>
+        </is>
+      </c>
+      <c r="E367" s="2" t="n">
+        <v>45096</v>
+      </c>
+      <c r="F367" t="n">
+        <v>4150</v>
+      </c>
+      <c r="G367" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="H367" t="n">
+        <v>4206</v>
+      </c>
+      <c r="I367" t="n">
+        <v>0</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>18/06/2024 11:36:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>17-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>MAHEPC.NS</t>
+        </is>
+      </c>
+      <c r="E368" s="2" t="n">
+        <v>44928</v>
+      </c>
+      <c r="F368" t="n">
+        <v>113</v>
+      </c>
+      <c r="G368" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="H368" t="n">
+        <v>162.8000030517578</v>
+      </c>
+      <c r="I368" t="n">
+        <v>0</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>18/06/2024 11:36:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>17-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>GMRINFRA.NS</t>
+        </is>
+      </c>
+      <c r="E369" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="F369" t="n">
+        <v>94.34999847412109</v>
+      </c>
+      <c r="G369" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="H369" t="n">
+        <v>92.40000152587891</v>
+      </c>
+      <c r="I369" t="n">
+        <v>0</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>18/06/2024 11:36:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>17-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>JISLJALEQS.NS</t>
+        </is>
+      </c>
+      <c r="E370" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="F370" t="n">
+        <v>73.44999694824219</v>
+      </c>
+      <c r="G370" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="H370" t="n">
+        <v>68.59999847412109</v>
+      </c>
+      <c r="I370" t="n">
+        <v>0</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>18/06/2024 11:36:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>17-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>M&amp;MFIN.NS</t>
+        </is>
+      </c>
+      <c r="E371" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="F371" t="n">
+        <v>296</v>
+      </c>
+      <c r="G371" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="H371" t="n">
+        <v>302.8999938964844</v>
+      </c>
+      <c r="I371" t="n">
+        <v>0</v>
+      </c>
+      <c r="J371" t="n">
+        <v>0</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>18/06/2024 11:36:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>17-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>JKPAPER.NS</t>
+        </is>
+      </c>
+      <c r="E372" s="2" t="n">
+        <v>44788</v>
+      </c>
+      <c r="F372" t="n">
+        <v>449.9500122070312</v>
+      </c>
+      <c r="G372" s="2" t="n">
+        <v>44914</v>
+      </c>
+      <c r="H372" t="n">
+        <v>453.2000122070312</v>
+      </c>
+      <c r="I372" t="n">
+        <v>0</v>
+      </c>
+      <c r="J372" t="n">
+        <v>0</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>18/06/2024 11:36:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>17-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>JKPAPER.NS</t>
+        </is>
+      </c>
+      <c r="E373" s="2" t="n">
+        <v>44788</v>
+      </c>
+      <c r="F373" t="n">
+        <v>449.9500122070312</v>
+      </c>
+      <c r="G373" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="H373" t="n">
+        <v>452</v>
+      </c>
+      <c r="I373" t="n">
+        <v>0</v>
+      </c>
+      <c r="J373" t="n">
+        <v>0</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>18/06/2024 11:36:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>17-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>JKPAPER.NS</t>
+        </is>
+      </c>
+      <c r="E374" s="2" t="n">
+        <v>44788</v>
+      </c>
+      <c r="F374" t="n">
+        <v>449.9500122070312</v>
+      </c>
+      <c r="G374" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="H374" t="n">
+        <v>415.2999877929688</v>
+      </c>
+      <c r="I374" t="n">
+        <v>0</v>
+      </c>
+      <c r="J374" t="n">
+        <v>0</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>18/06/2024 11:36:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="2" t="n">
+        <v>44319</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>17-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="E375" s="2" t="n">
+        <v>43549</v>
+      </c>
+      <c r="F375" t="n">
+        <v>13.10999965667725</v>
+      </c>
+      <c r="G375" s="2" t="n">
+        <v>44200</v>
+      </c>
+      <c r="H375" t="n">
+        <v>12.52000045776367</v>
+      </c>
+      <c r="I375" t="n">
+        <v>0</v>
+      </c>
+      <c r="J375" t="n">
+        <v>0</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>18/06/2024 11:36:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="2" t="n">
+        <v>44319</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>17-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="E376" s="2" t="n">
+        <v>44200</v>
+      </c>
+      <c r="F376" t="n">
+        <v>12.52000045776367</v>
+      </c>
+      <c r="G376" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="H376" t="n">
+        <v>10.97000026702881</v>
+      </c>
+      <c r="I376" t="n">
+        <v>0</v>
+      </c>
+      <c r="J376" t="n">
+        <v>0</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>18/06/2024 11:36:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="2" t="n">
+        <v>44319</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>17-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="E377" s="2" t="n">
+        <v>43542</v>
+      </c>
+      <c r="F377" t="n">
+        <v>13.10999965667725</v>
+      </c>
+      <c r="G377" s="2" t="n">
+        <v>44200</v>
+      </c>
+      <c r="H377" t="n">
+        <v>12.52000045776367</v>
+      </c>
+      <c r="I377" t="n">
+        <v>0</v>
+      </c>
+      <c r="J377" t="n">
+        <v>0</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>18/06/2024 11:36:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="2" t="n">
+        <v>44319</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>17-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="E378" s="2" t="n">
+        <v>43542</v>
+      </c>
+      <c r="F378" t="n">
+        <v>13.10999965667725</v>
+      </c>
+      <c r="G378" s="2" t="n">
+        <v>44158</v>
+      </c>
+      <c r="H378" t="n">
+        <v>12</v>
+      </c>
+      <c r="I378" t="n">
+        <v>0</v>
+      </c>
+      <c r="J378" t="n">
+        <v>0</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>18/06/2024 11:36:33</t>
         </is>
       </c>
     </row>
@@ -18032,7 +18608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J206"/>
+  <dimension ref="A1:J208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26699,6 +27275,90 @@
       <c r="J206" t="inlineStr">
         <is>
           <t>18/06/2024 09:47:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>17-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>BANARISUG.NS</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>45089</v>
+      </c>
+      <c r="F207" t="n">
+        <v>2930.050048828125</v>
+      </c>
+      <c r="G207" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="H207" t="n">
+        <v>2930.300048828125</v>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>18/06/2024 11:36:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>44585</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>17-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>IDEA.NS</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>44536</v>
+      </c>
+      <c r="F208" t="n">
+        <v>16.79999923706055</v>
+      </c>
+      <c r="G208" s="2" t="n">
+        <v>44543</v>
+      </c>
+      <c r="H208" t="n">
+        <v>16.79999923706055</v>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>18/06/2024 11:36:33</t>
         </is>
       </c>
     </row>
@@ -26713,7 +27373,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1328"/>
+  <dimension ref="A1:L1343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90479,6 +91139,726 @@
         </is>
       </c>
     </row>
+    <row r="1329">
+      <c r="A1329" t="inlineStr">
+        <is>
+          <t>CHAMBLFERT.NS</t>
+        </is>
+      </c>
+      <c r="B1329" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C1329" t="n">
+        <v>439</v>
+      </c>
+      <c r="D1329" t="n">
+        <v>400.3500061035156</v>
+      </c>
+      <c r="E1329" t="n">
+        <v>405.7000122070312</v>
+      </c>
+      <c r="F1329" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1329" t="n">
+        <v>439</v>
+      </c>
+      <c r="H1329" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1329" t="inlineStr">
+        <is>
+          <t>17-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1329" t="n">
+        <v>439.8999938964844</v>
+      </c>
+      <c r="K1329" t="n">
+        <v>437</v>
+      </c>
+      <c r="L1329" t="inlineStr">
+        <is>
+          <t>18/06/2024 11:36:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="inlineStr">
+        <is>
+          <t>BAJFINANCE.NS</t>
+        </is>
+      </c>
+      <c r="B1330" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="C1330" t="n">
+        <v>7419.4501953125</v>
+      </c>
+      <c r="D1330" t="n">
+        <v>6691.5</v>
+      </c>
+      <c r="E1330" t="n">
+        <v>6731.2001953125</v>
+      </c>
+      <c r="F1330" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1330" t="n">
+        <v>7419.4501953125</v>
+      </c>
+      <c r="H1330" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1330" t="inlineStr">
+        <is>
+          <t>17-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1330" t="n">
+        <v>7429.4501953125</v>
+      </c>
+      <c r="K1330" t="n">
+        <v>7370</v>
+      </c>
+      <c r="L1330" t="inlineStr">
+        <is>
+          <t>18/06/2024 11:36:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="inlineStr">
+        <is>
+          <t>PATELENG.NS</t>
+        </is>
+      </c>
+      <c r="B1331" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="C1331" t="n">
+        <v>69.69999694824219</v>
+      </c>
+      <c r="D1331" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="E1331" t="n">
+        <v>63</v>
+      </c>
+      <c r="F1331" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1331" t="n">
+        <v>69.69999694824219</v>
+      </c>
+      <c r="H1331" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1331" t="inlineStr">
+        <is>
+          <t>17-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1331" t="n">
+        <v>72.19999694824219</v>
+      </c>
+      <c r="K1331" t="n">
+        <v>69.19999694824219</v>
+      </c>
+      <c r="L1331" t="inlineStr">
+        <is>
+          <t>18/06/2024 11:36:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="inlineStr">
+        <is>
+          <t>BAJAJCON.NS</t>
+        </is>
+      </c>
+      <c r="B1332" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="C1332" t="n">
+        <v>271</v>
+      </c>
+      <c r="D1332" t="n">
+        <v>236</v>
+      </c>
+      <c r="E1332" t="n">
+        <v>244.9499969482422</v>
+      </c>
+      <c r="F1332" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1332" t="n">
+        <v>271</v>
+      </c>
+      <c r="H1332" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1332" t="inlineStr">
+        <is>
+          <t>17-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1332" t="n">
+        <v>273.8399963378906</v>
+      </c>
+      <c r="K1332" t="n">
+        <v>268</v>
+      </c>
+      <c r="L1332" t="inlineStr">
+        <is>
+          <t>18/06/2024 11:36:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="inlineStr">
+        <is>
+          <t>MAHLIFE.NS</t>
+        </is>
+      </c>
+      <c r="B1333" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C1333" t="n">
+        <v>632.7999877929688</v>
+      </c>
+      <c r="D1333" t="n">
+        <v>571.5</v>
+      </c>
+      <c r="E1333" t="n">
+        <v>588.2999877929688</v>
+      </c>
+      <c r="F1333" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1333" t="n">
+        <v>632.7999877929688</v>
+      </c>
+      <c r="H1333" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1333" t="inlineStr">
+        <is>
+          <t>17-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1333" t="n">
+        <v>640</v>
+      </c>
+      <c r="K1333" t="n">
+        <v>629.7000122070312</v>
+      </c>
+      <c r="L1333" t="inlineStr">
+        <is>
+          <t>18/06/2024 11:36:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="inlineStr">
+        <is>
+          <t>INDHOTEL.NS</t>
+        </is>
+      </c>
+      <c r="B1334" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C1334" t="n">
+        <v>622.5</v>
+      </c>
+      <c r="D1334" t="n">
+        <v>594.25</v>
+      </c>
+      <c r="E1334" t="n">
+        <v>613.2999877929688</v>
+      </c>
+      <c r="F1334" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1334" t="n">
+        <v>622.5</v>
+      </c>
+      <c r="H1334" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1334" t="inlineStr">
+        <is>
+          <t>17-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1334" t="n">
+        <v>626</v>
+      </c>
+      <c r="K1334" t="n">
+        <v>615.5999755859375</v>
+      </c>
+      <c r="L1334" t="inlineStr">
+        <is>
+          <t>18/06/2024 11:36:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="inlineStr">
+        <is>
+          <t>FACT.NS</t>
+        </is>
+      </c>
+      <c r="B1335" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="C1335" t="n">
+        <v>861.1500244140625</v>
+      </c>
+      <c r="D1335" t="n">
+        <v>760.5</v>
+      </c>
+      <c r="E1335" t="n">
+        <v>801.0499877929688</v>
+      </c>
+      <c r="F1335" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1335" t="n">
+        <v>861.1500244140625</v>
+      </c>
+      <c r="H1335" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1335" t="inlineStr">
+        <is>
+          <t>17-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1335" t="n">
+        <v>885</v>
+      </c>
+      <c r="K1335" t="n">
+        <v>810</v>
+      </c>
+      <c r="L1335" t="inlineStr">
+        <is>
+          <t>18/06/2024 11:36:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="inlineStr">
+        <is>
+          <t>POLICYBZR.NS</t>
+        </is>
+      </c>
+      <c r="B1336" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C1336" t="n">
+        <v>1400.349975585938</v>
+      </c>
+      <c r="D1336" t="n">
+        <v>1256.099975585938</v>
+      </c>
+      <c r="E1336" t="n">
+        <v>1264.150024414062</v>
+      </c>
+      <c r="F1336" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1336" t="n">
+        <v>1400.349975585938</v>
+      </c>
+      <c r="H1336" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1336" t="inlineStr">
+        <is>
+          <t>17-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1336" t="n">
+        <v>1404.5</v>
+      </c>
+      <c r="K1336" t="n">
+        <v>1378.699951171875</v>
+      </c>
+      <c r="L1336" t="inlineStr">
+        <is>
+          <t>18/06/2024 11:36:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="inlineStr">
+        <is>
+          <t>SURANASOL.NS</t>
+        </is>
+      </c>
+      <c r="B1337" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="C1337" t="n">
+        <v>39.90000152587891</v>
+      </c>
+      <c r="D1337" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E1337" t="n">
+        <v>35.54999923706055</v>
+      </c>
+      <c r="F1337" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1337" t="n">
+        <v>39.90000152587891</v>
+      </c>
+      <c r="H1337" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1337" t="inlineStr">
+        <is>
+          <t>17-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1337" t="n">
+        <v>40</v>
+      </c>
+      <c r="K1337" t="n">
+        <v>39.45000076293945</v>
+      </c>
+      <c r="L1337" t="inlineStr">
+        <is>
+          <t>18/06/2024 11:36:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="inlineStr">
+        <is>
+          <t>CROWN.NS</t>
+        </is>
+      </c>
+      <c r="B1338" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="C1338" t="n">
+        <v>261.6499938964844</v>
+      </c>
+      <c r="D1338" t="n">
+        <v>220.1999969482422</v>
+      </c>
+      <c r="E1338" t="n">
+        <v>232.0500030517578</v>
+      </c>
+      <c r="F1338" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1338" t="n">
+        <v>261.6499938964844</v>
+      </c>
+      <c r="H1338" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1338" t="inlineStr">
+        <is>
+          <t>17-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1338" t="n">
+        <v>262.4800109863281</v>
+      </c>
+      <c r="K1338" t="n">
+        <v>249.9900054931641</v>
+      </c>
+      <c r="L1338" t="inlineStr">
+        <is>
+          <t>18/06/2024 11:36:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B1339" s="2" t="n">
+        <v>44158</v>
+      </c>
+      <c r="C1339" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1339" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1339" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1339" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1339" t="n">
+        <v>12</v>
+      </c>
+      <c r="H1339" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1339" t="inlineStr">
+        <is>
+          <t>17-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1339" t="n">
+        <v>151.5399932861328</v>
+      </c>
+      <c r="K1339" t="n">
+        <v>9.989999771118164</v>
+      </c>
+      <c r="L1339" t="inlineStr">
+        <is>
+          <t>18/06/2024 11:36:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B1340" s="2" t="n">
+        <v>44200</v>
+      </c>
+      <c r="C1340" t="n">
+        <v>12.52000045776367</v>
+      </c>
+      <c r="D1340" t="n">
+        <v>10.82999992370605</v>
+      </c>
+      <c r="E1340" t="n">
+        <v>11.35999965667725</v>
+      </c>
+      <c r="F1340" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1340" t="n">
+        <v>12.52000045776367</v>
+      </c>
+      <c r="H1340" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1340" t="inlineStr">
+        <is>
+          <t>17-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1340" t="n">
+        <v>151.5399932861328</v>
+      </c>
+      <c r="K1340" t="n">
+        <v>9.989999771118164</v>
+      </c>
+      <c r="L1340" t="inlineStr">
+        <is>
+          <t>18/06/2024 11:36:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="inlineStr">
+        <is>
+          <t>BLUECLOUDS.BO</t>
+        </is>
+      </c>
+      <c r="B1341" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="C1341" t="n">
+        <v>10.97000026702881</v>
+      </c>
+      <c r="D1341" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1341" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1341" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1341" t="n">
+        <v>10.97000026702881</v>
+      </c>
+      <c r="H1341" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1341" t="inlineStr">
+        <is>
+          <t>17-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1341" t="n">
+        <v>151.5399932861328</v>
+      </c>
+      <c r="K1341" t="n">
+        <v>9.989999771118164</v>
+      </c>
+      <c r="L1341" t="inlineStr">
+        <is>
+          <t>18/06/2024 11:36:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="inlineStr">
+        <is>
+          <t>M&amp;MFIN.NS</t>
+        </is>
+      </c>
+      <c r="B1342" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C1342" t="n">
+        <v>302.8999938964844</v>
+      </c>
+      <c r="D1342" t="n">
+        <v>282.1000061035156</v>
+      </c>
+      <c r="E1342" t="n">
+        <v>288.8500061035156</v>
+      </c>
+      <c r="F1342" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1342" t="n">
+        <v>302.8999938964844</v>
+      </c>
+      <c r="H1342" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1342" t="inlineStr">
+        <is>
+          <t>17-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1342" t="n">
+        <v>313</v>
+      </c>
+      <c r="K1342" t="n">
+        <v>300</v>
+      </c>
+      <c r="L1342" t="inlineStr">
+        <is>
+          <t>18/06/2024 11:36:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="inlineStr">
+        <is>
+          <t>M&amp;MFIN.NS</t>
+        </is>
+      </c>
+      <c r="B1343" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C1343" t="n">
+        <v>308.5</v>
+      </c>
+      <c r="D1343" t="n">
+        <v>295.75</v>
+      </c>
+      <c r="E1343" t="n">
+        <v>303.4500122070312</v>
+      </c>
+      <c r="F1343" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1343" t="n">
+        <v>308.5</v>
+      </c>
+      <c r="H1343" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="I1343" t="inlineStr">
+        <is>
+          <t>17-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="J1343" t="n">
+        <v>313</v>
+      </c>
+      <c r="K1343" t="n">
+        <v>300</v>
+      </c>
+      <c r="L1343" t="inlineStr">
+        <is>
+          <t>18/06/2024 11:36:33</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
